--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Microsoft\Excel\Pokemon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2471D2-193A-456F-9FD1-F73233B1B757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF13515A-A193-474C-85F8-AA815FE7937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1156">
   <si>
     <t>Leafer</t>
   </si>
@@ -3425,9 +3425,6 @@
     <t>Reckless</t>
   </si>
   <si>
-    <t>Glimmora</t>
-  </si>
-  <si>
     <t>Pigoga+</t>
   </si>
   <si>
@@ -3441,6 +3438,72 @@
   </si>
   <si>
     <t>Poison Heal</t>
+  </si>
+  <si>
+    <t>1. Glimmora</t>
+  </si>
+  <si>
+    <t>2. Roserade</t>
+  </si>
+  <si>
+    <t>3. Zurroaratr-S</t>
+  </si>
+  <si>
+    <t>4. Arbok</t>
+  </si>
+  <si>
+    <t>1. Magron</t>
+  </si>
+  <si>
+    <t>2. Megawatt</t>
+  </si>
+  <si>
+    <t>3. Hast</t>
+  </si>
+  <si>
+    <t>4. Soldrota</t>
+  </si>
+  <si>
+    <t>1. Dragave</t>
+  </si>
+  <si>
+    <t>2. Treewin</t>
+  </si>
+  <si>
+    <t>3. Raptorex</t>
+  </si>
+  <si>
+    <t>4. Pyrator</t>
+  </si>
+  <si>
+    <t>5. Pyrator-S</t>
+  </si>
+  <si>
+    <t>6. Soldrota-E</t>
+  </si>
+  <si>
+    <t>7. Conkeldurr</t>
+  </si>
+  <si>
+    <t>8. Scraftagon</t>
+  </si>
+  <si>
+    <t>Dragave: Spikes/Wave Crash/Summit Strike</t>
+  </si>
+  <si>
+    <t>Magron: Eruption/Fire Blast/Spikes/Stealth Rock/Molten Steelspike/Steel Beam</t>
+  </si>
+  <si>
+    <t>Glimmora: Rocks/Sludge Wave/Toxic/Earth Power/Energy Ball/Power Gem/Spiky Shield/Toxic</t>
+  </si>
+  <si>
+    <t>Roserade: Spikes/Venom Drench/Leech Seed/Toxic/Protect/Magical Leaf/Leaf Storm/Sludge Bomb/Sleep Powder/Synthesis</t>
+  </si>
+  <si>
+    <t>Arbok: Coil/Sucker Punch/Gunk Shot/Magic Fang/Thunder Fang</t>
+  </si>
+  <si>
+    <t>Zurroaratr-S: Nasty Plot/Venom Drench/Dark Pulse/Giga Drain/Silver Wind/Star Storm</t>
   </si>
 </sst>
 </file>
@@ -4186,13 +4249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L217" sqref="L217"/>
+    <sheetView tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
@@ -4202,20 +4265,20 @@
     <col min="9" max="9" width="11" style="6" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" customWidth="1"/>
-    <col min="26" max="28" width="10.85546875" customWidth="1"/>
-    <col min="29" max="31" width="7.7109375" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" customWidth="1"/>
-    <col min="33" max="46" width="7.7109375" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" customWidth="1"/>
+    <col min="26" max="28" width="10.88671875" customWidth="1"/>
+    <col min="29" max="31" width="7.6640625" customWidth="1"/>
+    <col min="32" max="32" width="11.44140625" customWidth="1"/>
+    <col min="33" max="46" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>-1</v>
       </c>
@@ -4333,7 +4396,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -4401,7 +4464,7 @@
       <c r="AQ2" s="18"/>
       <c r="AS2" s="17"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-3</v>
       </c>
@@ -4474,7 +4537,7 @@
       <c r="AQ3" s="17"/>
       <c r="AT3" s="19"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-4</v>
       </c>
@@ -4542,7 +4605,7 @@
       <c r="AM4" s="17"/>
       <c r="AO4" s="18"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-5</v>
       </c>
@@ -4615,7 +4678,7 @@
       <c r="AR5" s="17"/>
       <c r="AT5" s="18"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-6</v>
       </c>
@@ -4682,7 +4745,7 @@
       <c r="AO6" s="18"/>
       <c r="AQ6" s="17"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-7</v>
       </c>
@@ -4749,7 +4812,7 @@
       <c r="AO7" s="17"/>
       <c r="AQ7" s="18"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-8</v>
       </c>
@@ -4820,7 +4883,7 @@
       <c r="AS8" s="18"/>
       <c r="AT8" s="18"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-9</v>
       </c>
@@ -4889,7 +4952,7 @@
       <c r="AQ9" s="19"/>
       <c r="AS9" s="17"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-10</v>
       </c>
@@ -4953,7 +5016,7 @@
       <c r="AQ10" s="17"/>
       <c r="AT10" s="18"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-11</v>
       </c>
@@ -5014,7 +5077,7 @@
       <c r="AQ11" s="18"/>
       <c r="AT11" s="17"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-12</v>
       </c>
@@ -5074,7 +5137,7 @@
       <c r="AP12" s="19"/>
       <c r="AS12" s="18"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-13</v>
       </c>
@@ -5140,7 +5203,7 @@
       <c r="AR13" s="17"/>
       <c r="AT13" s="18"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-14</v>
       </c>
@@ -5197,7 +5260,7 @@
       <c r="AQ14" s="18"/>
       <c r="AT14" s="17"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-15</v>
       </c>
@@ -5252,7 +5315,7 @@
       <c r="AP15" s="18"/>
       <c r="AR15" s="18"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-16</v>
       </c>
@@ -5304,7 +5367,7 @@
       <c r="AQ16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-17</v>
       </c>
@@ -5364,7 +5427,7 @@
       <c r="AP17" s="18"/>
       <c r="AR17" s="18"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -5430,7 +5493,7 @@
       <c r="AR18" s="17"/>
       <c r="AS18" s="18"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-19</v>
       </c>
@@ -5494,7 +5557,7 @@
       <c r="AR19" s="18"/>
       <c r="AT19" s="17"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-20</v>
       </c>
@@ -5555,7 +5618,7 @@
       <c r="AQ20" s="17"/>
       <c r="AS20" s="18"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-21</v>
       </c>
@@ -5608,7 +5671,7 @@
       <c r="AQ21" s="18"/>
       <c r="AR21" s="18"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-22</v>
       </c>
@@ -5657,7 +5720,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-23</v>
       </c>
@@ -5705,7 +5768,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-24</v>
       </c>
@@ -5753,7 +5816,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-25</v>
       </c>
@@ -5801,7 +5864,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-26</v>
       </c>
@@ -5846,7 +5909,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-27</v>
       </c>
@@ -5891,7 +5954,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-28</v>
       </c>
@@ -5936,7 +5999,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-29</v>
       </c>
@@ -6008,7 +6071,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-30</v>
       </c>
@@ -6075,7 +6138,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-31</v>
       </c>
@@ -6142,7 +6205,7 @@
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-32</v>
       </c>
@@ -6215,7 +6278,7 @@
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-33</v>
       </c>
@@ -6297,7 +6360,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-34</v>
       </c>
@@ -6332,14 +6395,14 @@
       <c r="M34" t="s">
         <v>19</v>
       </c>
-      <c r="N34" t="s">
-        <v>511</v>
+      <c r="N34" s="39" t="s">
+        <v>1134</v>
       </c>
       <c r="O34" t="s">
-        <v>1087</v>
+        <v>1138</v>
       </c>
       <c r="P34" t="s">
-        <v>397</v>
+        <v>1142</v>
       </c>
       <c r="T34" t="s">
         <v>208</v>
@@ -6376,7 +6439,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-35</v>
       </c>
@@ -6412,13 +6475,13 @@
         <v>486</v>
       </c>
       <c r="N35" t="s">
-        <v>1090</v>
+        <v>1135</v>
       </c>
       <c r="O35" t="s">
-        <v>483</v>
+        <v>1139</v>
       </c>
       <c r="P35" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="T35" t="s">
         <v>210</v>
@@ -6455,7 +6518,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-36</v>
       </c>
@@ -6491,13 +6554,13 @@
         <v>508</v>
       </c>
       <c r="N36" t="s">
-        <v>803</v>
+        <v>1136</v>
       </c>
       <c r="O36" t="s">
-        <v>1092</v>
+        <v>1140</v>
       </c>
       <c r="P36" t="s">
-        <v>1094</v>
+        <v>1144</v>
       </c>
       <c r="T36" t="s">
         <v>212</v>
@@ -6534,7 +6597,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-37</v>
       </c>
@@ -6570,13 +6633,13 @@
         <v>70</v>
       </c>
       <c r="N37" t="s">
-        <v>1091</v>
+        <v>1137</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>1141</v>
       </c>
       <c r="P37" t="s">
-        <v>434</v>
+        <v>1145</v>
       </c>
       <c r="W37" s="11" t="s">
         <v>176</v>
@@ -6610,7 +6673,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-38</v>
       </c>
@@ -6646,13 +6709,13 @@
         <v>520</v>
       </c>
       <c r="N38" t="s">
-        <v>415</v>
+        <v>1090</v>
       </c>
       <c r="O38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P38" t="s">
-        <v>1131</v>
+        <v>1146</v>
       </c>
       <c r="W38" t="s">
         <v>214</v>
@@ -6686,7 +6749,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-39</v>
       </c>
@@ -6722,13 +6785,13 @@
         <v>523</v>
       </c>
       <c r="N39" t="s">
-        <v>1074</v>
+        <v>1091</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>1129</v>
       </c>
       <c r="P39" t="s">
-        <v>443</v>
+        <v>1147</v>
       </c>
       <c r="W39" t="s">
         <v>215</v>
@@ -6762,7 +6825,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-40</v>
       </c>
@@ -6797,14 +6860,14 @@
       <c r="M40" t="s">
         <v>556</v>
       </c>
-      <c r="N40" s="39" t="s">
-        <v>1129</v>
+      <c r="N40" t="s">
+        <v>1074</v>
       </c>
       <c r="O40" t="s">
-        <v>394</v>
+        <v>1087</v>
       </c>
       <c r="P40" t="s">
-        <v>1098</v>
+        <v>1148</v>
       </c>
       <c r="W40" s="10" t="s">
         <v>216</v>
@@ -6838,7 +6901,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-41</v>
       </c>
@@ -6874,10 +6937,10 @@
         <v>1095</v>
       </c>
       <c r="O41" t="s">
-        <v>1130</v>
+        <v>1093</v>
       </c>
       <c r="P41" t="s">
-        <v>472</v>
+        <v>1149</v>
       </c>
       <c r="W41" t="s">
         <v>217</v>
@@ -6911,7 +6974,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-42</v>
       </c>
@@ -6946,8 +7009,11 @@
       <c r="M42" t="s">
         <v>1084</v>
       </c>
+      <c r="N42" t="s">
+        <v>1152</v>
+      </c>
       <c r="P42" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="W42" s="10" t="s">
         <v>218</v>
@@ -6981,7 +7047,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-43</v>
       </c>
@@ -7016,8 +7082,14 @@
       <c r="M43" t="s">
         <v>1085</v>
       </c>
+      <c r="N43" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1151</v>
+      </c>
       <c r="P43" t="s">
-        <v>518</v>
+        <v>1097</v>
       </c>
       <c r="W43" t="s">
         <v>219</v>
@@ -7051,7 +7123,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-44</v>
       </c>
@@ -7086,8 +7158,11 @@
       <c r="M44" t="s">
         <v>1086</v>
       </c>
+      <c r="N44" t="s">
+        <v>1155</v>
+      </c>
       <c r="P44" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="W44" s="10" t="s">
         <v>220</v>
@@ -7121,7 +7196,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-45</v>
       </c>
@@ -7153,8 +7228,11 @@
       <c r="J45">
         <v>505</v>
       </c>
+      <c r="N45" t="s">
+        <v>1154</v>
+      </c>
       <c r="P45" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="W45" s="10" t="s">
         <v>221</v>
@@ -7188,7 +7266,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-46</v>
       </c>
@@ -7221,7 +7299,7 @@
         <v>330</v>
       </c>
       <c r="P46" t="s">
-        <v>538</v>
+        <v>1096</v>
       </c>
       <c r="W46" t="s">
         <v>222</v>
@@ -7255,7 +7333,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-47</v>
       </c>
@@ -7288,7 +7366,7 @@
         <v>492</v>
       </c>
       <c r="P47" t="s">
-        <v>561</v>
+        <v>443</v>
       </c>
       <c r="W47" t="s">
         <v>223</v>
@@ -7322,7 +7400,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-48</v>
       </c>
@@ -7355,7 +7433,7 @@
         <v>315</v>
       </c>
       <c r="P48" t="s">
-        <v>807</v>
+        <v>1131</v>
       </c>
       <c r="W48" s="10" t="s">
         <v>224</v>
@@ -7389,7 +7467,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-49</v>
       </c>
@@ -7453,7 +7531,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-50</v>
       </c>
@@ -7485,6 +7563,9 @@
       <c r="J50">
         <v>545</v>
       </c>
+      <c r="P50" t="s">
+        <v>1150</v>
+      </c>
       <c r="W50" s="10" t="s">
         <v>226</v>
       </c>
@@ -7517,7 +7598,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-51</v>
       </c>
@@ -7581,7 +7662,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-52</v>
       </c>
@@ -7645,7 +7726,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-53</v>
       </c>
@@ -7709,7 +7790,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-54</v>
       </c>
@@ -7797,7 +7878,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-55</v>
       </c>
@@ -7885,7 +7966,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-56</v>
       </c>
@@ -7973,7 +8054,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-57</v>
       </c>
@@ -8064,7 +8145,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-58</v>
       </c>
@@ -8152,7 +8233,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-59</v>
       </c>
@@ -8240,7 +8321,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-60</v>
       </c>
@@ -8331,7 +8412,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-61</v>
       </c>
@@ -8419,7 +8500,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-62</v>
       </c>
@@ -8507,7 +8588,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-63</v>
       </c>
@@ -8595,7 +8676,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-64</v>
       </c>
@@ -8683,7 +8764,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-65</v>
       </c>
@@ -8771,7 +8852,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-66</v>
       </c>
@@ -8859,7 +8940,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-67</v>
       </c>
@@ -8947,7 +9028,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-68</v>
       </c>
@@ -9035,7 +9116,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-69</v>
       </c>
@@ -9123,7 +9204,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-70</v>
       </c>
@@ -9211,7 +9292,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-71</v>
       </c>
@@ -9299,7 +9380,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-72</v>
       </c>
@@ -9387,7 +9468,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-73</v>
       </c>
@@ -9475,7 +9556,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-74</v>
       </c>
@@ -9563,7 +9644,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-75</v>
       </c>
@@ -9658,7 +9739,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-76</v>
       </c>
@@ -9722,7 +9803,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-77</v>
       </c>
@@ -9786,7 +9867,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-78</v>
       </c>
@@ -9850,7 +9931,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-79</v>
       </c>
@@ -9914,7 +9995,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-80</v>
       </c>
@@ -9978,7 +10059,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-81</v>
       </c>
@@ -10042,7 +10123,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-82</v>
       </c>
@@ -10106,7 +10187,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>-83</v>
       </c>
@@ -10170,7 +10251,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-84</v>
       </c>
@@ -10234,7 +10315,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>-85</v>
       </c>
@@ -10301,7 +10382,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-86</v>
       </c>
@@ -10365,7 +10446,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>-87</v>
       </c>
@@ -10429,7 +10510,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>-88</v>
       </c>
@@ -10493,7 +10574,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>-89</v>
       </c>
@@ -10557,7 +10638,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>-90</v>
       </c>
@@ -10621,7 +10702,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>-91</v>
       </c>
@@ -10685,7 +10766,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-92</v>
       </c>
@@ -10749,7 +10830,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-93</v>
       </c>
@@ -10813,7 +10894,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>-94</v>
       </c>
@@ -10877,7 +10958,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>-95</v>
       </c>
@@ -10941,7 +11022,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>-96</v>
       </c>
@@ -11005,7 +11086,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>-97</v>
       </c>
@@ -11069,7 +11150,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>-98</v>
       </c>
@@ -11133,7 +11214,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-99</v>
       </c>
@@ -11197,7 +11278,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-100</v>
       </c>
@@ -11261,7 +11342,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>-101</v>
       </c>
@@ -11325,7 +11406,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>-102</v>
       </c>
@@ -11389,7 +11470,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-103</v>
       </c>
@@ -11456,7 +11537,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-104</v>
       </c>
@@ -11520,7 +11601,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>-105</v>
       </c>
@@ -11584,7 +11665,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-106</v>
       </c>
@@ -11648,7 +11729,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>-107</v>
       </c>
@@ -11712,7 +11793,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>-108</v>
       </c>
@@ -11776,7 +11857,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>-109</v>
       </c>
@@ -11840,7 +11921,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>-110</v>
       </c>
@@ -11904,7 +11985,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>-111</v>
       </c>
@@ -11968,7 +12049,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>-112</v>
       </c>
@@ -12032,7 +12113,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>-113</v>
       </c>
@@ -12096,7 +12177,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>-114</v>
       </c>
@@ -12160,7 +12241,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>-115</v>
       </c>
@@ -12224,7 +12305,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>-116</v>
       </c>
@@ -12288,7 +12369,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>-117</v>
       </c>
@@ -12352,7 +12433,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>-118</v>
       </c>
@@ -12416,7 +12497,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>-119</v>
       </c>
@@ -12480,7 +12561,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>-120</v>
       </c>
@@ -12544,7 +12625,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>-121</v>
       </c>
@@ -12608,7 +12689,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>-122</v>
       </c>
@@ -12672,7 +12753,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>-123</v>
       </c>
@@ -12736,7 +12817,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>-124</v>
       </c>
@@ -12800,7 +12881,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>-125</v>
       </c>
@@ -12864,7 +12945,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>-126</v>
       </c>
@@ -12928,7 +13009,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>-127</v>
       </c>
@@ -12992,7 +13073,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>-128</v>
       </c>
@@ -13056,7 +13137,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>-129</v>
       </c>
@@ -13120,7 +13201,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>-130</v>
       </c>
@@ -13184,7 +13265,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>-131</v>
       </c>
@@ -13248,7 +13329,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>-132</v>
       </c>
@@ -13312,7 +13393,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>-133</v>
       </c>
@@ -13376,7 +13457,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>-134</v>
       </c>
@@ -13440,7 +13521,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>-135</v>
       </c>
@@ -13504,7 +13585,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>-136</v>
       </c>
@@ -13568,7 +13649,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>-137</v>
       </c>
@@ -13632,7 +13713,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>-138</v>
       </c>
@@ -13699,7 +13780,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>-139</v>
       </c>
@@ -13763,7 +13844,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>-140</v>
       </c>
@@ -13827,7 +13908,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>-141</v>
       </c>
@@ -13898,7 +13979,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>-142</v>
       </c>
@@ -13972,7 +14053,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>-143</v>
       </c>
@@ -14043,7 +14124,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>-144</v>
       </c>
@@ -14123,7 +14204,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>585</v>
       </c>
@@ -14193,7 +14274,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -14288,7 +14369,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2</v>
       </c>
@@ -14383,7 +14464,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3</v>
       </c>
@@ -14475,7 +14556,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4</v>
       </c>
@@ -14568,7 +14649,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -14661,7 +14742,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -14751,7 +14832,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7</v>
       </c>
@@ -14849,7 +14930,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>8</v>
       </c>
@@ -14944,7 +15025,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9</v>
       </c>
@@ -15036,7 +15117,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10</v>
       </c>
@@ -15131,7 +15212,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11</v>
       </c>
@@ -15226,7 +15307,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>12</v>
       </c>
@@ -15318,7 +15399,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>13</v>
       </c>
@@ -15411,7 +15492,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -15504,7 +15585,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15</v>
       </c>
@@ -15596,7 +15677,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>16</v>
       </c>
@@ -15691,7 +15772,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>17</v>
       </c>
@@ -15786,7 +15867,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>18</v>
       </c>
@@ -15881,7 +15962,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>19</v>
       </c>
@@ -15974,7 +16055,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>20</v>
       </c>
@@ -16067,7 +16148,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>21</v>
       </c>
@@ -16157,7 +16238,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>22</v>
       </c>
@@ -16250,7 +16331,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>23</v>
       </c>
@@ -16343,7 +16424,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>24</v>
       </c>
@@ -16376,7 +16457,7 @@
         <v>505</v>
       </c>
       <c r="K169" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L169" t="s">
         <v>654</v>
@@ -16433,7 +16514,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>25</v>
       </c>
@@ -16526,7 +16607,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>26</v>
       </c>
@@ -16619,7 +16700,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>27</v>
       </c>
@@ -16709,7 +16790,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>28</v>
       </c>
@@ -16796,7 +16877,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>29</v>
       </c>
@@ -16888,7 +16969,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>30</v>
       </c>
@@ -16980,7 +17061,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>31</v>
       </c>
@@ -17069,7 +17150,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>32</v>
       </c>
@@ -17159,7 +17240,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>33</v>
       </c>
@@ -17249,7 +17330,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>34</v>
       </c>
@@ -17336,7 +17417,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>35</v>
       </c>
@@ -17426,7 +17507,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>36</v>
       </c>
@@ -17516,7 +17597,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>37</v>
       </c>
@@ -17603,7 +17684,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>38</v>
       </c>
@@ -17692,7 +17773,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>39</v>
       </c>
@@ -17787,7 +17868,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>40</v>
       </c>
@@ -17879,7 +17960,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>41</v>
       </c>
@@ -17969,7 +18050,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>42</v>
       </c>
@@ -18059,7 +18140,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>43</v>
       </c>
@@ -18146,7 +18227,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>44</v>
       </c>
@@ -18236,7 +18317,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>45</v>
       </c>
@@ -18326,7 +18407,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>46</v>
       </c>
@@ -18407,7 +18488,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>47</v>
       </c>
@@ -18488,7 +18569,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>48</v>
       </c>
@@ -18574,7 +18655,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>49</v>
       </c>
@@ -18666,7 +18747,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>50</v>
       </c>
@@ -18755,7 +18836,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>51</v>
       </c>
@@ -18847,7 +18928,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>52</v>
       </c>
@@ -18937,7 +19018,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>53</v>
       </c>
@@ -19027,7 +19108,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>54</v>
       </c>
@@ -19114,7 +19195,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>55</v>
       </c>
@@ -19206,7 +19287,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>56</v>
       </c>
@@ -19295,7 +19376,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>57</v>
       </c>
@@ -19384,7 +19465,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>58</v>
       </c>
@@ -19470,7 +19551,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>59</v>
       </c>
@@ -19559,7 +19640,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>60</v>
       </c>
@@ -19645,7 +19726,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>61</v>
       </c>
@@ -19731,7 +19812,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>62</v>
       </c>
@@ -19820,7 +19901,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>63</v>
       </c>
@@ -19903,7 +19984,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>64</v>
       </c>
@@ -19987,7 +20068,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>65</v>
       </c>
@@ -20068,7 +20149,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>66</v>
       </c>
@@ -20154,7 +20235,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>67</v>
       </c>
@@ -20237,7 +20318,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>68</v>
       </c>
@@ -20323,7 +20404,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>69</v>
       </c>
@@ -20409,7 +20490,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>70</v>
       </c>
@@ -20492,7 +20573,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>71</v>
       </c>
@@ -20578,7 +20659,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>72</v>
       </c>
@@ -20661,7 +20742,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>73</v>
       </c>
@@ -20700,7 +20781,7 @@
         <v>682</v>
       </c>
       <c r="M218" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="N218" s="17" t="s">
         <v>756</v>
@@ -20750,7 +20831,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>74</v>
       </c>
@@ -20789,7 +20870,7 @@
         <v>682</v>
       </c>
       <c r="M219" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="N219" s="10" t="s">
         <v>696</v>
@@ -20836,7 +20917,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>75</v>
       </c>
@@ -20922,7 +21003,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>76</v>
       </c>
@@ -21008,7 +21089,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>77</v>
       </c>
@@ -21091,7 +21172,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>78</v>
       </c>
@@ -21180,7 +21261,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>79</v>
       </c>
@@ -21263,7 +21344,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>80</v>
       </c>
@@ -21347,7 +21428,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>81</v>
       </c>
@@ -21428,7 +21509,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>82</v>
       </c>
@@ -21511,7 +21592,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>83</v>
       </c>
@@ -21597,7 +21678,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>84</v>
       </c>
@@ -21695,7 +21776,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>85</v>
       </c>
@@ -21788,7 +21869,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>86</v>
       </c>
@@ -21881,7 +21962,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>87</v>
       </c>
@@ -21973,7 +22054,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>88</v>
       </c>
@@ -22068,7 +22149,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>89</v>
       </c>
@@ -22160,7 +22241,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>90</v>
       </c>
@@ -22255,7 +22336,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>91</v>
       </c>
@@ -22347,7 +22428,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>92</v>
       </c>
@@ -22442,7 +22523,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>93</v>
       </c>
@@ -22534,7 +22615,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>94</v>
       </c>
@@ -22627,7 +22708,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>95</v>
       </c>
@@ -22720,7 +22801,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>96</v>
       </c>
@@ -22810,7 +22891,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>97</v>
       </c>
@@ -22899,7 +22980,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>98</v>
       </c>
@@ -22990,7 +23071,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>99</v>
       </c>
@@ -23080,7 +23161,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>100</v>
       </c>
@@ -23167,7 +23248,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>101</v>
       </c>
@@ -23259,7 +23340,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>102</v>
       </c>
@@ -23351,7 +23432,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>103</v>
       </c>
@@ -23440,7 +23521,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>104</v>
       </c>
@@ -23535,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>105</v>
       </c>
@@ -23627,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>106</v>
       </c>
@@ -23719,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>107</v>
       </c>
@@ -23808,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>108</v>
       </c>
@@ -23889,7 +23970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>109</v>
       </c>
@@ -23976,7 +24057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>110</v>
       </c>
@@ -24066,7 +24147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>111</v>
       </c>
@@ -24158,7 +24239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>112</v>
       </c>
@@ -24250,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>113</v>
       </c>
@@ -24339,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>114</v>
       </c>
@@ -24429,7 +24510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>115</v>
       </c>
@@ -24519,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>116</v>
       </c>
@@ -24606,7 +24687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>117</v>
       </c>
@@ -24696,7 +24777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>118</v>
       </c>
@@ -24786,7 +24867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>119</v>
       </c>
@@ -24876,7 +24957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>120</v>
       </c>
@@ -24969,7 +25050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>121</v>
       </c>
@@ -25062,7 +25143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>122</v>
       </c>
@@ -25152,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>123</v>
       </c>
@@ -25242,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>124</v>
       </c>
@@ -25332,7 +25413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>125</v>
       </c>
@@ -25394,7 +25475,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>126</v>
       </c>
@@ -25459,7 +25540,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>127</v>
       </c>
@@ -25512,7 +25593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>128</v>
       </c>
@@ -25562,7 +25643,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>129</v>
       </c>
@@ -25615,7 +25696,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>130</v>
       </c>
@@ -25665,7 +25746,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>131</v>
       </c>
@@ -25724,7 +25805,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>132</v>
       </c>
@@ -25786,7 +25867,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>133</v>
       </c>
@@ -25845,7 +25926,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>134</v>
       </c>
@@ -25907,7 +25988,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>135</v>
       </c>
@@ -25966,7 +26047,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>136</v>
       </c>
@@ -26025,7 +26106,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>137</v>
       </c>
@@ -26087,7 +26168,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>138</v>
       </c>
@@ -26146,7 +26227,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>139</v>
       </c>
@@ -26205,7 +26286,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>140</v>
       </c>
@@ -26261,7 +26342,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>141</v>
       </c>
@@ -26320,7 +26401,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>142</v>
       </c>
@@ -26376,7 +26457,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>143</v>
       </c>
@@ -26435,7 +26516,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>144</v>
       </c>
@@ -26494,7 +26575,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>145</v>
       </c>
@@ -26550,7 +26631,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>146</v>
       </c>
@@ -26609,7 +26690,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>147</v>
       </c>
@@ -26665,7 +26746,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>148</v>
       </c>
@@ -26724,7 +26805,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>149</v>
       </c>
@@ -26780,7 +26861,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>150</v>
       </c>
@@ -26836,7 +26917,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>151</v>
       </c>
@@ -26900,7 +26981,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>152</v>
       </c>
@@ -26961,7 +27042,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>153</v>
       </c>
@@ -27025,7 +27106,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>154</v>
       </c>
@@ -27089,7 +27170,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>155</v>
       </c>
@@ -27150,7 +27231,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>156</v>
       </c>
@@ -27214,7 +27295,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>157</v>
       </c>
@@ -27275,7 +27356,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>158</v>
       </c>
@@ -27337,7 +27418,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>159</v>
       </c>
@@ -27396,7 +27477,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>160</v>
       </c>
@@ -27455,7 +27536,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>161</v>
       </c>
@@ -27514,7 +27595,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>162</v>
       </c>
@@ -27573,7 +27654,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>163</v>
       </c>
@@ -27632,7 +27713,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>164</v>
       </c>
@@ -27691,7 +27772,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>165</v>
       </c>
@@ -27747,7 +27828,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>166</v>
       </c>
@@ -27808,7 +27889,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>167</v>
       </c>
@@ -27869,7 +27950,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>168</v>
       </c>
@@ -27927,7 +28008,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>169</v>
       </c>
@@ -27986,7 +28067,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>170</v>
       </c>
@@ -28042,7 +28123,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>171</v>
       </c>
@@ -28101,7 +28182,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>172</v>
       </c>
@@ -28160,7 +28241,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>173</v>
       </c>
@@ -28216,7 +28297,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>174</v>
       </c>
@@ -28275,7 +28356,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>175</v>
       </c>
@@ -28334,7 +28415,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>176</v>
       </c>
@@ -28390,7 +28471,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>177</v>
       </c>
@@ -28449,7 +28530,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>178</v>
       </c>
@@ -28505,7 +28586,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>179</v>
       </c>
@@ -28564,7 +28645,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>180</v>
       </c>
@@ -28620,7 +28701,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>181</v>
       </c>
@@ -28676,7 +28757,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>182</v>
       </c>
@@ -28735,7 +28816,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>183</v>
       </c>
@@ -28794,7 +28875,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>184</v>
       </c>
@@ -28850,7 +28931,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>185</v>
       </c>
@@ -28906,7 +28987,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>186</v>
       </c>
@@ -28962,7 +29043,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>187</v>
       </c>
@@ -29021,7 +29102,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>188</v>
       </c>
@@ -29080,7 +29161,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>189</v>
       </c>
@@ -29133,7 +29214,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>190</v>
       </c>
@@ -29183,7 +29264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>191</v>
       </c>
@@ -29233,7 +29314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>192</v>
       </c>
@@ -29280,7 +29361,7 @@
         <v>Galactasolder</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>193</v>
       </c>
@@ -29332,7 +29413,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>194</v>
       </c>
@@ -29381,7 +29462,7 @@
         <v>Cosmocrash</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>195</v>
       </c>
@@ -29431,7 +29512,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>196</v>
       </c>
@@ -29478,7 +29559,7 @@
         <v>Stellarock</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>197</v>
       </c>
@@ -29530,7 +29611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>198</v>
       </c>
@@ -29579,7 +29660,7 @@
         <v>Hast-E</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>199</v>
       </c>
@@ -29629,7 +29710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>200</v>
       </c>
@@ -29679,7 +29760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>201</v>
       </c>
@@ -29726,7 +29807,7 @@
         <v>Soldrota-E</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>202</v>
       </c>
@@ -29776,7 +29857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>203</v>
       </c>
@@ -29826,7 +29907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>204</v>
       </c>
@@ -29873,7 +29954,7 @@
         <v>Blastflames-E</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>205</v>
       </c>
@@ -29923,7 +30004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>206</v>
       </c>
@@ -29973,7 +30054,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>207</v>
       </c>
@@ -30020,7 +30101,7 @@
         <v>Blaster-E</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>208</v>
       </c>
@@ -30070,7 +30151,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>209</v>
       </c>
@@ -30120,7 +30201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>210</v>
       </c>
@@ -30170,7 +30251,7 @@
         <v>Gyarados-E</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>211</v>
       </c>
@@ -30217,7 +30298,7 @@
         <v>Shockfang</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>212</v>
       </c>
@@ -30267,7 +30348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>213</v>
       </c>
@@ -30314,7 +30395,7 @@
         <v>Nightrex</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>214</v>
       </c>
@@ -30364,7 +30445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>215</v>
       </c>
@@ -30411,7 +30492,7 @@
         <v>Durfish-S</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>216</v>
       </c>
@@ -30461,7 +30542,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>217</v>
       </c>
@@ -30507,7 +30588,7 @@
         <v>Wormite-S</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>218</v>
       </c>
@@ -30556,7 +30637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>219</v>
       </c>
@@ -30605,7 +30686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>220</v>
       </c>
@@ -30651,7 +30732,7 @@
         <v>Cluuz-S</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>221</v>
       </c>
@@ -30700,7 +30781,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>222</v>
       </c>
@@ -30749,7 +30830,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>223</v>
       </c>
@@ -30801,7 +30882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>224</v>
       </c>
@@ -30853,7 +30934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>225</v>
       </c>
@@ -30902,7 +30983,7 @@
         <v>Pyrator-S</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>226</v>
       </c>
@@ -30952,7 +31033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>227</v>
       </c>
@@ -30999,7 +31080,7 @@
         <v>Arbok-S</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>228</v>
       </c>
@@ -31046,7 +31127,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>229</v>
       </c>
@@ -31093,7 +31174,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>230</v>
       </c>
@@ -31140,7 +31221,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>231</v>
       </c>
@@ -31187,7 +31268,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>232</v>
       </c>
@@ -31234,7 +31315,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>233</v>
       </c>
@@ -31281,7 +31362,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>234</v>
       </c>
@@ -31328,7 +31409,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>235</v>
       </c>
@@ -31375,7 +31456,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>236</v>
       </c>
@@ -31422,7 +31503,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>237</v>
       </c>
@@ -31465,7 +31546,7 @@
         <v>Kissyfishy-D</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>238</v>
       </c>
@@ -31507,7 +31588,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>239</v>
       </c>
@@ -31549,7 +31630,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>240</v>
       </c>
@@ -31591,15 +31672,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B622">
         <f>MAX(B385:B620)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:N20">
-    <sortCondition descending="1" ref="L1:L20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P34:P48">
+    <sortCondition ref="P48"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="M1:M21">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF13515A-A193-474C-85F8-AA815FE7937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2EEEDB-F0DB-49AC-BA99-05A2AB30E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="1161">
   <si>
     <t>Leafer</t>
   </si>
@@ -3504,6 +3504,21 @@
   </si>
   <si>
     <t>Zurroaratr-S: Nasty Plot/Venom Drench/Dark Pulse/Giga Drain/Silver Wind/Star Storm</t>
+  </si>
+  <si>
+    <t>Defiant/Swift Swim</t>
+  </si>
+  <si>
+    <t>Corrosion</t>
+  </si>
+  <si>
+    <t>Prankster?</t>
+  </si>
+  <si>
+    <t>Mold Breaker</t>
+  </si>
+  <si>
+    <t>Full Force(Unburden for Attack)</t>
   </si>
 </sst>
 </file>
@@ -4249,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M329" sqref="M329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14594,7 +14609,9 @@
       <c r="L149" t="s">
         <v>871</v>
       </c>
-      <c r="M149" s="20"/>
+      <c r="M149" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="N149" s="17" t="s">
         <v>732</v>
       </c>
@@ -14687,7 +14704,9 @@
       <c r="L150" t="s">
         <v>871</v>
       </c>
-      <c r="M150" s="20"/>
+      <c r="M150" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="N150" s="17" t="s">
         <v>733</v>
       </c>
@@ -14780,7 +14799,9 @@
       <c r="L151" t="s">
         <v>871</v>
       </c>
-      <c r="M151" s="20"/>
+      <c r="M151" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="N151" s="17" t="s">
         <v>741</v>
       </c>
@@ -14871,7 +14892,7 @@
         <v>677</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>166</v>
+        <v>1156</v>
       </c>
       <c r="N152" s="17" t="s">
         <v>747</v>
@@ -14969,7 +14990,7 @@
         <v>677</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>166</v>
+        <v>1156</v>
       </c>
       <c r="N153" s="17" t="s">
         <v>734</v>
@@ -15064,7 +15085,7 @@
         <v>677</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>166</v>
+        <v>1156</v>
       </c>
       <c r="N154" s="17" t="s">
         <v>735</v>
@@ -15437,7 +15458,9 @@
       <c r="L158" t="s">
         <v>597</v>
       </c>
-      <c r="M158" s="20"/>
+      <c r="M158" s="20" t="s">
+        <v>658</v>
+      </c>
       <c r="N158" s="10" t="s">
         <v>687</v>
       </c>
@@ -15530,7 +15553,9 @@
       <c r="L159" t="s">
         <v>597</v>
       </c>
-      <c r="M159" s="20"/>
+      <c r="M159" s="20" t="s">
+        <v>658</v>
+      </c>
       <c r="N159" s="17" t="s">
         <v>737</v>
       </c>
@@ -16916,7 +16941,7 @@
         <v>605</v>
       </c>
       <c r="M174" s="20" t="s">
-        <v>1112</v>
+        <v>1157</v>
       </c>
       <c r="N174" s="17" t="s">
         <v>765</v>
@@ -17008,7 +17033,7 @@
         <v>605</v>
       </c>
       <c r="M175" s="20" t="s">
-        <v>1112</v>
+        <v>1157</v>
       </c>
       <c r="N175" s="17" t="s">
         <v>708</v>
@@ -17100,7 +17125,7 @@
         <v>605</v>
       </c>
       <c r="M176" s="20" t="s">
-        <v>1112</v>
+        <v>1157</v>
       </c>
       <c r="N176" s="17" t="s">
         <v>748</v>
@@ -26265,7 +26290,9 @@
       <c r="L284" t="s">
         <v>605</v>
       </c>
-      <c r="M284" s="20"/>
+      <c r="M284" s="20" t="s">
+        <v>660</v>
+      </c>
       <c r="O284">
         <v>139</v>
       </c>
@@ -26324,7 +26351,9 @@
       <c r="L285" t="s">
         <v>605</v>
       </c>
-      <c r="M285" s="20"/>
+      <c r="M285" s="20" t="s">
+        <v>660</v>
+      </c>
       <c r="O285">
         <v>140</v>
       </c>
@@ -27081,7 +27110,7 @@
         <v>663</v>
       </c>
       <c r="M298" s="20" t="s">
-        <v>1112</v>
+        <v>1158</v>
       </c>
       <c r="O298">
         <v>153</v>
@@ -27145,7 +27174,7 @@
         <v>663</v>
       </c>
       <c r="M299" s="20" t="s">
-        <v>1112</v>
+        <v>1158</v>
       </c>
       <c r="O299">
         <v>154</v>
@@ -27209,7 +27238,7 @@
         <v>663</v>
       </c>
       <c r="M300" s="20" t="s">
-        <v>1112</v>
+        <v>1158</v>
       </c>
       <c r="O300">
         <v>155</v>
@@ -27270,7 +27299,7 @@
         <v>610</v>
       </c>
       <c r="M301" s="20" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="O301">
         <v>156</v>
@@ -27394,7 +27423,9 @@
       <c r="L303" t="s">
         <v>604</v>
       </c>
-      <c r="M303" s="20"/>
+      <c r="M303" s="20" t="s">
+        <v>1127</v>
+      </c>
       <c r="O303">
         <v>158</v>
       </c>
@@ -27456,7 +27487,9 @@
       <c r="L304" t="s">
         <v>604</v>
       </c>
-      <c r="M304" s="20"/>
+      <c r="M304" s="20" t="s">
+        <v>1127</v>
+      </c>
       <c r="O304">
         <v>159</v>
       </c>
@@ -28046,7 +28079,9 @@
       <c r="L314" t="s">
         <v>653</v>
       </c>
-      <c r="M314" s="20"/>
+      <c r="M314" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="O314">
         <v>169</v>
       </c>
@@ -28105,7 +28140,9 @@
       <c r="L315" t="s">
         <v>653</v>
       </c>
-      <c r="M315" s="20"/>
+      <c r="M315" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="O315">
         <v>170</v>
       </c>
@@ -28161,7 +28198,9 @@
       <c r="L316" t="s">
         <v>648</v>
       </c>
-      <c r="M316" s="20"/>
+      <c r="M316" s="20" t="s">
+        <v>1107</v>
+      </c>
       <c r="O316">
         <v>171</v>
       </c>
@@ -28220,7 +28259,9 @@
       <c r="L317" t="s">
         <v>648</v>
       </c>
-      <c r="M317" s="20"/>
+      <c r="M317" s="20" t="s">
+        <v>1107</v>
+      </c>
       <c r="O317">
         <v>172</v>
       </c>
@@ -28279,7 +28320,9 @@
       <c r="L318" t="s">
         <v>601</v>
       </c>
-      <c r="M318" s="20"/>
+      <c r="M318" s="20" t="s">
+        <v>1107</v>
+      </c>
       <c r="O318">
         <v>173</v>
       </c>
@@ -28739,7 +28782,9 @@
       <c r="L326" t="s">
         <v>663</v>
       </c>
-      <c r="M326" s="20"/>
+      <c r="M326" s="20" t="s">
+        <v>1160</v>
+      </c>
       <c r="O326">
         <v>181</v>
       </c>
@@ -28795,7 +28840,9 @@
       <c r="L327" t="s">
         <v>663</v>
       </c>
-      <c r="M327" s="20"/>
+      <c r="M327" s="20" t="s">
+        <v>1160</v>
+      </c>
       <c r="O327">
         <v>182</v>
       </c>
@@ -28854,7 +28901,9 @@
       <c r="L328" t="s">
         <v>663</v>
       </c>
-      <c r="M328" s="20"/>
+      <c r="M328" s="20" t="s">
+        <v>1160</v>
+      </c>
       <c r="O328">
         <v>183</v>
       </c>
@@ -29252,7 +29301,9 @@
       <c r="L335" t="s">
         <v>610</v>
       </c>
-      <c r="M335" s="20"/>
+      <c r="M335" s="20" t="s">
+        <v>1107</v>
+      </c>
       <c r="O335">
         <v>190</v>
       </c>
@@ -29302,7 +29353,9 @@
       <c r="L336" t="s">
         <v>683</v>
       </c>
-      <c r="M336" s="20"/>
+      <c r="M336" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="O336">
         <v>191</v>
       </c>
@@ -29352,7 +29405,9 @@
       <c r="L337" t="s">
         <v>683</v>
       </c>
-      <c r="M337" s="20"/>
+      <c r="M337" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="O337">
         <v>192</v>
       </c>
@@ -29500,7 +29555,9 @@
       <c r="L340" t="s">
         <v>650</v>
       </c>
-      <c r="M340" s="20"/>
+      <c r="M340" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="O340">
         <v>195</v>
       </c>
@@ -29550,7 +29607,9 @@
       <c r="L341" t="s">
         <v>650</v>
       </c>
-      <c r="M341" s="20"/>
+      <c r="M341" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="O341">
         <v>196</v>
       </c>
@@ -29698,7 +29757,9 @@
       <c r="L344" t="s">
         <v>671</v>
       </c>
-      <c r="M344" s="20"/>
+      <c r="M344" s="20" t="s">
+        <v>1160</v>
+      </c>
       <c r="O344">
         <v>199</v>
       </c>
@@ -29748,7 +29809,9 @@
       <c r="L345" t="s">
         <v>671</v>
       </c>
-      <c r="M345" s="20"/>
+      <c r="M345" s="20" t="s">
+        <v>1160</v>
+      </c>
       <c r="O345">
         <v>200</v>
       </c>
@@ -29798,7 +29861,9 @@
       <c r="L346" t="s">
         <v>671</v>
       </c>
-      <c r="M346" s="20"/>
+      <c r="M346" s="20" t="s">
+        <v>1160</v>
+      </c>
       <c r="O346">
         <v>201</v>
       </c>
@@ -31021,7 +31086,9 @@
       <c r="L371" t="s">
         <v>674</v>
       </c>
-      <c r="M371" s="20"/>
+      <c r="M371" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="O371">
         <v>226</v>
       </c>
@@ -31071,7 +31138,9 @@
       <c r="L372" t="s">
         <v>674</v>
       </c>
-      <c r="M372" s="20"/>
+      <c r="M372" s="20" t="s">
+        <v>1159</v>
+      </c>
       <c r="O372">
         <v>227</v>
       </c>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2EEEDB-F0DB-49AC-BA99-05A2AB30E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56023BE4-28A6-41CC-B784-7CF892FE31BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1164">
   <si>
     <t>Leafer</t>
   </si>
@@ -3519,6 +3519,15 @@
   </si>
   <si>
     <t>Full Force(Unburden for Attack)</t>
+  </si>
+  <si>
+    <t>Glimmet</t>
+  </si>
+  <si>
+    <t>Glimmora</t>
+  </si>
+  <si>
+    <t>Scrappy</t>
   </si>
 </sst>
 </file>
@@ -3950,10 +3959,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{548F567D-726D-4341-95E0-502216E748B2}" name="Table4" displayName="Table4" ref="AE29:AH269" totalsRowShown="0">
-  <autoFilter ref="AE29:AH269" xr:uid="{548F567D-726D-4341-95E0-502216E748B2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE30:AH269">
-    <sortCondition descending="1" ref="AG29:AG269"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{548F567D-726D-4341-95E0-502216E748B2}" name="Table4" displayName="Table4" ref="AE29:AH271" totalsRowShown="0">
+  <autoFilter ref="AE29:AH271" xr:uid="{548F567D-726D-4341-95E0-502216E748B2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE30:AH271">
+    <sortCondition descending="1" ref="AG29:AG271"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{71084C9A-5E75-4048-82AA-70A2D1CBD776}" name="Num"/>
@@ -4264,13 +4273,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M329" sqref="M329"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
@@ -4280,20 +4289,20 @@
     <col min="9" max="9" width="11" style="6" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" customWidth="1"/>
-    <col min="26" max="28" width="10.88671875" customWidth="1"/>
-    <col min="29" max="31" width="7.6640625" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" customWidth="1"/>
-    <col min="33" max="46" width="7.6640625" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="28" width="10.85546875" customWidth="1"/>
+    <col min="29" max="31" width="7.7109375" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" customWidth="1"/>
+    <col min="33" max="46" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-1</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -4479,7 +4488,7 @@
       <c r="AQ2" s="18"/>
       <c r="AS2" s="17"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-3</v>
       </c>
@@ -4552,7 +4561,7 @@
       <c r="AQ3" s="17"/>
       <c r="AT3" s="19"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4</v>
       </c>
@@ -4620,7 +4629,7 @@
       <c r="AM4" s="17"/>
       <c r="AO4" s="18"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-5</v>
       </c>
@@ -4693,7 +4702,7 @@
       <c r="AR5" s="17"/>
       <c r="AT5" s="18"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-6</v>
       </c>
@@ -4760,7 +4769,7 @@
       <c r="AO6" s="18"/>
       <c r="AQ6" s="17"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7</v>
       </c>
@@ -4827,7 +4836,7 @@
       <c r="AO7" s="17"/>
       <c r="AQ7" s="18"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-8</v>
       </c>
@@ -4898,7 +4907,7 @@
       <c r="AS8" s="18"/>
       <c r="AT8" s="18"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-9</v>
       </c>
@@ -4967,7 +4976,7 @@
       <c r="AQ9" s="19"/>
       <c r="AS9" s="17"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-10</v>
       </c>
@@ -5031,7 +5040,7 @@
       <c r="AQ10" s="17"/>
       <c r="AT10" s="18"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-11</v>
       </c>
@@ -5092,7 +5101,7 @@
       <c r="AQ11" s="18"/>
       <c r="AT11" s="17"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-12</v>
       </c>
@@ -5152,7 +5161,7 @@
       <c r="AP12" s="19"/>
       <c r="AS12" s="18"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-13</v>
       </c>
@@ -5218,7 +5227,7 @@
       <c r="AR13" s="17"/>
       <c r="AT13" s="18"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-14</v>
       </c>
@@ -5275,7 +5284,7 @@
       <c r="AQ14" s="18"/>
       <c r="AT14" s="17"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-15</v>
       </c>
@@ -5330,7 +5339,7 @@
       <c r="AP15" s="18"/>
       <c r="AR15" s="18"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-16</v>
       </c>
@@ -5382,7 +5391,7 @@
       <c r="AQ16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-17</v>
       </c>
@@ -5442,7 +5451,7 @@
       <c r="AP17" s="18"/>
       <c r="AR17" s="18"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -5508,7 +5517,7 @@
       <c r="AR18" s="17"/>
       <c r="AS18" s="18"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-19</v>
       </c>
@@ -5572,7 +5581,7 @@
       <c r="AR19" s="18"/>
       <c r="AT19" s="17"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-20</v>
       </c>
@@ -5633,7 +5642,7 @@
       <c r="AQ20" s="17"/>
       <c r="AS20" s="18"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-21</v>
       </c>
@@ -5686,7 +5695,7 @@
       <c r="AQ21" s="18"/>
       <c r="AR21" s="18"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-22</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-23</v>
       </c>
@@ -5783,7 +5792,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-24</v>
       </c>
@@ -5831,7 +5840,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-25</v>
       </c>
@@ -5879,7 +5888,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-26</v>
       </c>
@@ -5924,7 +5933,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-27</v>
       </c>
@@ -5969,7 +5978,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-28</v>
       </c>
@@ -6014,7 +6023,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-29</v>
       </c>
@@ -6086,7 +6095,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-30</v>
       </c>
@@ -6150,10 +6159,10 @@
         <v>13</v>
       </c>
       <c r="AH30" s="37">
-        <v>1.66E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-31</v>
       </c>
@@ -6208,19 +6217,19 @@
         <v>3.4499999999999997</v>
       </c>
       <c r="AE31">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="AF31" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="AG31">
         <v>11</v>
       </c>
       <c r="AH31" s="37">
-        <v>1.41E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-32</v>
       </c>
@@ -6281,19 +6290,19 @@
         <v>3.31</v>
       </c>
       <c r="AE32">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AF32" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AG32">
         <v>11</v>
       </c>
       <c r="AH32" s="37">
-        <v>1.41E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-33</v>
       </c>
@@ -6363,19 +6372,19 @@
         <v>2.3804000000000003</v>
       </c>
       <c r="AE33">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF33" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="AG33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH33" s="37">
-        <v>1.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-34</v>
       </c>
@@ -6442,19 +6451,19 @@
         <v>1.9097</v>
       </c>
       <c r="AE34">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="AF34" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="AG34">
         <v>10</v>
       </c>
       <c r="AH34" s="37">
-        <v>1.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-35</v>
       </c>
@@ -6521,19 +6530,19 @@
         <v>1.8997999999999999</v>
       </c>
       <c r="AE35">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG35">
         <v>10</v>
       </c>
       <c r="AH35" s="37">
-        <v>1.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-36</v>
       </c>
@@ -6600,19 +6609,19 @@
         <v>1.8704000000000001</v>
       </c>
       <c r="AE36">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="AF36" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="AG36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH36" s="37">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-37</v>
       </c>
@@ -6685,10 +6694,10 @@
         <v>9</v>
       </c>
       <c r="AH37" s="37">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-38</v>
       </c>
@@ -6761,10 +6770,10 @@
         <v>9</v>
       </c>
       <c r="AH38" s="37">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-39</v>
       </c>
@@ -6837,10 +6846,10 @@
         <v>9</v>
       </c>
       <c r="AH39" s="37">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-40</v>
       </c>
@@ -6913,10 +6922,10 @@
         <v>9</v>
       </c>
       <c r="AH40" s="37">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-41</v>
       </c>
@@ -6986,10 +6995,10 @@
         <v>8</v>
       </c>
       <c r="AH41" s="37">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-42</v>
       </c>
@@ -7059,10 +7068,10 @@
         <v>8</v>
       </c>
       <c r="AH42" s="37">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-43</v>
       </c>
@@ -7126,19 +7135,19 @@
         <v>1.26</v>
       </c>
       <c r="AE43">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="AG43">
         <v>8</v>
       </c>
       <c r="AH43" s="37">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-44</v>
       </c>
@@ -7199,19 +7208,19 @@
         <v>1.26</v>
       </c>
       <c r="AE44">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AF44" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="AG44">
         <v>8</v>
       </c>
       <c r="AH44" s="37">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-45</v>
       </c>
@@ -7269,19 +7278,19 @@
         <v>1.25</v>
       </c>
       <c r="AE45">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s">
-        <v>580</v>
+        <v>455</v>
       </c>
       <c r="AG45">
         <v>8</v>
       </c>
       <c r="AH45" s="37">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-46</v>
       </c>
@@ -7336,19 +7345,19 @@
         <v>1.24</v>
       </c>
       <c r="AE46">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AF46" t="s">
-        <v>1073</v>
+        <v>467</v>
       </c>
       <c r="AG46">
         <v>8</v>
       </c>
       <c r="AH46" s="37">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-47</v>
       </c>
@@ -7403,19 +7412,19 @@
         <v>1.2296</v>
       </c>
       <c r="AE47">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="AF47" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
       <c r="AG47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH47" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-48</v>
       </c>
@@ -7470,19 +7479,19 @@
         <v>1.2</v>
       </c>
       <c r="AE48">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="AF48" t="s">
-        <v>437</v>
+        <v>580</v>
       </c>
       <c r="AG48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH48" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-49</v>
       </c>
@@ -7534,19 +7543,19 @@
         <v>1.1801999999999999</v>
       </c>
       <c r="AE49">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="AF49" t="s">
-        <v>439</v>
+        <v>1073</v>
       </c>
       <c r="AG49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH49" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-50</v>
       </c>
@@ -7601,19 +7610,19 @@
         <v>1.17</v>
       </c>
       <c r="AE50">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="AF50" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="AG50">
         <v>7</v>
       </c>
       <c r="AH50" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-51</v>
       </c>
@@ -7665,19 +7674,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE51">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AF51" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="AG51">
         <v>7</v>
       </c>
       <c r="AH51" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-52</v>
       </c>
@@ -7729,19 +7738,19 @@
         <v>1.0902000000000001</v>
       </c>
       <c r="AE52">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="AF52" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="AG52">
         <v>7</v>
       </c>
       <c r="AH52" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-53</v>
       </c>
@@ -7793,19 +7802,19 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="AE53">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="AF53" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="AG53">
         <v>7</v>
       </c>
       <c r="AH53" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-54</v>
       </c>
@@ -7881,19 +7890,19 @@
         <v>1.08</v>
       </c>
       <c r="AE54">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="AF54" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AG54">
         <v>7</v>
       </c>
       <c r="AH54" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-55</v>
       </c>
@@ -7969,19 +7978,19 @@
         <v>1.0104</v>
       </c>
       <c r="AE55">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AF55" t="s">
-        <v>36</v>
+        <v>504</v>
       </c>
       <c r="AG55">
         <v>7</v>
       </c>
       <c r="AH55" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-56</v>
       </c>
@@ -8057,19 +8066,19 @@
         <v>1.0002</v>
       </c>
       <c r="AE56">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF56" t="s">
-        <v>527</v>
+        <v>36</v>
       </c>
       <c r="AG56">
         <v>7</v>
       </c>
       <c r="AH56" s="37">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-57</v>
       </c>
@@ -8148,19 +8157,19 @@
         <v>1</v>
       </c>
       <c r="AE57">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="AF57" t="s">
-        <v>394</v>
+        <v>527</v>
       </c>
       <c r="AG57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH57" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-58</v>
       </c>
@@ -8236,19 +8245,19 @@
         <v>0.9</v>
       </c>
       <c r="AE58">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="AF58" t="s">
-        <v>401</v>
+        <v>547</v>
       </c>
       <c r="AG58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH58" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-59</v>
       </c>
@@ -8324,19 +8333,19 @@
         <v>0.88</v>
       </c>
       <c r="AE59">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AF59" t="s">
-        <v>15</v>
+        <v>394</v>
       </c>
       <c r="AG59">
         <v>6</v>
       </c>
       <c r="AH59" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-60</v>
       </c>
@@ -8415,19 +8424,19 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="AE60">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF60" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AG60">
         <v>6</v>
       </c>
       <c r="AH60" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-61</v>
       </c>
@@ -8503,19 +8512,19 @@
         <v>0.80010000000000003</v>
       </c>
       <c r="AE61">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AF61" t="s">
-        <v>411</v>
+        <v>15</v>
       </c>
       <c r="AG61">
         <v>6</v>
       </c>
       <c r="AH61" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-62</v>
       </c>
@@ -8591,19 +8600,19 @@
         <v>0.78</v>
       </c>
       <c r="AE62">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AF62" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="AG62">
         <v>6</v>
       </c>
       <c r="AH62" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-63</v>
       </c>
@@ -8679,19 +8688,19 @@
         <v>0.75</v>
       </c>
       <c r="AE63">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="AF63" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="AG63">
         <v>6</v>
       </c>
       <c r="AH63" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-64</v>
       </c>
@@ -8767,19 +8776,19 @@
         <v>0.72</v>
       </c>
       <c r="AE64">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF64" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="AG64">
         <v>6</v>
       </c>
       <c r="AH64" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-65</v>
       </c>
@@ -8855,19 +8864,19 @@
         <v>0.69989999999999997</v>
       </c>
       <c r="AE65">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="AF65" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
       <c r="AG65">
         <v>6</v>
       </c>
       <c r="AH65" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-66</v>
       </c>
@@ -8943,19 +8952,19 @@
         <v>0.66989999999999994</v>
       </c>
       <c r="AE66">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="AF66" t="s">
-        <v>63</v>
+        <v>445</v>
       </c>
       <c r="AG66">
         <v>6</v>
       </c>
       <c r="AH66" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-67</v>
       </c>
@@ -9031,19 +9040,19 @@
         <v>0.65</v>
       </c>
       <c r="AE67">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AF67" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="AG67">
         <v>6</v>
       </c>
       <c r="AH67" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-68</v>
       </c>
@@ -9119,19 +9128,19 @@
         <v>0.65</v>
       </c>
       <c r="AE68">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="AF68" t="s">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="AG68">
         <v>6</v>
       </c>
       <c r="AH68" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-69</v>
       </c>
@@ -9207,19 +9216,19 @@
         <v>0.63</v>
       </c>
       <c r="AE69">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="AF69" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="AG69">
         <v>6</v>
       </c>
       <c r="AH69" s="37">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-70</v>
       </c>
@@ -9295,19 +9304,19 @@
         <v>0.62009999999999998</v>
       </c>
       <c r="AE70">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="AF70" t="s">
-        <v>397</v>
+        <v>63</v>
       </c>
       <c r="AG70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH70" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-71</v>
       </c>
@@ -9383,19 +9392,19 @@
         <v>0.62</v>
       </c>
       <c r="AE71">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="AF71" t="s">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="AG71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH71" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-72</v>
       </c>
@@ -9471,19 +9480,19 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="AE72">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="AF72" t="s">
-        <v>408</v>
+        <v>514</v>
       </c>
       <c r="AG72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH72" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-73</v>
       </c>
@@ -9559,19 +9568,19 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="AE73">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="AF73" t="s">
-        <v>417</v>
+        <v>561</v>
       </c>
       <c r="AG73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH73" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-74</v>
       </c>
@@ -9647,19 +9656,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AE74">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AF74" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="AG74">
         <v>5</v>
       </c>
       <c r="AH74" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-75</v>
       </c>
@@ -9742,19 +9751,19 @@
         <v>0.54989999999999994</v>
       </c>
       <c r="AE75">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AF75" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="AG75">
         <v>5</v>
       </c>
       <c r="AH75" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-76</v>
       </c>
@@ -9806,19 +9815,19 @@
         <v>0.54</v>
       </c>
       <c r="AE76">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AF76" t="s">
-        <v>48</v>
+        <v>403</v>
       </c>
       <c r="AG76">
         <v>5</v>
       </c>
       <c r="AH76" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-77</v>
       </c>
@@ -9870,19 +9879,19 @@
         <v>0.54</v>
       </c>
       <c r="AE77">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AF77" t="s">
-        <v>579</v>
+        <v>408</v>
       </c>
       <c r="AG77">
         <v>5</v>
       </c>
       <c r="AH77" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-78</v>
       </c>
@@ -9934,19 +9943,19 @@
         <v>0.50009999999999999</v>
       </c>
       <c r="AE78">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AF78" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="AG78">
         <v>5</v>
       </c>
       <c r="AH78" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-79</v>
       </c>
@@ -9998,19 +10007,19 @@
         <v>0.5</v>
       </c>
       <c r="AE79">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="AF79" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="AG79">
         <v>5</v>
       </c>
       <c r="AH79" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-80</v>
       </c>
@@ -10062,19 +10071,19 @@
         <v>0.5</v>
       </c>
       <c r="AE80">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="AF80" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="AG80">
         <v>5</v>
       </c>
       <c r="AH80" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-81</v>
       </c>
@@ -10126,19 +10135,19 @@
         <v>0.5</v>
       </c>
       <c r="AE81">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="AF81" t="s">
-        <v>459</v>
+        <v>48</v>
       </c>
       <c r="AG81">
         <v>5</v>
       </c>
       <c r="AH81" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-82</v>
       </c>
@@ -10190,19 +10199,19 @@
         <v>0.5</v>
       </c>
       <c r="AE82">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AF82" t="s">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="AG82">
         <v>5</v>
       </c>
       <c r="AH82" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-83</v>
       </c>
@@ -10254,19 +10263,19 @@
         <v>0.5</v>
       </c>
       <c r="AE83">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="AF83" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="AG83">
         <v>5</v>
       </c>
       <c r="AH83" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-84</v>
       </c>
@@ -10318,19 +10327,19 @@
         <v>0.49</v>
       </c>
       <c r="AE84">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="AF84" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="AG84">
         <v>5</v>
       </c>
       <c r="AH84" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-85</v>
       </c>
@@ -10385,19 +10394,19 @@
         <v>0.48</v>
       </c>
       <c r="AE85">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="AF85" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="AG85">
         <v>5</v>
       </c>
       <c r="AH85" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-86</v>
       </c>
@@ -10449,19 +10458,19 @@
         <v>0.48</v>
       </c>
       <c r="AE86">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AF86" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AG86">
         <v>5</v>
       </c>
       <c r="AH86" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-87</v>
       </c>
@@ -10513,19 +10522,19 @@
         <v>0.47010000000000002</v>
       </c>
       <c r="AE87">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="AF87" t="s">
-        <v>67</v>
+        <v>482</v>
       </c>
       <c r="AG87">
         <v>5</v>
       </c>
       <c r="AH87" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-88</v>
       </c>
@@ -10577,19 +10586,19 @@
         <v>0.46</v>
       </c>
       <c r="AE88">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="AF88" t="s">
-        <v>508</v>
+        <v>90</v>
       </c>
       <c r="AG88">
         <v>5</v>
       </c>
       <c r="AH88" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-89</v>
       </c>
@@ -10641,19 +10650,19 @@
         <v>0.45989999999999998</v>
       </c>
       <c r="AE89">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="AF89" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="AG89">
         <v>5</v>
       </c>
       <c r="AH89" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-90</v>
       </c>
@@ -10705,19 +10714,19 @@
         <v>0.45989999999999998</v>
       </c>
       <c r="AE90">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="AF90" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AG90">
         <v>5</v>
       </c>
       <c r="AH90" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-91</v>
       </c>
@@ -10769,19 +10778,19 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="AE91">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="AF91" t="s">
-        <v>545</v>
+        <v>67</v>
       </c>
       <c r="AG91">
         <v>5</v>
       </c>
       <c r="AH91" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-92</v>
       </c>
@@ -10833,19 +10842,19 @@
         <v>0.44009999999999999</v>
       </c>
       <c r="AE92">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="AF92" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="AG92">
         <v>5</v>
       </c>
       <c r="AH92" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-93</v>
       </c>
@@ -10897,19 +10906,19 @@
         <v>0.44</v>
       </c>
       <c r="AE93">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="AF93" t="s">
-        <v>391</v>
+        <v>518</v>
       </c>
       <c r="AG93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH93" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-94</v>
       </c>
@@ -10961,19 +10970,19 @@
         <v>0.42000000000000004</v>
       </c>
       <c r="AE94">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="AF94" t="s">
-        <v>402</v>
+        <v>70</v>
       </c>
       <c r="AG94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH94" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-95</v>
       </c>
@@ -11025,19 +11034,19 @@
         <v>0.42000000000000004</v>
       </c>
       <c r="AE95">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="AF95" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
       <c r="AG95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH95" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-96</v>
       </c>
@@ -11089,19 +11098,19 @@
         <v>0.4</v>
       </c>
       <c r="AE96">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="AF96" t="s">
-        <v>410</v>
+        <v>553</v>
       </c>
       <c r="AG96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH96" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-97</v>
       </c>
@@ -11153,19 +11162,19 @@
         <v>0.39990000000000003</v>
       </c>
       <c r="AE97">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AF97" t="s">
-        <v>12</v>
+        <v>391</v>
       </c>
       <c r="AG97">
         <v>4</v>
       </c>
       <c r="AH97" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-98</v>
       </c>
@@ -11217,19 +11226,19 @@
         <v>0.36990000000000001</v>
       </c>
       <c r="AE98">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="AF98" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="AG98">
         <v>4</v>
       </c>
       <c r="AH98" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-99</v>
       </c>
@@ -11281,19 +11290,19 @@
         <v>0.36990000000000001</v>
       </c>
       <c r="AE99">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="AF99" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="AG99">
         <v>4</v>
       </c>
       <c r="AH99" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-100</v>
       </c>
@@ -11345,19 +11354,19 @@
         <v>0.36</v>
       </c>
       <c r="AE100">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="AF100" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="AG100">
         <v>4</v>
       </c>
       <c r="AH100" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-101</v>
       </c>
@@ -11409,19 +11418,19 @@
         <v>0.35009999999999997</v>
       </c>
       <c r="AE101">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="AF101" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="AG101">
         <v>4</v>
       </c>
       <c r="AH101" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-102</v>
       </c>
@@ -11473,19 +11482,19 @@
         <v>0.35</v>
       </c>
       <c r="AE102">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="AF102" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="AG102">
         <v>4</v>
       </c>
       <c r="AH102" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-103</v>
       </c>
@@ -11540,19 +11549,19 @@
         <v>0.35</v>
       </c>
       <c r="AE103">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AF103" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="AG103">
         <v>4</v>
       </c>
       <c r="AH103" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-104</v>
       </c>
@@ -11604,19 +11613,19 @@
         <v>0.34</v>
       </c>
       <c r="AE104">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AF104" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="AG104">
         <v>4</v>
       </c>
       <c r="AH104" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>-105</v>
       </c>
@@ -11668,19 +11677,19 @@
         <v>0.34</v>
       </c>
       <c r="AE105">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AF105" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AG105">
         <v>4</v>
       </c>
       <c r="AH105" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-106</v>
       </c>
@@ -11732,19 +11741,19 @@
         <v>0.34</v>
       </c>
       <c r="AE106">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AF106" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="AG106">
         <v>4</v>
       </c>
       <c r="AH106" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-107</v>
       </c>
@@ -11796,19 +11805,19 @@
         <v>0.34</v>
       </c>
       <c r="AE107">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="AF107" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="AG107">
         <v>4</v>
       </c>
       <c r="AH107" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-108</v>
       </c>
@@ -11860,19 +11869,19 @@
         <v>0.33989999999999998</v>
       </c>
       <c r="AE108">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AF108" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="AG108">
         <v>4</v>
       </c>
       <c r="AH108" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-109</v>
       </c>
@@ -11924,19 +11933,19 @@
         <v>0.33</v>
       </c>
       <c r="AE109">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="AF109" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="AG109">
         <v>4</v>
       </c>
       <c r="AH109" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-110</v>
       </c>
@@ -11988,19 +11997,19 @@
         <v>0.33</v>
       </c>
       <c r="AE110">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AF110" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="AG110">
         <v>4</v>
       </c>
       <c r="AH110" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>-111</v>
       </c>
@@ -12052,19 +12061,19 @@
         <v>0.3201</v>
       </c>
       <c r="AE111">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="AF111" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="AG111">
         <v>4</v>
       </c>
       <c r="AH111" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>-112</v>
       </c>
@@ -12116,19 +12125,19 @@
         <v>0.32</v>
       </c>
       <c r="AE112">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="AF112" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="AG112">
         <v>4</v>
       </c>
       <c r="AH112" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>-113</v>
       </c>
@@ -12180,19 +12189,19 @@
         <v>0.30990000000000001</v>
       </c>
       <c r="AE113">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="AF113" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="AG113">
         <v>4</v>
       </c>
       <c r="AH113" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-114</v>
       </c>
@@ -12244,19 +12253,19 @@
         <v>0.3</v>
       </c>
       <c r="AE114">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="AF114" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="AG114">
         <v>4</v>
       </c>
       <c r="AH114" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>-115</v>
       </c>
@@ -12308,19 +12317,19 @@
         <v>0.3</v>
       </c>
       <c r="AE115">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="AF115" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="AG115">
         <v>4</v>
       </c>
       <c r="AH115" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>-116</v>
       </c>
@@ -12372,19 +12381,19 @@
         <v>0.3</v>
       </c>
       <c r="AE116">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AF116" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="AG116">
         <v>4</v>
       </c>
       <c r="AH116" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>-117</v>
       </c>
@@ -12436,19 +12445,19 @@
         <v>0.3</v>
       </c>
       <c r="AE117">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="AF117" t="s">
-        <v>38</v>
+        <v>496</v>
       </c>
       <c r="AG117">
         <v>4</v>
       </c>
       <c r="AH117" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>-118</v>
       </c>
@@ -12500,19 +12509,19 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AE118">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="AF118" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="AG118">
         <v>4</v>
       </c>
       <c r="AH118" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>-119</v>
       </c>
@@ -12564,19 +12573,19 @@
         <v>0.27</v>
       </c>
       <c r="AE119">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="AF119" t="s">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="AG119">
         <v>4</v>
       </c>
       <c r="AH119" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>-120</v>
       </c>
@@ -12628,19 +12637,19 @@
         <v>0.27</v>
       </c>
       <c r="AE120">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="AF120" t="s">
-        <v>553</v>
+        <v>506</v>
       </c>
       <c r="AG120">
         <v>4</v>
       </c>
       <c r="AH120" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>-121</v>
       </c>
@@ -12692,19 +12701,19 @@
         <v>0.27</v>
       </c>
       <c r="AE121">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="AF121" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="AG121">
         <v>4</v>
       </c>
       <c r="AH121" s="37">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>-122</v>
       </c>
@@ -12756,19 +12765,19 @@
         <v>0.27</v>
       </c>
       <c r="AE122">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="AF122" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="AG122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH122" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>-123</v>
       </c>
@@ -12820,19 +12829,19 @@
         <v>0.27</v>
       </c>
       <c r="AE123">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="AF123" t="s">
-        <v>393</v>
+        <v>38</v>
       </c>
       <c r="AG123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH123" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>-124</v>
       </c>
@@ -12884,19 +12893,19 @@
         <v>0.26</v>
       </c>
       <c r="AE124">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="AF124" t="s">
-        <v>396</v>
+        <v>523</v>
       </c>
       <c r="AG124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH124" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>-125</v>
       </c>
@@ -12948,19 +12957,19 @@
         <v>0.25</v>
       </c>
       <c r="AE125">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="AF125" t="s">
-        <v>406</v>
+        <v>574</v>
       </c>
       <c r="AG125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH125" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>-126</v>
       </c>
@@ -13012,19 +13021,19 @@
         <v>0.25</v>
       </c>
       <c r="AE126">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="AF126" t="s">
-        <v>407</v>
+        <v>556</v>
       </c>
       <c r="AG126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH126" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>-127</v>
       </c>
@@ -13076,19 +13085,19 @@
         <v>0.25</v>
       </c>
       <c r="AE127">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AF127" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="AG127">
         <v>3</v>
       </c>
       <c r="AH127" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>-128</v>
       </c>
@@ -13140,19 +13149,19 @@
         <v>0.25</v>
       </c>
       <c r="AE128">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF128" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="AG128">
         <v>3</v>
       </c>
       <c r="AH128" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>-129</v>
       </c>
@@ -13204,19 +13213,19 @@
         <v>0.24990000000000001</v>
       </c>
       <c r="AE129">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AF129" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="AG129">
         <v>3</v>
       </c>
       <c r="AH129" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>-130</v>
       </c>
@@ -13268,19 +13277,19 @@
         <v>0.24</v>
       </c>
       <c r="AE130">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AF130" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AG130">
         <v>3</v>
       </c>
       <c r="AH130" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>-131</v>
       </c>
@@ -13332,19 +13341,19 @@
         <v>0.24</v>
       </c>
       <c r="AE131">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="AF131" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AG131">
         <v>3</v>
       </c>
       <c r="AH131" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>-132</v>
       </c>
@@ -13396,19 +13405,19 @@
         <v>0.24</v>
       </c>
       <c r="AE132">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="AF132" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="AG132">
         <v>3</v>
       </c>
       <c r="AH132" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>-133</v>
       </c>
@@ -13460,19 +13469,19 @@
         <v>0.23010000000000003</v>
       </c>
       <c r="AE133">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="AF133" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="AG133">
         <v>3</v>
       </c>
       <c r="AH133" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>-134</v>
       </c>
@@ -13524,19 +13533,19 @@
         <v>0.23</v>
       </c>
       <c r="AE134">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AF134" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="AG134">
         <v>3</v>
       </c>
       <c r="AH134" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>-135</v>
       </c>
@@ -13588,19 +13597,19 @@
         <v>0.22</v>
       </c>
       <c r="AE135">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="AF135" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="AG135">
         <v>3</v>
       </c>
       <c r="AH135" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>-136</v>
       </c>
@@ -13652,19 +13661,19 @@
         <v>0.2</v>
       </c>
       <c r="AE136">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AF136" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="AG136">
         <v>3</v>
       </c>
       <c r="AH136" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>-137</v>
       </c>
@@ -13716,19 +13725,19 @@
         <v>0.2</v>
       </c>
       <c r="AE137">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AF137" t="s">
-        <v>447</v>
+        <v>19</v>
       </c>
       <c r="AG137">
         <v>3</v>
       </c>
       <c r="AH137" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>-138</v>
       </c>
@@ -13783,19 +13792,19 @@
         <v>0.2</v>
       </c>
       <c r="AE138">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="AF138" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="AG138">
         <v>3</v>
       </c>
       <c r="AH138" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>-139</v>
       </c>
@@ -13847,19 +13856,19 @@
         <v>0.2</v>
       </c>
       <c r="AE139">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AF139" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="AG139">
         <v>3</v>
       </c>
       <c r="AH139" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>-140</v>
       </c>
@@ -13911,19 +13920,19 @@
         <v>0.2</v>
       </c>
       <c r="AE140">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="AF140" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="AG140">
         <v>3</v>
       </c>
       <c r="AH140" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>-141</v>
       </c>
@@ -13982,19 +13991,19 @@
         <v>0.2</v>
       </c>
       <c r="AE141">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="AF141" t="s">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="AG141">
         <v>3</v>
       </c>
       <c r="AH141" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>-142</v>
       </c>
@@ -14056,19 +14065,19 @@
         <v>0.2</v>
       </c>
       <c r="AE142">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="AF142" t="s">
-        <v>584</v>
+        <v>440</v>
       </c>
       <c r="AG142">
         <v>3</v>
       </c>
       <c r="AH142" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>-143</v>
       </c>
@@ -14127,19 +14136,19 @@
         <v>0.18</v>
       </c>
       <c r="AE143">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="AF143" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="AG143">
         <v>3</v>
       </c>
       <c r="AH143" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>-144</v>
       </c>
@@ -14207,19 +14216,19 @@
         <v>0.18</v>
       </c>
       <c r="AE144">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="AF144" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="AG144">
         <v>3</v>
       </c>
       <c r="AH144" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>585</v>
       </c>
@@ -14277,19 +14286,19 @@
         <v>0.16</v>
       </c>
       <c r="AE145">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AF145" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="AG145">
         <v>3</v>
       </c>
       <c r="AH145" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -14372,19 +14381,19 @@
         <v>0.16</v>
       </c>
       <c r="AE146">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="AF146" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="AG146">
         <v>3</v>
       </c>
       <c r="AH146" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -14467,19 +14476,19 @@
         <v>0.16</v>
       </c>
       <c r="AE147">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="AF147" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="AG147">
         <v>3</v>
       </c>
       <c r="AH147" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -14559,19 +14568,19 @@
         <v>0.16</v>
       </c>
       <c r="AE148">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="AF148" t="s">
-        <v>69</v>
+        <v>476</v>
       </c>
       <c r="AG148">
         <v>3</v>
       </c>
       <c r="AH148" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -14654,19 +14663,19 @@
         <v>0.15</v>
       </c>
       <c r="AE149">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AF149" t="s">
-        <v>97</v>
+        <v>478</v>
       </c>
       <c r="AG149">
         <v>3</v>
       </c>
       <c r="AH149" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -14749,19 +14758,19 @@
         <v>0.15</v>
       </c>
       <c r="AE150">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="AF150" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="AG150">
         <v>3</v>
       </c>
       <c r="AH150" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -14841,19 +14850,19 @@
         <v>0.15</v>
       </c>
       <c r="AE151">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AF151" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="AG151">
         <v>3</v>
       </c>
       <c r="AH151" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -14939,19 +14948,19 @@
         <v>0.15</v>
       </c>
       <c r="AE152">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="AF152" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="AG152">
         <v>3</v>
       </c>
       <c r="AH152" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -15034,19 +15043,19 @@
         <v>0.15</v>
       </c>
       <c r="AE153">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="AF153" t="s">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="AG153">
         <v>3</v>
       </c>
       <c r="AH153" s="37">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -15126,19 +15135,19 @@
         <v>0.15</v>
       </c>
       <c r="AE154">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="AF154" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
       <c r="AG154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH154" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10</v>
       </c>
@@ -15221,19 +15230,19 @@
         <v>0.13</v>
       </c>
       <c r="AE155">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="AF155" t="s">
-        <v>392</v>
+        <v>517</v>
       </c>
       <c r="AG155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH155" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>11</v>
       </c>
@@ -15316,19 +15325,19 @@
         <v>0.12</v>
       </c>
       <c r="AE156">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="AF156" t="s">
-        <v>395</v>
+        <v>69</v>
       </c>
       <c r="AG156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH156" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>12</v>
       </c>
@@ -15408,19 +15417,19 @@
         <v>0.11</v>
       </c>
       <c r="AE157">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="AF157" t="s">
-        <v>404</v>
+        <v>521</v>
       </c>
       <c r="AG157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH157" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>13</v>
       </c>
@@ -15503,19 +15512,19 @@
         <v>0.1</v>
       </c>
       <c r="AE158">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="AF158" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="AG158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH158" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14</v>
       </c>
@@ -15598,19 +15607,19 @@
         <v>0.1</v>
       </c>
       <c r="AE159">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="AF159" t="s">
-        <v>413</v>
+        <v>530</v>
       </c>
       <c r="AG159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH159" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>15</v>
       </c>
@@ -15690,19 +15699,19 @@
         <v>0.1</v>
       </c>
       <c r="AE160">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="AF160" t="s">
-        <v>49</v>
+        <v>538</v>
       </c>
       <c r="AG160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH160" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>16</v>
       </c>
@@ -15785,19 +15794,19 @@
         <v>0.1</v>
       </c>
       <c r="AE161">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AF161" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="AG161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH161" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>17</v>
       </c>
@@ -15880,19 +15889,19 @@
         <v>0.1</v>
       </c>
       <c r="AE162">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="AF162" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="AG162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH162" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>18</v>
       </c>
@@ -15975,19 +15984,19 @@
         <v>0.09</v>
       </c>
       <c r="AE163">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="AF163" t="s">
-        <v>19</v>
+        <v>563</v>
       </c>
       <c r="AG163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH163" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>19</v>
       </c>
@@ -16025,7 +16034,9 @@
       <c r="L164" t="s">
         <v>604</v>
       </c>
-      <c r="M164" s="20"/>
+      <c r="M164" s="20" t="s">
+        <v>1163</v>
+      </c>
       <c r="N164" s="17" t="s">
         <v>784</v>
       </c>
@@ -16068,19 +16079,19 @@
         <v>0.09</v>
       </c>
       <c r="AE164">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AF164" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="AG164">
         <v>2</v>
       </c>
       <c r="AH164" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>20</v>
       </c>
@@ -16118,7 +16129,9 @@
       <c r="L165" t="s">
         <v>646</v>
       </c>
-      <c r="M165" s="20"/>
+      <c r="M165" s="20" t="s">
+        <v>1163</v>
+      </c>
       <c r="N165" s="17" t="s">
         <v>740</v>
       </c>
@@ -16161,19 +16174,19 @@
         <v>0.09</v>
       </c>
       <c r="AE165">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="AF165" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="AG165">
         <v>2</v>
       </c>
       <c r="AH165" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>21</v>
       </c>
@@ -16211,7 +16224,9 @@
       <c r="L166" t="s">
         <v>610</v>
       </c>
-      <c r="M166" s="20"/>
+      <c r="M166" s="20" t="s">
+        <v>1163</v>
+      </c>
       <c r="N166" s="32" t="s">
         <v>730</v>
       </c>
@@ -16251,19 +16266,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE166">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="AF166" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="AG166">
         <v>2</v>
       </c>
       <c r="AH166" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>22</v>
       </c>
@@ -16344,19 +16359,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE167">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="AF167" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="AG167">
         <v>2</v>
       </c>
       <c r="AH167" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>23</v>
       </c>
@@ -16437,19 +16452,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE168">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="AF168" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="AG168">
         <v>2</v>
       </c>
       <c r="AH168" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -16527,19 +16542,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE169">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AF169" t="s">
-        <v>451</v>
+        <v>49</v>
       </c>
       <c r="AG169">
         <v>2</v>
       </c>
       <c r="AH169" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>25</v>
       </c>
@@ -16620,19 +16635,19 @@
         <v>0.06</v>
       </c>
       <c r="AE170">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="AF170" t="s">
-        <v>457</v>
+        <v>577</v>
       </c>
       <c r="AG170">
         <v>2</v>
       </c>
       <c r="AH170" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>26</v>
       </c>
@@ -16713,19 +16728,19 @@
         <v>0.05</v>
       </c>
       <c r="AE171">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="AF171" t="s">
-        <v>1102</v>
+        <v>578</v>
       </c>
       <c r="AG171">
         <v>2</v>
       </c>
       <c r="AH171" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>27</v>
       </c>
@@ -16803,19 +16818,19 @@
         <v>0.05</v>
       </c>
       <c r="AE172">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="AF172" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="AG172">
         <v>2</v>
       </c>
       <c r="AH172" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>28</v>
       </c>
@@ -16890,19 +16905,19 @@
         <v>0.05</v>
       </c>
       <c r="AE173">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AF173" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="AG173">
         <v>2</v>
       </c>
       <c r="AH173" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>29</v>
       </c>
@@ -16982,19 +16997,19 @@
         <v>0.05</v>
       </c>
       <c r="AE174">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AF174" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="AG174">
         <v>2</v>
       </c>
       <c r="AH174" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>30</v>
       </c>
@@ -17074,19 +17089,19 @@
         <v>0.05</v>
       </c>
       <c r="AE175">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AF175" t="s">
-        <v>471</v>
+        <v>1102</v>
       </c>
       <c r="AG175">
         <v>2</v>
       </c>
       <c r="AH175" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>31</v>
       </c>
@@ -17163,19 +17178,19 @@
         <v>0.03</v>
       </c>
       <c r="AE176">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AF176" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AG176">
         <v>2</v>
       </c>
       <c r="AH176" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>32</v>
       </c>
@@ -17253,19 +17268,19 @@
         <v>0.02</v>
       </c>
       <c r="AE177">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AF177" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AG177">
         <v>2</v>
       </c>
       <c r="AH177" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>33</v>
       </c>
@@ -17343,19 +17358,19 @@
         <v>0.02</v>
       </c>
       <c r="AE178">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AF178" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AG178">
         <v>2</v>
       </c>
       <c r="AH178" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>34</v>
       </c>
@@ -17430,19 +17445,19 @@
         <v>0.02</v>
       </c>
       <c r="AE179">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AF179" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="AG179">
         <v>2</v>
       </c>
       <c r="AH179" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>35</v>
       </c>
@@ -17520,19 +17535,19 @@
         <v>0.02</v>
       </c>
       <c r="AE180">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="AF180" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="AG180">
         <v>2</v>
       </c>
       <c r="AH180" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>36</v>
       </c>
@@ -17610,19 +17625,19 @@
         <v>0.01</v>
       </c>
       <c r="AE181">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AF181" t="s">
-        <v>91</v>
+        <v>484</v>
       </c>
       <c r="AG181">
         <v>2</v>
       </c>
       <c r="AH181" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>37</v>
       </c>
@@ -17697,19 +17712,19 @@
         <v>0.01</v>
       </c>
       <c r="AE182">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AF182" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
       <c r="AG182">
         <v>2</v>
       </c>
       <c r="AH182" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>38</v>
       </c>
@@ -17786,19 +17801,19 @@
         <v>0</v>
       </c>
       <c r="AE183">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="AF183" t="s">
-        <v>497</v>
+        <v>91</v>
       </c>
       <c r="AG183">
         <v>2</v>
       </c>
       <c r="AH183" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>39</v>
       </c>
@@ -17881,19 +17896,19 @@
         <v>0</v>
       </c>
       <c r="AE184">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AF184" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AG184">
         <v>2</v>
       </c>
       <c r="AH184" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>40</v>
       </c>
@@ -17973,19 +17988,19 @@
         <v>0</v>
       </c>
       <c r="AE185">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AF185" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="AG185">
         <v>2</v>
       </c>
       <c r="AH185" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>41</v>
       </c>
@@ -18063,19 +18078,19 @@
         <v>0</v>
       </c>
       <c r="AE186">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="AF186" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AG186">
         <v>2</v>
       </c>
       <c r="AH186" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>42</v>
       </c>
@@ -18153,19 +18168,19 @@
         <v>0</v>
       </c>
       <c r="AE187">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AF187" t="s">
-        <v>804</v>
+        <v>513</v>
       </c>
       <c r="AG187">
         <v>2</v>
       </c>
       <c r="AH187" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>43</v>
       </c>
@@ -18240,19 +18255,19 @@
         <v>0</v>
       </c>
       <c r="AE188">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AF188" t="s">
-        <v>521</v>
+        <v>39</v>
       </c>
       <c r="AG188">
         <v>2</v>
       </c>
       <c r="AH188" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>44</v>
       </c>
@@ -18330,19 +18345,19 @@
         <v>0</v>
       </c>
       <c r="AE189">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AF189" t="s">
-        <v>522</v>
+        <v>804</v>
       </c>
       <c r="AG189">
         <v>2</v>
       </c>
       <c r="AH189" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>45</v>
       </c>
@@ -18420,19 +18435,19 @@
         <v>0</v>
       </c>
       <c r="AE190">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AF190" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="AG190">
         <v>2</v>
       </c>
       <c r="AH190" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>46</v>
       </c>
@@ -18501,19 +18516,19 @@
         <v>0</v>
       </c>
       <c r="AE191">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF191" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="AG191">
         <v>2</v>
       </c>
       <c r="AH191" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>47</v>
       </c>
@@ -18582,19 +18597,19 @@
         <v>0</v>
       </c>
       <c r="AE192">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AF192" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="AG192">
         <v>2</v>
       </c>
       <c r="AH192" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>48</v>
       </c>
@@ -18668,19 +18683,19 @@
         <v>0</v>
       </c>
       <c r="AE193">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AF193" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
       <c r="AG193">
         <v>2</v>
       </c>
       <c r="AH193" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>49</v>
       </c>
@@ -18760,19 +18775,19 @@
         <v>0</v>
       </c>
       <c r="AE194">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AF194" t="s">
-        <v>93</v>
+        <v>524</v>
       </c>
       <c r="AG194">
         <v>2</v>
       </c>
       <c r="AH194" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>50</v>
       </c>
@@ -18849,19 +18864,19 @@
         <v>0</v>
       </c>
       <c r="AE195">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF195" t="s">
-        <v>102</v>
+        <v>526</v>
       </c>
       <c r="AG195">
         <v>2</v>
       </c>
       <c r="AH195" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>51</v>
       </c>
@@ -18941,19 +18956,19 @@
         <v>0</v>
       </c>
       <c r="AE196">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF196" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AG196">
         <v>2</v>
       </c>
       <c r="AH196" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>52</v>
       </c>
@@ -19031,19 +19046,19 @@
         <v>0</v>
       </c>
       <c r="AE197">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AF197" t="s">
-        <v>528</v>
+        <v>94</v>
       </c>
       <c r="AG197">
         <v>2</v>
       </c>
       <c r="AH197" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>53</v>
       </c>
@@ -19121,19 +19136,19 @@
         <v>0</v>
       </c>
       <c r="AE198">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AF198" t="s">
-        <v>529</v>
+        <v>102</v>
       </c>
       <c r="AG198">
         <v>2</v>
       </c>
       <c r="AH198" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>54</v>
       </c>
@@ -19208,19 +19223,19 @@
         <v>0</v>
       </c>
       <c r="AE199">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AF199" t="s">
-        <v>532</v>
+        <v>103</v>
       </c>
       <c r="AG199">
         <v>2</v>
       </c>
       <c r="AH199" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>55</v>
       </c>
@@ -19300,19 +19315,19 @@
         <v>0</v>
       </c>
       <c r="AE200">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AF200" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AG200">
         <v>2</v>
       </c>
       <c r="AH200" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>56</v>
       </c>
@@ -19389,19 +19404,19 @@
         <v>0</v>
       </c>
       <c r="AE201">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AF201" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="AG201">
         <v>2</v>
       </c>
       <c r="AH201" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>57</v>
       </c>
@@ -19478,19 +19493,19 @@
         <v>0</v>
       </c>
       <c r="AE202">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AF202" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="AG202">
         <v>2</v>
       </c>
       <c r="AH202" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>58</v>
       </c>
@@ -19564,19 +19579,19 @@
         <v>0</v>
       </c>
       <c r="AE203">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="AF203" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="AG203">
         <v>2</v>
       </c>
       <c r="AH203" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>59</v>
       </c>
@@ -19653,19 +19668,19 @@
         <v>0</v>
       </c>
       <c r="AE204">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="AF204" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="AG204">
         <v>2</v>
       </c>
       <c r="AH204" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>60</v>
       </c>
@@ -19739,19 +19754,19 @@
         <v>0</v>
       </c>
       <c r="AE205">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="AF205" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="AG205">
         <v>2</v>
       </c>
       <c r="AH205" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>61</v>
       </c>
@@ -19825,19 +19840,19 @@
         <v>0</v>
       </c>
       <c r="AE206">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AF206" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="AG206">
         <v>2</v>
       </c>
       <c r="AH206" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>62</v>
       </c>
@@ -19914,19 +19929,19 @@
         <v>0</v>
       </c>
       <c r="AE207">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AF207" t="s">
-        <v>803</v>
+        <v>546</v>
       </c>
       <c r="AG207">
         <v>2</v>
       </c>
       <c r="AH207" s="37">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>63</v>
       </c>
@@ -19997,19 +20012,19 @@
         <v>0</v>
       </c>
       <c r="AE208">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="AF208" t="s">
-        <v>399</v>
+        <v>551</v>
       </c>
       <c r="AG208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH208" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>64</v>
       </c>
@@ -20081,19 +20096,19 @@
         <v>0</v>
       </c>
       <c r="AE209">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AF209" t="s">
-        <v>16</v>
+        <v>552</v>
       </c>
       <c r="AG209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH209" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>65</v>
       </c>
@@ -20162,19 +20177,19 @@
         <v>0</v>
       </c>
       <c r="AE210">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="AF210" t="s">
-        <v>419</v>
+        <v>557</v>
       </c>
       <c r="AG210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH210" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>66</v>
       </c>
@@ -20248,19 +20263,19 @@
         <v>0</v>
       </c>
       <c r="AE211">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="AF211" t="s">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="AG211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH211" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>67</v>
       </c>
@@ -20331,19 +20346,19 @@
         <v>0</v>
       </c>
       <c r="AE212">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="AF212" t="s">
-        <v>47</v>
+        <v>803</v>
       </c>
       <c r="AG212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH212" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>68</v>
       </c>
@@ -20417,19 +20432,19 @@
         <v>0</v>
       </c>
       <c r="AE213">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="AF213" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="AG213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH213" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>69</v>
       </c>
@@ -20503,19 +20518,19 @@
         <v>0</v>
       </c>
       <c r="AE214">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="AF214" t="s">
-        <v>18</v>
+        <v>567</v>
       </c>
       <c r="AG214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH214" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>70</v>
       </c>
@@ -20586,19 +20601,19 @@
         <v>0</v>
       </c>
       <c r="AE215">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AF215" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="AG215">
         <v>1</v>
       </c>
       <c r="AH215" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>71</v>
       </c>
@@ -20672,19 +20687,19 @@
         <v>0</v>
       </c>
       <c r="AE216">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="AF216" t="s">
-        <v>438</v>
+        <v>16</v>
       </c>
       <c r="AG216">
         <v>1</v>
       </c>
       <c r="AH216" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>72</v>
       </c>
@@ -20755,19 +20770,19 @@
         <v>0</v>
       </c>
       <c r="AE217">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="AF217" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="AG217">
         <v>1</v>
       </c>
       <c r="AH217" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>73</v>
       </c>
@@ -20844,19 +20859,19 @@
         <v>0</v>
       </c>
       <c r="AE218">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF218" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="AG218">
         <v>1</v>
       </c>
       <c r="AH218" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>74</v>
       </c>
@@ -20930,19 +20945,19 @@
         <v>0</v>
       </c>
       <c r="AE219">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AF219" t="s">
-        <v>454</v>
+        <v>47</v>
       </c>
       <c r="AG219">
         <v>1</v>
       </c>
       <c r="AH219" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>75</v>
       </c>
@@ -21016,19 +21031,19 @@
         <v>0</v>
       </c>
       <c r="AE220">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="AF220" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="AG220">
         <v>1</v>
       </c>
       <c r="AH220" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>76</v>
       </c>
@@ -21102,19 +21117,19 @@
         <v>0</v>
       </c>
       <c r="AE221">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="AF221" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="AG221">
         <v>1</v>
       </c>
       <c r="AH221" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>77</v>
       </c>
@@ -21185,19 +21200,19 @@
         <v>0</v>
       </c>
       <c r="AE222">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="AF222" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="AG222">
         <v>1</v>
       </c>
       <c r="AH222" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>78</v>
       </c>
@@ -21274,19 +21289,19 @@
         <v>0</v>
       </c>
       <c r="AE223">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="AF223" t="s">
-        <v>43</v>
+        <v>438</v>
       </c>
       <c r="AG223">
         <v>1</v>
       </c>
       <c r="AH223" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>79</v>
       </c>
@@ -21357,19 +21372,19 @@
         <v>0</v>
       </c>
       <c r="AE224">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="AF224" t="s">
-        <v>44</v>
+        <v>442</v>
       </c>
       <c r="AG224">
         <v>1</v>
       </c>
       <c r="AH224" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>80</v>
       </c>
@@ -21441,19 +21456,19 @@
         <v>0</v>
       </c>
       <c r="AE225">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AF225" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="AG225">
         <v>1</v>
       </c>
       <c r="AH225" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>81</v>
       </c>
@@ -21522,19 +21537,19 @@
         <v>0</v>
       </c>
       <c r="AE226">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="AF226" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="AG226">
         <v>1</v>
       </c>
       <c r="AH226" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>82</v>
       </c>
@@ -21605,19 +21620,19 @@
         <v>0</v>
       </c>
       <c r="AE227">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="AF227" t="s">
-        <v>583</v>
+        <v>75</v>
       </c>
       <c r="AG227">
         <v>1</v>
       </c>
       <c r="AH227" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>83</v>
       </c>
@@ -21691,19 +21706,19 @@
         <v>0</v>
       </c>
       <c r="AE228">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="AF228" t="s">
-        <v>505</v>
+        <v>99</v>
       </c>
       <c r="AG228">
         <v>1</v>
       </c>
       <c r="AH228" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>84</v>
       </c>
@@ -21789,19 +21804,19 @@
         <v>0</v>
       </c>
       <c r="AE229">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="AF229" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="AG229">
         <v>1</v>
       </c>
       <c r="AH229" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>85</v>
       </c>
@@ -21882,19 +21897,19 @@
         <v>0</v>
       </c>
       <c r="AE230">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="AF230" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AG230">
         <v>1</v>
       </c>
       <c r="AH230" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>86</v>
       </c>
@@ -21975,19 +21990,19 @@
         <v>0</v>
       </c>
       <c r="AE231">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="AF231" t="s">
-        <v>516</v>
+        <v>44</v>
       </c>
       <c r="AG231">
         <v>1</v>
       </c>
       <c r="AH231" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>87</v>
       </c>
@@ -22067,19 +22082,19 @@
         <v>0</v>
       </c>
       <c r="AE232">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="AF232" t="s">
-        <v>68</v>
+        <v>487</v>
       </c>
       <c r="AG232">
         <v>1</v>
       </c>
       <c r="AH232" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>88</v>
       </c>
@@ -22162,19 +22177,19 @@
         <v>0</v>
       </c>
       <c r="AE233">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="AF233" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="AG233">
         <v>1</v>
       </c>
       <c r="AH233" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>89</v>
       </c>
@@ -22254,19 +22269,19 @@
         <v>0</v>
       </c>
       <c r="AE234">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="AF234" t="s">
-        <v>92</v>
+        <v>583</v>
       </c>
       <c r="AG234">
         <v>1</v>
       </c>
       <c r="AH234" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>90</v>
       </c>
@@ -22349,19 +22364,19 @@
         <v>0</v>
       </c>
       <c r="AE235">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="AF235" t="s">
-        <v>94</v>
+        <v>505</v>
       </c>
       <c r="AG235">
         <v>1</v>
       </c>
       <c r="AH235" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>91</v>
       </c>
@@ -22441,19 +22456,19 @@
         <v>0</v>
       </c>
       <c r="AE236">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="AF236" t="s">
-        <v>101</v>
+        <v>510</v>
       </c>
       <c r="AG236">
         <v>1</v>
       </c>
       <c r="AH236" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>92</v>
       </c>
@@ -22536,19 +22551,19 @@
         <v>0</v>
       </c>
       <c r="AE237">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="AF237" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="AG237">
         <v>1</v>
       </c>
       <c r="AH237" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>93</v>
       </c>
@@ -22628,19 +22643,19 @@
         <v>0</v>
       </c>
       <c r="AE238">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="AF238" t="s">
-        <v>96</v>
+        <v>516</v>
       </c>
       <c r="AG238">
         <v>1</v>
       </c>
       <c r="AH238" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>94</v>
       </c>
@@ -22721,19 +22736,19 @@
         <v>0</v>
       </c>
       <c r="AE239">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="AF239" t="s">
-        <v>802</v>
+        <v>68</v>
       </c>
       <c r="AG239">
         <v>1</v>
       </c>
       <c r="AH239" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>95</v>
       </c>
@@ -22814,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="AE240">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="AF240" t="s">
-        <v>531</v>
+        <v>92</v>
       </c>
       <c r="AG240">
         <v>1</v>
       </c>
       <c r="AH240" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>96</v>
       </c>
@@ -22904,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="AE241">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AF241" t="s">
-        <v>535</v>
+        <v>101</v>
       </c>
       <c r="AG241">
         <v>1</v>
       </c>
       <c r="AH241" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>97</v>
       </c>
@@ -22993,19 +23008,19 @@
         <v>0</v>
       </c>
       <c r="AE242">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="AF242" t="s">
-        <v>548</v>
+        <v>95</v>
       </c>
       <c r="AG242">
         <v>1</v>
       </c>
       <c r="AH242" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>98</v>
       </c>
@@ -23084,19 +23099,19 @@
         <v>0</v>
       </c>
       <c r="AE243">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="AF243" t="s">
-        <v>549</v>
+        <v>96</v>
       </c>
       <c r="AG243">
         <v>1</v>
       </c>
       <c r="AH243" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>99</v>
       </c>
@@ -23174,19 +23189,19 @@
         <v>0</v>
       </c>
       <c r="AE244">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="AF244" t="s">
-        <v>550</v>
+        <v>802</v>
       </c>
       <c r="AG244">
         <v>1</v>
       </c>
       <c r="AH244" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>100</v>
       </c>
@@ -23261,19 +23276,19 @@
         <v>0</v>
       </c>
       <c r="AE245">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF245" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AG245">
         <v>1</v>
       </c>
       <c r="AH245" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>101</v>
       </c>
@@ -23353,19 +23368,19 @@
         <v>0</v>
       </c>
       <c r="AE246">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AF246" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="AG246">
         <v>1</v>
       </c>
       <c r="AH246" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>102</v>
       </c>
@@ -23445,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="AE247">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="AF247" t="s">
-        <v>86</v>
+        <v>550</v>
       </c>
       <c r="AG247">
         <v>1</v>
       </c>
       <c r="AH247" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>103</v>
       </c>
@@ -23534,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="AE248">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AF248" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AG248">
         <v>1</v>
       </c>
       <c r="AH248" s="37">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>104</v>
       </c>
@@ -23641,7 +23656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>105</v>
       </c>
@@ -23733,7 +23748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>106</v>
       </c>
@@ -23825,7 +23840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>107</v>
       </c>
@@ -23914,7 +23929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>108</v>
       </c>
@@ -23995,7 +24010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>109</v>
       </c>
@@ -24082,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>110</v>
       </c>
@@ -24172,7 +24187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>111</v>
       </c>
@@ -24264,7 +24279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>112</v>
       </c>
@@ -24356,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>113</v>
       </c>
@@ -24445,7 +24460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>114</v>
       </c>
@@ -24535,7 +24550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>115</v>
       </c>
@@ -24625,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>116</v>
       </c>
@@ -24712,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>117</v>
       </c>
@@ -24802,7 +24817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>118</v>
       </c>
@@ -24892,7 +24907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>119</v>
       </c>
@@ -24982,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>120</v>
       </c>
@@ -25075,7 +25090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>121</v>
       </c>
@@ -25168,7 +25183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>122</v>
       </c>
@@ -25258,7 +25273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>123</v>
       </c>
@@ -25348,7 +25363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>124</v>
       </c>
@@ -25438,7 +25453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>125</v>
       </c>
@@ -25499,8 +25514,20 @@
       <c r="W270" s="17" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AE270">
+        <v>241</v>
+      </c>
+      <c r="AF270" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AG270">
+        <v>0</v>
+      </c>
+      <c r="AH270" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>126</v>
       </c>
@@ -25564,8 +25591,20 @@
       <c r="W271" s="17" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AE271">
+        <v>242</v>
+      </c>
+      <c r="AF271" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AG271">
+        <v>0</v>
+      </c>
+      <c r="AH271" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>127</v>
       </c>
@@ -25618,7 +25657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>128</v>
       </c>
@@ -25668,7 +25707,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>129</v>
       </c>
@@ -25721,7 +25760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>130</v>
       </c>
@@ -25771,7 +25810,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>131</v>
       </c>
@@ -25830,7 +25869,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>132</v>
       </c>
@@ -25892,7 +25931,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>133</v>
       </c>
@@ -25951,7 +25990,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>134</v>
       </c>
@@ -26013,7 +26052,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>135</v>
       </c>
@@ -26072,7 +26111,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>136</v>
       </c>
@@ -26131,7 +26170,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>137</v>
       </c>
@@ -26193,7 +26232,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>138</v>
       </c>
@@ -26252,7 +26291,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>139</v>
       </c>
@@ -26313,7 +26352,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>140</v>
       </c>
@@ -26371,7 +26410,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>141</v>
       </c>
@@ -26430,7 +26469,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>142</v>
       </c>
@@ -26486,7 +26525,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>143</v>
       </c>
@@ -26545,7 +26584,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>144</v>
       </c>
@@ -26604,7 +26643,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>145</v>
       </c>
@@ -26660,7 +26699,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>146</v>
       </c>
@@ -26719,7 +26758,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>147</v>
       </c>
@@ -26775,7 +26814,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>148</v>
       </c>
@@ -26834,7 +26873,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>149</v>
       </c>
@@ -26890,7 +26929,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>150</v>
       </c>
@@ -26946,7 +26985,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>151</v>
       </c>
@@ -27010,7 +27049,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>152</v>
       </c>
@@ -27071,7 +27110,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>153</v>
       </c>
@@ -27135,7 +27174,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>154</v>
       </c>
@@ -27199,7 +27238,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>155</v>
       </c>
@@ -27260,7 +27299,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>156</v>
       </c>
@@ -27324,7 +27363,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>157</v>
       </c>
@@ -27385,7 +27424,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>158</v>
       </c>
@@ -27449,7 +27488,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>159</v>
       </c>
@@ -27510,7 +27549,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>160</v>
       </c>
@@ -27569,7 +27608,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>161</v>
       </c>
@@ -27628,7 +27667,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>162</v>
       </c>
@@ -27687,7 +27726,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>163</v>
       </c>
@@ -27746,7 +27785,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>164</v>
       </c>
@@ -27805,7 +27844,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>165</v>
       </c>
@@ -27861,7 +27900,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>166</v>
       </c>
@@ -27922,7 +27961,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>167</v>
       </c>
@@ -27983,7 +28022,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>168</v>
       </c>
@@ -28041,7 +28080,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>169</v>
       </c>
@@ -28102,7 +28141,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>170</v>
       </c>
@@ -28160,7 +28199,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>171</v>
       </c>
@@ -28221,7 +28260,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>172</v>
       </c>
@@ -28282,7 +28321,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>173</v>
       </c>
@@ -28340,7 +28379,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>174</v>
       </c>
@@ -28399,7 +28438,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>175</v>
       </c>
@@ -28458,7 +28497,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>176</v>
       </c>
@@ -28514,7 +28553,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>177</v>
       </c>
@@ -28573,7 +28612,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>178</v>
       </c>
@@ -28629,7 +28668,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>179</v>
       </c>
@@ -28688,7 +28727,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>180</v>
       </c>
@@ -28744,7 +28783,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>181</v>
       </c>
@@ -28802,7 +28841,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>182</v>
       </c>
@@ -28863,7 +28902,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>183</v>
       </c>
@@ -28924,7 +28963,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>184</v>
       </c>
@@ -28980,7 +29019,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>185</v>
       </c>
@@ -29036,7 +29075,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>186</v>
       </c>
@@ -29092,7 +29131,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>187</v>
       </c>
@@ -29151,7 +29190,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>188</v>
       </c>
@@ -29210,7 +29249,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>189</v>
       </c>
@@ -29263,7 +29302,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>190</v>
       </c>
@@ -29315,7 +29354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>191</v>
       </c>
@@ -29367,7 +29406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>192</v>
       </c>
@@ -29416,7 +29455,7 @@
         <v>Galactasolder</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>193</v>
       </c>
@@ -29468,7 +29507,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>194</v>
       </c>
@@ -29517,7 +29556,7 @@
         <v>Cosmocrash</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>195</v>
       </c>
@@ -29569,7 +29608,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>196</v>
       </c>
@@ -29618,7 +29657,7 @@
         <v>Stellarock</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>197</v>
       </c>
@@ -29670,7 +29709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>198</v>
       </c>
@@ -29719,7 +29758,7 @@
         <v>Hast-E</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>199</v>
       </c>
@@ -29771,7 +29810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>200</v>
       </c>
@@ -29823,7 +29862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>201</v>
       </c>
@@ -29872,7 +29911,7 @@
         <v>Soldrota-E</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>202</v>
       </c>
@@ -29922,7 +29961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>203</v>
       </c>
@@ -29972,7 +30011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>204</v>
       </c>
@@ -30019,7 +30058,7 @@
         <v>Blastflames-E</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>205</v>
       </c>
@@ -30069,7 +30108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>206</v>
       </c>
@@ -30119,7 +30158,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>207</v>
       </c>
@@ -30166,7 +30205,7 @@
         <v>Blaster-E</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>208</v>
       </c>
@@ -30216,7 +30255,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>209</v>
       </c>
@@ -30266,7 +30305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>210</v>
       </c>
@@ -30316,7 +30355,7 @@
         <v>Gyarados-E</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>211</v>
       </c>
@@ -30363,7 +30402,7 @@
         <v>Shockfang</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>212</v>
       </c>
@@ -30413,7 +30452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>213</v>
       </c>
@@ -30460,7 +30499,7 @@
         <v>Nightrex</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>214</v>
       </c>
@@ -30510,7 +30549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>215</v>
       </c>
@@ -30557,7 +30596,7 @@
         <v>Durfish-S</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>216</v>
       </c>
@@ -30607,7 +30646,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>217</v>
       </c>
@@ -30653,7 +30692,7 @@
         <v>Wormite-S</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>218</v>
       </c>
@@ -30702,7 +30741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>219</v>
       </c>
@@ -30751,7 +30790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>220</v>
       </c>
@@ -30797,7 +30836,7 @@
         <v>Cluuz-S</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>221</v>
       </c>
@@ -30846,7 +30885,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>222</v>
       </c>
@@ -30895,7 +30934,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>223</v>
       </c>
@@ -30947,7 +30986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>224</v>
       </c>
@@ -30999,7 +31038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>225</v>
       </c>
@@ -31048,7 +31087,7 @@
         <v>Pyrator-S</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>226</v>
       </c>
@@ -31100,7 +31139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>227</v>
       </c>
@@ -31149,7 +31188,7 @@
         <v>Arbok-S</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>228</v>
       </c>
@@ -31196,7 +31235,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>229</v>
       </c>
@@ -31243,7 +31282,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>230</v>
       </c>
@@ -31290,7 +31329,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>231</v>
       </c>
@@ -31337,7 +31376,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>232</v>
       </c>
@@ -31384,7 +31423,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>233</v>
       </c>
@@ -31431,7 +31470,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>234</v>
       </c>
@@ -31478,7 +31517,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>235</v>
       </c>
@@ -31525,7 +31564,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>236</v>
       </c>
@@ -31572,7 +31611,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>237</v>
       </c>
@@ -31615,7 +31654,7 @@
         <v>Kissyfishy-D</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>238</v>
       </c>
@@ -31657,7 +31696,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>239</v>
       </c>
@@ -31699,7 +31738,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>240</v>
       </c>
@@ -31741,7 +31780,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B622">
         <f>MAX(B385:B620)</f>
         <v>0</v>
@@ -31852,7 +31891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG30:AH269">
+  <conditionalFormatting sqref="AG30:AH271">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56023BE4-28A6-41CC-B784-7CF892FE31BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBC995E-455C-4E37-8FF2-EADB7CAF7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1186">
   <si>
     <t>Leafer</t>
   </si>
@@ -3528,6 +3528,72 @@
   </si>
   <si>
     <t>Scrappy</t>
+  </si>
+  <si>
+    <t>Unburden</t>
+  </si>
+  <si>
+    <t>Abra</t>
+  </si>
+  <si>
+    <t>Kadabra</t>
+  </si>
+  <si>
+    <t>Alakazam</t>
+  </si>
+  <si>
+    <t>Flamigo</t>
+  </si>
+  <si>
+    <t>Sneasel</t>
+  </si>
+  <si>
+    <t>Sneasler</t>
+  </si>
+  <si>
+    <t>Weavile</t>
+  </si>
+  <si>
+    <t>Sneasel-H</t>
+  </si>
+  <si>
+    <t>Solosis</t>
+  </si>
+  <si>
+    <t>Duosion</t>
+  </si>
+  <si>
+    <t>Reuniclus</t>
+  </si>
+  <si>
+    <t>Solosis-X</t>
+  </si>
+  <si>
+    <t>Duosion-X</t>
+  </si>
+  <si>
+    <t>Reuniclus-X</t>
+  </si>
+  <si>
+    <t>Seviper</t>
+  </si>
+  <si>
+    <t>Hissimitar</t>
+  </si>
+  <si>
+    <t>Gulpin</t>
+  </si>
+  <si>
+    <t>Swalot</t>
+  </si>
+  <si>
+    <t>Gulpin-X</t>
+  </si>
+  <si>
+    <t>Swalot-X</t>
+  </si>
+  <si>
+    <t>Plasamp</t>
   </si>
 </sst>
 </file>
@@ -3537,7 +3603,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3616,8 +3682,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3752,6 +3825,36 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3775,7 +3878,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
@@ -3820,6 +3923,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -3900,8 +4012,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J385" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="B145:J385" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J409" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="B145:J409" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{954E08A8-D138-4D6D-97C7-F47E4324725D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F9097124-9DD8-47D1-881E-F9976C72C702}" name="Total" dataCellStyle="60% - Accent4">
@@ -4271,10 +4383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
-  <dimension ref="A1:AT622"/>
+  <dimension ref="A1:AT621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="N196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W212" sqref="W212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18663,7 +18775,7 @@
       <c r="Q193">
         <v>22</v>
       </c>
-      <c r="W193" s="10" t="s">
+      <c r="W193" s="46" t="s">
         <v>362</v>
       </c>
       <c r="Y193">
@@ -20326,7 +20438,7 @@
         <f t="shared" si="14"/>
         <v>Tricercil</v>
       </c>
-      <c r="W212" s="10" t="s">
+      <c r="W212" s="46" t="s">
         <v>204</v>
       </c>
       <c r="Y212">
@@ -21422,7 +21534,9 @@
       <c r="L225" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="M225" s="20"/>
+      <c r="M225" s="20" t="s">
+        <v>1164</v>
+      </c>
       <c r="N225" s="10" t="s">
         <v>700</v>
       </c>
@@ -21506,7 +21620,9 @@
       <c r="L226" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="M226" s="20"/>
+      <c r="M226" s="20" t="s">
+        <v>1164</v>
+      </c>
       <c r="N226" s="10" t="s">
         <v>701</v>
       </c>
@@ -22693,7 +22809,9 @@
       <c r="L239" t="s">
         <v>642</v>
       </c>
-      <c r="M239" s="20"/>
+      <c r="M239" s="20" t="s">
+        <v>1164</v>
+      </c>
       <c r="N239" s="32" t="s">
         <v>769</v>
       </c>
@@ -22786,7 +22904,9 @@
       <c r="L240" t="s">
         <v>671</v>
       </c>
-      <c r="M240" s="20"/>
+      <c r="M240" s="20" t="s">
+        <v>1164</v>
+      </c>
       <c r="N240" s="10" t="s">
         <v>695</v>
       </c>
@@ -22879,7 +22999,9 @@
       <c r="L241" t="s">
         <v>671</v>
       </c>
-      <c r="M241" s="21"/>
+      <c r="M241" s="40" t="s">
+        <v>1164</v>
+      </c>
       <c r="N241" s="32" t="s">
         <v>727</v>
       </c>
@@ -31780,9 +31902,651 @@
         <v>623</v>
       </c>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B622">
-        <f>MAX(B385:B620)</f>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>241</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C386" s="1">
+        <f>SUM(D386:I386)</f>
+        <v>350</v>
+      </c>
+      <c r="D386" s="2">
+        <v>48</v>
+      </c>
+      <c r="E386" s="3">
+        <v>35</v>
+      </c>
+      <c r="F386" s="4">
+        <v>42</v>
+      </c>
+      <c r="G386" s="5">
+        <v>105</v>
+      </c>
+      <c r="H386" s="4">
+        <v>60</v>
+      </c>
+      <c r="I386" s="6">
+        <v>60</v>
+      </c>
+      <c r="J386">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>242</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C387" s="1">
+        <f>SUM(D387:I387)</f>
+        <v>525</v>
+      </c>
+      <c r="D387" s="2">
+        <v>83</v>
+      </c>
+      <c r="E387" s="3">
+        <v>55</v>
+      </c>
+      <c r="F387" s="4">
+        <v>90</v>
+      </c>
+      <c r="G387" s="5">
+        <v>130</v>
+      </c>
+      <c r="H387" s="4">
+        <v>81</v>
+      </c>
+      <c r="I387" s="6">
+        <v>86</v>
+      </c>
+      <c r="J387">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>243</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C388" s="1">
+        <f>SUM(D388:I388)</f>
+        <v>310</v>
+      </c>
+      <c r="D388" s="2">
+        <v>25</v>
+      </c>
+      <c r="E388" s="3">
+        <v>20</v>
+      </c>
+      <c r="F388" s="4">
+        <v>15</v>
+      </c>
+      <c r="G388" s="5">
+        <v>105</v>
+      </c>
+      <c r="H388" s="4">
+        <v>55</v>
+      </c>
+      <c r="I388" s="6">
+        <v>90</v>
+      </c>
+      <c r="J388">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>244</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C389" s="1">
+        <f>SUM(D389:I389)</f>
+        <v>400</v>
+      </c>
+      <c r="D389" s="2">
+        <v>40</v>
+      </c>
+      <c r="E389" s="3">
+        <v>35</v>
+      </c>
+      <c r="F389" s="4">
+        <v>30</v>
+      </c>
+      <c r="G389" s="5">
+        <v>120</v>
+      </c>
+      <c r="H389" s="4">
+        <v>70</v>
+      </c>
+      <c r="I389" s="6">
+        <v>105</v>
+      </c>
+      <c r="J389">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>245</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C390" s="1">
+        <f>SUM(D390:I390)</f>
+        <v>500</v>
+      </c>
+      <c r="D390" s="2">
+        <v>55</v>
+      </c>
+      <c r="E390" s="3">
+        <v>50</v>
+      </c>
+      <c r="F390" s="4">
+        <v>45</v>
+      </c>
+      <c r="G390" s="5">
+        <v>135</v>
+      </c>
+      <c r="H390" s="4">
+        <v>95</v>
+      </c>
+      <c r="I390" s="6">
+        <v>120</v>
+      </c>
+      <c r="J390">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>246</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C391" s="1">
+        <f>SUM(D391:I391)</f>
+        <v>500</v>
+      </c>
+      <c r="D391" s="2">
+        <v>82</v>
+      </c>
+      <c r="E391" s="3">
+        <v>115</v>
+      </c>
+      <c r="F391" s="4">
+        <v>74</v>
+      </c>
+      <c r="G391" s="5">
+        <v>75</v>
+      </c>
+      <c r="H391" s="4">
+        <v>64</v>
+      </c>
+      <c r="I391" s="6">
+        <v>90</v>
+      </c>
+      <c r="J391">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>247</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C392" s="1">
+        <f>SUM(D392:I392)</f>
+        <v>430</v>
+      </c>
+      <c r="D392" s="2">
+        <v>55</v>
+      </c>
+      <c r="E392" s="3">
+        <v>95</v>
+      </c>
+      <c r="F392" s="4">
+        <v>55</v>
+      </c>
+      <c r="G392" s="5">
+        <v>35</v>
+      </c>
+      <c r="H392" s="4">
+        <v>75</v>
+      </c>
+      <c r="I392" s="6">
+        <v>115</v>
+      </c>
+      <c r="J392">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>248</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C393" s="1">
+        <f t="shared" ref="C393:C396" si="20">SUM(D393:I393)</f>
+        <v>510</v>
+      </c>
+      <c r="D393" s="2">
+        <v>70</v>
+      </c>
+      <c r="E393" s="3">
+        <v>120</v>
+      </c>
+      <c r="F393" s="4">
+        <v>65</v>
+      </c>
+      <c r="G393" s="5">
+        <v>45</v>
+      </c>
+      <c r="H393" s="4">
+        <v>85</v>
+      </c>
+      <c r="I393" s="6">
+        <v>125</v>
+      </c>
+      <c r="J393">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>249</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C394" s="1">
+        <f t="shared" si="20"/>
+        <v>430</v>
+      </c>
+      <c r="D394" s="41">
+        <v>55</v>
+      </c>
+      <c r="E394" s="42">
+        <v>95</v>
+      </c>
+      <c r="F394" s="43">
+        <v>55</v>
+      </c>
+      <c r="G394" s="44">
+        <v>35</v>
+      </c>
+      <c r="H394" s="43">
+        <v>75</v>
+      </c>
+      <c r="I394" s="45">
+        <v>115</v>
+      </c>
+      <c r="J394">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>250</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C395" s="1">
+        <f t="shared" si="20"/>
+        <v>510</v>
+      </c>
+      <c r="D395" s="2">
+        <v>80</v>
+      </c>
+      <c r="E395" s="3">
+        <v>130</v>
+      </c>
+      <c r="F395" s="4">
+        <v>60</v>
+      </c>
+      <c r="G395" s="5">
+        <v>40</v>
+      </c>
+      <c r="H395" s="4">
+        <v>80</v>
+      </c>
+      <c r="I395" s="6">
+        <v>120</v>
+      </c>
+      <c r="J395">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>251</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C396" s="1">
+        <f t="shared" si="20"/>
+        <v>290</v>
+      </c>
+      <c r="D396" s="2">
+        <v>45</v>
+      </c>
+      <c r="E396" s="3">
+        <v>30</v>
+      </c>
+      <c r="F396" s="4">
+        <v>40</v>
+      </c>
+      <c r="G396" s="5">
+        <v>105</v>
+      </c>
+      <c r="H396" s="4">
+        <v>50</v>
+      </c>
+      <c r="I396" s="6">
+        <v>20</v>
+      </c>
+      <c r="J396">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>252</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C397" s="1">
+        <f>SUM(D397:I397)</f>
+        <v>370</v>
+      </c>
+      <c r="D397" s="2">
+        <v>65</v>
+      </c>
+      <c r="E397" s="3">
+        <v>40</v>
+      </c>
+      <c r="F397" s="4">
+        <v>50</v>
+      </c>
+      <c r="G397" s="5">
+        <v>125</v>
+      </c>
+      <c r="H397" s="4">
+        <v>60</v>
+      </c>
+      <c r="I397" s="6">
+        <v>30</v>
+      </c>
+      <c r="J397">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>253</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C398" s="1">
+        <f>SUM(D398:I398)</f>
+        <v>490</v>
+      </c>
+      <c r="D398" s="2">
+        <v>110</v>
+      </c>
+      <c r="E398" s="3">
+        <v>65</v>
+      </c>
+      <c r="F398" s="4">
+        <v>75</v>
+      </c>
+      <c r="G398" s="5">
+        <v>125</v>
+      </c>
+      <c r="H398" s="4">
+        <v>85</v>
+      </c>
+      <c r="I398" s="6">
+        <v>30</v>
+      </c>
+      <c r="J398">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>254</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C399" s="1">
+        <f>SUM(D399:I399)</f>
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>255</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C400" s="1">
+        <f>SUM(D400:I400)</f>
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>256</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C401" s="1">
+        <f>SUM(D401:I401)</f>
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>257</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C402" s="1">
+        <f>SUM(D402:I402)</f>
+        <v>458</v>
+      </c>
+      <c r="D402" s="2">
+        <v>73</v>
+      </c>
+      <c r="E402" s="3">
+        <v>100</v>
+      </c>
+      <c r="F402" s="4">
+        <v>60</v>
+      </c>
+      <c r="G402" s="5">
+        <v>100</v>
+      </c>
+      <c r="H402" s="4">
+        <v>60</v>
+      </c>
+      <c r="I402" s="6">
+        <v>65</v>
+      </c>
+      <c r="J402">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>258</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C403" s="1">
+        <f>SUM(D403:I403)</f>
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>259</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C404" s="1">
+        <f>SUM(D404:I404)</f>
+        <v>312</v>
+      </c>
+      <c r="D404" s="2">
+        <v>80</v>
+      </c>
+      <c r="E404" s="3">
+        <v>43</v>
+      </c>
+      <c r="F404" s="4">
+        <v>53</v>
+      </c>
+      <c r="G404" s="5">
+        <v>43</v>
+      </c>
+      <c r="H404" s="4">
+        <v>53</v>
+      </c>
+      <c r="I404" s="6">
+        <v>40</v>
+      </c>
+      <c r="J404">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>260</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C405" s="1">
+        <f>SUM(D405:I405)</f>
+        <v>487</v>
+      </c>
+      <c r="D405" s="2">
+        <v>120</v>
+      </c>
+      <c r="E405" s="3">
+        <v>73</v>
+      </c>
+      <c r="F405" s="4">
+        <v>83</v>
+      </c>
+      <c r="G405" s="5">
+        <v>73</v>
+      </c>
+      <c r="H405" s="4">
+        <v>83</v>
+      </c>
+      <c r="I405" s="6">
+        <v>55</v>
+      </c>
+      <c r="J405">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>261</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C406" s="1">
+        <f>SUM(D406:I406)</f>
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>262</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C407" s="1">
+        <f>SUM(D407:I407)</f>
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>263</v>
+      </c>
+      <c r="B408" t="s">
+        <v>864</v>
+      </c>
+      <c r="C408" s="1">
+        <f>SUM(D408:I408)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>264</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C409" s="1">
+        <f>SUM(D409:I409)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621">
+        <f>MAX(B385:B619)</f>
         <v>0</v>
       </c>
     </row>
@@ -31904,7 +32668,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C140 C146:C385" formulaRange="1"/>
+    <ignoredError sqref="C1:C140 C146:C407" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="4">
     <tablePart r:id="rId2"/>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBC995E-455C-4E37-8FF2-EADB7CAF7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8400FC-EF5A-4663-B53F-C28948B65CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -3878,7 +3878,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
@@ -3931,7 +3931,6 @@
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -4385,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W212" sqref="W212"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M186" sqref="M186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14418,7 +14417,7 @@
         <v>389</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" ref="C146:C209" si="10">SUM(D146:I146)</f>
+        <f>SUM(D146:I146)</f>
         <v>335</v>
       </c>
       <c r="D146" s="2">
@@ -14458,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="str">
-        <f t="shared" ref="P146:P209" si="11">B146</f>
+        <f t="shared" ref="P146:P209" si="10">B146</f>
         <v>Twigle</v>
       </c>
       <c r="Q146">
@@ -14513,7 +14512,7 @@
         <v>390</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D147:I147)</f>
         <v>402</v>
       </c>
       <c r="D147" s="2">
@@ -14553,7 +14552,7 @@
         <v>2</v>
       </c>
       <c r="P147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Torgged</v>
       </c>
       <c r="Q147">
@@ -14608,7 +14607,7 @@
         <v>391</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D148:I148)</f>
         <v>517</v>
       </c>
       <c r="D148" s="2">
@@ -14648,7 +14647,7 @@
         <v>3</v>
       </c>
       <c r="P148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Tortugis</v>
       </c>
       <c r="S148">
@@ -14700,7 +14699,7 @@
         <v>392</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D149:I149)</f>
         <v>329</v>
       </c>
       <c r="D149" s="2">
@@ -14740,7 +14739,7 @@
         <v>4</v>
       </c>
       <c r="P149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Lagma</v>
       </c>
       <c r="Q149">
@@ -14795,7 +14794,7 @@
         <v>393</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D150:I150)</f>
         <v>399</v>
       </c>
       <c r="D150" s="2">
@@ -14835,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Maguide</v>
       </c>
       <c r="Q150">
@@ -14890,7 +14889,7 @@
         <v>394</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D151:I151)</f>
         <v>521</v>
       </c>
       <c r="D151" s="2">
@@ -14930,7 +14929,7 @@
         <v>6</v>
       </c>
       <c r="P151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Magron</v>
       </c>
       <c r="S151">
@@ -14982,7 +14981,7 @@
         <v>395</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D152:I152)</f>
         <v>325</v>
       </c>
       <c r="D152" s="2">
@@ -15022,7 +15021,7 @@
         <v>7</v>
       </c>
       <c r="P152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Lizish</v>
       </c>
       <c r="Q152">
@@ -15080,7 +15079,7 @@
         <v>396</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D153:I153)</f>
         <v>400</v>
       </c>
       <c r="D153" s="2">
@@ -15120,7 +15119,7 @@
         <v>8</v>
       </c>
       <c r="P153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Iguaton</v>
       </c>
       <c r="Q153">
@@ -15175,7 +15174,7 @@
         <v>397</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D154:I154)</f>
         <v>530</v>
       </c>
       <c r="D154" s="2">
@@ -15215,7 +15214,7 @@
         <v>9</v>
       </c>
       <c r="P154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Dragave</v>
       </c>
       <c r="S154">
@@ -15267,7 +15266,7 @@
         <v>398</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D155:I155)</f>
         <v>295</v>
       </c>
       <c r="D155" s="2">
@@ -15307,7 +15306,7 @@
         <v>10</v>
       </c>
       <c r="P155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Hummingspark</v>
       </c>
       <c r="Q155">
@@ -15362,7 +15361,7 @@
         <v>399</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D156:I156)</f>
         <v>380</v>
       </c>
       <c r="D156" s="2">
@@ -15402,7 +15401,7 @@
         <v>11</v>
       </c>
       <c r="P156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Flashclaw</v>
       </c>
       <c r="Q156">
@@ -15457,7 +15456,7 @@
         <v>400</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D157:I157)</f>
         <v>500</v>
       </c>
       <c r="D157" s="2">
@@ -15497,7 +15496,7 @@
         <v>12</v>
       </c>
       <c r="P157" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Magestiflash</v>
       </c>
       <c r="S157">
@@ -15549,7 +15548,7 @@
         <v>401</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D158:I158)</f>
         <v>276</v>
       </c>
       <c r="D158" s="2">
@@ -15589,7 +15588,7 @@
         <v>13</v>
       </c>
       <c r="P158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pigo</v>
       </c>
       <c r="Q158">
@@ -15620,7 +15619,7 @@
         <v>0.1</v>
       </c>
       <c r="AC158" s="38">
-        <f t="shared" ref="AC158:AC221" si="12">AB158*AA158</f>
+        <f t="shared" ref="AC158:AC221" si="11">AB158*AA158</f>
         <v>0.1</v>
       </c>
       <c r="AE158">
@@ -15644,7 +15643,7 @@
         <v>402</v>
       </c>
       <c r="C159" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D159:I159)</f>
         <v>401</v>
       </c>
       <c r="D159" s="2">
@@ -15684,7 +15683,7 @@
         <v>14</v>
       </c>
       <c r="P159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pigonat</v>
       </c>
       <c r="Q159">
@@ -15715,7 +15714,7 @@
         <v>0.1</v>
       </c>
       <c r="AC159" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="AE159">
@@ -15739,7 +15738,7 @@
         <v>403</v>
       </c>
       <c r="C160" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D160:I160)</f>
         <v>495</v>
       </c>
       <c r="D160" s="2">
@@ -15779,7 +15778,7 @@
         <v>15</v>
       </c>
       <c r="P160" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pigoga</v>
       </c>
       <c r="S160">
@@ -15807,7 +15806,7 @@
         <v>0.1</v>
       </c>
       <c r="AC160" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="AE160">
@@ -15831,7 +15830,7 @@
         <v>15</v>
       </c>
       <c r="C161" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D161:I161)</f>
         <v>350</v>
       </c>
       <c r="D161" s="2">
@@ -15871,7 +15870,7 @@
         <v>16</v>
       </c>
       <c r="P161" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Hammo</v>
       </c>
       <c r="Q161" t="s">
@@ -15902,7 +15901,7 @@
         <v>0.1</v>
       </c>
       <c r="AC161" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="AE161">
@@ -15926,7 +15925,7 @@
         <v>16</v>
       </c>
       <c r="C162" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D162:I162)</f>
         <v>490</v>
       </c>
       <c r="D162" s="2">
@@ -15966,7 +15965,7 @@
         <v>17</v>
       </c>
       <c r="P162" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>HammyBoy</v>
       </c>
       <c r="Q162" t="s">
@@ -15997,7 +15996,7 @@
         <v>0.1</v>
       </c>
       <c r="AC162" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="AE162">
@@ -16021,7 +16020,7 @@
         <v>404</v>
       </c>
       <c r="C163" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D163:I163)</f>
         <v>535</v>
       </c>
       <c r="D163" s="2">
@@ -16061,7 +16060,7 @@
         <v>18</v>
       </c>
       <c r="P163" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Hamthorno</v>
       </c>
       <c r="S163">
@@ -16092,7 +16091,7 @@
         <v>0.09</v>
       </c>
       <c r="AC163" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.09</v>
       </c>
       <c r="AE163">
@@ -16116,7 +16115,7 @@
         <v>405</v>
       </c>
       <c r="C164" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D164:I164)</f>
         <v>330</v>
       </c>
       <c r="D164" s="2">
@@ -16156,7 +16155,7 @@
         <v>19</v>
       </c>
       <c r="P164" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Sheabear</v>
       </c>
       <c r="Q164">
@@ -16187,7 +16186,7 @@
         <v>0.09</v>
       </c>
       <c r="AC164" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.09</v>
       </c>
       <c r="AE164">
@@ -16211,7 +16210,7 @@
         <v>406</v>
       </c>
       <c r="C165" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D165:I165)</f>
         <v>450</v>
       </c>
       <c r="D165" s="2">
@@ -16251,7 +16250,7 @@
         <v>20</v>
       </c>
       <c r="P165" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Dualbear</v>
       </c>
       <c r="Q165">
@@ -16282,7 +16281,7 @@
         <v>0.09</v>
       </c>
       <c r="AC165" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.09</v>
       </c>
       <c r="AE165">
@@ -16306,7 +16305,7 @@
         <v>407</v>
       </c>
       <c r="C166" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D166:I166)</f>
         <v>515</v>
       </c>
       <c r="D166" s="2">
@@ -16346,7 +16345,7 @@
         <v>21</v>
       </c>
       <c r="P166" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Spacebear</v>
       </c>
       <c r="S166">
@@ -16374,7 +16373,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="AC166" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE166">
@@ -16398,7 +16397,7 @@
         <v>408</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D167:I167)</f>
         <v>200</v>
       </c>
       <c r="D167" s="2">
@@ -16436,7 +16435,7 @@
         <v>22</v>
       </c>
       <c r="P167" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Bealtle</v>
       </c>
       <c r="Q167">
@@ -16467,7 +16466,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="AC167" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE167">
@@ -16491,7 +16490,7 @@
         <v>409</v>
       </c>
       <c r="C168" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D168:I168)</f>
         <v>375</v>
       </c>
       <c r="D168" s="2">
@@ -16529,7 +16528,7 @@
         <v>23</v>
       </c>
       <c r="P168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Centatle</v>
       </c>
       <c r="Q168">
@@ -16560,7 +16559,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC168" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE168">
@@ -16584,7 +16583,7 @@
         <v>410</v>
       </c>
       <c r="C169" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D169:I169)</f>
         <v>505</v>
       </c>
       <c r="D169" s="2">
@@ -16622,7 +16621,7 @@
         <v>24</v>
       </c>
       <c r="P169" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Curlatoral</v>
       </c>
       <c r="S169">
@@ -16650,7 +16649,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC169" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE169">
@@ -16674,7 +16673,7 @@
         <v>411</v>
       </c>
       <c r="C170" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D170:I170)</f>
         <v>505</v>
       </c>
       <c r="D170" s="2">
@@ -16712,7 +16711,7 @@
         <v>25</v>
       </c>
       <c r="P170" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Millistone</v>
       </c>
       <c r="Q170" t="s">
@@ -16743,7 +16742,7 @@
         <v>0.06</v>
       </c>
       <c r="AC170" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.06</v>
       </c>
       <c r="AE170">
@@ -16767,7 +16766,7 @@
         <v>11</v>
       </c>
       <c r="C171" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D171:I171)</f>
         <v>405</v>
       </c>
       <c r="D171" s="2">
@@ -16805,7 +16804,7 @@
         <v>26</v>
       </c>
       <c r="P171" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Sapwin</v>
       </c>
       <c r="Q171">
@@ -16836,7 +16835,7 @@
         <v>0.05</v>
       </c>
       <c r="AC171" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="AE171">
@@ -16860,7 +16859,7 @@
         <v>12</v>
       </c>
       <c r="C172" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D172:I172)</f>
         <v>490</v>
       </c>
       <c r="D172" s="2">
@@ -16898,7 +16897,7 @@
         <v>27</v>
       </c>
       <c r="P172" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Treewin</v>
       </c>
       <c r="Q172" t="s">
@@ -16926,7 +16925,7 @@
         <v>0.05</v>
       </c>
       <c r="AC172" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="AE172">
@@ -16950,7 +16949,7 @@
         <v>412</v>
       </c>
       <c r="C173" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D173:I173)</f>
         <v>560</v>
       </c>
       <c r="D173" s="2">
@@ -16988,7 +16987,7 @@
         <v>28</v>
       </c>
       <c r="P173" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Winagrow</v>
       </c>
       <c r="S173">
@@ -17013,7 +17012,7 @@
         <v>0.05</v>
       </c>
       <c r="AC173" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="AE173">
@@ -17037,7 +17036,7 @@
         <v>413</v>
       </c>
       <c r="C174" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D174:I174)</f>
         <v>280</v>
       </c>
       <c r="D174" s="2">
@@ -17077,7 +17076,7 @@
         <v>29</v>
       </c>
       <c r="P174" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Budew</v>
       </c>
       <c r="Q174" t="s">
@@ -17105,7 +17104,7 @@
         <v>0.05</v>
       </c>
       <c r="AC174" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="AE174">
@@ -17129,7 +17128,7 @@
         <v>414</v>
       </c>
       <c r="C175" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D175:I175)</f>
         <v>400</v>
       </c>
       <c r="D175" s="2">
@@ -17169,7 +17168,7 @@
         <v>30</v>
       </c>
       <c r="P175" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Roselia</v>
       </c>
       <c r="Q175" t="s">
@@ -17197,7 +17196,7 @@
         <v>0.05</v>
       </c>
       <c r="AC175" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="AE175">
@@ -17221,7 +17220,7 @@
         <v>415</v>
       </c>
       <c r="C176" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D176:I176)</f>
         <v>515</v>
       </c>
       <c r="D176" s="2">
@@ -17261,7 +17260,7 @@
         <v>31</v>
       </c>
       <c r="P176" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Roserade</v>
       </c>
       <c r="S176">
@@ -17286,7 +17285,7 @@
         <v>0.03</v>
       </c>
       <c r="AC176" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.03</v>
       </c>
       <c r="AE176">
@@ -17310,7 +17309,7 @@
         <v>416</v>
       </c>
       <c r="C177" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D177:I177)</f>
         <v>310</v>
       </c>
       <c r="D177" s="2">
@@ -17348,7 +17347,7 @@
         <v>32</v>
       </c>
       <c r="P177" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Sewaddle</v>
       </c>
       <c r="Q177">
@@ -17376,7 +17375,7 @@
         <v>0.02</v>
       </c>
       <c r="AC177" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
       <c r="AE177">
@@ -17400,7 +17399,7 @@
         <v>417</v>
       </c>
       <c r="C178" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D178:I178)</f>
         <v>380</v>
       </c>
       <c r="D178" s="2">
@@ -17438,7 +17437,7 @@
         <v>33</v>
       </c>
       <c r="P178" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Swadloon</v>
       </c>
       <c r="Q178" t="s">
@@ -17466,7 +17465,7 @@
         <v>0.02</v>
       </c>
       <c r="AC178" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
       <c r="AE178">
@@ -17490,7 +17489,7 @@
         <v>418</v>
       </c>
       <c r="C179" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D179:I179)</f>
         <v>500</v>
       </c>
       <c r="D179" s="2">
@@ -17528,7 +17527,7 @@
         <v>34</v>
       </c>
       <c r="P179" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Leavanny</v>
       </c>
       <c r="S179">
@@ -17553,7 +17552,7 @@
         <v>0.02</v>
       </c>
       <c r="AC179" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
       <c r="AE179">
@@ -17577,7 +17576,7 @@
         <v>419</v>
       </c>
       <c r="C180" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D180:I180)</f>
         <v>300</v>
       </c>
       <c r="D180" s="2">
@@ -17615,7 +17614,7 @@
         <v>35</v>
       </c>
       <c r="P180" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Grubbin</v>
       </c>
       <c r="Q180">
@@ -17643,7 +17642,7 @@
         <v>0.02</v>
       </c>
       <c r="AC180" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
       <c r="AE180">
@@ -17667,7 +17666,7 @@
         <v>420</v>
       </c>
       <c r="C181" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D181:I181)</f>
         <v>400</v>
       </c>
       <c r="D181" s="2">
@@ -17705,7 +17704,7 @@
         <v>36</v>
       </c>
       <c r="P181" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Charjabug</v>
       </c>
       <c r="Q181" t="s">
@@ -17733,7 +17732,7 @@
         <v>0.01</v>
       </c>
       <c r="AC181" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="AE181">
@@ -17757,7 +17756,7 @@
         <v>421</v>
       </c>
       <c r="C182" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D182:I182)</f>
         <v>512</v>
       </c>
       <c r="D182" s="2">
@@ -17795,7 +17794,7 @@
         <v>37</v>
       </c>
       <c r="P182" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Vikavolt</v>
       </c>
       <c r="S182">
@@ -17820,7 +17819,7 @@
         <v>0.01</v>
       </c>
       <c r="AC182" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
       <c r="AE182">
@@ -17844,7 +17843,7 @@
         <v>422</v>
       </c>
       <c r="C183" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D183:I183)</f>
         <v>450</v>
       </c>
       <c r="D183" s="2">
@@ -17884,7 +17883,7 @@
         <v>38</v>
       </c>
       <c r="P183" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Busheep</v>
       </c>
       <c r="S183">
@@ -17909,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="AC183" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE183">
@@ -17933,7 +17932,7 @@
         <v>423</v>
       </c>
       <c r="C184" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D184:I184)</f>
         <v>520</v>
       </c>
       <c r="D184" s="2">
@@ -17964,7 +17963,7 @@
         <v>166</v>
       </c>
       <c r="M184" s="20" t="s">
-        <v>608</v>
+        <v>1128</v>
       </c>
       <c r="N184" s="32" t="s">
         <v>194</v>
@@ -17973,7 +17972,7 @@
         <v>39</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Ramant</v>
       </c>
       <c r="Q184" t="s">
@@ -18004,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="AC184" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE184">
@@ -18028,7 +18027,7 @@
         <v>424</v>
       </c>
       <c r="C185" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D185:I185)</f>
         <v>520</v>
       </c>
       <c r="D185" s="2">
@@ -18059,7 +18058,7 @@
         <v>612</v>
       </c>
       <c r="M185" s="20" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="N185" s="17" t="s">
         <v>746</v>
@@ -18068,7 +18067,7 @@
         <v>40</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Bushewe</v>
       </c>
       <c r="Q185" t="s">
@@ -18096,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="AC185" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE185">
@@ -18120,7 +18119,7 @@
         <v>47</v>
       </c>
       <c r="C186" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D186:I186)</f>
         <v>315</v>
       </c>
       <c r="D186" s="2">
@@ -18158,7 +18157,7 @@
         <v>41</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Bugik</v>
       </c>
       <c r="Q186">
@@ -18186,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="AC186" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE186">
@@ -18210,7 +18209,7 @@
         <v>48</v>
       </c>
       <c r="C187" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D187:I187)</f>
         <v>401</v>
       </c>
       <c r="D187" s="2">
@@ -18248,7 +18247,7 @@
         <v>42</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Swordik</v>
       </c>
       <c r="Q187">
@@ -18276,7 +18275,7 @@
         <v>0</v>
       </c>
       <c r="AC187" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE187">
@@ -18300,7 +18299,7 @@
         <v>49</v>
       </c>
       <c r="C188" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D188:I188)</f>
         <v>505</v>
       </c>
       <c r="D188" s="2">
@@ -18338,7 +18337,7 @@
         <v>43</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Ninjakik</v>
       </c>
       <c r="S188">
@@ -18363,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="AC188" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE188">
@@ -18387,7 +18386,7 @@
         <v>577</v>
       </c>
       <c r="C189" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D189:I189)</f>
         <v>220</v>
       </c>
       <c r="D189" s="2">
@@ -18425,7 +18424,7 @@
         <v>44</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Lotad</v>
       </c>
       <c r="Q189">
@@ -18453,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="AC189" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE189">
@@ -18477,7 +18476,7 @@
         <v>578</v>
       </c>
       <c r="C190" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D190:I190)</f>
         <v>340</v>
       </c>
       <c r="D190" s="2">
@@ -18515,7 +18514,7 @@
         <v>45</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Lombre</v>
       </c>
       <c r="Q190" t="s">
@@ -18543,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="AC190" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE190">
@@ -18567,7 +18566,7 @@
         <v>579</v>
       </c>
       <c r="C191" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D191:I191)</f>
         <v>480</v>
       </c>
       <c r="D191" s="2">
@@ -18605,7 +18604,7 @@
         <v>46</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Ludicolo</v>
       </c>
       <c r="W191" s="12" t="s">
@@ -18624,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="AC191" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE191">
@@ -18648,7 +18647,7 @@
         <v>426</v>
       </c>
       <c r="C192" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D192:I192)</f>
         <v>455</v>
       </c>
       <c r="D192" s="2">
@@ -18686,7 +18685,7 @@
         <v>47</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Bluebunn</v>
       </c>
       <c r="W192" s="10" t="s">
@@ -18705,7 +18704,7 @@
         <v>0</v>
       </c>
       <c r="AC192" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE192">
@@ -18729,7 +18728,7 @@
         <v>17</v>
       </c>
       <c r="C193" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D193:I193)</f>
         <v>325</v>
       </c>
       <c r="D193" s="2">
@@ -18769,13 +18768,13 @@
         <v>48</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Rocky</v>
       </c>
       <c r="Q193">
         <v>22</v>
       </c>
-      <c r="W193" s="46" t="s">
+      <c r="W193" t="s">
         <v>362</v>
       </c>
       <c r="Y193">
@@ -18791,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="AC193" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE193">
@@ -18815,7 +18814,7 @@
         <v>18</v>
       </c>
       <c r="C194" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D194:I194)</f>
         <v>425</v>
       </c>
       <c r="D194" s="2">
@@ -18855,7 +18854,7 @@
         <v>49</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Boulder</v>
       </c>
       <c r="Q194" t="s">
@@ -18883,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="AC194" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE194">
@@ -18907,7 +18906,7 @@
         <v>19</v>
       </c>
       <c r="C195" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D195:I195)</f>
         <v>525</v>
       </c>
       <c r="D195" s="2">
@@ -18947,7 +18946,7 @@
         <v>50</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Blaster</v>
       </c>
       <c r="T195" t="s">
@@ -18972,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="AC195" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE195">
@@ -18996,7 +18995,7 @@
         <v>427</v>
       </c>
       <c r="C196" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D196:I196)</f>
         <v>525</v>
       </c>
       <c r="D196" s="2">
@@ -19036,7 +19035,7 @@
         <v>51</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Crystallor</v>
       </c>
       <c r="Q196" t="s">
@@ -19064,7 +19063,7 @@
         <v>0</v>
       </c>
       <c r="AC196" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE196">
@@ -19088,7 +19087,7 @@
         <v>428</v>
       </c>
       <c r="C197" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D197:I197)</f>
         <v>410</v>
       </c>
       <c r="D197" s="2">
@@ -19126,7 +19125,7 @@
         <v>52</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Carinx</v>
       </c>
       <c r="Q197">
@@ -19154,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="AC197" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE197">
@@ -19178,7 +19177,7 @@
         <v>429</v>
       </c>
       <c r="C198" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D198:I198)</f>
         <v>465</v>
       </c>
       <c r="D198" s="2">
@@ -19216,7 +19215,7 @@
         <v>53</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Carinator</v>
       </c>
       <c r="Q198" t="s">
@@ -19244,7 +19243,7 @@
         <v>0</v>
       </c>
       <c r="AC198" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE198">
@@ -19268,7 +19267,7 @@
         <v>430</v>
       </c>
       <c r="C199" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D199:I199)</f>
         <v>535</v>
       </c>
       <c r="D199" s="2">
@@ -19306,7 +19305,7 @@
         <v>54</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Cairnasaur</v>
       </c>
       <c r="T199" t="s">
@@ -19331,7 +19330,7 @@
         <v>0</v>
       </c>
       <c r="AC199" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE199">
@@ -19355,7 +19354,7 @@
         <v>431</v>
       </c>
       <c r="C200" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D200:I200)</f>
         <v>380</v>
       </c>
       <c r="D200" s="2">
@@ -19395,7 +19394,7 @@
         <v>55</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pebblepup</v>
       </c>
       <c r="Q200">
@@ -19423,7 +19422,7 @@
         <v>0</v>
       </c>
       <c r="AC200" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE200">
@@ -19447,7 +19446,7 @@
         <v>432</v>
       </c>
       <c r="C201" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D201:I201)</f>
         <v>500</v>
       </c>
       <c r="D201" s="2">
@@ -19487,7 +19486,7 @@
         <v>56</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Boulderoar</v>
       </c>
       <c r="T201" t="s">
@@ -19512,7 +19511,7 @@
         <v>0</v>
       </c>
       <c r="AC201" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE201">
@@ -19536,7 +19535,7 @@
         <v>433</v>
       </c>
       <c r="C202" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D202:I202)</f>
         <v>393</v>
       </c>
       <c r="D202" s="2">
@@ -19576,7 +19575,7 @@
         <v>57</v>
       </c>
       <c r="P202" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fightorex</v>
       </c>
       <c r="Q202">
@@ -19601,7 +19600,7 @@
         <v>0</v>
       </c>
       <c r="AC202" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE202">
@@ -19625,7 +19624,7 @@
         <v>434</v>
       </c>
       <c r="C203" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D203:I203)</f>
         <v>523</v>
       </c>
       <c r="D203" s="2">
@@ -19665,7 +19664,7 @@
         <v>58</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Raptorex</v>
       </c>
       <c r="T203" t="s">
@@ -19687,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="AC203" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE203">
@@ -19711,7 +19710,7 @@
         <v>435</v>
       </c>
       <c r="C204" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D204:I204)</f>
         <v>323</v>
       </c>
       <c r="D204" s="2">
@@ -19751,7 +19750,7 @@
         <v>59</v>
       </c>
       <c r="P204" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Kleinowl</v>
       </c>
       <c r="Q204" t="s">
@@ -19776,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="AC204" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE204">
@@ -19800,7 +19799,7 @@
         <v>436</v>
       </c>
       <c r="C205" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D205:I205)</f>
         <v>495</v>
       </c>
       <c r="D205" s="2">
@@ -19840,7 +19839,7 @@
         <v>60</v>
       </c>
       <c r="P205" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Hootowl</v>
       </c>
       <c r="T205" s="10" t="s">
@@ -19862,7 +19861,7 @@
         <v>0</v>
       </c>
       <c r="AC205" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE205">
@@ -19886,7 +19885,7 @@
         <v>437</v>
       </c>
       <c r="C206" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D206:I206)</f>
         <v>435</v>
       </c>
       <c r="D206" s="2">
@@ -19926,7 +19925,7 @@
         <v>61</v>
       </c>
       <c r="P206" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Dualmoose</v>
       </c>
       <c r="T206" s="10" t="s">
@@ -19948,7 +19947,7 @@
         <v>0</v>
       </c>
       <c r="AC206" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE206">
@@ -19972,7 +19971,7 @@
         <v>438</v>
       </c>
       <c r="C207" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D207:I207)</f>
         <v>185</v>
       </c>
       <c r="D207" s="2">
@@ -20012,7 +20011,7 @@
         <v>62</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Snom</v>
       </c>
       <c r="Q207" t="s">
@@ -20037,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="AC207" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE207">
@@ -20061,7 +20060,7 @@
         <v>439</v>
       </c>
       <c r="C208" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D208:I208)</f>
         <v>475</v>
       </c>
       <c r="D208" s="2">
@@ -20101,7 +20100,7 @@
         <v>63</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Frosmoth</v>
       </c>
       <c r="W208" t="s">
@@ -20120,7 +20119,7 @@
         <v>0</v>
       </c>
       <c r="AC208" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE208">
@@ -20144,7 +20143,7 @@
         <v>440</v>
       </c>
       <c r="C209" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(D209:I209)</f>
         <v>395</v>
       </c>
       <c r="D209" s="2">
@@ -20182,7 +20181,7 @@
         <v>64</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Grondor</v>
       </c>
       <c r="Q209" t="s">
@@ -20204,7 +20203,7 @@
         <v>0</v>
       </c>
       <c r="AC209" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE209">
@@ -20228,7 +20227,7 @@
         <v>441</v>
       </c>
       <c r="C210" s="1">
-        <f t="shared" ref="C210:C273" si="13">SUM(D210:I210)</f>
+        <f>SUM(D210:I210)</f>
         <v>485</v>
       </c>
       <c r="D210" s="2">
@@ -20266,7 +20265,7 @@
         <v>65</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" ref="P210:P273" si="14">B210</f>
+        <f t="shared" ref="P210:P273" si="12">B210</f>
         <v>Bipedice</v>
       </c>
       <c r="W210" s="10" t="s">
@@ -20285,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="AC210" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE210">
@@ -20309,7 +20308,7 @@
         <v>442</v>
       </c>
       <c r="C211" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D211:I211)</f>
         <v>380</v>
       </c>
       <c r="D211" s="2">
@@ -20349,7 +20348,7 @@
         <v>66</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Tricerpup</v>
       </c>
       <c r="Q211">
@@ -20371,7 +20370,7 @@
         <v>0</v>
       </c>
       <c r="AC211" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE211">
@@ -20395,7 +20394,7 @@
         <v>443</v>
       </c>
       <c r="C212" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D212:I212)</f>
         <v>538</v>
       </c>
       <c r="D212" s="2">
@@ -20435,10 +20434,10 @@
         <v>67</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Tricercil</v>
       </c>
-      <c r="W212" s="46" t="s">
+      <c r="W212" t="s">
         <v>204</v>
       </c>
       <c r="Y212">
@@ -20454,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="AC212" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE212">
@@ -20478,7 +20477,7 @@
         <v>444</v>
       </c>
       <c r="C213" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D213:I213)</f>
         <v>290</v>
       </c>
       <c r="D213" s="2">
@@ -20518,7 +20517,7 @@
         <v>68</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Spheal</v>
       </c>
       <c r="Q213">
@@ -20540,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="AC213" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE213">
@@ -20564,7 +20563,7 @@
         <v>445</v>
       </c>
       <c r="C214" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D214:I214)</f>
         <v>410</v>
       </c>
       <c r="D214" s="2">
@@ -20604,7 +20603,7 @@
         <v>69</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Sealeo</v>
       </c>
       <c r="Q214">
@@ -20626,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="AC214" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE214">
@@ -20650,7 +20649,7 @@
         <v>446</v>
       </c>
       <c r="C215" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D215:I215)</f>
         <v>530</v>
       </c>
       <c r="D215" s="2">
@@ -20690,7 +20689,7 @@
         <v>70</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Walrein</v>
       </c>
       <c r="W215" s="10" t="s">
@@ -20709,7 +20708,7 @@
         <v>0</v>
       </c>
       <c r="AC215" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE215">
@@ -20733,7 +20732,7 @@
         <v>447</v>
       </c>
       <c r="C216" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D216:I216)</f>
         <v>400</v>
       </c>
       <c r="D216" s="2">
@@ -20773,7 +20772,7 @@
         <v>71</v>
       </c>
       <c r="P216" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Froshrog</v>
       </c>
       <c r="Q216">
@@ -20795,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="AC216" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE216">
@@ -20819,7 +20818,7 @@
         <v>448</v>
       </c>
       <c r="C217" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D217:I217)</f>
         <v>525</v>
       </c>
       <c r="D217" s="2">
@@ -20859,7 +20858,7 @@
         <v>72</v>
       </c>
       <c r="P217" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Bouncerog</v>
       </c>
       <c r="W217" s="10" t="s">
@@ -20878,7 +20877,7 @@
         <v>0</v>
       </c>
       <c r="AC217" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE217">
@@ -20902,7 +20901,7 @@
         <v>449</v>
       </c>
       <c r="C218" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D218:I218)</f>
         <v>299</v>
       </c>
       <c r="D218" s="2">
@@ -20942,7 +20941,7 @@
         <v>73</v>
       </c>
       <c r="P218" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Bugop</v>
       </c>
       <c r="Q218">
@@ -20967,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="AC218" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE218">
@@ -20991,7 +20990,7 @@
         <v>450</v>
       </c>
       <c r="C219" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D219:I219)</f>
         <v>507</v>
       </c>
       <c r="D219" s="2">
@@ -21031,7 +21030,7 @@
         <v>74</v>
       </c>
       <c r="P219" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Opwing</v>
       </c>
       <c r="W219" s="10" t="s">
@@ -21053,7 +21052,7 @@
         <v>0</v>
       </c>
       <c r="AC219" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE219">
@@ -21077,7 +21076,7 @@
         <v>451</v>
       </c>
       <c r="C220" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D220:I220)</f>
         <v>265</v>
       </c>
       <c r="D220" s="2">
@@ -21117,7 +21116,7 @@
         <v>75</v>
       </c>
       <c r="P220" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Hatenna</v>
       </c>
       <c r="Q220">
@@ -21139,7 +21138,7 @@
         <v>0</v>
       </c>
       <c r="AC220" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE220">
@@ -21163,7 +21162,7 @@
         <v>452</v>
       </c>
       <c r="C221" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D221:I221)</f>
         <v>370</v>
       </c>
       <c r="D221" s="2">
@@ -21203,7 +21202,7 @@
         <v>76</v>
       </c>
       <c r="P221" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Hattrem</v>
       </c>
       <c r="Q221">
@@ -21225,7 +21224,7 @@
         <v>0</v>
       </c>
       <c r="AC221" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE221">
@@ -21249,7 +21248,7 @@
         <v>453</v>
       </c>
       <c r="C222" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D222:I222)</f>
         <v>510</v>
       </c>
       <c r="D222" s="2">
@@ -21289,7 +21288,7 @@
         <v>77</v>
       </c>
       <c r="P222" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Hatterene</v>
       </c>
       <c r="W222" s="10" t="s">
@@ -21308,7 +21307,7 @@
         <v>0</v>
       </c>
       <c r="AC222" s="38">
-        <f t="shared" ref="AC222:AC269" si="15">AB222*AA222</f>
+        <f t="shared" ref="AC222:AC269" si="13">AB222*AA222</f>
         <v>0</v>
       </c>
       <c r="AE222">
@@ -21332,7 +21331,7 @@
         <v>454</v>
       </c>
       <c r="C223" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D223:I223)</f>
         <v>333</v>
       </c>
       <c r="D223" s="2">
@@ -21372,7 +21371,7 @@
         <v>78</v>
       </c>
       <c r="P223" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Otterpor</v>
       </c>
       <c r="Q223">
@@ -21397,7 +21396,7 @@
         <v>0</v>
       </c>
       <c r="AC223" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE223">
@@ -21421,7 +21420,7 @@
         <v>455</v>
       </c>
       <c r="C224" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D224:I224)</f>
         <v>500</v>
       </c>
       <c r="D224" s="2">
@@ -21461,7 +21460,7 @@
         <v>79</v>
       </c>
       <c r="P224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Psylotter</v>
       </c>
       <c r="W224" t="s">
@@ -21480,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="AC224" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE224">
@@ -21504,7 +21503,7 @@
         <v>456</v>
       </c>
       <c r="C225" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D225:I225)</f>
         <v>340</v>
       </c>
       <c r="D225" s="2">
@@ -21544,7 +21543,7 @@
         <v>80</v>
       </c>
       <c r="P225" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Florline</v>
       </c>
       <c r="Q225">
@@ -21566,7 +21565,7 @@
         <v>0</v>
       </c>
       <c r="AC225" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE225">
@@ -21590,7 +21589,7 @@
         <v>457</v>
       </c>
       <c r="C226" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D226:I226)</f>
         <v>519</v>
       </c>
       <c r="D226" s="2">
@@ -21630,7 +21629,7 @@
         <v>81</v>
       </c>
       <c r="P226" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Florlion</v>
       </c>
       <c r="W226" s="10" t="s">
@@ -21649,7 +21648,7 @@
         <v>0</v>
       </c>
       <c r="AC226" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE226">
@@ -21673,7 +21672,7 @@
         <v>458</v>
       </c>
       <c r="C227" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D227:I227)</f>
         <v>250</v>
       </c>
       <c r="D227" s="2">
@@ -21713,7 +21712,7 @@
         <v>82</v>
       </c>
       <c r="P227" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Psycorb</v>
       </c>
       <c r="Q227">
@@ -21732,7 +21731,7 @@
         <v>0</v>
       </c>
       <c r="AC227" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE227">
@@ -21756,7 +21755,7 @@
         <v>459</v>
       </c>
       <c r="C228" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D228:I228)</f>
         <v>400</v>
       </c>
       <c r="D228" s="2">
@@ -21796,7 +21795,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Psyballs</v>
       </c>
       <c r="Q228">
@@ -21818,7 +21817,7 @@
         <v>0</v>
       </c>
       <c r="AC228" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE228">
@@ -21842,7 +21841,7 @@
         <v>460</v>
       </c>
       <c r="C229" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D229:I229)</f>
         <v>550</v>
       </c>
       <c r="D229" s="2">
@@ -21882,7 +21881,7 @@
         <v>84</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Psycorbrator</v>
       </c>
       <c r="S229">
@@ -21916,7 +21915,7 @@
         <v>0</v>
       </c>
       <c r="AC229" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE229">
@@ -21940,7 +21939,7 @@
         <v>461</v>
       </c>
       <c r="C230" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D230:I230)</f>
         <v>198</v>
       </c>
       <c r="D230" s="2">
@@ -21978,7 +21977,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Ralts</v>
       </c>
       <c r="Q230">
@@ -22009,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="AC230" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE230">
@@ -22033,7 +22032,7 @@
         <v>462</v>
       </c>
       <c r="C231" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D231:I231)</f>
         <v>278</v>
       </c>
       <c r="D231" s="2">
@@ -22071,7 +22070,7 @@
         <v>86</v>
       </c>
       <c r="P231" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Kirlia</v>
       </c>
       <c r="Q231">
@@ -22102,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="AC231" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE231">
@@ -22126,7 +22125,7 @@
         <v>463</v>
       </c>
       <c r="C232" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D232:I232)</f>
         <v>518</v>
       </c>
       <c r="D232" s="2">
@@ -22166,7 +22165,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Gardevoir</v>
       </c>
       <c r="S232">
@@ -22194,7 +22193,7 @@
         <v>0</v>
       </c>
       <c r="AC232" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE232">
@@ -22218,7 +22217,7 @@
         <v>464</v>
       </c>
       <c r="C233" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D233:I233)</f>
         <v>518</v>
       </c>
       <c r="D233" s="2">
@@ -22258,7 +22257,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Gallade</v>
       </c>
       <c r="Q233" t="s">
@@ -22289,7 +22288,7 @@
         <v>0</v>
       </c>
       <c r="AC233" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE233">
@@ -22313,7 +22312,7 @@
         <v>465</v>
       </c>
       <c r="C234" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D234:I234)</f>
         <v>455</v>
       </c>
       <c r="D234" s="2">
@@ -22353,7 +22352,7 @@
         <v>89</v>
       </c>
       <c r="P234" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Tigrette</v>
       </c>
       <c r="S234">
@@ -22381,7 +22380,7 @@
         <v>0</v>
       </c>
       <c r="AC234" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE234">
@@ -22405,7 +22404,7 @@
         <v>466</v>
       </c>
       <c r="C235" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D235:I235)</f>
         <v>288</v>
       </c>
       <c r="D235" s="2">
@@ -22445,7 +22444,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Inkay</v>
       </c>
       <c r="Q235">
@@ -22476,7 +22475,7 @@
         <v>0</v>
       </c>
       <c r="AC235" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE235">
@@ -22500,7 +22499,7 @@
         <v>467</v>
       </c>
       <c r="C236" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D236:I236)</f>
         <v>482</v>
       </c>
       <c r="D236" s="2">
@@ -22540,7 +22539,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Malamar</v>
       </c>
       <c r="S236">
@@ -22568,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="AC236" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE236">
@@ -22592,7 +22591,7 @@
         <v>468</v>
       </c>
       <c r="C237" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D237:I237)</f>
         <v>375</v>
       </c>
       <c r="D237" s="2">
@@ -22632,7 +22631,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Flameruff</v>
       </c>
       <c r="Q237">
@@ -22663,7 +22662,7 @@
         <v>0</v>
       </c>
       <c r="AC237" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE237">
@@ -22687,7 +22686,7 @@
         <v>469</v>
       </c>
       <c r="C238" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D238:I238)</f>
         <v>495</v>
       </c>
       <c r="D238" s="2">
@@ -22727,7 +22726,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Barkflare</v>
       </c>
       <c r="S238">
@@ -22755,7 +22754,7 @@
         <v>0</v>
       </c>
       <c r="AC238" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE238">
@@ -22779,7 +22778,7 @@
         <v>470</v>
       </c>
       <c r="C239" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D239:I239)</f>
         <v>306</v>
       </c>
       <c r="D239" s="2">
@@ -22819,7 +22818,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Iglite</v>
       </c>
       <c r="Q239">
@@ -22850,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="AC239" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE239">
@@ -22874,7 +22873,7 @@
         <v>471</v>
       </c>
       <c r="C240" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D240:I240)</f>
         <v>400</v>
       </c>
       <c r="D240" s="2">
@@ -22914,7 +22913,7 @@
         <v>95</v>
       </c>
       <c r="P240" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Blaxer</v>
       </c>
       <c r="Q240">
@@ -22945,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="AC240" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE240">
@@ -22969,7 +22968,7 @@
         <v>472</v>
       </c>
       <c r="C241" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D241:I241)</f>
         <v>516</v>
       </c>
       <c r="D241" s="2">
@@ -23009,7 +23008,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Pyrator</v>
       </c>
       <c r="S241">
@@ -23037,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="AC241" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE241">
@@ -23061,7 +23060,7 @@
         <v>473</v>
       </c>
       <c r="C242" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D242:I242)</f>
         <v>505</v>
       </c>
       <c r="D242" s="2">
@@ -23097,7 +23096,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Magmaclang</v>
       </c>
       <c r="Q242" s="14"/>
@@ -23126,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="AC242" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE242">
@@ -23150,7 +23149,7 @@
         <v>474</v>
       </c>
       <c r="C243" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D243:I243)</f>
         <v>360</v>
       </c>
       <c r="D243" s="2">
@@ -23186,7 +23185,7 @@
         <v>98</v>
       </c>
       <c r="P243" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Flamehox</v>
       </c>
       <c r="Q243" s="14">
@@ -23217,7 +23216,7 @@
         <v>0</v>
       </c>
       <c r="AC243" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE243">
@@ -23241,7 +23240,7 @@
         <v>75</v>
       </c>
       <c r="C244" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D244:I244)</f>
         <v>460</v>
       </c>
       <c r="D244" s="2">
@@ -23276,7 +23275,7 @@
         <v>99</v>
       </c>
       <c r="P244" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Fireshard</v>
       </c>
       <c r="Q244" s="14">
@@ -23307,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="AC244" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE244">
@@ -23331,7 +23330,7 @@
         <v>76</v>
       </c>
       <c r="C245" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D245:I245)</f>
         <v>560</v>
       </c>
       <c r="D245" s="2">
@@ -23366,7 +23365,7 @@
         <v>100</v>
       </c>
       <c r="P245" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Blastflames</v>
       </c>
       <c r="S245">
@@ -23394,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="AC245" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE245">
@@ -23418,7 +23417,7 @@
         <v>475</v>
       </c>
       <c r="C246" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D246:I246)</f>
         <v>330</v>
       </c>
       <c r="D246" s="2">
@@ -23455,7 +23454,7 @@
         <v>101</v>
       </c>
       <c r="P246" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Tiowoo</v>
       </c>
       <c r="Q246">
@@ -23486,7 +23485,7 @@
         <v>0</v>
       </c>
       <c r="AC246" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE246">
@@ -23510,7 +23509,7 @@
         <v>476</v>
       </c>
       <c r="C247" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D247:I247)</f>
         <v>400</v>
       </c>
       <c r="D247" s="2">
@@ -23547,7 +23546,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Magwoo</v>
       </c>
       <c r="Q247">
@@ -23578,7 +23577,7 @@
         <v>0</v>
       </c>
       <c r="AC247" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE247">
@@ -23602,7 +23601,7 @@
         <v>477</v>
       </c>
       <c r="C248" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D248:I248)</f>
         <v>525</v>
       </c>
       <c r="D248" s="2">
@@ -23639,7 +23638,7 @@
         <v>103</v>
       </c>
       <c r="P248" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Lafloo</v>
       </c>
       <c r="S248">
@@ -23667,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="AC248" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE248">
@@ -23691,7 +23690,7 @@
         <v>478</v>
       </c>
       <c r="C249" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D249:I249)</f>
         <v>330</v>
       </c>
       <c r="D249" s="2">
@@ -23731,7 +23730,7 @@
         <v>104</v>
       </c>
       <c r="P249" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Houndour</v>
       </c>
       <c r="Q249">
@@ -23762,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="AC249" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE249">
@@ -23786,7 +23785,7 @@
         <v>479</v>
       </c>
       <c r="C250" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D250:I250)</f>
         <v>500</v>
       </c>
       <c r="D250" s="2">
@@ -23826,7 +23825,7 @@
         <v>105</v>
       </c>
       <c r="P250" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Houndoom</v>
       </c>
       <c r="S250">
@@ -23854,7 +23853,7 @@
         <v>0</v>
       </c>
       <c r="AC250" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE250">
@@ -23878,7 +23877,7 @@
         <v>99</v>
       </c>
       <c r="C251" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D251:I251)</f>
         <v>335</v>
       </c>
       <c r="D251" s="2">
@@ -23918,7 +23917,7 @@
         <v>106</v>
       </c>
       <c r="P251" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Sparkdust</v>
       </c>
       <c r="Q251">
@@ -23946,7 +23945,7 @@
         <v>0</v>
       </c>
       <c r="AC251" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE251">
@@ -23970,7 +23969,7 @@
         <v>100</v>
       </c>
       <c r="C252" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D252:I252)</f>
         <v>505</v>
       </c>
       <c r="D252" s="2">
@@ -24010,7 +24009,7 @@
         <v>107</v>
       </c>
       <c r="P252" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Splame</v>
       </c>
       <c r="S252">
@@ -24035,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="AC252" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE252">
@@ -24059,7 +24058,7 @@
         <v>480</v>
       </c>
       <c r="C253" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D253:I253)</f>
         <v>400</v>
       </c>
       <c r="D253" s="2">
@@ -24091,7 +24090,7 @@
         <v>108</v>
       </c>
       <c r="P253" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Sparkitten</v>
       </c>
       <c r="S253">
@@ -24116,7 +24115,7 @@
         <v>0</v>
       </c>
       <c r="AC253" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE253">
@@ -24140,7 +24139,7 @@
         <v>481</v>
       </c>
       <c r="C254" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D254:I254)</f>
         <v>510</v>
       </c>
       <c r="D254" s="2">
@@ -24175,7 +24174,7 @@
         <v>109</v>
       </c>
       <c r="P254" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Fireblion</v>
       </c>
       <c r="Q254" t="s">
@@ -24203,7 +24202,7 @@
         <v>0</v>
       </c>
       <c r="AC254" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE254">
@@ -24227,7 +24226,7 @@
         <v>482</v>
       </c>
       <c r="C255" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D255:I255)</f>
         <v>510</v>
       </c>
       <c r="D255" s="2">
@@ -24262,7 +24261,7 @@
         <v>110</v>
       </c>
       <c r="P255" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Flamebless</v>
       </c>
       <c r="Q255" t="s">
@@ -24293,7 +24292,7 @@
         <v>0</v>
       </c>
       <c r="AC255" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE255">
@@ -24317,7 +24316,7 @@
         <v>43</v>
       </c>
       <c r="C256" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D256:I256)</f>
         <v>360</v>
       </c>
       <c r="D256" s="2">
@@ -24357,7 +24356,7 @@
         <v>111</v>
       </c>
       <c r="P256" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Shookwat</v>
       </c>
       <c r="Q256">
@@ -24385,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="AC256" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE256">
@@ -24409,7 +24408,7 @@
         <v>44</v>
       </c>
       <c r="C257" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D257:I257)</f>
         <v>475</v>
       </c>
       <c r="D257" s="2">
@@ -24449,7 +24448,7 @@
         <v>112</v>
       </c>
       <c r="P257" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Wattwo</v>
       </c>
       <c r="Q257" t="s">
@@ -24477,7 +24476,7 @@
         <v>0</v>
       </c>
       <c r="AC257" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE257">
@@ -24501,7 +24500,7 @@
         <v>483</v>
       </c>
       <c r="C258" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D258:I258)</f>
         <v>515</v>
       </c>
       <c r="D258" s="2">
@@ -24541,7 +24540,7 @@
         <v>113</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Megawatt</v>
       </c>
       <c r="S258">
@@ -24566,7 +24565,7 @@
         <v>0</v>
       </c>
       <c r="AC258" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE258">
@@ -24590,7 +24589,7 @@
         <v>484</v>
       </c>
       <c r="C259" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D259:I259)</f>
         <v>295</v>
       </c>
       <c r="D259" s="2">
@@ -24628,7 +24627,7 @@
         <v>114</v>
       </c>
       <c r="P259" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Elelamb</v>
       </c>
       <c r="Q259">
@@ -24656,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="AC259" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE259">
@@ -24680,7 +24679,7 @@
         <v>485</v>
       </c>
       <c r="C260" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D260:I260)</f>
         <v>355</v>
       </c>
       <c r="D260" s="2">
@@ -24718,7 +24717,7 @@
         <v>115</v>
       </c>
       <c r="P260" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Electroram</v>
       </c>
       <c r="Q260">
@@ -24746,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="AC260" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE260">
@@ -24770,7 +24769,7 @@
         <v>486</v>
       </c>
       <c r="C261" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D261:I261)</f>
         <v>520</v>
       </c>
       <c r="D261" s="2">
@@ -24808,7 +24807,7 @@
         <v>116</v>
       </c>
       <c r="P261" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Superchargo</v>
       </c>
       <c r="S261">
@@ -24833,7 +24832,7 @@
         <v>0</v>
       </c>
       <c r="AC261" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE261">
@@ -24857,7 +24856,7 @@
         <v>487</v>
       </c>
       <c r="C262" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D262:I262)</f>
         <v>300</v>
       </c>
       <c r="D262" s="2">
@@ -24895,7 +24894,7 @@
         <v>117</v>
       </c>
       <c r="P262" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Twigzap</v>
       </c>
       <c r="Q262">
@@ -24923,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="AC262" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE262">
@@ -24947,7 +24946,7 @@
         <v>488</v>
       </c>
       <c r="C263" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D263:I263)</f>
         <v>395</v>
       </c>
       <c r="D263" s="2">
@@ -24985,7 +24984,7 @@
         <v>118</v>
       </c>
       <c r="P263" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Shockbranch</v>
       </c>
       <c r="Q263" t="s">
@@ -25013,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="AC263" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE263">
@@ -25037,7 +25036,7 @@
         <v>489</v>
       </c>
       <c r="C264" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D264:I264)</f>
         <v>500</v>
       </c>
       <c r="D264" s="2">
@@ -25072,7 +25071,7 @@
         <v>119</v>
       </c>
       <c r="P264" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Thunderzap</v>
       </c>
       <c r="S264">
@@ -25103,7 +25102,7 @@
         <v>0</v>
       </c>
       <c r="AC264" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE264">
@@ -25127,7 +25126,7 @@
         <v>90</v>
       </c>
       <c r="C265" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D265:I265)</f>
         <v>316</v>
       </c>
       <c r="D265" s="2">
@@ -25162,7 +25161,7 @@
         <v>120</v>
       </c>
       <c r="P265" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Magie</v>
       </c>
       <c r="Q265">
@@ -25196,7 +25195,7 @@
         <v>0</v>
       </c>
       <c r="AC265" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE265">
@@ -25220,7 +25219,7 @@
         <v>91</v>
       </c>
       <c r="C266" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D266:I266)</f>
         <v>490</v>
       </c>
       <c r="D266" s="2">
@@ -25255,7 +25254,7 @@
         <v>121</v>
       </c>
       <c r="P266" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Cumin</v>
       </c>
       <c r="Q266" t="s">
@@ -25289,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="AC266" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE266">
@@ -25313,7 +25312,7 @@
         <v>580</v>
       </c>
       <c r="C267" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D267:I267)</f>
         <v>530</v>
       </c>
       <c r="D267" s="2">
@@ -25348,7 +25347,7 @@
         <v>122</v>
       </c>
       <c r="P267" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Cinneroph</v>
       </c>
       <c r="S267">
@@ -25379,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="AC267" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE267">
@@ -25403,7 +25402,7 @@
         <v>490</v>
       </c>
       <c r="C268" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D268:I268)</f>
         <v>235</v>
       </c>
       <c r="D268" s="2">
@@ -25438,7 +25437,7 @@
         <v>123</v>
       </c>
       <c r="P268" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Vupp</v>
       </c>
       <c r="Q268">
@@ -25469,7 +25468,7 @@
         <v>0</v>
       </c>
       <c r="AC268" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE268">
@@ -25493,7 +25492,7 @@
         <v>42</v>
       </c>
       <c r="C269" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D269:I269)</f>
         <v>490</v>
       </c>
       <c r="D269" s="2">
@@ -25528,7 +25527,7 @@
         <v>124</v>
       </c>
       <c r="P269" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Vinnie</v>
       </c>
       <c r="Q269" t="s">
@@ -25559,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="AC269" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE269">
@@ -25583,7 +25582,7 @@
         <v>491</v>
       </c>
       <c r="C270" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D270:I270)</f>
         <v>545</v>
       </c>
       <c r="D270" s="2">
@@ -25618,7 +25617,7 @@
         <v>125</v>
       </c>
       <c r="P270" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Suvernero</v>
       </c>
       <c r="S270">
@@ -25657,7 +25656,7 @@
         <v>492</v>
       </c>
       <c r="C271" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D271:I271)</f>
         <v>245</v>
       </c>
       <c r="D271" s="2">
@@ -25692,7 +25691,7 @@
         <v>126</v>
       </c>
       <c r="P271" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Whiskie</v>
       </c>
       <c r="Q271">
@@ -25734,7 +25733,7 @@
         <v>493</v>
       </c>
       <c r="C272" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D272:I272)</f>
         <v>475</v>
       </c>
       <c r="D272" s="2">
@@ -25769,7 +25768,7 @@
         <v>127</v>
       </c>
       <c r="P272" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Whiskers</v>
       </c>
       <c r="Q272" t="s">
@@ -25787,7 +25786,7 @@
         <v>494</v>
       </c>
       <c r="C273" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(D273:I273)</f>
         <v>540</v>
       </c>
       <c r="D273" s="2">
@@ -25822,7 +25821,7 @@
         <v>128</v>
       </c>
       <c r="P273" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Whiskeroar</v>
       </c>
       <c r="S273">
@@ -25837,7 +25836,7 @@
         <v>583</v>
       </c>
       <c r="C274" s="1">
-        <f t="shared" ref="C274:C337" si="16">SUM(D274:I274)</f>
+        <f>SUM(D274:I274)</f>
         <v>266</v>
       </c>
       <c r="D274" s="2">
@@ -25872,7 +25871,7 @@
         <v>129</v>
       </c>
       <c r="P274" t="str">
-        <f t="shared" ref="P274:P337" si="17">B274</f>
+        <f t="shared" ref="P274:P337" si="14">B274</f>
         <v>Nincada</v>
       </c>
       <c r="Q274">
@@ -25890,7 +25889,7 @@
         <v>584</v>
       </c>
       <c r="C275" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D275:I275)</f>
         <v>456</v>
       </c>
       <c r="D275" s="2">
@@ -25925,7 +25924,7 @@
         <v>130</v>
       </c>
       <c r="P275" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Ninjask</v>
       </c>
       <c r="S275">
@@ -25940,7 +25939,7 @@
         <v>582</v>
       </c>
       <c r="C276" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D276:I276)</f>
         <v>236</v>
       </c>
       <c r="D276" s="2">
@@ -25972,7 +25971,7 @@
         <v>131</v>
       </c>
       <c r="P276" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Shedinja</v>
       </c>
       <c r="Q276" t="s">
@@ -25999,7 +25998,7 @@
         <v>495</v>
       </c>
       <c r="C277" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D277:I277)</f>
         <v>280</v>
       </c>
       <c r="D277" s="2">
@@ -26034,7 +26033,7 @@
         <v>132</v>
       </c>
       <c r="P277" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Sheltor</v>
       </c>
       <c r="Q277" t="s">
@@ -26061,7 +26060,7 @@
         <v>496</v>
       </c>
       <c r="C278" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D278:I278)</f>
         <v>474</v>
       </c>
       <c r="D278" s="2">
@@ -26096,7 +26095,7 @@
         <v>133</v>
       </c>
       <c r="P278" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Shelnado</v>
       </c>
       <c r="S278">
@@ -26120,7 +26119,7 @@
         <v>497</v>
       </c>
       <c r="C279" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D279:I279)</f>
         <v>200</v>
       </c>
       <c r="D279" s="2">
@@ -26155,7 +26154,7 @@
         <v>134</v>
       </c>
       <c r="P279" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Lilyray</v>
       </c>
       <c r="Q279" t="s">
@@ -26182,7 +26181,7 @@
         <v>62</v>
       </c>
       <c r="C280" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D280:I280)</f>
         <v>400</v>
       </c>
       <c r="D280" s="2">
@@ -26217,7 +26216,7 @@
         <v>135</v>
       </c>
       <c r="P280" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Daray</v>
       </c>
       <c r="Q280">
@@ -26241,7 +26240,7 @@
         <v>63</v>
       </c>
       <c r="C281" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D281:I281)</f>
         <v>495</v>
       </c>
       <c r="D281" s="2">
@@ -26276,7 +26275,7 @@
         <v>136</v>
       </c>
       <c r="P281" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Spinaquata</v>
       </c>
       <c r="S281">
@@ -26300,7 +26299,7 @@
         <v>498</v>
       </c>
       <c r="C282" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D282:I282)</f>
         <v>200</v>
       </c>
       <c r="D282" s="2">
@@ -26335,7 +26334,7 @@
         <v>137</v>
       </c>
       <c r="P282" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Magikarp</v>
       </c>
       <c r="Q282">
@@ -26362,7 +26361,7 @@
         <v>499</v>
       </c>
       <c r="C283" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D283:I283)</f>
         <v>540</v>
       </c>
       <c r="D283" s="2">
@@ -26397,7 +26396,7 @@
         <v>138</v>
       </c>
       <c r="P283" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Gyarados</v>
       </c>
       <c r="S283">
@@ -26421,7 +26420,7 @@
         <v>500</v>
       </c>
       <c r="C284" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D284:I284)</f>
         <v>340</v>
       </c>
       <c r="D284" s="2">
@@ -26458,7 +26457,7 @@
         <v>139</v>
       </c>
       <c r="P284" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Staryu</v>
       </c>
       <c r="Q284" t="s">
@@ -26482,7 +26481,7 @@
         <v>501</v>
       </c>
       <c r="C285" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D285:I285)</f>
         <v>520</v>
       </c>
       <c r="D285" s="2">
@@ -26519,7 +26518,7 @@
         <v>140</v>
       </c>
       <c r="P285" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Starmie</v>
       </c>
       <c r="S285">
@@ -26540,7 +26539,7 @@
         <v>66</v>
       </c>
       <c r="C286" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D286:I286)</f>
         <v>450</v>
       </c>
       <c r="D286" s="2">
@@ -26575,7 +26574,7 @@
         <v>141</v>
       </c>
       <c r="P286" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Ali</v>
       </c>
       <c r="Q286" t="s">
@@ -26599,7 +26598,7 @@
         <v>502</v>
       </c>
       <c r="C287" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D287:I287)</f>
         <v>540</v>
       </c>
       <c r="D287" s="2">
@@ -26634,7 +26633,7 @@
         <v>142</v>
       </c>
       <c r="P287" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Batorali</v>
       </c>
       <c r="S287">
@@ -26655,7 +26654,7 @@
         <v>503</v>
       </c>
       <c r="C288" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D288:I288)</f>
         <v>295</v>
       </c>
       <c r="D288" s="2">
@@ -26690,7 +26689,7 @@
         <v>143</v>
       </c>
       <c r="P288" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Posho</v>
       </c>
       <c r="Q288" t="s">
@@ -26714,7 +26713,7 @@
         <v>67</v>
       </c>
       <c r="C289" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D289:I289)</f>
         <v>460</v>
       </c>
       <c r="D289" s="2">
@@ -26749,7 +26748,7 @@
         <v>144</v>
       </c>
       <c r="P289" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Shomp</v>
       </c>
       <c r="Q289" t="s">
@@ -26773,7 +26772,7 @@
         <v>504</v>
       </c>
       <c r="C290" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D290:I290)</f>
         <v>560</v>
       </c>
       <c r="D290" s="2">
@@ -26808,7 +26807,7 @@
         <v>145</v>
       </c>
       <c r="P290" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Poshorump</v>
       </c>
       <c r="S290">
@@ -26829,7 +26828,7 @@
         <v>505</v>
       </c>
       <c r="C291" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D291:I291)</f>
         <v>306</v>
       </c>
       <c r="D291" s="2">
@@ -26864,7 +26863,7 @@
         <v>146</v>
       </c>
       <c r="P291" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Binacle</v>
       </c>
       <c r="Q291">
@@ -26888,7 +26887,7 @@
         <v>506</v>
       </c>
       <c r="C292" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D292:I292)</f>
         <v>500</v>
       </c>
       <c r="D292" s="2">
@@ -26923,7 +26922,7 @@
         <v>147</v>
       </c>
       <c r="P292" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Barbaracle</v>
       </c>
       <c r="S292">
@@ -26944,7 +26943,7 @@
         <v>507</v>
       </c>
       <c r="C293" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D293:I293)</f>
         <v>345</v>
       </c>
       <c r="D293" s="2">
@@ -26979,7 +26978,7 @@
         <v>148</v>
       </c>
       <c r="P293" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Durfish</v>
       </c>
       <c r="Q293" t="s">
@@ -27003,7 +27002,7 @@
         <v>508</v>
       </c>
       <c r="C294" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D294:I294)</f>
         <v>485</v>
       </c>
       <c r="D294" s="2">
@@ -27038,7 +27037,7 @@
         <v>149</v>
       </c>
       <c r="P294" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Dompster</v>
       </c>
       <c r="S294">
@@ -27059,7 +27058,7 @@
         <v>509</v>
       </c>
       <c r="C295" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D295:I295)</f>
         <v>350</v>
       </c>
       <c r="D295" s="2">
@@ -27094,7 +27093,7 @@
         <v>150</v>
       </c>
       <c r="P295" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Kissyfishy</v>
       </c>
       <c r="S295">
@@ -27115,7 +27114,7 @@
         <v>510</v>
       </c>
       <c r="C296" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D296:I296)</f>
         <v>288</v>
       </c>
       <c r="D296" s="2">
@@ -27152,7 +27151,7 @@
         <v>151</v>
       </c>
       <c r="P296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Ekans</v>
       </c>
       <c r="Q296">
@@ -27179,7 +27178,7 @@
         <v>511</v>
       </c>
       <c r="C297" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D297:I297)</f>
         <v>455</v>
       </c>
       <c r="D297" s="2">
@@ -27216,7 +27215,7 @@
         <v>152</v>
       </c>
       <c r="P297" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Arbok</v>
       </c>
       <c r="S297">
@@ -27240,7 +27239,7 @@
         <v>512</v>
       </c>
       <c r="C298" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D298:I298)</f>
         <v>245</v>
       </c>
       <c r="D298" s="2">
@@ -27277,7 +27276,7 @@
         <v>153</v>
       </c>
       <c r="P298" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Zubat</v>
       </c>
       <c r="Q298">
@@ -27304,7 +27303,7 @@
         <v>513</v>
       </c>
       <c r="C299" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D299:I299)</f>
         <v>455</v>
       </c>
       <c r="D299" s="2">
@@ -27341,7 +27340,7 @@
         <v>154</v>
       </c>
       <c r="P299" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Golbat</v>
       </c>
       <c r="Q299" t="s">
@@ -27368,7 +27367,7 @@
         <v>514</v>
       </c>
       <c r="C300" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D300:I300)</f>
         <v>535</v>
       </c>
       <c r="D300" s="2">
@@ -27405,7 +27404,7 @@
         <v>155</v>
       </c>
       <c r="P300" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Crobat</v>
       </c>
       <c r="S300">
@@ -27429,7 +27428,7 @@
         <v>37</v>
       </c>
       <c r="C301" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D301:I301)</f>
         <v>400</v>
       </c>
       <c r="D301" s="2">
@@ -27466,7 +27465,7 @@
         <v>156</v>
       </c>
       <c r="P301" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Poof</v>
       </c>
       <c r="Q301">
@@ -27493,7 +27492,7 @@
         <v>38</v>
       </c>
       <c r="C302" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D302:I302)</f>
         <v>500</v>
       </c>
       <c r="D302" s="2">
@@ -27530,7 +27529,7 @@
         <v>157</v>
       </c>
       <c r="P302" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Hast</v>
       </c>
       <c r="S302">
@@ -27554,7 +27553,7 @@
         <v>39</v>
       </c>
       <c r="C303" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D303:I303)</f>
         <v>399</v>
       </c>
       <c r="D303" s="2">
@@ -27591,7 +27590,7 @@
         <v>158</v>
       </c>
       <c r="P303" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Poov</v>
       </c>
       <c r="Q303">
@@ -27618,7 +27617,7 @@
         <v>40</v>
       </c>
       <c r="C304" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D304:I304)</f>
         <v>499</v>
       </c>
       <c r="D304" s="2">
@@ -27655,7 +27654,7 @@
         <v>159</v>
       </c>
       <c r="P304" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Grust</v>
       </c>
       <c r="S304">
@@ -27679,7 +27678,7 @@
         <v>36</v>
       </c>
       <c r="C305" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D305:I305)</f>
         <v>435</v>
       </c>
       <c r="D305" s="2">
@@ -27711,7 +27710,7 @@
         <v>160</v>
       </c>
       <c r="P305" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Cluuz</v>
       </c>
       <c r="Q305" t="s">
@@ -27738,7 +27737,7 @@
         <v>515</v>
       </c>
       <c r="C306" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D306:I306)</f>
         <v>480</v>
       </c>
       <c r="D306" s="2">
@@ -27770,7 +27769,7 @@
         <v>161</v>
       </c>
       <c r="P306" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Zurrclu</v>
       </c>
       <c r="Q306" t="s">
@@ -27797,7 +27796,7 @@
         <v>804</v>
       </c>
       <c r="C307" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D307:I307)</f>
         <v>540</v>
       </c>
       <c r="D307" s="2">
@@ -27829,7 +27828,7 @@
         <v>162</v>
       </c>
       <c r="P307" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Zurroaratr</v>
       </c>
       <c r="S307">
@@ -27856,7 +27855,7 @@
         <v>516</v>
       </c>
       <c r="C308" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D308:I308)</f>
         <v>305</v>
       </c>
       <c r="D308" s="2">
@@ -27891,7 +27890,7 @@
         <v>163</v>
       </c>
       <c r="P308" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Timburr</v>
       </c>
       <c r="Q308">
@@ -27915,7 +27914,7 @@
         <v>517</v>
       </c>
       <c r="C309" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D309:I309)</f>
         <v>405</v>
       </c>
       <c r="D309" s="2">
@@ -27950,7 +27949,7 @@
         <v>164</v>
       </c>
       <c r="P309" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Gurdurr</v>
       </c>
       <c r="Q309" t="s">
@@ -27974,7 +27973,7 @@
         <v>518</v>
       </c>
       <c r="C310" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D310:I310)</f>
         <v>505</v>
       </c>
       <c r="D310" s="2">
@@ -28009,7 +28008,7 @@
         <v>165</v>
       </c>
       <c r="P310" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Conkeldurr</v>
       </c>
       <c r="S310">
@@ -28030,7 +28029,7 @@
         <v>68</v>
       </c>
       <c r="C311" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D311:I311)</f>
         <v>316</v>
       </c>
       <c r="D311" s="2">
@@ -28067,7 +28066,7 @@
         <v>166</v>
       </c>
       <c r="P311" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Rhypo</v>
       </c>
       <c r="Q311">
@@ -28091,7 +28090,7 @@
         <v>69</v>
       </c>
       <c r="C312" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D312:I312)</f>
         <v>412</v>
       </c>
       <c r="D312" s="2">
@@ -28128,7 +28127,7 @@
         <v>167</v>
       </c>
       <c r="P312" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Rhynee</v>
       </c>
       <c r="Q312">
@@ -28152,7 +28151,7 @@
         <v>70</v>
       </c>
       <c r="C313" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D313:I313)</f>
         <v>510</v>
       </c>
       <c r="D313" s="2">
@@ -28189,7 +28188,7 @@
         <v>168</v>
       </c>
       <c r="P313" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Rhypolar</v>
       </c>
       <c r="S313">
@@ -28210,7 +28209,7 @@
         <v>519</v>
       </c>
       <c r="C314" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D314:I314)</f>
         <v>333</v>
       </c>
       <c r="D314" s="2">
@@ -28247,7 +28246,7 @@
         <v>169</v>
       </c>
       <c r="P314" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Diggie</v>
       </c>
       <c r="Q314">
@@ -28271,7 +28270,7 @@
         <v>520</v>
       </c>
       <c r="C315" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D315:I315)</f>
         <v>503</v>
       </c>
       <c r="D315" s="2">
@@ -28308,7 +28307,7 @@
         <v>170</v>
       </c>
       <c r="P315" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Drillatron</v>
       </c>
       <c r="S315">
@@ -28329,7 +28328,7 @@
         <v>521</v>
       </c>
       <c r="C316" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D316:I316)</f>
         <v>275</v>
       </c>
       <c r="D316" s="2">
@@ -28366,7 +28365,7 @@
         <v>171</v>
       </c>
       <c r="P316" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Wormite</v>
       </c>
       <c r="Q316">
@@ -28390,7 +28389,7 @@
         <v>522</v>
       </c>
       <c r="C317" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D317:I317)</f>
         <v>385</v>
       </c>
       <c r="D317" s="2">
@@ -28427,7 +28426,7 @@
         <v>172</v>
       </c>
       <c r="P317" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Wormbot</v>
       </c>
       <c r="Q317">
@@ -28451,7 +28450,7 @@
         <v>523</v>
       </c>
       <c r="C318" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D318:I318)</f>
         <v>520</v>
       </c>
       <c r="D318" s="2">
@@ -28488,7 +28487,7 @@
         <v>173</v>
       </c>
       <c r="P318" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Wormatron</v>
       </c>
       <c r="S318">
@@ -28509,7 +28508,7 @@
         <v>572</v>
       </c>
       <c r="C319" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D319:I319)</f>
         <v>218</v>
       </c>
       <c r="D319" s="2">
@@ -28544,7 +28543,7 @@
         <v>174</v>
       </c>
       <c r="P319" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Cleffa</v>
       </c>
       <c r="Q319" t="s">
@@ -28568,7 +28567,7 @@
         <v>573</v>
       </c>
       <c r="C320" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D320:I320)</f>
         <v>323</v>
       </c>
       <c r="D320" s="2">
@@ -28603,7 +28602,7 @@
         <v>175</v>
       </c>
       <c r="P320" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Clefairy</v>
       </c>
       <c r="Q320" t="s">
@@ -28627,7 +28626,7 @@
         <v>574</v>
       </c>
       <c r="C321" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D321:I321)</f>
         <v>483</v>
       </c>
       <c r="D321" s="2">
@@ -28662,7 +28661,7 @@
         <v>176</v>
       </c>
       <c r="P321" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Clefable</v>
       </c>
       <c r="S321">
@@ -28683,7 +28682,7 @@
         <v>524</v>
       </c>
       <c r="C322" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D322:I322)</f>
         <v>420</v>
       </c>
       <c r="D322" s="2">
@@ -28718,7 +28717,7 @@
         <v>177</v>
       </c>
       <c r="P322" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Minishoo</v>
       </c>
       <c r="Q322" t="s">
@@ -28742,7 +28741,7 @@
         <v>525</v>
       </c>
       <c r="C323" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D323:I323)</f>
         <v>520</v>
       </c>
       <c r="D323" s="2">
@@ -28777,7 +28776,7 @@
         <v>178</v>
       </c>
       <c r="P323" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Glittleshoo</v>
       </c>
       <c r="S323">
@@ -28798,7 +28797,7 @@
         <v>526</v>
       </c>
       <c r="C324" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D324:I324)</f>
         <v>330</v>
       </c>
       <c r="D324" s="2">
@@ -28833,7 +28832,7 @@
         <v>179</v>
       </c>
       <c r="P324" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Zorua</v>
       </c>
       <c r="Q324">
@@ -28857,7 +28856,7 @@
         <v>527</v>
       </c>
       <c r="C325" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D325:I325)</f>
         <v>510</v>
       </c>
       <c r="D325" s="2">
@@ -28892,7 +28891,7 @@
         <v>180</v>
       </c>
       <c r="P325" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Zoroark</v>
       </c>
       <c r="S325">
@@ -28913,7 +28912,7 @@
         <v>92</v>
       </c>
       <c r="C326" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D326:I326)</f>
         <v>330</v>
       </c>
       <c r="D326" s="2">
@@ -28950,7 +28949,7 @@
         <v>181</v>
       </c>
       <c r="P326" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Droid</v>
       </c>
       <c r="Q326">
@@ -28971,7 +28970,7 @@
         <v>93</v>
       </c>
       <c r="C327" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D327:I327)</f>
         <v>430</v>
       </c>
       <c r="D327" s="2">
@@ -29008,7 +29007,7 @@
         <v>182</v>
       </c>
       <c r="P327" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Armoid</v>
       </c>
       <c r="Q327">
@@ -29032,7 +29031,7 @@
         <v>94</v>
       </c>
       <c r="C328" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D328:I328)</f>
         <v>530</v>
       </c>
       <c r="D328" s="2">
@@ -29069,7 +29068,7 @@
         <v>183</v>
       </c>
       <c r="P328" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Soldrota</v>
       </c>
       <c r="S328">
@@ -29093,7 +29092,7 @@
         <v>101</v>
       </c>
       <c r="C329" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D329:I329)</f>
         <v>390</v>
       </c>
       <c r="D329" s="2">
@@ -29125,7 +29124,7 @@
         <v>184</v>
       </c>
       <c r="P329" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Tinkie</v>
       </c>
       <c r="Q329">
@@ -29149,7 +29148,7 @@
         <v>102</v>
       </c>
       <c r="C330" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D330:I330)</f>
         <v>455</v>
       </c>
       <c r="D330" s="2">
@@ -29181,7 +29180,7 @@
         <v>185</v>
       </c>
       <c r="P330" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Shawar</v>
       </c>
       <c r="Q330">
@@ -29205,7 +29204,7 @@
         <v>103</v>
       </c>
       <c r="C331" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D331:I331)</f>
         <v>600</v>
       </c>
       <c r="D331" s="2">
@@ -29237,7 +29236,7 @@
         <v>186</v>
       </c>
       <c r="P331" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Shaboom</v>
       </c>
       <c r="S331">
@@ -29261,7 +29260,7 @@
         <v>95</v>
       </c>
       <c r="C332" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D332:I332)</f>
         <v>350</v>
       </c>
       <c r="D332" s="2">
@@ -29293,7 +29292,7 @@
         <v>187</v>
       </c>
       <c r="P332" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Dragee</v>
       </c>
       <c r="Q332">
@@ -29320,7 +29319,7 @@
         <v>96</v>
       </c>
       <c r="C333" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D333:I333)</f>
         <v>465</v>
       </c>
       <c r="D333" s="2">
@@ -29352,7 +29351,7 @@
         <v>188</v>
       </c>
       <c r="P333" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Draga</v>
       </c>
       <c r="Q333">
@@ -29379,7 +29378,7 @@
         <v>97</v>
       </c>
       <c r="C334" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D334:I334)</f>
         <v>600</v>
       </c>
       <c r="D334" s="2">
@@ -29411,7 +29410,7 @@
         <v>189</v>
       </c>
       <c r="P334" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Drageye</v>
       </c>
       <c r="S334">
@@ -29432,7 +29431,7 @@
         <v>528</v>
       </c>
       <c r="C335" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D335:I335)</f>
         <v>310</v>
       </c>
       <c r="D335" s="2">
@@ -29469,7 +29468,7 @@
         <v>190</v>
       </c>
       <c r="P335" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Blobmo</v>
       </c>
       <c r="Q335">
@@ -29484,7 +29483,7 @@
         <v>529</v>
       </c>
       <c r="C336" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D336:I336)</f>
         <v>420</v>
       </c>
       <c r="D336" s="2">
@@ -29521,7 +29520,7 @@
         <v>191</v>
       </c>
       <c r="P336" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Nebulimb</v>
       </c>
       <c r="Q336">
@@ -29536,7 +29535,7 @@
         <v>802</v>
       </c>
       <c r="C337" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D337:I337)</f>
         <v>585</v>
       </c>
       <c r="D337" s="2">
@@ -29573,7 +29572,7 @@
         <v>192</v>
       </c>
       <c r="P337" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Galactasolder</v>
       </c>
     </row>
@@ -29585,7 +29584,7 @@
         <v>530</v>
       </c>
       <c r="C338" s="1">
-        <f t="shared" ref="C338:C385" si="18">SUM(D338:I338)</f>
+        <f>SUM(D338:I338)</f>
         <v>415</v>
       </c>
       <c r="D338" s="2">
@@ -29622,7 +29621,7 @@
         <v>193</v>
       </c>
       <c r="P338" t="str">
-        <f t="shared" ref="P338:P382" si="19">B338</f>
+        <f t="shared" ref="P338:P382" si="15">B338</f>
         <v>Consodust</v>
       </c>
       <c r="Q338" t="s">
@@ -29637,7 +29636,7 @@
         <v>531</v>
       </c>
       <c r="C339" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D339:I339)</f>
         <v>525</v>
       </c>
       <c r="D339" s="2">
@@ -29674,7 +29673,7 @@
         <v>194</v>
       </c>
       <c r="P339" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Cosmocrash</v>
       </c>
     </row>
@@ -29686,7 +29685,7 @@
         <v>532</v>
       </c>
       <c r="C340" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D340:I340)</f>
         <v>450</v>
       </c>
       <c r="D340" s="2">
@@ -29723,7 +29722,7 @@
         <v>195</v>
       </c>
       <c r="P340" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Rockmite</v>
       </c>
       <c r="Q340" t="s">
@@ -29738,7 +29737,7 @@
         <v>533</v>
       </c>
       <c r="C341" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D341:I341)</f>
         <v>540</v>
       </c>
       <c r="D341" s="2">
@@ -29775,7 +29774,7 @@
         <v>196</v>
       </c>
       <c r="P341" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Stellarock</v>
       </c>
     </row>
@@ -29787,7 +29786,7 @@
         <v>534</v>
       </c>
       <c r="C342" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D342:I342)</f>
         <v>400</v>
       </c>
       <c r="D342" s="2">
@@ -29824,7 +29823,7 @@
         <v>197</v>
       </c>
       <c r="P342" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Poof-E</v>
       </c>
       <c r="Q342">
@@ -29839,7 +29838,7 @@
         <v>535</v>
       </c>
       <c r="C343" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D343:I343)</f>
         <v>500</v>
       </c>
       <c r="D343" s="2">
@@ -29876,7 +29875,7 @@
         <v>198</v>
       </c>
       <c r="P343" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Hast-E</v>
       </c>
     </row>
@@ -29888,7 +29887,7 @@
         <v>536</v>
       </c>
       <c r="C344" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D344:I344)</f>
         <v>330</v>
       </c>
       <c r="D344" s="2">
@@ -29925,7 +29924,7 @@
         <v>199</v>
       </c>
       <c r="P344" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Droid-E</v>
       </c>
       <c r="Q344">
@@ -29940,7 +29939,7 @@
         <v>537</v>
       </c>
       <c r="C345" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D345:I345)</f>
         <v>430</v>
       </c>
       <c r="D345" s="2">
@@ -29977,7 +29976,7 @@
         <v>200</v>
       </c>
       <c r="P345" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Armoid-E</v>
       </c>
       <c r="Q345">
@@ -29992,7 +29991,7 @@
         <v>538</v>
       </c>
       <c r="C346" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D346:I346)</f>
         <v>530</v>
       </c>
       <c r="D346" s="2">
@@ -30029,7 +30028,7 @@
         <v>201</v>
       </c>
       <c r="P346" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Soldrota-E</v>
       </c>
     </row>
@@ -30041,7 +30040,7 @@
         <v>539</v>
       </c>
       <c r="C347" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D347:I347)</f>
         <v>360</v>
       </c>
       <c r="D347" s="2">
@@ -30076,7 +30075,7 @@
         <v>202</v>
       </c>
       <c r="P347" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Flamehox-E</v>
       </c>
       <c r="Q347">
@@ -30091,7 +30090,7 @@
         <v>540</v>
       </c>
       <c r="C348" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D348:I348)</f>
         <v>460</v>
       </c>
       <c r="D348" s="2">
@@ -30126,7 +30125,7 @@
         <v>203</v>
       </c>
       <c r="P348" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Fireshard-E</v>
       </c>
       <c r="Q348">
@@ -30141,7 +30140,7 @@
         <v>541</v>
       </c>
       <c r="C349" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D349:I349)</f>
         <v>560</v>
       </c>
       <c r="D349" s="2">
@@ -30176,7 +30175,7 @@
         <v>204</v>
       </c>
       <c r="P349" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Blastflames-E</v>
       </c>
     </row>
@@ -30188,7 +30187,7 @@
         <v>542</v>
       </c>
       <c r="C350" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D350:I350)</f>
         <v>325</v>
       </c>
       <c r="D350" s="2">
@@ -30223,7 +30222,7 @@
         <v>205</v>
       </c>
       <c r="P350" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Rocky-E</v>
       </c>
       <c r="Q350">
@@ -30238,7 +30237,7 @@
         <v>543</v>
       </c>
       <c r="C351" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D351:I351)</f>
         <v>425</v>
       </c>
       <c r="D351" s="2">
@@ -30273,7 +30272,7 @@
         <v>206</v>
       </c>
       <c r="P351" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Boulder-E</v>
       </c>
       <c r="Q351" t="s">
@@ -30288,7 +30287,7 @@
         <v>544</v>
       </c>
       <c r="C352" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D352:I352)</f>
         <v>525</v>
       </c>
       <c r="D352" s="2">
@@ -30323,7 +30322,7 @@
         <v>207</v>
       </c>
       <c r="P352" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Blaster-E</v>
       </c>
     </row>
@@ -30335,7 +30334,7 @@
         <v>545</v>
       </c>
       <c r="C353" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D353:I353)</f>
         <v>525</v>
       </c>
       <c r="D353" s="2">
@@ -30370,7 +30369,7 @@
         <v>208</v>
       </c>
       <c r="P353" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Crystallor-E</v>
       </c>
       <c r="Q353" t="s">
@@ -30385,7 +30384,7 @@
         <v>546</v>
       </c>
       <c r="C354" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D354:I354)</f>
         <v>200</v>
       </c>
       <c r="D354" s="2">
@@ -30420,7 +30419,7 @@
         <v>209</v>
       </c>
       <c r="P354" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Magikarp-E</v>
       </c>
       <c r="Q354">
@@ -30435,7 +30434,7 @@
         <v>547</v>
       </c>
       <c r="C355" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D355:I355)</f>
         <v>540</v>
       </c>
       <c r="D355" s="2">
@@ -30473,7 +30472,7 @@
         <v>210</v>
       </c>
       <c r="P355" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Gyarados-E</v>
       </c>
     </row>
@@ -30485,7 +30484,7 @@
         <v>548</v>
       </c>
       <c r="C356" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D356:I356)</f>
         <v>430</v>
       </c>
       <c r="D356" s="2">
@@ -30520,7 +30519,7 @@
         <v>211</v>
       </c>
       <c r="P356" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Shockfang</v>
       </c>
     </row>
@@ -30532,7 +30531,7 @@
         <v>549</v>
       </c>
       <c r="C357" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D357:I357)</f>
         <v>530</v>
       </c>
       <c r="D357" s="2">
@@ -30567,7 +30566,7 @@
         <v>212</v>
       </c>
       <c r="P357" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Electrocobra</v>
       </c>
       <c r="Q357">
@@ -30582,7 +30581,7 @@
         <v>550</v>
       </c>
       <c r="C358" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D358:I358)</f>
         <v>430</v>
       </c>
       <c r="D358" s="2">
@@ -30617,7 +30616,7 @@
         <v>213</v>
       </c>
       <c r="P358" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Nightrex</v>
       </c>
     </row>
@@ -30629,7 +30628,7 @@
         <v>551</v>
       </c>
       <c r="C359" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D359:I359)</f>
         <v>530</v>
       </c>
       <c r="D359" s="2">
@@ -30664,7 +30663,7 @@
         <v>214</v>
       </c>
       <c r="P359" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Shadowsaur</v>
       </c>
       <c r="Q359">
@@ -30679,7 +30678,7 @@
         <v>552</v>
       </c>
       <c r="C360" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D360:I360)</f>
         <v>345</v>
       </c>
       <c r="D360" s="2">
@@ -30714,7 +30713,7 @@
         <v>215</v>
       </c>
       <c r="P360" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Durfish-S</v>
       </c>
     </row>
@@ -30726,7 +30725,7 @@
         <v>553</v>
       </c>
       <c r="C361" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D361:I361)</f>
         <v>485</v>
       </c>
       <c r="D361" s="2">
@@ -30761,7 +30760,7 @@
         <v>216</v>
       </c>
       <c r="P361" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Dompster-S</v>
       </c>
       <c r="Q361" t="s">
@@ -30776,7 +30775,7 @@
         <v>554</v>
       </c>
       <c r="C362" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D362:I362)</f>
         <v>275</v>
       </c>
       <c r="D362" s="2">
@@ -30810,7 +30809,7 @@
         <v>217</v>
       </c>
       <c r="P362" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Wormite-S</v>
       </c>
     </row>
@@ -30822,7 +30821,7 @@
         <v>555</v>
       </c>
       <c r="C363" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D363:I363)</f>
         <v>385</v>
       </c>
       <c r="D363" s="2">
@@ -30856,7 +30855,7 @@
         <v>218</v>
       </c>
       <c r="P363" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Wormbot-S</v>
       </c>
       <c r="Q363">
@@ -30871,7 +30870,7 @@
         <v>556</v>
       </c>
       <c r="C364" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D364:I364)</f>
         <v>520</v>
       </c>
       <c r="D364" s="2">
@@ -30905,7 +30904,7 @@
         <v>219</v>
       </c>
       <c r="P364" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Wormatron-S</v>
       </c>
       <c r="Q364">
@@ -30920,7 +30919,7 @@
         <v>557</v>
       </c>
       <c r="C365" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D365:I365)</f>
         <v>435</v>
       </c>
       <c r="D365" s="2">
@@ -30954,7 +30953,7 @@
         <v>220</v>
       </c>
       <c r="P365" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Cluuz-S</v>
       </c>
     </row>
@@ -30966,7 +30965,7 @@
         <v>558</v>
       </c>
       <c r="C366" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D366:I366)</f>
         <v>480</v>
       </c>
       <c r="D366" s="2">
@@ -31000,7 +30999,7 @@
         <v>221</v>
       </c>
       <c r="P366" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Zurrclu-S</v>
       </c>
       <c r="Q366" t="s">
@@ -31015,7 +31014,7 @@
         <v>803</v>
       </c>
       <c r="C367" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D367:I367)</f>
         <v>540</v>
       </c>
       <c r="D367" s="2">
@@ -31049,7 +31048,7 @@
         <v>222</v>
       </c>
       <c r="P367" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Zurroaratr-S</v>
       </c>
       <c r="Q367" t="s">
@@ -31064,7 +31063,7 @@
         <v>559</v>
       </c>
       <c r="C368" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D368:I368)</f>
         <v>306</v>
       </c>
       <c r="D368" s="2">
@@ -31101,7 +31100,7 @@
         <v>223</v>
       </c>
       <c r="P368" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Iglite-S</v>
       </c>
       <c r="Q368">
@@ -31116,7 +31115,7 @@
         <v>560</v>
       </c>
       <c r="C369" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D369:I369)</f>
         <v>400</v>
       </c>
       <c r="D369" s="2">
@@ -31153,7 +31152,7 @@
         <v>224</v>
       </c>
       <c r="P369" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Blaxer-S</v>
       </c>
       <c r="Q369">
@@ -31168,7 +31167,7 @@
         <v>561</v>
       </c>
       <c r="C370" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D370:I370)</f>
         <v>516</v>
       </c>
       <c r="D370" s="2">
@@ -31205,7 +31204,7 @@
         <v>225</v>
       </c>
       <c r="P370" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Pyrator-S</v>
       </c>
     </row>
@@ -31217,7 +31216,7 @@
         <v>562</v>
       </c>
       <c r="C371" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D371:I371)</f>
         <v>288</v>
       </c>
       <c r="D371" s="2">
@@ -31254,7 +31253,7 @@
         <v>226</v>
       </c>
       <c r="P371" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Ekans-S</v>
       </c>
       <c r="Q371">
@@ -31269,7 +31268,7 @@
         <v>563</v>
       </c>
       <c r="C372" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D372:I372)</f>
         <v>490</v>
       </c>
       <c r="D372" s="2">
@@ -31306,7 +31305,7 @@
         <v>227</v>
       </c>
       <c r="P372" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Arbok-S</v>
       </c>
     </row>
@@ -31318,7 +31317,7 @@
         <v>564</v>
       </c>
       <c r="C373" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D373:I373)</f>
         <v>600</v>
       </c>
       <c r="D373" s="2">
@@ -31350,7 +31349,7 @@
         <v>228</v>
       </c>
       <c r="P373" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Soarwhell</v>
       </c>
       <c r="Q373" t="s">
@@ -31365,7 +31364,7 @@
         <v>86</v>
       </c>
       <c r="C374" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D374:I374)</f>
         <v>600</v>
       </c>
       <c r="D374" s="2">
@@ -31397,7 +31396,7 @@
         <v>229</v>
       </c>
       <c r="P374" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Diftery</v>
       </c>
       <c r="Q374" t="s">
@@ -31412,7 +31411,7 @@
         <v>565</v>
       </c>
       <c r="C375" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D375:I375)</f>
         <v>625</v>
       </c>
       <c r="D375" s="2">
@@ -31444,7 +31443,7 @@
         <v>230</v>
       </c>
       <c r="P375" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Vorsuitex</v>
       </c>
       <c r="Q375" t="s">
@@ -31459,7 +31458,7 @@
         <v>566</v>
       </c>
       <c r="C376" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D376:I376)</f>
         <v>610</v>
       </c>
       <c r="D376" s="2">
@@ -31491,7 +31490,7 @@
         <v>231</v>
       </c>
       <c r="P376" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Kleinyeti</v>
       </c>
       <c r="Q376" t="s">
@@ -31506,7 +31505,7 @@
         <v>567</v>
       </c>
       <c r="C377" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D377:I377)</f>
         <v>615</v>
       </c>
       <c r="D377" s="2">
@@ -31538,7 +31537,7 @@
         <v>232</v>
       </c>
       <c r="P377" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Triwandoliz</v>
       </c>
       <c r="Q377" t="s">
@@ -31553,7 +31552,7 @@
         <v>568</v>
       </c>
       <c r="C378" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D378:I378)</f>
         <v>680</v>
       </c>
       <c r="D378" s="2">
@@ -31585,7 +31584,7 @@
         <v>233</v>
       </c>
       <c r="P378" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Relomidel</v>
       </c>
       <c r="Q378" t="s">
@@ -31600,7 +31599,7 @@
         <v>569</v>
       </c>
       <c r="C379" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D379:I379)</f>
         <v>680</v>
       </c>
       <c r="D379" s="2">
@@ -31632,7 +31631,7 @@
         <v>234</v>
       </c>
       <c r="P379" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Relopamil</v>
       </c>
       <c r="Q379" t="s">
@@ -31647,7 +31646,7 @@
         <v>570</v>
       </c>
       <c r="C380" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D380:I380)</f>
         <v>700</v>
       </c>
       <c r="D380" s="2">
@@ -31679,7 +31678,7 @@
         <v>235</v>
       </c>
       <c r="P380" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Dragowrath</v>
       </c>
       <c r="Q380" t="s">
@@ -31694,7 +31693,7 @@
         <v>571</v>
       </c>
       <c r="C381" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D381:I381)</f>
         <v>670</v>
       </c>
       <c r="D381" s="2">
@@ -31726,7 +31725,7 @@
         <v>236</v>
       </c>
       <c r="P381" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Solaroxyous</v>
       </c>
       <c r="Q381" t="s">
@@ -31741,7 +31740,7 @@
         <v>576</v>
       </c>
       <c r="C382" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D382:I382)</f>
         <v>550</v>
       </c>
       <c r="D382" s="2">
@@ -31772,7 +31771,7 @@
         <v>237</v>
       </c>
       <c r="P382" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Kissyfishy-D</v>
       </c>
     </row>
@@ -31784,7 +31783,7 @@
         <v>805</v>
       </c>
       <c r="C383" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D383:I383)</f>
         <v>348</v>
       </c>
       <c r="D383" s="2">
@@ -31826,7 +31825,7 @@
         <v>806</v>
       </c>
       <c r="C384" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D384:I384)</f>
         <v>488</v>
       </c>
       <c r="D384" s="2">
@@ -31868,7 +31867,7 @@
         <v>807</v>
       </c>
       <c r="C385" s="1">
-        <f t="shared" si="18"/>
+        <f>SUM(D385:I385)</f>
         <v>570</v>
       </c>
       <c r="D385" s="2">
@@ -32141,7 +32140,7 @@
         <v>1171</v>
       </c>
       <c r="C393" s="1">
-        <f t="shared" ref="C393:C396" si="20">SUM(D393:I393)</f>
+        <f>SUM(D393:I393)</f>
         <v>510</v>
       </c>
       <c r="D393" s="2">
@@ -32174,7 +32173,7 @@
         <v>1172</v>
       </c>
       <c r="C394" s="1">
-        <f t="shared" si="20"/>
+        <f>SUM(D394:I394)</f>
         <v>430</v>
       </c>
       <c r="D394" s="41">
@@ -32207,7 +32206,7 @@
         <v>1170</v>
       </c>
       <c r="C395" s="1">
-        <f t="shared" si="20"/>
+        <f>SUM(D395:I395)</f>
         <v>510</v>
       </c>
       <c r="D395" s="2">
@@ -32240,7 +32239,7 @@
         <v>1173</v>
       </c>
       <c r="C396" s="1">
-        <f t="shared" si="20"/>
+        <f>SUM(D396:I396)</f>
         <v>290</v>
       </c>
       <c r="D396" s="2">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493A10C-80FD-4749-80E9-EBFE98244F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702279A-FB73-4060-A10B-49CB0BDAECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -4357,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M274" sqref="M274"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF207" sqref="AF207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6240,10 +6240,10 @@
         <v>40</v>
       </c>
       <c r="AG30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" s="37">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
@@ -6310,7 +6310,7 @@
         <v>11</v>
       </c>
       <c r="AH31" s="37">
-        <v>1.34E-2</v>
+        <v>1.23E-2</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
@@ -6383,7 +6383,7 @@
         <v>11</v>
       </c>
       <c r="AH32" s="37">
-        <v>1.34E-2</v>
+        <v>1.23E-2</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
@@ -6465,7 +6465,7 @@
         <v>11</v>
       </c>
       <c r="AH33" s="37">
-        <v>1.34E-2</v>
+        <v>1.23E-2</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -6544,7 +6544,7 @@
         <v>10</v>
       </c>
       <c r="AH34" s="37">
-        <v>1.2200000000000001E-2</v>
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -6623,7 +6623,7 @@
         <v>10</v>
       </c>
       <c r="AH35" s="37">
-        <v>1.2200000000000001E-2</v>
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -6702,7 +6702,7 @@
         <v>10</v>
       </c>
       <c r="AH36" s="37">
-        <v>1.2200000000000001E-2</v>
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -6769,16 +6769,16 @@
         <v>1.6998</v>
       </c>
       <c r="AE37">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AF37" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="AG37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH37" s="37">
-        <v>1.0999999999999999E-2</v>
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -6845,16 +6845,16 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="AE38">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="AF38" t="s">
-        <v>100</v>
+        <v>418</v>
       </c>
       <c r="AG38">
         <v>9</v>
       </c>
       <c r="AH38" s="37">
-        <v>1.0999999999999999E-2</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
@@ -6921,16 +6921,16 @@
         <v>1.51</v>
       </c>
       <c r="AE39">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="AG39">
         <v>9</v>
       </c>
       <c r="AH39" s="37">
-        <v>1.0999999999999999E-2</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
@@ -6997,16 +6997,16 @@
         <v>1.4399</v>
       </c>
       <c r="AE40">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s">
-        <v>525</v>
+        <v>455</v>
       </c>
       <c r="AG40">
         <v>9</v>
       </c>
       <c r="AH40" s="37">
-        <v>1.0999999999999999E-2</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
@@ -7070,16 +7070,16 @@
         <v>1.4303999999999999</v>
       </c>
       <c r="AE41">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="AF41" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="AG41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH41" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
@@ -7143,16 +7143,16 @@
         <v>1.42</v>
       </c>
       <c r="AE42">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="AF42" t="s">
-        <v>418</v>
+        <v>100</v>
       </c>
       <c r="AG42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH42" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
@@ -7219,16 +7219,16 @@
         <v>1.26</v>
       </c>
       <c r="AE43">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="AF43" t="s">
-        <v>421</v>
+        <v>580</v>
       </c>
       <c r="AG43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH43" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
@@ -7292,16 +7292,16 @@
         <v>1.26</v>
       </c>
       <c r="AE44">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="AF44" t="s">
-        <v>439</v>
+        <v>525</v>
       </c>
       <c r="AG44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH44" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -7362,16 +7362,16 @@
         <v>1.25</v>
       </c>
       <c r="AE45">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AF45" t="s">
-        <v>455</v>
+        <v>547</v>
       </c>
       <c r="AG45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH45" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
@@ -7429,16 +7429,16 @@
         <v>1.24</v>
       </c>
       <c r="AE46">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="AF46" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="AG46">
         <v>8</v>
       </c>
       <c r="AH46" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
@@ -7496,16 +7496,16 @@
         <v>1.2296</v>
       </c>
       <c r="AE47">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="s">
-        <v>479</v>
+        <v>400</v>
       </c>
       <c r="AG47">
         <v>8</v>
       </c>
       <c r="AH47" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
@@ -7563,16 +7563,16 @@
         <v>1.2</v>
       </c>
       <c r="AE48">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="AF48" t="s">
-        <v>580</v>
+        <v>411</v>
       </c>
       <c r="AG48">
         <v>8</v>
       </c>
       <c r="AH48" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
@@ -7627,16 +7627,16 @@
         <v>1.1801999999999999</v>
       </c>
       <c r="AE49">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="AF49" t="s">
-        <v>1072</v>
+        <v>421</v>
       </c>
       <c r="AG49">
         <v>8</v>
       </c>
       <c r="AH49" s="37">
-        <v>9.7999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
@@ -7694,16 +7694,16 @@
         <v>1.17</v>
       </c>
       <c r="AE50">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AF50" t="s">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="AG50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH50" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
@@ -7758,16 +7758,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE51">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF51" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AG51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH51" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
@@ -7822,16 +7822,16 @@
         <v>1.0902000000000001</v>
       </c>
       <c r="AE52">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AF52" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="AG52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH52" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
@@ -7886,16 +7886,16 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="AE53">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AF53" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AG53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH53" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
@@ -7974,16 +7974,16 @@
         <v>1.08</v>
       </c>
       <c r="AE54">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="AF54" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="AG54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH54" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
@@ -8062,16 +8062,16 @@
         <v>1.0104</v>
       </c>
       <c r="AE55">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="AF55" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AG55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH55" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
@@ -8150,16 +8150,16 @@
         <v>1.0002</v>
       </c>
       <c r="AE56">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="AF56" t="s">
-        <v>36</v>
+        <v>1072</v>
       </c>
       <c r="AG56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH56" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
@@ -8241,16 +8241,16 @@
         <v>1</v>
       </c>
       <c r="AE57">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="AF57" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="AG57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH57" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
@@ -8329,16 +8329,16 @@
         <v>0.9</v>
       </c>
       <c r="AE58">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AF58" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="AG58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH58" s="37">
-        <v>8.5000000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
@@ -8417,16 +8417,16 @@
         <v>0.88</v>
       </c>
       <c r="AE59">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AF59" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="AG59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH59" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
@@ -8508,16 +8508,16 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="AE60">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="AF60" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="AG60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH60" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
@@ -8596,16 +8596,16 @@
         <v>0.80010000000000003</v>
       </c>
       <c r="AE61">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="AF61" t="s">
-        <v>15</v>
+        <v>463</v>
       </c>
       <c r="AG61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH61" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
@@ -8684,16 +8684,16 @@
         <v>0.78</v>
       </c>
       <c r="AE62">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="AF62" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="AG62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH62" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
@@ -8772,16 +8772,16 @@
         <v>0.75</v>
       </c>
       <c r="AE63">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AF63" t="s">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="AG63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH63" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
@@ -8860,16 +8860,16 @@
         <v>0.72</v>
       </c>
       <c r="AE64">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s">
-        <v>424</v>
+        <v>514</v>
       </c>
       <c r="AG64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH64" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
@@ -8948,16 +8948,16 @@
         <v>0.69989999999999997</v>
       </c>
       <c r="AE65">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AF65" t="s">
-        <v>579</v>
+        <v>36</v>
       </c>
       <c r="AG65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH65" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
@@ -9036,16 +9036,16 @@
         <v>0.66989999999999994</v>
       </c>
       <c r="AE66">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="AF66" t="s">
-        <v>445</v>
+        <v>553</v>
       </c>
       <c r="AG66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH66" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
@@ -9124,16 +9124,16 @@
         <v>0.65</v>
       </c>
       <c r="AE67">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="AF67" t="s">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="AG67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH67" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
@@ -9212,16 +9212,16 @@
         <v>0.65</v>
       </c>
       <c r="AE68">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="AF68" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="AG68">
         <v>6</v>
       </c>
       <c r="AH68" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
@@ -9300,16 +9300,16 @@
         <v>0.63</v>
       </c>
       <c r="AE69">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="AF69" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="AG69">
         <v>6</v>
       </c>
       <c r="AH69" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
@@ -9388,16 +9388,16 @@
         <v>0.62009999999999998</v>
       </c>
       <c r="AE70">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="AF70" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="AG70">
         <v>6</v>
       </c>
       <c r="AH70" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
@@ -9476,16 +9476,16 @@
         <v>0.62</v>
       </c>
       <c r="AE71">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AF71" t="s">
-        <v>501</v>
+        <v>405</v>
       </c>
       <c r="AG71">
         <v>6</v>
       </c>
       <c r="AH71" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
@@ -9564,16 +9564,16 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="AE72">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="AF72" t="s">
-        <v>514</v>
+        <v>12</v>
       </c>
       <c r="AG72">
         <v>6</v>
       </c>
       <c r="AH72" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
@@ -9652,16 +9652,16 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="AE73">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="AF73" t="s">
-        <v>561</v>
+        <v>424</v>
       </c>
       <c r="AG73">
         <v>6</v>
       </c>
       <c r="AH73" s="37">
-        <v>7.3000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
@@ -9740,16 +9740,16 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AE74">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AF74" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="AG74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH74" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
@@ -9835,16 +9835,16 @@
         <v>0.54989999999999994</v>
       </c>
       <c r="AE75">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="AF75" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="AG75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH75" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
@@ -9899,16 +9899,16 @@
         <v>0.54</v>
       </c>
       <c r="AE76">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="AF76" t="s">
-        <v>403</v>
+        <v>483</v>
       </c>
       <c r="AG76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH76" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
@@ -9963,16 +9963,16 @@
         <v>0.54</v>
       </c>
       <c r="AE77">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="AF77" t="s">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="AG77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH77" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
@@ -10027,16 +10027,16 @@
         <v>0.50009999999999999</v>
       </c>
       <c r="AE78">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="AF78" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="AG78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH78" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
@@ -10091,16 +10091,16 @@
         <v>0.5</v>
       </c>
       <c r="AE79">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="AF79" t="s">
-        <v>417</v>
+        <v>501</v>
       </c>
       <c r="AG79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH79" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
@@ -10155,16 +10155,16 @@
         <v>0.5</v>
       </c>
       <c r="AE80">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="AF80" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="AG80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH80" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
@@ -10219,16 +10219,16 @@
         <v>0.5</v>
       </c>
       <c r="AE81">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AF81" t="s">
-        <v>48</v>
+        <v>508</v>
       </c>
       <c r="AG81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH81" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
@@ -10283,16 +10283,16 @@
         <v>0.5</v>
       </c>
       <c r="AE82">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="AF82" t="s">
-        <v>427</v>
+        <v>518</v>
       </c>
       <c r="AG82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH82" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
@@ -10347,16 +10347,16 @@
         <v>0.5</v>
       </c>
       <c r="AE83">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="AF83" t="s">
-        <v>429</v>
+        <v>523</v>
       </c>
       <c r="AG83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH83" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
@@ -10411,16 +10411,16 @@
         <v>0.49</v>
       </c>
       <c r="AE84">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="AF84" t="s">
-        <v>432</v>
+        <v>545</v>
       </c>
       <c r="AG84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH84" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
@@ -10478,16 +10478,16 @@
         <v>0.48</v>
       </c>
       <c r="AE85">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="AF85" t="s">
-        <v>459</v>
+        <v>556</v>
       </c>
       <c r="AG85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH85" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
@@ -10542,16 +10542,16 @@
         <v>0.48</v>
       </c>
       <c r="AE86">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="AF86" t="s">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="AG86">
         <v>5</v>
       </c>
       <c r="AH86" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
@@ -10606,16 +10606,16 @@
         <v>0.47010000000000002</v>
       </c>
       <c r="AE87">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="AF87" t="s">
-        <v>482</v>
+        <v>398</v>
       </c>
       <c r="AG87">
         <v>5</v>
       </c>
       <c r="AH87" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
@@ -10670,16 +10670,16 @@
         <v>0.46</v>
       </c>
       <c r="AE88">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="AF88" t="s">
-        <v>90</v>
+        <v>403</v>
       </c>
       <c r="AG88">
         <v>5</v>
       </c>
       <c r="AH88" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
@@ -10734,16 +10734,16 @@
         <v>0.45989999999999998</v>
       </c>
       <c r="AE89">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="AF89" t="s">
-        <v>492</v>
+        <v>408</v>
       </c>
       <c r="AG89">
         <v>5</v>
       </c>
       <c r="AH89" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
@@ -10798,16 +10798,16 @@
         <v>0.45989999999999998</v>
       </c>
       <c r="AE90">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="AF90" t="s">
-        <v>66</v>
+        <v>410</v>
       </c>
       <c r="AG90">
         <v>5</v>
       </c>
       <c r="AH90" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
@@ -10862,16 +10862,16 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="AE91">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="AF91" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="AG91">
         <v>5</v>
       </c>
       <c r="AH91" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
@@ -10926,16 +10926,16 @@
         <v>0.44009999999999999</v>
       </c>
       <c r="AE92">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="AF92" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
       <c r="AG92">
         <v>5</v>
       </c>
       <c r="AH92" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
@@ -10990,16 +10990,16 @@
         <v>0.44</v>
       </c>
       <c r="AE93">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="AF93" t="s">
-        <v>518</v>
+        <v>48</v>
       </c>
       <c r="AG93">
         <v>5</v>
       </c>
       <c r="AH93" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
@@ -11054,16 +11054,16 @@
         <v>0.42000000000000004</v>
       </c>
       <c r="AE94">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="AF94" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="AG94">
         <v>5</v>
       </c>
       <c r="AH94" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
@@ -11118,16 +11118,16 @@
         <v>0.42000000000000004</v>
       </c>
       <c r="AE95">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="AF95" t="s">
-        <v>545</v>
+        <v>430</v>
       </c>
       <c r="AG95">
         <v>5</v>
       </c>
       <c r="AH95" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
@@ -11182,16 +11182,16 @@
         <v>0.4</v>
       </c>
       <c r="AE96">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="AF96" t="s">
-        <v>553</v>
+        <v>432</v>
       </c>
       <c r="AG96">
         <v>5</v>
       </c>
       <c r="AH96" s="37">
-        <v>6.1000000000000004E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
@@ -11246,16 +11246,16 @@
         <v>0.39990000000000003</v>
       </c>
       <c r="AE97">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="AF97" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="AG97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH97" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
@@ -11310,16 +11310,16 @@
         <v>0.36990000000000001</v>
       </c>
       <c r="AE98">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AF98" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
       <c r="AG98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH98" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
@@ -11374,16 +11374,16 @@
         <v>0.36990000000000001</v>
       </c>
       <c r="AE99">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AF99" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="AG99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH99" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
@@ -11438,16 +11438,16 @@
         <v>0.36</v>
       </c>
       <c r="AE100">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="AF100" t="s">
-        <v>423</v>
+        <v>90</v>
       </c>
       <c r="AG100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH100" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
@@ -11502,16 +11502,16 @@
         <v>0.35009999999999997</v>
       </c>
       <c r="AE101">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="AF101" t="s">
-        <v>430</v>
+        <v>492</v>
       </c>
       <c r="AG101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH101" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
@@ -11566,16 +11566,16 @@
         <v>0.35</v>
       </c>
       <c r="AE102">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="AF102" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="AG102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH102" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
@@ -11633,16 +11633,16 @@
         <v>0.35</v>
       </c>
       <c r="AE103">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="AF103" t="s">
-        <v>446</v>
+        <v>67</v>
       </c>
       <c r="AG103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH103" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
@@ -11697,16 +11697,16 @@
         <v>0.34</v>
       </c>
       <c r="AE104">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="AF104" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="AG104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH104" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
@@ -11761,16 +11761,16 @@
         <v>0.34</v>
       </c>
       <c r="AE105">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="AF105" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="AG105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH105" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
@@ -11825,16 +11825,16 @@
         <v>0.34</v>
       </c>
       <c r="AE106">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="AF106" t="s">
-        <v>458</v>
+        <v>803</v>
       </c>
       <c r="AG106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH106" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
@@ -11889,16 +11889,16 @@
         <v>0.34</v>
       </c>
       <c r="AE107">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="AF107" t="s">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="AG107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH107" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
@@ -11953,16 +11953,16 @@
         <v>0.33989999999999998</v>
       </c>
       <c r="AE108">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="AF108" t="s">
-        <v>465</v>
+        <v>574</v>
       </c>
       <c r="AG108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH108" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
@@ -12017,16 +12017,16 @@
         <v>0.33</v>
       </c>
       <c r="AE109">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="AF109" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="AG109">
         <v>4</v>
       </c>
       <c r="AH109" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
@@ -12081,16 +12081,16 @@
         <v>0.33</v>
       </c>
       <c r="AE110">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="AF110" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="AG110">
         <v>4</v>
       </c>
       <c r="AH110" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
@@ -12145,16 +12145,16 @@
         <v>0.3201</v>
       </c>
       <c r="AE111">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AF111" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="AG111">
         <v>4</v>
       </c>
       <c r="AH111" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
@@ -12209,16 +12209,16 @@
         <v>0.32</v>
       </c>
       <c r="AE112">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="AF112" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
       <c r="AG112">
         <v>4</v>
       </c>
       <c r="AH112" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
@@ -12273,16 +12273,16 @@
         <v>0.30990000000000001</v>
       </c>
       <c r="AE113">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="AF113" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="AG113">
         <v>4</v>
       </c>
       <c r="AH113" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
@@ -12337,16 +12337,16 @@
         <v>0.3</v>
       </c>
       <c r="AE114">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="AF114" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="AG114">
         <v>4</v>
       </c>
       <c r="AH114" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
@@ -12401,16 +12401,16 @@
         <v>0.3</v>
       </c>
       <c r="AE115">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="AF115" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="AG115">
         <v>4</v>
       </c>
       <c r="AH115" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
@@ -12465,16 +12465,16 @@
         <v>0.3</v>
       </c>
       <c r="AE116">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AF116" t="s">
-        <v>582</v>
+        <v>448</v>
       </c>
       <c r="AG116">
         <v>4</v>
       </c>
       <c r="AH116" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
@@ -12529,16 +12529,16 @@
         <v>0.3</v>
       </c>
       <c r="AE117">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AF117" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="AG117">
         <v>4</v>
       </c>
       <c r="AH117" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.25">
@@ -12593,16 +12593,16 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AE118">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF118" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="AG118">
         <v>4</v>
       </c>
       <c r="AH118" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
@@ -12657,16 +12657,16 @@
         <v>0.27</v>
       </c>
       <c r="AE119">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="AF119" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="AG119">
         <v>4</v>
       </c>
       <c r="AH119" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
@@ -12721,16 +12721,16 @@
         <v>0.27</v>
       </c>
       <c r="AE120">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="AF120" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="AG120">
         <v>4</v>
       </c>
       <c r="AH120" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
@@ -12785,16 +12785,16 @@
         <v>0.27</v>
       </c>
       <c r="AE121">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="AF121" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="AG121">
         <v>4</v>
       </c>
       <c r="AH121" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
@@ -12849,16 +12849,16 @@
         <v>0.27</v>
       </c>
       <c r="AE122">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="AF122" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="AG122">
         <v>4</v>
       </c>
       <c r="AH122" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
@@ -12913,16 +12913,16 @@
         <v>0.27</v>
       </c>
       <c r="AE123">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="AF123" t="s">
-        <v>38</v>
+        <v>477</v>
       </c>
       <c r="AG123">
         <v>4</v>
       </c>
       <c r="AH123" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
@@ -12977,16 +12977,16 @@
         <v>0.26</v>
       </c>
       <c r="AE124">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="AF124" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="AG124">
         <v>4</v>
       </c>
       <c r="AH124" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
@@ -13041,16 +13041,16 @@
         <v>0.25</v>
       </c>
       <c r="AE125">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="AF125" t="s">
-        <v>574</v>
+        <v>490</v>
       </c>
       <c r="AG125">
         <v>4</v>
       </c>
       <c r="AH125" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
@@ -13105,16 +13105,16 @@
         <v>0.25</v>
       </c>
       <c r="AE126">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="AF126" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="AG126">
         <v>4</v>
       </c>
       <c r="AH126" s="37">
-        <v>4.8999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.25">
@@ -13169,16 +13169,16 @@
         <v>0.25</v>
       </c>
       <c r="AE127">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="AF127" t="s">
-        <v>390</v>
+        <v>496</v>
       </c>
       <c r="AG127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH127" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.25">
@@ -13233,16 +13233,16 @@
         <v>0.25</v>
       </c>
       <c r="AE128">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="AF128" t="s">
-        <v>393</v>
+        <v>500</v>
       </c>
       <c r="AG128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH128" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
@@ -13297,16 +13297,16 @@
         <v>0.24990000000000001</v>
       </c>
       <c r="AE129">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="AF129" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="AG129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH129" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
@@ -13361,16 +13361,16 @@
         <v>0.24</v>
       </c>
       <c r="AE130">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="AF130" t="s">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="AG130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH130" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
@@ -13425,16 +13425,16 @@
         <v>0.24</v>
       </c>
       <c r="AE131">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="AF131" t="s">
-        <v>406</v>
+        <v>94</v>
       </c>
       <c r="AG131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH131" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
@@ -13489,16 +13489,16 @@
         <v>0.24</v>
       </c>
       <c r="AE132">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="AF132" t="s">
-        <v>407</v>
+        <v>533</v>
       </c>
       <c r="AG132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH132" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
@@ -13553,16 +13553,16 @@
         <v>0.23010000000000003</v>
       </c>
       <c r="AE133">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="AF133" t="s">
-        <v>409</v>
+        <v>538</v>
       </c>
       <c r="AG133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH133" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
@@ -13617,16 +13617,16 @@
         <v>0.23</v>
       </c>
       <c r="AE134">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="AF134" t="s">
-        <v>412</v>
+        <v>541</v>
       </c>
       <c r="AG134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH134" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
@@ -13681,16 +13681,16 @@
         <v>0.22</v>
       </c>
       <c r="AE135">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="AF135" t="s">
-        <v>414</v>
+        <v>544</v>
       </c>
       <c r="AG135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH135" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
@@ -13745,16 +13745,16 @@
         <v>0.2</v>
       </c>
       <c r="AE136">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="AF136" t="s">
-        <v>416</v>
+        <v>551</v>
       </c>
       <c r="AG136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH136" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
@@ -13809,16 +13809,16 @@
         <v>0.2</v>
       </c>
       <c r="AE137">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="AF137" t="s">
-        <v>19</v>
+        <v>802</v>
       </c>
       <c r="AG137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH137" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.25">
@@ -13876,16 +13876,16 @@
         <v>0.2</v>
       </c>
       <c r="AE138">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="AF138" t="s">
-        <v>428</v>
+        <v>563</v>
       </c>
       <c r="AG138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH138" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
@@ -13940,16 +13940,16 @@
         <v>0.2</v>
       </c>
       <c r="AE139">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="AF139" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="AG139">
         <v>3</v>
       </c>
       <c r="AH139" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
@@ -14004,16 +14004,16 @@
         <v>0.2</v>
       </c>
       <c r="AE140">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="AF140" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="AG140">
         <v>3</v>
       </c>
       <c r="AH140" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
@@ -14075,16 +14075,16 @@
         <v>0.2</v>
       </c>
       <c r="AE141">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="AF141" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="AG141">
         <v>3</v>
       </c>
       <c r="AH141" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.25">
@@ -14149,16 +14149,16 @@
         <v>0.2</v>
       </c>
       <c r="AE142">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="AF142" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="AG142">
         <v>3</v>
       </c>
       <c r="AH142" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.25">
@@ -14220,16 +14220,16 @@
         <v>0.18</v>
       </c>
       <c r="AE143">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="AF143" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="AG143">
         <v>3</v>
       </c>
       <c r="AH143" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.25">
@@ -14300,16 +14300,16 @@
         <v>0.18</v>
       </c>
       <c r="AE144">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="AF144" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="AG144">
         <v>3</v>
       </c>
       <c r="AH144" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.25">
@@ -14370,16 +14370,16 @@
         <v>0.16</v>
       </c>
       <c r="AE145">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AF145" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="AG145">
         <v>3</v>
       </c>
       <c r="AH145" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.25">
@@ -14465,16 +14465,16 @@
         <v>0.16</v>
       </c>
       <c r="AE146">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AF146" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="AG146">
         <v>3</v>
       </c>
       <c r="AH146" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.25">
@@ -14560,16 +14560,16 @@
         <v>0.16</v>
       </c>
       <c r="AE147">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="AF147" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="AG147">
         <v>3</v>
       </c>
       <c r="AH147" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.25">
@@ -14652,16 +14652,16 @@
         <v>0.16</v>
       </c>
       <c r="AE148">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AF148" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
       <c r="AG148">
         <v>3</v>
       </c>
       <c r="AH148" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.25">
@@ -14747,16 +14747,16 @@
         <v>0.15</v>
       </c>
       <c r="AE149">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="AF149" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="AG149">
         <v>3</v>
       </c>
       <c r="AH149" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.25">
@@ -14842,16 +14842,16 @@
         <v>0.15</v>
       </c>
       <c r="AE150">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="AF150" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="AG150">
         <v>3</v>
       </c>
       <c r="AH150" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.25">
@@ -14934,16 +14934,16 @@
         <v>0.15</v>
       </c>
       <c r="AE151">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="AF151" t="s">
-        <v>584</v>
+        <v>434</v>
       </c>
       <c r="AG151">
         <v>3</v>
       </c>
       <c r="AH151" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.25">
@@ -15032,16 +15032,16 @@
         <v>0.15</v>
       </c>
       <c r="AE152">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="AF152" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="AG152">
         <v>3</v>
       </c>
       <c r="AH152" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
@@ -15127,16 +15127,16 @@
         <v>0.15</v>
       </c>
       <c r="AE153">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="AF153" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="AG153">
         <v>3</v>
       </c>
       <c r="AH153" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.25">
@@ -15219,16 +15219,16 @@
         <v>0.15</v>
       </c>
       <c r="AE154">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="AF154" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="AG154">
         <v>3</v>
       </c>
       <c r="AH154" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
@@ -15314,16 +15314,16 @@
         <v>0.13</v>
       </c>
       <c r="AE155">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AF155" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
       <c r="AG155">
         <v>3</v>
       </c>
       <c r="AH155" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
@@ -15409,16 +15409,16 @@
         <v>0.12</v>
       </c>
       <c r="AE156">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="AF156" t="s">
-        <v>69</v>
+        <v>1101</v>
       </c>
       <c r="AG156">
         <v>3</v>
       </c>
       <c r="AH156" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
@@ -15501,16 +15501,16 @@
         <v>0.11</v>
       </c>
       <c r="AE157">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="AF157" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="AG157">
         <v>3</v>
       </c>
       <c r="AH157" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
@@ -15596,16 +15596,16 @@
         <v>0.1</v>
       </c>
       <c r="AE158">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="AF158" t="s">
-        <v>97</v>
+        <v>462</v>
       </c>
       <c r="AG158">
         <v>3</v>
       </c>
       <c r="AH158" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.25">
@@ -15691,16 +15691,16 @@
         <v>0.1</v>
       </c>
       <c r="AE159">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="AF159" t="s">
-        <v>530</v>
+        <v>476</v>
       </c>
       <c r="AG159">
         <v>3</v>
       </c>
       <c r="AH159" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
@@ -15783,16 +15783,16 @@
         <v>0.1</v>
       </c>
       <c r="AE160">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="AF160" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="AG160">
         <v>3</v>
       </c>
       <c r="AH160" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
@@ -15878,16 +15878,16 @@
         <v>0.1</v>
       </c>
       <c r="AE161">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="AF161" t="s">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="AG161">
         <v>3</v>
       </c>
       <c r="AH161" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
@@ -15973,16 +15973,16 @@
         <v>0.1</v>
       </c>
       <c r="AE162">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="AF162" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="AG162">
         <v>3</v>
       </c>
       <c r="AH162" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.25">
@@ -16068,16 +16068,16 @@
         <v>0.09</v>
       </c>
       <c r="AE163">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="AF163" t="s">
-        <v>563</v>
+        <v>495</v>
       </c>
       <c r="AG163">
         <v>3</v>
       </c>
       <c r="AH163" s="37">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.25">
@@ -16163,16 +16163,16 @@
         <v>0.09</v>
       </c>
       <c r="AE164">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="AF164" t="s">
-        <v>389</v>
+        <v>512</v>
       </c>
       <c r="AG164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH164" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.25">
@@ -16258,16 +16258,16 @@
         <v>0.09</v>
       </c>
       <c r="AE165">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="AF165" t="s">
-        <v>392</v>
+        <v>515</v>
       </c>
       <c r="AG165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH165" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.25">
@@ -16350,16 +16350,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE166">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="AF166" t="s">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="AG166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH166" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.25">
@@ -16443,16 +16443,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE167">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="AF167" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="AG167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH167" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.25">
@@ -16536,16 +16536,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE168">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="AF168" t="s">
-        <v>413</v>
+        <v>521</v>
       </c>
       <c r="AG168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH168" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.25">
@@ -16628,16 +16628,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE169">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="AF169" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="AG169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH169" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.25">
@@ -16723,16 +16723,16 @@
         <v>0.06</v>
       </c>
       <c r="AE170">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="AF170" t="s">
-        <v>577</v>
+        <v>97</v>
       </c>
       <c r="AG170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH170" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.25">
@@ -16816,16 +16816,16 @@
         <v>0.05</v>
       </c>
       <c r="AE171">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="AF171" t="s">
-        <v>578</v>
+        <v>530</v>
       </c>
       <c r="AG171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH171" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.25">
@@ -16906,16 +16906,16 @@
         <v>0.05</v>
       </c>
       <c r="AE172">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="AF172" t="s">
-        <v>444</v>
+        <v>535</v>
       </c>
       <c r="AG172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH172" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.25">
@@ -16993,16 +16993,16 @@
         <v>0.05</v>
       </c>
       <c r="AE173">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="AF173" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="AG173">
         <v>2</v>
       </c>
       <c r="AH173" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.25">
@@ -17085,16 +17085,16 @@
         <v>0.05</v>
       </c>
       <c r="AE174">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="AF174" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="AG174">
         <v>2</v>
       </c>
       <c r="AH174" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.25">
@@ -17177,16 +17177,16 @@
         <v>0.05</v>
       </c>
       <c r="AE175">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="AF175" t="s">
-        <v>1101</v>
+        <v>395</v>
       </c>
       <c r="AG175">
         <v>2</v>
       </c>
       <c r="AH175" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.25">
@@ -17266,16 +17266,16 @@
         <v>0.03</v>
       </c>
       <c r="AE176">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="AF176" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="AG176">
         <v>2</v>
       </c>
       <c r="AH176" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="177" spans="1:34" x14ac:dyDescent="0.25">
@@ -17356,16 +17356,16 @@
         <v>0.02</v>
       </c>
       <c r="AE177">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="AF177" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="AG177">
         <v>2</v>
       </c>
       <c r="AH177" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="178" spans="1:34" x14ac:dyDescent="0.25">
@@ -17446,16 +17446,16 @@
         <v>0.02</v>
       </c>
       <c r="AE178">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="AF178" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="AG178">
         <v>2</v>
       </c>
       <c r="AH178" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="179" spans="1:34" x14ac:dyDescent="0.25">
@@ -17533,16 +17533,16 @@
         <v>0.02</v>
       </c>
       <c r="AE179">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="AF179" t="s">
-        <v>474</v>
+        <v>577</v>
       </c>
       <c r="AG179">
         <v>2</v>
       </c>
       <c r="AH179" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="180" spans="1:34" x14ac:dyDescent="0.25">
@@ -17623,16 +17623,16 @@
         <v>0.02</v>
       </c>
       <c r="AE180">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AF180" t="s">
-        <v>475</v>
+        <v>578</v>
       </c>
       <c r="AG180">
         <v>2</v>
       </c>
       <c r="AH180" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="181" spans="1:34" x14ac:dyDescent="0.25">
@@ -17713,16 +17713,16 @@
         <v>0.01</v>
       </c>
       <c r="AE181">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="AF181" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="AG181">
         <v>2</v>
       </c>
       <c r="AH181" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="182" spans="1:34" x14ac:dyDescent="0.25">
@@ -17800,16 +17800,16 @@
         <v>0.01</v>
       </c>
       <c r="AE182">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AF182" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="AG182">
         <v>2</v>
       </c>
       <c r="AH182" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="183" spans="1:34" x14ac:dyDescent="0.25">
@@ -17889,16 +17889,16 @@
         <v>0</v>
       </c>
       <c r="AE183">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="AF183" t="s">
-        <v>91</v>
+        <v>457</v>
       </c>
       <c r="AG183">
         <v>2</v>
       </c>
       <c r="AH183" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="184" spans="1:34" x14ac:dyDescent="0.25">
@@ -17984,16 +17984,16 @@
         <v>0</v>
       </c>
       <c r="AE184">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AF184" t="s">
-        <v>42</v>
+        <v>468</v>
       </c>
       <c r="AG184">
         <v>2</v>
       </c>
       <c r="AH184" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="185" spans="1:34" x14ac:dyDescent="0.25">
@@ -18076,16 +18076,16 @@
         <v>0</v>
       </c>
       <c r="AE185">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AF185" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="AG185">
         <v>2</v>
       </c>
       <c r="AH185" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="186" spans="1:34" x14ac:dyDescent="0.25">
@@ -18168,16 +18168,16 @@
         <v>0</v>
       </c>
       <c r="AE186">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AF186" t="s">
-        <v>62</v>
+        <v>471</v>
       </c>
       <c r="AG186">
         <v>2</v>
       </c>
       <c r="AH186" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.25">
@@ -18260,16 +18260,16 @@
         <v>0</v>
       </c>
       <c r="AE187">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="AF187" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="AG187">
         <v>2</v>
       </c>
       <c r="AH187" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="188" spans="1:34" x14ac:dyDescent="0.25">
@@ -18349,16 +18349,16 @@
         <v>0</v>
       </c>
       <c r="AE188">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="AF188" t="s">
-        <v>39</v>
+        <v>475</v>
       </c>
       <c r="AG188">
         <v>2</v>
       </c>
       <c r="AH188" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="189" spans="1:34" x14ac:dyDescent="0.25">
@@ -18439,16 +18439,16 @@
         <v>0</v>
       </c>
       <c r="AE189">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="AF189" t="s">
-        <v>803</v>
+        <v>484</v>
       </c>
       <c r="AG189">
         <v>2</v>
       </c>
       <c r="AH189" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="190" spans="1:34" x14ac:dyDescent="0.25">
@@ -18529,16 +18529,16 @@
         <v>0</v>
       </c>
       <c r="AE190">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="AF190" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="AG190">
         <v>2</v>
       </c>
       <c r="AH190" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="191" spans="1:34" x14ac:dyDescent="0.25">
@@ -18610,16 +18610,16 @@
         <v>0</v>
       </c>
       <c r="AE191">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="AF191" t="s">
-        <v>522</v>
+        <v>91</v>
       </c>
       <c r="AG191">
         <v>2</v>
       </c>
       <c r="AH191" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="192" spans="1:34" x14ac:dyDescent="0.25">
@@ -18693,16 +18693,16 @@
         <v>0</v>
       </c>
       <c r="AE192">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="AF192" t="s">
-        <v>572</v>
+        <v>42</v>
       </c>
       <c r="AG192">
         <v>2</v>
       </c>
       <c r="AH192" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="193" spans="1:34" x14ac:dyDescent="0.25">
@@ -18779,16 +18779,16 @@
         <v>0</v>
       </c>
       <c r="AE193">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="AF193" t="s">
-        <v>573</v>
+        <v>497</v>
       </c>
       <c r="AG193">
         <v>2</v>
       </c>
       <c r="AH193" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="194" spans="1:34" x14ac:dyDescent="0.25">
@@ -18871,16 +18871,16 @@
         <v>0</v>
       </c>
       <c r="AE194">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="AF194" t="s">
-        <v>524</v>
+        <v>62</v>
       </c>
       <c r="AG194">
         <v>2</v>
       </c>
       <c r="AH194" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="195" spans="1:34" x14ac:dyDescent="0.25">
@@ -18960,16 +18960,16 @@
         <v>0</v>
       </c>
       <c r="AE195">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="AF195" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="AG195">
         <v>2</v>
       </c>
       <c r="AH195" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="196" spans="1:34" x14ac:dyDescent="0.25">
@@ -19052,16 +19052,16 @@
         <v>0</v>
       </c>
       <c r="AE196">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="AF196" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AG196">
         <v>2</v>
       </c>
       <c r="AH196" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="197" spans="1:34" x14ac:dyDescent="0.25">
@@ -19144,16 +19144,16 @@
         <v>0</v>
       </c>
       <c r="AE197">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AF197" t="s">
-        <v>94</v>
+        <v>519</v>
       </c>
       <c r="AG197">
         <v>2</v>
       </c>
       <c r="AH197" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="198" spans="1:34" x14ac:dyDescent="0.25">
@@ -19236,16 +19236,16 @@
         <v>0</v>
       </c>
       <c r="AE198">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AF198" t="s">
-        <v>102</v>
+        <v>522</v>
       </c>
       <c r="AG198">
         <v>2</v>
       </c>
       <c r="AH198" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="199" spans="1:34" x14ac:dyDescent="0.25">
@@ -19325,16 +19325,16 @@
         <v>0</v>
       </c>
       <c r="AE199">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AF199" t="s">
-        <v>103</v>
+        <v>572</v>
       </c>
       <c r="AG199">
         <v>2</v>
       </c>
       <c r="AH199" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="200" spans="1:34" x14ac:dyDescent="0.25">
@@ -19417,16 +19417,16 @@
         <v>0</v>
       </c>
       <c r="AE200">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="AF200" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AG200">
         <v>2</v>
       </c>
       <c r="AH200" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="201" spans="1:34" x14ac:dyDescent="0.25">
@@ -19506,16 +19506,16 @@
         <v>0</v>
       </c>
       <c r="AE201">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AF201" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AG201">
         <v>2</v>
       </c>
       <c r="AH201" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="202" spans="1:34" x14ac:dyDescent="0.25">
@@ -19595,16 +19595,16 @@
         <v>0</v>
       </c>
       <c r="AE202">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="AF202" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AG202">
         <v>2</v>
       </c>
       <c r="AH202" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="203" spans="1:34" x14ac:dyDescent="0.25">
@@ -19681,16 +19681,16 @@
         <v>0</v>
       </c>
       <c r="AE203">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AF203" t="s">
-        <v>532</v>
+        <v>93</v>
       </c>
       <c r="AG203">
         <v>2</v>
       </c>
       <c r="AH203" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="204" spans="1:34" x14ac:dyDescent="0.25">
@@ -19770,16 +19770,16 @@
         <v>0</v>
       </c>
       <c r="AE204">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AF204" t="s">
-        <v>533</v>
+        <v>102</v>
       </c>
       <c r="AG204">
         <v>2</v>
       </c>
       <c r="AH204" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="205" spans="1:34" x14ac:dyDescent="0.25">
@@ -19856,16 +19856,16 @@
         <v>0</v>
       </c>
       <c r="AE205">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AF205" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AG205">
         <v>2</v>
       </c>
       <c r="AH205" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="206" spans="1:34" x14ac:dyDescent="0.25">
@@ -19942,16 +19942,16 @@
         <v>0</v>
       </c>
       <c r="AE206">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AF206" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AG206">
         <v>2</v>
       </c>
       <c r="AH206" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="207" spans="1:34" x14ac:dyDescent="0.25">
@@ -20031,16 +20031,16 @@
         <v>0</v>
       </c>
       <c r="AE207">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="AF207" t="s">
-        <v>546</v>
+        <v>801</v>
       </c>
       <c r="AG207">
         <v>2</v>
       </c>
       <c r="AH207" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="208" spans="1:34" x14ac:dyDescent="0.25">
@@ -20114,16 +20114,16 @@
         <v>0</v>
       </c>
       <c r="AE208">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="AF208" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="AG208">
         <v>2</v>
       </c>
       <c r="AH208" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="209" spans="1:34" x14ac:dyDescent="0.25">
@@ -20198,16 +20198,16 @@
         <v>0</v>
       </c>
       <c r="AE209">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="AF209" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="AG209">
         <v>2</v>
       </c>
       <c r="AH209" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="210" spans="1:34" x14ac:dyDescent="0.25">
@@ -20279,16 +20279,16 @@
         <v>0</v>
       </c>
       <c r="AE210">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="AF210" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="AG210">
         <v>2</v>
       </c>
       <c r="AH210" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="211" spans="1:34" x14ac:dyDescent="0.25">
@@ -20365,16 +20365,16 @@
         <v>0</v>
       </c>
       <c r="AE211">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AF211" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="AG211">
         <v>2</v>
       </c>
       <c r="AH211" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="212" spans="1:34" x14ac:dyDescent="0.25">
@@ -20448,16 +20448,16 @@
         <v>0</v>
       </c>
       <c r="AE212">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AF212" t="s">
-        <v>802</v>
+        <v>549</v>
       </c>
       <c r="AG212">
         <v>2</v>
       </c>
       <c r="AH212" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="213" spans="1:34" x14ac:dyDescent="0.25">
@@ -20534,16 +20534,16 @@
         <v>0</v>
       </c>
       <c r="AE213">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AF213" t="s">
-        <v>86</v>
+        <v>552</v>
       </c>
       <c r="AG213">
         <v>2</v>
       </c>
       <c r="AH213" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="214" spans="1:34" x14ac:dyDescent="0.25">
@@ -20620,16 +20620,16 @@
         <v>0</v>
       </c>
       <c r="AE214">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AF214" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="AG214">
         <v>2</v>
       </c>
       <c r="AH214" s="37">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="215" spans="1:34" x14ac:dyDescent="0.25">
@@ -20703,16 +20703,16 @@
         <v>0</v>
       </c>
       <c r="AE215">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="AF215" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="AG215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH215" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="216" spans="1:34" x14ac:dyDescent="0.25">
@@ -20789,16 +20789,16 @@
         <v>0</v>
       </c>
       <c r="AE216">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="AF216" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="AG216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH216" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="217" spans="1:34" x14ac:dyDescent="0.25">
@@ -20872,16 +20872,16 @@
         <v>0</v>
       </c>
       <c r="AE217">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="AF217" t="s">
-        <v>419</v>
+        <v>567</v>
       </c>
       <c r="AG217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH217" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="218" spans="1:34" x14ac:dyDescent="0.25">
@@ -20961,16 +20961,16 @@
         <v>0</v>
       </c>
       <c r="AE218">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AF218" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="AG218">
         <v>1</v>
       </c>
       <c r="AH218" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="219" spans="1:34" x14ac:dyDescent="0.25">
@@ -21047,16 +21047,16 @@
         <v>0</v>
       </c>
       <c r="AE219">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AF219" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="AG219">
         <v>1</v>
       </c>
       <c r="AH219" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="220" spans="1:34" x14ac:dyDescent="0.25">
@@ -21133,16 +21133,16 @@
         <v>0</v>
       </c>
       <c r="AE220">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AF220" t="s">
-        <v>17</v>
+        <v>422</v>
       </c>
       <c r="AG220">
         <v>1</v>
       </c>
       <c r="AH220" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="221" spans="1:34" x14ac:dyDescent="0.25">
@@ -21219,16 +21219,16 @@
         <v>0</v>
       </c>
       <c r="AE221">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AF221" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="AG221">
         <v>1</v>
       </c>
       <c r="AH221" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="222" spans="1:34" x14ac:dyDescent="0.25">
@@ -21302,16 +21302,16 @@
         <v>0</v>
       </c>
       <c r="AE222">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF222" t="s">
-        <v>431</v>
+        <v>17</v>
       </c>
       <c r="AG222">
         <v>1</v>
       </c>
       <c r="AH222" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="223" spans="1:34" x14ac:dyDescent="0.25">
@@ -21391,16 +21391,16 @@
         <v>0</v>
       </c>
       <c r="AE223">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AF223" t="s">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="AG223">
         <v>1</v>
       </c>
       <c r="AH223" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="224" spans="1:34" x14ac:dyDescent="0.25">
@@ -21474,16 +21474,16 @@
         <v>0</v>
       </c>
       <c r="AE224">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AF224" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="AG224">
         <v>1</v>
       </c>
       <c r="AH224" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="225" spans="1:34" x14ac:dyDescent="0.25">
@@ -21560,16 +21560,16 @@
         <v>0</v>
       </c>
       <c r="AE225">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF225" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="AG225">
         <v>1</v>
       </c>
       <c r="AH225" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="226" spans="1:34" x14ac:dyDescent="0.25">
@@ -21643,16 +21643,16 @@
         <v>0</v>
       </c>
       <c r="AE226">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AF226" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="AG226">
         <v>1</v>
       </c>
       <c r="AH226" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="227" spans="1:34" x14ac:dyDescent="0.25">
@@ -21726,16 +21726,16 @@
         <v>0</v>
       </c>
       <c r="AE227">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AF227" t="s">
-        <v>75</v>
+        <v>452</v>
       </c>
       <c r="AG227">
         <v>1</v>
       </c>
       <c r="AH227" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="228" spans="1:34" x14ac:dyDescent="0.25">
@@ -21812,16 +21812,16 @@
         <v>0</v>
       </c>
       <c r="AE228">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AF228" t="s">
-        <v>99</v>
+        <v>454</v>
       </c>
       <c r="AG228">
         <v>1</v>
       </c>
       <c r="AH228" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="229" spans="1:34" x14ac:dyDescent="0.25">
@@ -21910,16 +21910,16 @@
         <v>0</v>
       </c>
       <c r="AE229">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AF229" t="s">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="AG229">
         <v>1</v>
       </c>
       <c r="AH229" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="230" spans="1:34" x14ac:dyDescent="0.25">
@@ -22005,16 +22005,16 @@
         <v>0</v>
       </c>
       <c r="AE230">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AF230" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AG230">
         <v>1</v>
       </c>
       <c r="AH230" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="231" spans="1:34" x14ac:dyDescent="0.25">
@@ -22100,16 +22100,16 @@
         <v>0</v>
       </c>
       <c r="AE231">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AF231" t="s">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="AG231">
         <v>1</v>
       </c>
       <c r="AH231" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="232" spans="1:34" x14ac:dyDescent="0.25">
@@ -22192,16 +22192,16 @@
         <v>0</v>
       </c>
       <c r="AE232">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AF232" t="s">
-        <v>487</v>
+        <v>43</v>
       </c>
       <c r="AG232">
         <v>1</v>
       </c>
       <c r="AH232" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="233" spans="1:34" x14ac:dyDescent="0.25">
@@ -22287,16 +22287,16 @@
         <v>0</v>
       </c>
       <c r="AE233">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AF233" t="s">
-        <v>488</v>
+        <v>44</v>
       </c>
       <c r="AG233">
         <v>1</v>
       </c>
       <c r="AH233" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="234" spans="1:34" x14ac:dyDescent="0.25">
@@ -22379,16 +22379,16 @@
         <v>0</v>
       </c>
       <c r="AE234">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AF234" t="s">
-        <v>583</v>
+        <v>487</v>
       </c>
       <c r="AG234">
         <v>1</v>
       </c>
       <c r="AH234" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="235" spans="1:34" x14ac:dyDescent="0.25">
@@ -22474,16 +22474,16 @@
         <v>0</v>
       </c>
       <c r="AE235">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="AF235" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="AG235">
         <v>1</v>
       </c>
       <c r="AH235" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="236" spans="1:34" x14ac:dyDescent="0.25">
@@ -22566,16 +22566,16 @@
         <v>0</v>
       </c>
       <c r="AE236">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="AF236" t="s">
-        <v>510</v>
+        <v>583</v>
       </c>
       <c r="AG236">
         <v>1</v>
       </c>
       <c r="AH236" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="237" spans="1:34" x14ac:dyDescent="0.25">
@@ -22661,16 +22661,16 @@
         <v>0</v>
       </c>
       <c r="AE237">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AF237" t="s">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="AG237">
         <v>1</v>
       </c>
       <c r="AH237" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="238" spans="1:34" x14ac:dyDescent="0.25">
@@ -22753,16 +22753,16 @@
         <v>0</v>
       </c>
       <c r="AE238">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AF238" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AG238">
         <v>1</v>
       </c>
       <c r="AH238" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="239" spans="1:34" x14ac:dyDescent="0.25">
@@ -22848,16 +22848,16 @@
         <v>0</v>
       </c>
       <c r="AE239">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AF239" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AG239">
         <v>1</v>
       </c>
       <c r="AH239" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="240" spans="1:34" x14ac:dyDescent="0.25">
@@ -22943,16 +22943,16 @@
         <v>0</v>
       </c>
       <c r="AE240">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="AF240" t="s">
-        <v>92</v>
+        <v>516</v>
       </c>
       <c r="AG240">
         <v>1</v>
       </c>
       <c r="AH240" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="241" spans="1:34" x14ac:dyDescent="0.25">
@@ -23035,16 +23035,16 @@
         <v>0</v>
       </c>
       <c r="AE241">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="AF241" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="AG241">
         <v>1</v>
       </c>
       <c r="AH241" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="242" spans="1:34" x14ac:dyDescent="0.25">
@@ -23124,16 +23124,16 @@
         <v>0</v>
       </c>
       <c r="AE242">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AF242" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG242">
         <v>1</v>
       </c>
       <c r="AH242" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="243" spans="1:34" x14ac:dyDescent="0.25">
@@ -23215,16 +23215,16 @@
         <v>0</v>
       </c>
       <c r="AE243">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AF243" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG243">
         <v>1</v>
       </c>
       <c r="AH243" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="244" spans="1:34" x14ac:dyDescent="0.25">
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="AE244">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF244" t="s">
-        <v>801</v>
+        <v>95</v>
       </c>
       <c r="AG244">
         <v>1</v>
       </c>
       <c r="AH244" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="245" spans="1:34" x14ac:dyDescent="0.25">
@@ -23392,16 +23392,16 @@
         <v>0</v>
       </c>
       <c r="AE245">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="AF245" t="s">
-        <v>548</v>
+        <v>96</v>
       </c>
       <c r="AG245">
         <v>1</v>
       </c>
       <c r="AH245" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="246" spans="1:34" x14ac:dyDescent="0.25">
@@ -23484,16 +23484,16 @@
         <v>0</v>
       </c>
       <c r="AE246">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF246" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG246">
         <v>1</v>
       </c>
       <c r="AH246" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="247" spans="1:34" x14ac:dyDescent="0.25">
@@ -23585,7 +23585,7 @@
         <v>1</v>
       </c>
       <c r="AH247" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="248" spans="1:34" x14ac:dyDescent="0.25">
@@ -23674,7 +23674,7 @@
         <v>1</v>
       </c>
       <c r="AH248" s="37">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="249" spans="1:34" x14ac:dyDescent="0.25">
@@ -32390,7 +32390,7 @@
         <v>1163</v>
       </c>
       <c r="C402" s="1">
-        <f t="shared" ref="C402:C465" si="20">SUM(D402:I402)</f>
+        <f t="shared" ref="C402:C409" si="20">SUM(D402:I402)</f>
         <v>458</v>
       </c>
       <c r="D402" s="2">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702279A-FB73-4060-A10B-49CB0BDAECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2B52E-A244-44D6-A7C7-94BF7A7E9C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -4027,7 +4027,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E322BB0D-7C89-4CEA-AC65-116BFBD5ACF5}" name="Table2" displayName="Table2" ref="Y29:AC269" totalsRowShown="0">
   <autoFilter ref="Y29:AC269" xr:uid="{E322BB0D-7C89-4CEA-AC65-116BFBD5ACF5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y30:AC269">
-    <sortCondition descending="1" ref="AC29:AC269"/>
+    <sortCondition descending="1" ref="AA29:AA269"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{D4240EEB-6B7E-4513-81CD-64F028AE015F}" name="Num"/>
@@ -4357,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF207" sqref="AF207"/>
+    <sheetView tabSelected="1" topLeftCell="M81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB176" sqref="AB176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6218,20 +6218,20 @@
         <v>201</v>
       </c>
       <c r="Y30">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="Z30" t="s">
-        <v>546</v>
+        <v>66</v>
       </c>
       <c r="AA30">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB30" s="37">
-        <v>0.60829999999999995</v>
+        <v>0.13569999999999999</v>
       </c>
       <c r="AC30" s="38">
-        <f t="shared" ref="AC30:AC93" si="2">AB30*AA30</f>
-        <v>3.6497999999999999</v>
+        <f>AB30*AA30</f>
+        <v>1.8997999999999999</v>
       </c>
       <c r="AE30">
         <v>159</v>
@@ -6285,20 +6285,20 @@
         <v>203</v>
       </c>
       <c r="Y31">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Z31" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AA31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB31" s="37">
-        <v>0.28749999999999998</v>
+        <v>0.1469</v>
       </c>
       <c r="AC31" s="38">
-        <f t="shared" si="2"/>
-        <v>3.4499999999999997</v>
+        <f>AB31*AA31</f>
+        <v>1.9097</v>
       </c>
       <c r="AE31">
         <v>60</v>
@@ -6358,20 +6358,20 @@
         <v>205</v>
       </c>
       <c r="Y32">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB32" s="37">
-        <v>0.33100000000000002</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="AC32" s="38">
-        <f t="shared" si="2"/>
-        <v>3.31</v>
+        <f>AB32*AA32</f>
+        <v>3.4499999999999997</v>
       </c>
       <c r="AE32">
         <v>143</v>
@@ -6452,7 +6452,7 @@
         <v>0.21640000000000001</v>
       </c>
       <c r="AC33" s="38">
-        <f t="shared" si="2"/>
+        <f>AB33*AA33</f>
         <v>2.3804000000000003</v>
       </c>
       <c r="AE33">
@@ -6519,20 +6519,20 @@
         <v>209</v>
       </c>
       <c r="Y34">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Z34" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AA34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB34" s="37">
-        <v>0.1469</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AC34" s="38">
-        <f t="shared" si="2"/>
-        <v>1.9097</v>
+        <f>AB34*AA34</f>
+        <v>3.31</v>
       </c>
       <c r="AE34">
         <v>47</v>
@@ -6598,20 +6598,20 @@
         <v>211</v>
       </c>
       <c r="Y35">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="Z35" t="s">
-        <v>66</v>
+        <v>466</v>
       </c>
       <c r="AA35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB35" s="37">
-        <v>0.13569999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="AC35" s="38">
-        <f t="shared" si="2"/>
-        <v>1.8997999999999999</v>
+        <f>AB35*AA35</f>
+        <v>1.6800000000000002</v>
       </c>
       <c r="AE35">
         <v>137</v>
@@ -6677,20 +6677,20 @@
         <v>213</v>
       </c>
       <c r="Y36">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Z36" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AA36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB36" s="37">
-        <v>0.23380000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="AC36" s="38">
-        <f t="shared" si="2"/>
-        <v>1.8704000000000001</v>
+        <f>AB36*AA36</f>
+        <v>1.25</v>
       </c>
       <c r="AE36">
         <v>138</v>
@@ -6753,20 +6753,20 @@
         <v>176</v>
       </c>
       <c r="Y37">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Z37" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AA37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB37" s="37">
-        <v>0.2833</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="AC37" s="38">
-        <f t="shared" si="2"/>
-        <v>1.6998</v>
+        <f>AB37*AA37</f>
+        <v>1.8704000000000001</v>
       </c>
       <c r="AE37">
         <v>170</v>
@@ -6829,20 +6829,20 @@
         <v>214</v>
       </c>
       <c r="Y38">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Z38" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="AA38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB38" s="37">
-        <v>0.16800000000000001</v>
+        <v>0.17879999999999999</v>
       </c>
       <c r="AC38" s="38">
-        <f t="shared" si="2"/>
-        <v>1.6800000000000002</v>
+        <f>AB38*AA38</f>
+        <v>1.4303999999999999</v>
       </c>
       <c r="AE38">
         <v>34</v>
@@ -6905,20 +6905,20 @@
         <v>215</v>
       </c>
       <c r="Y39">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="Z39" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="AA39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB39" s="37">
-        <v>0.30199999999999999</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="AC39" s="38">
-        <f t="shared" si="2"/>
-        <v>1.51</v>
+        <f>AB39*AA39</f>
+        <v>1.42</v>
       </c>
       <c r="AE39">
         <v>77</v>
@@ -6981,20 +6981,20 @@
         <v>216</v>
       </c>
       <c r="Y40">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="Z40" t="s">
-        <v>560</v>
+        <v>447</v>
       </c>
       <c r="AA40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB40" s="37">
-        <v>0.20569999999999999</v>
+        <v>0.1537</v>
       </c>
       <c r="AC40" s="38">
-        <f t="shared" si="2"/>
-        <v>1.4399</v>
+        <f>AB40*AA40</f>
+        <v>1.2296</v>
       </c>
       <c r="AE40">
         <v>79</v>
@@ -7054,20 +7054,20 @@
         <v>217</v>
       </c>
       <c r="Y41">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="Z41" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="AA41">
         <v>8</v>
       </c>
       <c r="AB41" s="37">
-        <v>0.17879999999999999</v>
+        <v>0.1263</v>
       </c>
       <c r="AC41" s="38">
-        <f t="shared" si="2"/>
-        <v>1.4303999999999999</v>
+        <f>AB41*AA41</f>
+        <v>1.0104</v>
       </c>
       <c r="AE41">
         <v>105</v>
@@ -7127,20 +7127,20 @@
         <v>218</v>
       </c>
       <c r="Y42">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="Z42" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="AA42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB42" s="37">
-        <v>0.17749999999999999</v>
+        <v>0.20569999999999999</v>
       </c>
       <c r="AC42" s="38">
-        <f t="shared" si="2"/>
-        <v>1.42</v>
+        <f>AB42*AA42</f>
+        <v>1.4399</v>
       </c>
       <c r="AE42">
         <v>107</v>
@@ -7203,20 +7203,20 @@
         <v>219</v>
       </c>
       <c r="Y43">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="Z43" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="AA43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB43" s="37">
-        <v>0.21</v>
+        <v>0.1686</v>
       </c>
       <c r="AC43" s="38">
-        <f t="shared" si="2"/>
-        <v>1.26</v>
+        <f>AB43*AA43</f>
+        <v>1.1801999999999999</v>
       </c>
       <c r="AE43">
         <v>122</v>
@@ -7276,20 +7276,20 @@
         <v>220</v>
       </c>
       <c r="Y44">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="Z44" t="s">
-        <v>449</v>
+        <v>546</v>
       </c>
       <c r="AA44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB44" s="37">
-        <v>0.252</v>
+        <v>0.60829999999999995</v>
       </c>
       <c r="AC44" s="38">
-        <f t="shared" si="2"/>
-        <v>1.26</v>
+        <f>AB44*AA44</f>
+        <v>3.6497999999999999</v>
       </c>
       <c r="AE44">
         <v>178</v>
@@ -7346,20 +7346,20 @@
         <v>221</v>
       </c>
       <c r="Y45">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Z45" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB45" s="37">
-        <v>0.125</v>
+        <v>0.2833</v>
       </c>
       <c r="AC45" s="38">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
+        <f>AB45*AA45</f>
+        <v>1.6998</v>
       </c>
       <c r="AE45">
         <v>210</v>
@@ -7413,20 +7413,20 @@
         <v>222</v>
       </c>
       <c r="Y46">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="Z46" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="AA46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB46" s="37">
-        <v>0.248</v>
+        <v>0.21</v>
       </c>
       <c r="AC46" s="38">
-        <f t="shared" si="2"/>
-        <v>1.24</v>
+        <f>AB46*AA46</f>
+        <v>1.26</v>
       </c>
       <c r="AE46">
         <v>6</v>
@@ -7480,20 +7480,20 @@
         <v>223</v>
       </c>
       <c r="Y47">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="Z47" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="AA47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB47" s="37">
-        <v>0.1537</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AC47" s="38">
-        <f t="shared" si="2"/>
-        <v>1.2296</v>
+        <f>AB47*AA47</f>
+        <v>1.17</v>
       </c>
       <c r="AE47">
         <v>12</v>
@@ -7547,20 +7547,20 @@
         <v>224</v>
       </c>
       <c r="Y48">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="Z48" t="s">
-        <v>17</v>
+        <v>543</v>
       </c>
       <c r="AA48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB48" s="37">
-        <v>0.3</v>
+        <v>0.1817</v>
       </c>
       <c r="AC48" s="38">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
+        <f>AB48*AA48</f>
+        <v>1.0902000000000001</v>
       </c>
       <c r="AE48">
         <v>25</v>
@@ -7611,20 +7611,20 @@
         <v>225</v>
       </c>
       <c r="Y49">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="AA49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB49" s="37">
-        <v>0.1686</v>
+        <v>0.18</v>
       </c>
       <c r="AC49" s="38">
-        <f t="shared" si="2"/>
-        <v>1.1801999999999999</v>
+        <f>AB49*AA49</f>
+        <v>1.08</v>
       </c>
       <c r="AE49">
         <v>37</v>
@@ -7678,20 +7678,20 @@
         <v>226</v>
       </c>
       <c r="Y50">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="Z50" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="AA50">
         <v>6</v>
       </c>
       <c r="AB50" s="37">
-        <v>0.19500000000000001</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AC50" s="38">
-        <f t="shared" si="2"/>
-        <v>1.17</v>
+        <f>AB50*AA50</f>
+        <v>1.0002</v>
       </c>
       <c r="AE50">
         <v>46</v>
@@ -7742,20 +7742,20 @@
         <v>227</v>
       </c>
       <c r="Y51">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Z51" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AA51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB51" s="37">
-        <v>0.22</v>
+        <v>0.125</v>
       </c>
       <c r="AC51" s="38">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
+        <f>AB51*AA51</f>
+        <v>0.75</v>
       </c>
       <c r="AE51">
         <v>63</v>
@@ -7806,20 +7806,20 @@
         <v>228</v>
       </c>
       <c r="Y52">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Z52" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="AA52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB52" s="37">
-        <v>0.1817</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="AC52" s="38">
-        <f t="shared" si="2"/>
-        <v>1.0902000000000001</v>
+        <f>AB52*AA52</f>
+        <v>1.51</v>
       </c>
       <c r="AE52">
         <v>74</v>
@@ -7870,20 +7870,20 @@
         <v>229</v>
       </c>
       <c r="Y53">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s">
-        <v>577</v>
+        <v>449</v>
       </c>
       <c r="AA53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB53" s="37">
-        <v>0.27250000000000002</v>
+        <v>0.252</v>
       </c>
       <c r="AC53" s="38">
-        <f t="shared" si="2"/>
-        <v>1.0900000000000001</v>
+        <f>AB53*AA53</f>
+        <v>1.26</v>
       </c>
       <c r="AE53">
         <v>91</v>
@@ -7958,20 +7958,20 @@
         <v>230</v>
       </c>
       <c r="Y54">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="Z54" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="AA54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB54" s="37">
-        <v>0.18</v>
+        <v>0.248</v>
       </c>
       <c r="AC54" s="38">
-        <f t="shared" si="2"/>
-        <v>1.08</v>
+        <f>AB54*AA54</f>
+        <v>1.24</v>
       </c>
       <c r="AE54">
         <v>96</v>
@@ -8046,20 +8046,20 @@
         <v>231</v>
       </c>
       <c r="Y55">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="Z55" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AA55">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB55" s="37">
-        <v>0.1263</v>
+        <v>0.22</v>
       </c>
       <c r="AC55" s="38">
-        <f t="shared" si="2"/>
-        <v>1.0104</v>
+        <f>AB55*AA55</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE55">
         <v>119</v>
@@ -8134,20 +8134,20 @@
         <v>178</v>
       </c>
       <c r="Y56">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="Z56" t="s">
-        <v>537</v>
+        <v>450</v>
       </c>
       <c r="AA56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB56" s="37">
-        <v>0.16669999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AC56" s="38">
-        <f t="shared" si="2"/>
-        <v>1.0002</v>
+        <f>AB56*AA56</f>
+        <v>0.85000000000000009</v>
       </c>
       <c r="AE56">
         <v>125</v>
@@ -8225,20 +8225,20 @@
         <v>581</v>
       </c>
       <c r="Y57">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z57" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB57" s="37">
-        <v>1</v>
+        <v>0.156</v>
       </c>
       <c r="AC57" s="38">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>AB57*AA57</f>
+        <v>0.78</v>
       </c>
       <c r="AE57">
         <v>145</v>
@@ -8313,20 +8313,20 @@
         <v>233</v>
       </c>
       <c r="Y58">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Z58" t="s">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="AA58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB58" s="37">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="AC58" s="38">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+        <f>AB58*AA58</f>
+        <v>0.65</v>
       </c>
       <c r="AE58">
         <v>180</v>
@@ -8401,20 +8401,20 @@
         <v>234</v>
       </c>
       <c r="Y59">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="Z59" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="AA59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB59" s="37">
-        <v>0.22</v>
+        <v>0.114</v>
       </c>
       <c r="AC59" s="38">
-        <f t="shared" si="2"/>
-        <v>0.88</v>
+        <f>AB59*AA59</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="AE59">
         <v>31</v>
@@ -8492,20 +8492,20 @@
         <v>236</v>
       </c>
       <c r="Y60">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="Z60" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="AA60">
         <v>5</v>
       </c>
       <c r="AB60" s="37">
-        <v>0.17</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AC60" s="38">
-        <f t="shared" si="2"/>
-        <v>0.85000000000000009</v>
+        <f>AB60*AA60</f>
+        <v>0.48</v>
       </c>
       <c r="AE60">
         <v>61</v>
@@ -8580,20 +8580,20 @@
         <v>237</v>
       </c>
       <c r="Y61">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="Z61" t="s">
-        <v>487</v>
+        <v>17</v>
       </c>
       <c r="AA61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB61" s="37">
-        <v>0.26669999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AC61" s="38">
-        <f t="shared" si="2"/>
-        <v>0.80010000000000003</v>
+        <f>AB61*AA61</f>
+        <v>1.2</v>
       </c>
       <c r="AE61">
         <v>87</v>
@@ -8668,20 +8668,20 @@
         <v>238</v>
       </c>
       <c r="Y62">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="Z62" t="s">
-        <v>465</v>
+        <v>577</v>
       </c>
       <c r="AA62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB62" s="37">
-        <v>0.156</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="AC62" s="38">
-        <f t="shared" si="2"/>
-        <v>0.78</v>
+        <f>AB62*AA62</f>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AE62">
         <v>97</v>
@@ -8756,20 +8756,20 @@
         <v>239</v>
       </c>
       <c r="Y63">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="Z63" t="s">
-        <v>540</v>
+        <v>444</v>
       </c>
       <c r="AA63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB63" s="37">
-        <v>0.125</v>
+        <v>0.22</v>
       </c>
       <c r="AC63" s="38">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
+        <f>AB63*AA63</f>
+        <v>0.88</v>
       </c>
       <c r="AE63">
         <v>100</v>
@@ -8856,7 +8856,7 @@
         <v>0.18</v>
       </c>
       <c r="AC64" s="38">
-        <f t="shared" si="2"/>
+        <f>AB64*AA64</f>
         <v>0.72</v>
       </c>
       <c r="AE64">
@@ -8932,20 +8932,20 @@
         <v>241</v>
       </c>
       <c r="Y65">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="Z65" t="s">
-        <v>499</v>
+        <v>426</v>
       </c>
       <c r="AA65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB65" s="37">
-        <v>0.23330000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="AC65" s="38">
-        <f t="shared" si="2"/>
-        <v>0.69989999999999997</v>
+        <f>AB65*AA65</f>
+        <v>0.62</v>
       </c>
       <c r="AE65">
         <v>160</v>
@@ -8968,7 +8968,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C131" si="3">SUM(D66:I66)</f>
+        <f t="shared" ref="C66:C131" si="2">SUM(D66:I66)</f>
         <v>495</v>
       </c>
       <c r="D66" s="2">
@@ -9020,20 +9020,20 @@
         <v>242</v>
       </c>
       <c r="Y66">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="Z66" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AA66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB66" s="37">
-        <v>0.2233</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AC66" s="38">
-        <f t="shared" si="2"/>
-        <v>0.66989999999999994</v>
+        <f>AB66*AA66</f>
+        <v>0.54</v>
       </c>
       <c r="AE66">
         <v>216</v>
@@ -9056,7 +9056,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="D67" s="2">
@@ -9108,20 +9108,20 @@
         <v>243</v>
       </c>
       <c r="Y67">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="Z67" t="s">
-        <v>490</v>
+        <v>62</v>
       </c>
       <c r="AA67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB67" s="37">
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AC67" s="38">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
+        <f>AB67*AA67</f>
+        <v>0.54</v>
       </c>
       <c r="AE67">
         <v>225</v>
@@ -9144,7 +9144,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>430</v>
       </c>
       <c r="D68" s="2">
@@ -9196,20 +9196,20 @@
         <v>244</v>
       </c>
       <c r="Y68">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="AA68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB68" s="37">
-        <v>0.32500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="AC68" s="38">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
+        <f>AB68*AA68</f>
+        <v>0.5</v>
       </c>
       <c r="AE68">
         <v>9</v>
@@ -9232,7 +9232,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>505</v>
       </c>
       <c r="D69" s="2">
@@ -9284,20 +9284,20 @@
         <v>245</v>
       </c>
       <c r="Y69">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Z69" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="AA69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB69" s="37">
-        <v>0.21</v>
+        <v>0.1225</v>
       </c>
       <c r="AC69" s="38">
-        <f t="shared" si="2"/>
-        <v>0.63</v>
+        <f>AB69*AA69</f>
+        <v>0.49</v>
       </c>
       <c r="AE69">
         <v>13</v>
@@ -9320,7 +9320,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
       <c r="D70" s="2">
@@ -9372,20 +9372,20 @@
         <v>246</v>
       </c>
       <c r="Y70">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s">
-        <v>15</v>
+        <v>458</v>
       </c>
       <c r="AA70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB70" s="37">
-        <v>0.20669999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="AC70" s="38">
-        <f t="shared" si="2"/>
-        <v>0.62009999999999998</v>
+        <f>AB70*AA70</f>
+        <v>0.46</v>
       </c>
       <c r="AE70">
         <v>16</v>
@@ -9408,7 +9408,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="D71" s="2">
@@ -9460,20 +9460,20 @@
         <v>247</v>
       </c>
       <c r="Y71">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="Z71" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="AA71">
         <v>4</v>
       </c>
       <c r="AB71" s="37">
-        <v>0.155</v>
+        <v>0.11</v>
       </c>
       <c r="AC71" s="38">
-        <f t="shared" si="2"/>
-        <v>0.62</v>
+        <f>AB71*AA71</f>
+        <v>0.44</v>
       </c>
       <c r="AE71">
         <v>19</v>
@@ -9496,7 +9496,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>412</v>
       </c>
       <c r="D72" s="2">
@@ -9548,20 +9548,20 @@
         <v>248</v>
       </c>
       <c r="Y72">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Z72" t="s">
-        <v>37</v>
+        <v>484</v>
       </c>
       <c r="AA72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB72" s="37">
-        <v>0.2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AC72" s="38">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f>AB72*AA72</f>
+        <v>0.34</v>
       </c>
       <c r="AE72">
         <v>27</v>
@@ -9584,7 +9584,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
       <c r="D73" s="2">
@@ -9636,20 +9636,20 @@
         <v>249</v>
       </c>
       <c r="Y73">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="Z73" t="s">
-        <v>11</v>
+        <v>487</v>
       </c>
       <c r="AA73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB73" s="37">
-        <v>0.114</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="AC73" s="38">
-        <f t="shared" si="2"/>
-        <v>0.57000000000000006</v>
+        <f>AB73*AA73</f>
+        <v>0.80010000000000003</v>
       </c>
       <c r="AE73">
         <v>40</v>
@@ -9672,7 +9672,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
       <c r="D74" s="2">
@@ -9724,20 +9724,20 @@
         <v>180</v>
       </c>
       <c r="Y74">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="Z74" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="AA74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB74" s="37">
-        <v>0.27500000000000002</v>
+        <v>0.23330000000000001</v>
       </c>
       <c r="AC74" s="38">
-        <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <f>AB74*AA74</f>
+        <v>0.69989999999999997</v>
       </c>
       <c r="AE74">
         <v>51</v>
@@ -9760,7 +9760,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="D75" s="2">
@@ -9819,20 +9819,20 @@
         <v>250</v>
       </c>
       <c r="Y75">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="Z75" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="AA75">
         <v>3</v>
       </c>
       <c r="AB75" s="37">
-        <v>0.18329999999999999</v>
+        <v>0.2233</v>
       </c>
       <c r="AC75" s="38">
-        <f t="shared" si="2"/>
-        <v>0.54989999999999994</v>
+        <f>AB75*AA75</f>
+        <v>0.66989999999999994</v>
       </c>
       <c r="AE75">
         <v>69</v>
@@ -9855,7 +9855,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D76" s="2">
@@ -9883,20 +9883,20 @@
         <v>251</v>
       </c>
       <c r="Y76">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z76" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AA76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB76" s="37">
-        <v>0.13500000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="AC76" s="38">
-        <f t="shared" si="2"/>
-        <v>0.54</v>
+        <f>AB76*AA76</f>
+        <v>0.63</v>
       </c>
       <c r="AE76">
         <v>113</v>
@@ -9919,7 +9919,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="D77" s="2">
@@ -9947,20 +9947,20 @@
         <v>252</v>
       </c>
       <c r="Y77">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="Z77" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="AA77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB77" s="37">
-        <v>0.13500000000000001</v>
+        <v>0.20669999999999999</v>
       </c>
       <c r="AC77" s="38">
-        <f t="shared" si="2"/>
-        <v>0.54</v>
+        <f>AB77*AA77</f>
+        <v>0.62009999999999998</v>
       </c>
       <c r="AE77">
         <v>128</v>
@@ -9983,7 +9983,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>460</v>
       </c>
       <c r="D78" s="2">
@@ -10011,20 +10011,20 @@
         <v>253</v>
       </c>
       <c r="Y78">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="Z78" t="s">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="AA78">
         <v>3</v>
       </c>
       <c r="AB78" s="37">
-        <v>0.16669999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="AC78" s="38">
-        <f t="shared" si="2"/>
-        <v>0.50009999999999999</v>
+        <f>AB78*AA78</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="AE78">
         <v>136</v>
@@ -10047,7 +10047,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>560</v>
       </c>
       <c r="D79" s="2">
@@ -10075,20 +10075,20 @@
         <v>254</v>
       </c>
       <c r="Y79">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="Z79" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="AA79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB79" s="37">
-        <v>0.125</v>
+        <v>0.18329999999999999</v>
       </c>
       <c r="AC79" s="38">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>AB79*AA79</f>
+        <v>0.54989999999999994</v>
       </c>
       <c r="AE79">
         <v>140</v>
@@ -10111,7 +10111,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>407</v>
       </c>
       <c r="D80" s="2">
@@ -10139,20 +10139,20 @@
         <v>255</v>
       </c>
       <c r="Y80">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="Z80" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="AA80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB80" s="37">
-        <v>0.25</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AC80" s="38">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>AB80*AA80</f>
+        <v>0.50009999999999999</v>
       </c>
       <c r="AE80">
         <v>141</v>
@@ -10175,7 +10175,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>482</v>
       </c>
       <c r="D81" s="2">
@@ -10203,20 +10203,20 @@
         <v>256</v>
       </c>
       <c r="Y81">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="Z81" t="s">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="AA81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB81" s="37">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="AC81" s="38">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>AB81*AA81</f>
+        <v>0.48</v>
       </c>
       <c r="AE81">
         <v>149</v>
@@ -10239,7 +10239,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>405</v>
       </c>
       <c r="D82" s="2">
@@ -10267,20 +10267,20 @@
         <v>257</v>
       </c>
       <c r="Y82">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Z82" t="s">
-        <v>95</v>
+        <v>532</v>
       </c>
       <c r="AA82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB82" s="37">
-        <v>0.25</v>
+        <v>0.15670000000000001</v>
       </c>
       <c r="AC82" s="38">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>AB82*AA82</f>
+        <v>0.47010000000000002</v>
       </c>
       <c r="AE82">
         <v>165</v>
@@ -10303,7 +10303,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>485</v>
       </c>
       <c r="D83" s="2">
@@ -10331,20 +10331,20 @@
         <v>258</v>
       </c>
       <c r="Y83">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="Z83" t="s">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AA83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB83" s="37">
-        <v>0.25</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="AC83" s="38">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>AB83*AA83</f>
+        <v>0.45989999999999998</v>
       </c>
       <c r="AE83">
         <v>173</v>
@@ -10367,7 +10367,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="D84" s="2">
@@ -10395,20 +10395,20 @@
         <v>259</v>
       </c>
       <c r="Y84">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="Z84" t="s">
-        <v>416</v>
+        <v>93</v>
       </c>
       <c r="AA84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB84" s="37">
-        <v>0.1225</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="AC84" s="38">
-        <f t="shared" si="2"/>
-        <v>0.49</v>
+        <f>AB84*AA84</f>
+        <v>0.45989999999999998</v>
       </c>
       <c r="AE84">
         <v>208</v>
@@ -10431,7 +10431,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>483</v>
       </c>
       <c r="D85" s="2">
@@ -10462,20 +10462,20 @@
         <v>425</v>
       </c>
       <c r="Y85">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="Z85" t="s">
-        <v>422</v>
+        <v>572</v>
       </c>
       <c r="AA85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB85" s="37">
-        <v>9.6000000000000002E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AC85" s="38">
-        <f t="shared" si="2"/>
-        <v>0.48</v>
+        <f>AB85*AA85</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="AE85">
         <v>219</v>
@@ -10498,7 +10498,7 @@
         <v>171</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>381</v>
       </c>
       <c r="D86" s="2">
@@ -10526,20 +10526,20 @@
         <v>261</v>
       </c>
       <c r="Y86">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="Z86" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="AA86">
         <v>3</v>
       </c>
       <c r="AB86" s="37">
-        <v>0.16</v>
+        <v>0.1467</v>
       </c>
       <c r="AC86" s="38">
-        <f t="shared" si="2"/>
-        <v>0.48</v>
+        <f>AB86*AA86</f>
+        <v>0.44009999999999999</v>
       </c>
       <c r="AE86">
         <v>3</v>
@@ -10562,7 +10562,7 @@
         <v>172</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>545</v>
       </c>
       <c r="D87" s="2">
@@ -10590,20 +10590,20 @@
         <v>262</v>
       </c>
       <c r="Y87">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="Z87" t="s">
-        <v>532</v>
+        <v>399</v>
       </c>
       <c r="AA87">
         <v>3</v>
       </c>
       <c r="AB87" s="37">
-        <v>0.15670000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC87" s="38">
-        <f t="shared" si="2"/>
-        <v>0.47010000000000002</v>
+        <f>AB87*AA87</f>
+        <v>0.42000000000000004</v>
       </c>
       <c r="AE87">
         <v>10</v>
@@ -10626,7 +10626,7 @@
         <v>83</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="D88" s="2">
@@ -10654,20 +10654,20 @@
         <v>263</v>
       </c>
       <c r="Y88">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="Z88" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="AA88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB88" s="37">
-        <v>0.115</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC88" s="38">
-        <f t="shared" si="2"/>
-        <v>0.46</v>
+        <f>AB88*AA88</f>
+        <v>0.42000000000000004</v>
       </c>
       <c r="AE88">
         <v>15</v>
@@ -10690,7 +10690,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>365</v>
       </c>
       <c r="D89" s="2">
@@ -10718,20 +10718,20 @@
         <v>264</v>
       </c>
       <c r="Y89">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Z89" t="s">
-        <v>480</v>
+        <v>405</v>
       </c>
       <c r="AA89">
         <v>3</v>
       </c>
       <c r="AB89" s="37">
-        <v>0.15329999999999999</v>
+        <v>0.1333</v>
       </c>
       <c r="AC89" s="38">
-        <f t="shared" si="2"/>
-        <v>0.45989999999999998</v>
+        <f>AB89*AA89</f>
+        <v>0.39990000000000003</v>
       </c>
       <c r="AE89">
         <v>22</v>
@@ -10754,7 +10754,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>505</v>
       </c>
       <c r="D90" s="2">
@@ -10782,20 +10782,20 @@
         <v>265</v>
       </c>
       <c r="Y90">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="Z90" t="s">
-        <v>93</v>
+        <v>451</v>
       </c>
       <c r="AA90">
         <v>3</v>
       </c>
       <c r="AB90" s="37">
-        <v>0.15329999999999999</v>
+        <v>0.12330000000000001</v>
       </c>
       <c r="AC90" s="38">
-        <f t="shared" si="2"/>
-        <v>0.45989999999999998</v>
+        <f>AB90*AA90</f>
+        <v>0.36990000000000001</v>
       </c>
       <c r="AE90">
         <v>24</v>
@@ -10818,7 +10818,7 @@
         <v>86</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="D91" s="2">
@@ -10846,20 +10846,20 @@
         <v>182</v>
       </c>
       <c r="Y91">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Z91" t="s">
-        <v>572</v>
+        <v>36</v>
       </c>
       <c r="AA91">
         <v>3</v>
       </c>
       <c r="AB91" s="37">
-        <v>0.15</v>
+        <v>0.12330000000000001</v>
       </c>
       <c r="AC91" s="38">
-        <f t="shared" si="2"/>
-        <v>0.44999999999999996</v>
+        <f>AB91*AA91</f>
+        <v>0.36990000000000001</v>
       </c>
       <c r="AE91">
         <v>33</v>
@@ -10882,7 +10882,7 @@
         <v>87</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>425</v>
       </c>
       <c r="D92" s="2">
@@ -10910,20 +10910,20 @@
         <v>266</v>
       </c>
       <c r="Y92">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="Z92" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="AA92">
         <v>3</v>
       </c>
       <c r="AB92" s="37">
-        <v>0.1467</v>
+        <v>0.12</v>
       </c>
       <c r="AC92" s="38">
-        <f t="shared" si="2"/>
-        <v>0.44009999999999999</v>
+        <f>AB92*AA92</f>
+        <v>0.36</v>
       </c>
       <c r="AE92">
         <v>36</v>
@@ -10946,7 +10946,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>425</v>
       </c>
       <c r="D93" s="2">
@@ -10974,20 +10974,20 @@
         <v>267</v>
       </c>
       <c r="Y93">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="Z93" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="AA93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB93" s="37">
-        <v>0.11</v>
+        <v>0.1167</v>
       </c>
       <c r="AC93" s="38">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f>AB93*AA93</f>
+        <v>0.35009999999999997</v>
       </c>
       <c r="AE93">
         <v>42</v>
@@ -11010,7 +11010,7 @@
         <v>89</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
       <c r="D94" s="2">
@@ -11038,20 +11038,20 @@
         <v>268</v>
       </c>
       <c r="Y94">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="Z94" t="s">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="AA94">
         <v>3</v>
       </c>
       <c r="AB94" s="37">
-        <v>0.14000000000000001</v>
+        <v>0.1133</v>
       </c>
       <c r="AC94" s="38">
-        <f t="shared" ref="AC94:AC157" si="4">AB94*AA94</f>
-        <v>0.42000000000000004</v>
+        <f>AB94*AA94</f>
+        <v>0.33989999999999998</v>
       </c>
       <c r="AE94">
         <v>53</v>
@@ -11074,7 +11074,7 @@
         <v>90</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>316</v>
       </c>
       <c r="D95" s="2">
@@ -11102,20 +11102,20 @@
         <v>269</v>
       </c>
       <c r="Y95">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z95" t="s">
-        <v>428</v>
+        <v>47</v>
       </c>
       <c r="AA95">
         <v>3</v>
       </c>
       <c r="AB95" s="37">
-        <v>0.14000000000000001</v>
+        <v>0.1067</v>
       </c>
       <c r="AC95" s="38">
-        <f t="shared" si="4"/>
-        <v>0.42000000000000004</v>
+        <f>AB95*AA95</f>
+        <v>0.3201</v>
       </c>
       <c r="AE95">
         <v>54</v>
@@ -11138,7 +11138,7 @@
         <v>91</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
       <c r="D96" s="2">
@@ -11166,20 +11166,20 @@
         <v>270</v>
       </c>
       <c r="Y96">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="Z96" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="AA96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB96" s="37">
-        <v>0.2</v>
+        <v>0.1033</v>
       </c>
       <c r="AC96" s="38">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
+        <f>AB96*AA96</f>
+        <v>0.30990000000000001</v>
       </c>
       <c r="AE96">
         <v>56</v>
@@ -11202,7 +11202,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="D97" s="2">
@@ -11230,20 +11230,20 @@
         <v>271</v>
       </c>
       <c r="Y97">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="Z97" t="s">
-        <v>405</v>
+        <v>68</v>
       </c>
       <c r="AA97">
         <v>3</v>
       </c>
       <c r="AB97" s="37">
-        <v>0.1333</v>
+        <v>0.09</v>
       </c>
       <c r="AC97" s="38">
-        <f t="shared" si="4"/>
-        <v>0.39990000000000003</v>
+        <f>AB97*AA97</f>
+        <v>0.27</v>
       </c>
       <c r="AE97">
         <v>83</v>
@@ -11266,7 +11266,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>430</v>
       </c>
       <c r="D98" s="2">
@@ -11294,20 +11294,20 @@
         <v>272</v>
       </c>
       <c r="Y98">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="Z98" t="s">
-        <v>451</v>
+        <v>583</v>
       </c>
       <c r="AA98">
         <v>3</v>
       </c>
       <c r="AB98" s="37">
-        <v>0.12330000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AC98" s="38">
-        <f t="shared" si="4"/>
-        <v>0.36990000000000001</v>
+        <f>AB98*AA98</f>
+        <v>0.24990000000000001</v>
       </c>
       <c r="AE98">
         <v>109</v>
@@ -11330,7 +11330,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
       <c r="D99" s="2">
@@ -11358,20 +11358,20 @@
         <v>273</v>
       </c>
       <c r="Y99">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="Z99" t="s">
-        <v>36</v>
+        <v>558</v>
       </c>
       <c r="AA99">
         <v>3</v>
       </c>
       <c r="AB99" s="37">
-        <v>0.12330000000000001</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="AC99" s="38">
-        <f t="shared" si="4"/>
-        <v>0.36990000000000001</v>
+        <f>AB99*AA99</f>
+        <v>0.23010000000000003</v>
       </c>
       <c r="AE99">
         <v>110</v>
@@ -11394,7 +11394,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
       <c r="D100" s="2">
@@ -11422,20 +11422,20 @@
         <v>274</v>
       </c>
       <c r="Y100">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="Z100" t="s">
-        <v>402</v>
+        <v>43</v>
       </c>
       <c r="AA100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB100" s="37">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="AC100" s="38">
-        <f t="shared" si="4"/>
-        <v>0.36</v>
+        <f>AB100*AA100</f>
+        <v>0.9</v>
       </c>
       <c r="AE100">
         <v>120</v>
@@ -11458,7 +11458,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>465</v>
       </c>
       <c r="D101" s="2">
@@ -11486,20 +11486,20 @@
         <v>275</v>
       </c>
       <c r="Y101">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="Z101" t="s">
-        <v>419</v>
+        <v>509</v>
       </c>
       <c r="AA101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB101" s="37">
-        <v>0.1167</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AC101" s="38">
-        <f t="shared" si="4"/>
-        <v>0.35009999999999997</v>
+        <f>AB101*AA101</f>
+        <v>0.65</v>
       </c>
       <c r="AE101">
         <v>126</v>
@@ -11522,7 +11522,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="D102" s="2">
@@ -11550,20 +11550,20 @@
         <v>276</v>
       </c>
       <c r="Y102">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="Z102" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="AA102">
         <v>2</v>
       </c>
       <c r="AB102" s="37">
-        <v>0.17499999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AC102" s="38">
-        <f t="shared" si="4"/>
-        <v>0.35</v>
+        <f>AB102*AA102</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE102">
         <v>142</v>
@@ -11617,20 +11617,20 @@
         <v>278</v>
       </c>
       <c r="Y103">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="Z103" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
       <c r="AA103">
         <v>2</v>
       </c>
       <c r="AB103" s="37">
-        <v>0.17499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="AC103" s="38">
-        <f t="shared" si="4"/>
-        <v>0.35</v>
+        <f>AB103*AA103</f>
+        <v>0.5</v>
       </c>
       <c r="AE103">
         <v>144</v>
@@ -11681,20 +11681,20 @@
         <v>279</v>
       </c>
       <c r="Y104">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="Z104" t="s">
-        <v>484</v>
+        <v>101</v>
       </c>
       <c r="AA104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB104" s="37">
-        <v>8.5000000000000006E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AC104" s="38">
-        <f t="shared" si="4"/>
-        <v>0.34</v>
+        <f>AB104*AA104</f>
+        <v>0.5</v>
       </c>
       <c r="AE104">
         <v>147</v>
@@ -11717,7 +11717,7 @@
         <v>133</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>570</v>
       </c>
       <c r="D105" s="2">
@@ -11745,20 +11745,20 @@
         <v>280</v>
       </c>
       <c r="Y105">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="Z105" t="s">
-        <v>434</v>
+        <v>95</v>
       </c>
       <c r="AA105">
         <v>2</v>
       </c>
       <c r="AB105" s="37">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AC105" s="38">
-        <f t="shared" si="4"/>
-        <v>0.34</v>
+        <f>AB105*AA105</f>
+        <v>0.5</v>
       </c>
       <c r="AE105">
         <v>152</v>
@@ -11781,7 +11781,7 @@
         <v>98</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="D106" s="2">
@@ -11809,20 +11809,20 @@
         <v>281</v>
       </c>
       <c r="Y106">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="Z106" t="s">
-        <v>459</v>
+        <v>562</v>
       </c>
       <c r="AA106">
         <v>2</v>
       </c>
       <c r="AB106" s="37">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AC106" s="38">
-        <f t="shared" si="4"/>
-        <v>0.34</v>
+        <f>AB106*AA106</f>
+        <v>0.5</v>
       </c>
       <c r="AE106">
         <v>162</v>
@@ -11845,7 +11845,7 @@
         <v>99</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
       <c r="D107" s="2">
@@ -11873,20 +11873,20 @@
         <v>184</v>
       </c>
       <c r="Y107">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="Z107" t="s">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="AA107">
         <v>2</v>
       </c>
       <c r="AB107" s="37">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AC107" s="38">
-        <f t="shared" si="4"/>
-        <v>0.34</v>
+        <f>AB107*AA107</f>
+        <v>0.4</v>
       </c>
       <c r="AE107">
         <v>168</v>
@@ -11909,7 +11909,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>505</v>
       </c>
       <c r="D108" s="2">
@@ -11937,20 +11937,20 @@
         <v>282</v>
       </c>
       <c r="Y108">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="Z108" t="s">
-        <v>39</v>
+        <v>470</v>
       </c>
       <c r="AA108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB108" s="37">
-        <v>0.1133</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AC108" s="38">
-        <f t="shared" si="4"/>
-        <v>0.33989999999999998</v>
+        <f>AB108*AA108</f>
+        <v>0.35</v>
       </c>
       <c r="AE108">
         <v>176</v>
@@ -11973,7 +11973,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>390</v>
       </c>
       <c r="D109" s="2">
@@ -12001,20 +12001,20 @@
         <v>283</v>
       </c>
       <c r="Y109">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="Z109" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="AA109">
         <v>2</v>
       </c>
       <c r="AB109" s="37">
-        <v>0.16500000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AC109" s="38">
-        <f t="shared" si="4"/>
-        <v>0.33</v>
+        <f>AB109*AA109</f>
+        <v>0.35</v>
       </c>
       <c r="AE109">
         <v>14</v>
@@ -12037,7 +12037,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>455</v>
       </c>
       <c r="D110" s="2">
@@ -12065,20 +12065,20 @@
         <v>284</v>
       </c>
       <c r="Y110">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="Z110" t="s">
-        <v>559</v>
+        <v>434</v>
       </c>
       <c r="AA110">
         <v>2</v>
       </c>
       <c r="AB110" s="37">
-        <v>0.16500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="AC110" s="38">
-        <f t="shared" si="4"/>
-        <v>0.33</v>
+        <f>AB110*AA110</f>
+        <v>0.34</v>
       </c>
       <c r="AE110">
         <v>28</v>
@@ -12101,7 +12101,7 @@
         <v>103</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="D111" s="2">
@@ -12129,20 +12129,20 @@
         <v>285</v>
       </c>
       <c r="Y111">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z111" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
       <c r="AA111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB111" s="37">
-        <v>0.1067</v>
+        <v>0.17</v>
       </c>
       <c r="AC111" s="38">
-        <f t="shared" si="4"/>
-        <v>0.3201</v>
+        <f>AB111*AA111</f>
+        <v>0.34</v>
       </c>
       <c r="AE111">
         <v>39</v>
@@ -12165,7 +12165,7 @@
         <v>104</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="D112" s="2">
@@ -12193,20 +12193,20 @@
         <v>286</v>
       </c>
       <c r="Y112">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="Z112" t="s">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="AA112">
         <v>2</v>
       </c>
       <c r="AB112" s="37">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AC112" s="38">
-        <f t="shared" si="4"/>
-        <v>0.32</v>
+        <f>AB112*AA112</f>
+        <v>0.34</v>
       </c>
       <c r="AE112">
         <v>50</v>
@@ -12229,7 +12229,7 @@
         <v>105</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D113" s="2">
@@ -12257,20 +12257,20 @@
         <v>287</v>
       </c>
       <c r="Y113">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="Z113" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="AA113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB113" s="37">
-        <v>0.1033</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AC113" s="38">
-        <f t="shared" si="4"/>
-        <v>0.30990000000000001</v>
+        <f>AB113*AA113</f>
+        <v>0.33</v>
       </c>
       <c r="AE113">
         <v>65</v>
@@ -12293,7 +12293,7 @@
         <v>106</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D114" s="2">
@@ -12321,20 +12321,20 @@
         <v>288</v>
       </c>
       <c r="Y114">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="Z114" t="s">
-        <v>433</v>
+        <v>559</v>
       </c>
       <c r="AA114">
         <v>2</v>
       </c>
       <c r="AB114" s="37">
-        <v>0.15</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AC114" s="38">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
+        <f>AB114*AA114</f>
+        <v>0.33</v>
       </c>
       <c r="AE114">
         <v>67</v>
@@ -12357,7 +12357,7 @@
         <v>107</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D115" s="2">
@@ -12385,20 +12385,20 @@
         <v>289</v>
       </c>
       <c r="Y115">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="Z115" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="AA115">
         <v>2</v>
       </c>
       <c r="AB115" s="37">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AC115" s="38">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
+        <f>AB115*AA115</f>
+        <v>0.32</v>
       </c>
       <c r="AE115">
         <v>70</v>
@@ -12421,7 +12421,7 @@
         <v>108</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D116" s="2">
@@ -12449,10 +12449,10 @@
         <v>290</v>
       </c>
       <c r="Y116">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="Z116" t="s">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="AA116">
         <v>2</v>
@@ -12461,7 +12461,7 @@
         <v>0.15</v>
       </c>
       <c r="AC116" s="38">
-        <f t="shared" si="4"/>
+        <f>AB116*AA116</f>
         <v>0.3</v>
       </c>
       <c r="AE116">
@@ -12485,7 +12485,7 @@
         <v>109</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D117" s="2">
@@ -12513,19 +12513,19 @@
         <v>291</v>
       </c>
       <c r="Y117">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="Z117" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB117" s="37">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AC117" s="38">
-        <f t="shared" si="4"/>
+        <f>AB117*AA117</f>
         <v>0.3</v>
       </c>
       <c r="AE117">
@@ -12549,7 +12549,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D118" s="2">
@@ -12577,20 +12577,20 @@
         <v>292</v>
       </c>
       <c r="Y118">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="Z118" t="s">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="AA118">
         <v>2</v>
       </c>
       <c r="AB118" s="37">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="AC118" s="38">
-        <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
+        <f>AB118*AA118</f>
+        <v>0.3</v>
       </c>
       <c r="AE118">
         <v>82</v>
@@ -12613,7 +12613,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D119" s="2">
@@ -12641,20 +12641,20 @@
         <v>293</v>
       </c>
       <c r="Y119">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="Z119" t="s">
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="AA119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB119" s="37">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC119" s="38">
-        <f t="shared" si="4"/>
-        <v>0.27</v>
+        <f>AB119*AA119</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AE119">
         <v>88</v>
@@ -12677,7 +12677,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D120" s="2">
@@ -12717,7 +12717,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC120" s="38">
-        <f t="shared" si="4"/>
+        <f>AB120*AA120</f>
         <v>0.27</v>
       </c>
       <c r="AE120">
@@ -12741,7 +12741,7 @@
         <v>113</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D121" s="2">
@@ -12781,7 +12781,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC121" s="38">
-        <f t="shared" si="4"/>
+        <f>AB121*AA121</f>
         <v>0.27</v>
       </c>
       <c r="AE121">
@@ -12805,7 +12805,7 @@
         <v>114</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D122" s="2">
@@ -12845,7 +12845,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC122" s="38">
-        <f t="shared" si="4"/>
+        <f>AB122*AA122</f>
         <v>0.27</v>
       </c>
       <c r="AE122">
@@ -12869,7 +12869,7 @@
         <v>115</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="D123" s="2">
@@ -12909,7 +12909,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC123" s="38">
-        <f t="shared" si="4"/>
+        <f>AB123*AA123</f>
         <v>0.27</v>
       </c>
       <c r="AE123">
@@ -12933,7 +12933,7 @@
         <v>116</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>310</v>
       </c>
       <c r="D124" s="2">
@@ -12973,7 +12973,7 @@
         <v>0.13</v>
       </c>
       <c r="AC124" s="38">
-        <f t="shared" si="4"/>
+        <f>AB124*AA124</f>
         <v>0.26</v>
       </c>
       <c r="AE124">
@@ -12997,7 +12997,7 @@
         <v>117</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>405</v>
       </c>
       <c r="D125" s="2">
@@ -13037,7 +13037,7 @@
         <v>0.125</v>
       </c>
       <c r="AC125" s="38">
-        <f t="shared" si="4"/>
+        <f>AB125*AA125</f>
         <v>0.25</v>
       </c>
       <c r="AE125">
@@ -13061,7 +13061,7 @@
         <v>118</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>526</v>
       </c>
       <c r="D126" s="2">
@@ -13101,7 +13101,7 @@
         <v>0.125</v>
       </c>
       <c r="AC126" s="38">
-        <f t="shared" si="4"/>
+        <f>AB126*AA126</f>
         <v>0.25</v>
       </c>
       <c r="AE126">
@@ -13125,7 +13125,7 @@
         <v>119</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>331</v>
       </c>
       <c r="D127" s="2">
@@ -13153,20 +13153,20 @@
         <v>300</v>
       </c>
       <c r="Y127">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="Z127" t="s">
-        <v>517</v>
+        <v>49</v>
       </c>
       <c r="AA127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB127" s="37">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="AC127" s="38">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
+        <f>AB127*AA127</f>
+        <v>0.24</v>
       </c>
       <c r="AE127">
         <v>133</v>
@@ -13189,7 +13189,7 @@
         <v>120</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>410</v>
       </c>
       <c r="D128" s="2">
@@ -13217,20 +13217,20 @@
         <v>301</v>
       </c>
       <c r="Y128">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="Z128" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB128" s="37">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="AC128" s="38">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
+        <f>AB128*AA128</f>
+        <v>0.24</v>
       </c>
       <c r="AE128">
         <v>139</v>
@@ -13253,7 +13253,7 @@
         <v>121</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>515</v>
       </c>
       <c r="D129" s="2">
@@ -13281,20 +13281,20 @@
         <v>302</v>
       </c>
       <c r="Y129">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="Z129" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="AA129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB129" s="37">
-        <v>8.3299999999999999E-2</v>
+        <v>0.12</v>
       </c>
       <c r="AC129" s="38">
-        <f t="shared" si="4"/>
-        <v>0.24990000000000001</v>
+        <f>AB129*AA129</f>
+        <v>0.24</v>
       </c>
       <c r="AE129">
         <v>148</v>
@@ -13317,7 +13317,7 @@
         <v>122</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
       <c r="D130" s="2">
@@ -13345,20 +13345,20 @@
         <v>303</v>
       </c>
       <c r="Y130">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="Z130" t="s">
-        <v>49</v>
+        <v>462</v>
       </c>
       <c r="AA130">
         <v>2</v>
       </c>
       <c r="AB130" s="37">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="AC130" s="38">
-        <f t="shared" si="4"/>
-        <v>0.24</v>
+        <f>AB130*AA130</f>
+        <v>0.23</v>
       </c>
       <c r="AE130">
         <v>157</v>
@@ -13381,7 +13381,7 @@
         <v>123</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>422</v>
       </c>
       <c r="D131" s="2">
@@ -13409,20 +13409,20 @@
         <v>304</v>
       </c>
       <c r="Y131">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Z131" t="s">
-        <v>578</v>
+        <v>417</v>
       </c>
       <c r="AA131">
         <v>2</v>
       </c>
       <c r="AB131" s="37">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AC131" s="38">
-        <f t="shared" si="4"/>
-        <v>0.24</v>
+        <f>AB131*AA131</f>
+        <v>0.2</v>
       </c>
       <c r="AE131">
         <v>183</v>
@@ -13445,7 +13445,7 @@
         <v>124</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" ref="C132:C140" si="5">SUM(D132:I132)</f>
+        <f t="shared" ref="C132:C140" si="3">SUM(D132:I132)</f>
         <v>514</v>
       </c>
       <c r="D132" s="2">
@@ -13473,20 +13473,20 @@
         <v>305</v>
       </c>
       <c r="Y132">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="Z132" t="s">
-        <v>573</v>
+        <v>442</v>
       </c>
       <c r="AA132">
         <v>2</v>
       </c>
       <c r="AB132" s="37">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AC132" s="38">
-        <f t="shared" si="4"/>
-        <v>0.24</v>
+        <f>AB132*AA132</f>
+        <v>0.2</v>
       </c>
       <c r="AE132">
         <v>196</v>
@@ -13509,7 +13509,7 @@
         <v>125</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
       <c r="D133" s="2">
@@ -13537,20 +13537,20 @@
         <v>306</v>
       </c>
       <c r="Y133">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="Z133" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="AA133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB133" s="37">
-        <v>7.6700000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AC133" s="38">
-        <f t="shared" si="4"/>
-        <v>0.23010000000000003</v>
+        <f>AB133*AA133</f>
+        <v>0.2</v>
       </c>
       <c r="AE133">
         <v>201</v>
@@ -13573,7 +13573,7 @@
         <v>126</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
       <c r="D134" s="2">
@@ -13601,20 +13601,20 @@
         <v>307</v>
       </c>
       <c r="Y134">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="Z134" t="s">
-        <v>462</v>
+        <v>99</v>
       </c>
       <c r="AA134">
         <v>2</v>
       </c>
       <c r="AB134" s="37">
-        <v>0.115</v>
+        <v>0.09</v>
       </c>
       <c r="AC134" s="38">
-        <f t="shared" si="4"/>
-        <v>0.23</v>
+        <f>AB134*AA134</f>
+        <v>0.18</v>
       </c>
       <c r="AE134">
         <v>204</v>
@@ -13637,7 +13637,7 @@
         <v>127</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="D135" s="2">
@@ -13665,20 +13665,20 @@
         <v>308</v>
       </c>
       <c r="Y135">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="Z135" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB135" s="37">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="AC135" s="38">
-        <f t="shared" si="4"/>
-        <v>0.22</v>
+        <f>AB135*AA135</f>
+        <v>0.18</v>
       </c>
       <c r="AE135">
         <v>207</v>
@@ -13701,7 +13701,7 @@
         <v>128</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="D136" s="2">
@@ -13729,20 +13729,20 @@
         <v>188</v>
       </c>
       <c r="Y136">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Z136" t="s">
-        <v>417</v>
+        <v>48</v>
       </c>
       <c r="AA136">
         <v>2</v>
       </c>
       <c r="AB136" s="37">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AC136" s="38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>AB136*AA136</f>
+        <v>0.16</v>
       </c>
       <c r="AE136">
         <v>214</v>
@@ -13765,7 +13765,7 @@
         <v>129</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
       <c r="D137" s="2">
@@ -13793,20 +13793,20 @@
         <v>309</v>
       </c>
       <c r="Y137">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="Z137" t="s">
-        <v>442</v>
+        <v>526</v>
       </c>
       <c r="AA137">
         <v>2</v>
       </c>
       <c r="AB137" s="37">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AC137" s="38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>AB137*AA137</f>
+        <v>0.16</v>
       </c>
       <c r="AE137">
         <v>222</v>
@@ -13829,7 +13829,7 @@
         <v>130</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>610</v>
       </c>
       <c r="D138" s="2">
@@ -13860,20 +13860,20 @@
         <v>311</v>
       </c>
       <c r="Y138">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="Z138" t="s">
-        <v>528</v>
+        <v>414</v>
       </c>
       <c r="AA138">
         <v>2</v>
       </c>
       <c r="AB138" s="37">
-        <v>0.1</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AC138" s="38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>AB138*AA138</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE138">
         <v>227</v>
@@ -13896,7 +13896,7 @@
         <v>131</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>610</v>
       </c>
       <c r="D139" s="2">
@@ -13924,20 +13924,20 @@
         <v>312</v>
       </c>
       <c r="Y139">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="Z139" t="s">
-        <v>448</v>
+        <v>802</v>
       </c>
       <c r="AA139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB139" s="37">
-        <v>0.2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AC139" s="38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>AB139*AA139</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE139">
         <v>2</v>
@@ -13960,7 +13960,7 @@
         <v>132</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>620</v>
       </c>
       <c r="D140" s="2">
@@ -13988,20 +13988,20 @@
         <v>313</v>
       </c>
       <c r="Y140">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Z140" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AA140">
         <v>1</v>
       </c>
       <c r="AB140" s="37">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AC140" s="38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>AB140*AA140</f>
+        <v>1</v>
       </c>
       <c r="AE140">
         <v>5</v>
@@ -14028,51 +14028,51 @@
         <v>350</v>
       </c>
       <c r="D141" s="2">
-        <f t="shared" ref="D141:J141" si="6">D59</f>
+        <f t="shared" ref="D141:J141" si="4">D59</f>
         <v>55</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="I141" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="J141" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="W141" t="s">
         <v>314</v>
       </c>
       <c r="Y141">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="Z141" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="AA141">
         <v>1</v>
       </c>
       <c r="AB141" s="37">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC141" s="38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>AB141*AA141</f>
+        <v>0.3</v>
       </c>
       <c r="AE141">
         <v>8</v>
@@ -14095,35 +14095,35 @@
         <v>165</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" ref="C142:J142" si="7">C59</f>
+        <f t="shared" ref="C142:J142" si="5">C59</f>
         <v>350</v>
       </c>
       <c r="D142" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="E142" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="F142" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="I142" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J142" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="W142" s="12" t="s">
@@ -14133,20 +14133,20 @@
         <v>316</v>
       </c>
       <c r="Y142">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="Z142" t="s">
-        <v>100</v>
+        <v>517</v>
       </c>
       <c r="AA142">
         <v>1</v>
       </c>
       <c r="AB142" s="37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AC142" s="38">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>AB142*AA142</f>
+        <v>0.25</v>
       </c>
       <c r="AE142">
         <v>18</v>
@@ -14173,51 +14173,51 @@
         <v>500</v>
       </c>
       <c r="D143" s="2">
-        <f t="shared" ref="D143:J143" si="8">D60</f>
+        <f t="shared" ref="D143:J143" si="6">D60</f>
         <v>105</v>
       </c>
       <c r="E143" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="F143" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="H143" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="I143" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="J143" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="W143" t="s">
         <v>317</v>
       </c>
       <c r="Y143">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="Z143" t="s">
-        <v>99</v>
+        <v>519</v>
       </c>
       <c r="AA143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB143" s="37">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="AC143" s="38">
-        <f t="shared" si="4"/>
-        <v>0.18</v>
+        <f>AB143*AA143</f>
+        <v>0.25</v>
       </c>
       <c r="AE143">
         <v>20</v>
@@ -14244,31 +14244,31 @@
         <v>500</v>
       </c>
       <c r="D144" s="2">
-        <f t="shared" ref="D144:J144" si="9">D60</f>
+        <f t="shared" ref="D144:J144" si="7">D60</f>
         <v>105</v>
       </c>
       <c r="E144" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="F144" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="I144" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="J144" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="S144">
@@ -14284,20 +14284,20 @@
         <v>318</v>
       </c>
       <c r="Y144">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="Z144" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="AA144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB144" s="37">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="AC144" s="38">
-        <f t="shared" si="4"/>
-        <v>0.18</v>
+        <f>AB144*AA144</f>
+        <v>0.22</v>
       </c>
       <c r="AE144">
         <v>21</v>
@@ -14354,20 +14354,20 @@
         <v>319</v>
       </c>
       <c r="Y145">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Z145" t="s">
-        <v>48</v>
+        <v>448</v>
       </c>
       <c r="AA145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB145" s="37">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="AC145" s="38">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
+        <f>AB145*AA145</f>
+        <v>0.2</v>
       </c>
       <c r="AE145">
         <v>23</v>
@@ -14390,7 +14390,7 @@
         <v>389</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" ref="C146:C209" si="10">SUM(D146:I146)</f>
+        <f t="shared" ref="C146:C209" si="8">SUM(D146:I146)</f>
         <v>335</v>
       </c>
       <c r="D146" s="2">
@@ -14430,7 +14430,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="str">
-        <f t="shared" ref="P146:P209" si="11">B146</f>
+        <f t="shared" ref="P146:P209" si="9">B146</f>
         <v>Twigle</v>
       </c>
       <c r="Q146">
@@ -14449,20 +14449,20 @@
         <v>320</v>
       </c>
       <c r="Y146">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="Z146" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="AA146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB146" s="37">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="AC146" s="38">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
+        <f>AB146*AA146</f>
+        <v>0.2</v>
       </c>
       <c r="AE146">
         <v>30</v>
@@ -14485,7 +14485,7 @@
         <v>390</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>402</v>
       </c>
       <c r="D147" s="2">
@@ -14525,7 +14525,7 @@
         <v>2</v>
       </c>
       <c r="P147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Torgged</v>
       </c>
       <c r="Q147">
@@ -14544,20 +14544,20 @@
         <v>321</v>
       </c>
       <c r="Y147">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Z147" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AA147">
         <v>1</v>
       </c>
       <c r="AB147" s="37">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="AC147" s="38">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
+        <f>AB147*AA147</f>
+        <v>0.2</v>
       </c>
       <c r="AE147">
         <v>32</v>
@@ -14580,7 +14580,7 @@
         <v>391</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>517</v>
       </c>
       <c r="D148" s="2">
@@ -14620,7 +14620,7 @@
         <v>3</v>
       </c>
       <c r="P148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Tortugis</v>
       </c>
       <c r="S148">
@@ -14636,20 +14636,20 @@
         <v>322</v>
       </c>
       <c r="Y148">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="Z148" t="s">
-        <v>554</v>
+        <v>100</v>
       </c>
       <c r="AA148">
         <v>1</v>
       </c>
       <c r="AB148" s="37">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="AC148" s="38">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
+        <f>AB148*AA148</f>
+        <v>0.2</v>
       </c>
       <c r="AE148">
         <v>43</v>
@@ -14672,7 +14672,7 @@
         <v>392</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>329</v>
       </c>
       <c r="D149" s="2">
@@ -14712,7 +14712,7 @@
         <v>4</v>
       </c>
       <c r="P149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Lagma</v>
       </c>
       <c r="Q149">
@@ -14731,20 +14731,20 @@
         <v>190</v>
       </c>
       <c r="Y149">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="Z149" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="AA149">
         <v>1</v>
       </c>
       <c r="AB149" s="37">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AC149" s="38">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
+        <f>AB149*AA149</f>
+        <v>0.16</v>
       </c>
       <c r="AE149">
         <v>52</v>
@@ -14767,7 +14767,7 @@
         <v>393</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>399</v>
       </c>
       <c r="D150" s="2">
@@ -14807,7 +14807,7 @@
         <v>5</v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Maguide</v>
       </c>
       <c r="Q150">
@@ -14826,20 +14826,20 @@
         <v>323</v>
       </c>
       <c r="Y150">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="Z150" t="s">
-        <v>420</v>
+        <v>554</v>
       </c>
       <c r="AA150">
         <v>1</v>
       </c>
       <c r="AB150" s="37">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AC150" s="38">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
+        <f>AB150*AA150</f>
+        <v>0.16</v>
       </c>
       <c r="AE150">
         <v>57</v>
@@ -14862,7 +14862,7 @@
         <v>394</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>521</v>
       </c>
       <c r="D151" s="2">
@@ -14902,7 +14902,7 @@
         <v>6</v>
       </c>
       <c r="P151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Magron</v>
       </c>
       <c r="S151">
@@ -14918,10 +14918,10 @@
         <v>324</v>
       </c>
       <c r="Y151">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="Z151" t="s">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="AA151">
         <v>1</v>
@@ -14930,7 +14930,7 @@
         <v>0.15</v>
       </c>
       <c r="AC151" s="38">
-        <f t="shared" si="4"/>
+        <f>AB151*AA151</f>
         <v>0.15</v>
       </c>
       <c r="AE151">
@@ -14954,7 +14954,7 @@
         <v>395</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>325</v>
       </c>
       <c r="D152" s="2">
@@ -14994,7 +14994,7 @@
         <v>7</v>
       </c>
       <c r="P152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Lizish</v>
       </c>
       <c r="Q152">
@@ -15016,10 +15016,10 @@
         <v>583</v>
       </c>
       <c r="Y152">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="Z152" t="s">
-        <v>69</v>
+        <v>420</v>
       </c>
       <c r="AA152">
         <v>1</v>
@@ -15028,7 +15028,7 @@
         <v>0.15</v>
       </c>
       <c r="AC152" s="38">
-        <f t="shared" si="4"/>
+        <f>AB152*AA152</f>
         <v>0.15</v>
       </c>
       <c r="AE152">
@@ -15052,7 +15052,7 @@
         <v>396</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="D153" s="2">
@@ -15092,7 +15092,7 @@
         <v>8</v>
       </c>
       <c r="P153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Iguaton</v>
       </c>
       <c r="Q153">
@@ -15111,10 +15111,10 @@
         <v>326</v>
       </c>
       <c r="Y153">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="Z153" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="AA153">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>0.15</v>
       </c>
       <c r="AC153" s="38">
-        <f t="shared" si="4"/>
+        <f>AB153*AA153</f>
         <v>0.15</v>
       </c>
       <c r="AE153">
@@ -15147,7 +15147,7 @@
         <v>397</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
       <c r="D154" s="2">
@@ -15187,7 +15187,7 @@
         <v>9</v>
       </c>
       <c r="P154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Dragave</v>
       </c>
       <c r="S154">
@@ -15203,10 +15203,10 @@
         <v>327</v>
       </c>
       <c r="Y154">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="Z154" t="s">
-        <v>534</v>
+        <v>69</v>
       </c>
       <c r="AA154">
         <v>1</v>
@@ -15215,7 +15215,7 @@
         <v>0.15</v>
       </c>
       <c r="AC154" s="38">
-        <f t="shared" si="4"/>
+        <f>AB154*AA154</f>
         <v>0.15</v>
       </c>
       <c r="AE154">
@@ -15239,7 +15239,7 @@
         <v>398</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>295</v>
       </c>
       <c r="D155" s="2">
@@ -15279,7 +15279,7 @@
         <v>10</v>
       </c>
       <c r="P155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Hummingspark</v>
       </c>
       <c r="Q155">
@@ -15298,20 +15298,20 @@
         <v>328</v>
       </c>
       <c r="Y155">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="Z155" t="s">
-        <v>400</v>
+        <v>92</v>
       </c>
       <c r="AA155">
         <v>1</v>
       </c>
       <c r="AB155" s="37">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AC155" s="38">
-        <f t="shared" si="4"/>
-        <v>0.13</v>
+        <f>AB155*AA155</f>
+        <v>0.15</v>
       </c>
       <c r="AE155">
         <v>80</v>
@@ -15334,7 +15334,7 @@
         <v>399</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>380</v>
       </c>
       <c r="D156" s="2">
@@ -15374,7 +15374,7 @@
         <v>11</v>
       </c>
       <c r="P156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Flashclaw</v>
       </c>
       <c r="Q156">
@@ -15393,20 +15393,20 @@
         <v>329</v>
       </c>
       <c r="Y156">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="Z156" t="s">
-        <v>432</v>
+        <v>534</v>
       </c>
       <c r="AA156">
         <v>1</v>
       </c>
       <c r="AB156" s="37">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AC156" s="38">
-        <f t="shared" si="4"/>
-        <v>0.12</v>
+        <f>AB156*AA156</f>
+        <v>0.15</v>
       </c>
       <c r="AE156">
         <v>84</v>
@@ -15429,7 +15429,7 @@
         <v>400</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="D157" s="2">
@@ -15469,7 +15469,7 @@
         <v>12</v>
       </c>
       <c r="P157" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Magestiflash</v>
       </c>
       <c r="S157">
@@ -15485,20 +15485,20 @@
         <v>330</v>
       </c>
       <c r="Y157">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="Z157" t="s">
-        <v>579</v>
+        <v>400</v>
       </c>
       <c r="AA157">
         <v>1</v>
       </c>
       <c r="AB157" s="37">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AC157" s="38">
-        <f t="shared" si="4"/>
-        <v>0.11</v>
+        <f>AB157*AA157</f>
+        <v>0.13</v>
       </c>
       <c r="AE157">
         <v>85</v>
@@ -15521,7 +15521,7 @@
         <v>401</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>276</v>
       </c>
       <c r="D158" s="2">
@@ -15561,7 +15561,7 @@
         <v>13</v>
       </c>
       <c r="P158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Pigo</v>
       </c>
       <c r="Q158">
@@ -15580,20 +15580,20 @@
         <v>331</v>
       </c>
       <c r="Y158">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Z158" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="AA158">
         <v>1</v>
       </c>
       <c r="AB158" s="37">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AC158" s="38">
-        <f t="shared" ref="AC158:AC221" si="12">AB158*AA158</f>
-        <v>0.1</v>
+        <f>AB158*AA158</f>
+        <v>0.12</v>
       </c>
       <c r="AE158">
         <v>86</v>
@@ -15616,7 +15616,7 @@
         <v>402</v>
       </c>
       <c r="C159" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>401</v>
       </c>
       <c r="D159" s="2">
@@ -15656,7 +15656,7 @@
         <v>14</v>
       </c>
       <c r="P159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Pigonat</v>
       </c>
       <c r="Q159">
@@ -15675,20 +15675,20 @@
         <v>332</v>
       </c>
       <c r="Y159">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="Z159" t="s">
-        <v>471</v>
+        <v>579</v>
       </c>
       <c r="AA159">
         <v>1</v>
       </c>
       <c r="AB159" s="37">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC159" s="38">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
+        <f>AB159*AA159</f>
+        <v>0.11</v>
       </c>
       <c r="AE159">
         <v>102</v>
@@ -15711,7 +15711,7 @@
         <v>403</v>
       </c>
       <c r="C160" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>495</v>
       </c>
       <c r="D160" s="2">
@@ -15751,7 +15751,7 @@
         <v>15</v>
       </c>
       <c r="P160" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Pigoga</v>
       </c>
       <c r="S160">
@@ -15767,10 +15767,10 @@
         <v>333</v>
       </c>
       <c r="Y160">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="Z160" t="s">
-        <v>90</v>
+        <v>443</v>
       </c>
       <c r="AA160">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>0.1</v>
       </c>
       <c r="AC160" s="38">
-        <f t="shared" si="12"/>
+        <f>AB160*AA160</f>
         <v>0.1</v>
       </c>
       <c r="AE160">
@@ -15803,7 +15803,7 @@
         <v>15</v>
       </c>
       <c r="C161" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="D161" s="2">
@@ -15843,7 +15843,7 @@
         <v>16</v>
       </c>
       <c r="P161" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Hammo</v>
       </c>
       <c r="Q161" t="s">
@@ -15862,10 +15862,10 @@
         <v>192</v>
       </c>
       <c r="Y161">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="Z161" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="AA161">
         <v>1</v>
@@ -15874,7 +15874,7 @@
         <v>0.1</v>
       </c>
       <c r="AC161" s="38">
-        <f t="shared" si="12"/>
+        <f>AB161*AA161</f>
         <v>0.1</v>
       </c>
       <c r="AE161">
@@ -15898,7 +15898,7 @@
         <v>16</v>
       </c>
       <c r="C162" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>490</v>
       </c>
       <c r="D162" s="2">
@@ -15938,7 +15938,7 @@
         <v>17</v>
       </c>
       <c r="P162" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>HammyBoy</v>
       </c>
       <c r="Q162" t="s">
@@ -15957,10 +15957,10 @@
         <v>334</v>
       </c>
       <c r="Y162">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="Z162" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AA162">
         <v>1</v>
@@ -15969,7 +15969,7 @@
         <v>0.1</v>
       </c>
       <c r="AC162" s="38">
-        <f t="shared" si="12"/>
+        <f>AB162*AA162</f>
         <v>0.1</v>
       </c>
       <c r="AE162">
@@ -15993,7 +15993,7 @@
         <v>404</v>
       </c>
       <c r="C163" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="D163" s="2">
@@ -16033,7 +16033,7 @@
         <v>18</v>
       </c>
       <c r="P163" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Hamthorno</v>
       </c>
       <c r="S163">
@@ -16052,20 +16052,20 @@
         <v>584</v>
       </c>
       <c r="Y163">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="Z163" t="s">
-        <v>409</v>
+        <v>513</v>
       </c>
       <c r="AA163">
         <v>1</v>
       </c>
       <c r="AB163" s="37">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AC163" s="38">
-        <f t="shared" si="12"/>
-        <v>0.09</v>
+        <f>AB163*AA163</f>
+        <v>0.1</v>
       </c>
       <c r="AE163">
         <v>132</v>
@@ -16088,7 +16088,7 @@
         <v>405</v>
       </c>
       <c r="C164" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
       <c r="D164" s="2">
@@ -16128,7 +16128,7 @@
         <v>19</v>
       </c>
       <c r="P164" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Sheabear</v>
       </c>
       <c r="Q164">
@@ -16147,20 +16147,20 @@
         <v>336</v>
       </c>
       <c r="Y164">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="Z164" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AA164">
         <v>1</v>
       </c>
       <c r="AB164" s="37">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AC164" s="38">
-        <f t="shared" si="12"/>
-        <v>0.09</v>
+        <f>AB164*AA164</f>
+        <v>0.1</v>
       </c>
       <c r="AE164">
         <v>153</v>
@@ -16183,7 +16183,7 @@
         <v>406</v>
       </c>
       <c r="C165" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
       <c r="D165" s="2">
@@ -16223,7 +16223,7 @@
         <v>20</v>
       </c>
       <c r="P165" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Dualbear</v>
       </c>
       <c r="Q165">
@@ -16242,10 +16242,10 @@
         <v>337</v>
       </c>
       <c r="Y165">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="Z165" t="s">
-        <v>493</v>
+        <v>409</v>
       </c>
       <c r="AA165">
         <v>1</v>
@@ -16254,7 +16254,7 @@
         <v>0.09</v>
       </c>
       <c r="AC165" s="38">
-        <f t="shared" si="12"/>
+        <f>AB165*AA165</f>
         <v>0.09</v>
       </c>
       <c r="AE165">
@@ -16278,7 +16278,7 @@
         <v>407</v>
       </c>
       <c r="C166" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>515</v>
       </c>
       <c r="D166" s="2">
@@ -16318,7 +16318,7 @@
         <v>21</v>
       </c>
       <c r="P166" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Spacebear</v>
       </c>
       <c r="S166">
@@ -16334,20 +16334,20 @@
         <v>338</v>
       </c>
       <c r="Y166">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="Z166" t="s">
-        <v>414</v>
+        <v>91</v>
       </c>
       <c r="AA166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB166" s="37">
-        <v>3.5000000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AC166" s="38">
-        <f t="shared" si="12"/>
-        <v>7.0000000000000007E-2</v>
+        <f>AB166*AA166</f>
+        <v>0.09</v>
       </c>
       <c r="AE166">
         <v>164</v>
@@ -16370,7 +16370,7 @@
         <v>408</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D167" s="2">
@@ -16408,7 +16408,7 @@
         <v>22</v>
       </c>
       <c r="P167" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Bealtle</v>
       </c>
       <c r="Q167">
@@ -16427,20 +16427,20 @@
         <v>339</v>
       </c>
       <c r="Y167">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="Z167" t="s">
-        <v>802</v>
+        <v>493</v>
       </c>
       <c r="AA167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB167" s="37">
-        <v>3.5000000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AC167" s="38">
-        <f t="shared" si="12"/>
-        <v>7.0000000000000007E-2</v>
+        <f>AB167*AA167</f>
+        <v>0.09</v>
       </c>
       <c r="AE167">
         <v>167</v>
@@ -16463,7 +16463,7 @@
         <v>409</v>
       </c>
       <c r="C168" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="D168" s="2">
@@ -16501,7 +16501,7 @@
         <v>23</v>
       </c>
       <c r="P168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Centatle</v>
       </c>
       <c r="Q168">
@@ -16532,7 +16532,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC168" s="38">
-        <f t="shared" si="12"/>
+        <f>AB168*AA168</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE168">
@@ -16556,7 +16556,7 @@
         <v>410</v>
       </c>
       <c r="C169" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>505</v>
       </c>
       <c r="D169" s="2">
@@ -16596,7 +16596,7 @@
         <v>24</v>
       </c>
       <c r="P169" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Curlatoral</v>
       </c>
       <c r="S169">
@@ -16624,7 +16624,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC169" s="38">
-        <f t="shared" si="12"/>
+        <f>AB169*AA169</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE169">
@@ -16648,7 +16648,7 @@
         <v>411</v>
       </c>
       <c r="C170" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>505</v>
       </c>
       <c r="D170" s="2">
@@ -16688,7 +16688,7 @@
         <v>25</v>
       </c>
       <c r="P170" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Millistone</v>
       </c>
       <c r="Q170" t="s">
@@ -16719,7 +16719,7 @@
         <v>0.06</v>
       </c>
       <c r="AC170" s="38">
-        <f t="shared" si="12"/>
+        <f>AB170*AA170</f>
         <v>0.06</v>
       </c>
       <c r="AE170">
@@ -16743,7 +16743,7 @@
         <v>11</v>
       </c>
       <c r="C171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>405</v>
       </c>
       <c r="D171" s="2">
@@ -16781,7 +16781,7 @@
         <v>26</v>
       </c>
       <c r="P171" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Sapwin</v>
       </c>
       <c r="Q171">
@@ -16812,7 +16812,7 @@
         <v>0.05</v>
       </c>
       <c r="AC171" s="38">
-        <f t="shared" si="12"/>
+        <f>AB171*AA171</f>
         <v>0.05</v>
       </c>
       <c r="AE171">
@@ -16836,7 +16836,7 @@
         <v>12</v>
       </c>
       <c r="C172" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>490</v>
       </c>
       <c r="D172" s="2">
@@ -16874,7 +16874,7 @@
         <v>27</v>
       </c>
       <c r="P172" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Treewin</v>
       </c>
       <c r="Q172" t="s">
@@ -16902,7 +16902,7 @@
         <v>0.05</v>
       </c>
       <c r="AC172" s="38">
-        <f t="shared" si="12"/>
+        <f>AB172*AA172</f>
         <v>0.05</v>
       </c>
       <c r="AE172">
@@ -16926,7 +16926,7 @@
         <v>412</v>
       </c>
       <c r="C173" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
       <c r="D173" s="2">
@@ -16964,7 +16964,7 @@
         <v>28</v>
       </c>
       <c r="P173" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Winagrow</v>
       </c>
       <c r="S173">
@@ -16989,7 +16989,7 @@
         <v>0.05</v>
       </c>
       <c r="AC173" s="38">
-        <f t="shared" si="12"/>
+        <f>AB173*AA173</f>
         <v>0.05</v>
       </c>
       <c r="AE173">
@@ -17013,7 +17013,7 @@
         <v>413</v>
       </c>
       <c r="C174" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>280</v>
       </c>
       <c r="D174" s="2">
@@ -17053,7 +17053,7 @@
         <v>29</v>
       </c>
       <c r="P174" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Budew</v>
       </c>
       <c r="Q174" t="s">
@@ -17081,7 +17081,7 @@
         <v>0.05</v>
       </c>
       <c r="AC174" s="38">
-        <f t="shared" si="12"/>
+        <f>AB174*AA174</f>
         <v>0.05</v>
       </c>
       <c r="AE174">
@@ -17105,7 +17105,7 @@
         <v>414</v>
       </c>
       <c r="C175" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="D175" s="2">
@@ -17145,7 +17145,7 @@
         <v>30</v>
       </c>
       <c r="P175" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Roselia</v>
       </c>
       <c r="Q175" t="s">
@@ -17173,7 +17173,7 @@
         <v>0.05</v>
       </c>
       <c r="AC175" s="38">
-        <f t="shared" si="12"/>
+        <f>AB175*AA175</f>
         <v>0.05</v>
       </c>
       <c r="AE175">
@@ -17197,7 +17197,7 @@
         <v>415</v>
       </c>
       <c r="C176" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>515</v>
       </c>
       <c r="D176" s="2">
@@ -17237,7 +17237,7 @@
         <v>31</v>
       </c>
       <c r="P176" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Roserade</v>
       </c>
       <c r="S176">
@@ -17262,7 +17262,7 @@
         <v>0.03</v>
       </c>
       <c r="AC176" s="38">
-        <f t="shared" si="12"/>
+        <f>AB176*AA176</f>
         <v>0.03</v>
       </c>
       <c r="AE176">
@@ -17286,7 +17286,7 @@
         <v>416</v>
       </c>
       <c r="C177" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="D177" s="2">
@@ -17324,7 +17324,7 @@
         <v>32</v>
       </c>
       <c r="P177" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Sewaddle</v>
       </c>
       <c r="Q177">
@@ -17352,7 +17352,7 @@
         <v>0.02</v>
       </c>
       <c r="AC177" s="38">
-        <f t="shared" si="12"/>
+        <f>AB177*AA177</f>
         <v>0.02</v>
       </c>
       <c r="AE177">
@@ -17376,7 +17376,7 @@
         <v>417</v>
       </c>
       <c r="C178" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>380</v>
       </c>
       <c r="D178" s="2">
@@ -17414,7 +17414,7 @@
         <v>33</v>
       </c>
       <c r="P178" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Swadloon</v>
       </c>
       <c r="Q178" t="s">
@@ -17442,7 +17442,7 @@
         <v>0.02</v>
       </c>
       <c r="AC178" s="38">
-        <f t="shared" si="12"/>
+        <f>AB178*AA178</f>
         <v>0.02</v>
       </c>
       <c r="AE178">
@@ -17466,7 +17466,7 @@
         <v>418</v>
       </c>
       <c r="C179" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="D179" s="2">
@@ -17504,7 +17504,7 @@
         <v>34</v>
       </c>
       <c r="P179" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Leavanny</v>
       </c>
       <c r="S179">
@@ -17529,7 +17529,7 @@
         <v>0.02</v>
       </c>
       <c r="AC179" s="38">
-        <f t="shared" si="12"/>
+        <f>AB179*AA179</f>
         <v>0.02</v>
       </c>
       <c r="AE179">
@@ -17553,7 +17553,7 @@
         <v>419</v>
       </c>
       <c r="C180" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="D180" s="2">
@@ -17591,7 +17591,7 @@
         <v>35</v>
       </c>
       <c r="P180" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Grubbin</v>
       </c>
       <c r="Q180">
@@ -17619,7 +17619,7 @@
         <v>0.02</v>
       </c>
       <c r="AC180" s="38">
-        <f t="shared" si="12"/>
+        <f>AB180*AA180</f>
         <v>0.02</v>
       </c>
       <c r="AE180">
@@ -17643,7 +17643,7 @@
         <v>420</v>
       </c>
       <c r="C181" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="D181" s="2">
@@ -17681,7 +17681,7 @@
         <v>36</v>
       </c>
       <c r="P181" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Charjabug</v>
       </c>
       <c r="Q181" t="s">
@@ -17709,7 +17709,7 @@
         <v>0.01</v>
       </c>
       <c r="AC181" s="38">
-        <f t="shared" si="12"/>
+        <f>AB181*AA181</f>
         <v>0.01</v>
       </c>
       <c r="AE181">
@@ -17733,7 +17733,7 @@
         <v>421</v>
       </c>
       <c r="C182" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>512</v>
       </c>
       <c r="D182" s="2">
@@ -17771,7 +17771,7 @@
         <v>37</v>
       </c>
       <c r="P182" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Vikavolt</v>
       </c>
       <c r="S182">
@@ -17796,7 +17796,7 @@
         <v>0.01</v>
       </c>
       <c r="AC182" s="38">
-        <f t="shared" si="12"/>
+        <f>AB182*AA182</f>
         <v>0.01</v>
       </c>
       <c r="AE182">
@@ -17820,7 +17820,7 @@
         <v>422</v>
       </c>
       <c r="C183" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
       <c r="D183" s="2">
@@ -17860,7 +17860,7 @@
         <v>38</v>
       </c>
       <c r="P183" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Busheep</v>
       </c>
       <c r="S183">
@@ -17885,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="AC183" s="38">
-        <f t="shared" si="12"/>
+        <f>AB183*AA183</f>
         <v>0</v>
       </c>
       <c r="AE183">
@@ -17909,7 +17909,7 @@
         <v>423</v>
       </c>
       <c r="C184" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="D184" s="2">
@@ -17949,7 +17949,7 @@
         <v>39</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Ramant</v>
       </c>
       <c r="Q184" t="s">
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="AC184" s="38">
-        <f t="shared" si="12"/>
+        <f>AB184*AA184</f>
         <v>0</v>
       </c>
       <c r="AE184">
@@ -18004,7 +18004,7 @@
         <v>424</v>
       </c>
       <c r="C185" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="D185" s="2">
@@ -18044,7 +18044,7 @@
         <v>40</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Bushewe</v>
       </c>
       <c r="Q185" t="s">
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="AC185" s="38">
-        <f t="shared" si="12"/>
+        <f>AB185*AA185</f>
         <v>0</v>
       </c>
       <c r="AE185">
@@ -18096,7 +18096,7 @@
         <v>47</v>
       </c>
       <c r="C186" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="D186" s="2">
@@ -18136,7 +18136,7 @@
         <v>41</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Bugik</v>
       </c>
       <c r="Q186">
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="AC186" s="38">
-        <f t="shared" si="12"/>
+        <f>AB186*AA186</f>
         <v>0</v>
       </c>
       <c r="AE186">
@@ -18188,7 +18188,7 @@
         <v>48</v>
       </c>
       <c r="C187" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>401</v>
       </c>
       <c r="D187" s="2">
@@ -18228,7 +18228,7 @@
         <v>42</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Swordik</v>
       </c>
       <c r="Q187">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="AC187" s="38">
-        <f t="shared" si="12"/>
+        <f>AB187*AA187</f>
         <v>0</v>
       </c>
       <c r="AE187">
@@ -18280,7 +18280,7 @@
         <v>49</v>
       </c>
       <c r="C188" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>505</v>
       </c>
       <c r="D188" s="2">
@@ -18320,7 +18320,7 @@
         <v>43</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Ninjakik</v>
       </c>
       <c r="S188">
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="AC188" s="38">
-        <f t="shared" si="12"/>
+        <f>AB188*AA188</f>
         <v>0</v>
       </c>
       <c r="AE188">
@@ -18369,7 +18369,7 @@
         <v>577</v>
       </c>
       <c r="C189" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="D189" s="2">
@@ -18407,7 +18407,7 @@
         <v>44</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Lotad</v>
       </c>
       <c r="Q189">
@@ -18435,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="AC189" s="38">
-        <f t="shared" si="12"/>
+        <f>AB189*AA189</f>
         <v>0</v>
       </c>
       <c r="AE189">
@@ -18459,7 +18459,7 @@
         <v>578</v>
       </c>
       <c r="C190" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="D190" s="2">
@@ -18497,7 +18497,7 @@
         <v>45</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Lombre</v>
       </c>
       <c r="Q190" t="s">
@@ -18525,7 +18525,7 @@
         <v>0</v>
       </c>
       <c r="AC190" s="38">
-        <f t="shared" si="12"/>
+        <f>AB190*AA190</f>
         <v>0</v>
       </c>
       <c r="AE190">
@@ -18549,7 +18549,7 @@
         <v>579</v>
       </c>
       <c r="C191" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="D191" s="2">
@@ -18587,7 +18587,7 @@
         <v>46</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Ludicolo</v>
       </c>
       <c r="W191" s="12" t="s">
@@ -18606,7 +18606,7 @@
         <v>0</v>
       </c>
       <c r="AC191" s="38">
-        <f t="shared" si="12"/>
+        <f>AB191*AA191</f>
         <v>0</v>
       </c>
       <c r="AE191">
@@ -18630,7 +18630,7 @@
         <v>426</v>
       </c>
       <c r="C192" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>455</v>
       </c>
       <c r="D192" s="2">
@@ -18670,7 +18670,7 @@
         <v>47</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Bluebunn</v>
       </c>
       <c r="W192" s="10" t="s">
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="AC192" s="38">
-        <f t="shared" si="12"/>
+        <f>AB192*AA192</f>
         <v>0</v>
       </c>
       <c r="AE192">
@@ -18713,7 +18713,7 @@
         <v>17</v>
       </c>
       <c r="C193" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>325</v>
       </c>
       <c r="D193" s="2">
@@ -18753,7 +18753,7 @@
         <v>48</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Rocky</v>
       </c>
       <c r="Q193">
@@ -18775,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="AC193" s="38">
-        <f t="shared" si="12"/>
+        <f>AB193*AA193</f>
         <v>0</v>
       </c>
       <c r="AE193">
@@ -18799,7 +18799,7 @@
         <v>18</v>
       </c>
       <c r="C194" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>425</v>
       </c>
       <c r="D194" s="2">
@@ -18839,7 +18839,7 @@
         <v>49</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Boulder</v>
       </c>
       <c r="Q194" t="s">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="AC194" s="38">
-        <f t="shared" si="12"/>
+        <f>AB194*AA194</f>
         <v>0</v>
       </c>
       <c r="AE194">
@@ -18891,7 +18891,7 @@
         <v>19</v>
       </c>
       <c r="C195" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
       <c r="D195" s="2">
@@ -18931,7 +18931,7 @@
         <v>50</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Blaster</v>
       </c>
       <c r="T195" t="s">
@@ -18956,7 +18956,7 @@
         <v>0</v>
       </c>
       <c r="AC195" s="38">
-        <f t="shared" si="12"/>
+        <f>AB195*AA195</f>
         <v>0</v>
       </c>
       <c r="AE195">
@@ -18980,7 +18980,7 @@
         <v>427</v>
       </c>
       <c r="C196" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
       <c r="D196" s="2">
@@ -19020,7 +19020,7 @@
         <v>51</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Crystallor</v>
       </c>
       <c r="Q196" t="s">
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
       <c r="AC196" s="38">
-        <f t="shared" si="12"/>
+        <f>AB196*AA196</f>
         <v>0</v>
       </c>
       <c r="AE196">
@@ -19072,7 +19072,7 @@
         <v>428</v>
       </c>
       <c r="C197" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="D197" s="2">
@@ -19112,7 +19112,7 @@
         <v>52</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Carinx</v>
       </c>
       <c r="Q197">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="AC197" s="38">
-        <f t="shared" si="12"/>
+        <f>AB197*AA197</f>
         <v>0</v>
       </c>
       <c r="AE197">
@@ -19164,7 +19164,7 @@
         <v>429</v>
       </c>
       <c r="C198" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>465</v>
       </c>
       <c r="D198" s="2">
@@ -19204,7 +19204,7 @@
         <v>53</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Carinator</v>
       </c>
       <c r="Q198" t="s">
@@ -19232,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="AC198" s="38">
-        <f t="shared" si="12"/>
+        <f>AB198*AA198</f>
         <v>0</v>
       </c>
       <c r="AE198">
@@ -19256,7 +19256,7 @@
         <v>430</v>
       </c>
       <c r="C199" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="D199" s="2">
@@ -19296,7 +19296,7 @@
         <v>54</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Cairnasaur</v>
       </c>
       <c r="T199" t="s">
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="AC199" s="38">
-        <f t="shared" si="12"/>
+        <f>AB199*AA199</f>
         <v>0</v>
       </c>
       <c r="AE199">
@@ -19345,7 +19345,7 @@
         <v>431</v>
       </c>
       <c r="C200" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>380</v>
       </c>
       <c r="D200" s="2">
@@ -19385,7 +19385,7 @@
         <v>55</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Pebblepup</v>
       </c>
       <c r="Q200">
@@ -19413,7 +19413,7 @@
         <v>0</v>
       </c>
       <c r="AC200" s="38">
-        <f t="shared" si="12"/>
+        <f>AB200*AA200</f>
         <v>0</v>
       </c>
       <c r="AE200">
@@ -19437,7 +19437,7 @@
         <v>432</v>
       </c>
       <c r="C201" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="D201" s="2">
@@ -19477,7 +19477,7 @@
         <v>56</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Boulderoar</v>
       </c>
       <c r="T201" t="s">
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="AC201" s="38">
-        <f t="shared" si="12"/>
+        <f>AB201*AA201</f>
         <v>0</v>
       </c>
       <c r="AE201">
@@ -19526,7 +19526,7 @@
         <v>433</v>
       </c>
       <c r="C202" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>393</v>
       </c>
       <c r="D202" s="2">
@@ -19566,7 +19566,7 @@
         <v>57</v>
       </c>
       <c r="P202" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Fightorex</v>
       </c>
       <c r="Q202">
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="AC202" s="38">
-        <f t="shared" si="12"/>
+        <f>AB202*AA202</f>
         <v>0</v>
       </c>
       <c r="AE202">
@@ -19615,7 +19615,7 @@
         <v>434</v>
       </c>
       <c r="C203" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>523</v>
       </c>
       <c r="D203" s="2">
@@ -19655,7 +19655,7 @@
         <v>58</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Raptorex</v>
       </c>
       <c r="T203" t="s">
@@ -19677,7 +19677,7 @@
         <v>0</v>
       </c>
       <c r="AC203" s="38">
-        <f t="shared" si="12"/>
+        <f>AB203*AA203</f>
         <v>0</v>
       </c>
       <c r="AE203">
@@ -19701,7 +19701,7 @@
         <v>435</v>
       </c>
       <c r="C204" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>323</v>
       </c>
       <c r="D204" s="2">
@@ -19741,7 +19741,7 @@
         <v>59</v>
       </c>
       <c r="P204" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Kleinowl</v>
       </c>
       <c r="Q204" t="s">
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
       <c r="AC204" s="38">
-        <f t="shared" si="12"/>
+        <f>AB204*AA204</f>
         <v>0</v>
       </c>
       <c r="AE204">
@@ -19790,7 +19790,7 @@
         <v>436</v>
       </c>
       <c r="C205" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>495</v>
       </c>
       <c r="D205" s="2">
@@ -19830,7 +19830,7 @@
         <v>60</v>
       </c>
       <c r="P205" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Hootowl</v>
       </c>
       <c r="T205" s="10" t="s">
@@ -19852,7 +19852,7 @@
         <v>0</v>
       </c>
       <c r="AC205" s="38">
-        <f t="shared" si="12"/>
+        <f>AB205*AA205</f>
         <v>0</v>
       </c>
       <c r="AE205">
@@ -19876,7 +19876,7 @@
         <v>437</v>
       </c>
       <c r="C206" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>435</v>
       </c>
       <c r="D206" s="2">
@@ -19916,7 +19916,7 @@
         <v>61</v>
       </c>
       <c r="P206" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Dualmoose</v>
       </c>
       <c r="T206" s="10" t="s">
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="AC206" s="38">
-        <f t="shared" si="12"/>
+        <f>AB206*AA206</f>
         <v>0</v>
       </c>
       <c r="AE206">
@@ -19962,7 +19962,7 @@
         <v>438</v>
       </c>
       <c r="C207" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="D207" s="2">
@@ -20002,7 +20002,7 @@
         <v>62</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Snom</v>
       </c>
       <c r="Q207" t="s">
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="AC207" s="38">
-        <f t="shared" si="12"/>
+        <f>AB207*AA207</f>
         <v>0</v>
       </c>
       <c r="AE207">
@@ -20051,7 +20051,7 @@
         <v>439</v>
       </c>
       <c r="C208" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="D208" s="2">
@@ -20091,7 +20091,7 @@
         <v>63</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Frosmoth</v>
       </c>
       <c r="W208" t="s">
@@ -20110,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="AC208" s="38">
-        <f t="shared" si="12"/>
+        <f>AB208*AA208</f>
         <v>0</v>
       </c>
       <c r="AE208">
@@ -20134,7 +20134,7 @@
         <v>440</v>
       </c>
       <c r="C209" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>395</v>
       </c>
       <c r="D209" s="2">
@@ -20172,7 +20172,7 @@
         <v>64</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Grondor</v>
       </c>
       <c r="Q209" t="s">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="AC209" s="38">
-        <f t="shared" si="12"/>
+        <f>AB209*AA209</f>
         <v>0</v>
       </c>
       <c r="AE209">
@@ -20218,7 +20218,7 @@
         <v>441</v>
       </c>
       <c r="C210" s="1">
-        <f t="shared" ref="C210:C273" si="13">SUM(D210:I210)</f>
+        <f t="shared" ref="C210:C273" si="10">SUM(D210:I210)</f>
         <v>485</v>
       </c>
       <c r="D210" s="2">
@@ -20256,7 +20256,7 @@
         <v>65</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" ref="P210:P273" si="14">B210</f>
+        <f t="shared" ref="P210:P273" si="11">B210</f>
         <v>Bipedice</v>
       </c>
       <c r="W210" s="10" t="s">
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
       <c r="AC210" s="38">
-        <f t="shared" si="12"/>
+        <f>AB210*AA210</f>
         <v>0</v>
       </c>
       <c r="AE210">
@@ -20299,7 +20299,7 @@
         <v>442</v>
       </c>
       <c r="C211" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="D211" s="2">
@@ -20339,7 +20339,7 @@
         <v>66</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Tricerpup</v>
       </c>
       <c r="Q211">
@@ -20361,7 +20361,7 @@
         <v>0</v>
       </c>
       <c r="AC211" s="38">
-        <f t="shared" si="12"/>
+        <f>AB211*AA211</f>
         <v>0</v>
       </c>
       <c r="AE211">
@@ -20385,7 +20385,7 @@
         <v>443</v>
       </c>
       <c r="C212" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>538</v>
       </c>
       <c r="D212" s="2">
@@ -20425,7 +20425,7 @@
         <v>67</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Tricercil</v>
       </c>
       <c r="W212" t="s">
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="AC212" s="38">
-        <f t="shared" si="12"/>
+        <f>AB212*AA212</f>
         <v>0</v>
       </c>
       <c r="AE212">
@@ -20468,7 +20468,7 @@
         <v>444</v>
       </c>
       <c r="C213" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
       <c r="D213" s="2">
@@ -20508,7 +20508,7 @@
         <v>68</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Spheal</v>
       </c>
       <c r="Q213">
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="AC213" s="38">
-        <f t="shared" si="12"/>
+        <f>AB213*AA213</f>
         <v>0</v>
       </c>
       <c r="AE213">
@@ -20554,7 +20554,7 @@
         <v>445</v>
       </c>
       <c r="C214" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>410</v>
       </c>
       <c r="D214" s="2">
@@ -20594,7 +20594,7 @@
         <v>69</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Sealeo</v>
       </c>
       <c r="Q214">
@@ -20616,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="AC214" s="38">
-        <f t="shared" si="12"/>
+        <f>AB214*AA214</f>
         <v>0</v>
       </c>
       <c r="AE214">
@@ -20640,7 +20640,7 @@
         <v>446</v>
       </c>
       <c r="C215" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>530</v>
       </c>
       <c r="D215" s="2">
@@ -20680,7 +20680,7 @@
         <v>70</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Walrein</v>
       </c>
       <c r="W215" s="10" t="s">
@@ -20699,7 +20699,7 @@
         <v>0</v>
       </c>
       <c r="AC215" s="38">
-        <f t="shared" si="12"/>
+        <f>AB215*AA215</f>
         <v>0</v>
       </c>
       <c r="AE215">
@@ -20723,7 +20723,7 @@
         <v>447</v>
       </c>
       <c r="C216" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D216" s="2">
@@ -20763,7 +20763,7 @@
         <v>71</v>
       </c>
       <c r="P216" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Froshrog</v>
       </c>
       <c r="Q216">
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="AC216" s="38">
-        <f t="shared" si="12"/>
+        <f>AB216*AA216</f>
         <v>0</v>
       </c>
       <c r="AE216">
@@ -20809,7 +20809,7 @@
         <v>448</v>
       </c>
       <c r="C217" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="D217" s="2">
@@ -20849,7 +20849,7 @@
         <v>72</v>
       </c>
       <c r="P217" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Bouncerog</v>
       </c>
       <c r="W217" s="10" t="s">
@@ -20868,7 +20868,7 @@
         <v>0</v>
       </c>
       <c r="AC217" s="38">
-        <f t="shared" si="12"/>
+        <f>AB217*AA217</f>
         <v>0</v>
       </c>
       <c r="AE217">
@@ -20892,7 +20892,7 @@
         <v>449</v>
       </c>
       <c r="C218" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>299</v>
       </c>
       <c r="D218" s="2">
@@ -20932,7 +20932,7 @@
         <v>73</v>
       </c>
       <c r="P218" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Bugop</v>
       </c>
       <c r="Q218">
@@ -20957,7 +20957,7 @@
         <v>0</v>
       </c>
       <c r="AC218" s="38">
-        <f t="shared" si="12"/>
+        <f>AB218*AA218</f>
         <v>0</v>
       </c>
       <c r="AE218">
@@ -20981,7 +20981,7 @@
         <v>450</v>
       </c>
       <c r="C219" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>507</v>
       </c>
       <c r="D219" s="2">
@@ -21021,7 +21021,7 @@
         <v>74</v>
       </c>
       <c r="P219" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Opwing</v>
       </c>
       <c r="W219" s="10" t="s">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="AC219" s="38">
-        <f t="shared" si="12"/>
+        <f>AB219*AA219</f>
         <v>0</v>
       </c>
       <c r="AE219">
@@ -21067,7 +21067,7 @@
         <v>451</v>
       </c>
       <c r="C220" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>265</v>
       </c>
       <c r="D220" s="2">
@@ -21107,7 +21107,7 @@
         <v>75</v>
       </c>
       <c r="P220" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Hatenna</v>
       </c>
       <c r="Q220">
@@ -21129,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="AC220" s="38">
-        <f t="shared" si="12"/>
+        <f>AB220*AA220</f>
         <v>0</v>
       </c>
       <c r="AE220">
@@ -21153,7 +21153,7 @@
         <v>452</v>
       </c>
       <c r="C221" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>370</v>
       </c>
       <c r="D221" s="2">
@@ -21193,7 +21193,7 @@
         <v>76</v>
       </c>
       <c r="P221" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Hattrem</v>
       </c>
       <c r="Q221">
@@ -21215,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="AC221" s="38">
-        <f t="shared" si="12"/>
+        <f>AB221*AA221</f>
         <v>0</v>
       </c>
       <c r="AE221">
@@ -21239,7 +21239,7 @@
         <v>453</v>
       </c>
       <c r="C222" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>510</v>
       </c>
       <c r="D222" s="2">
@@ -21279,7 +21279,7 @@
         <v>77</v>
       </c>
       <c r="P222" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Hatterene</v>
       </c>
       <c r="W222" s="10" t="s">
@@ -21298,7 +21298,7 @@
         <v>0</v>
       </c>
       <c r="AC222" s="38">
-        <f t="shared" ref="AC222:AC269" si="15">AB222*AA222</f>
+        <f>AB222*AA222</f>
         <v>0</v>
       </c>
       <c r="AE222">
@@ -21322,7 +21322,7 @@
         <v>454</v>
       </c>
       <c r="C223" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>333</v>
       </c>
       <c r="D223" s="2">
@@ -21362,7 +21362,7 @@
         <v>78</v>
       </c>
       <c r="P223" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Otterpor</v>
       </c>
       <c r="Q223">
@@ -21387,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="AC223" s="38">
-        <f t="shared" si="15"/>
+        <f>AB223*AA223</f>
         <v>0</v>
       </c>
       <c r="AE223">
@@ -21411,7 +21411,7 @@
         <v>455</v>
       </c>
       <c r="C224" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="D224" s="2">
@@ -21451,7 +21451,7 @@
         <v>79</v>
       </c>
       <c r="P224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Psylotter</v>
       </c>
       <c r="W224" t="s">
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="AC224" s="38">
-        <f t="shared" si="15"/>
+        <f>AB224*AA224</f>
         <v>0</v>
       </c>
       <c r="AE224">
@@ -21494,7 +21494,7 @@
         <v>456</v>
       </c>
       <c r="C225" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>340</v>
       </c>
       <c r="D225" s="2">
@@ -21534,7 +21534,7 @@
         <v>80</v>
       </c>
       <c r="P225" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Florline</v>
       </c>
       <c r="Q225">
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="AC225" s="38">
-        <f t="shared" si="15"/>
+        <f>AB225*AA225</f>
         <v>0</v>
       </c>
       <c r="AE225">
@@ -21580,7 +21580,7 @@
         <v>457</v>
       </c>
       <c r="C226" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>519</v>
       </c>
       <c r="D226" s="2">
@@ -21620,7 +21620,7 @@
         <v>81</v>
       </c>
       <c r="P226" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Florlion</v>
       </c>
       <c r="W226" s="10" t="s">
@@ -21639,7 +21639,7 @@
         <v>0</v>
       </c>
       <c r="AC226" s="38">
-        <f t="shared" si="15"/>
+        <f>AB226*AA226</f>
         <v>0</v>
       </c>
       <c r="AE226">
@@ -21663,7 +21663,7 @@
         <v>458</v>
       </c>
       <c r="C227" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="D227" s="2">
@@ -21703,7 +21703,7 @@
         <v>82</v>
       </c>
       <c r="P227" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Psycorb</v>
       </c>
       <c r="Q227">
@@ -21722,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="AC227" s="38">
-        <f t="shared" si="15"/>
+        <f>AB227*AA227</f>
         <v>0</v>
       </c>
       <c r="AE227">
@@ -21746,7 +21746,7 @@
         <v>459</v>
       </c>
       <c r="C228" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D228" s="2">
@@ -21786,7 +21786,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Psyballs</v>
       </c>
       <c r="Q228">
@@ -21808,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="AC228" s="38">
-        <f t="shared" si="15"/>
+        <f>AB228*AA228</f>
         <v>0</v>
       </c>
       <c r="AE228">
@@ -21832,7 +21832,7 @@
         <v>460</v>
       </c>
       <c r="C229" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>550</v>
       </c>
       <c r="D229" s="2">
@@ -21872,7 +21872,7 @@
         <v>84</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Psycorbrator</v>
       </c>
       <c r="S229">
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="AC229" s="38">
-        <f t="shared" si="15"/>
+        <f>AB229*AA229</f>
         <v>0</v>
       </c>
       <c r="AE229">
@@ -21930,7 +21930,7 @@
         <v>461</v>
       </c>
       <c r="C230" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="D230" s="2">
@@ -21970,7 +21970,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Ralts</v>
       </c>
       <c r="Q230">
@@ -22001,7 +22001,7 @@
         <v>0</v>
       </c>
       <c r="AC230" s="38">
-        <f t="shared" si="15"/>
+        <f>AB230*AA230</f>
         <v>0</v>
       </c>
       <c r="AE230">
@@ -22025,7 +22025,7 @@
         <v>462</v>
       </c>
       <c r="C231" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>278</v>
       </c>
       <c r="D231" s="2">
@@ -22065,7 +22065,7 @@
         <v>86</v>
       </c>
       <c r="P231" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Kirlia</v>
       </c>
       <c r="Q231">
@@ -22096,7 +22096,7 @@
         <v>0</v>
       </c>
       <c r="AC231" s="38">
-        <f t="shared" si="15"/>
+        <f>AB231*AA231</f>
         <v>0</v>
       </c>
       <c r="AE231">
@@ -22120,7 +22120,7 @@
         <v>463</v>
       </c>
       <c r="C232" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>518</v>
       </c>
       <c r="D232" s="2">
@@ -22160,7 +22160,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Gardevoir</v>
       </c>
       <c r="S232">
@@ -22188,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="AC232" s="38">
-        <f t="shared" si="15"/>
+        <f>AB232*AA232</f>
         <v>0</v>
       </c>
       <c r="AE232">
@@ -22212,7 +22212,7 @@
         <v>464</v>
       </c>
       <c r="C233" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>518</v>
       </c>
       <c r="D233" s="2">
@@ -22252,7 +22252,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Gallade</v>
       </c>
       <c r="Q233" t="s">
@@ -22283,7 +22283,7 @@
         <v>0</v>
       </c>
       <c r="AC233" s="38">
-        <f t="shared" si="15"/>
+        <f>AB233*AA233</f>
         <v>0</v>
       </c>
       <c r="AE233">
@@ -22307,7 +22307,7 @@
         <v>465</v>
       </c>
       <c r="C234" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>455</v>
       </c>
       <c r="D234" s="2">
@@ -22347,7 +22347,7 @@
         <v>89</v>
       </c>
       <c r="P234" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Tigrette</v>
       </c>
       <c r="S234">
@@ -22375,7 +22375,7 @@
         <v>0</v>
       </c>
       <c r="AC234" s="38">
-        <f t="shared" si="15"/>
+        <f>AB234*AA234</f>
         <v>0</v>
       </c>
       <c r="AE234">
@@ -22399,7 +22399,7 @@
         <v>466</v>
       </c>
       <c r="C235" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>288</v>
       </c>
       <c r="D235" s="2">
@@ -22439,7 +22439,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Inkay</v>
       </c>
       <c r="Q235">
@@ -22470,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="AC235" s="38">
-        <f t="shared" si="15"/>
+        <f>AB235*AA235</f>
         <v>0</v>
       </c>
       <c r="AE235">
@@ -22494,7 +22494,7 @@
         <v>467</v>
       </c>
       <c r="C236" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>482</v>
       </c>
       <c r="D236" s="2">
@@ -22534,7 +22534,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Malamar</v>
       </c>
       <c r="S236">
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="AC236" s="38">
-        <f t="shared" si="15"/>
+        <f>AB236*AA236</f>
         <v>0</v>
       </c>
       <c r="AE236">
@@ -22586,7 +22586,7 @@
         <v>468</v>
       </c>
       <c r="C237" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>375</v>
       </c>
       <c r="D237" s="2">
@@ -22626,7 +22626,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Flameruff</v>
       </c>
       <c r="Q237">
@@ -22657,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="AC237" s="38">
-        <f t="shared" si="15"/>
+        <f>AB237*AA237</f>
         <v>0</v>
       </c>
       <c r="AE237">
@@ -22681,7 +22681,7 @@
         <v>469</v>
       </c>
       <c r="C238" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>495</v>
       </c>
       <c r="D238" s="2">
@@ -22721,7 +22721,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Barkflare</v>
       </c>
       <c r="S238">
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="AC238" s="38">
-        <f t="shared" si="15"/>
+        <f>AB238*AA238</f>
         <v>0</v>
       </c>
       <c r="AE238">
@@ -22773,7 +22773,7 @@
         <v>470</v>
       </c>
       <c r="C239" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="D239" s="2">
@@ -22813,7 +22813,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Iglite</v>
       </c>
       <c r="Q239">
@@ -22844,7 +22844,7 @@
         <v>0</v>
       </c>
       <c r="AC239" s="38">
-        <f t="shared" si="15"/>
+        <f>AB239*AA239</f>
         <v>0</v>
       </c>
       <c r="AE239">
@@ -22868,7 +22868,7 @@
         <v>471</v>
       </c>
       <c r="C240" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D240" s="2">
@@ -22908,7 +22908,7 @@
         <v>95</v>
       </c>
       <c r="P240" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Blaxer</v>
       </c>
       <c r="Q240">
@@ -22939,7 +22939,7 @@
         <v>0</v>
       </c>
       <c r="AC240" s="38">
-        <f t="shared" si="15"/>
+        <f>AB240*AA240</f>
         <v>0</v>
       </c>
       <c r="AE240">
@@ -22963,7 +22963,7 @@
         <v>472</v>
       </c>
       <c r="C241" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>516</v>
       </c>
       <c r="D241" s="2">
@@ -23003,7 +23003,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Pyrator</v>
       </c>
       <c r="S241">
@@ -23031,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="AC241" s="38">
-        <f t="shared" si="15"/>
+        <f>AB241*AA241</f>
         <v>0</v>
       </c>
       <c r="AE241">
@@ -23055,7 +23055,7 @@
         <v>473</v>
       </c>
       <c r="C242" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>505</v>
       </c>
       <c r="D242" s="2">
@@ -23091,7 +23091,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Magmaclang</v>
       </c>
       <c r="Q242" s="14"/>
@@ -23120,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="AC242" s="38">
-        <f t="shared" si="15"/>
+        <f>AB242*AA242</f>
         <v>0</v>
       </c>
       <c r="AE242">
@@ -23144,7 +23144,7 @@
         <v>474</v>
       </c>
       <c r="C243" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>360</v>
       </c>
       <c r="D243" s="2">
@@ -23180,7 +23180,7 @@
         <v>98</v>
       </c>
       <c r="P243" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Flamehox</v>
       </c>
       <c r="Q243" s="14">
@@ -23211,7 +23211,7 @@
         <v>0</v>
       </c>
       <c r="AC243" s="38">
-        <f t="shared" si="15"/>
+        <f>AB243*AA243</f>
         <v>0</v>
       </c>
       <c r="AE243">
@@ -23235,7 +23235,7 @@
         <v>75</v>
       </c>
       <c r="C244" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>460</v>
       </c>
       <c r="D244" s="2">
@@ -23270,7 +23270,7 @@
         <v>99</v>
       </c>
       <c r="P244" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Fireshard</v>
       </c>
       <c r="Q244" s="14">
@@ -23301,7 +23301,7 @@
         <v>0</v>
       </c>
       <c r="AC244" s="38">
-        <f t="shared" si="15"/>
+        <f>AB244*AA244</f>
         <v>0</v>
       </c>
       <c r="AE244">
@@ -23325,7 +23325,7 @@
         <v>76</v>
       </c>
       <c r="C245" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>560</v>
       </c>
       <c r="D245" s="2">
@@ -23360,7 +23360,7 @@
         <v>100</v>
       </c>
       <c r="P245" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Blastflames</v>
       </c>
       <c r="S245">
@@ -23388,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="AC245" s="38">
-        <f t="shared" si="15"/>
+        <f>AB245*AA245</f>
         <v>0</v>
       </c>
       <c r="AE245">
@@ -23412,7 +23412,7 @@
         <v>475</v>
       </c>
       <c r="C246" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>330</v>
       </c>
       <c r="D246" s="2">
@@ -23449,7 +23449,7 @@
         <v>101</v>
       </c>
       <c r="P246" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Tiowoo</v>
       </c>
       <c r="Q246">
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="AC246" s="38">
-        <f t="shared" si="15"/>
+        <f>AB246*AA246</f>
         <v>0</v>
       </c>
       <c r="AE246">
@@ -23504,7 +23504,7 @@
         <v>476</v>
       </c>
       <c r="C247" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D247" s="2">
@@ -23541,7 +23541,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Magwoo</v>
       </c>
       <c r="Q247">
@@ -23572,7 +23572,7 @@
         <v>0</v>
       </c>
       <c r="AC247" s="38">
-        <f t="shared" si="15"/>
+        <f>AB247*AA247</f>
         <v>0</v>
       </c>
       <c r="AE247">
@@ -23596,7 +23596,7 @@
         <v>477</v>
       </c>
       <c r="C248" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="D248" s="2">
@@ -23633,7 +23633,7 @@
         <v>103</v>
       </c>
       <c r="P248" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Lafloo</v>
       </c>
       <c r="S248">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="AC248" s="38">
-        <f t="shared" si="15"/>
+        <f>AB248*AA248</f>
         <v>0</v>
       </c>
       <c r="AE248">
@@ -23685,7 +23685,7 @@
         <v>478</v>
       </c>
       <c r="C249" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>330</v>
       </c>
       <c r="D249" s="2">
@@ -23725,7 +23725,7 @@
         <v>104</v>
       </c>
       <c r="P249" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Houndour</v>
       </c>
       <c r="Q249">
@@ -23756,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="AC249" s="38">
-        <f t="shared" si="15"/>
+        <f>AB249*AA249</f>
         <v>0</v>
       </c>
       <c r="AE249">
@@ -23780,7 +23780,7 @@
         <v>479</v>
       </c>
       <c r="C250" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="D250" s="2">
@@ -23820,7 +23820,7 @@
         <v>105</v>
       </c>
       <c r="P250" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Houndoom</v>
       </c>
       <c r="S250">
@@ -23848,7 +23848,7 @@
         <v>0</v>
       </c>
       <c r="AC250" s="38">
-        <f t="shared" si="15"/>
+        <f>AB250*AA250</f>
         <v>0</v>
       </c>
       <c r="AE250">
@@ -23872,7 +23872,7 @@
         <v>99</v>
       </c>
       <c r="C251" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>335</v>
       </c>
       <c r="D251" s="2">
@@ -23912,7 +23912,7 @@
         <v>106</v>
       </c>
       <c r="P251" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Sparkdust</v>
       </c>
       <c r="Q251">
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="AC251" s="38">
-        <f t="shared" si="15"/>
+        <f>AB251*AA251</f>
         <v>0</v>
       </c>
       <c r="AE251">
@@ -23964,7 +23964,7 @@
         <v>100</v>
       </c>
       <c r="C252" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>505</v>
       </c>
       <c r="D252" s="2">
@@ -24004,7 +24004,7 @@
         <v>107</v>
       </c>
       <c r="P252" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Splame</v>
       </c>
       <c r="S252">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="AC252" s="38">
-        <f t="shared" si="15"/>
+        <f>AB252*AA252</f>
         <v>0</v>
       </c>
       <c r="AE252">
@@ -24053,7 +24053,7 @@
         <v>480</v>
       </c>
       <c r="C253" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D253" s="2">
@@ -24085,7 +24085,7 @@
         <v>108</v>
       </c>
       <c r="P253" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Sparkitten</v>
       </c>
       <c r="S253">
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="AC253" s="38">
-        <f t="shared" si="15"/>
+        <f>AB253*AA253</f>
         <v>0</v>
       </c>
       <c r="AE253">
@@ -24134,7 +24134,7 @@
         <v>481</v>
       </c>
       <c r="C254" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>510</v>
       </c>
       <c r="D254" s="2">
@@ -24169,7 +24169,7 @@
         <v>109</v>
       </c>
       <c r="P254" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Fireblion</v>
       </c>
       <c r="Q254" t="s">
@@ -24197,7 +24197,7 @@
         <v>0</v>
       </c>
       <c r="AC254" s="38">
-        <f t="shared" si="15"/>
+        <f>AB254*AA254</f>
         <v>0</v>
       </c>
       <c r="AE254">
@@ -24221,7 +24221,7 @@
         <v>482</v>
       </c>
       <c r="C255" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>510</v>
       </c>
       <c r="D255" s="2">
@@ -24256,7 +24256,7 @@
         <v>110</v>
       </c>
       <c r="P255" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Flamebless</v>
       </c>
       <c r="Q255" t="s">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="AC255" s="38">
-        <f t="shared" si="15"/>
+        <f>AB255*AA255</f>
         <v>0</v>
       </c>
       <c r="AE255">
@@ -24311,7 +24311,7 @@
         <v>43</v>
       </c>
       <c r="C256" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>360</v>
       </c>
       <c r="D256" s="2">
@@ -24351,7 +24351,7 @@
         <v>111</v>
       </c>
       <c r="P256" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Shookwat</v>
       </c>
       <c r="Q256">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="AC256" s="38">
-        <f t="shared" si="15"/>
+        <f>AB256*AA256</f>
         <v>0</v>
       </c>
       <c r="AE256">
@@ -24403,7 +24403,7 @@
         <v>44</v>
       </c>
       <c r="C257" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>475</v>
       </c>
       <c r="D257" s="2">
@@ -24443,7 +24443,7 @@
         <v>112</v>
       </c>
       <c r="P257" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Wattwo</v>
       </c>
       <c r="Q257" t="s">
@@ -24471,7 +24471,7 @@
         <v>0</v>
       </c>
       <c r="AC257" s="38">
-        <f t="shared" si="15"/>
+        <f>AB257*AA257</f>
         <v>0</v>
       </c>
       <c r="AE257">
@@ -24495,7 +24495,7 @@
         <v>483</v>
       </c>
       <c r="C258" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>515</v>
       </c>
       <c r="D258" s="2">
@@ -24535,7 +24535,7 @@
         <v>113</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Megawatt</v>
       </c>
       <c r="S258">
@@ -24560,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="AC258" s="38">
-        <f t="shared" si="15"/>
+        <f>AB258*AA258</f>
         <v>0</v>
       </c>
       <c r="AE258">
@@ -24584,7 +24584,7 @@
         <v>484</v>
       </c>
       <c r="C259" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>295</v>
       </c>
       <c r="D259" s="2">
@@ -24624,7 +24624,7 @@
         <v>114</v>
       </c>
       <c r="P259" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Elelamb</v>
       </c>
       <c r="Q259">
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="AC259" s="38">
-        <f t="shared" si="15"/>
+        <f>AB259*AA259</f>
         <v>0</v>
       </c>
       <c r="AE259">
@@ -24676,7 +24676,7 @@
         <v>485</v>
       </c>
       <c r="C260" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>355</v>
       </c>
       <c r="D260" s="2">
@@ -24716,7 +24716,7 @@
         <v>115</v>
       </c>
       <c r="P260" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Electroram</v>
       </c>
       <c r="Q260">
@@ -24744,7 +24744,7 @@
         <v>0</v>
       </c>
       <c r="AC260" s="38">
-        <f t="shared" si="15"/>
+        <f>AB260*AA260</f>
         <v>0</v>
       </c>
       <c r="AE260">
@@ -24768,7 +24768,7 @@
         <v>486</v>
       </c>
       <c r="C261" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>520</v>
       </c>
       <c r="D261" s="2">
@@ -24808,7 +24808,7 @@
         <v>116</v>
       </c>
       <c r="P261" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Superchargo</v>
       </c>
       <c r="S261">
@@ -24833,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="AC261" s="38">
-        <f t="shared" si="15"/>
+        <f>AB261*AA261</f>
         <v>0</v>
       </c>
       <c r="AE261">
@@ -24857,7 +24857,7 @@
         <v>487</v>
       </c>
       <c r="C262" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="D262" s="2">
@@ -24897,7 +24897,7 @@
         <v>117</v>
       </c>
       <c r="P262" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Twigzap</v>
       </c>
       <c r="Q262">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="AC262" s="38">
-        <f t="shared" si="15"/>
+        <f>AB262*AA262</f>
         <v>0</v>
       </c>
       <c r="AE262">
@@ -24949,7 +24949,7 @@
         <v>488</v>
       </c>
       <c r="C263" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>395</v>
       </c>
       <c r="D263" s="2">
@@ -24989,7 +24989,7 @@
         <v>118</v>
       </c>
       <c r="P263" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Shockbranch</v>
       </c>
       <c r="Q263" t="s">
@@ -25017,7 +25017,7 @@
         <v>0</v>
       </c>
       <c r="AC263" s="38">
-        <f t="shared" si="15"/>
+        <f>AB263*AA263</f>
         <v>0</v>
       </c>
       <c r="AE263">
@@ -25041,7 +25041,7 @@
         <v>489</v>
       </c>
       <c r="C264" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="D264" s="2">
@@ -25078,7 +25078,7 @@
         <v>119</v>
       </c>
       <c r="P264" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Thunderzap</v>
       </c>
       <c r="S264">
@@ -25109,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="AC264" s="38">
-        <f t="shared" si="15"/>
+        <f>AB264*AA264</f>
         <v>0</v>
       </c>
       <c r="AE264">
@@ -25133,7 +25133,7 @@
         <v>90</v>
       </c>
       <c r="C265" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>316</v>
       </c>
       <c r="D265" s="2">
@@ -25168,7 +25168,7 @@
         <v>120</v>
       </c>
       <c r="P265" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Magie</v>
       </c>
       <c r="Q265">
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="AC265" s="38">
-        <f t="shared" si="15"/>
+        <f>AB265*AA265</f>
         <v>0</v>
       </c>
       <c r="AE265">
@@ -25226,7 +25226,7 @@
         <v>91</v>
       </c>
       <c r="C266" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>490</v>
       </c>
       <c r="D266" s="2">
@@ -25261,7 +25261,7 @@
         <v>121</v>
       </c>
       <c r="P266" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Cumin</v>
       </c>
       <c r="Q266" t="s">
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="AC266" s="38">
-        <f t="shared" si="15"/>
+        <f>AB266*AA266</f>
         <v>0</v>
       </c>
       <c r="AE266">
@@ -25319,7 +25319,7 @@
         <v>580</v>
       </c>
       <c r="C267" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>530</v>
       </c>
       <c r="D267" s="2">
@@ -25354,7 +25354,7 @@
         <v>122</v>
       </c>
       <c r="P267" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Cinneroph</v>
       </c>
       <c r="S267">
@@ -25385,7 +25385,7 @@
         <v>0</v>
       </c>
       <c r="AC267" s="38">
-        <f t="shared" si="15"/>
+        <f>AB267*AA267</f>
         <v>0</v>
       </c>
       <c r="AE267">
@@ -25409,7 +25409,7 @@
         <v>490</v>
       </c>
       <c r="C268" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>235</v>
       </c>
       <c r="D268" s="2">
@@ -25444,7 +25444,7 @@
         <v>123</v>
       </c>
       <c r="P268" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Vupp</v>
       </c>
       <c r="Q268">
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="AC268" s="38">
-        <f t="shared" si="15"/>
+        <f>AB268*AA268</f>
         <v>0</v>
       </c>
       <c r="AE268">
@@ -25499,7 +25499,7 @@
         <v>42</v>
       </c>
       <c r="C269" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>490</v>
       </c>
       <c r="D269" s="2">
@@ -25534,7 +25534,7 @@
         <v>124</v>
       </c>
       <c r="P269" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Vinnie</v>
       </c>
       <c r="Q269" t="s">
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
       <c r="AC269" s="38">
-        <f t="shared" si="15"/>
+        <f>AB269*AA269</f>
         <v>0</v>
       </c>
       <c r="AE269">
@@ -25589,7 +25589,7 @@
         <v>491</v>
       </c>
       <c r="C270" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>545</v>
       </c>
       <c r="D270" s="2">
@@ -25624,7 +25624,7 @@
         <v>125</v>
       </c>
       <c r="P270" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Suvernero</v>
       </c>
       <c r="S270">
@@ -25663,7 +25663,7 @@
         <v>492</v>
       </c>
       <c r="C271" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="D271" s="2">
@@ -25698,7 +25698,7 @@
         <v>126</v>
       </c>
       <c r="P271" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Whiskie</v>
       </c>
       <c r="Q271">
@@ -25740,7 +25740,7 @@
         <v>493</v>
       </c>
       <c r="C272" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>475</v>
       </c>
       <c r="D272" s="2">
@@ -25775,7 +25775,7 @@
         <v>127</v>
       </c>
       <c r="P272" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Whiskers</v>
       </c>
       <c r="Q272" t="s">
@@ -25793,7 +25793,7 @@
         <v>494</v>
       </c>
       <c r="C273" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="D273" s="2">
@@ -25828,7 +25828,7 @@
         <v>128</v>
       </c>
       <c r="P273" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>Whiskeroar</v>
       </c>
       <c r="S273">
@@ -25843,7 +25843,7 @@
         <v>583</v>
       </c>
       <c r="C274" s="1">
-        <f t="shared" ref="C274:C337" si="16">SUM(D274:I274)</f>
+        <f t="shared" ref="C274:C337" si="12">SUM(D274:I274)</f>
         <v>266</v>
       </c>
       <c r="D274" s="2">
@@ -25878,7 +25878,7 @@
         <v>129</v>
       </c>
       <c r="P274" t="str">
-        <f t="shared" ref="P274:P337" si="17">B274</f>
+        <f t="shared" ref="P274:P337" si="13">B274</f>
         <v>Nincada</v>
       </c>
       <c r="Q274">
@@ -25896,7 +25896,7 @@
         <v>584</v>
       </c>
       <c r="C275" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>456</v>
       </c>
       <c r="D275" s="2">
@@ -25931,7 +25931,7 @@
         <v>130</v>
       </c>
       <c r="P275" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Ninjask</v>
       </c>
       <c r="S275">
@@ -25946,7 +25946,7 @@
         <v>582</v>
       </c>
       <c r="C276" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>236</v>
       </c>
       <c r="D276" s="2">
@@ -25978,7 +25978,7 @@
         <v>131</v>
       </c>
       <c r="P276" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Shedinja</v>
       </c>
       <c r="Q276" t="s">
@@ -26005,7 +26005,7 @@
         <v>495</v>
       </c>
       <c r="C277" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
       <c r="D277" s="2">
@@ -26040,7 +26040,7 @@
         <v>132</v>
       </c>
       <c r="P277" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Sheltor</v>
       </c>
       <c r="Q277" t="s">
@@ -26067,7 +26067,7 @@
         <v>496</v>
       </c>
       <c r="C278" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>474</v>
       </c>
       <c r="D278" s="2">
@@ -26102,7 +26102,7 @@
         <v>133</v>
       </c>
       <c r="P278" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Shelnado</v>
       </c>
       <c r="S278">
@@ -26126,7 +26126,7 @@
         <v>497</v>
       </c>
       <c r="C279" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="D279" s="2">
@@ -26161,7 +26161,7 @@
         <v>134</v>
       </c>
       <c r="P279" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Lilyray</v>
       </c>
       <c r="Q279" t="s">
@@ -26188,7 +26188,7 @@
         <v>62</v>
       </c>
       <c r="C280" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="D280" s="2">
@@ -26223,7 +26223,7 @@
         <v>135</v>
       </c>
       <c r="P280" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Daray</v>
       </c>
       <c r="Q280">
@@ -26247,7 +26247,7 @@
         <v>63</v>
       </c>
       <c r="C281" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>495</v>
       </c>
       <c r="D281" s="2">
@@ -26282,7 +26282,7 @@
         <v>136</v>
       </c>
       <c r="P281" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Spinaquata</v>
       </c>
       <c r="S281">
@@ -26306,7 +26306,7 @@
         <v>498</v>
       </c>
       <c r="C282" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="D282" s="2">
@@ -26341,7 +26341,7 @@
         <v>137</v>
       </c>
       <c r="P282" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Magikarp</v>
       </c>
       <c r="Q282">
@@ -26368,7 +26368,7 @@
         <v>499</v>
       </c>
       <c r="C283" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>540</v>
       </c>
       <c r="D283" s="2">
@@ -26403,7 +26403,7 @@
         <v>138</v>
       </c>
       <c r="P283" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Gyarados</v>
       </c>
       <c r="S283">
@@ -26427,7 +26427,7 @@
         <v>500</v>
       </c>
       <c r="C284" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>340</v>
       </c>
       <c r="D284" s="2">
@@ -26464,7 +26464,7 @@
         <v>139</v>
       </c>
       <c r="P284" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Staryu</v>
       </c>
       <c r="Q284" t="s">
@@ -26488,7 +26488,7 @@
         <v>501</v>
       </c>
       <c r="C285" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>520</v>
       </c>
       <c r="D285" s="2">
@@ -26525,7 +26525,7 @@
         <v>140</v>
       </c>
       <c r="P285" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Starmie</v>
       </c>
       <c r="S285">
@@ -26546,7 +26546,7 @@
         <v>66</v>
       </c>
       <c r="C286" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>450</v>
       </c>
       <c r="D286" s="2">
@@ -26581,7 +26581,7 @@
         <v>141</v>
       </c>
       <c r="P286" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Ali</v>
       </c>
       <c r="Q286" t="s">
@@ -26605,7 +26605,7 @@
         <v>502</v>
       </c>
       <c r="C287" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>540</v>
       </c>
       <c r="D287" s="2">
@@ -26640,7 +26640,7 @@
         <v>142</v>
       </c>
       <c r="P287" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Batorali</v>
       </c>
       <c r="S287">
@@ -26661,7 +26661,7 @@
         <v>503</v>
       </c>
       <c r="C288" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>295</v>
       </c>
       <c r="D288" s="2">
@@ -26696,7 +26696,7 @@
         <v>143</v>
       </c>
       <c r="P288" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Posho</v>
       </c>
       <c r="Q288" t="s">
@@ -26720,7 +26720,7 @@
         <v>67</v>
       </c>
       <c r="C289" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>460</v>
       </c>
       <c r="D289" s="2">
@@ -26755,7 +26755,7 @@
         <v>144</v>
       </c>
       <c r="P289" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Shomp</v>
       </c>
       <c r="Q289" t="s">
@@ -26779,7 +26779,7 @@
         <v>504</v>
       </c>
       <c r="C290" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>560</v>
       </c>
       <c r="D290" s="2">
@@ -26814,7 +26814,7 @@
         <v>145</v>
       </c>
       <c r="P290" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Poshorump</v>
       </c>
       <c r="S290">
@@ -26835,7 +26835,7 @@
         <v>505</v>
       </c>
       <c r="C291" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>306</v>
       </c>
       <c r="D291" s="2">
@@ -26870,7 +26870,7 @@
         <v>146</v>
       </c>
       <c r="P291" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Binacle</v>
       </c>
       <c r="Q291">
@@ -26894,7 +26894,7 @@
         <v>506</v>
       </c>
       <c r="C292" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="D292" s="2">
@@ -26929,7 +26929,7 @@
         <v>147</v>
       </c>
       <c r="P292" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Barbaracle</v>
       </c>
       <c r="S292">
@@ -26950,7 +26950,7 @@
         <v>507</v>
       </c>
       <c r="C293" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>345</v>
       </c>
       <c r="D293" s="2">
@@ -26985,7 +26985,7 @@
         <v>148</v>
       </c>
       <c r="P293" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Durfish</v>
       </c>
       <c r="Q293" t="s">
@@ -27009,7 +27009,7 @@
         <v>508</v>
       </c>
       <c r="C294" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>485</v>
       </c>
       <c r="D294" s="2">
@@ -27044,7 +27044,7 @@
         <v>149</v>
       </c>
       <c r="P294" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Dompster</v>
       </c>
       <c r="S294">
@@ -27065,7 +27065,7 @@
         <v>509</v>
       </c>
       <c r="C295" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>350</v>
       </c>
       <c r="D295" s="2">
@@ -27100,7 +27100,7 @@
         <v>150</v>
       </c>
       <c r="P295" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Kissyfishy</v>
       </c>
       <c r="S295">
@@ -27121,7 +27121,7 @@
         <v>510</v>
       </c>
       <c r="C296" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>288</v>
       </c>
       <c r="D296" s="2">
@@ -27158,7 +27158,7 @@
         <v>151</v>
       </c>
       <c r="P296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Ekans</v>
       </c>
       <c r="Q296">
@@ -27185,7 +27185,7 @@
         <v>511</v>
       </c>
       <c r="C297" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>455</v>
       </c>
       <c r="D297" s="2">
@@ -27222,7 +27222,7 @@
         <v>152</v>
       </c>
       <c r="P297" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Arbok</v>
       </c>
       <c r="S297">
@@ -27246,7 +27246,7 @@
         <v>512</v>
       </c>
       <c r="C298" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>245</v>
       </c>
       <c r="D298" s="2">
@@ -27283,7 +27283,7 @@
         <v>153</v>
       </c>
       <c r="P298" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Zubat</v>
       </c>
       <c r="Q298">
@@ -27310,7 +27310,7 @@
         <v>513</v>
       </c>
       <c r="C299" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>455</v>
       </c>
       <c r="D299" s="2">
@@ -27347,7 +27347,7 @@
         <v>154</v>
       </c>
       <c r="P299" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Golbat</v>
       </c>
       <c r="Q299" t="s">
@@ -27374,7 +27374,7 @@
         <v>514</v>
       </c>
       <c r="C300" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>535</v>
       </c>
       <c r="D300" s="2">
@@ -27411,7 +27411,7 @@
         <v>155</v>
       </c>
       <c r="P300" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Crobat</v>
       </c>
       <c r="S300">
@@ -27435,7 +27435,7 @@
         <v>37</v>
       </c>
       <c r="C301" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="D301" s="2">
@@ -27472,7 +27472,7 @@
         <v>156</v>
       </c>
       <c r="P301" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Poof</v>
       </c>
       <c r="Q301">
@@ -27499,7 +27499,7 @@
         <v>38</v>
       </c>
       <c r="C302" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="D302" s="2">
@@ -27536,7 +27536,7 @@
         <v>157</v>
       </c>
       <c r="P302" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Hast</v>
       </c>
       <c r="S302">
@@ -27560,7 +27560,7 @@
         <v>39</v>
       </c>
       <c r="C303" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>399</v>
       </c>
       <c r="D303" s="2">
@@ -27597,7 +27597,7 @@
         <v>158</v>
       </c>
       <c r="P303" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Poov</v>
       </c>
       <c r="Q303">
@@ -27624,7 +27624,7 @@
         <v>40</v>
       </c>
       <c r="C304" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>499</v>
       </c>
       <c r="D304" s="2">
@@ -27661,7 +27661,7 @@
         <v>159</v>
       </c>
       <c r="P304" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Grust</v>
       </c>
       <c r="S304">
@@ -27685,7 +27685,7 @@
         <v>36</v>
       </c>
       <c r="C305" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>435</v>
       </c>
       <c r="D305" s="2">
@@ -27717,7 +27717,7 @@
         <v>160</v>
       </c>
       <c r="P305" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Cluuz</v>
       </c>
       <c r="Q305" t="s">
@@ -27744,7 +27744,7 @@
         <v>515</v>
       </c>
       <c r="C306" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>480</v>
       </c>
       <c r="D306" s="2">
@@ -27776,7 +27776,7 @@
         <v>161</v>
       </c>
       <c r="P306" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Zurrclu</v>
       </c>
       <c r="Q306" t="s">
@@ -27803,7 +27803,7 @@
         <v>803</v>
       </c>
       <c r="C307" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>540</v>
       </c>
       <c r="D307" s="2">
@@ -27835,7 +27835,7 @@
         <v>162</v>
       </c>
       <c r="P307" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Zurroaratr</v>
       </c>
       <c r="S307">
@@ -27862,7 +27862,7 @@
         <v>516</v>
       </c>
       <c r="C308" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>305</v>
       </c>
       <c r="D308" s="2">
@@ -27897,7 +27897,7 @@
         <v>163</v>
       </c>
       <c r="P308" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Timburr</v>
       </c>
       <c r="Q308">
@@ -27921,7 +27921,7 @@
         <v>517</v>
       </c>
       <c r="C309" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>405</v>
       </c>
       <c r="D309" s="2">
@@ -27956,7 +27956,7 @@
         <v>164</v>
       </c>
       <c r="P309" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Gurdurr</v>
       </c>
       <c r="Q309" t="s">
@@ -27980,7 +27980,7 @@
         <v>518</v>
       </c>
       <c r="C310" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>505</v>
       </c>
       <c r="D310" s="2">
@@ -28015,7 +28015,7 @@
         <v>165</v>
       </c>
       <c r="P310" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Conkeldurr</v>
       </c>
       <c r="S310">
@@ -28036,7 +28036,7 @@
         <v>68</v>
       </c>
       <c r="C311" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>316</v>
       </c>
       <c r="D311" s="2">
@@ -28073,7 +28073,7 @@
         <v>166</v>
       </c>
       <c r="P311" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Rhypo</v>
       </c>
       <c r="Q311">
@@ -28097,7 +28097,7 @@
         <v>69</v>
       </c>
       <c r="C312" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="D312" s="2">
@@ -28134,7 +28134,7 @@
         <v>167</v>
       </c>
       <c r="P312" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Rhynee</v>
       </c>
       <c r="Q312">
@@ -28158,7 +28158,7 @@
         <v>70</v>
       </c>
       <c r="C313" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>510</v>
       </c>
       <c r="D313" s="2">
@@ -28195,7 +28195,7 @@
         <v>168</v>
       </c>
       <c r="P313" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Rhypolar</v>
       </c>
       <c r="S313">
@@ -28216,7 +28216,7 @@
         <v>519</v>
       </c>
       <c r="C314" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>333</v>
       </c>
       <c r="D314" s="2">
@@ -28253,7 +28253,7 @@
         <v>169</v>
       </c>
       <c r="P314" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Diggie</v>
       </c>
       <c r="Q314">
@@ -28277,7 +28277,7 @@
         <v>520</v>
       </c>
       <c r="C315" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>503</v>
       </c>
       <c r="D315" s="2">
@@ -28314,7 +28314,7 @@
         <v>170</v>
       </c>
       <c r="P315" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Drillatron</v>
       </c>
       <c r="S315">
@@ -28335,7 +28335,7 @@
         <v>521</v>
       </c>
       <c r="C316" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>275</v>
       </c>
       <c r="D316" s="2">
@@ -28372,7 +28372,7 @@
         <v>171</v>
       </c>
       <c r="P316" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Wormite</v>
       </c>
       <c r="Q316">
@@ -28396,7 +28396,7 @@
         <v>522</v>
       </c>
       <c r="C317" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>385</v>
       </c>
       <c r="D317" s="2">
@@ -28433,7 +28433,7 @@
         <v>172</v>
       </c>
       <c r="P317" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Wormbot</v>
       </c>
       <c r="Q317">
@@ -28457,7 +28457,7 @@
         <v>523</v>
       </c>
       <c r="C318" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>520</v>
       </c>
       <c r="D318" s="2">
@@ -28494,7 +28494,7 @@
         <v>173</v>
       </c>
       <c r="P318" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Wormatron</v>
       </c>
       <c r="S318">
@@ -28515,7 +28515,7 @@
         <v>572</v>
       </c>
       <c r="C319" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>218</v>
       </c>
       <c r="D319" s="2">
@@ -28550,7 +28550,7 @@
         <v>174</v>
       </c>
       <c r="P319" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Cleffa</v>
       </c>
       <c r="Q319" t="s">
@@ -28574,7 +28574,7 @@
         <v>573</v>
       </c>
       <c r="C320" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>323</v>
       </c>
       <c r="D320" s="2">
@@ -28609,7 +28609,7 @@
         <v>175</v>
       </c>
       <c r="P320" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Clefairy</v>
       </c>
       <c r="Q320" t="s">
@@ -28633,7 +28633,7 @@
         <v>574</v>
       </c>
       <c r="C321" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>483</v>
       </c>
       <c r="D321" s="2">
@@ -28668,7 +28668,7 @@
         <v>176</v>
       </c>
       <c r="P321" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Clefable</v>
       </c>
       <c r="S321">
@@ -28689,7 +28689,7 @@
         <v>524</v>
       </c>
       <c r="C322" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>420</v>
       </c>
       <c r="D322" s="2">
@@ -28724,7 +28724,7 @@
         <v>177</v>
       </c>
       <c r="P322" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Minishoo</v>
       </c>
       <c r="Q322" t="s">
@@ -28748,7 +28748,7 @@
         <v>525</v>
       </c>
       <c r="C323" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>520</v>
       </c>
       <c r="D323" s="2">
@@ -28783,7 +28783,7 @@
         <v>178</v>
       </c>
       <c r="P323" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Glittleshoo</v>
       </c>
       <c r="S323">
@@ -28804,7 +28804,7 @@
         <v>526</v>
       </c>
       <c r="C324" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>330</v>
       </c>
       <c r="D324" s="2">
@@ -28839,7 +28839,7 @@
         <v>179</v>
       </c>
       <c r="P324" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Zorua</v>
       </c>
       <c r="Q324">
@@ -28863,7 +28863,7 @@
         <v>527</v>
       </c>
       <c r="C325" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>510</v>
       </c>
       <c r="D325" s="2">
@@ -28898,7 +28898,7 @@
         <v>180</v>
       </c>
       <c r="P325" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Zoroark</v>
       </c>
       <c r="S325">
@@ -28919,7 +28919,7 @@
         <v>92</v>
       </c>
       <c r="C326" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>330</v>
       </c>
       <c r="D326" s="2">
@@ -28956,7 +28956,7 @@
         <v>181</v>
       </c>
       <c r="P326" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Droid</v>
       </c>
       <c r="Q326">
@@ -28977,7 +28977,7 @@
         <v>93</v>
       </c>
       <c r="C327" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>430</v>
       </c>
       <c r="D327" s="2">
@@ -29014,7 +29014,7 @@
         <v>182</v>
       </c>
       <c r="P327" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Armoid</v>
       </c>
       <c r="Q327">
@@ -29038,7 +29038,7 @@
         <v>94</v>
       </c>
       <c r="C328" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>530</v>
       </c>
       <c r="D328" s="2">
@@ -29075,7 +29075,7 @@
         <v>183</v>
       </c>
       <c r="P328" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Soldrota</v>
       </c>
       <c r="S328">
@@ -29099,7 +29099,7 @@
         <v>101</v>
       </c>
       <c r="C329" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>390</v>
       </c>
       <c r="D329" s="2">
@@ -29131,7 +29131,7 @@
         <v>184</v>
       </c>
       <c r="P329" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Tinkie</v>
       </c>
       <c r="Q329">
@@ -29155,7 +29155,7 @@
         <v>102</v>
       </c>
       <c r="C330" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>455</v>
       </c>
       <c r="D330" s="2">
@@ -29187,7 +29187,7 @@
         <v>185</v>
       </c>
       <c r="P330" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Shawar</v>
       </c>
       <c r="Q330">
@@ -29211,7 +29211,7 @@
         <v>103</v>
       </c>
       <c r="C331" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="D331" s="2">
@@ -29243,7 +29243,7 @@
         <v>186</v>
       </c>
       <c r="P331" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Shaboom</v>
       </c>
       <c r="S331">
@@ -29267,7 +29267,7 @@
         <v>95</v>
       </c>
       <c r="C332" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>350</v>
       </c>
       <c r="D332" s="2">
@@ -29299,7 +29299,7 @@
         <v>187</v>
       </c>
       <c r="P332" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Dragee</v>
       </c>
       <c r="Q332">
@@ -29326,7 +29326,7 @@
         <v>96</v>
       </c>
       <c r="C333" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>465</v>
       </c>
       <c r="D333" s="2">
@@ -29358,7 +29358,7 @@
         <v>188</v>
       </c>
       <c r="P333" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Draga</v>
       </c>
       <c r="Q333">
@@ -29385,7 +29385,7 @@
         <v>97</v>
       </c>
       <c r="C334" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="D334" s="2">
@@ -29417,7 +29417,7 @@
         <v>189</v>
       </c>
       <c r="P334" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Drageye</v>
       </c>
       <c r="S334">
@@ -29438,7 +29438,7 @@
         <v>528</v>
       </c>
       <c r="C335" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>310</v>
       </c>
       <c r="D335" s="2">
@@ -29475,7 +29475,7 @@
         <v>190</v>
       </c>
       <c r="P335" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Blobmo</v>
       </c>
       <c r="Q335">
@@ -29490,7 +29490,7 @@
         <v>529</v>
       </c>
       <c r="C336" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>420</v>
       </c>
       <c r="D336" s="2">
@@ -29527,7 +29527,7 @@
         <v>191</v>
       </c>
       <c r="P336" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Nebulimb</v>
       </c>
       <c r="Q336">
@@ -29542,7 +29542,7 @@
         <v>801</v>
       </c>
       <c r="C337" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>585</v>
       </c>
       <c r="D337" s="2">
@@ -29579,7 +29579,7 @@
         <v>192</v>
       </c>
       <c r="P337" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>Galactasolder</v>
       </c>
     </row>
@@ -29591,7 +29591,7 @@
         <v>530</v>
       </c>
       <c r="C338" s="1">
-        <f t="shared" ref="C338:C401" si="18">SUM(D338:I338)</f>
+        <f t="shared" ref="C338:C401" si="14">SUM(D338:I338)</f>
         <v>415</v>
       </c>
       <c r="D338" s="2">
@@ -29628,7 +29628,7 @@
         <v>193</v>
       </c>
       <c r="P338" t="str">
-        <f t="shared" ref="P338:P382" si="19">B338</f>
+        <f t="shared" ref="P338:P382" si="15">B338</f>
         <v>Consodust</v>
       </c>
       <c r="Q338" t="s">
@@ -29643,7 +29643,7 @@
         <v>531</v>
       </c>
       <c r="C339" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>525</v>
       </c>
       <c r="D339" s="2">
@@ -29680,7 +29680,7 @@
         <v>194</v>
       </c>
       <c r="P339" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Cosmocrash</v>
       </c>
     </row>
@@ -29692,7 +29692,7 @@
         <v>532</v>
       </c>
       <c r="C340" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>450</v>
       </c>
       <c r="D340" s="2">
@@ -29729,7 +29729,7 @@
         <v>195</v>
       </c>
       <c r="P340" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Rockmite</v>
       </c>
       <c r="Q340" t="s">
@@ -29744,7 +29744,7 @@
         <v>533</v>
       </c>
       <c r="C341" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>540</v>
       </c>
       <c r="D341" s="2">
@@ -29781,7 +29781,7 @@
         <v>196</v>
       </c>
       <c r="P341" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Stellarock</v>
       </c>
     </row>
@@ -29793,7 +29793,7 @@
         <v>534</v>
       </c>
       <c r="C342" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D342" s="2">
@@ -29830,7 +29830,7 @@
         <v>197</v>
       </c>
       <c r="P342" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Poof-E</v>
       </c>
       <c r="Q342">
@@ -29845,7 +29845,7 @@
         <v>535</v>
       </c>
       <c r="C343" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="D343" s="2">
@@ -29882,7 +29882,7 @@
         <v>198</v>
       </c>
       <c r="P343" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Hast-E</v>
       </c>
     </row>
@@ -29894,7 +29894,7 @@
         <v>536</v>
       </c>
       <c r="C344" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>330</v>
       </c>
       <c r="D344" s="2">
@@ -29931,7 +29931,7 @@
         <v>199</v>
       </c>
       <c r="P344" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Droid-E</v>
       </c>
       <c r="Q344">
@@ -29946,7 +29946,7 @@
         <v>537</v>
       </c>
       <c r="C345" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>430</v>
       </c>
       <c r="D345" s="2">
@@ -29983,7 +29983,7 @@
         <v>200</v>
       </c>
       <c r="P345" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Armoid-E</v>
       </c>
       <c r="Q345">
@@ -29998,7 +29998,7 @@
         <v>538</v>
       </c>
       <c r="C346" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>530</v>
       </c>
       <c r="D346" s="2">
@@ -30035,7 +30035,7 @@
         <v>201</v>
       </c>
       <c r="P346" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Soldrota-E</v>
       </c>
     </row>
@@ -30047,7 +30047,7 @@
         <v>539</v>
       </c>
       <c r="C347" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>360</v>
       </c>
       <c r="D347" s="2">
@@ -30082,7 +30082,7 @@
         <v>202</v>
       </c>
       <c r="P347" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Flamehox-E</v>
       </c>
       <c r="Q347">
@@ -30097,7 +30097,7 @@
         <v>540</v>
       </c>
       <c r="C348" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>460</v>
       </c>
       <c r="D348" s="2">
@@ -30132,7 +30132,7 @@
         <v>203</v>
       </c>
       <c r="P348" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Fireshard-E</v>
       </c>
       <c r="Q348">
@@ -30147,7 +30147,7 @@
         <v>541</v>
       </c>
       <c r="C349" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>560</v>
       </c>
       <c r="D349" s="2">
@@ -30182,7 +30182,7 @@
         <v>204</v>
       </c>
       <c r="P349" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Blastflames-E</v>
       </c>
     </row>
@@ -30194,7 +30194,7 @@
         <v>542</v>
       </c>
       <c r="C350" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>325</v>
       </c>
       <c r="D350" s="2">
@@ -30229,7 +30229,7 @@
         <v>205</v>
       </c>
       <c r="P350" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Rocky-E</v>
       </c>
       <c r="Q350">
@@ -30244,7 +30244,7 @@
         <v>543</v>
       </c>
       <c r="C351" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>425</v>
       </c>
       <c r="D351" s="2">
@@ -30279,7 +30279,7 @@
         <v>206</v>
       </c>
       <c r="P351" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Boulder-E</v>
       </c>
       <c r="Q351" t="s">
@@ -30294,7 +30294,7 @@
         <v>544</v>
       </c>
       <c r="C352" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>525</v>
       </c>
       <c r="D352" s="2">
@@ -30329,7 +30329,7 @@
         <v>207</v>
       </c>
       <c r="P352" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Blaster-E</v>
       </c>
     </row>
@@ -30341,7 +30341,7 @@
         <v>545</v>
       </c>
       <c r="C353" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>525</v>
       </c>
       <c r="D353" s="2">
@@ -30376,7 +30376,7 @@
         <v>208</v>
       </c>
       <c r="P353" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Crystallor-E</v>
       </c>
       <c r="Q353" t="s">
@@ -30391,7 +30391,7 @@
         <v>546</v>
       </c>
       <c r="C354" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="D354" s="2">
@@ -30426,7 +30426,7 @@
         <v>209</v>
       </c>
       <c r="P354" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Magikarp-E</v>
       </c>
       <c r="Q354">
@@ -30441,7 +30441,7 @@
         <v>547</v>
       </c>
       <c r="C355" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>540</v>
       </c>
       <c r="D355" s="2">
@@ -30479,7 +30479,7 @@
         <v>210</v>
       </c>
       <c r="P355" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Gyarados-E</v>
       </c>
     </row>
@@ -30491,7 +30491,7 @@
         <v>548</v>
       </c>
       <c r="C356" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>430</v>
       </c>
       <c r="D356" s="2">
@@ -30526,7 +30526,7 @@
         <v>211</v>
       </c>
       <c r="P356" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Shockfang</v>
       </c>
     </row>
@@ -30538,7 +30538,7 @@
         <v>549</v>
       </c>
       <c r="C357" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>530</v>
       </c>
       <c r="D357" s="2">
@@ -30573,7 +30573,7 @@
         <v>212</v>
       </c>
       <c r="P357" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Electrocobra</v>
       </c>
       <c r="Q357">
@@ -30588,7 +30588,7 @@
         <v>550</v>
       </c>
       <c r="C358" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>430</v>
       </c>
       <c r="D358" s="2">
@@ -30623,7 +30623,7 @@
         <v>213</v>
       </c>
       <c r="P358" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Nightrex</v>
       </c>
     </row>
@@ -30635,7 +30635,7 @@
         <v>551</v>
       </c>
       <c r="C359" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>530</v>
       </c>
       <c r="D359" s="2">
@@ -30670,7 +30670,7 @@
         <v>214</v>
       </c>
       <c r="P359" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Shadowsaur</v>
       </c>
       <c r="Q359">
@@ -30685,7 +30685,7 @@
         <v>552</v>
       </c>
       <c r="C360" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>345</v>
       </c>
       <c r="D360" s="2">
@@ -30720,7 +30720,7 @@
         <v>215</v>
       </c>
       <c r="P360" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Durfish-S</v>
       </c>
     </row>
@@ -30732,7 +30732,7 @@
         <v>553</v>
       </c>
       <c r="C361" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>485</v>
       </c>
       <c r="D361" s="2">
@@ -30767,7 +30767,7 @@
         <v>216</v>
       </c>
       <c r="P361" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Dompster-S</v>
       </c>
       <c r="Q361" t="s">
@@ -30782,7 +30782,7 @@
         <v>554</v>
       </c>
       <c r="C362" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>275</v>
       </c>
       <c r="D362" s="2">
@@ -30816,7 +30816,7 @@
         <v>217</v>
       </c>
       <c r="P362" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Wormite-S</v>
       </c>
     </row>
@@ -30828,7 +30828,7 @@
         <v>555</v>
       </c>
       <c r="C363" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>385</v>
       </c>
       <c r="D363" s="2">
@@ -30862,7 +30862,7 @@
         <v>218</v>
       </c>
       <c r="P363" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Wormbot-S</v>
       </c>
       <c r="Q363">
@@ -30877,7 +30877,7 @@
         <v>556</v>
       </c>
       <c r="C364" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>520</v>
       </c>
       <c r="D364" s="2">
@@ -30911,7 +30911,7 @@
         <v>219</v>
       </c>
       <c r="P364" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Wormatron-S</v>
       </c>
       <c r="Q364">
@@ -30926,7 +30926,7 @@
         <v>557</v>
       </c>
       <c r="C365" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>435</v>
       </c>
       <c r="D365" s="2">
@@ -30960,7 +30960,7 @@
         <v>220</v>
       </c>
       <c r="P365" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Cluuz-S</v>
       </c>
     </row>
@@ -30972,7 +30972,7 @@
         <v>558</v>
       </c>
       <c r="C366" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>480</v>
       </c>
       <c r="D366" s="2">
@@ -31006,7 +31006,7 @@
         <v>221</v>
       </c>
       <c r="P366" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Zurrclu-S</v>
       </c>
       <c r="Q366" t="s">
@@ -31021,7 +31021,7 @@
         <v>802</v>
       </c>
       <c r="C367" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>540</v>
       </c>
       <c r="D367" s="2">
@@ -31055,7 +31055,7 @@
         <v>222</v>
       </c>
       <c r="P367" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Zurroaratr-S</v>
       </c>
       <c r="Q367" t="s">
@@ -31070,7 +31070,7 @@
         <v>559</v>
       </c>
       <c r="C368" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>306</v>
       </c>
       <c r="D368" s="2">
@@ -31107,7 +31107,7 @@
         <v>223</v>
       </c>
       <c r="P368" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Iglite-S</v>
       </c>
       <c r="Q368">
@@ -31122,7 +31122,7 @@
         <v>560</v>
       </c>
       <c r="C369" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D369" s="2">
@@ -31159,7 +31159,7 @@
         <v>224</v>
       </c>
       <c r="P369" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Blaxer-S</v>
       </c>
       <c r="Q369">
@@ -31174,7 +31174,7 @@
         <v>561</v>
       </c>
       <c r="C370" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>516</v>
       </c>
       <c r="D370" s="2">
@@ -31211,7 +31211,7 @@
         <v>225</v>
       </c>
       <c r="P370" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Pyrator-S</v>
       </c>
     </row>
@@ -31223,7 +31223,7 @@
         <v>562</v>
       </c>
       <c r="C371" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
       <c r="D371" s="2">
@@ -31260,7 +31260,7 @@
         <v>226</v>
       </c>
       <c r="P371" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Ekans-S</v>
       </c>
       <c r="Q371">
@@ -31275,7 +31275,7 @@
         <v>563</v>
       </c>
       <c r="C372" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>490</v>
       </c>
       <c r="D372" s="2">
@@ -31312,7 +31312,7 @@
         <v>227</v>
       </c>
       <c r="P372" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Arbok-S</v>
       </c>
     </row>
@@ -31324,7 +31324,7 @@
         <v>564</v>
       </c>
       <c r="C373" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="D373" s="2">
@@ -31356,7 +31356,7 @@
         <v>228</v>
       </c>
       <c r="P373" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Soarwhell</v>
       </c>
       <c r="Q373" t="s">
@@ -31371,7 +31371,7 @@
         <v>86</v>
       </c>
       <c r="C374" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="D374" s="2">
@@ -31403,7 +31403,7 @@
         <v>229</v>
       </c>
       <c r="P374" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Diftery</v>
       </c>
       <c r="Q374" t="s">
@@ -31418,7 +31418,7 @@
         <v>565</v>
       </c>
       <c r="C375" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>625</v>
       </c>
       <c r="D375" s="2">
@@ -31450,7 +31450,7 @@
         <v>230</v>
       </c>
       <c r="P375" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Vorsuitex</v>
       </c>
       <c r="Q375" t="s">
@@ -31465,7 +31465,7 @@
         <v>566</v>
       </c>
       <c r="C376" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>610</v>
       </c>
       <c r="D376" s="2">
@@ -31497,7 +31497,7 @@
         <v>231</v>
       </c>
       <c r="P376" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Kleinyeti</v>
       </c>
       <c r="Q376" t="s">
@@ -31512,7 +31512,7 @@
         <v>567</v>
       </c>
       <c r="C377" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>615</v>
       </c>
       <c r="D377" s="2">
@@ -31544,7 +31544,7 @@
         <v>232</v>
       </c>
       <c r="P377" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Triwandoliz</v>
       </c>
       <c r="Q377" t="s">
@@ -31559,7 +31559,7 @@
         <v>568</v>
       </c>
       <c r="C378" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>680</v>
       </c>
       <c r="D378" s="2">
@@ -31591,7 +31591,7 @@
         <v>233</v>
       </c>
       <c r="P378" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Relomidel</v>
       </c>
       <c r="Q378" t="s">
@@ -31606,7 +31606,7 @@
         <v>569</v>
       </c>
       <c r="C379" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>680</v>
       </c>
       <c r="D379" s="2">
@@ -31638,7 +31638,7 @@
         <v>234</v>
       </c>
       <c r="P379" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Relopamil</v>
       </c>
       <c r="Q379" t="s">
@@ -31653,7 +31653,7 @@
         <v>570</v>
       </c>
       <c r="C380" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>700</v>
       </c>
       <c r="D380" s="2">
@@ -31685,7 +31685,7 @@
         <v>235</v>
       </c>
       <c r="P380" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Dragowrath</v>
       </c>
       <c r="Q380" t="s">
@@ -31700,7 +31700,7 @@
         <v>571</v>
       </c>
       <c r="C381" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>670</v>
       </c>
       <c r="D381" s="2">
@@ -31732,7 +31732,7 @@
         <v>236</v>
       </c>
       <c r="P381" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Solaroxyous</v>
       </c>
       <c r="Q381" t="s">
@@ -31747,7 +31747,7 @@
         <v>576</v>
       </c>
       <c r="C382" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>550</v>
       </c>
       <c r="D382" s="2">
@@ -31778,7 +31778,7 @@
         <v>237</v>
       </c>
       <c r="P382" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>Kissyfishy-D</v>
       </c>
     </row>
@@ -31790,7 +31790,7 @@
         <v>804</v>
       </c>
       <c r="C383" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>348</v>
       </c>
       <c r="D383" s="2">
@@ -31832,7 +31832,7 @@
         <v>805</v>
       </c>
       <c r="C384" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>488</v>
       </c>
       <c r="D384" s="2">
@@ -31874,7 +31874,7 @@
         <v>806</v>
       </c>
       <c r="C385" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>570</v>
       </c>
       <c r="D385" s="2">
@@ -31916,7 +31916,7 @@
         <v>1145</v>
       </c>
       <c r="C386" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>350</v>
       </c>
       <c r="D386" s="2">
@@ -31949,7 +31949,7 @@
         <v>1146</v>
       </c>
       <c r="C387" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>525</v>
       </c>
       <c r="D387" s="2">
@@ -31982,7 +31982,7 @@
         <v>1149</v>
       </c>
       <c r="C388" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>310</v>
       </c>
       <c r="D388" s="2">
@@ -32015,7 +32015,7 @@
         <v>1150</v>
       </c>
       <c r="C389" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D389" s="2">
@@ -32048,7 +32048,7 @@
         <v>1151</v>
       </c>
       <c r="C390" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="D390" s="2">
@@ -32081,7 +32081,7 @@
         <v>1152</v>
       </c>
       <c r="C391" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="D391" s="2">
@@ -32114,7 +32114,7 @@
         <v>1153</v>
       </c>
       <c r="C392" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>430</v>
       </c>
       <c r="D392" s="2">
@@ -32147,7 +32147,7 @@
         <v>1155</v>
       </c>
       <c r="C393" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>510</v>
       </c>
       <c r="D393" s="2">
@@ -32180,7 +32180,7 @@
         <v>1156</v>
       </c>
       <c r="C394" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>430</v>
       </c>
       <c r="D394" s="41">
@@ -32213,7 +32213,7 @@
         <v>1154</v>
       </c>
       <c r="C395" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>510</v>
       </c>
       <c r="D395" s="2">
@@ -32246,7 +32246,7 @@
         <v>1157</v>
       </c>
       <c r="C396" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
       <c r="D396" s="2">
@@ -32279,7 +32279,7 @@
         <v>1158</v>
       </c>
       <c r="C397" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>370</v>
       </c>
       <c r="D397" s="2">
@@ -32312,7 +32312,7 @@
         <v>1159</v>
       </c>
       <c r="C398" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>490</v>
       </c>
       <c r="D398" s="2">
@@ -32345,7 +32345,7 @@
         <v>1160</v>
       </c>
       <c r="C399" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J399">
@@ -32360,7 +32360,7 @@
         <v>1161</v>
       </c>
       <c r="C400" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J400">
@@ -32375,7 +32375,7 @@
         <v>1162</v>
       </c>
       <c r="C401" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J401">
@@ -32390,7 +32390,7 @@
         <v>1163</v>
       </c>
       <c r="C402" s="1">
-        <f t="shared" ref="C402:C409" si="20">SUM(D402:I402)</f>
+        <f t="shared" ref="C402:C409" si="16">SUM(D402:I402)</f>
         <v>458</v>
       </c>
       <c r="D402" s="2">
@@ -32423,7 +32423,7 @@
         <v>1164</v>
       </c>
       <c r="C403" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J403">
@@ -32438,7 +32438,7 @@
         <v>1165</v>
       </c>
       <c r="C404" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>312</v>
       </c>
       <c r="D404" s="2">
@@ -32471,7 +32471,7 @@
         <v>1166</v>
       </c>
       <c r="C405" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>487</v>
       </c>
       <c r="D405" s="2">
@@ -32504,7 +32504,7 @@
         <v>1167</v>
       </c>
       <c r="C406" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J406">
@@ -32519,7 +32519,7 @@
         <v>1168</v>
       </c>
       <c r="C407" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J407">
@@ -32534,7 +32534,7 @@
         <v>863</v>
       </c>
       <c r="C408" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -32546,7 +32546,7 @@
         <v>1169</v>
       </c>
       <c r="C409" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2B52E-A244-44D6-A7C7-94BF7A7E9C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83258CCB-F06A-4DBE-B902-93DB88FCA78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="1188">
   <si>
     <t>Leafer</t>
   </si>
@@ -3567,6 +3567,39 @@
   </si>
   <si>
     <t>Ambush</t>
+  </si>
+  <si>
+    <t>Beheeyem</t>
+  </si>
+  <si>
+    <t>Elgyem</t>
+  </si>
+  <si>
+    <t>Elgyem-E</t>
+  </si>
+  <si>
+    <t>Beheeyem-E</t>
+  </si>
+  <si>
+    <t>Genieova</t>
+  </si>
+  <si>
+    <t>Caterpie</t>
+  </si>
+  <si>
+    <t>Metapod</t>
+  </si>
+  <si>
+    <t>Butterfree</t>
+  </si>
+  <si>
+    <t>Metapod-X</t>
+  </si>
+  <si>
+    <t>Butterfree-X</t>
+  </si>
+  <si>
+    <t>Seviper-X</t>
   </si>
 </sst>
 </file>
@@ -3984,8 +4017,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J409" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="B145:J409" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J419" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="B145:J419" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{954E08A8-D138-4D6D-97C7-F47E4324725D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F9097124-9DD8-47D1-881E-F9976C72C702}" name="Total" dataCellStyle="60% - Accent4">
@@ -4357,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB176" sqref="AB176"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G415" sqref="G415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,7 +6263,7 @@
         <v>0.13569999999999999</v>
       </c>
       <c r="AC30" s="38">
-        <f>AB30*AA30</f>
+        <f t="shared" ref="AC30:AC93" si="2">AB30*AA30</f>
         <v>1.8997999999999999</v>
       </c>
       <c r="AE30">
@@ -6297,7 +6330,7 @@
         <v>0.1469</v>
       </c>
       <c r="AC31" s="38">
-        <f>AB31*AA31</f>
+        <f t="shared" si="2"/>
         <v>1.9097</v>
       </c>
       <c r="AE31">
@@ -6370,7 +6403,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="AC32" s="38">
-        <f>AB32*AA32</f>
+        <f t="shared" si="2"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="AE32">
@@ -6452,7 +6485,7 @@
         <v>0.21640000000000001</v>
       </c>
       <c r="AC33" s="38">
-        <f>AB33*AA33</f>
+        <f t="shared" si="2"/>
         <v>2.3804000000000003</v>
       </c>
       <c r="AE33">
@@ -6531,7 +6564,7 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="AC34" s="38">
-        <f>AB34*AA34</f>
+        <f t="shared" si="2"/>
         <v>3.31</v>
       </c>
       <c r="AE34">
@@ -6610,7 +6643,7 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="AC35" s="38">
-        <f>AB35*AA35</f>
+        <f t="shared" si="2"/>
         <v>1.6800000000000002</v>
       </c>
       <c r="AE35">
@@ -6689,7 +6722,7 @@
         <v>0.125</v>
       </c>
       <c r="AC36" s="38">
-        <f>AB36*AA36</f>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="AE36">
@@ -6765,7 +6798,7 @@
         <v>0.23380000000000001</v>
       </c>
       <c r="AC37" s="38">
-        <f>AB37*AA37</f>
+        <f t="shared" si="2"/>
         <v>1.8704000000000001</v>
       </c>
       <c r="AE37">
@@ -6841,7 +6874,7 @@
         <v>0.17879999999999999</v>
       </c>
       <c r="AC38" s="38">
-        <f>AB38*AA38</f>
+        <f t="shared" si="2"/>
         <v>1.4303999999999999</v>
       </c>
       <c r="AE38">
@@ -6917,7 +6950,7 @@
         <v>0.17749999999999999</v>
       </c>
       <c r="AC39" s="38">
-        <f>AB39*AA39</f>
+        <f t="shared" si="2"/>
         <v>1.42</v>
       </c>
       <c r="AE39">
@@ -6993,7 +7026,7 @@
         <v>0.1537</v>
       </c>
       <c r="AC40" s="38">
-        <f>AB40*AA40</f>
+        <f t="shared" si="2"/>
         <v>1.2296</v>
       </c>
       <c r="AE40">
@@ -7066,7 +7099,7 @@
         <v>0.1263</v>
       </c>
       <c r="AC41" s="38">
-        <f>AB41*AA41</f>
+        <f t="shared" si="2"/>
         <v>1.0104</v>
       </c>
       <c r="AE41">
@@ -7139,7 +7172,7 @@
         <v>0.20569999999999999</v>
       </c>
       <c r="AC42" s="38">
-        <f>AB42*AA42</f>
+        <f t="shared" si="2"/>
         <v>1.4399</v>
       </c>
       <c r="AE42">
@@ -7215,7 +7248,7 @@
         <v>0.1686</v>
       </c>
       <c r="AC43" s="38">
-        <f>AB43*AA43</f>
+        <f t="shared" si="2"/>
         <v>1.1801999999999999</v>
       </c>
       <c r="AE43">
@@ -7288,7 +7321,7 @@
         <v>0.60829999999999995</v>
       </c>
       <c r="AC44" s="38">
-        <f>AB44*AA44</f>
+        <f t="shared" si="2"/>
         <v>3.6497999999999999</v>
       </c>
       <c r="AE44">
@@ -7358,7 +7391,7 @@
         <v>0.2833</v>
       </c>
       <c r="AC45" s="38">
-        <f>AB45*AA45</f>
+        <f t="shared" si="2"/>
         <v>1.6998</v>
       </c>
       <c r="AE45">
@@ -7425,7 +7458,7 @@
         <v>0.21</v>
       </c>
       <c r="AC46" s="38">
-        <f>AB46*AA46</f>
+        <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
       <c r="AE46">
@@ -7492,7 +7525,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="AC47" s="38">
-        <f>AB47*AA47</f>
+        <f t="shared" si="2"/>
         <v>1.17</v>
       </c>
       <c r="AE47">
@@ -7559,7 +7592,7 @@
         <v>0.1817</v>
       </c>
       <c r="AC48" s="38">
-        <f>AB48*AA48</f>
+        <f t="shared" si="2"/>
         <v>1.0902000000000001</v>
       </c>
       <c r="AE48">
@@ -7623,7 +7656,7 @@
         <v>0.18</v>
       </c>
       <c r="AC49" s="38">
-        <f>AB49*AA49</f>
+        <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
       <c r="AE49">
@@ -7690,7 +7723,7 @@
         <v>0.16669999999999999</v>
       </c>
       <c r="AC50" s="38">
-        <f>AB50*AA50</f>
+        <f t="shared" si="2"/>
         <v>1.0002</v>
       </c>
       <c r="AE50">
@@ -7754,7 +7787,7 @@
         <v>0.125</v>
       </c>
       <c r="AC51" s="38">
-        <f>AB51*AA51</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="AE51">
@@ -7818,7 +7851,7 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="AC52" s="38">
-        <f>AB52*AA52</f>
+        <f t="shared" si="2"/>
         <v>1.51</v>
       </c>
       <c r="AE52">
@@ -7882,7 +7915,7 @@
         <v>0.252</v>
       </c>
       <c r="AC53" s="38">
-        <f>AB53*AA53</f>
+        <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
       <c r="AE53">
@@ -7970,7 +8003,7 @@
         <v>0.248</v>
       </c>
       <c r="AC54" s="38">
-        <f>AB54*AA54</f>
+        <f t="shared" si="2"/>
         <v>1.24</v>
       </c>
       <c r="AE54">
@@ -8058,7 +8091,7 @@
         <v>0.22</v>
       </c>
       <c r="AC55" s="38">
-        <f>AB55*AA55</f>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AE55">
@@ -8146,7 +8179,7 @@
         <v>0.17</v>
       </c>
       <c r="AC56" s="38">
-        <f>AB56*AA56</f>
+        <f t="shared" si="2"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AE56">
@@ -8237,7 +8270,7 @@
         <v>0.156</v>
       </c>
       <c r="AC57" s="38">
-        <f>AB57*AA57</f>
+        <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
       <c r="AE57">
@@ -8325,7 +8358,7 @@
         <v>0.13</v>
       </c>
       <c r="AC58" s="38">
-        <f>AB58*AA58</f>
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="AE58">
@@ -8413,7 +8446,7 @@
         <v>0.114</v>
       </c>
       <c r="AC59" s="38">
-        <f>AB59*AA59</f>
+        <f t="shared" si="2"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="AE59">
@@ -8504,7 +8537,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="AC60" s="38">
-        <f>AB60*AA60</f>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="AE60">
@@ -8592,7 +8625,7 @@
         <v>0.3</v>
       </c>
       <c r="AC61" s="38">
-        <f>AB61*AA61</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="AE61">
@@ -8680,7 +8713,7 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="AC62" s="38">
-        <f>AB62*AA62</f>
+        <f t="shared" si="2"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="AE62">
@@ -8768,7 +8801,7 @@
         <v>0.22</v>
       </c>
       <c r="AC63" s="38">
-        <f>AB63*AA63</f>
+        <f t="shared" si="2"/>
         <v>0.88</v>
       </c>
       <c r="AE63">
@@ -8856,7 +8889,7 @@
         <v>0.18</v>
       </c>
       <c r="AC64" s="38">
-        <f>AB64*AA64</f>
+        <f t="shared" si="2"/>
         <v>0.72</v>
       </c>
       <c r="AE64">
@@ -8944,7 +8977,7 @@
         <v>0.155</v>
       </c>
       <c r="AC65" s="38">
-        <f>AB65*AA65</f>
+        <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
       <c r="AE65">
@@ -8968,7 +9001,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C131" si="2">SUM(D66:I66)</f>
+        <f t="shared" ref="C66:C131" si="3">SUM(D66:I66)</f>
         <v>495</v>
       </c>
       <c r="D66" s="2">
@@ -9032,7 +9065,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC66" s="38">
-        <f>AB66*AA66</f>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="AE66">
@@ -9056,7 +9089,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="D67" s="2">
@@ -9120,7 +9153,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC67" s="38">
-        <f>AB67*AA67</f>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="AE67">
@@ -9144,7 +9177,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="D68" s="2">
@@ -9208,7 +9241,7 @@
         <v>0.125</v>
       </c>
       <c r="AC68" s="38">
-        <f>AB68*AA68</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AE68">
@@ -9232,7 +9265,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>505</v>
       </c>
       <c r="D69" s="2">
@@ -9296,7 +9329,7 @@
         <v>0.1225</v>
       </c>
       <c r="AC69" s="38">
-        <f>AB69*AA69</f>
+        <f t="shared" si="2"/>
         <v>0.49</v>
       </c>
       <c r="AE69">
@@ -9320,7 +9353,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>525</v>
       </c>
       <c r="D70" s="2">
@@ -9384,7 +9417,7 @@
         <v>0.115</v>
       </c>
       <c r="AC70" s="38">
-        <f>AB70*AA70</f>
+        <f t="shared" si="2"/>
         <v>0.46</v>
       </c>
       <c r="AE70">
@@ -9408,7 +9441,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="D71" s="2">
@@ -9472,7 +9505,7 @@
         <v>0.11</v>
       </c>
       <c r="AC71" s="38">
-        <f>AB71*AA71</f>
+        <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
       <c r="AE71">
@@ -9496,7 +9529,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>412</v>
       </c>
       <c r="D72" s="2">
@@ -9560,7 +9593,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="AC72" s="38">
-        <f>AB72*AA72</f>
+        <f t="shared" si="2"/>
         <v>0.34</v>
       </c>
       <c r="AE72">
@@ -9584,7 +9617,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>510</v>
       </c>
       <c r="D73" s="2">
@@ -9648,7 +9681,7 @@
         <v>0.26669999999999999</v>
       </c>
       <c r="AC73" s="38">
-        <f>AB73*AA73</f>
+        <f t="shared" si="2"/>
         <v>0.80010000000000003</v>
       </c>
       <c r="AE73">
@@ -9672,7 +9705,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="D74" s="2">
@@ -9736,7 +9769,7 @@
         <v>0.23330000000000001</v>
       </c>
       <c r="AC74" s="38">
-        <f>AB74*AA74</f>
+        <f t="shared" si="2"/>
         <v>0.69989999999999997</v>
       </c>
       <c r="AE74">
@@ -9760,7 +9793,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="D75" s="2">
@@ -9831,7 +9864,7 @@
         <v>0.2233</v>
       </c>
       <c r="AC75" s="38">
-        <f>AB75*AA75</f>
+        <f t="shared" si="2"/>
         <v>0.66989999999999994</v>
       </c>
       <c r="AE75">
@@ -9855,7 +9888,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D76" s="2">
@@ -9895,7 +9928,7 @@
         <v>0.21</v>
       </c>
       <c r="AC76" s="38">
-        <f>AB76*AA76</f>
+        <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
       <c r="AE76">
@@ -9919,7 +9952,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="D77" s="2">
@@ -9959,7 +9992,7 @@
         <v>0.20669999999999999</v>
       </c>
       <c r="AC77" s="38">
-        <f>AB77*AA77</f>
+        <f t="shared" si="2"/>
         <v>0.62009999999999998</v>
       </c>
       <c r="AE77">
@@ -9983,7 +10016,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>460</v>
       </c>
       <c r="D78" s="2">
@@ -10023,7 +10056,7 @@
         <v>0.2</v>
       </c>
       <c r="AC78" s="38">
-        <f>AB78*AA78</f>
+        <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AE78">
@@ -10047,7 +10080,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>560</v>
       </c>
       <c r="D79" s="2">
@@ -10087,7 +10120,7 @@
         <v>0.18329999999999999</v>
       </c>
       <c r="AC79" s="38">
-        <f>AB79*AA79</f>
+        <f t="shared" si="2"/>
         <v>0.54989999999999994</v>
       </c>
       <c r="AE79">
@@ -10111,7 +10144,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>407</v>
       </c>
       <c r="D80" s="2">
@@ -10151,7 +10184,7 @@
         <v>0.16669999999999999</v>
       </c>
       <c r="AC80" s="38">
-        <f>AB80*AA80</f>
+        <f t="shared" si="2"/>
         <v>0.50009999999999999</v>
       </c>
       <c r="AE80">
@@ -10175,7 +10208,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>482</v>
       </c>
       <c r="D81" s="2">
@@ -10215,7 +10248,7 @@
         <v>0.16</v>
       </c>
       <c r="AC81" s="38">
-        <f>AB81*AA81</f>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="AE81">
@@ -10239,7 +10272,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="D82" s="2">
@@ -10279,7 +10312,7 @@
         <v>0.15670000000000001</v>
       </c>
       <c r="AC82" s="38">
-        <f>AB82*AA82</f>
+        <f t="shared" si="2"/>
         <v>0.47010000000000002</v>
       </c>
       <c r="AE82">
@@ -10303,7 +10336,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>485</v>
       </c>
       <c r="D83" s="2">
@@ -10343,7 +10376,7 @@
         <v>0.15329999999999999</v>
       </c>
       <c r="AC83" s="38">
-        <f>AB83*AA83</f>
+        <f t="shared" si="2"/>
         <v>0.45989999999999998</v>
       </c>
       <c r="AE83">
@@ -10367,7 +10400,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>396</v>
       </c>
       <c r="D84" s="2">
@@ -10407,7 +10440,7 @@
         <v>0.15329999999999999</v>
       </c>
       <c r="AC84" s="38">
-        <f>AB84*AA84</f>
+        <f t="shared" si="2"/>
         <v>0.45989999999999998</v>
       </c>
       <c r="AE84">
@@ -10431,7 +10464,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>483</v>
       </c>
       <c r="D85" s="2">
@@ -10474,7 +10507,7 @@
         <v>0.15</v>
       </c>
       <c r="AC85" s="38">
-        <f>AB85*AA85</f>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="AE85">
@@ -10498,7 +10531,7 @@
         <v>171</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>381</v>
       </c>
       <c r="D86" s="2">
@@ -10538,7 +10571,7 @@
         <v>0.1467</v>
       </c>
       <c r="AC86" s="38">
-        <f>AB86*AA86</f>
+        <f t="shared" si="2"/>
         <v>0.44009999999999999</v>
       </c>
       <c r="AE86">
@@ -10562,7 +10595,7 @@
         <v>172</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>545</v>
       </c>
       <c r="D87" s="2">
@@ -10602,7 +10635,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AC87" s="38">
-        <f>AB87*AA87</f>
+        <f t="shared" si="2"/>
         <v>0.42000000000000004</v>
       </c>
       <c r="AE87">
@@ -10626,7 +10659,7 @@
         <v>83</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="D88" s="2">
@@ -10666,7 +10699,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AC88" s="38">
-        <f>AB88*AA88</f>
+        <f t="shared" si="2"/>
         <v>0.42000000000000004</v>
       </c>
       <c r="AE88">
@@ -10690,7 +10723,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>365</v>
       </c>
       <c r="D89" s="2">
@@ -10730,7 +10763,7 @@
         <v>0.1333</v>
       </c>
       <c r="AC89" s="38">
-        <f>AB89*AA89</f>
+        <f t="shared" si="2"/>
         <v>0.39990000000000003</v>
       </c>
       <c r="AE89">
@@ -10754,7 +10787,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>505</v>
       </c>
       <c r="D90" s="2">
@@ -10794,7 +10827,7 @@
         <v>0.12330000000000001</v>
       </c>
       <c r="AC90" s="38">
-        <f>AB90*AA90</f>
+        <f t="shared" si="2"/>
         <v>0.36990000000000001</v>
       </c>
       <c r="AE90">
@@ -10818,7 +10851,7 @@
         <v>86</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="D91" s="2">
@@ -10858,7 +10891,7 @@
         <v>0.12330000000000001</v>
       </c>
       <c r="AC91" s="38">
-        <f>AB91*AA91</f>
+        <f t="shared" si="2"/>
         <v>0.36990000000000001</v>
       </c>
       <c r="AE91">
@@ -10882,7 +10915,7 @@
         <v>87</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>425</v>
       </c>
       <c r="D92" s="2">
@@ -10922,7 +10955,7 @@
         <v>0.12</v>
       </c>
       <c r="AC92" s="38">
-        <f>AB92*AA92</f>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="AE92">
@@ -10946,7 +10979,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>425</v>
       </c>
       <c r="D93" s="2">
@@ -10986,7 +11019,7 @@
         <v>0.1167</v>
       </c>
       <c r="AC93" s="38">
-        <f>AB93*AA93</f>
+        <f t="shared" si="2"/>
         <v>0.35009999999999997</v>
       </c>
       <c r="AE93">
@@ -11010,7 +11043,7 @@
         <v>89</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>510</v>
       </c>
       <c r="D94" s="2">
@@ -11050,7 +11083,7 @@
         <v>0.1133</v>
       </c>
       <c r="AC94" s="38">
-        <f>AB94*AA94</f>
+        <f t="shared" ref="AC94:AC157" si="4">AB94*AA94</f>
         <v>0.33989999999999998</v>
       </c>
       <c r="AE94">
@@ -11074,7 +11107,7 @@
         <v>90</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>316</v>
       </c>
       <c r="D95" s="2">
@@ -11114,7 +11147,7 @@
         <v>0.1067</v>
       </c>
       <c r="AC95" s="38">
-        <f>AB95*AA95</f>
+        <f t="shared" si="4"/>
         <v>0.3201</v>
       </c>
       <c r="AE95">
@@ -11138,7 +11171,7 @@
         <v>91</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>490</v>
       </c>
       <c r="D96" s="2">
@@ -11178,7 +11211,7 @@
         <v>0.1033</v>
       </c>
       <c r="AC96" s="38">
-        <f>AB96*AA96</f>
+        <f t="shared" si="4"/>
         <v>0.30990000000000001</v>
       </c>
       <c r="AE96">
@@ -11202,7 +11235,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="D97" s="2">
@@ -11242,7 +11275,7 @@
         <v>0.09</v>
       </c>
       <c r="AC97" s="38">
-        <f>AB97*AA97</f>
+        <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
       <c r="AE97">
@@ -11266,7 +11299,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
       <c r="D98" s="2">
@@ -11306,7 +11339,7 @@
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="AC98" s="38">
-        <f>AB98*AA98</f>
+        <f t="shared" si="4"/>
         <v>0.24990000000000001</v>
       </c>
       <c r="AE98">
@@ -11330,7 +11363,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>530</v>
       </c>
       <c r="D99" s="2">
@@ -11370,7 +11403,7 @@
         <v>7.6700000000000004E-2</v>
       </c>
       <c r="AC99" s="38">
-        <f>AB99*AA99</f>
+        <f t="shared" si="4"/>
         <v>0.23010000000000003</v>
       </c>
       <c r="AE99">
@@ -11394,7 +11427,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="D100" s="2">
@@ -11434,7 +11467,7 @@
         <v>0.45</v>
       </c>
       <c r="AC100" s="38">
-        <f>AB100*AA100</f>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="AE100">
@@ -11458,7 +11491,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="D101" s="2">
@@ -11498,7 +11531,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="AC101" s="38">
-        <f>AB101*AA101</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="AE101">
@@ -11522,7 +11555,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="D102" s="2">
@@ -11562,7 +11595,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="AC102" s="38">
-        <f>AB102*AA102</f>
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AE102">
@@ -11629,7 +11662,7 @@
         <v>0.25</v>
       </c>
       <c r="AC103" s="38">
-        <f>AB103*AA103</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AE103">
@@ -11693,7 +11726,7 @@
         <v>0.25</v>
       </c>
       <c r="AC104" s="38">
-        <f>AB104*AA104</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AE104">
@@ -11717,7 +11750,7 @@
         <v>133</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>570</v>
       </c>
       <c r="D105" s="2">
@@ -11757,7 +11790,7 @@
         <v>0.25</v>
       </c>
       <c r="AC105" s="38">
-        <f>AB105*AA105</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AE105">
@@ -11781,7 +11814,7 @@
         <v>98</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="D106" s="2">
@@ -11821,7 +11854,7 @@
         <v>0.25</v>
       </c>
       <c r="AC106" s="38">
-        <f>AB106*AA106</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AE106">
@@ -11845,7 +11878,7 @@
         <v>99</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>335</v>
       </c>
       <c r="D107" s="2">
@@ -11885,7 +11918,7 @@
         <v>0.2</v>
       </c>
       <c r="AC107" s="38">
-        <f>AB107*AA107</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="AE107">
@@ -11909,7 +11942,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>505</v>
       </c>
       <c r="D108" s="2">
@@ -11949,7 +11982,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="AC108" s="38">
-        <f>AB108*AA108</f>
+        <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
       <c r="AE108">
@@ -11973,7 +12006,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>390</v>
       </c>
       <c r="D109" s="2">
@@ -12013,7 +12046,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="AC109" s="38">
-        <f>AB109*AA109</f>
+        <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
       <c r="AE109">
@@ -12037,7 +12070,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>455</v>
       </c>
       <c r="D110" s="2">
@@ -12077,7 +12110,7 @@
         <v>0.17</v>
       </c>
       <c r="AC110" s="38">
-        <f>AB110*AA110</f>
+        <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
       <c r="AE110">
@@ -12101,7 +12134,7 @@
         <v>103</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="D111" s="2">
@@ -12141,7 +12174,7 @@
         <v>0.17</v>
       </c>
       <c r="AC111" s="38">
-        <f>AB111*AA111</f>
+        <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
       <c r="AE111">
@@ -12165,7 +12198,7 @@
         <v>104</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="D112" s="2">
@@ -12205,7 +12238,7 @@
         <v>0.17</v>
       </c>
       <c r="AC112" s="38">
-        <f>AB112*AA112</f>
+        <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
       <c r="AE112">
@@ -12229,7 +12262,7 @@
         <v>105</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D113" s="2">
@@ -12269,7 +12302,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="AC113" s="38">
-        <f>AB113*AA113</f>
+        <f t="shared" si="4"/>
         <v>0.33</v>
       </c>
       <c r="AE113">
@@ -12293,7 +12326,7 @@
         <v>106</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D114" s="2">
@@ -12333,7 +12366,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="AC114" s="38">
-        <f>AB114*AA114</f>
+        <f t="shared" si="4"/>
         <v>0.33</v>
       </c>
       <c r="AE114">
@@ -12357,7 +12390,7 @@
         <v>107</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D115" s="2">
@@ -12397,7 +12430,7 @@
         <v>0.16</v>
       </c>
       <c r="AC115" s="38">
-        <f>AB115*AA115</f>
+        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="AE115">
@@ -12421,7 +12454,7 @@
         <v>108</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D116" s="2">
@@ -12461,7 +12494,7 @@
         <v>0.15</v>
       </c>
       <c r="AC116" s="38">
-        <f>AB116*AA116</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="AE116">
@@ -12485,7 +12518,7 @@
         <v>109</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D117" s="2">
@@ -12525,7 +12558,7 @@
         <v>0.15</v>
       </c>
       <c r="AC117" s="38">
-        <f>AB117*AA117</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="AE117">
@@ -12549,7 +12582,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D118" s="2">
@@ -12589,7 +12622,7 @@
         <v>0.15</v>
       </c>
       <c r="AC118" s="38">
-        <f>AB118*AA118</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="AE118">
@@ -12613,7 +12646,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D119" s="2">
@@ -12653,7 +12686,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AC119" s="38">
-        <f>AB119*AA119</f>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AE119">
@@ -12677,7 +12710,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D120" s="2">
@@ -12717,7 +12750,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC120" s="38">
-        <f>AB120*AA120</f>
+        <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
       <c r="AE120">
@@ -12741,7 +12774,7 @@
         <v>113</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D121" s="2">
@@ -12781,7 +12814,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC121" s="38">
-        <f>AB121*AA121</f>
+        <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
       <c r="AE121">
@@ -12805,7 +12838,7 @@
         <v>114</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D122" s="2">
@@ -12845,7 +12878,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC122" s="38">
-        <f>AB122*AA122</f>
+        <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
       <c r="AE122">
@@ -12869,7 +12902,7 @@
         <v>115</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="D123" s="2">
@@ -12909,7 +12942,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="AC123" s="38">
-        <f>AB123*AA123</f>
+        <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
       <c r="AE123">
@@ -12933,7 +12966,7 @@
         <v>116</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="D124" s="2">
@@ -12973,7 +13006,7 @@
         <v>0.13</v>
       </c>
       <c r="AC124" s="38">
-        <f>AB124*AA124</f>
+        <f t="shared" si="4"/>
         <v>0.26</v>
       </c>
       <c r="AE124">
@@ -12997,7 +13030,7 @@
         <v>117</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="D125" s="2">
@@ -13037,7 +13070,7 @@
         <v>0.125</v>
       </c>
       <c r="AC125" s="38">
-        <f>AB125*AA125</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="AE125">
@@ -13061,7 +13094,7 @@
         <v>118</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>526</v>
       </c>
       <c r="D126" s="2">
@@ -13101,7 +13134,7 @@
         <v>0.125</v>
       </c>
       <c r="AC126" s="38">
-        <f>AB126*AA126</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="AE126">
@@ -13125,7 +13158,7 @@
         <v>119</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>331</v>
       </c>
       <c r="D127" s="2">
@@ -13165,7 +13198,7 @@
         <v>0.12</v>
       </c>
       <c r="AC127" s="38">
-        <f>AB127*AA127</f>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="AE127">
@@ -13189,7 +13222,7 @@
         <v>120</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>410</v>
       </c>
       <c r="D128" s="2">
@@ -13229,7 +13262,7 @@
         <v>0.12</v>
       </c>
       <c r="AC128" s="38">
-        <f>AB128*AA128</f>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="AE128">
@@ -13253,7 +13286,7 @@
         <v>121</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>515</v>
       </c>
       <c r="D129" s="2">
@@ -13293,7 +13326,7 @@
         <v>0.12</v>
       </c>
       <c r="AC129" s="38">
-        <f>AB129*AA129</f>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="AE129">
@@ -13317,7 +13350,7 @@
         <v>122</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>335</v>
       </c>
       <c r="D130" s="2">
@@ -13357,7 +13390,7 @@
         <v>0.115</v>
       </c>
       <c r="AC130" s="38">
-        <f>AB130*AA130</f>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="AE130">
@@ -13381,7 +13414,7 @@
         <v>123</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>422</v>
       </c>
       <c r="D131" s="2">
@@ -13421,7 +13454,7 @@
         <v>0.1</v>
       </c>
       <c r="AC131" s="38">
-        <f>AB131*AA131</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AE131">
@@ -13445,7 +13478,7 @@
         <v>124</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" ref="C132:C140" si="3">SUM(D132:I132)</f>
+        <f t="shared" ref="C132:C140" si="5">SUM(D132:I132)</f>
         <v>514</v>
       </c>
       <c r="D132" s="2">
@@ -13485,7 +13518,7 @@
         <v>0.1</v>
       </c>
       <c r="AC132" s="38">
-        <f>AB132*AA132</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AE132">
@@ -13509,7 +13542,7 @@
         <v>125</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>650</v>
       </c>
       <c r="D133" s="2">
@@ -13549,7 +13582,7 @@
         <v>0.1</v>
       </c>
       <c r="AC133" s="38">
-        <f>AB133*AA133</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AE133">
@@ -13573,7 +13606,7 @@
         <v>126</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>650</v>
       </c>
       <c r="D134" s="2">
@@ -13613,7 +13646,7 @@
         <v>0.09</v>
       </c>
       <c r="AC134" s="38">
-        <f>AB134*AA134</f>
+        <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
       <c r="AE134">
@@ -13637,7 +13670,7 @@
         <v>127</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="D135" s="2">
@@ -13677,7 +13710,7 @@
         <v>0.09</v>
       </c>
       <c r="AC135" s="38">
-        <f>AB135*AA135</f>
+        <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
       <c r="AE135">
@@ -13701,7 +13734,7 @@
         <v>128</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="D136" s="2">
@@ -13741,7 +13774,7 @@
         <v>0.08</v>
       </c>
       <c r="AC136" s="38">
-        <f>AB136*AA136</f>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="AE136">
@@ -13765,7 +13798,7 @@
         <v>129</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="D137" s="2">
@@ -13805,7 +13838,7 @@
         <v>0.08</v>
       </c>
       <c r="AC137" s="38">
-        <f>AB137*AA137</f>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="AE137">
@@ -13829,7 +13862,7 @@
         <v>130</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>610</v>
       </c>
       <c r="D138" s="2">
@@ -13872,7 +13905,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="AC138" s="38">
-        <f>AB138*AA138</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE138">
@@ -13896,7 +13929,7 @@
         <v>131</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>610</v>
       </c>
       <c r="D139" s="2">
@@ -13936,7 +13969,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="AC139" s="38">
-        <f>AB139*AA139</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE139">
@@ -13960,7 +13993,7 @@
         <v>132</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>620</v>
       </c>
       <c r="D140" s="2">
@@ -14000,7 +14033,7 @@
         <v>1</v>
       </c>
       <c r="AC140" s="38">
-        <f>AB140*AA140</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE140">
@@ -14028,31 +14061,31 @@
         <v>350</v>
       </c>
       <c r="D141" s="2">
-        <f t="shared" ref="D141:J141" si="4">D59</f>
+        <f t="shared" ref="D141:J141" si="6">D59</f>
         <v>55</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="I141" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="J141" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="W141" t="s">
@@ -14071,7 +14104,7 @@
         <v>0.3</v>
       </c>
       <c r="AC141" s="38">
-        <f>AB141*AA141</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="AE141">
@@ -14095,35 +14128,35 @@
         <v>165</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" ref="C142:J142" si="5">C59</f>
+        <f t="shared" ref="C142:J142" si="7">C59</f>
         <v>350</v>
       </c>
       <c r="D142" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="E142" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="F142" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="I142" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J142" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="W142" s="12" t="s">
@@ -14145,7 +14178,7 @@
         <v>0.25</v>
       </c>
       <c r="AC142" s="38">
-        <f>AB142*AA142</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="AE142">
@@ -14173,31 +14206,31 @@
         <v>500</v>
       </c>
       <c r="D143" s="2">
-        <f t="shared" ref="D143:J143" si="6">D60</f>
+        <f t="shared" ref="D143:J143" si="8">D60</f>
         <v>105</v>
       </c>
       <c r="E143" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="F143" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="H143" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="I143" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="J143" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="W143" t="s">
@@ -14216,7 +14249,7 @@
         <v>0.25</v>
       </c>
       <c r="AC143" s="38">
-        <f>AB143*AA143</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="AE143">
@@ -14244,31 +14277,31 @@
         <v>500</v>
       </c>
       <c r="D144" s="2">
-        <f t="shared" ref="D144:J144" si="7">D60</f>
+        <f t="shared" ref="D144:J144" si="9">D60</f>
         <v>105</v>
       </c>
       <c r="E144" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="F144" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="I144" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="J144" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
       <c r="S144">
@@ -14296,7 +14329,7 @@
         <v>0.22</v>
       </c>
       <c r="AC144" s="38">
-        <f>AB144*AA144</f>
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="AE144">
@@ -14366,7 +14399,7 @@
         <v>0.2</v>
       </c>
       <c r="AC145" s="38">
-        <f>AB145*AA145</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AE145">
@@ -14390,7 +14423,7 @@
         <v>389</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" ref="C146:C209" si="8">SUM(D146:I146)</f>
+        <f t="shared" ref="C146:C209" si="10">SUM(D146:I146)</f>
         <v>335</v>
       </c>
       <c r="D146" s="2">
@@ -14430,7 +14463,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="str">
-        <f t="shared" ref="P146:P209" si="9">B146</f>
+        <f t="shared" ref="P146:P209" si="11">B146</f>
         <v>Twigle</v>
       </c>
       <c r="Q146">
@@ -14461,7 +14494,7 @@
         <v>0.2</v>
       </c>
       <c r="AC146" s="38">
-        <f>AB146*AA146</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AE146">
@@ -14485,7 +14518,7 @@
         <v>390</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>402</v>
       </c>
       <c r="D147" s="2">
@@ -14525,7 +14558,7 @@
         <v>2</v>
       </c>
       <c r="P147" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Torgged</v>
       </c>
       <c r="Q147">
@@ -14556,7 +14589,7 @@
         <v>0.2</v>
       </c>
       <c r="AC147" s="38">
-        <f>AB147*AA147</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AE147">
@@ -14580,7 +14613,7 @@
         <v>391</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>517</v>
       </c>
       <c r="D148" s="2">
@@ -14620,7 +14653,7 @@
         <v>3</v>
       </c>
       <c r="P148" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Tortugis</v>
       </c>
       <c r="S148">
@@ -14648,7 +14681,7 @@
         <v>0.2</v>
       </c>
       <c r="AC148" s="38">
-        <f>AB148*AA148</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AE148">
@@ -14672,7 +14705,7 @@
         <v>392</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>329</v>
       </c>
       <c r="D149" s="2">
@@ -14712,7 +14745,7 @@
         <v>4</v>
       </c>
       <c r="P149" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Lagma</v>
       </c>
       <c r="Q149">
@@ -14743,7 +14776,7 @@
         <v>0.16</v>
       </c>
       <c r="AC149" s="38">
-        <f>AB149*AA149</f>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="AE149">
@@ -14767,7 +14800,7 @@
         <v>393</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>399</v>
       </c>
       <c r="D150" s="2">
@@ -14807,7 +14840,7 @@
         <v>5</v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Maguide</v>
       </c>
       <c r="Q150">
@@ -14838,7 +14871,7 @@
         <v>0.16</v>
       </c>
       <c r="AC150" s="38">
-        <f>AB150*AA150</f>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="AE150">
@@ -14862,7 +14895,7 @@
         <v>394</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>521</v>
       </c>
       <c r="D151" s="2">
@@ -14902,7 +14935,7 @@
         <v>6</v>
       </c>
       <c r="P151" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Magron</v>
       </c>
       <c r="S151">
@@ -14930,7 +14963,7 @@
         <v>0.15</v>
       </c>
       <c r="AC151" s="38">
-        <f>AB151*AA151</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="AE151">
@@ -14954,7 +14987,7 @@
         <v>395</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>325</v>
       </c>
       <c r="D152" s="2">
@@ -14994,7 +15027,7 @@
         <v>7</v>
       </c>
       <c r="P152" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Lizish</v>
       </c>
       <c r="Q152">
@@ -15028,7 +15061,7 @@
         <v>0.15</v>
       </c>
       <c r="AC152" s="38">
-        <f>AB152*AA152</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="AE152">
@@ -15052,7 +15085,7 @@
         <v>396</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D153" s="2">
@@ -15092,7 +15125,7 @@
         <v>8</v>
       </c>
       <c r="P153" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Iguaton</v>
       </c>
       <c r="Q153">
@@ -15123,7 +15156,7 @@
         <v>0.15</v>
       </c>
       <c r="AC153" s="38">
-        <f>AB153*AA153</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="AE153">
@@ -15147,7 +15180,7 @@
         <v>397</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>530</v>
       </c>
       <c r="D154" s="2">
@@ -15187,7 +15220,7 @@
         <v>9</v>
       </c>
       <c r="P154" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Dragave</v>
       </c>
       <c r="S154">
@@ -15215,7 +15248,7 @@
         <v>0.15</v>
       </c>
       <c r="AC154" s="38">
-        <f>AB154*AA154</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="AE154">
@@ -15239,7 +15272,7 @@
         <v>398</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>295</v>
       </c>
       <c r="D155" s="2">
@@ -15279,7 +15312,7 @@
         <v>10</v>
       </c>
       <c r="P155" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Hummingspark</v>
       </c>
       <c r="Q155">
@@ -15310,7 +15343,7 @@
         <v>0.15</v>
       </c>
       <c r="AC155" s="38">
-        <f>AB155*AA155</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="AE155">
@@ -15334,7 +15367,7 @@
         <v>399</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="D156" s="2">
@@ -15374,7 +15407,7 @@
         <v>11</v>
       </c>
       <c r="P156" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Flashclaw</v>
       </c>
       <c r="Q156">
@@ -15405,7 +15438,7 @@
         <v>0.15</v>
       </c>
       <c r="AC156" s="38">
-        <f>AB156*AA156</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="AE156">
@@ -15429,7 +15462,7 @@
         <v>400</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="D157" s="2">
@@ -15469,7 +15502,7 @@
         <v>12</v>
       </c>
       <c r="P157" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Magestiflash</v>
       </c>
       <c r="S157">
@@ -15497,7 +15530,7 @@
         <v>0.13</v>
       </c>
       <c r="AC157" s="38">
-        <f>AB157*AA157</f>
+        <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
       <c r="AE157">
@@ -15521,7 +15554,7 @@
         <v>401</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>276</v>
       </c>
       <c r="D158" s="2">
@@ -15561,7 +15594,7 @@
         <v>13</v>
       </c>
       <c r="P158" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Pigo</v>
       </c>
       <c r="Q158">
@@ -15592,7 +15625,7 @@
         <v>0.12</v>
       </c>
       <c r="AC158" s="38">
-        <f>AB158*AA158</f>
+        <f t="shared" ref="AC158:AC221" si="12">AB158*AA158</f>
         <v>0.12</v>
       </c>
       <c r="AE158">
@@ -15616,7 +15649,7 @@
         <v>402</v>
       </c>
       <c r="C159" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>401</v>
       </c>
       <c r="D159" s="2">
@@ -15656,7 +15689,7 @@
         <v>14</v>
       </c>
       <c r="P159" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Pigonat</v>
       </c>
       <c r="Q159">
@@ -15687,7 +15720,7 @@
         <v>0.11</v>
       </c>
       <c r="AC159" s="38">
-        <f>AB159*AA159</f>
+        <f t="shared" si="12"/>
         <v>0.11</v>
       </c>
       <c r="AE159">
@@ -15711,7 +15744,7 @@
         <v>403</v>
       </c>
       <c r="C160" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>495</v>
       </c>
       <c r="D160" s="2">
@@ -15751,7 +15784,7 @@
         <v>15</v>
       </c>
       <c r="P160" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Pigoga</v>
       </c>
       <c r="S160">
@@ -15779,7 +15812,7 @@
         <v>0.1</v>
       </c>
       <c r="AC160" s="38">
-        <f>AB160*AA160</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AE160">
@@ -15803,7 +15836,7 @@
         <v>15</v>
       </c>
       <c r="C161" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>350</v>
       </c>
       <c r="D161" s="2">
@@ -15843,7 +15876,7 @@
         <v>16</v>
       </c>
       <c r="P161" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Hammo</v>
       </c>
       <c r="Q161" t="s">
@@ -15874,7 +15907,7 @@
         <v>0.1</v>
       </c>
       <c r="AC161" s="38">
-        <f>AB161*AA161</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AE161">
@@ -15898,7 +15931,7 @@
         <v>16</v>
       </c>
       <c r="C162" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>490</v>
       </c>
       <c r="D162" s="2">
@@ -15938,7 +15971,7 @@
         <v>17</v>
       </c>
       <c r="P162" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>HammyBoy</v>
       </c>
       <c r="Q162" t="s">
@@ -15969,7 +16002,7 @@
         <v>0.1</v>
       </c>
       <c r="AC162" s="38">
-        <f>AB162*AA162</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AE162">
@@ -15993,7 +16026,7 @@
         <v>404</v>
       </c>
       <c r="C163" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="D163" s="2">
@@ -16033,7 +16066,7 @@
         <v>18</v>
       </c>
       <c r="P163" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Hamthorno</v>
       </c>
       <c r="S163">
@@ -16064,7 +16097,7 @@
         <v>0.1</v>
       </c>
       <c r="AC163" s="38">
-        <f>AB163*AA163</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AE163">
@@ -16088,7 +16121,7 @@
         <v>405</v>
       </c>
       <c r="C164" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>330</v>
       </c>
       <c r="D164" s="2">
@@ -16128,7 +16161,7 @@
         <v>19</v>
       </c>
       <c r="P164" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Sheabear</v>
       </c>
       <c r="Q164">
@@ -16159,7 +16192,7 @@
         <v>0.1</v>
       </c>
       <c r="AC164" s="38">
-        <f>AB164*AA164</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AE164">
@@ -16183,7 +16216,7 @@
         <v>406</v>
       </c>
       <c r="C165" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="D165" s="2">
@@ -16223,7 +16256,7 @@
         <v>20</v>
       </c>
       <c r="P165" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Dualbear</v>
       </c>
       <c r="Q165">
@@ -16254,7 +16287,7 @@
         <v>0.09</v>
       </c>
       <c r="AC165" s="38">
-        <f>AB165*AA165</f>
+        <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
       <c r="AE165">
@@ -16278,7 +16311,7 @@
         <v>407</v>
       </c>
       <c r="C166" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>515</v>
       </c>
       <c r="D166" s="2">
@@ -16318,7 +16351,7 @@
         <v>21</v>
       </c>
       <c r="P166" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Spacebear</v>
       </c>
       <c r="S166">
@@ -16346,7 +16379,7 @@
         <v>0.09</v>
       </c>
       <c r="AC166" s="38">
-        <f>AB166*AA166</f>
+        <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
       <c r="AE166">
@@ -16370,7 +16403,7 @@
         <v>408</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="D167" s="2">
@@ -16408,7 +16441,7 @@
         <v>22</v>
       </c>
       <c r="P167" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Bealtle</v>
       </c>
       <c r="Q167">
@@ -16439,7 +16472,7 @@
         <v>0.09</v>
       </c>
       <c r="AC167" s="38">
-        <f>AB167*AA167</f>
+        <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
       <c r="AE167">
@@ -16463,7 +16496,7 @@
         <v>409</v>
       </c>
       <c r="C168" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>375</v>
       </c>
       <c r="D168" s="2">
@@ -16501,7 +16534,7 @@
         <v>23</v>
       </c>
       <c r="P168" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Centatle</v>
       </c>
       <c r="Q168">
@@ -16532,7 +16565,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC168" s="38">
-        <f>AB168*AA168</f>
+        <f t="shared" si="12"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE168">
@@ -16556,7 +16589,7 @@
         <v>410</v>
       </c>
       <c r="C169" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>505</v>
       </c>
       <c r="D169" s="2">
@@ -16596,7 +16629,7 @@
         <v>24</v>
       </c>
       <c r="P169" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Curlatoral</v>
       </c>
       <c r="S169">
@@ -16624,7 +16657,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC169" s="38">
-        <f>AB169*AA169</f>
+        <f t="shared" si="12"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE169">
@@ -16648,7 +16681,7 @@
         <v>411</v>
       </c>
       <c r="C170" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>505</v>
       </c>
       <c r="D170" s="2">
@@ -16688,7 +16721,7 @@
         <v>25</v>
       </c>
       <c r="P170" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Millistone</v>
       </c>
       <c r="Q170" t="s">
@@ -16719,7 +16752,7 @@
         <v>0.06</v>
       </c>
       <c r="AC170" s="38">
-        <f>AB170*AA170</f>
+        <f t="shared" si="12"/>
         <v>0.06</v>
       </c>
       <c r="AE170">
@@ -16743,17 +16776,17 @@
         <v>11</v>
       </c>
       <c r="C171" s="1">
-        <f t="shared" si="8"/>
-        <v>405</v>
+        <f t="shared" si="10"/>
+        <v>375</v>
       </c>
       <c r="D171" s="2">
         <v>65</v>
       </c>
       <c r="E171" s="3">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F171" s="4">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G171" s="5">
         <v>50</v>
@@ -16765,7 +16798,7 @@
         <v>55</v>
       </c>
       <c r="J171">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="K171" t="s">
         <v>604</v>
@@ -16781,7 +16814,7 @@
         <v>26</v>
       </c>
       <c r="P171" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Sapwin</v>
       </c>
       <c r="Q171">
@@ -16812,7 +16845,7 @@
         <v>0.05</v>
       </c>
       <c r="AC171" s="38">
-        <f>AB171*AA171</f>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AE171">
@@ -16836,14 +16869,14 @@
         <v>12</v>
       </c>
       <c r="C172" s="1">
-        <f t="shared" si="8"/>
-        <v>490</v>
+        <f t="shared" si="10"/>
+        <v>475</v>
       </c>
       <c r="D172" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E172" s="3">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F172" s="4">
         <v>110</v>
@@ -16858,7 +16891,7 @@
         <v>55</v>
       </c>
       <c r="J172">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="K172" t="s">
         <v>604</v>
@@ -16874,7 +16907,7 @@
         <v>27</v>
       </c>
       <c r="P172" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Treewin</v>
       </c>
       <c r="Q172" t="s">
@@ -16902,7 +16935,7 @@
         <v>0.05</v>
       </c>
       <c r="AC172" s="38">
-        <f>AB172*AA172</f>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AE172">
@@ -16926,7 +16959,7 @@
         <v>412</v>
       </c>
       <c r="C173" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>560</v>
       </c>
       <c r="D173" s="2">
@@ -16964,7 +16997,7 @@
         <v>28</v>
       </c>
       <c r="P173" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Winagrow</v>
       </c>
       <c r="S173">
@@ -16989,7 +17022,7 @@
         <v>0.05</v>
       </c>
       <c r="AC173" s="38">
-        <f>AB173*AA173</f>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AE173">
@@ -17013,7 +17046,7 @@
         <v>413</v>
       </c>
       <c r="C174" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>280</v>
       </c>
       <c r="D174" s="2">
@@ -17053,7 +17086,7 @@
         <v>29</v>
       </c>
       <c r="P174" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Budew</v>
       </c>
       <c r="Q174" t="s">
@@ -17081,7 +17114,7 @@
         <v>0.05</v>
       </c>
       <c r="AC174" s="38">
-        <f>AB174*AA174</f>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AE174">
@@ -17105,7 +17138,7 @@
         <v>414</v>
       </c>
       <c r="C175" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D175" s="2">
@@ -17145,7 +17178,7 @@
         <v>30</v>
       </c>
       <c r="P175" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Roselia</v>
       </c>
       <c r="Q175" t="s">
@@ -17173,7 +17206,7 @@
         <v>0.05</v>
       </c>
       <c r="AC175" s="38">
-        <f>AB175*AA175</f>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AE175">
@@ -17197,7 +17230,7 @@
         <v>415</v>
       </c>
       <c r="C176" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>515</v>
       </c>
       <c r="D176" s="2">
@@ -17237,7 +17270,7 @@
         <v>31</v>
       </c>
       <c r="P176" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Roserade</v>
       </c>
       <c r="S176">
@@ -17262,7 +17295,7 @@
         <v>0.03</v>
       </c>
       <c r="AC176" s="38">
-        <f>AB176*AA176</f>
+        <f t="shared" si="12"/>
         <v>0.03</v>
       </c>
       <c r="AE176">
@@ -17286,7 +17319,7 @@
         <v>416</v>
       </c>
       <c r="C177" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>310</v>
       </c>
       <c r="D177" s="2">
@@ -17324,7 +17357,7 @@
         <v>32</v>
       </c>
       <c r="P177" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Sewaddle</v>
       </c>
       <c r="Q177">
@@ -17352,7 +17385,7 @@
         <v>0.02</v>
       </c>
       <c r="AC177" s="38">
-        <f>AB177*AA177</f>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
       <c r="AE177">
@@ -17376,7 +17409,7 @@
         <v>417</v>
       </c>
       <c r="C178" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="D178" s="2">
@@ -17414,7 +17447,7 @@
         <v>33</v>
       </c>
       <c r="P178" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Swadloon</v>
       </c>
       <c r="Q178" t="s">
@@ -17442,7 +17475,7 @@
         <v>0.02</v>
       </c>
       <c r="AC178" s="38">
-        <f>AB178*AA178</f>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
       <c r="AE178">
@@ -17466,7 +17499,7 @@
         <v>418</v>
       </c>
       <c r="C179" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="D179" s="2">
@@ -17504,7 +17537,7 @@
         <v>34</v>
       </c>
       <c r="P179" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Leavanny</v>
       </c>
       <c r="S179">
@@ -17529,7 +17562,7 @@
         <v>0.02</v>
       </c>
       <c r="AC179" s="38">
-        <f>AB179*AA179</f>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
       <c r="AE179">
@@ -17553,7 +17586,7 @@
         <v>419</v>
       </c>
       <c r="C180" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="D180" s="2">
@@ -17591,7 +17624,7 @@
         <v>35</v>
       </c>
       <c r="P180" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Grubbin</v>
       </c>
       <c r="Q180">
@@ -17619,7 +17652,7 @@
         <v>0.02</v>
       </c>
       <c r="AC180" s="38">
-        <f>AB180*AA180</f>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
       <c r="AE180">
@@ -17643,7 +17676,7 @@
         <v>420</v>
       </c>
       <c r="C181" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D181" s="2">
@@ -17681,7 +17714,7 @@
         <v>36</v>
       </c>
       <c r="P181" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Charjabug</v>
       </c>
       <c r="Q181" t="s">
@@ -17709,7 +17742,7 @@
         <v>0.01</v>
       </c>
       <c r="AC181" s="38">
-        <f>AB181*AA181</f>
+        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
       <c r="AE181">
@@ -17733,7 +17766,7 @@
         <v>421</v>
       </c>
       <c r="C182" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>512</v>
       </c>
       <c r="D182" s="2">
@@ -17771,7 +17804,7 @@
         <v>37</v>
       </c>
       <c r="P182" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Vikavolt</v>
       </c>
       <c r="S182">
@@ -17796,7 +17829,7 @@
         <v>0.01</v>
       </c>
       <c r="AC182" s="38">
-        <f>AB182*AA182</f>
+        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
       <c r="AE182">
@@ -17820,7 +17853,7 @@
         <v>422</v>
       </c>
       <c r="C183" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="D183" s="2">
@@ -17860,7 +17893,7 @@
         <v>38</v>
       </c>
       <c r="P183" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Busheep</v>
       </c>
       <c r="S183">
@@ -17885,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="AC183" s="38">
-        <f>AB183*AA183</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE183">
@@ -17909,7 +17942,7 @@
         <v>423</v>
       </c>
       <c r="C184" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>520</v>
       </c>
       <c r="D184" s="2">
@@ -17949,7 +17982,7 @@
         <v>39</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Ramant</v>
       </c>
       <c r="Q184" t="s">
@@ -17980,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="AC184" s="38">
-        <f>AB184*AA184</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE184">
@@ -18004,7 +18037,7 @@
         <v>424</v>
       </c>
       <c r="C185" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>520</v>
       </c>
       <c r="D185" s="2">
@@ -18044,7 +18077,7 @@
         <v>40</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Bushewe</v>
       </c>
       <c r="Q185" t="s">
@@ -18072,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="AC185" s="38">
-        <f>AB185*AA185</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE185">
@@ -18096,7 +18129,7 @@
         <v>47</v>
       </c>
       <c r="C186" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="D186" s="2">
@@ -18136,7 +18169,7 @@
         <v>41</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Bugik</v>
       </c>
       <c r="Q186">
@@ -18164,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="AC186" s="38">
-        <f>AB186*AA186</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE186">
@@ -18188,7 +18221,7 @@
         <v>48</v>
       </c>
       <c r="C187" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>401</v>
       </c>
       <c r="D187" s="2">
@@ -18228,7 +18261,7 @@
         <v>42</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Swordik</v>
       </c>
       <c r="Q187">
@@ -18256,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="AC187" s="38">
-        <f>AB187*AA187</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE187">
@@ -18280,7 +18313,7 @@
         <v>49</v>
       </c>
       <c r="C188" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>505</v>
       </c>
       <c r="D188" s="2">
@@ -18320,7 +18353,7 @@
         <v>43</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Ninjakik</v>
       </c>
       <c r="S188">
@@ -18345,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="AC188" s="38">
-        <f>AB188*AA188</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE188">
@@ -18369,7 +18402,7 @@
         <v>577</v>
       </c>
       <c r="C189" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="D189" s="2">
@@ -18407,7 +18440,7 @@
         <v>44</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Lotad</v>
       </c>
       <c r="Q189">
@@ -18435,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="AC189" s="38">
-        <f>AB189*AA189</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE189">
@@ -18459,7 +18492,7 @@
         <v>578</v>
       </c>
       <c r="C190" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>340</v>
       </c>
       <c r="D190" s="2">
@@ -18497,7 +18530,7 @@
         <v>45</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Lombre</v>
       </c>
       <c r="Q190" t="s">
@@ -18525,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="AC190" s="38">
-        <f>AB190*AA190</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE190">
@@ -18549,7 +18582,7 @@
         <v>579</v>
       </c>
       <c r="C191" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>480</v>
       </c>
       <c r="D191" s="2">
@@ -18587,7 +18620,7 @@
         <v>46</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Ludicolo</v>
       </c>
       <c r="W191" s="12" t="s">
@@ -18606,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="AC191" s="38">
-        <f>AB191*AA191</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE191">
@@ -18630,7 +18663,7 @@
         <v>426</v>
       </c>
       <c r="C192" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>455</v>
       </c>
       <c r="D192" s="2">
@@ -18670,7 +18703,7 @@
         <v>47</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Bluebunn</v>
       </c>
       <c r="W192" s="10" t="s">
@@ -18689,7 +18722,7 @@
         <v>0</v>
       </c>
       <c r="AC192" s="38">
-        <f>AB192*AA192</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE192">
@@ -18713,7 +18746,7 @@
         <v>17</v>
       </c>
       <c r="C193" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>325</v>
       </c>
       <c r="D193" s="2">
@@ -18753,7 +18786,7 @@
         <v>48</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Rocky</v>
       </c>
       <c r="Q193">
@@ -18775,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="AC193" s="38">
-        <f>AB193*AA193</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE193">
@@ -18799,7 +18832,7 @@
         <v>18</v>
       </c>
       <c r="C194" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>425</v>
       </c>
       <c r="D194" s="2">
@@ -18839,7 +18872,7 @@
         <v>49</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Boulder</v>
       </c>
       <c r="Q194" t="s">
@@ -18867,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="AC194" s="38">
-        <f>AB194*AA194</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE194">
@@ -18891,7 +18924,7 @@
         <v>19</v>
       </c>
       <c r="C195" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="D195" s="2">
@@ -18931,7 +18964,7 @@
         <v>50</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Blaster</v>
       </c>
       <c r="T195" t="s">
@@ -18956,7 +18989,7 @@
         <v>0</v>
       </c>
       <c r="AC195" s="38">
-        <f>AB195*AA195</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE195">
@@ -18980,7 +19013,7 @@
         <v>427</v>
       </c>
       <c r="C196" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="D196" s="2">
@@ -19020,7 +19053,7 @@
         <v>51</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Crystallor</v>
       </c>
       <c r="Q196" t="s">
@@ -19048,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="AC196" s="38">
-        <f>AB196*AA196</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE196">
@@ -19072,7 +19105,7 @@
         <v>428</v>
       </c>
       <c r="C197" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>410</v>
       </c>
       <c r="D197" s="2">
@@ -19112,7 +19145,7 @@
         <v>52</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Carinx</v>
       </c>
       <c r="Q197">
@@ -19140,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="AC197" s="38">
-        <f>AB197*AA197</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE197">
@@ -19164,7 +19197,7 @@
         <v>429</v>
       </c>
       <c r="C198" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>465</v>
       </c>
       <c r="D198" s="2">
@@ -19204,7 +19237,7 @@
         <v>53</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Carinator</v>
       </c>
       <c r="Q198" t="s">
@@ -19232,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="AC198" s="38">
-        <f>AB198*AA198</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE198">
@@ -19256,7 +19289,7 @@
         <v>430</v>
       </c>
       <c r="C199" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="D199" s="2">
@@ -19296,7 +19329,7 @@
         <v>54</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Cairnasaur</v>
       </c>
       <c r="T199" t="s">
@@ -19321,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="AC199" s="38">
-        <f>AB199*AA199</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE199">
@@ -19345,7 +19378,7 @@
         <v>431</v>
       </c>
       <c r="C200" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="D200" s="2">
@@ -19385,7 +19418,7 @@
         <v>55</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Pebblepup</v>
       </c>
       <c r="Q200">
@@ -19413,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="AC200" s="38">
-        <f>AB200*AA200</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE200">
@@ -19437,7 +19470,7 @@
         <v>432</v>
       </c>
       <c r="C201" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="D201" s="2">
@@ -19477,7 +19510,7 @@
         <v>56</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Boulderoar</v>
       </c>
       <c r="T201" t="s">
@@ -19502,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="AC201" s="38">
-        <f>AB201*AA201</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE201">
@@ -19526,7 +19559,7 @@
         <v>433</v>
       </c>
       <c r="C202" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>393</v>
       </c>
       <c r="D202" s="2">
@@ -19566,7 +19599,7 @@
         <v>57</v>
       </c>
       <c r="P202" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Fightorex</v>
       </c>
       <c r="Q202">
@@ -19591,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="AC202" s="38">
-        <f>AB202*AA202</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE202">
@@ -19615,7 +19648,7 @@
         <v>434</v>
       </c>
       <c r="C203" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>523</v>
       </c>
       <c r="D203" s="2">
@@ -19655,7 +19688,7 @@
         <v>58</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Raptorex</v>
       </c>
       <c r="T203" t="s">
@@ -19677,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="AC203" s="38">
-        <f>AB203*AA203</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE203">
@@ -19701,7 +19734,7 @@
         <v>435</v>
       </c>
       <c r="C204" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>323</v>
       </c>
       <c r="D204" s="2">
@@ -19741,7 +19774,7 @@
         <v>59</v>
       </c>
       <c r="P204" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Kleinowl</v>
       </c>
       <c r="Q204" t="s">
@@ -19766,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="AC204" s="38">
-        <f>AB204*AA204</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE204">
@@ -19790,7 +19823,7 @@
         <v>436</v>
       </c>
       <c r="C205" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>495</v>
       </c>
       <c r="D205" s="2">
@@ -19830,7 +19863,7 @@
         <v>60</v>
       </c>
       <c r="P205" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Hootowl</v>
       </c>
       <c r="T205" s="10" t="s">
@@ -19852,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="AC205" s="38">
-        <f>AB205*AA205</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE205">
@@ -19876,7 +19909,7 @@
         <v>437</v>
       </c>
       <c r="C206" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>435</v>
       </c>
       <c r="D206" s="2">
@@ -19916,7 +19949,7 @@
         <v>61</v>
       </c>
       <c r="P206" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Dualmoose</v>
       </c>
       <c r="T206" s="10" t="s">
@@ -19938,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="AC206" s="38">
-        <f>AB206*AA206</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE206">
@@ -19962,7 +19995,7 @@
         <v>438</v>
       </c>
       <c r="C207" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
       <c r="D207" s="2">
@@ -20002,7 +20035,7 @@
         <v>62</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Snom</v>
       </c>
       <c r="Q207" t="s">
@@ -20027,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="AC207" s="38">
-        <f>AB207*AA207</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE207">
@@ -20051,7 +20084,7 @@
         <v>439</v>
       </c>
       <c r="C208" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>475</v>
       </c>
       <c r="D208" s="2">
@@ -20091,7 +20124,7 @@
         <v>63</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Frosmoth</v>
       </c>
       <c r="W208" t="s">
@@ -20110,7 +20143,7 @@
         <v>0</v>
       </c>
       <c r="AC208" s="38">
-        <f>AB208*AA208</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE208">
@@ -20134,7 +20167,7 @@
         <v>440</v>
       </c>
       <c r="C209" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>395</v>
       </c>
       <c r="D209" s="2">
@@ -20172,7 +20205,7 @@
         <v>64</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Grondor</v>
       </c>
       <c r="Q209" t="s">
@@ -20194,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="AC209" s="38">
-        <f>AB209*AA209</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE209">
@@ -20218,7 +20251,7 @@
         <v>441</v>
       </c>
       <c r="C210" s="1">
-        <f t="shared" ref="C210:C273" si="10">SUM(D210:I210)</f>
+        <f t="shared" ref="C210:C273" si="13">SUM(D210:I210)</f>
         <v>485</v>
       </c>
       <c r="D210" s="2">
@@ -20256,7 +20289,7 @@
         <v>65</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" ref="P210:P273" si="11">B210</f>
+        <f t="shared" ref="P210:P273" si="14">B210</f>
         <v>Bipedice</v>
       </c>
       <c r="W210" s="10" t="s">
@@ -20275,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="AC210" s="38">
-        <f>AB210*AA210</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE210">
@@ -20299,7 +20332,7 @@
         <v>442</v>
       </c>
       <c r="C211" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>380</v>
       </c>
       <c r="D211" s="2">
@@ -20339,7 +20372,7 @@
         <v>66</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Tricerpup</v>
       </c>
       <c r="Q211">
@@ -20361,7 +20394,7 @@
         <v>0</v>
       </c>
       <c r="AC211" s="38">
-        <f>AB211*AA211</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE211">
@@ -20385,7 +20418,7 @@
         <v>443</v>
       </c>
       <c r="C212" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>538</v>
       </c>
       <c r="D212" s="2">
@@ -20425,7 +20458,7 @@
         <v>67</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Tricercil</v>
       </c>
       <c r="W212" t="s">
@@ -20444,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="AC212" s="38">
-        <f>AB212*AA212</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE212">
@@ -20468,7 +20501,7 @@
         <v>444</v>
       </c>
       <c r="C213" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="D213" s="2">
@@ -20508,7 +20541,7 @@
         <v>68</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Spheal</v>
       </c>
       <c r="Q213">
@@ -20530,7 +20563,7 @@
         <v>0</v>
       </c>
       <c r="AC213" s="38">
-        <f>AB213*AA213</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE213">
@@ -20554,7 +20587,7 @@
         <v>445</v>
       </c>
       <c r="C214" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>410</v>
       </c>
       <c r="D214" s="2">
@@ -20594,7 +20627,7 @@
         <v>69</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Sealeo</v>
       </c>
       <c r="Q214">
@@ -20616,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="AC214" s="38">
-        <f>AB214*AA214</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE214">
@@ -20640,7 +20673,7 @@
         <v>446</v>
       </c>
       <c r="C215" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>530</v>
       </c>
       <c r="D215" s="2">
@@ -20680,7 +20713,7 @@
         <v>70</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Walrein</v>
       </c>
       <c r="W215" s="10" t="s">
@@ -20699,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="AC215" s="38">
-        <f>AB215*AA215</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE215">
@@ -20723,7 +20756,7 @@
         <v>447</v>
       </c>
       <c r="C216" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="D216" s="2">
@@ -20763,7 +20796,7 @@
         <v>71</v>
       </c>
       <c r="P216" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Froshrog</v>
       </c>
       <c r="Q216">
@@ -20785,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="AC216" s="38">
-        <f>AB216*AA216</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE216">
@@ -20809,7 +20842,7 @@
         <v>448</v>
       </c>
       <c r="C217" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>525</v>
       </c>
       <c r="D217" s="2">
@@ -20849,7 +20882,7 @@
         <v>72</v>
       </c>
       <c r="P217" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Bouncerog</v>
       </c>
       <c r="W217" s="10" t="s">
@@ -20868,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="AC217" s="38">
-        <f>AB217*AA217</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE217">
@@ -20892,7 +20925,7 @@
         <v>449</v>
       </c>
       <c r="C218" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>299</v>
       </c>
       <c r="D218" s="2">
@@ -20932,7 +20965,7 @@
         <v>73</v>
       </c>
       <c r="P218" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Bugop</v>
       </c>
       <c r="Q218">
@@ -20957,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="AC218" s="38">
-        <f>AB218*AA218</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE218">
@@ -20981,7 +21014,7 @@
         <v>450</v>
       </c>
       <c r="C219" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>507</v>
       </c>
       <c r="D219" s="2">
@@ -21021,7 +21054,7 @@
         <v>74</v>
       </c>
       <c r="P219" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Opwing</v>
       </c>
       <c r="W219" s="10" t="s">
@@ -21043,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="AC219" s="38">
-        <f>AB219*AA219</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE219">
@@ -21067,7 +21100,7 @@
         <v>451</v>
       </c>
       <c r="C220" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>265</v>
       </c>
       <c r="D220" s="2">
@@ -21107,7 +21140,7 @@
         <v>75</v>
       </c>
       <c r="P220" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Hatenna</v>
       </c>
       <c r="Q220">
@@ -21129,7 +21162,7 @@
         <v>0</v>
       </c>
       <c r="AC220" s="38">
-        <f>AB220*AA220</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE220">
@@ -21153,7 +21186,7 @@
         <v>452</v>
       </c>
       <c r="C221" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>370</v>
       </c>
       <c r="D221" s="2">
@@ -21193,7 +21226,7 @@
         <v>76</v>
       </c>
       <c r="P221" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Hattrem</v>
       </c>
       <c r="Q221">
@@ -21215,7 +21248,7 @@
         <v>0</v>
       </c>
       <c r="AC221" s="38">
-        <f>AB221*AA221</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE221">
@@ -21239,7 +21272,7 @@
         <v>453</v>
       </c>
       <c r="C222" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="D222" s="2">
@@ -21279,7 +21312,7 @@
         <v>77</v>
       </c>
       <c r="P222" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Hatterene</v>
       </c>
       <c r="W222" s="10" t="s">
@@ -21298,7 +21331,7 @@
         <v>0</v>
       </c>
       <c r="AC222" s="38">
-        <f>AB222*AA222</f>
+        <f t="shared" ref="AC222:AC269" si="15">AB222*AA222</f>
         <v>0</v>
       </c>
       <c r="AE222">
@@ -21322,7 +21355,7 @@
         <v>454</v>
       </c>
       <c r="C223" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>333</v>
       </c>
       <c r="D223" s="2">
@@ -21362,7 +21395,7 @@
         <v>78</v>
       </c>
       <c r="P223" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Otterpor</v>
       </c>
       <c r="Q223">
@@ -21387,7 +21420,7 @@
         <v>0</v>
       </c>
       <c r="AC223" s="38">
-        <f>AB223*AA223</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE223">
@@ -21411,7 +21444,7 @@
         <v>455</v>
       </c>
       <c r="C224" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="D224" s="2">
@@ -21451,7 +21484,7 @@
         <v>79</v>
       </c>
       <c r="P224" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Psylotter</v>
       </c>
       <c r="W224" t="s">
@@ -21470,7 +21503,7 @@
         <v>0</v>
       </c>
       <c r="AC224" s="38">
-        <f>AB224*AA224</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE224">
@@ -21494,7 +21527,7 @@
         <v>456</v>
       </c>
       <c r="C225" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>340</v>
       </c>
       <c r="D225" s="2">
@@ -21534,7 +21567,7 @@
         <v>80</v>
       </c>
       <c r="P225" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Florline</v>
       </c>
       <c r="Q225">
@@ -21556,7 +21589,7 @@
         <v>0</v>
       </c>
       <c r="AC225" s="38">
-        <f>AB225*AA225</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE225">
@@ -21580,7 +21613,7 @@
         <v>457</v>
       </c>
       <c r="C226" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>519</v>
       </c>
       <c r="D226" s="2">
@@ -21620,7 +21653,7 @@
         <v>81</v>
       </c>
       <c r="P226" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Florlion</v>
       </c>
       <c r="W226" s="10" t="s">
@@ -21639,7 +21672,7 @@
         <v>0</v>
       </c>
       <c r="AC226" s="38">
-        <f>AB226*AA226</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE226">
@@ -21663,7 +21696,7 @@
         <v>458</v>
       </c>
       <c r="C227" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>250</v>
       </c>
       <c r="D227" s="2">
@@ -21703,7 +21736,7 @@
         <v>82</v>
       </c>
       <c r="P227" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Psycorb</v>
       </c>
       <c r="Q227">
@@ -21722,7 +21755,7 @@
         <v>0</v>
       </c>
       <c r="AC227" s="38">
-        <f>AB227*AA227</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE227">
@@ -21746,7 +21779,7 @@
         <v>459</v>
       </c>
       <c r="C228" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="D228" s="2">
@@ -21786,7 +21819,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Psyballs</v>
       </c>
       <c r="Q228">
@@ -21808,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="AC228" s="38">
-        <f>AB228*AA228</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE228">
@@ -21832,7 +21865,7 @@
         <v>460</v>
       </c>
       <c r="C229" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>550</v>
       </c>
       <c r="D229" s="2">
@@ -21872,7 +21905,7 @@
         <v>84</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Psycorbrator</v>
       </c>
       <c r="S229">
@@ -21906,7 +21939,7 @@
         <v>0</v>
       </c>
       <c r="AC229" s="38">
-        <f>AB229*AA229</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE229">
@@ -21930,7 +21963,7 @@
         <v>461</v>
       </c>
       <c r="C230" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>198</v>
       </c>
       <c r="D230" s="2">
@@ -21970,7 +22003,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Ralts</v>
       </c>
       <c r="Q230">
@@ -22001,7 +22034,7 @@
         <v>0</v>
       </c>
       <c r="AC230" s="38">
-        <f>AB230*AA230</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE230">
@@ -22025,7 +22058,7 @@
         <v>462</v>
       </c>
       <c r="C231" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>278</v>
       </c>
       <c r="D231" s="2">
@@ -22065,7 +22098,7 @@
         <v>86</v>
       </c>
       <c r="P231" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Kirlia</v>
       </c>
       <c r="Q231">
@@ -22096,7 +22129,7 @@
         <v>0</v>
       </c>
       <c r="AC231" s="38">
-        <f>AB231*AA231</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE231">
@@ -22120,7 +22153,7 @@
         <v>463</v>
       </c>
       <c r="C232" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>518</v>
       </c>
       <c r="D232" s="2">
@@ -22160,7 +22193,7 @@
         <v>87</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Gardevoir</v>
       </c>
       <c r="S232">
@@ -22188,7 +22221,7 @@
         <v>0</v>
       </c>
       <c r="AC232" s="38">
-        <f>AB232*AA232</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE232">
@@ -22212,7 +22245,7 @@
         <v>464</v>
       </c>
       <c r="C233" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>518</v>
       </c>
       <c r="D233" s="2">
@@ -22252,7 +22285,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Gallade</v>
       </c>
       <c r="Q233" t="s">
@@ -22283,7 +22316,7 @@
         <v>0</v>
       </c>
       <c r="AC233" s="38">
-        <f>AB233*AA233</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE233">
@@ -22307,7 +22340,7 @@
         <v>465</v>
       </c>
       <c r="C234" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>455</v>
       </c>
       <c r="D234" s="2">
@@ -22347,7 +22380,7 @@
         <v>89</v>
       </c>
       <c r="P234" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Tigrette</v>
       </c>
       <c r="S234">
@@ -22375,7 +22408,7 @@
         <v>0</v>
       </c>
       <c r="AC234" s="38">
-        <f>AB234*AA234</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE234">
@@ -22399,7 +22432,7 @@
         <v>466</v>
       </c>
       <c r="C235" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>288</v>
       </c>
       <c r="D235" s="2">
@@ -22439,7 +22472,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Inkay</v>
       </c>
       <c r="Q235">
@@ -22470,7 +22503,7 @@
         <v>0</v>
       </c>
       <c r="AC235" s="38">
-        <f>AB235*AA235</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE235">
@@ -22494,7 +22527,7 @@
         <v>467</v>
       </c>
       <c r="C236" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>482</v>
       </c>
       <c r="D236" s="2">
@@ -22534,7 +22567,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Malamar</v>
       </c>
       <c r="S236">
@@ -22562,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="AC236" s="38">
-        <f>AB236*AA236</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE236">
@@ -22586,7 +22619,7 @@
         <v>468</v>
       </c>
       <c r="C237" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>375</v>
       </c>
       <c r="D237" s="2">
@@ -22626,7 +22659,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Flameruff</v>
       </c>
       <c r="Q237">
@@ -22657,7 +22690,7 @@
         <v>0</v>
       </c>
       <c r="AC237" s="38">
-        <f>AB237*AA237</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE237">
@@ -22681,7 +22714,7 @@
         <v>469</v>
       </c>
       <c r="C238" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>495</v>
       </c>
       <c r="D238" s="2">
@@ -22721,7 +22754,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Barkflare</v>
       </c>
       <c r="S238">
@@ -22749,7 +22782,7 @@
         <v>0</v>
       </c>
       <c r="AC238" s="38">
-        <f>AB238*AA238</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE238">
@@ -22773,7 +22806,7 @@
         <v>470</v>
       </c>
       <c r="C239" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>306</v>
       </c>
       <c r="D239" s="2">
@@ -22813,7 +22846,7 @@
         <v>94</v>
       </c>
       <c r="P239" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Iglite</v>
       </c>
       <c r="Q239">
@@ -22844,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AC239" s="38">
-        <f>AB239*AA239</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE239">
@@ -22868,7 +22901,7 @@
         <v>471</v>
       </c>
       <c r="C240" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="D240" s="2">
@@ -22908,7 +22941,7 @@
         <v>95</v>
       </c>
       <c r="P240" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Blaxer</v>
       </c>
       <c r="Q240">
@@ -22939,7 +22972,7 @@
         <v>0</v>
       </c>
       <c r="AC240" s="38">
-        <f>AB240*AA240</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE240">
@@ -22963,7 +22996,7 @@
         <v>472</v>
       </c>
       <c r="C241" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>516</v>
       </c>
       <c r="D241" s="2">
@@ -23003,7 +23036,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Pyrator</v>
       </c>
       <c r="S241">
@@ -23031,7 +23064,7 @@
         <v>0</v>
       </c>
       <c r="AC241" s="38">
-        <f>AB241*AA241</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE241">
@@ -23055,7 +23088,7 @@
         <v>473</v>
       </c>
       <c r="C242" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>505</v>
       </c>
       <c r="D242" s="2">
@@ -23091,7 +23124,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Magmaclang</v>
       </c>
       <c r="Q242" s="14"/>
@@ -23120,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="AC242" s="38">
-        <f>AB242*AA242</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE242">
@@ -23144,7 +23177,7 @@
         <v>474</v>
       </c>
       <c r="C243" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>360</v>
       </c>
       <c r="D243" s="2">
@@ -23180,7 +23213,7 @@
         <v>98</v>
       </c>
       <c r="P243" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Flamehox</v>
       </c>
       <c r="Q243" s="14">
@@ -23211,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="AC243" s="38">
-        <f>AB243*AA243</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE243">
@@ -23235,7 +23268,7 @@
         <v>75</v>
       </c>
       <c r="C244" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>460</v>
       </c>
       <c r="D244" s="2">
@@ -23270,7 +23303,7 @@
         <v>99</v>
       </c>
       <c r="P244" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Fireshard</v>
       </c>
       <c r="Q244" s="14">
@@ -23301,7 +23334,7 @@
         <v>0</v>
       </c>
       <c r="AC244" s="38">
-        <f>AB244*AA244</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE244">
@@ -23325,7 +23358,7 @@
         <v>76</v>
       </c>
       <c r="C245" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>560</v>
       </c>
       <c r="D245" s="2">
@@ -23360,7 +23393,7 @@
         <v>100</v>
       </c>
       <c r="P245" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Blastflames</v>
       </c>
       <c r="S245">
@@ -23388,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="AC245" s="38">
-        <f>AB245*AA245</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE245">
@@ -23412,7 +23445,7 @@
         <v>475</v>
       </c>
       <c r="C246" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>330</v>
       </c>
       <c r="D246" s="2">
@@ -23449,7 +23482,7 @@
         <v>101</v>
       </c>
       <c r="P246" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Tiowoo</v>
       </c>
       <c r="Q246">
@@ -23480,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="AC246" s="38">
-        <f>AB246*AA246</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE246">
@@ -23504,7 +23537,7 @@
         <v>476</v>
       </c>
       <c r="C247" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="D247" s="2">
@@ -23541,7 +23574,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Magwoo</v>
       </c>
       <c r="Q247">
@@ -23572,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="AC247" s="38">
-        <f>AB247*AA247</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE247">
@@ -23596,7 +23629,7 @@
         <v>477</v>
       </c>
       <c r="C248" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>525</v>
       </c>
       <c r="D248" s="2">
@@ -23633,7 +23666,7 @@
         <v>103</v>
       </c>
       <c r="P248" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Lafloo</v>
       </c>
       <c r="S248">
@@ -23661,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="AC248" s="38">
-        <f>AB248*AA248</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE248">
@@ -23685,7 +23718,7 @@
         <v>478</v>
       </c>
       <c r="C249" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>330</v>
       </c>
       <c r="D249" s="2">
@@ -23725,7 +23758,7 @@
         <v>104</v>
       </c>
       <c r="P249" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Houndour</v>
       </c>
       <c r="Q249">
@@ -23756,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="AC249" s="38">
-        <f>AB249*AA249</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE249">
@@ -23780,7 +23813,7 @@
         <v>479</v>
       </c>
       <c r="C250" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="D250" s="2">
@@ -23820,7 +23853,7 @@
         <v>105</v>
       </c>
       <c r="P250" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Houndoom</v>
       </c>
       <c r="S250">
@@ -23848,7 +23881,7 @@
         <v>0</v>
       </c>
       <c r="AC250" s="38">
-        <f>AB250*AA250</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE250">
@@ -23872,7 +23905,7 @@
         <v>99</v>
       </c>
       <c r="C251" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>335</v>
       </c>
       <c r="D251" s="2">
@@ -23912,7 +23945,7 @@
         <v>106</v>
       </c>
       <c r="P251" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Sparkdust</v>
       </c>
       <c r="Q251">
@@ -23940,7 +23973,7 @@
         <v>0</v>
       </c>
       <c r="AC251" s="38">
-        <f>AB251*AA251</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE251">
@@ -23964,7 +23997,7 @@
         <v>100</v>
       </c>
       <c r="C252" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>505</v>
       </c>
       <c r="D252" s="2">
@@ -24004,7 +24037,7 @@
         <v>107</v>
       </c>
       <c r="P252" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Splame</v>
       </c>
       <c r="S252">
@@ -24029,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="AC252" s="38">
-        <f>AB252*AA252</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE252">
@@ -24053,7 +24086,7 @@
         <v>480</v>
       </c>
       <c r="C253" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="D253" s="2">
@@ -24085,7 +24118,7 @@
         <v>108</v>
       </c>
       <c r="P253" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Sparkitten</v>
       </c>
       <c r="S253">
@@ -24110,7 +24143,7 @@
         <v>0</v>
       </c>
       <c r="AC253" s="38">
-        <f>AB253*AA253</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE253">
@@ -24134,7 +24167,7 @@
         <v>481</v>
       </c>
       <c r="C254" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="D254" s="2">
@@ -24169,7 +24202,7 @@
         <v>109</v>
       </c>
       <c r="P254" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Fireblion</v>
       </c>
       <c r="Q254" t="s">
@@ -24197,7 +24230,7 @@
         <v>0</v>
       </c>
       <c r="AC254" s="38">
-        <f>AB254*AA254</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE254">
@@ -24221,7 +24254,7 @@
         <v>482</v>
       </c>
       <c r="C255" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="D255" s="2">
@@ -24256,7 +24289,7 @@
         <v>110</v>
       </c>
       <c r="P255" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Flamebless</v>
       </c>
       <c r="Q255" t="s">
@@ -24287,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="AC255" s="38">
-        <f>AB255*AA255</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE255">
@@ -24311,7 +24344,7 @@
         <v>43</v>
       </c>
       <c r="C256" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>360</v>
       </c>
       <c r="D256" s="2">
@@ -24351,7 +24384,7 @@
         <v>111</v>
       </c>
       <c r="P256" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Shookwat</v>
       </c>
       <c r="Q256">
@@ -24379,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="AC256" s="38">
-        <f>AB256*AA256</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE256">
@@ -24403,7 +24436,7 @@
         <v>44</v>
       </c>
       <c r="C257" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>475</v>
       </c>
       <c r="D257" s="2">
@@ -24443,7 +24476,7 @@
         <v>112</v>
       </c>
       <c r="P257" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Wattwo</v>
       </c>
       <c r="Q257" t="s">
@@ -24471,7 +24504,7 @@
         <v>0</v>
       </c>
       <c r="AC257" s="38">
-        <f>AB257*AA257</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE257">
@@ -24495,7 +24528,7 @@
         <v>483</v>
       </c>
       <c r="C258" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>515</v>
       </c>
       <c r="D258" s="2">
@@ -24535,7 +24568,7 @@
         <v>113</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Megawatt</v>
       </c>
       <c r="S258">
@@ -24560,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="AC258" s="38">
-        <f>AB258*AA258</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE258">
@@ -24584,7 +24617,7 @@
         <v>484</v>
       </c>
       <c r="C259" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>295</v>
       </c>
       <c r="D259" s="2">
@@ -24624,7 +24657,7 @@
         <v>114</v>
       </c>
       <c r="P259" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Elelamb</v>
       </c>
       <c r="Q259">
@@ -24652,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="AC259" s="38">
-        <f>AB259*AA259</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE259">
@@ -24676,7 +24709,7 @@
         <v>485</v>
       </c>
       <c r="C260" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>355</v>
       </c>
       <c r="D260" s="2">
@@ -24716,7 +24749,7 @@
         <v>115</v>
       </c>
       <c r="P260" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Electroram</v>
       </c>
       <c r="Q260">
@@ -24744,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="AC260" s="38">
-        <f>AB260*AA260</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE260">
@@ -24768,7 +24801,7 @@
         <v>486</v>
       </c>
       <c r="C261" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>520</v>
       </c>
       <c r="D261" s="2">
@@ -24808,7 +24841,7 @@
         <v>116</v>
       </c>
       <c r="P261" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Superchargo</v>
       </c>
       <c r="S261">
@@ -24833,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="AC261" s="38">
-        <f>AB261*AA261</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE261">
@@ -24857,7 +24890,7 @@
         <v>487</v>
       </c>
       <c r="C262" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="D262" s="2">
@@ -24897,7 +24930,7 @@
         <v>117</v>
       </c>
       <c r="P262" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Twigzap</v>
       </c>
       <c r="Q262">
@@ -24925,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="AC262" s="38">
-        <f>AB262*AA262</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE262">
@@ -24949,7 +24982,7 @@
         <v>488</v>
       </c>
       <c r="C263" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>395</v>
       </c>
       <c r="D263" s="2">
@@ -24989,7 +25022,7 @@
         <v>118</v>
       </c>
       <c r="P263" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Shockbranch</v>
       </c>
       <c r="Q263" t="s">
@@ -25017,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="AC263" s="38">
-        <f>AB263*AA263</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE263">
@@ -25041,7 +25074,7 @@
         <v>489</v>
       </c>
       <c r="C264" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="D264" s="2">
@@ -25078,7 +25111,7 @@
         <v>119</v>
       </c>
       <c r="P264" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Thunderzap</v>
       </c>
       <c r="S264">
@@ -25109,7 +25142,7 @@
         <v>0</v>
       </c>
       <c r="AC264" s="38">
-        <f>AB264*AA264</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE264">
@@ -25133,7 +25166,7 @@
         <v>90</v>
       </c>
       <c r="C265" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>316</v>
       </c>
       <c r="D265" s="2">
@@ -25168,7 +25201,7 @@
         <v>120</v>
       </c>
       <c r="P265" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Magie</v>
       </c>
       <c r="Q265">
@@ -25202,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="AC265" s="38">
-        <f>AB265*AA265</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE265">
@@ -25226,7 +25259,7 @@
         <v>91</v>
       </c>
       <c r="C266" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>490</v>
       </c>
       <c r="D266" s="2">
@@ -25261,7 +25294,7 @@
         <v>121</v>
       </c>
       <c r="P266" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Cumin</v>
       </c>
       <c r="Q266" t="s">
@@ -25295,7 +25328,7 @@
         <v>0</v>
       </c>
       <c r="AC266" s="38">
-        <f>AB266*AA266</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE266">
@@ -25319,7 +25352,7 @@
         <v>580</v>
       </c>
       <c r="C267" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>530</v>
       </c>
       <c r="D267" s="2">
@@ -25354,7 +25387,7 @@
         <v>122</v>
       </c>
       <c r="P267" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Cinneroph</v>
       </c>
       <c r="S267">
@@ -25385,7 +25418,7 @@
         <v>0</v>
       </c>
       <c r="AC267" s="38">
-        <f>AB267*AA267</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE267">
@@ -25409,7 +25442,7 @@
         <v>490</v>
       </c>
       <c r="C268" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>235</v>
       </c>
       <c r="D268" s="2">
@@ -25444,7 +25477,7 @@
         <v>123</v>
       </c>
       <c r="P268" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Vupp</v>
       </c>
       <c r="Q268">
@@ -25475,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="AC268" s="38">
-        <f>AB268*AA268</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE268">
@@ -25499,7 +25532,7 @@
         <v>42</v>
       </c>
       <c r="C269" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>490</v>
       </c>
       <c r="D269" s="2">
@@ -25534,7 +25567,7 @@
         <v>124</v>
       </c>
       <c r="P269" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Vinnie</v>
       </c>
       <c r="Q269" t="s">
@@ -25565,7 +25598,7 @@
         <v>0</v>
       </c>
       <c r="AC269" s="38">
-        <f>AB269*AA269</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE269">
@@ -25589,7 +25622,7 @@
         <v>491</v>
       </c>
       <c r="C270" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>545</v>
       </c>
       <c r="D270" s="2">
@@ -25624,7 +25657,7 @@
         <v>125</v>
       </c>
       <c r="P270" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Suvernero</v>
       </c>
       <c r="S270">
@@ -25663,7 +25696,7 @@
         <v>492</v>
       </c>
       <c r="C271" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>245</v>
       </c>
       <c r="D271" s="2">
@@ -25698,7 +25731,7 @@
         <v>126</v>
       </c>
       <c r="P271" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Whiskie</v>
       </c>
       <c r="Q271">
@@ -25740,7 +25773,7 @@
         <v>493</v>
       </c>
       <c r="C272" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>475</v>
       </c>
       <c r="D272" s="2">
@@ -25775,7 +25808,7 @@
         <v>127</v>
       </c>
       <c r="P272" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Whiskers</v>
       </c>
       <c r="Q272" t="s">
@@ -25793,7 +25826,7 @@
         <v>494</v>
       </c>
       <c r="C273" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>540</v>
       </c>
       <c r="D273" s="2">
@@ -25828,7 +25861,7 @@
         <v>128</v>
       </c>
       <c r="P273" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>Whiskeroar</v>
       </c>
       <c r="S273">
@@ -25843,7 +25876,7 @@
         <v>583</v>
       </c>
       <c r="C274" s="1">
-        <f t="shared" ref="C274:C337" si="12">SUM(D274:I274)</f>
+        <f t="shared" ref="C274:C337" si="16">SUM(D274:I274)</f>
         <v>266</v>
       </c>
       <c r="D274" s="2">
@@ -25878,7 +25911,7 @@
         <v>129</v>
       </c>
       <c r="P274" t="str">
-        <f t="shared" ref="P274:P337" si="13">B274</f>
+        <f t="shared" ref="P274:P337" si="17">B274</f>
         <v>Nincada</v>
       </c>
       <c r="Q274">
@@ -25896,7 +25929,7 @@
         <v>584</v>
       </c>
       <c r="C275" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>456</v>
       </c>
       <c r="D275" s="2">
@@ -25931,7 +25964,7 @@
         <v>130</v>
       </c>
       <c r="P275" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Ninjask</v>
       </c>
       <c r="S275">
@@ -25946,7 +25979,7 @@
         <v>582</v>
       </c>
       <c r="C276" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>236</v>
       </c>
       <c r="D276" s="2">
@@ -25978,7 +26011,7 @@
         <v>131</v>
       </c>
       <c r="P276" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Shedinja</v>
       </c>
       <c r="Q276" t="s">
@@ -26005,7 +26038,7 @@
         <v>495</v>
       </c>
       <c r="C277" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>280</v>
       </c>
       <c r="D277" s="2">
@@ -26040,7 +26073,7 @@
         <v>132</v>
       </c>
       <c r="P277" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Sheltor</v>
       </c>
       <c r="Q277" t="s">
@@ -26067,7 +26100,7 @@
         <v>496</v>
       </c>
       <c r="C278" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>474</v>
       </c>
       <c r="D278" s="2">
@@ -26102,7 +26135,7 @@
         <v>133</v>
       </c>
       <c r="P278" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Shelnado</v>
       </c>
       <c r="S278">
@@ -26126,7 +26159,7 @@
         <v>497</v>
       </c>
       <c r="C279" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="D279" s="2">
@@ -26161,7 +26194,7 @@
         <v>134</v>
       </c>
       <c r="P279" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Lilyray</v>
       </c>
       <c r="Q279" t="s">
@@ -26188,7 +26221,7 @@
         <v>62</v>
       </c>
       <c r="C280" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="D280" s="2">
@@ -26223,7 +26256,7 @@
         <v>135</v>
       </c>
       <c r="P280" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Daray</v>
       </c>
       <c r="Q280">
@@ -26247,7 +26280,7 @@
         <v>63</v>
       </c>
       <c r="C281" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>495</v>
       </c>
       <c r="D281" s="2">
@@ -26282,7 +26315,7 @@
         <v>136</v>
       </c>
       <c r="P281" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Spinaquata</v>
       </c>
       <c r="S281">
@@ -26306,7 +26339,7 @@
         <v>498</v>
       </c>
       <c r="C282" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="D282" s="2">
@@ -26341,7 +26374,7 @@
         <v>137</v>
       </c>
       <c r="P282" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Magikarp</v>
       </c>
       <c r="Q282">
@@ -26368,7 +26401,7 @@
         <v>499</v>
       </c>
       <c r="C283" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>540</v>
       </c>
       <c r="D283" s="2">
@@ -26403,7 +26436,7 @@
         <v>138</v>
       </c>
       <c r="P283" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Gyarados</v>
       </c>
       <c r="S283">
@@ -26427,7 +26460,7 @@
         <v>500</v>
       </c>
       <c r="C284" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>340</v>
       </c>
       <c r="D284" s="2">
@@ -26464,7 +26497,7 @@
         <v>139</v>
       </c>
       <c r="P284" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Staryu</v>
       </c>
       <c r="Q284" t="s">
@@ -26488,7 +26521,7 @@
         <v>501</v>
       </c>
       <c r="C285" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>520</v>
       </c>
       <c r="D285" s="2">
@@ -26525,7 +26558,7 @@
         <v>140</v>
       </c>
       <c r="P285" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Starmie</v>
       </c>
       <c r="S285">
@@ -26546,7 +26579,7 @@
         <v>66</v>
       </c>
       <c r="C286" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
       <c r="D286" s="2">
@@ -26581,7 +26614,7 @@
         <v>141</v>
       </c>
       <c r="P286" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Ali</v>
       </c>
       <c r="Q286" t="s">
@@ -26605,7 +26638,7 @@
         <v>502</v>
       </c>
       <c r="C287" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>540</v>
       </c>
       <c r="D287" s="2">
@@ -26640,7 +26673,7 @@
         <v>142</v>
       </c>
       <c r="P287" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Batorali</v>
       </c>
       <c r="S287">
@@ -26661,7 +26694,7 @@
         <v>503</v>
       </c>
       <c r="C288" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>295</v>
       </c>
       <c r="D288" s="2">
@@ -26696,7 +26729,7 @@
         <v>143</v>
       </c>
       <c r="P288" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Posho</v>
       </c>
       <c r="Q288" t="s">
@@ -26720,7 +26753,7 @@
         <v>67</v>
       </c>
       <c r="C289" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>460</v>
       </c>
       <c r="D289" s="2">
@@ -26755,7 +26788,7 @@
         <v>144</v>
       </c>
       <c r="P289" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Shomp</v>
       </c>
       <c r="Q289" t="s">
@@ -26779,7 +26812,7 @@
         <v>504</v>
       </c>
       <c r="C290" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>560</v>
       </c>
       <c r="D290" s="2">
@@ -26814,7 +26847,7 @@
         <v>145</v>
       </c>
       <c r="P290" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Poshorump</v>
       </c>
       <c r="S290">
@@ -26835,7 +26868,7 @@
         <v>505</v>
       </c>
       <c r="C291" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>306</v>
       </c>
       <c r="D291" s="2">
@@ -26870,7 +26903,7 @@
         <v>146</v>
       </c>
       <c r="P291" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Binacle</v>
       </c>
       <c r="Q291">
@@ -26894,7 +26927,7 @@
         <v>506</v>
       </c>
       <c r="C292" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="D292" s="2">
@@ -26929,7 +26962,7 @@
         <v>147</v>
       </c>
       <c r="P292" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Barbaracle</v>
       </c>
       <c r="S292">
@@ -26950,7 +26983,7 @@
         <v>507</v>
       </c>
       <c r="C293" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>345</v>
       </c>
       <c r="D293" s="2">
@@ -26985,7 +27018,7 @@
         <v>148</v>
       </c>
       <c r="P293" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Durfish</v>
       </c>
       <c r="Q293" t="s">
@@ -27009,7 +27042,7 @@
         <v>508</v>
       </c>
       <c r="C294" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>485</v>
       </c>
       <c r="D294" s="2">
@@ -27044,7 +27077,7 @@
         <v>149</v>
       </c>
       <c r="P294" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Dompster</v>
       </c>
       <c r="S294">
@@ -27065,7 +27098,7 @@
         <v>509</v>
       </c>
       <c r="C295" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>350</v>
       </c>
       <c r="D295" s="2">
@@ -27100,7 +27133,7 @@
         <v>150</v>
       </c>
       <c r="P295" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Kissyfishy</v>
       </c>
       <c r="S295">
@@ -27121,7 +27154,7 @@
         <v>510</v>
       </c>
       <c r="C296" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>288</v>
       </c>
       <c r="D296" s="2">
@@ -27158,7 +27191,7 @@
         <v>151</v>
       </c>
       <c r="P296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Ekans</v>
       </c>
       <c r="Q296">
@@ -27185,7 +27218,7 @@
         <v>511</v>
       </c>
       <c r="C297" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>455</v>
       </c>
       <c r="D297" s="2">
@@ -27222,7 +27255,7 @@
         <v>152</v>
       </c>
       <c r="P297" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Arbok</v>
       </c>
       <c r="S297">
@@ -27246,7 +27279,7 @@
         <v>512</v>
       </c>
       <c r="C298" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>245</v>
       </c>
       <c r="D298" s="2">
@@ -27283,7 +27316,7 @@
         <v>153</v>
       </c>
       <c r="P298" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Zubat</v>
       </c>
       <c r="Q298">
@@ -27310,7 +27343,7 @@
         <v>513</v>
       </c>
       <c r="C299" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>455</v>
       </c>
       <c r="D299" s="2">
@@ -27347,7 +27380,7 @@
         <v>154</v>
       </c>
       <c r="P299" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Golbat</v>
       </c>
       <c r="Q299" t="s">
@@ -27374,7 +27407,7 @@
         <v>514</v>
       </c>
       <c r="C300" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>535</v>
       </c>
       <c r="D300" s="2">
@@ -27411,7 +27444,7 @@
         <v>155</v>
       </c>
       <c r="P300" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Crobat</v>
       </c>
       <c r="S300">
@@ -27435,7 +27468,7 @@
         <v>37</v>
       </c>
       <c r="C301" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="D301" s="2">
@@ -27472,7 +27505,7 @@
         <v>156</v>
       </c>
       <c r="P301" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Poof</v>
       </c>
       <c r="Q301">
@@ -27499,7 +27532,7 @@
         <v>38</v>
       </c>
       <c r="C302" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="D302" s="2">
@@ -27536,7 +27569,7 @@
         <v>157</v>
       </c>
       <c r="P302" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Hast</v>
       </c>
       <c r="S302">
@@ -27560,7 +27593,7 @@
         <v>39</v>
       </c>
       <c r="C303" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>399</v>
       </c>
       <c r="D303" s="2">
@@ -27597,7 +27630,7 @@
         <v>158</v>
       </c>
       <c r="P303" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Poov</v>
       </c>
       <c r="Q303">
@@ -27624,7 +27657,7 @@
         <v>40</v>
       </c>
       <c r="C304" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>499</v>
       </c>
       <c r="D304" s="2">
@@ -27661,7 +27694,7 @@
         <v>159</v>
       </c>
       <c r="P304" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Grust</v>
       </c>
       <c r="S304">
@@ -27685,7 +27718,7 @@
         <v>36</v>
       </c>
       <c r="C305" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>435</v>
       </c>
       <c r="D305" s="2">
@@ -27717,7 +27750,7 @@
         <v>160</v>
       </c>
       <c r="P305" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Cluuz</v>
       </c>
       <c r="Q305" t="s">
@@ -27744,7 +27777,7 @@
         <v>515</v>
       </c>
       <c r="C306" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>480</v>
       </c>
       <c r="D306" s="2">
@@ -27776,7 +27809,7 @@
         <v>161</v>
       </c>
       <c r="P306" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Zurrclu</v>
       </c>
       <c r="Q306" t="s">
@@ -27803,7 +27836,7 @@
         <v>803</v>
       </c>
       <c r="C307" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>540</v>
       </c>
       <c r="D307" s="2">
@@ -27835,7 +27868,7 @@
         <v>162</v>
       </c>
       <c r="P307" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Zurroaratr</v>
       </c>
       <c r="S307">
@@ -27862,7 +27895,7 @@
         <v>516</v>
       </c>
       <c r="C308" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>305</v>
       </c>
       <c r="D308" s="2">
@@ -27897,7 +27930,7 @@
         <v>163</v>
       </c>
       <c r="P308" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Timburr</v>
       </c>
       <c r="Q308">
@@ -27921,7 +27954,7 @@
         <v>517</v>
       </c>
       <c r="C309" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>405</v>
       </c>
       <c r="D309" s="2">
@@ -27956,7 +27989,7 @@
         <v>164</v>
       </c>
       <c r="P309" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Gurdurr</v>
       </c>
       <c r="Q309" t="s">
@@ -27980,7 +28013,7 @@
         <v>518</v>
       </c>
       <c r="C310" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>505</v>
       </c>
       <c r="D310" s="2">
@@ -28015,7 +28048,7 @@
         <v>165</v>
       </c>
       <c r="P310" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Conkeldurr</v>
       </c>
       <c r="S310">
@@ -28036,7 +28069,7 @@
         <v>68</v>
       </c>
       <c r="C311" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>316</v>
       </c>
       <c r="D311" s="2">
@@ -28073,7 +28106,7 @@
         <v>166</v>
       </c>
       <c r="P311" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Rhypo</v>
       </c>
       <c r="Q311">
@@ -28097,7 +28130,7 @@
         <v>69</v>
       </c>
       <c r="C312" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>412</v>
       </c>
       <c r="D312" s="2">
@@ -28134,7 +28167,7 @@
         <v>167</v>
       </c>
       <c r="P312" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Rhynee</v>
       </c>
       <c r="Q312">
@@ -28158,7 +28191,7 @@
         <v>70</v>
       </c>
       <c r="C313" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>510</v>
       </c>
       <c r="D313" s="2">
@@ -28195,7 +28228,7 @@
         <v>168</v>
       </c>
       <c r="P313" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Rhypolar</v>
       </c>
       <c r="S313">
@@ -28216,7 +28249,7 @@
         <v>519</v>
       </c>
       <c r="C314" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>333</v>
       </c>
       <c r="D314" s="2">
@@ -28253,7 +28286,7 @@
         <v>169</v>
       </c>
       <c r="P314" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Diggie</v>
       </c>
       <c r="Q314">
@@ -28277,7 +28310,7 @@
         <v>520</v>
       </c>
       <c r="C315" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>503</v>
       </c>
       <c r="D315" s="2">
@@ -28314,7 +28347,7 @@
         <v>170</v>
       </c>
       <c r="P315" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Drillatron</v>
       </c>
       <c r="S315">
@@ -28335,7 +28368,7 @@
         <v>521</v>
       </c>
       <c r="C316" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>275</v>
       </c>
       <c r="D316" s="2">
@@ -28372,7 +28405,7 @@
         <v>171</v>
       </c>
       <c r="P316" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Wormite</v>
       </c>
       <c r="Q316">
@@ -28396,7 +28429,7 @@
         <v>522</v>
       </c>
       <c r="C317" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>385</v>
       </c>
       <c r="D317" s="2">
@@ -28433,7 +28466,7 @@
         <v>172</v>
       </c>
       <c r="P317" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Wormbot</v>
       </c>
       <c r="Q317">
@@ -28457,7 +28490,7 @@
         <v>523</v>
       </c>
       <c r="C318" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>520</v>
       </c>
       <c r="D318" s="2">
@@ -28494,7 +28527,7 @@
         <v>173</v>
       </c>
       <c r="P318" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Wormatron</v>
       </c>
       <c r="S318">
@@ -28515,7 +28548,7 @@
         <v>572</v>
       </c>
       <c r="C319" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>218</v>
       </c>
       <c r="D319" s="2">
@@ -28550,7 +28583,7 @@
         <v>174</v>
       </c>
       <c r="P319" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Cleffa</v>
       </c>
       <c r="Q319" t="s">
@@ -28574,7 +28607,7 @@
         <v>573</v>
       </c>
       <c r="C320" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>323</v>
       </c>
       <c r="D320" s="2">
@@ -28609,7 +28642,7 @@
         <v>175</v>
       </c>
       <c r="P320" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Clefairy</v>
       </c>
       <c r="Q320" t="s">
@@ -28633,7 +28666,7 @@
         <v>574</v>
       </c>
       <c r="C321" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>483</v>
       </c>
       <c r="D321" s="2">
@@ -28668,7 +28701,7 @@
         <v>176</v>
       </c>
       <c r="P321" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Clefable</v>
       </c>
       <c r="S321">
@@ -28689,7 +28722,7 @@
         <v>524</v>
       </c>
       <c r="C322" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>420</v>
       </c>
       <c r="D322" s="2">
@@ -28724,7 +28757,7 @@
         <v>177</v>
       </c>
       <c r="P322" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Minishoo</v>
       </c>
       <c r="Q322" t="s">
@@ -28748,7 +28781,7 @@
         <v>525</v>
       </c>
       <c r="C323" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>520</v>
       </c>
       <c r="D323" s="2">
@@ -28783,7 +28816,7 @@
         <v>178</v>
       </c>
       <c r="P323" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Glittleshoo</v>
       </c>
       <c r="S323">
@@ -28804,7 +28837,7 @@
         <v>526</v>
       </c>
       <c r="C324" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>330</v>
       </c>
       <c r="D324" s="2">
@@ -28839,7 +28872,7 @@
         <v>179</v>
       </c>
       <c r="P324" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Zorua</v>
       </c>
       <c r="Q324">
@@ -28863,7 +28896,7 @@
         <v>527</v>
       </c>
       <c r="C325" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>510</v>
       </c>
       <c r="D325" s="2">
@@ -28898,7 +28931,7 @@
         <v>180</v>
       </c>
       <c r="P325" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Zoroark</v>
       </c>
       <c r="S325">
@@ -28919,7 +28952,7 @@
         <v>92</v>
       </c>
       <c r="C326" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>330</v>
       </c>
       <c r="D326" s="2">
@@ -28956,7 +28989,7 @@
         <v>181</v>
       </c>
       <c r="P326" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Droid</v>
       </c>
       <c r="Q326">
@@ -28977,7 +29010,7 @@
         <v>93</v>
       </c>
       <c r="C327" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>430</v>
       </c>
       <c r="D327" s="2">
@@ -29014,7 +29047,7 @@
         <v>182</v>
       </c>
       <c r="P327" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Armoid</v>
       </c>
       <c r="Q327">
@@ -29038,7 +29071,7 @@
         <v>94</v>
       </c>
       <c r="C328" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>530</v>
       </c>
       <c r="D328" s="2">
@@ -29075,7 +29108,7 @@
         <v>183</v>
       </c>
       <c r="P328" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Soldrota</v>
       </c>
       <c r="S328">
@@ -29099,7 +29132,7 @@
         <v>101</v>
       </c>
       <c r="C329" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>390</v>
       </c>
       <c r="D329" s="2">
@@ -29131,7 +29164,7 @@
         <v>184</v>
       </c>
       <c r="P329" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Tinkie</v>
       </c>
       <c r="Q329">
@@ -29155,7 +29188,7 @@
         <v>102</v>
       </c>
       <c r="C330" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>455</v>
       </c>
       <c r="D330" s="2">
@@ -29187,7 +29220,7 @@
         <v>185</v>
       </c>
       <c r="P330" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Shawar</v>
       </c>
       <c r="Q330">
@@ -29211,7 +29244,7 @@
         <v>103</v>
       </c>
       <c r="C331" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="D331" s="2">
@@ -29243,7 +29276,7 @@
         <v>186</v>
       </c>
       <c r="P331" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Shaboom</v>
       </c>
       <c r="S331">
@@ -29267,7 +29300,7 @@
         <v>95</v>
       </c>
       <c r="C332" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>350</v>
       </c>
       <c r="D332" s="2">
@@ -29299,7 +29332,7 @@
         <v>187</v>
       </c>
       <c r="P332" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Dragee</v>
       </c>
       <c r="Q332">
@@ -29326,7 +29359,7 @@
         <v>96</v>
       </c>
       <c r="C333" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>465</v>
       </c>
       <c r="D333" s="2">
@@ -29358,7 +29391,7 @@
         <v>188</v>
       </c>
       <c r="P333" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Draga</v>
       </c>
       <c r="Q333">
@@ -29385,7 +29418,7 @@
         <v>97</v>
       </c>
       <c r="C334" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="D334" s="2">
@@ -29417,7 +29450,7 @@
         <v>189</v>
       </c>
       <c r="P334" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Drageye</v>
       </c>
       <c r="S334">
@@ -29438,7 +29471,7 @@
         <v>528</v>
       </c>
       <c r="C335" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="D335" s="2">
@@ -29475,7 +29508,7 @@
         <v>190</v>
       </c>
       <c r="P335" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Blobmo</v>
       </c>
       <c r="Q335">
@@ -29490,7 +29523,7 @@
         <v>529</v>
       </c>
       <c r="C336" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>420</v>
       </c>
       <c r="D336" s="2">
@@ -29527,7 +29560,7 @@
         <v>191</v>
       </c>
       <c r="P336" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Nebulimb</v>
       </c>
       <c r="Q336">
@@ -29542,7 +29575,7 @@
         <v>801</v>
       </c>
       <c r="C337" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>585</v>
       </c>
       <c r="D337" s="2">
@@ -29579,7 +29612,7 @@
         <v>192</v>
       </c>
       <c r="P337" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Galactasolder</v>
       </c>
     </row>
@@ -29591,7 +29624,7 @@
         <v>530</v>
       </c>
       <c r="C338" s="1">
-        <f t="shared" ref="C338:C401" si="14">SUM(D338:I338)</f>
+        <f t="shared" ref="C338:C401" si="18">SUM(D338:I338)</f>
         <v>415</v>
       </c>
       <c r="D338" s="2">
@@ -29628,7 +29661,7 @@
         <v>193</v>
       </c>
       <c r="P338" t="str">
-        <f t="shared" ref="P338:P382" si="15">B338</f>
+        <f t="shared" ref="P338:P382" si="19">B338</f>
         <v>Consodust</v>
       </c>
       <c r="Q338" t="s">
@@ -29643,7 +29676,7 @@
         <v>531</v>
       </c>
       <c r="C339" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>525</v>
       </c>
       <c r="D339" s="2">
@@ -29680,7 +29713,7 @@
         <v>194</v>
       </c>
       <c r="P339" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Cosmocrash</v>
       </c>
     </row>
@@ -29692,7 +29725,7 @@
         <v>532</v>
       </c>
       <c r="C340" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>450</v>
       </c>
       <c r="D340" s="2">
@@ -29729,7 +29762,7 @@
         <v>195</v>
       </c>
       <c r="P340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Rockmite</v>
       </c>
       <c r="Q340" t="s">
@@ -29744,7 +29777,7 @@
         <v>533</v>
       </c>
       <c r="C341" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="D341" s="2">
@@ -29781,7 +29814,7 @@
         <v>196</v>
       </c>
       <c r="P341" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Stellarock</v>
       </c>
     </row>
@@ -29793,7 +29826,7 @@
         <v>534</v>
       </c>
       <c r="C342" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="D342" s="2">
@@ -29830,7 +29863,7 @@
         <v>197</v>
       </c>
       <c r="P342" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Poof-E</v>
       </c>
       <c r="Q342">
@@ -29845,7 +29878,7 @@
         <v>535</v>
       </c>
       <c r="C343" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="D343" s="2">
@@ -29882,7 +29915,7 @@
         <v>198</v>
       </c>
       <c r="P343" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Hast-E</v>
       </c>
     </row>
@@ -29894,7 +29927,7 @@
         <v>536</v>
       </c>
       <c r="C344" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>330</v>
       </c>
       <c r="D344" s="2">
@@ -29931,7 +29964,7 @@
         <v>199</v>
       </c>
       <c r="P344" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Droid-E</v>
       </c>
       <c r="Q344">
@@ -29946,7 +29979,7 @@
         <v>537</v>
       </c>
       <c r="C345" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="D345" s="2">
@@ -29983,7 +30016,7 @@
         <v>200</v>
       </c>
       <c r="P345" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Armoid-E</v>
       </c>
       <c r="Q345">
@@ -29998,7 +30031,7 @@
         <v>538</v>
       </c>
       <c r="C346" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>530</v>
       </c>
       <c r="D346" s="2">
@@ -30035,7 +30068,7 @@
         <v>201</v>
       </c>
       <c r="P346" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Soldrota-E</v>
       </c>
     </row>
@@ -30047,7 +30080,7 @@
         <v>539</v>
       </c>
       <c r="C347" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>360</v>
       </c>
       <c r="D347" s="2">
@@ -30082,7 +30115,7 @@
         <v>202</v>
       </c>
       <c r="P347" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Flamehox-E</v>
       </c>
       <c r="Q347">
@@ -30097,7 +30130,7 @@
         <v>540</v>
       </c>
       <c r="C348" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>460</v>
       </c>
       <c r="D348" s="2">
@@ -30132,7 +30165,7 @@
         <v>203</v>
       </c>
       <c r="P348" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Fireshard-E</v>
       </c>
       <c r="Q348">
@@ -30147,7 +30180,7 @@
         <v>541</v>
       </c>
       <c r="C349" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>560</v>
       </c>
       <c r="D349" s="2">
@@ -30182,7 +30215,7 @@
         <v>204</v>
       </c>
       <c r="P349" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Blastflames-E</v>
       </c>
     </row>
@@ -30194,7 +30227,7 @@
         <v>542</v>
       </c>
       <c r="C350" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>325</v>
       </c>
       <c r="D350" s="2">
@@ -30229,7 +30262,7 @@
         <v>205</v>
       </c>
       <c r="P350" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Rocky-E</v>
       </c>
       <c r="Q350">
@@ -30244,7 +30277,7 @@
         <v>543</v>
       </c>
       <c r="C351" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>425</v>
       </c>
       <c r="D351" s="2">
@@ -30279,7 +30312,7 @@
         <v>206</v>
       </c>
       <c r="P351" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Boulder-E</v>
       </c>
       <c r="Q351" t="s">
@@ -30294,7 +30327,7 @@
         <v>544</v>
       </c>
       <c r="C352" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>525</v>
       </c>
       <c r="D352" s="2">
@@ -30329,7 +30362,7 @@
         <v>207</v>
       </c>
       <c r="P352" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Blaster-E</v>
       </c>
     </row>
@@ -30341,7 +30374,7 @@
         <v>545</v>
       </c>
       <c r="C353" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>525</v>
       </c>
       <c r="D353" s="2">
@@ -30376,7 +30409,7 @@
         <v>208</v>
       </c>
       <c r="P353" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Crystallor-E</v>
       </c>
       <c r="Q353" t="s">
@@ -30391,7 +30424,7 @@
         <v>546</v>
       </c>
       <c r="C354" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="D354" s="2">
@@ -30426,7 +30459,7 @@
         <v>209</v>
       </c>
       <c r="P354" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Magikarp-E</v>
       </c>
       <c r="Q354">
@@ -30441,7 +30474,7 @@
         <v>547</v>
       </c>
       <c r="C355" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="D355" s="2">
@@ -30479,7 +30512,7 @@
         <v>210</v>
       </c>
       <c r="P355" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Gyarados-E</v>
       </c>
     </row>
@@ -30491,7 +30524,7 @@
         <v>548</v>
       </c>
       <c r="C356" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="D356" s="2">
@@ -30526,7 +30559,7 @@
         <v>211</v>
       </c>
       <c r="P356" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Shockfang</v>
       </c>
     </row>
@@ -30538,7 +30571,7 @@
         <v>549</v>
       </c>
       <c r="C357" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>530</v>
       </c>
       <c r="D357" s="2">
@@ -30573,7 +30606,7 @@
         <v>212</v>
       </c>
       <c r="P357" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Electrocobra</v>
       </c>
       <c r="Q357">
@@ -30588,7 +30621,7 @@
         <v>550</v>
       </c>
       <c r="C358" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="D358" s="2">
@@ -30623,7 +30656,7 @@
         <v>213</v>
       </c>
       <c r="P358" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Nightrex</v>
       </c>
     </row>
@@ -30635,7 +30668,7 @@
         <v>551</v>
       </c>
       <c r="C359" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>530</v>
       </c>
       <c r="D359" s="2">
@@ -30670,7 +30703,7 @@
         <v>214</v>
       </c>
       <c r="P359" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Shadowsaur</v>
       </c>
       <c r="Q359">
@@ -30685,7 +30718,7 @@
         <v>552</v>
       </c>
       <c r="C360" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>345</v>
       </c>
       <c r="D360" s="2">
@@ -30720,7 +30753,7 @@
         <v>215</v>
       </c>
       <c r="P360" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Durfish-S</v>
       </c>
     </row>
@@ -30732,7 +30765,7 @@
         <v>553</v>
       </c>
       <c r="C361" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>485</v>
       </c>
       <c r="D361" s="2">
@@ -30767,7 +30800,7 @@
         <v>216</v>
       </c>
       <c r="P361" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Dompster-S</v>
       </c>
       <c r="Q361" t="s">
@@ -30782,7 +30815,7 @@
         <v>554</v>
       </c>
       <c r="C362" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>275</v>
       </c>
       <c r="D362" s="2">
@@ -30816,7 +30849,7 @@
         <v>217</v>
       </c>
       <c r="P362" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Wormite-S</v>
       </c>
     </row>
@@ -30828,7 +30861,7 @@
         <v>555</v>
       </c>
       <c r="C363" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>385</v>
       </c>
       <c r="D363" s="2">
@@ -30862,7 +30895,7 @@
         <v>218</v>
       </c>
       <c r="P363" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Wormbot-S</v>
       </c>
       <c r="Q363">
@@ -30877,7 +30910,7 @@
         <v>556</v>
       </c>
       <c r="C364" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>520</v>
       </c>
       <c r="D364" s="2">
@@ -30911,7 +30944,7 @@
         <v>219</v>
       </c>
       <c r="P364" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Wormatron-S</v>
       </c>
       <c r="Q364">
@@ -30926,7 +30959,7 @@
         <v>557</v>
       </c>
       <c r="C365" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>435</v>
       </c>
       <c r="D365" s="2">
@@ -30960,7 +30993,7 @@
         <v>220</v>
       </c>
       <c r="P365" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Cluuz-S</v>
       </c>
     </row>
@@ -30972,7 +31005,7 @@
         <v>558</v>
       </c>
       <c r="C366" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>480</v>
       </c>
       <c r="D366" s="2">
@@ -31006,7 +31039,7 @@
         <v>221</v>
       </c>
       <c r="P366" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Zurrclu-S</v>
       </c>
       <c r="Q366" t="s">
@@ -31021,7 +31054,7 @@
         <v>802</v>
       </c>
       <c r="C367" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="D367" s="2">
@@ -31055,7 +31088,7 @@
         <v>222</v>
       </c>
       <c r="P367" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Zurroaratr-S</v>
       </c>
       <c r="Q367" t="s">
@@ -31070,7 +31103,7 @@
         <v>559</v>
       </c>
       <c r="C368" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>306</v>
       </c>
       <c r="D368" s="2">
@@ -31107,7 +31140,7 @@
         <v>223</v>
       </c>
       <c r="P368" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Iglite-S</v>
       </c>
       <c r="Q368">
@@ -31122,7 +31155,7 @@
         <v>560</v>
       </c>
       <c r="C369" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="D369" s="2">
@@ -31159,7 +31192,7 @@
         <v>224</v>
       </c>
       <c r="P369" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Blaxer-S</v>
       </c>
       <c r="Q369">
@@ -31174,7 +31207,7 @@
         <v>561</v>
       </c>
       <c r="C370" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>516</v>
       </c>
       <c r="D370" s="2">
@@ -31211,7 +31244,7 @@
         <v>225</v>
       </c>
       <c r="P370" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Pyrator-S</v>
       </c>
     </row>
@@ -31223,7 +31256,7 @@
         <v>562</v>
       </c>
       <c r="C371" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>288</v>
       </c>
       <c r="D371" s="2">
@@ -31260,7 +31293,7 @@
         <v>226</v>
       </c>
       <c r="P371" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Ekans-S</v>
       </c>
       <c r="Q371">
@@ -31275,7 +31308,7 @@
         <v>563</v>
       </c>
       <c r="C372" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>490</v>
       </c>
       <c r="D372" s="2">
@@ -31312,7 +31345,7 @@
         <v>227</v>
       </c>
       <c r="P372" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Arbok-S</v>
       </c>
     </row>
@@ -31324,7 +31357,7 @@
         <v>564</v>
       </c>
       <c r="C373" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>600</v>
       </c>
       <c r="D373" s="2">
@@ -31356,7 +31389,7 @@
         <v>228</v>
       </c>
       <c r="P373" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Soarwhell</v>
       </c>
       <c r="Q373" t="s">
@@ -31371,7 +31404,7 @@
         <v>86</v>
       </c>
       <c r="C374" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>600</v>
       </c>
       <c r="D374" s="2">
@@ -31403,7 +31436,7 @@
         <v>229</v>
       </c>
       <c r="P374" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Diftery</v>
       </c>
       <c r="Q374" t="s">
@@ -31418,7 +31451,7 @@
         <v>565</v>
       </c>
       <c r="C375" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>625</v>
       </c>
       <c r="D375" s="2">
@@ -31450,7 +31483,7 @@
         <v>230</v>
       </c>
       <c r="P375" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Vorsuitex</v>
       </c>
       <c r="Q375" t="s">
@@ -31465,7 +31498,7 @@
         <v>566</v>
       </c>
       <c r="C376" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>610</v>
       </c>
       <c r="D376" s="2">
@@ -31497,7 +31530,7 @@
         <v>231</v>
       </c>
       <c r="P376" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Kleinyeti</v>
       </c>
       <c r="Q376" t="s">
@@ -31512,7 +31545,7 @@
         <v>567</v>
       </c>
       <c r="C377" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>615</v>
       </c>
       <c r="D377" s="2">
@@ -31544,7 +31577,7 @@
         <v>232</v>
       </c>
       <c r="P377" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Triwandoliz</v>
       </c>
       <c r="Q377" t="s">
@@ -31559,7 +31592,7 @@
         <v>568</v>
       </c>
       <c r="C378" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>680</v>
       </c>
       <c r="D378" s="2">
@@ -31591,7 +31624,7 @@
         <v>233</v>
       </c>
       <c r="P378" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Relomidel</v>
       </c>
       <c r="Q378" t="s">
@@ -31606,7 +31639,7 @@
         <v>569</v>
       </c>
       <c r="C379" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>680</v>
       </c>
       <c r="D379" s="2">
@@ -31638,7 +31671,7 @@
         <v>234</v>
       </c>
       <c r="P379" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Relopamil</v>
       </c>
       <c r="Q379" t="s">
@@ -31653,7 +31686,7 @@
         <v>570</v>
       </c>
       <c r="C380" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>700</v>
       </c>
       <c r="D380" s="2">
@@ -31685,7 +31718,7 @@
         <v>235</v>
       </c>
       <c r="P380" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Dragowrath</v>
       </c>
       <c r="Q380" t="s">
@@ -31700,7 +31733,7 @@
         <v>571</v>
       </c>
       <c r="C381" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>670</v>
       </c>
       <c r="D381" s="2">
@@ -31732,7 +31765,7 @@
         <v>236</v>
       </c>
       <c r="P381" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Solaroxyous</v>
       </c>
       <c r="Q381" t="s">
@@ -31747,7 +31780,7 @@
         <v>576</v>
       </c>
       <c r="C382" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>550</v>
       </c>
       <c r="D382" s="2">
@@ -31778,7 +31811,7 @@
         <v>237</v>
       </c>
       <c r="P382" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Kissyfishy-D</v>
       </c>
     </row>
@@ -31790,7 +31823,7 @@
         <v>804</v>
       </c>
       <c r="C383" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>348</v>
       </c>
       <c r="D383" s="2">
@@ -31832,7 +31865,7 @@
         <v>805</v>
       </c>
       <c r="C384" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>488</v>
       </c>
       <c r="D384" s="2">
@@ -31874,7 +31907,7 @@
         <v>806</v>
       </c>
       <c r="C385" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>570</v>
       </c>
       <c r="D385" s="2">
@@ -31916,7 +31949,7 @@
         <v>1145</v>
       </c>
       <c r="C386" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>350</v>
       </c>
       <c r="D386" s="2">
@@ -31949,7 +31982,7 @@
         <v>1146</v>
       </c>
       <c r="C387" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>525</v>
       </c>
       <c r="D387" s="2">
@@ -31982,7 +32015,7 @@
         <v>1149</v>
       </c>
       <c r="C388" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>310</v>
       </c>
       <c r="D388" s="2">
@@ -32015,7 +32048,7 @@
         <v>1150</v>
       </c>
       <c r="C389" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="D389" s="2">
@@ -32048,7 +32081,7 @@
         <v>1151</v>
       </c>
       <c r="C390" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="D390" s="2">
@@ -32081,7 +32114,7 @@
         <v>1152</v>
       </c>
       <c r="C391" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="D391" s="2">
@@ -32114,7 +32147,7 @@
         <v>1153</v>
       </c>
       <c r="C392" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="D392" s="2">
@@ -32147,7 +32180,7 @@
         <v>1155</v>
       </c>
       <c r="C393" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>510</v>
       </c>
       <c r="D393" s="2">
@@ -32180,7 +32213,7 @@
         <v>1156</v>
       </c>
       <c r="C394" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="D394" s="41">
@@ -32213,7 +32246,7 @@
         <v>1154</v>
       </c>
       <c r="C395" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>510</v>
       </c>
       <c r="D395" s="2">
@@ -32246,7 +32279,7 @@
         <v>1157</v>
       </c>
       <c r="C396" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
       <c r="D396" s="2">
@@ -32279,7 +32312,7 @@
         <v>1158</v>
       </c>
       <c r="C397" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>370</v>
       </c>
       <c r="D397" s="2">
@@ -32312,7 +32345,7 @@
         <v>1159</v>
       </c>
       <c r="C398" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>490</v>
       </c>
       <c r="D398" s="2">
@@ -32345,7 +32378,7 @@
         <v>1160</v>
       </c>
       <c r="C399" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J399">
@@ -32360,7 +32393,7 @@
         <v>1161</v>
       </c>
       <c r="C400" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J400">
@@ -32375,7 +32408,7 @@
         <v>1162</v>
       </c>
       <c r="C401" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J401">
@@ -32390,7 +32423,7 @@
         <v>1163</v>
       </c>
       <c r="C402" s="1">
-        <f t="shared" ref="C402:C409" si="16">SUM(D402:I402)</f>
+        <f t="shared" ref="C402:C410" si="20">SUM(D402:I402)</f>
         <v>458</v>
       </c>
       <c r="D402" s="2">
@@ -32420,14 +32453,14 @@
         <v>258</v>
       </c>
       <c r="B403" t="s">
-        <v>1164</v>
+        <v>1187</v>
       </c>
       <c r="C403" s="1">
-        <f t="shared" si="16"/>
+        <f>SUM(D403:I403)</f>
         <v>0</v>
       </c>
       <c r="J403">
-        <v>535</v>
+        <v>458</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -32435,32 +32468,14 @@
         <v>259</v>
       </c>
       <c r="B404" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C404" s="1">
-        <f t="shared" si="16"/>
-        <v>312</v>
-      </c>
-      <c r="D404" s="2">
-        <v>80</v>
-      </c>
-      <c r="E404" s="3">
-        <v>43</v>
-      </c>
-      <c r="F404" s="4">
-        <v>53</v>
-      </c>
-      <c r="G404" s="5">
-        <v>43</v>
-      </c>
-      <c r="H404" s="4">
-        <v>53</v>
-      </c>
-      <c r="I404" s="6">
-        <v>40</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="J404">
-        <v>312</v>
+        <v>535</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -32468,32 +32483,32 @@
         <v>260</v>
       </c>
       <c r="B405" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C405" s="1">
-        <f t="shared" si="16"/>
-        <v>487</v>
+        <f t="shared" si="20"/>
+        <v>312</v>
       </c>
       <c r="D405" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E405" s="3">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F405" s="4">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G405" s="5">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H405" s="4">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="I405" s="6">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J405">
-        <v>487</v>
+        <v>312</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -32501,14 +32516,32 @@
         <v>261</v>
       </c>
       <c r="B406" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C406" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>487</v>
+      </c>
+      <c r="D406" s="2">
+        <v>120</v>
+      </c>
+      <c r="E406" s="3">
+        <v>73</v>
+      </c>
+      <c r="F406" s="4">
+        <v>83</v>
+      </c>
+      <c r="G406" s="5">
+        <v>73</v>
+      </c>
+      <c r="H406" s="4">
+        <v>83</v>
+      </c>
+      <c r="I406" s="6">
+        <v>55</v>
       </c>
       <c r="J406">
-        <v>312</v>
+        <v>487</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -32516,14 +32549,14 @@
         <v>262</v>
       </c>
       <c r="B407" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C407" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J407">
-        <v>487</v>
+        <v>312</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -32531,11 +32564,14 @@
         <v>263</v>
       </c>
       <c r="B408" t="s">
-        <v>863</v>
+        <v>1168</v>
       </c>
       <c r="C408" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
+      </c>
+      <c r="J408">
+        <v>487</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -32546,7 +32582,232 @@
         <v>1169</v>
       </c>
       <c r="C409" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>265</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C410" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>266</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C411" s="1">
+        <f t="shared" ref="C411:C419" si="21">SUM(D411:I411)</f>
+        <v>335</v>
+      </c>
+      <c r="D411" s="2">
+        <v>55</v>
+      </c>
+      <c r="E411" s="3">
+        <v>55</v>
+      </c>
+      <c r="F411" s="4">
+        <v>55</v>
+      </c>
+      <c r="G411" s="5">
+        <v>85</v>
+      </c>
+      <c r="H411" s="4">
+        <v>55</v>
+      </c>
+      <c r="I411" s="6">
+        <v>30</v>
+      </c>
+      <c r="J411">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>267</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C412" s="1">
+        <f t="shared" si="21"/>
+        <v>485</v>
+      </c>
+      <c r="D412" s="2">
+        <v>75</v>
+      </c>
+      <c r="E412" s="3">
+        <v>75</v>
+      </c>
+      <c r="F412" s="4">
+        <v>75</v>
+      </c>
+      <c r="G412" s="5">
+        <v>125</v>
+      </c>
+      <c r="H412" s="4">
+        <v>95</v>
+      </c>
+      <c r="I412" s="6">
+        <v>40</v>
+      </c>
+      <c r="J412">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>268</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C413" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>269</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C414" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>270</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C415" s="1">
+        <f t="shared" si="21"/>
+        <v>195</v>
+      </c>
+      <c r="D415" s="2">
+        <v>45</v>
+      </c>
+      <c r="E415" s="3">
+        <v>30</v>
+      </c>
+      <c r="F415" s="4">
+        <v>35</v>
+      </c>
+      <c r="G415" s="5">
+        <v>20</v>
+      </c>
+      <c r="H415" s="4">
+        <v>20</v>
+      </c>
+      <c r="I415" s="6">
+        <v>45</v>
+      </c>
+      <c r="J415">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>271</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C416" s="1">
+        <f t="shared" si="21"/>
+        <v>205</v>
+      </c>
+      <c r="D416" s="2">
+        <v>50</v>
+      </c>
+      <c r="E416" s="3">
+        <v>20</v>
+      </c>
+      <c r="F416" s="4">
+        <v>55</v>
+      </c>
+      <c r="G416" s="5">
+        <v>25</v>
+      </c>
+      <c r="H416" s="4">
+        <v>25</v>
+      </c>
+      <c r="I416" s="6">
+        <v>30</v>
+      </c>
+      <c r="J416">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>272</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C417" s="1">
+        <f t="shared" si="21"/>
+        <v>395</v>
+      </c>
+      <c r="D417" s="2">
+        <v>60</v>
+      </c>
+      <c r="E417" s="3">
+        <v>45</v>
+      </c>
+      <c r="F417" s="4">
+        <v>50</v>
+      </c>
+      <c r="G417" s="5">
+        <v>90</v>
+      </c>
+      <c r="H417" s="4">
+        <v>80</v>
+      </c>
+      <c r="I417" s="6">
+        <v>70</v>
+      </c>
+      <c r="J417">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>273</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C418" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>274</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C419" s="1">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -32674,7 +32935,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C140 C146:C407" formulaRange="1"/>
+    <ignoredError sqref="C1:C140 C404:C408 C411:C412 C146:C403 C415:C417" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="4">
     <tablePart r:id="rId2"/>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83258CCB-F06A-4DBE-B902-93DB88FCA78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE918B2-ECB3-4909-93F5-EE56AFEDCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1192">
   <si>
     <t>Leafer</t>
   </si>
@@ -3600,6 +3600,18 @@
   </si>
   <si>
     <t>Seviper-X</t>
+  </si>
+  <si>
+    <t>Bronzor</t>
+  </si>
+  <si>
+    <t>Bronzong</t>
+  </si>
+  <si>
+    <t>Bronzor-X</t>
+  </si>
+  <si>
+    <t>Bronzong-X</t>
   </si>
 </sst>
 </file>
@@ -4017,8 +4029,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J419" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="B145:J419" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J423" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="B145:J423" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{954E08A8-D138-4D6D-97C7-F47E4324725D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F9097124-9DD8-47D1-881E-F9976C72C702}" name="Total" dataCellStyle="60% - Accent4">
@@ -4390,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G415" sqref="G415"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32808,6 +32820,54 @@
       </c>
       <c r="C419" s="1">
         <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>275</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C420" s="1">
+        <f>SUM(D420:I420)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>276</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C421" s="1">
+        <f>SUM(D421:I421)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>277</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C422" s="1">
+        <f>SUM(D422:I422)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>278</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C423" s="1">
+        <f>SUM(D423:I423)</f>
         <v>0</v>
       </c>
     </row>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE918B2-ECB3-4909-93F5-EE56AFEDCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229CF193-5781-4B10-8C89-859759AA84AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -4402,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" topLeftCell="I256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O194" sqref="O194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18708,7 +18708,7 @@
       <c r="M192" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="N192" t="s">
+      <c r="N192" s="17" t="s">
         <v>776</v>
       </c>
       <c r="O192">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229CF193-5781-4B10-8C89-859759AA84AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13589B1D-C1C1-495B-924E-CD3E7289D7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1193">
   <si>
     <t>Leafer</t>
   </si>
@@ -3612,6 +3612,9 @@
   </si>
   <si>
     <t>Bronzong-X</t>
+  </si>
+  <si>
+    <t>Arthra uses</t>
   </si>
 </sst>
 </file>
@@ -4402,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O194" sqref="O194"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K417" sqref="K417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32766,7 +32769,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>272</v>
       </c>
@@ -32799,7 +32802,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>273</v>
       </c>
@@ -32811,7 +32814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>274</v>
       </c>
@@ -32822,8 +32825,11 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K419" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>275</v>
       </c>
@@ -32835,7 +32841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>276</v>
       </c>
@@ -32847,7 +32853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>277</v>
       </c>
@@ -32859,7 +32865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>278</v>
       </c>
@@ -32869,6 +32875,9 @@
       <c r="C423" s="1">
         <f>SUM(D423:I423)</f>
         <v>0</v>
+      </c>
+      <c r="K423" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.25">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13589B1D-C1C1-495B-924E-CD3E7289D7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465582C2-B5D3-4173-BCFB-04C6C92F0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1192">
   <si>
     <t>Leafer</t>
   </si>
@@ -3597,9 +3597,6 @@
   </si>
   <si>
     <t>Butterfree-X</t>
-  </si>
-  <si>
-    <t>Seviper-X</t>
   </si>
   <si>
     <t>Bronzor</t>
@@ -3886,7 +3883,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3897,9 +3894,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
@@ -3937,7 +3933,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -3952,11 +3947,15 @@
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Accent6" xfId="7" builtinId="50"/>
-    <cellStyle name="40% - Accent5" xfId="10" builtinId="47"/>
     <cellStyle name="40% - Accent6" xfId="8" builtinId="51"/>
     <cellStyle name="60% - Accent4" xfId="5" builtinId="44"/>
     <cellStyle name="Accent6" xfId="6" builtinId="49"/>
@@ -3966,7 +3965,169 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="9" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -3990,20 +4151,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4032,8 +4179,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J423" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="B145:J423" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J422" totalsRowShown="0" tableBorderDxfId="10">
+  <autoFilter ref="B145:J422" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{954E08A8-D138-4D6D-97C7-F47E4324725D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F9097124-9DD8-47D1-881E-F9976C72C702}" name="Total" dataCellStyle="60% - Accent4">
@@ -4059,13 +4206,13 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5ECD7C50-12C2-4722-BB43-4A5392C844D3}" name="Type" totalsRowLabel="TOTAL"/>
-    <tableColumn id="2" xr3:uid="{1FEEF44A-9297-470E-B8C5-DB2860F63B26}" name="HP" totalsRowFunction="average" totalsRowCellStyle="20% - Accent6"/>
-    <tableColumn id="3" xr3:uid="{C4F64A03-884E-4ABF-863F-FB93EB9C48D7}" name="Atk" totalsRowFunction="average" totalsRowCellStyle="Bad"/>
-    <tableColumn id="4" xr3:uid="{7D26ECE6-FEFB-43CC-9954-6A7B9A9B1FFF}" name="Def" totalsRowFunction="average" totalsRowCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{5E7CA636-F06B-46EF-9E88-779A1C949192}" name="SpA" totalsRowFunction="average" totalsRowCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{21E01ACA-9002-4C73-9BFF-AF400041F7E7}" name="SpD" totalsRowFunction="average" totalsRowCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{717E4770-D119-4D0A-BD0F-58E3D3ADFE4C}" name="Spe" totalsRowFunction="average" totalsRowCellStyle="40% - Accent5"/>
-    <tableColumn id="8" xr3:uid="{8B8669EB-BDCE-49F8-84EE-CA277552CD38}" name="Amt" totalsRowFunction="average" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1FEEF44A-9297-470E-B8C5-DB2860F63B26}" name="HP" totalsRowFunction="average" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C4F64A03-884E-4ABF-863F-FB93EB9C48D7}" name="Atk" totalsRowFunction="average" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7D26ECE6-FEFB-43CC-9954-6A7B9A9B1FFF}" name="Def" totalsRowFunction="average" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5E7CA636-F06B-46EF-9E88-779A1C949192}" name="SpA" totalsRowFunction="average" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{21E01ACA-9002-4C73-9BFF-AF400041F7E7}" name="SpD" totalsRowFunction="average" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{717E4770-D119-4D0A-BD0F-58E3D3ADFE4C}" name="Spe" totalsRowFunction="average" totalsRowDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8B8669EB-BDCE-49F8-84EE-CA277552CD38}" name="Amt" totalsRowFunction="average" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4081,8 +4228,8 @@
     <tableColumn id="5" xr3:uid="{D4240EEB-6B7E-4513-81CD-64F028AE015F}" name="Num"/>
     <tableColumn id="1" xr3:uid="{927F8053-02EB-4DE4-A9C2-E39369A9D18C}" name="Species"/>
     <tableColumn id="2" xr3:uid="{88EA7429-2A79-45C2-9DAD-432E911FB847}" name="Amount"/>
-    <tableColumn id="3" xr3:uid="{31049355-8917-406D-A961-EA9E609C094C}" name="Average" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9EB8DBFF-5E4E-4D13-B06A-8EEDCAE0D250}" name="Total" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{31049355-8917-406D-A961-EA9E609C094C}" name="Average" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9EB8DBFF-5E4E-4D13-B06A-8EEDCAE0D250}" name="Total" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>AB30*AA30</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4100,7 +4247,7 @@
     <tableColumn id="1" xr3:uid="{71084C9A-5E75-4048-82AA-70A2D1CBD776}" name="Num"/>
     <tableColumn id="2" xr3:uid="{7A1103DC-DAF9-41EF-BBD3-0883ED909130}" name="Pokemon"/>
     <tableColumn id="3" xr3:uid="{A641B1E3-DC03-463F-B2D8-CE49F38612E2}" name="Amt"/>
-    <tableColumn id="4" xr3:uid="{8554C379-EE33-4C0B-B30E-A04B1C29BF4E}" name="%" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{8554C379-EE33-4C0B-B30E-A04B1C29BF4E}" name="%" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4403,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
-  <dimension ref="A1:AT621"/>
+  <dimension ref="A1:AT620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K417" sqref="K417"/>
+    <sheetView tabSelected="1" topLeftCell="G44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54:S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4425,6 +4572,7 @@
     <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
     <col min="25" max="25" width="6.7109375" customWidth="1"/>
@@ -6208,10 +6356,10 @@
       <c r="AA29" t="s">
         <v>1099</v>
       </c>
-      <c r="AB29" s="37" t="s">
+      <c r="AB29" s="36" t="s">
         <v>1100</v>
       </c>
-      <c r="AC29" s="38" t="s">
+      <c r="AC29" s="37" t="s">
         <v>586</v>
       </c>
       <c r="AE29" t="s">
@@ -6274,10 +6422,10 @@
       <c r="AA30">
         <v>14</v>
       </c>
-      <c r="AB30" s="37">
+      <c r="AB30" s="36">
         <v>0.13569999999999999</v>
       </c>
-      <c r="AC30" s="38">
+      <c r="AC30" s="37">
         <f t="shared" ref="AC30:AC93" si="2">AB30*AA30</f>
         <v>1.8997999999999999</v>
       </c>
@@ -6290,7 +6438,7 @@
       <c r="AG30">
         <v>14</v>
       </c>
-      <c r="AH30" s="37">
+      <c r="AH30" s="36">
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
@@ -6341,10 +6489,10 @@
       <c r="AA31">
         <v>13</v>
       </c>
-      <c r="AB31" s="37">
+      <c r="AB31" s="36">
         <v>0.1469</v>
       </c>
-      <c r="AC31" s="38">
+      <c r="AC31" s="37">
         <f t="shared" si="2"/>
         <v>1.9097</v>
       </c>
@@ -6357,7 +6505,7 @@
       <c r="AG31">
         <v>11</v>
       </c>
-      <c r="AH31" s="37">
+      <c r="AH31" s="36">
         <v>1.23E-2</v>
       </c>
     </row>
@@ -6393,10 +6541,10 @@
       <c r="J32">
         <v>440</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="35" t="s">
         <v>1087</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="35" t="s">
         <v>1088</v>
       </c>
       <c r="T32" t="s">
@@ -6414,10 +6562,10 @@
       <c r="AA32">
         <v>12</v>
       </c>
-      <c r="AB32" s="37">
+      <c r="AB32" s="36">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AC32" s="38">
+      <c r="AC32" s="37">
         <f t="shared" si="2"/>
         <v>3.4499999999999997</v>
       </c>
@@ -6430,7 +6578,7 @@
       <c r="AG32">
         <v>11</v>
       </c>
-      <c r="AH32" s="37">
+      <c r="AH32" s="36">
         <v>1.23E-2</v>
       </c>
     </row>
@@ -6466,16 +6614,16 @@
       <c r="J33">
         <v>310</v>
       </c>
-      <c r="M33" s="35" t="s">
+      <c r="M33" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="N33" s="35" t="s">
+      <c r="N33" s="34" t="s">
         <v>1074</v>
       </c>
-      <c r="O33" s="35" t="s">
+      <c r="O33" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="P33" s="35" t="s">
+      <c r="P33" s="34" t="s">
         <v>186</v>
       </c>
       <c r="T33" t="s">
@@ -6496,10 +6644,10 @@
       <c r="AA33">
         <v>11</v>
       </c>
-      <c r="AB33" s="37">
+      <c r="AB33" s="36">
         <v>0.21640000000000001</v>
       </c>
-      <c r="AC33" s="38">
+      <c r="AC33" s="37">
         <f t="shared" si="2"/>
         <v>2.3804000000000003</v>
       </c>
@@ -6512,7 +6660,7 @@
       <c r="AG33">
         <v>11</v>
       </c>
-      <c r="AH33" s="37">
+      <c r="AH33" s="36">
         <v>1.23E-2</v>
       </c>
     </row>
@@ -6551,7 +6699,7 @@
       <c r="M34" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="39" t="s">
+      <c r="N34" s="38" t="s">
         <v>1118</v>
       </c>
       <c r="O34" t="s">
@@ -6575,10 +6723,10 @@
       <c r="AA34">
         <v>10</v>
       </c>
-      <c r="AB34" s="37">
+      <c r="AB34" s="36">
         <v>0.33100000000000002</v>
       </c>
-      <c r="AC34" s="38">
+      <c r="AC34" s="37">
         <f t="shared" si="2"/>
         <v>3.31</v>
       </c>
@@ -6591,7 +6739,7 @@
       <c r="AG34">
         <v>10</v>
       </c>
-      <c r="AH34" s="37">
+      <c r="AH34" s="36">
         <v>1.12E-2</v>
       </c>
     </row>
@@ -6654,10 +6802,10 @@
       <c r="AA35">
         <v>10</v>
       </c>
-      <c r="AB35" s="37">
+      <c r="AB35" s="36">
         <v>0.16800000000000001</v>
       </c>
-      <c r="AC35" s="38">
+      <c r="AC35" s="37">
         <f t="shared" si="2"/>
         <v>1.6800000000000002</v>
       </c>
@@ -6670,7 +6818,7 @@
       <c r="AG35">
         <v>10</v>
       </c>
-      <c r="AH35" s="37">
+      <c r="AH35" s="36">
         <v>1.12E-2</v>
       </c>
     </row>
@@ -6733,10 +6881,10 @@
       <c r="AA36">
         <v>10</v>
       </c>
-      <c r="AB36" s="37">
+      <c r="AB36" s="36">
         <v>0.125</v>
       </c>
-      <c r="AC36" s="38">
+      <c r="AC36" s="37">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
@@ -6749,7 +6897,7 @@
       <c r="AG36">
         <v>10</v>
       </c>
-      <c r="AH36" s="37">
+      <c r="AH36" s="36">
         <v>1.12E-2</v>
       </c>
     </row>
@@ -6809,10 +6957,10 @@
       <c r="AA37">
         <v>8</v>
       </c>
-      <c r="AB37" s="37">
+      <c r="AB37" s="36">
         <v>0.23380000000000001</v>
       </c>
-      <c r="AC37" s="38">
+      <c r="AC37" s="37">
         <f t="shared" si="2"/>
         <v>1.8704000000000001</v>
       </c>
@@ -6825,7 +6973,7 @@
       <c r="AG37">
         <v>10</v>
       </c>
-      <c r="AH37" s="37">
+      <c r="AH37" s="36">
         <v>1.12E-2</v>
       </c>
     </row>
@@ -6885,10 +7033,10 @@
       <c r="AA38">
         <v>8</v>
       </c>
-      <c r="AB38" s="37">
+      <c r="AB38" s="36">
         <v>0.17879999999999999</v>
       </c>
-      <c r="AC38" s="38">
+      <c r="AC38" s="37">
         <f t="shared" si="2"/>
         <v>1.4303999999999999</v>
       </c>
@@ -6901,7 +7049,7 @@
       <c r="AG38">
         <v>9</v>
       </c>
-      <c r="AH38" s="37">
+      <c r="AH38" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -6961,10 +7109,10 @@
       <c r="AA39">
         <v>8</v>
       </c>
-      <c r="AB39" s="37">
+      <c r="AB39" s="36">
         <v>0.17749999999999999</v>
       </c>
-      <c r="AC39" s="38">
+      <c r="AC39" s="37">
         <f t="shared" si="2"/>
         <v>1.42</v>
       </c>
@@ -6977,7 +7125,7 @@
       <c r="AG39">
         <v>9</v>
       </c>
-      <c r="AH39" s="37">
+      <c r="AH39" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -7037,10 +7185,10 @@
       <c r="AA40">
         <v>8</v>
       </c>
-      <c r="AB40" s="37">
+      <c r="AB40" s="36">
         <v>0.1537</v>
       </c>
-      <c r="AC40" s="38">
+      <c r="AC40" s="37">
         <f t="shared" si="2"/>
         <v>1.2296</v>
       </c>
@@ -7053,7 +7201,7 @@
       <c r="AG40">
         <v>9</v>
       </c>
-      <c r="AH40" s="37">
+      <c r="AH40" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -7110,10 +7258,10 @@
       <c r="AA41">
         <v>8</v>
       </c>
-      <c r="AB41" s="37">
+      <c r="AB41" s="36">
         <v>0.1263</v>
       </c>
-      <c r="AC41" s="38">
+      <c r="AC41" s="37">
         <f t="shared" si="2"/>
         <v>1.0104</v>
       </c>
@@ -7126,7 +7274,7 @@
       <c r="AG41">
         <v>9</v>
       </c>
-      <c r="AH41" s="37">
+      <c r="AH41" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -7183,10 +7331,10 @@
       <c r="AA42">
         <v>7</v>
       </c>
-      <c r="AB42" s="37">
+      <c r="AB42" s="36">
         <v>0.20569999999999999</v>
       </c>
-      <c r="AC42" s="38">
+      <c r="AC42" s="37">
         <f t="shared" si="2"/>
         <v>1.4399</v>
       </c>
@@ -7199,7 +7347,7 @@
       <c r="AG42">
         <v>9</v>
       </c>
-      <c r="AH42" s="37">
+      <c r="AH42" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -7259,10 +7407,10 @@
       <c r="AA43">
         <v>7</v>
       </c>
-      <c r="AB43" s="37">
+      <c r="AB43" s="36">
         <v>0.1686</v>
       </c>
-      <c r="AC43" s="38">
+      <c r="AC43" s="37">
         <f t="shared" si="2"/>
         <v>1.1801999999999999</v>
       </c>
@@ -7275,7 +7423,7 @@
       <c r="AG43">
         <v>9</v>
       </c>
-      <c r="AH43" s="37">
+      <c r="AH43" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -7332,10 +7480,10 @@
       <c r="AA44">
         <v>6</v>
       </c>
-      <c r="AB44" s="37">
+      <c r="AB44" s="36">
         <v>0.60829999999999995</v>
       </c>
-      <c r="AC44" s="38">
+      <c r="AC44" s="37">
         <f t="shared" si="2"/>
         <v>3.6497999999999999</v>
       </c>
@@ -7348,7 +7496,7 @@
       <c r="AG44">
         <v>9</v>
       </c>
-      <c r="AH44" s="37">
+      <c r="AH44" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -7402,10 +7550,10 @@
       <c r="AA45">
         <v>6</v>
       </c>
-      <c r="AB45" s="37">
+      <c r="AB45" s="36">
         <v>0.2833</v>
       </c>
-      <c r="AC45" s="38">
+      <c r="AC45" s="37">
         <f t="shared" si="2"/>
         <v>1.6998</v>
       </c>
@@ -7418,7 +7566,7 @@
       <c r="AG45">
         <v>9</v>
       </c>
-      <c r="AH45" s="37">
+      <c r="AH45" s="36">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -7469,10 +7617,10 @@
       <c r="AA46">
         <v>6</v>
       </c>
-      <c r="AB46" s="37">
+      <c r="AB46" s="36">
         <v>0.21</v>
       </c>
-      <c r="AC46" s="38">
+      <c r="AC46" s="37">
         <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
@@ -7485,7 +7633,7 @@
       <c r="AG46">
         <v>8</v>
       </c>
-      <c r="AH46" s="37">
+      <c r="AH46" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -7536,10 +7684,10 @@
       <c r="AA47">
         <v>6</v>
       </c>
-      <c r="AB47" s="37">
+      <c r="AB47" s="36">
         <v>0.19500000000000001</v>
       </c>
-      <c r="AC47" s="38">
+      <c r="AC47" s="37">
         <f t="shared" si="2"/>
         <v>1.17</v>
       </c>
@@ -7552,7 +7700,7 @@
       <c r="AG47">
         <v>8</v>
       </c>
-      <c r="AH47" s="37">
+      <c r="AH47" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -7603,10 +7751,10 @@
       <c r="AA48">
         <v>6</v>
       </c>
-      <c r="AB48" s="37">
+      <c r="AB48" s="36">
         <v>0.1817</v>
       </c>
-      <c r="AC48" s="38">
+      <c r="AC48" s="37">
         <f t="shared" si="2"/>
         <v>1.0902000000000001</v>
       </c>
@@ -7619,7 +7767,7 @@
       <c r="AG48">
         <v>8</v>
       </c>
-      <c r="AH48" s="37">
+      <c r="AH48" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -7667,10 +7815,10 @@
       <c r="AA49">
         <v>6</v>
       </c>
-      <c r="AB49" s="37">
+      <c r="AB49" s="36">
         <v>0.18</v>
       </c>
-      <c r="AC49" s="38">
+      <c r="AC49" s="37">
         <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
@@ -7683,7 +7831,7 @@
       <c r="AG49">
         <v>8</v>
       </c>
-      <c r="AH49" s="37">
+      <c r="AH49" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -7734,10 +7882,10 @@
       <c r="AA50">
         <v>6</v>
       </c>
-      <c r="AB50" s="37">
+      <c r="AB50" s="36">
         <v>0.16669999999999999</v>
       </c>
-      <c r="AC50" s="38">
+      <c r="AC50" s="37">
         <f t="shared" si="2"/>
         <v>1.0002</v>
       </c>
@@ -7750,7 +7898,7 @@
       <c r="AG50">
         <v>8</v>
       </c>
-      <c r="AH50" s="37">
+      <c r="AH50" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -7798,10 +7946,10 @@
       <c r="AA51">
         <v>6</v>
       </c>
-      <c r="AB51" s="37">
+      <c r="AB51" s="36">
         <v>0.125</v>
       </c>
-      <c r="AC51" s="38">
+      <c r="AC51" s="37">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -7814,7 +7962,7 @@
       <c r="AG51">
         <v>8</v>
       </c>
-      <c r="AH51" s="37">
+      <c r="AH51" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -7862,10 +8010,10 @@
       <c r="AA52">
         <v>5</v>
       </c>
-      <c r="AB52" s="37">
+      <c r="AB52" s="36">
         <v>0.30199999999999999</v>
       </c>
-      <c r="AC52" s="38">
+      <c r="AC52" s="37">
         <f t="shared" si="2"/>
         <v>1.51</v>
       </c>
@@ -7878,7 +8026,7 @@
       <c r="AG52">
         <v>8</v>
       </c>
-      <c r="AH52" s="37">
+      <c r="AH52" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -7926,10 +8074,10 @@
       <c r="AA53">
         <v>5</v>
       </c>
-      <c r="AB53" s="37">
+      <c r="AB53" s="36">
         <v>0.252</v>
       </c>
-      <c r="AC53" s="38">
+      <c r="AC53" s="37">
         <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
@@ -7942,7 +8090,7 @@
       <c r="AG53">
         <v>8</v>
       </c>
-      <c r="AH53" s="37">
+      <c r="AH53" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -8014,10 +8162,10 @@
       <c r="AA54">
         <v>5</v>
       </c>
-      <c r="AB54" s="37">
+      <c r="AB54" s="36">
         <v>0.248</v>
       </c>
-      <c r="AC54" s="38">
+      <c r="AC54" s="37">
         <f t="shared" si="2"/>
         <v>1.24</v>
       </c>
@@ -8030,7 +8178,7 @@
       <c r="AG54">
         <v>8</v>
       </c>
-      <c r="AH54" s="37">
+      <c r="AH54" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -8073,7 +8221,7 @@
         <v>66.7</v>
       </c>
       <c r="N55">
-        <v>64.400000000000006</v>
+        <v>63.8</v>
       </c>
       <c r="O55">
         <v>70.7</v>
@@ -8082,13 +8230,13 @@
         <v>64.900000000000006</v>
       </c>
       <c r="Q55">
-        <v>75.2</v>
+        <v>75.8</v>
       </c>
       <c r="R55">
         <v>66.2</v>
       </c>
       <c r="S55">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W55" s="10" t="s">
         <v>231</v>
@@ -8102,10 +8250,10 @@
       <c r="AA55">
         <v>5</v>
       </c>
-      <c r="AB55" s="37">
+      <c r="AB55" s="36">
         <v>0.22</v>
       </c>
-      <c r="AC55" s="38">
+      <c r="AC55" s="37">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
@@ -8118,7 +8266,7 @@
       <c r="AG55">
         <v>8</v>
       </c>
-      <c r="AH55" s="37">
+      <c r="AH55" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -8158,25 +8306,25 @@
         <v>182</v>
       </c>
       <c r="M56">
-        <v>69.3</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="N56">
-        <v>80.099999999999994</v>
+        <v>82.3</v>
       </c>
       <c r="O56">
-        <v>70.400000000000006</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="P56">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="Q56">
-        <v>68.5</v>
+        <v>68.2</v>
       </c>
       <c r="R56">
-        <v>71.900000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="S56">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W56" s="12" t="s">
         <v>178</v>
@@ -8190,10 +8338,10 @@
       <c r="AA56">
         <v>5</v>
       </c>
-      <c r="AB56" s="37">
+      <c r="AB56" s="36">
         <v>0.17</v>
       </c>
-      <c r="AC56" s="38">
+      <c r="AC56" s="37">
         <f t="shared" si="2"/>
         <v>0.85000000000000009</v>
       </c>
@@ -8206,7 +8354,7 @@
       <c r="AG56">
         <v>8</v>
       </c>
-      <c r="AH56" s="37">
+      <c r="AH56" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -8246,25 +8394,25 @@
         <v>186</v>
       </c>
       <c r="M57">
-        <v>74.7</v>
+        <v>73.5</v>
       </c>
       <c r="N57">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="O57">
-        <v>84.6</v>
+        <v>83.4</v>
       </c>
       <c r="P57">
-        <v>51.5</v>
+        <v>50.2</v>
       </c>
       <c r="Q57">
-        <v>73.5</v>
+        <v>73.2</v>
       </c>
       <c r="R57">
-        <v>68.900000000000006</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="S57">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="W57" s="10" t="s">
         <v>232</v>
@@ -8281,10 +8429,10 @@
       <c r="AA57">
         <v>5</v>
       </c>
-      <c r="AB57" s="37">
+      <c r="AB57" s="36">
         <v>0.156</v>
       </c>
-      <c r="AC57" s="38">
+      <c r="AC57" s="37">
         <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
@@ -8297,7 +8445,7 @@
       <c r="AG57">
         <v>8</v>
       </c>
-      <c r="AH57" s="37">
+      <c r="AH57" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -8334,28 +8482,28 @@
         <v>419</v>
       </c>
       <c r="L58" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M58">
-        <v>81.7</v>
+        <v>63.8</v>
       </c>
       <c r="N58">
-        <v>86.2</v>
+        <v>62.4</v>
       </c>
       <c r="O58">
-        <v>100.4</v>
+        <v>62.6</v>
       </c>
       <c r="P58">
-        <v>59.9</v>
+        <v>89</v>
       </c>
       <c r="Q58">
-        <v>77.599999999999994</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="R58">
-        <v>49.8</v>
+        <v>61.2</v>
       </c>
       <c r="S58">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="W58" s="10" t="s">
         <v>233</v>
@@ -8369,10 +8517,10 @@
       <c r="AA58">
         <v>5</v>
       </c>
-      <c r="AB58" s="37">
+      <c r="AB58" s="36">
         <v>0.13</v>
       </c>
-      <c r="AC58" s="38">
+      <c r="AC58" s="37">
         <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
@@ -8385,7 +8533,7 @@
       <c r="AG58">
         <v>8</v>
       </c>
-      <c r="AH58" s="37">
+      <c r="AH58" s="36">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -8425,25 +8573,25 @@
         <v>208</v>
       </c>
       <c r="M59">
-        <v>69.3</v>
+        <v>62.4</v>
       </c>
       <c r="N59">
-        <v>62</v>
+        <v>55.1</v>
       </c>
       <c r="O59">
-        <v>65.400000000000006</v>
+        <v>57.3</v>
       </c>
       <c r="P59">
-        <v>86.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="Q59">
-        <v>88.1</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="R59">
-        <v>73.8</v>
+        <v>69.7</v>
       </c>
       <c r="S59">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="W59" s="10" t="s">
         <v>234</v>
@@ -8457,10 +8605,10 @@
       <c r="AA59">
         <v>5</v>
       </c>
-      <c r="AB59" s="37">
+      <c r="AB59" s="36">
         <v>0.114</v>
       </c>
-      <c r="AC59" s="38">
+      <c r="AC59" s="37">
         <f t="shared" si="2"/>
         <v>0.57000000000000006</v>
       </c>
@@ -8473,7 +8621,7 @@
       <c r="AG59">
         <v>7</v>
       </c>
-      <c r="AH59" s="37">
+      <c r="AH59" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -8510,28 +8658,28 @@
         <v>500</v>
       </c>
       <c r="L60" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="M60">
-        <v>74.900000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="N60">
-        <v>67.099999999999994</v>
+        <v>82.2</v>
       </c>
       <c r="O60">
-        <v>71.5</v>
+        <v>97</v>
       </c>
       <c r="P60">
-        <v>87</v>
+        <v>65.2</v>
       </c>
       <c r="Q60">
-        <v>74.2</v>
+        <v>76</v>
       </c>
       <c r="R60">
-        <v>71.3</v>
+        <v>52.1</v>
       </c>
       <c r="S60">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W60" s="12" t="s">
         <v>235</v>
@@ -8548,10 +8696,10 @@
       <c r="AA60">
         <v>5</v>
       </c>
-      <c r="AB60" s="37">
+      <c r="AB60" s="36">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AC60" s="38">
+      <c r="AC60" s="37">
         <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
@@ -8564,7 +8712,7 @@
       <c r="AG60">
         <v>7</v>
       </c>
-      <c r="AH60" s="37">
+      <c r="AH60" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -8604,25 +8752,25 @@
         <v>204</v>
       </c>
       <c r="M61">
-        <v>72.400000000000006</v>
+        <v>71.7</v>
       </c>
       <c r="N61">
-        <v>86.3</v>
+        <v>87.9</v>
       </c>
       <c r="O61">
-        <v>63.9</v>
+        <v>63.6</v>
       </c>
       <c r="P61">
-        <v>69.400000000000006</v>
+        <v>67.3</v>
       </c>
       <c r="Q61">
-        <v>70.5</v>
+        <v>71.2</v>
       </c>
       <c r="R61">
-        <v>79.3</v>
+        <v>82.3</v>
       </c>
       <c r="S61">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="W61" t="s">
         <v>237</v>
@@ -8636,10 +8784,10 @@
       <c r="AA61">
         <v>4</v>
       </c>
-      <c r="AB61" s="37">
+      <c r="AB61" s="36">
         <v>0.3</v>
       </c>
-      <c r="AC61" s="38">
+      <c r="AC61" s="37">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
@@ -8652,7 +8800,7 @@
       <c r="AG61">
         <v>7</v>
       </c>
-      <c r="AH61" s="37">
+      <c r="AH61" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -8689,28 +8837,28 @@
         <v>486</v>
       </c>
       <c r="L62" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="M62">
-        <v>61.3</v>
+        <v>85.1</v>
       </c>
       <c r="N62">
-        <v>79</v>
+        <v>80.7</v>
       </c>
       <c r="O62">
-        <v>86</v>
+        <v>76.5</v>
       </c>
       <c r="P62">
-        <v>54.6</v>
+        <v>78.5</v>
       </c>
       <c r="Q62">
-        <v>58</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="R62">
-        <v>55.5</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="S62">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W62" s="10" t="s">
         <v>238</v>
@@ -8724,10 +8872,10 @@
       <c r="AA62">
         <v>4</v>
       </c>
-      <c r="AB62" s="37">
+      <c r="AB62" s="36">
         <v>0.27250000000000002</v>
       </c>
-      <c r="AC62" s="38">
+      <c r="AC62" s="37">
         <f t="shared" si="2"/>
         <v>1.0900000000000001</v>
       </c>
@@ -8740,7 +8888,7 @@
       <c r="AG62">
         <v>7</v>
       </c>
-      <c r="AH62" s="37">
+      <c r="AH62" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -8777,28 +8925,28 @@
         <v>318</v>
       </c>
       <c r="L63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M63">
-        <v>67.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="N63">
-        <v>70.2</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="O63">
-        <v>72.7</v>
+        <v>71.5</v>
       </c>
       <c r="P63">
-        <v>72.400000000000006</v>
+        <v>87</v>
       </c>
       <c r="Q63">
-        <v>76.5</v>
+        <v>74.2</v>
       </c>
       <c r="R63">
-        <v>62.9</v>
+        <v>71.3</v>
       </c>
       <c r="S63">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W63" s="12" t="s">
         <v>239</v>
@@ -8812,10 +8960,10 @@
       <c r="AA63">
         <v>4</v>
       </c>
-      <c r="AB63" s="37">
+      <c r="AB63" s="36">
         <v>0.22</v>
       </c>
-      <c r="AC63" s="38">
+      <c r="AC63" s="37">
         <f t="shared" si="2"/>
         <v>0.88</v>
       </c>
@@ -8828,7 +8976,7 @@
       <c r="AG63">
         <v>7</v>
       </c>
-      <c r="AH63" s="37">
+      <c r="AH63" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -8865,28 +9013,28 @@
         <v>471</v>
       </c>
       <c r="L64" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M64">
-        <v>65.900000000000006</v>
+        <v>60.1</v>
       </c>
       <c r="N64">
-        <v>83.9</v>
+        <v>82.4</v>
       </c>
       <c r="O64">
-        <v>68.099999999999994</v>
+        <v>71</v>
       </c>
       <c r="P64">
-        <v>90</v>
+        <v>55.8</v>
       </c>
       <c r="Q64">
-        <v>83.2</v>
+        <v>62.3</v>
       </c>
       <c r="R64">
-        <v>79.599999999999994</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="S64">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="W64" s="10" t="s">
         <v>240</v>
@@ -8900,10 +9048,10 @@
       <c r="AA64">
         <v>4</v>
       </c>
-      <c r="AB64" s="37">
+      <c r="AB64" s="36">
         <v>0.18</v>
       </c>
-      <c r="AC64" s="38">
+      <c r="AC64" s="37">
         <f t="shared" si="2"/>
         <v>0.72</v>
       </c>
@@ -8916,7 +9064,7 @@
       <c r="AG64">
         <v>7</v>
       </c>
-      <c r="AH64" s="37">
+      <c r="AH64" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -8953,28 +9101,28 @@
         <v>400</v>
       </c>
       <c r="L65" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="M65">
-        <v>64.900000000000006</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="N65">
-        <v>65.400000000000006</v>
+        <v>89.8</v>
       </c>
       <c r="O65">
-        <v>68</v>
+        <v>68.8</v>
       </c>
       <c r="P65">
+        <v>87.5</v>
+      </c>
+      <c r="Q65">
+        <v>80.2</v>
+      </c>
+      <c r="R65">
         <v>81.2</v>
       </c>
-      <c r="Q65">
-        <v>87.5</v>
-      </c>
-      <c r="R65">
-        <v>56.2</v>
-      </c>
       <c r="S65">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W65" t="s">
         <v>241</v>
@@ -8988,10 +9136,10 @@
       <c r="AA65">
         <v>4</v>
       </c>
-      <c r="AB65" s="37">
+      <c r="AB65" s="36">
         <v>0.155</v>
       </c>
-      <c r="AC65" s="38">
+      <c r="AC65" s="37">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
@@ -9004,7 +9152,7 @@
       <c r="AG65">
         <v>7</v>
       </c>
-      <c r="AH65" s="37">
+      <c r="AH65" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -9041,28 +9189,28 @@
         <v>495</v>
       </c>
       <c r="L66" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M66">
-        <v>54.7</v>
+        <v>61.3</v>
       </c>
       <c r="N66">
-        <v>74.3</v>
+        <v>79</v>
       </c>
       <c r="O66">
-        <v>70.3</v>
+        <v>86</v>
       </c>
       <c r="P66">
-        <v>51</v>
+        <v>54.6</v>
       </c>
       <c r="Q66">
-        <v>61.9</v>
+        <v>58</v>
       </c>
       <c r="R66">
-        <v>69.5</v>
+        <v>55.5</v>
       </c>
       <c r="S66">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W66" s="10" t="s">
         <v>242</v>
@@ -9076,10 +9224,10 @@
       <c r="AA66">
         <v>4</v>
       </c>
-      <c r="AB66" s="37">
+      <c r="AB66" s="36">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AC66" s="38">
+      <c r="AC66" s="37">
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
@@ -9092,7 +9240,7 @@
       <c r="AG66">
         <v>7</v>
       </c>
-      <c r="AH66" s="37">
+      <c r="AH66" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -9129,28 +9277,28 @@
         <v>330</v>
       </c>
       <c r="L67" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M67">
-        <v>68.900000000000006</v>
+        <v>66.3</v>
       </c>
       <c r="N67">
-        <v>62.2</v>
+        <v>69.3</v>
       </c>
       <c r="O67">
-        <v>72.7</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="P67">
-        <v>72.599999999999994</v>
+        <v>72.2</v>
       </c>
       <c r="Q67">
-        <v>81.400000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="R67">
-        <v>83.3</v>
+        <v>62.9</v>
       </c>
       <c r="S67">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="W67" s="10" t="s">
         <v>243</v>
@@ -9164,10 +9312,10 @@
       <c r="AA67">
         <v>4</v>
       </c>
-      <c r="AB67" s="37">
+      <c r="AB67" s="36">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AC67" s="38">
+      <c r="AC67" s="37">
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
@@ -9180,7 +9328,7 @@
       <c r="AG67">
         <v>7</v>
       </c>
-      <c r="AH67" s="37">
+      <c r="AH67" s="36">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -9217,28 +9365,28 @@
         <v>430</v>
       </c>
       <c r="L68" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M68">
-        <v>87</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="N68">
-        <v>93.4</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="O68">
-        <v>85.2</v>
+        <v>62.4</v>
       </c>
       <c r="P68">
-        <v>91.8</v>
+        <v>81.2</v>
       </c>
       <c r="Q68">
-        <v>82.9</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="R68">
-        <v>82.3</v>
+        <v>86.3</v>
       </c>
       <c r="S68">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="W68" s="10" t="s">
         <v>244</v>
@@ -9252,10 +9400,10 @@
       <c r="AA68">
         <v>4</v>
       </c>
-      <c r="AB68" s="37">
+      <c r="AB68" s="36">
         <v>0.125</v>
       </c>
-      <c r="AC68" s="38">
+      <c r="AC68" s="37">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -9268,7 +9416,7 @@
       <c r="AG68">
         <v>6</v>
       </c>
-      <c r="AH68" s="37">
+      <c r="AH68" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -9305,28 +9453,28 @@
         <v>505</v>
       </c>
       <c r="L69" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M69">
-        <v>65.3</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="N69">
-        <v>68.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="O69">
-        <v>70.599999999999994</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="P69">
-        <v>80.3</v>
+        <v>72.5</v>
       </c>
       <c r="Q69">
-        <v>72.3</v>
+        <v>79.8</v>
       </c>
       <c r="R69">
-        <v>69.2</v>
+        <v>83.9</v>
       </c>
       <c r="S69">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W69" s="10" t="s">
         <v>245</v>
@@ -9340,10 +9488,10 @@
       <c r="AA69">
         <v>4</v>
       </c>
-      <c r="AB69" s="37">
+      <c r="AB69" s="36">
         <v>0.1225</v>
       </c>
-      <c r="AC69" s="38">
+      <c r="AC69" s="37">
         <f t="shared" si="2"/>
         <v>0.49</v>
       </c>
@@ -9356,7 +9504,7 @@
       <c r="AG69">
         <v>6</v>
       </c>
-      <c r="AH69" s="37">
+      <c r="AH69" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -9393,28 +9541,28 @@
         <v>525</v>
       </c>
       <c r="L70" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="M70">
-        <v>88.3</v>
+        <v>66.2</v>
       </c>
       <c r="N70">
-        <v>71.099999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="O70">
-        <v>78.599999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="P70">
-        <v>76.8</v>
+        <v>80</v>
       </c>
       <c r="Q70">
-        <v>87.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="R70">
-        <v>67.8</v>
+        <v>70.2</v>
       </c>
       <c r="S70">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W70" t="s">
         <v>246</v>
@@ -9428,10 +9576,10 @@
       <c r="AA70">
         <v>4</v>
       </c>
-      <c r="AB70" s="37">
+      <c r="AB70" s="36">
         <v>0.115</v>
       </c>
-      <c r="AC70" s="38">
+      <c r="AC70" s="37">
         <f t="shared" si="2"/>
         <v>0.46</v>
       </c>
@@ -9444,7 +9592,7 @@
       <c r="AG70">
         <v>6</v>
       </c>
-      <c r="AH70" s="37">
+      <c r="AH70" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -9481,28 +9629,28 @@
         <v>316</v>
       </c>
       <c r="L71" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M71">
-        <v>68.3</v>
+        <v>87</v>
       </c>
       <c r="N71">
-        <v>72.400000000000006</v>
+        <v>93.4</v>
       </c>
       <c r="O71">
-        <v>65.8</v>
+        <v>85.2</v>
       </c>
       <c r="P71">
-        <v>59.4</v>
+        <v>91.8</v>
       </c>
       <c r="Q71">
-        <v>64.400000000000006</v>
+        <v>82.9</v>
       </c>
       <c r="R71">
-        <v>64.099999999999994</v>
+        <v>82.3</v>
       </c>
       <c r="S71">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="W71" s="10" t="s">
         <v>247</v>
@@ -9516,10 +9664,10 @@
       <c r="AA71">
         <v>4</v>
       </c>
-      <c r="AB71" s="37">
+      <c r="AB71" s="36">
         <v>0.11</v>
       </c>
-      <c r="AC71" s="38">
+      <c r="AC71" s="37">
         <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
@@ -9532,7 +9680,7 @@
       <c r="AG71">
         <v>6</v>
       </c>
-      <c r="AH71" s="37">
+      <c r="AH71" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -9569,28 +9717,28 @@
         <v>412</v>
       </c>
       <c r="L72" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M72">
-        <v>76.3</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="N72">
-        <v>82.7</v>
+        <v>92.3</v>
       </c>
       <c r="O72">
-        <v>73.7</v>
+        <v>90.1</v>
       </c>
       <c r="P72">
-        <v>78.5</v>
+        <v>68.8</v>
       </c>
       <c r="Q72">
-        <v>83.9</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="R72">
-        <v>63.4</v>
+        <v>72.8</v>
       </c>
       <c r="S72">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W72" s="10" t="s">
         <v>248</v>
@@ -9604,10 +9752,10 @@
       <c r="AA72">
         <v>4</v>
       </c>
-      <c r="AB72" s="37">
+      <c r="AB72" s="36">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AC72" s="38">
+      <c r="AC72" s="37">
         <f t="shared" si="2"/>
         <v>0.34</v>
       </c>
@@ -9620,7 +9768,7 @@
       <c r="AG72">
         <v>6</v>
       </c>
-      <c r="AH72" s="37">
+      <c r="AH72" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -9657,28 +9805,28 @@
         <v>510</v>
       </c>
       <c r="L73" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M73">
-        <v>63.1</v>
+        <v>74.7</v>
       </c>
       <c r="N73">
-        <v>65.3</v>
+        <v>85.6</v>
       </c>
       <c r="O73">
-        <v>57.3</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="P73">
-        <v>85.2</v>
+        <v>74</v>
       </c>
       <c r="Q73">
-        <v>84.1</v>
+        <v>83.4</v>
       </c>
       <c r="R73">
-        <v>81.8</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="S73">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W73" s="10" t="s">
         <v>249</v>
@@ -9692,10 +9840,10 @@
       <c r="AA73">
         <v>3</v>
       </c>
-      <c r="AB73" s="37">
+      <c r="AB73" s="36">
         <v>0.26669999999999999</v>
       </c>
-      <c r="AC73" s="38">
+      <c r="AC73" s="37">
         <f t="shared" si="2"/>
         <v>0.80010000000000003</v>
       </c>
@@ -9708,7 +9856,7 @@
       <c r="AG73">
         <v>6</v>
       </c>
-      <c r="AH73" s="37">
+      <c r="AH73" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -9745,28 +9893,28 @@
         <v>306</v>
       </c>
       <c r="L74" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="M74">
-        <v>67.400000000000006</v>
+        <v>69.8</v>
       </c>
       <c r="N74">
-        <v>83.5</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="O74">
-        <v>96.2</v>
+        <v>66.7</v>
       </c>
       <c r="P74">
-        <v>66.5</v>
+        <v>61.1</v>
       </c>
       <c r="Q74">
-        <v>81.2</v>
+        <v>64.3</v>
       </c>
       <c r="R74">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="S74">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W74" s="11" t="s">
         <v>180</v>
@@ -9780,10 +9928,10 @@
       <c r="AA74">
         <v>3</v>
       </c>
-      <c r="AB74" s="37">
+      <c r="AB74" s="36">
         <v>0.23330000000000001</v>
       </c>
-      <c r="AC74" s="38">
+      <c r="AC74" s="37">
         <f t="shared" si="2"/>
         <v>0.69989999999999997</v>
       </c>
@@ -9796,7 +9944,7 @@
       <c r="AG74">
         <v>6</v>
       </c>
-      <c r="AH74" s="37">
+      <c r="AH74" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -9835,33 +9983,33 @@
       <c r="L75" t="s">
         <v>1081</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="45">
         <f>SUBTOTAL(101,Table1[HP])</f>
-        <v>70.38</v>
-      </c>
-      <c r="N75" s="3">
+        <v>70.50500000000001</v>
+      </c>
+      <c r="N75" s="46">
         <f>SUBTOTAL(101,Table1[Atk])</f>
-        <v>76.125</v>
-      </c>
-      <c r="O75" s="4">
+        <v>78.74499999999999</v>
+      </c>
+      <c r="O75" s="47">
         <f>SUBTOTAL(101,Table1[Def])</f>
-        <v>74.60499999999999</v>
-      </c>
-      <c r="P75" s="5">
+        <v>73.524999999999991</v>
+      </c>
+      <c r="P75" s="48">
         <f>SUBTOTAL(101,Table1[SpA])</f>
-        <v>72.570000000000007</v>
-      </c>
-      <c r="Q75" s="4">
+        <v>72.709999999999994</v>
+      </c>
+      <c r="Q75" s="47">
         <f>SUBTOTAL(101,Table1[SpD])</f>
-        <v>76.640000000000015</v>
-      </c>
-      <c r="R75" s="33">
+        <v>74.680000000000021</v>
+      </c>
+      <c r="R75" s="49">
         <f>SUBTOTAL(101,Table1[Spe])</f>
-        <v>69.150000000000006</v>
-      </c>
-      <c r="S75" s="34">
+        <v>71.16</v>
+      </c>
+      <c r="S75" s="33">
         <f>SUBTOTAL(101,Table1[Amt])</f>
-        <v>21.95</v>
+        <v>25.7</v>
       </c>
       <c r="W75" s="10" t="s">
         <v>250</v>
@@ -9875,10 +10023,10 @@
       <c r="AA75">
         <v>3</v>
       </c>
-      <c r="AB75" s="37">
+      <c r="AB75" s="36">
         <v>0.2233</v>
       </c>
-      <c r="AC75" s="38">
+      <c r="AC75" s="37">
         <f t="shared" si="2"/>
         <v>0.66989999999999994</v>
       </c>
@@ -9891,7 +10039,7 @@
       <c r="AG75">
         <v>6</v>
       </c>
-      <c r="AH75" s="37">
+      <c r="AH75" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -9939,10 +10087,10 @@
       <c r="AA76">
         <v>3</v>
       </c>
-      <c r="AB76" s="37">
+      <c r="AB76" s="36">
         <v>0.21</v>
       </c>
-      <c r="AC76" s="38">
+      <c r="AC76" s="37">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
@@ -9955,7 +10103,7 @@
       <c r="AG76">
         <v>6</v>
       </c>
-      <c r="AH76" s="37">
+      <c r="AH76" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10003,10 +10151,10 @@
       <c r="AA77">
         <v>3</v>
       </c>
-      <c r="AB77" s="37">
+      <c r="AB77" s="36">
         <v>0.20669999999999999</v>
       </c>
-      <c r="AC77" s="38">
+      <c r="AC77" s="37">
         <f t="shared" si="2"/>
         <v>0.62009999999999998</v>
       </c>
@@ -10019,7 +10167,7 @@
       <c r="AG77">
         <v>6</v>
       </c>
-      <c r="AH77" s="37">
+      <c r="AH77" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10067,10 +10215,10 @@
       <c r="AA78">
         <v>3</v>
       </c>
-      <c r="AB78" s="37">
+      <c r="AB78" s="36">
         <v>0.2</v>
       </c>
-      <c r="AC78" s="38">
+      <c r="AC78" s="37">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
@@ -10083,7 +10231,7 @@
       <c r="AG78">
         <v>6</v>
       </c>
-      <c r="AH78" s="37">
+      <c r="AH78" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10131,10 +10279,10 @@
       <c r="AA79">
         <v>3</v>
       </c>
-      <c r="AB79" s="37">
+      <c r="AB79" s="36">
         <v>0.18329999999999999</v>
       </c>
-      <c r="AC79" s="38">
+      <c r="AC79" s="37">
         <f t="shared" si="2"/>
         <v>0.54989999999999994</v>
       </c>
@@ -10147,7 +10295,7 @@
       <c r="AG79">
         <v>6</v>
       </c>
-      <c r="AH79" s="37">
+      <c r="AH79" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10195,10 +10343,10 @@
       <c r="AA80">
         <v>3</v>
       </c>
-      <c r="AB80" s="37">
+      <c r="AB80" s="36">
         <v>0.16669999999999999</v>
       </c>
-      <c r="AC80" s="38">
+      <c r="AC80" s="37">
         <f t="shared" si="2"/>
         <v>0.50009999999999999</v>
       </c>
@@ -10211,7 +10359,7 @@
       <c r="AG80">
         <v>6</v>
       </c>
-      <c r="AH80" s="37">
+      <c r="AH80" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10259,10 +10407,10 @@
       <c r="AA81">
         <v>3</v>
       </c>
-      <c r="AB81" s="37">
+      <c r="AB81" s="36">
         <v>0.16</v>
       </c>
-      <c r="AC81" s="38">
+      <c r="AC81" s="37">
         <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
@@ -10275,7 +10423,7 @@
       <c r="AG81">
         <v>6</v>
       </c>
-      <c r="AH81" s="37">
+      <c r="AH81" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10323,10 +10471,10 @@
       <c r="AA82">
         <v>3</v>
       </c>
-      <c r="AB82" s="37">
+      <c r="AB82" s="36">
         <v>0.15670000000000001</v>
       </c>
-      <c r="AC82" s="38">
+      <c r="AC82" s="37">
         <f t="shared" si="2"/>
         <v>0.47010000000000002</v>
       </c>
@@ -10339,7 +10487,7 @@
       <c r="AG82">
         <v>6</v>
       </c>
-      <c r="AH82" s="37">
+      <c r="AH82" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10387,10 +10535,10 @@
       <c r="AA83">
         <v>3</v>
       </c>
-      <c r="AB83" s="37">
+      <c r="AB83" s="36">
         <v>0.15329999999999999</v>
       </c>
-      <c r="AC83" s="38">
+      <c r="AC83" s="37">
         <f t="shared" si="2"/>
         <v>0.45989999999999998</v>
       </c>
@@ -10403,7 +10551,7 @@
       <c r="AG83">
         <v>6</v>
       </c>
-      <c r="AH83" s="37">
+      <c r="AH83" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10451,10 +10599,10 @@
       <c r="AA84">
         <v>3</v>
       </c>
-      <c r="AB84" s="37">
+      <c r="AB84" s="36">
         <v>0.15329999999999999</v>
       </c>
-      <c r="AC84" s="38">
+      <c r="AC84" s="37">
         <f t="shared" si="2"/>
         <v>0.45989999999999998</v>
       </c>
@@ -10467,7 +10615,7 @@
       <c r="AG84">
         <v>6</v>
       </c>
-      <c r="AH84" s="37">
+      <c r="AH84" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10518,10 +10666,10 @@
       <c r="AA85">
         <v>3</v>
       </c>
-      <c r="AB85" s="37">
+      <c r="AB85" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC85" s="38">
+      <c r="AC85" s="37">
         <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
@@ -10534,7 +10682,7 @@
       <c r="AG85">
         <v>6</v>
       </c>
-      <c r="AH85" s="37">
+      <c r="AH85" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -10582,10 +10730,10 @@
       <c r="AA86">
         <v>3</v>
       </c>
-      <c r="AB86" s="37">
+      <c r="AB86" s="36">
         <v>0.1467</v>
       </c>
-      <c r="AC86" s="38">
+      <c r="AC86" s="37">
         <f t="shared" si="2"/>
         <v>0.44009999999999999</v>
       </c>
@@ -10598,7 +10746,7 @@
       <c r="AG86">
         <v>5</v>
       </c>
-      <c r="AH86" s="37">
+      <c r="AH86" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -10646,10 +10794,10 @@
       <c r="AA87">
         <v>3</v>
       </c>
-      <c r="AB87" s="37">
+      <c r="AB87" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AC87" s="38">
+      <c r="AC87" s="37">
         <f t="shared" si="2"/>
         <v>0.42000000000000004</v>
       </c>
@@ -10662,7 +10810,7 @@
       <c r="AG87">
         <v>5</v>
       </c>
-      <c r="AH87" s="37">
+      <c r="AH87" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -10710,10 +10858,10 @@
       <c r="AA88">
         <v>3</v>
       </c>
-      <c r="AB88" s="37">
+      <c r="AB88" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AC88" s="38">
+      <c r="AC88" s="37">
         <f t="shared" si="2"/>
         <v>0.42000000000000004</v>
       </c>
@@ -10726,7 +10874,7 @@
       <c r="AG88">
         <v>5</v>
       </c>
-      <c r="AH88" s="37">
+      <c r="AH88" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -10774,10 +10922,10 @@
       <c r="AA89">
         <v>3</v>
       </c>
-      <c r="AB89" s="37">
+      <c r="AB89" s="36">
         <v>0.1333</v>
       </c>
-      <c r="AC89" s="38">
+      <c r="AC89" s="37">
         <f t="shared" si="2"/>
         <v>0.39990000000000003</v>
       </c>
@@ -10790,7 +10938,7 @@
       <c r="AG89">
         <v>5</v>
       </c>
-      <c r="AH89" s="37">
+      <c r="AH89" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -10838,10 +10986,10 @@
       <c r="AA90">
         <v>3</v>
       </c>
-      <c r="AB90" s="37">
+      <c r="AB90" s="36">
         <v>0.12330000000000001</v>
       </c>
-      <c r="AC90" s="38">
+      <c r="AC90" s="37">
         <f t="shared" si="2"/>
         <v>0.36990000000000001</v>
       </c>
@@ -10854,7 +11002,7 @@
       <c r="AG90">
         <v>5</v>
       </c>
-      <c r="AH90" s="37">
+      <c r="AH90" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -10902,10 +11050,10 @@
       <c r="AA91">
         <v>3</v>
       </c>
-      <c r="AB91" s="37">
+      <c r="AB91" s="36">
         <v>0.12330000000000001</v>
       </c>
-      <c r="AC91" s="38">
+      <c r="AC91" s="37">
         <f t="shared" si="2"/>
         <v>0.36990000000000001</v>
       </c>
@@ -10918,7 +11066,7 @@
       <c r="AG91">
         <v>5</v>
       </c>
-      <c r="AH91" s="37">
+      <c r="AH91" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -10966,10 +11114,10 @@
       <c r="AA92">
         <v>3</v>
       </c>
-      <c r="AB92" s="37">
+      <c r="AB92" s="36">
         <v>0.12</v>
       </c>
-      <c r="AC92" s="38">
+      <c r="AC92" s="37">
         <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
@@ -10982,7 +11130,7 @@
       <c r="AG92">
         <v>5</v>
       </c>
-      <c r="AH92" s="37">
+      <c r="AH92" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11030,10 +11178,10 @@
       <c r="AA93">
         <v>3</v>
       </c>
-      <c r="AB93" s="37">
+      <c r="AB93" s="36">
         <v>0.1167</v>
       </c>
-      <c r="AC93" s="38">
+      <c r="AC93" s="37">
         <f t="shared" si="2"/>
         <v>0.35009999999999997</v>
       </c>
@@ -11046,7 +11194,7 @@
       <c r="AG93">
         <v>5</v>
       </c>
-      <c r="AH93" s="37">
+      <c r="AH93" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11094,10 +11242,10 @@
       <c r="AA94">
         <v>3</v>
       </c>
-      <c r="AB94" s="37">
+      <c r="AB94" s="36">
         <v>0.1133</v>
       </c>
-      <c r="AC94" s="38">
+      <c r="AC94" s="37">
         <f t="shared" ref="AC94:AC157" si="4">AB94*AA94</f>
         <v>0.33989999999999998</v>
       </c>
@@ -11110,7 +11258,7 @@
       <c r="AG94">
         <v>5</v>
       </c>
-      <c r="AH94" s="37">
+      <c r="AH94" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11158,10 +11306,10 @@
       <c r="AA95">
         <v>3</v>
       </c>
-      <c r="AB95" s="37">
+      <c r="AB95" s="36">
         <v>0.1067</v>
       </c>
-      <c r="AC95" s="38">
+      <c r="AC95" s="37">
         <f t="shared" si="4"/>
         <v>0.3201</v>
       </c>
@@ -11174,7 +11322,7 @@
       <c r="AG95">
         <v>5</v>
       </c>
-      <c r="AH95" s="37">
+      <c r="AH95" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11222,10 +11370,10 @@
       <c r="AA96">
         <v>3</v>
       </c>
-      <c r="AB96" s="37">
+      <c r="AB96" s="36">
         <v>0.1033</v>
       </c>
-      <c r="AC96" s="38">
+      <c r="AC96" s="37">
         <f t="shared" si="4"/>
         <v>0.30990000000000001</v>
       </c>
@@ -11238,7 +11386,7 @@
       <c r="AG96">
         <v>5</v>
       </c>
-      <c r="AH96" s="37">
+      <c r="AH96" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11286,10 +11434,10 @@
       <c r="AA97">
         <v>3</v>
       </c>
-      <c r="AB97" s="37">
+      <c r="AB97" s="36">
         <v>0.09</v>
       </c>
-      <c r="AC97" s="38">
+      <c r="AC97" s="37">
         <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
@@ -11302,7 +11450,7 @@
       <c r="AG97">
         <v>5</v>
       </c>
-      <c r="AH97" s="37">
+      <c r="AH97" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11350,10 +11498,10 @@
       <c r="AA98">
         <v>3</v>
       </c>
-      <c r="AB98" s="37">
+      <c r="AB98" s="36">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AC98" s="38">
+      <c r="AC98" s="37">
         <f t="shared" si="4"/>
         <v>0.24990000000000001</v>
       </c>
@@ -11366,7 +11514,7 @@
       <c r="AG98">
         <v>5</v>
       </c>
-      <c r="AH98" s="37">
+      <c r="AH98" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11414,10 +11562,10 @@
       <c r="AA99">
         <v>3</v>
       </c>
-      <c r="AB99" s="37">
+      <c r="AB99" s="36">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="AC99" s="38">
+      <c r="AC99" s="37">
         <f t="shared" si="4"/>
         <v>0.23010000000000003</v>
       </c>
@@ -11430,7 +11578,7 @@
       <c r="AG99">
         <v>5</v>
       </c>
-      <c r="AH99" s="37">
+      <c r="AH99" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11478,10 +11626,10 @@
       <c r="AA100">
         <v>2</v>
       </c>
-      <c r="AB100" s="37">
+      <c r="AB100" s="36">
         <v>0.45</v>
       </c>
-      <c r="AC100" s="38">
+      <c r="AC100" s="37">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
@@ -11494,7 +11642,7 @@
       <c r="AG100">
         <v>5</v>
       </c>
-      <c r="AH100" s="37">
+      <c r="AH100" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11542,10 +11690,10 @@
       <c r="AA101">
         <v>2</v>
       </c>
-      <c r="AB101" s="37">
+      <c r="AB101" s="36">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AC101" s="38">
+      <c r="AC101" s="37">
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
@@ -11558,7 +11706,7 @@
       <c r="AG101">
         <v>5</v>
       </c>
-      <c r="AH101" s="37">
+      <c r="AH101" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11606,10 +11754,10 @@
       <c r="AA102">
         <v>2</v>
       </c>
-      <c r="AB102" s="37">
+      <c r="AB102" s="36">
         <v>0.27500000000000002</v>
       </c>
-      <c r="AC102" s="38">
+      <c r="AC102" s="37">
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
@@ -11622,7 +11770,7 @@
       <c r="AG102">
         <v>5</v>
       </c>
-      <c r="AH102" s="37">
+      <c r="AH102" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11673,10 +11821,10 @@
       <c r="AA103">
         <v>2</v>
       </c>
-      <c r="AB103" s="37">
+      <c r="AB103" s="36">
         <v>0.25</v>
       </c>
-      <c r="AC103" s="38">
+      <c r="AC103" s="37">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
@@ -11689,7 +11837,7 @@
       <c r="AG103">
         <v>5</v>
       </c>
-      <c r="AH103" s="37">
+      <c r="AH103" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11737,10 +11885,10 @@
       <c r="AA104">
         <v>2</v>
       </c>
-      <c r="AB104" s="37">
+      <c r="AB104" s="36">
         <v>0.25</v>
       </c>
-      <c r="AC104" s="38">
+      <c r="AC104" s="37">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
@@ -11753,7 +11901,7 @@
       <c r="AG104">
         <v>5</v>
       </c>
-      <c r="AH104" s="37">
+      <c r="AH104" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11801,10 +11949,10 @@
       <c r="AA105">
         <v>2</v>
       </c>
-      <c r="AB105" s="37">
+      <c r="AB105" s="36">
         <v>0.25</v>
       </c>
-      <c r="AC105" s="38">
+      <c r="AC105" s="37">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
@@ -11817,7 +11965,7 @@
       <c r="AG105">
         <v>5</v>
       </c>
-      <c r="AH105" s="37">
+      <c r="AH105" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11865,10 +12013,10 @@
       <c r="AA106">
         <v>2</v>
       </c>
-      <c r="AB106" s="37">
+      <c r="AB106" s="36">
         <v>0.25</v>
       </c>
-      <c r="AC106" s="38">
+      <c r="AC106" s="37">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
@@ -11881,7 +12029,7 @@
       <c r="AG106">
         <v>5</v>
       </c>
-      <c r="AH106" s="37">
+      <c r="AH106" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11929,10 +12077,10 @@
       <c r="AA107">
         <v>2</v>
       </c>
-      <c r="AB107" s="37">
+      <c r="AB107" s="36">
         <v>0.2</v>
       </c>
-      <c r="AC107" s="38">
+      <c r="AC107" s="37">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
@@ -11945,7 +12093,7 @@
       <c r="AG107">
         <v>5</v>
       </c>
-      <c r="AH107" s="37">
+      <c r="AH107" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -11993,10 +12141,10 @@
       <c r="AA108">
         <v>2</v>
       </c>
-      <c r="AB108" s="37">
+      <c r="AB108" s="36">
         <v>0.17499999999999999</v>
       </c>
-      <c r="AC108" s="38">
+      <c r="AC108" s="37">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
@@ -12009,7 +12157,7 @@
       <c r="AG108">
         <v>5</v>
       </c>
-      <c r="AH108" s="37">
+      <c r="AH108" s="36">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -12057,10 +12205,10 @@
       <c r="AA109">
         <v>2</v>
       </c>
-      <c r="AB109" s="37">
+      <c r="AB109" s="36">
         <v>0.17499999999999999</v>
       </c>
-      <c r="AC109" s="38">
+      <c r="AC109" s="37">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
@@ -12073,7 +12221,7 @@
       <c r="AG109">
         <v>4</v>
       </c>
-      <c r="AH109" s="37">
+      <c r="AH109" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12121,10 +12269,10 @@
       <c r="AA110">
         <v>2</v>
       </c>
-      <c r="AB110" s="37">
+      <c r="AB110" s="36">
         <v>0.17</v>
       </c>
-      <c r="AC110" s="38">
+      <c r="AC110" s="37">
         <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
@@ -12137,7 +12285,7 @@
       <c r="AG110">
         <v>4</v>
       </c>
-      <c r="AH110" s="37">
+      <c r="AH110" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12185,10 +12333,10 @@
       <c r="AA111">
         <v>2</v>
       </c>
-      <c r="AB111" s="37">
+      <c r="AB111" s="36">
         <v>0.17</v>
       </c>
-      <c r="AC111" s="38">
+      <c r="AC111" s="37">
         <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
@@ -12201,7 +12349,7 @@
       <c r="AG111">
         <v>4</v>
       </c>
-      <c r="AH111" s="37">
+      <c r="AH111" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12249,10 +12397,10 @@
       <c r="AA112">
         <v>2</v>
       </c>
-      <c r="AB112" s="37">
+      <c r="AB112" s="36">
         <v>0.17</v>
       </c>
-      <c r="AC112" s="38">
+      <c r="AC112" s="37">
         <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
@@ -12265,7 +12413,7 @@
       <c r="AG112">
         <v>4</v>
       </c>
-      <c r="AH112" s="37">
+      <c r="AH112" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12313,10 +12461,10 @@
       <c r="AA113">
         <v>2</v>
       </c>
-      <c r="AB113" s="37">
+      <c r="AB113" s="36">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AC113" s="38">
+      <c r="AC113" s="37">
         <f t="shared" si="4"/>
         <v>0.33</v>
       </c>
@@ -12329,7 +12477,7 @@
       <c r="AG113">
         <v>4</v>
       </c>
-      <c r="AH113" s="37">
+      <c r="AH113" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12377,10 +12525,10 @@
       <c r="AA114">
         <v>2</v>
       </c>
-      <c r="AB114" s="37">
+      <c r="AB114" s="36">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AC114" s="38">
+      <c r="AC114" s="37">
         <f t="shared" si="4"/>
         <v>0.33</v>
       </c>
@@ -12393,7 +12541,7 @@
       <c r="AG114">
         <v>4</v>
       </c>
-      <c r="AH114" s="37">
+      <c r="AH114" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12441,10 +12589,10 @@
       <c r="AA115">
         <v>2</v>
       </c>
-      <c r="AB115" s="37">
+      <c r="AB115" s="36">
         <v>0.16</v>
       </c>
-      <c r="AC115" s="38">
+      <c r="AC115" s="37">
         <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
@@ -12457,7 +12605,7 @@
       <c r="AG115">
         <v>4</v>
       </c>
-      <c r="AH115" s="37">
+      <c r="AH115" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12505,10 +12653,10 @@
       <c r="AA116">
         <v>2</v>
       </c>
-      <c r="AB116" s="37">
+      <c r="AB116" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC116" s="38">
+      <c r="AC116" s="37">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
@@ -12521,7 +12669,7 @@
       <c r="AG116">
         <v>4</v>
       </c>
-      <c r="AH116" s="37">
+      <c r="AH116" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12569,10 +12717,10 @@
       <c r="AA117">
         <v>2</v>
       </c>
-      <c r="AB117" s="37">
+      <c r="AB117" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC117" s="38">
+      <c r="AC117" s="37">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
@@ -12585,7 +12733,7 @@
       <c r="AG117">
         <v>4</v>
       </c>
-      <c r="AH117" s="37">
+      <c r="AH117" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12633,10 +12781,10 @@
       <c r="AA118">
         <v>2</v>
       </c>
-      <c r="AB118" s="37">
+      <c r="AB118" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC118" s="38">
+      <c r="AC118" s="37">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
@@ -12649,7 +12797,7 @@
       <c r="AG118">
         <v>4</v>
       </c>
-      <c r="AH118" s="37">
+      <c r="AH118" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12697,10 +12845,10 @@
       <c r="AA119">
         <v>2</v>
       </c>
-      <c r="AB119" s="37">
+      <c r="AB119" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AC119" s="38">
+      <c r="AC119" s="37">
         <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
@@ -12713,7 +12861,7 @@
       <c r="AG119">
         <v>4</v>
       </c>
-      <c r="AH119" s="37">
+      <c r="AH119" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12761,10 +12909,10 @@
       <c r="AA120">
         <v>2</v>
       </c>
-      <c r="AB120" s="37">
+      <c r="AB120" s="36">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AC120" s="38">
+      <c r="AC120" s="37">
         <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
@@ -12777,7 +12925,7 @@
       <c r="AG120">
         <v>4</v>
       </c>
-      <c r="AH120" s="37">
+      <c r="AH120" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12825,10 +12973,10 @@
       <c r="AA121">
         <v>2</v>
       </c>
-      <c r="AB121" s="37">
+      <c r="AB121" s="36">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AC121" s="38">
+      <c r="AC121" s="37">
         <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
@@ -12841,7 +12989,7 @@
       <c r="AG121">
         <v>4</v>
       </c>
-      <c r="AH121" s="37">
+      <c r="AH121" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12889,10 +13037,10 @@
       <c r="AA122">
         <v>2</v>
       </c>
-      <c r="AB122" s="37">
+      <c r="AB122" s="36">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AC122" s="38">
+      <c r="AC122" s="37">
         <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
@@ -12905,7 +13053,7 @@
       <c r="AG122">
         <v>4</v>
       </c>
-      <c r="AH122" s="37">
+      <c r="AH122" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -12953,10 +13101,10 @@
       <c r="AA123">
         <v>2</v>
       </c>
-      <c r="AB123" s="37">
+      <c r="AB123" s="36">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AC123" s="38">
+      <c r="AC123" s="37">
         <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
@@ -12969,7 +13117,7 @@
       <c r="AG123">
         <v>4</v>
       </c>
-      <c r="AH123" s="37">
+      <c r="AH123" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13017,10 +13165,10 @@
       <c r="AA124">
         <v>2</v>
       </c>
-      <c r="AB124" s="37">
+      <c r="AB124" s="36">
         <v>0.13</v>
       </c>
-      <c r="AC124" s="38">
+      <c r="AC124" s="37">
         <f t="shared" si="4"/>
         <v>0.26</v>
       </c>
@@ -13033,7 +13181,7 @@
       <c r="AG124">
         <v>4</v>
       </c>
-      <c r="AH124" s="37">
+      <c r="AH124" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13081,10 +13229,10 @@
       <c r="AA125">
         <v>2</v>
       </c>
-      <c r="AB125" s="37">
+      <c r="AB125" s="36">
         <v>0.125</v>
       </c>
-      <c r="AC125" s="38">
+      <c r="AC125" s="37">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
@@ -13097,7 +13245,7 @@
       <c r="AG125">
         <v>4</v>
       </c>
-      <c r="AH125" s="37">
+      <c r="AH125" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13145,10 +13293,10 @@
       <c r="AA126">
         <v>2</v>
       </c>
-      <c r="AB126" s="37">
+      <c r="AB126" s="36">
         <v>0.125</v>
       </c>
-      <c r="AC126" s="38">
+      <c r="AC126" s="37">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
@@ -13161,7 +13309,7 @@
       <c r="AG126">
         <v>4</v>
       </c>
-      <c r="AH126" s="37">
+      <c r="AH126" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13209,10 +13357,10 @@
       <c r="AA127">
         <v>2</v>
       </c>
-      <c r="AB127" s="37">
+      <c r="AB127" s="36">
         <v>0.12</v>
       </c>
-      <c r="AC127" s="38">
+      <c r="AC127" s="37">
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
@@ -13225,7 +13373,7 @@
       <c r="AG127">
         <v>4</v>
       </c>
-      <c r="AH127" s="37">
+      <c r="AH127" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13273,10 +13421,10 @@
       <c r="AA128">
         <v>2</v>
       </c>
-      <c r="AB128" s="37">
+      <c r="AB128" s="36">
         <v>0.12</v>
       </c>
-      <c r="AC128" s="38">
+      <c r="AC128" s="37">
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
@@ -13289,7 +13437,7 @@
       <c r="AG128">
         <v>4</v>
       </c>
-      <c r="AH128" s="37">
+      <c r="AH128" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13337,10 +13485,10 @@
       <c r="AA129">
         <v>2</v>
       </c>
-      <c r="AB129" s="37">
+      <c r="AB129" s="36">
         <v>0.12</v>
       </c>
-      <c r="AC129" s="38">
+      <c r="AC129" s="37">
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
@@ -13353,7 +13501,7 @@
       <c r="AG129">
         <v>4</v>
       </c>
-      <c r="AH129" s="37">
+      <c r="AH129" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13401,10 +13549,10 @@
       <c r="AA130">
         <v>2</v>
       </c>
-      <c r="AB130" s="37">
+      <c r="AB130" s="36">
         <v>0.115</v>
       </c>
-      <c r="AC130" s="38">
+      <c r="AC130" s="37">
         <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
@@ -13417,7 +13565,7 @@
       <c r="AG130">
         <v>4</v>
       </c>
-      <c r="AH130" s="37">
+      <c r="AH130" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13465,10 +13613,10 @@
       <c r="AA131">
         <v>2</v>
       </c>
-      <c r="AB131" s="37">
+      <c r="AB131" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC131" s="38">
+      <c r="AC131" s="37">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
@@ -13481,7 +13629,7 @@
       <c r="AG131">
         <v>4</v>
       </c>
-      <c r="AH131" s="37">
+      <c r="AH131" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13529,10 +13677,10 @@
       <c r="AA132">
         <v>2</v>
       </c>
-      <c r="AB132" s="37">
+      <c r="AB132" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC132" s="38">
+      <c r="AC132" s="37">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
@@ -13545,7 +13693,7 @@
       <c r="AG132">
         <v>4</v>
       </c>
-      <c r="AH132" s="37">
+      <c r="AH132" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13593,10 +13741,10 @@
       <c r="AA133">
         <v>2</v>
       </c>
-      <c r="AB133" s="37">
+      <c r="AB133" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC133" s="38">
+      <c r="AC133" s="37">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
@@ -13609,7 +13757,7 @@
       <c r="AG133">
         <v>4</v>
       </c>
-      <c r="AH133" s="37">
+      <c r="AH133" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13657,10 +13805,10 @@
       <c r="AA134">
         <v>2</v>
       </c>
-      <c r="AB134" s="37">
+      <c r="AB134" s="36">
         <v>0.09</v>
       </c>
-      <c r="AC134" s="38">
+      <c r="AC134" s="37">
         <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
@@ -13673,7 +13821,7 @@
       <c r="AG134">
         <v>4</v>
       </c>
-      <c r="AH134" s="37">
+      <c r="AH134" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13721,10 +13869,10 @@
       <c r="AA135">
         <v>2</v>
       </c>
-      <c r="AB135" s="37">
+      <c r="AB135" s="36">
         <v>0.09</v>
       </c>
-      <c r="AC135" s="38">
+      <c r="AC135" s="37">
         <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
@@ -13737,7 +13885,7 @@
       <c r="AG135">
         <v>4</v>
       </c>
-      <c r="AH135" s="37">
+      <c r="AH135" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13785,10 +13933,10 @@
       <c r="AA136">
         <v>2</v>
       </c>
-      <c r="AB136" s="37">
+      <c r="AB136" s="36">
         <v>0.08</v>
       </c>
-      <c r="AC136" s="38">
+      <c r="AC136" s="37">
         <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
@@ -13801,7 +13949,7 @@
       <c r="AG136">
         <v>4</v>
       </c>
-      <c r="AH136" s="37">
+      <c r="AH136" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13849,10 +13997,10 @@
       <c r="AA137">
         <v>2</v>
       </c>
-      <c r="AB137" s="37">
+      <c r="AB137" s="36">
         <v>0.08</v>
       </c>
-      <c r="AC137" s="38">
+      <c r="AC137" s="37">
         <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
@@ -13865,7 +14013,7 @@
       <c r="AG137">
         <v>4</v>
       </c>
-      <c r="AH137" s="37">
+      <c r="AH137" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13916,10 +14064,10 @@
       <c r="AA138">
         <v>2</v>
       </c>
-      <c r="AB138" s="37">
+      <c r="AB138" s="36">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC138" s="38">
+      <c r="AC138" s="37">
         <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -13932,7 +14080,7 @@
       <c r="AG138">
         <v>4</v>
       </c>
-      <c r="AH138" s="37">
+      <c r="AH138" s="36">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -13980,10 +14128,10 @@
       <c r="AA139">
         <v>2</v>
       </c>
-      <c r="AB139" s="37">
+      <c r="AB139" s="36">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC139" s="38">
+      <c r="AC139" s="37">
         <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -13996,7 +14144,7 @@
       <c r="AG139">
         <v>3</v>
       </c>
-      <c r="AH139" s="37">
+      <c r="AH139" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14044,10 +14192,10 @@
       <c r="AA140">
         <v>1</v>
       </c>
-      <c r="AB140" s="37">
+      <c r="AB140" s="36">
         <v>1</v>
       </c>
-      <c r="AC140" s="38">
+      <c r="AC140" s="37">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -14060,7 +14208,7 @@
       <c r="AG140">
         <v>3</v>
       </c>
-      <c r="AH140" s="37">
+      <c r="AH140" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14115,10 +14263,10 @@
       <c r="AA141">
         <v>1</v>
       </c>
-      <c r="AB141" s="37">
+      <c r="AB141" s="36">
         <v>0.3</v>
       </c>
-      <c r="AC141" s="38">
+      <c r="AC141" s="37">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
@@ -14131,7 +14279,7 @@
       <c r="AG141">
         <v>3</v>
       </c>
-      <c r="AH141" s="37">
+      <c r="AH141" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14189,10 +14337,10 @@
       <c r="AA142">
         <v>1</v>
       </c>
-      <c r="AB142" s="37">
+      <c r="AB142" s="36">
         <v>0.25</v>
       </c>
-      <c r="AC142" s="38">
+      <c r="AC142" s="37">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
@@ -14205,7 +14353,7 @@
       <c r="AG142">
         <v>3</v>
       </c>
-      <c r="AH142" s="37">
+      <c r="AH142" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14260,10 +14408,10 @@
       <c r="AA143">
         <v>1</v>
       </c>
-      <c r="AB143" s="37">
+      <c r="AB143" s="36">
         <v>0.25</v>
       </c>
-      <c r="AC143" s="38">
+      <c r="AC143" s="37">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
@@ -14276,7 +14424,7 @@
       <c r="AG143">
         <v>3</v>
       </c>
-      <c r="AH143" s="37">
+      <c r="AH143" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14340,10 +14488,10 @@
       <c r="AA144">
         <v>1</v>
       </c>
-      <c r="AB144" s="37">
+      <c r="AB144" s="36">
         <v>0.22</v>
       </c>
-      <c r="AC144" s="38">
+      <c r="AC144" s="37">
         <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
@@ -14356,7 +14504,7 @@
       <c r="AG144">
         <v>3</v>
       </c>
-      <c r="AH144" s="37">
+      <c r="AH144" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14410,10 +14558,10 @@
       <c r="AA145">
         <v>1</v>
       </c>
-      <c r="AB145" s="37">
+      <c r="AB145" s="36">
         <v>0.2</v>
       </c>
-      <c r="AC145" s="38">
+      <c r="AC145" s="37">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
@@ -14426,7 +14574,7 @@
       <c r="AG145">
         <v>3</v>
       </c>
-      <c r="AH145" s="37">
+      <c r="AH145" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14505,10 +14653,10 @@
       <c r="AA146">
         <v>1</v>
       </c>
-      <c r="AB146" s="37">
+      <c r="AB146" s="36">
         <v>0.2</v>
       </c>
-      <c r="AC146" s="38">
+      <c r="AC146" s="37">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
@@ -14521,7 +14669,7 @@
       <c r="AG146">
         <v>3</v>
       </c>
-      <c r="AH146" s="37">
+      <c r="AH146" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14600,10 +14748,10 @@
       <c r="AA147">
         <v>1</v>
       </c>
-      <c r="AB147" s="37">
+      <c r="AB147" s="36">
         <v>0.2</v>
       </c>
-      <c r="AC147" s="38">
+      <c r="AC147" s="37">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
@@ -14616,7 +14764,7 @@
       <c r="AG147">
         <v>3</v>
       </c>
-      <c r="AH147" s="37">
+      <c r="AH147" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14692,10 +14840,10 @@
       <c r="AA148">
         <v>1</v>
       </c>
-      <c r="AB148" s="37">
+      <c r="AB148" s="36">
         <v>0.2</v>
       </c>
-      <c r="AC148" s="38">
+      <c r="AC148" s="37">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
@@ -14708,7 +14856,7 @@
       <c r="AG148">
         <v>3</v>
       </c>
-      <c r="AH148" s="37">
+      <c r="AH148" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14787,10 +14935,10 @@
       <c r="AA149">
         <v>1</v>
       </c>
-      <c r="AB149" s="37">
+      <c r="AB149" s="36">
         <v>0.16</v>
       </c>
-      <c r="AC149" s="38">
+      <c r="AC149" s="37">
         <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
@@ -14803,7 +14951,7 @@
       <c r="AG149">
         <v>3</v>
       </c>
-      <c r="AH149" s="37">
+      <c r="AH149" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14882,10 +15030,10 @@
       <c r="AA150">
         <v>1</v>
       </c>
-      <c r="AB150" s="37">
+      <c r="AB150" s="36">
         <v>0.16</v>
       </c>
-      <c r="AC150" s="38">
+      <c r="AC150" s="37">
         <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
@@ -14898,7 +15046,7 @@
       <c r="AG150">
         <v>3</v>
       </c>
-      <c r="AH150" s="37">
+      <c r="AH150" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -14974,10 +15122,10 @@
       <c r="AA151">
         <v>1</v>
       </c>
-      <c r="AB151" s="37">
+      <c r="AB151" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC151" s="38">
+      <c r="AC151" s="37">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
@@ -14990,7 +15138,7 @@
       <c r="AG151">
         <v>3</v>
       </c>
-      <c r="AH151" s="37">
+      <c r="AH151" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15072,10 +15220,10 @@
       <c r="AA152">
         <v>1</v>
       </c>
-      <c r="AB152" s="37">
+      <c r="AB152" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC152" s="38">
+      <c r="AC152" s="37">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
@@ -15088,7 +15236,7 @@
       <c r="AG152">
         <v>3</v>
       </c>
-      <c r="AH152" s="37">
+      <c r="AH152" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15167,10 +15315,10 @@
       <c r="AA153">
         <v>1</v>
       </c>
-      <c r="AB153" s="37">
+      <c r="AB153" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC153" s="38">
+      <c r="AC153" s="37">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
@@ -15183,7 +15331,7 @@
       <c r="AG153">
         <v>3</v>
       </c>
-      <c r="AH153" s="37">
+      <c r="AH153" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15259,10 +15407,10 @@
       <c r="AA154">
         <v>1</v>
       </c>
-      <c r="AB154" s="37">
+      <c r="AB154" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC154" s="38">
+      <c r="AC154" s="37">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
@@ -15275,7 +15423,7 @@
       <c r="AG154">
         <v>3</v>
       </c>
-      <c r="AH154" s="37">
+      <c r="AH154" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15354,10 +15502,10 @@
       <c r="AA155">
         <v>1</v>
       </c>
-      <c r="AB155" s="37">
+      <c r="AB155" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC155" s="38">
+      <c r="AC155" s="37">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
@@ -15370,7 +15518,7 @@
       <c r="AG155">
         <v>3</v>
       </c>
-      <c r="AH155" s="37">
+      <c r="AH155" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15449,10 +15597,10 @@
       <c r="AA156">
         <v>1</v>
       </c>
-      <c r="AB156" s="37">
+      <c r="AB156" s="36">
         <v>0.15</v>
       </c>
-      <c r="AC156" s="38">
+      <c r="AC156" s="37">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
@@ -15465,7 +15613,7 @@
       <c r="AG156">
         <v>3</v>
       </c>
-      <c r="AH156" s="37">
+      <c r="AH156" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15541,10 +15689,10 @@
       <c r="AA157">
         <v>1</v>
       </c>
-      <c r="AB157" s="37">
+      <c r="AB157" s="36">
         <v>0.13</v>
       </c>
-      <c r="AC157" s="38">
+      <c r="AC157" s="37">
         <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
@@ -15557,7 +15705,7 @@
       <c r="AG157">
         <v>3</v>
       </c>
-      <c r="AH157" s="37">
+      <c r="AH157" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15636,10 +15784,10 @@
       <c r="AA158">
         <v>1</v>
       </c>
-      <c r="AB158" s="37">
+      <c r="AB158" s="36">
         <v>0.12</v>
       </c>
-      <c r="AC158" s="38">
+      <c r="AC158" s="37">
         <f t="shared" ref="AC158:AC221" si="12">AB158*AA158</f>
         <v>0.12</v>
       </c>
@@ -15652,7 +15800,7 @@
       <c r="AG158">
         <v>3</v>
       </c>
-      <c r="AH158" s="37">
+      <c r="AH158" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15731,10 +15879,10 @@
       <c r="AA159">
         <v>1</v>
       </c>
-      <c r="AB159" s="37">
+      <c r="AB159" s="36">
         <v>0.11</v>
       </c>
-      <c r="AC159" s="38">
+      <c r="AC159" s="37">
         <f t="shared" si="12"/>
         <v>0.11</v>
       </c>
@@ -15747,7 +15895,7 @@
       <c r="AG159">
         <v>3</v>
       </c>
-      <c r="AH159" s="37">
+      <c r="AH159" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15823,10 +15971,10 @@
       <c r="AA160">
         <v>1</v>
       </c>
-      <c r="AB160" s="37">
+      <c r="AB160" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC160" s="38">
+      <c r="AC160" s="37">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
@@ -15839,7 +15987,7 @@
       <c r="AG160">
         <v>3</v>
       </c>
-      <c r="AH160" s="37">
+      <c r="AH160" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -15918,10 +16066,10 @@
       <c r="AA161">
         <v>1</v>
       </c>
-      <c r="AB161" s="37">
+      <c r="AB161" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC161" s="38">
+      <c r="AC161" s="37">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
@@ -15934,7 +16082,7 @@
       <c r="AG161">
         <v>3</v>
       </c>
-      <c r="AH161" s="37">
+      <c r="AH161" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16013,10 +16161,10 @@
       <c r="AA162">
         <v>1</v>
       </c>
-      <c r="AB162" s="37">
+      <c r="AB162" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC162" s="38">
+      <c r="AC162" s="37">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
@@ -16029,7 +16177,7 @@
       <c r="AG162">
         <v>3</v>
       </c>
-      <c r="AH162" s="37">
+      <c r="AH162" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16108,10 +16256,10 @@
       <c r="AA163">
         <v>1</v>
       </c>
-      <c r="AB163" s="37">
+      <c r="AB163" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC163" s="38">
+      <c r="AC163" s="37">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
@@ -16124,7 +16272,7 @@
       <c r="AG163">
         <v>3</v>
       </c>
-      <c r="AH163" s="37">
+      <c r="AH163" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16203,10 +16351,10 @@
       <c r="AA164">
         <v>1</v>
       </c>
-      <c r="AB164" s="37">
+      <c r="AB164" s="36">
         <v>0.1</v>
       </c>
-      <c r="AC164" s="38">
+      <c r="AC164" s="37">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
@@ -16219,7 +16367,7 @@
       <c r="AG164">
         <v>3</v>
       </c>
-      <c r="AH164" s="37">
+      <c r="AH164" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16298,10 +16446,10 @@
       <c r="AA165">
         <v>1</v>
       </c>
-      <c r="AB165" s="37">
+      <c r="AB165" s="36">
         <v>0.09</v>
       </c>
-      <c r="AC165" s="38">
+      <c r="AC165" s="37">
         <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
@@ -16314,7 +16462,7 @@
       <c r="AG165">
         <v>3</v>
       </c>
-      <c r="AH165" s="37">
+      <c r="AH165" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16390,10 +16538,10 @@
       <c r="AA166">
         <v>1</v>
       </c>
-      <c r="AB166" s="37">
+      <c r="AB166" s="36">
         <v>0.09</v>
       </c>
-      <c r="AC166" s="38">
+      <c r="AC166" s="37">
         <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
@@ -16406,7 +16554,7 @@
       <c r="AG166">
         <v>3</v>
       </c>
-      <c r="AH166" s="37">
+      <c r="AH166" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16483,10 +16631,10 @@
       <c r="AA167">
         <v>1</v>
       </c>
-      <c r="AB167" s="37">
+      <c r="AB167" s="36">
         <v>0.09</v>
       </c>
-      <c r="AC167" s="38">
+      <c r="AC167" s="37">
         <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
@@ -16499,7 +16647,7 @@
       <c r="AG167">
         <v>3</v>
       </c>
-      <c r="AH167" s="37">
+      <c r="AH167" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16576,10 +16724,10 @@
       <c r="AA168">
         <v>1</v>
       </c>
-      <c r="AB168" s="37">
+      <c r="AB168" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC168" s="38">
+      <c r="AC168" s="37">
         <f t="shared" si="12"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -16592,7 +16740,7 @@
       <c r="AG168">
         <v>3</v>
       </c>
-      <c r="AH168" s="37">
+      <c r="AH168" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16668,10 +16816,10 @@
       <c r="AA169">
         <v>1</v>
       </c>
-      <c r="AB169" s="37">
+      <c r="AB169" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC169" s="38">
+      <c r="AC169" s="37">
         <f t="shared" si="12"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -16684,7 +16832,7 @@
       <c r="AG169">
         <v>3</v>
       </c>
-      <c r="AH169" s="37">
+      <c r="AH169" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16763,10 +16911,10 @@
       <c r="AA170">
         <v>1</v>
       </c>
-      <c r="AB170" s="37">
+      <c r="AB170" s="36">
         <v>0.06</v>
       </c>
-      <c r="AC170" s="38">
+      <c r="AC170" s="37">
         <f t="shared" si="12"/>
         <v>0.06</v>
       </c>
@@ -16779,7 +16927,7 @@
       <c r="AG170">
         <v>3</v>
       </c>
-      <c r="AH170" s="37">
+      <c r="AH170" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16856,10 +17004,10 @@
       <c r="AA171">
         <v>1</v>
       </c>
-      <c r="AB171" s="37">
+      <c r="AB171" s="36">
         <v>0.05</v>
       </c>
-      <c r="AC171" s="38">
+      <c r="AC171" s="37">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
@@ -16872,7 +17020,7 @@
       <c r="AG171">
         <v>3</v>
       </c>
-      <c r="AH171" s="37">
+      <c r="AH171" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -16946,10 +17094,10 @@
       <c r="AA172">
         <v>1</v>
       </c>
-      <c r="AB172" s="37">
+      <c r="AB172" s="36">
         <v>0.05</v>
       </c>
-      <c r="AC172" s="38">
+      <c r="AC172" s="37">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
@@ -16962,7 +17110,7 @@
       <c r="AG172">
         <v>3</v>
       </c>
-      <c r="AH172" s="37">
+      <c r="AH172" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -17033,10 +17181,10 @@
       <c r="AA173">
         <v>1</v>
       </c>
-      <c r="AB173" s="37">
+      <c r="AB173" s="36">
         <v>0.05</v>
       </c>
-      <c r="AC173" s="38">
+      <c r="AC173" s="37">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
@@ -17049,7 +17197,7 @@
       <c r="AG173">
         <v>2</v>
       </c>
-      <c r="AH173" s="37">
+      <c r="AH173" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17125,10 +17273,10 @@
       <c r="AA174">
         <v>1</v>
       </c>
-      <c r="AB174" s="37">
+      <c r="AB174" s="36">
         <v>0.05</v>
       </c>
-      <c r="AC174" s="38">
+      <c r="AC174" s="37">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
@@ -17141,7 +17289,7 @@
       <c r="AG174">
         <v>2</v>
       </c>
-      <c r="AH174" s="37">
+      <c r="AH174" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17217,10 +17365,10 @@
       <c r="AA175">
         <v>1</v>
       </c>
-      <c r="AB175" s="37">
+      <c r="AB175" s="36">
         <v>0.05</v>
       </c>
-      <c r="AC175" s="38">
+      <c r="AC175" s="37">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
@@ -17233,7 +17381,7 @@
       <c r="AG175">
         <v>2</v>
       </c>
-      <c r="AH175" s="37">
+      <c r="AH175" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17306,10 +17454,10 @@
       <c r="AA176">
         <v>1</v>
       </c>
-      <c r="AB176" s="37">
+      <c r="AB176" s="36">
         <v>0.03</v>
       </c>
-      <c r="AC176" s="38">
+      <c r="AC176" s="37">
         <f t="shared" si="12"/>
         <v>0.03</v>
       </c>
@@ -17322,7 +17470,7 @@
       <c r="AG176">
         <v>2</v>
       </c>
-      <c r="AH176" s="37">
+      <c r="AH176" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17396,10 +17544,10 @@
       <c r="AA177">
         <v>1</v>
       </c>
-      <c r="AB177" s="37">
+      <c r="AB177" s="36">
         <v>0.02</v>
       </c>
-      <c r="AC177" s="38">
+      <c r="AC177" s="37">
         <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
@@ -17412,7 +17560,7 @@
       <c r="AG177">
         <v>2</v>
       </c>
-      <c r="AH177" s="37">
+      <c r="AH177" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17486,10 +17634,10 @@
       <c r="AA178">
         <v>1</v>
       </c>
-      <c r="AB178" s="37">
+      <c r="AB178" s="36">
         <v>0.02</v>
       </c>
-      <c r="AC178" s="38">
+      <c r="AC178" s="37">
         <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
@@ -17502,7 +17650,7 @@
       <c r="AG178">
         <v>2</v>
       </c>
-      <c r="AH178" s="37">
+      <c r="AH178" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17573,10 +17721,10 @@
       <c r="AA179">
         <v>1</v>
       </c>
-      <c r="AB179" s="37">
+      <c r="AB179" s="36">
         <v>0.02</v>
       </c>
-      <c r="AC179" s="38">
+      <c r="AC179" s="37">
         <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
@@ -17589,7 +17737,7 @@
       <c r="AG179">
         <v>2</v>
       </c>
-      <c r="AH179" s="37">
+      <c r="AH179" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17663,10 +17811,10 @@
       <c r="AA180">
         <v>1</v>
       </c>
-      <c r="AB180" s="37">
+      <c r="AB180" s="36">
         <v>0.02</v>
       </c>
-      <c r="AC180" s="38">
+      <c r="AC180" s="37">
         <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
@@ -17679,7 +17827,7 @@
       <c r="AG180">
         <v>2</v>
       </c>
-      <c r="AH180" s="37">
+      <c r="AH180" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17753,10 +17901,10 @@
       <c r="AA181">
         <v>1</v>
       </c>
-      <c r="AB181" s="37">
+      <c r="AB181" s="36">
         <v>0.01</v>
       </c>
-      <c r="AC181" s="38">
+      <c r="AC181" s="37">
         <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
@@ -17769,7 +17917,7 @@
       <c r="AG181">
         <v>2</v>
       </c>
-      <c r="AH181" s="37">
+      <c r="AH181" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17840,10 +17988,10 @@
       <c r="AA182">
         <v>1</v>
       </c>
-      <c r="AB182" s="37">
+      <c r="AB182" s="36">
         <v>0.01</v>
       </c>
-      <c r="AC182" s="38">
+      <c r="AC182" s="37">
         <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
@@ -17856,7 +18004,7 @@
       <c r="AG182">
         <v>2</v>
       </c>
-      <c r="AH182" s="37">
+      <c r="AH182" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -17929,10 +18077,10 @@
       <c r="AA183">
         <v>0</v>
       </c>
-      <c r="AB183" s="37">
+      <c r="AB183" s="36">
         <v>0</v>
       </c>
-      <c r="AC183" s="38">
+      <c r="AC183" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -17945,7 +18093,7 @@
       <c r="AG183">
         <v>2</v>
       </c>
-      <c r="AH183" s="37">
+      <c r="AH183" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18024,10 +18172,10 @@
       <c r="AA184">
         <v>0</v>
       </c>
-      <c r="AB184" s="37">
+      <c r="AB184" s="36">
         <v>0</v>
       </c>
-      <c r="AC184" s="38">
+      <c r="AC184" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18040,7 +18188,7 @@
       <c r="AG184">
         <v>2</v>
       </c>
-      <c r="AH184" s="37">
+      <c r="AH184" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18116,10 +18264,10 @@
       <c r="AA185">
         <v>0</v>
       </c>
-      <c r="AB185" s="37">
+      <c r="AB185" s="36">
         <v>0</v>
       </c>
-      <c r="AC185" s="38">
+      <c r="AC185" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18132,7 +18280,7 @@
       <c r="AG185">
         <v>2</v>
       </c>
-      <c r="AH185" s="37">
+      <c r="AH185" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18208,10 +18356,10 @@
       <c r="AA186">
         <v>0</v>
       </c>
-      <c r="AB186" s="37">
+      <c r="AB186" s="36">
         <v>0</v>
       </c>
-      <c r="AC186" s="38">
+      <c r="AC186" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18224,7 +18372,7 @@
       <c r="AG186">
         <v>2</v>
       </c>
-      <c r="AH186" s="37">
+      <c r="AH186" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18300,10 +18448,10 @@
       <c r="AA187">
         <v>0</v>
       </c>
-      <c r="AB187" s="37">
+      <c r="AB187" s="36">
         <v>0</v>
       </c>
-      <c r="AC187" s="38">
+      <c r="AC187" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18316,7 +18464,7 @@
       <c r="AG187">
         <v>2</v>
       </c>
-      <c r="AH187" s="37">
+      <c r="AH187" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18389,10 +18537,10 @@
       <c r="AA188">
         <v>0</v>
       </c>
-      <c r="AB188" s="37">
+      <c r="AB188" s="36">
         <v>0</v>
       </c>
-      <c r="AC188" s="38">
+      <c r="AC188" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18405,7 +18553,7 @@
       <c r="AG188">
         <v>2</v>
       </c>
-      <c r="AH188" s="37">
+      <c r="AH188" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18479,10 +18627,10 @@
       <c r="AA189">
         <v>0</v>
       </c>
-      <c r="AB189" s="37">
+      <c r="AB189" s="36">
         <v>0</v>
       </c>
-      <c r="AC189" s="38">
+      <c r="AC189" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18495,7 +18643,7 @@
       <c r="AG189">
         <v>2</v>
       </c>
-      <c r="AH189" s="37">
+      <c r="AH189" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18569,10 +18717,10 @@
       <c r="AA190">
         <v>0</v>
       </c>
-      <c r="AB190" s="37">
+      <c r="AB190" s="36">
         <v>0</v>
       </c>
-      <c r="AC190" s="38">
+      <c r="AC190" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18585,7 +18733,7 @@
       <c r="AG190">
         <v>2</v>
       </c>
-      <c r="AH190" s="37">
+      <c r="AH190" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18650,10 +18798,10 @@
       <c r="AA191">
         <v>0</v>
       </c>
-      <c r="AB191" s="37">
+      <c r="AB191" s="36">
         <v>0</v>
       </c>
-      <c r="AC191" s="38">
+      <c r="AC191" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18666,7 +18814,7 @@
       <c r="AG191">
         <v>2</v>
       </c>
-      <c r="AH191" s="37">
+      <c r="AH191" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18733,10 +18881,10 @@
       <c r="AA192">
         <v>0</v>
       </c>
-      <c r="AB192" s="37">
+      <c r="AB192" s="36">
         <v>0</v>
       </c>
-      <c r="AC192" s="38">
+      <c r="AC192" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18749,7 +18897,7 @@
       <c r="AG192">
         <v>2</v>
       </c>
-      <c r="AH192" s="37">
+      <c r="AH192" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18819,10 +18967,10 @@
       <c r="AA193">
         <v>0</v>
       </c>
-      <c r="AB193" s="37">
+      <c r="AB193" s="36">
         <v>0</v>
       </c>
-      <c r="AC193" s="38">
+      <c r="AC193" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18835,7 +18983,7 @@
       <c r="AG193">
         <v>2</v>
       </c>
-      <c r="AH193" s="37">
+      <c r="AH193" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -18911,10 +19059,10 @@
       <c r="AA194">
         <v>0</v>
       </c>
-      <c r="AB194" s="37">
+      <c r="AB194" s="36">
         <v>0</v>
       </c>
-      <c r="AC194" s="38">
+      <c r="AC194" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -18927,7 +19075,7 @@
       <c r="AG194">
         <v>2</v>
       </c>
-      <c r="AH194" s="37">
+      <c r="AH194" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19000,10 +19148,10 @@
       <c r="AA195">
         <v>0</v>
       </c>
-      <c r="AB195" s="37">
+      <c r="AB195" s="36">
         <v>0</v>
       </c>
-      <c r="AC195" s="38">
+      <c r="AC195" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19016,7 +19164,7 @@
       <c r="AG195">
         <v>2</v>
       </c>
-      <c r="AH195" s="37">
+      <c r="AH195" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19092,10 +19240,10 @@
       <c r="AA196">
         <v>0</v>
       </c>
-      <c r="AB196" s="37">
+      <c r="AB196" s="36">
         <v>0</v>
       </c>
-      <c r="AC196" s="38">
+      <c r="AC196" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19108,7 +19256,7 @@
       <c r="AG196">
         <v>2</v>
       </c>
-      <c r="AH196" s="37">
+      <c r="AH196" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19184,10 +19332,10 @@
       <c r="AA197">
         <v>0</v>
       </c>
-      <c r="AB197" s="37">
+      <c r="AB197" s="36">
         <v>0</v>
       </c>
-      <c r="AC197" s="38">
+      <c r="AC197" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19200,7 +19348,7 @@
       <c r="AG197">
         <v>2</v>
       </c>
-      <c r="AH197" s="37">
+      <c r="AH197" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19276,10 +19424,10 @@
       <c r="AA198">
         <v>0</v>
       </c>
-      <c r="AB198" s="37">
+      <c r="AB198" s="36">
         <v>0</v>
       </c>
-      <c r="AC198" s="38">
+      <c r="AC198" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19292,7 +19440,7 @@
       <c r="AG198">
         <v>2</v>
       </c>
-      <c r="AH198" s="37">
+      <c r="AH198" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19365,10 +19513,10 @@
       <c r="AA199">
         <v>0</v>
       </c>
-      <c r="AB199" s="37">
+      <c r="AB199" s="36">
         <v>0</v>
       </c>
-      <c r="AC199" s="38">
+      <c r="AC199" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19381,7 +19529,7 @@
       <c r="AG199">
         <v>2</v>
       </c>
-      <c r="AH199" s="37">
+      <c r="AH199" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19457,10 +19605,10 @@
       <c r="AA200">
         <v>0</v>
       </c>
-      <c r="AB200" s="37">
+      <c r="AB200" s="36">
         <v>0</v>
       </c>
-      <c r="AC200" s="38">
+      <c r="AC200" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19473,7 +19621,7 @@
       <c r="AG200">
         <v>2</v>
       </c>
-      <c r="AH200" s="37">
+      <c r="AH200" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19546,10 +19694,10 @@
       <c r="AA201">
         <v>0</v>
       </c>
-      <c r="AB201" s="37">
+      <c r="AB201" s="36">
         <v>0</v>
       </c>
-      <c r="AC201" s="38">
+      <c r="AC201" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19562,7 +19710,7 @@
       <c r="AG201">
         <v>2</v>
       </c>
-      <c r="AH201" s="37">
+      <c r="AH201" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19635,10 +19783,10 @@
       <c r="AA202">
         <v>0</v>
       </c>
-      <c r="AB202" s="37">
+      <c r="AB202" s="36">
         <v>0</v>
       </c>
-      <c r="AC202" s="38">
+      <c r="AC202" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19651,7 +19799,7 @@
       <c r="AG202">
         <v>2</v>
       </c>
-      <c r="AH202" s="37">
+      <c r="AH202" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19721,10 +19869,10 @@
       <c r="AA203">
         <v>0</v>
       </c>
-      <c r="AB203" s="37">
+      <c r="AB203" s="36">
         <v>0</v>
       </c>
-      <c r="AC203" s="38">
+      <c r="AC203" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19737,7 +19885,7 @@
       <c r="AG203">
         <v>2</v>
       </c>
-      <c r="AH203" s="37">
+      <c r="AH203" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19810,10 +19958,10 @@
       <c r="AA204">
         <v>0</v>
       </c>
-      <c r="AB204" s="37">
+      <c r="AB204" s="36">
         <v>0</v>
       </c>
-      <c r="AC204" s="38">
+      <c r="AC204" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19826,7 +19974,7 @@
       <c r="AG204">
         <v>2</v>
       </c>
-      <c r="AH204" s="37">
+      <c r="AH204" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19896,10 +20044,10 @@
       <c r="AA205">
         <v>0</v>
       </c>
-      <c r="AB205" s="37">
+      <c r="AB205" s="36">
         <v>0</v>
       </c>
-      <c r="AC205" s="38">
+      <c r="AC205" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19912,7 +20060,7 @@
       <c r="AG205">
         <v>2</v>
       </c>
-      <c r="AH205" s="37">
+      <c r="AH205" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -19982,10 +20130,10 @@
       <c r="AA206">
         <v>0</v>
       </c>
-      <c r="AB206" s="37">
+      <c r="AB206" s="36">
         <v>0</v>
       </c>
-      <c r="AC206" s="38">
+      <c r="AC206" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -19998,7 +20146,7 @@
       <c r="AG206">
         <v>2</v>
       </c>
-      <c r="AH206" s="37">
+      <c r="AH206" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20071,10 +20219,10 @@
       <c r="AA207">
         <v>0</v>
       </c>
-      <c r="AB207" s="37">
+      <c r="AB207" s="36">
         <v>0</v>
       </c>
-      <c r="AC207" s="38">
+      <c r="AC207" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20087,7 +20235,7 @@
       <c r="AG207">
         <v>2</v>
       </c>
-      <c r="AH207" s="37">
+      <c r="AH207" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20154,10 +20302,10 @@
       <c r="AA208">
         <v>0</v>
       </c>
-      <c r="AB208" s="37">
+      <c r="AB208" s="36">
         <v>0</v>
       </c>
-      <c r="AC208" s="38">
+      <c r="AC208" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20170,7 +20318,7 @@
       <c r="AG208">
         <v>2</v>
       </c>
-      <c r="AH208" s="37">
+      <c r="AH208" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20238,10 +20386,10 @@
       <c r="AA209">
         <v>0</v>
       </c>
-      <c r="AB209" s="37">
+      <c r="AB209" s="36">
         <v>0</v>
       </c>
-      <c r="AC209" s="38">
+      <c r="AC209" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20254,7 +20402,7 @@
       <c r="AG209">
         <v>2</v>
       </c>
-      <c r="AH209" s="37">
+      <c r="AH209" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20319,10 +20467,10 @@
       <c r="AA210">
         <v>0</v>
       </c>
-      <c r="AB210" s="37">
+      <c r="AB210" s="36">
         <v>0</v>
       </c>
-      <c r="AC210" s="38">
+      <c r="AC210" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20335,7 +20483,7 @@
       <c r="AG210">
         <v>2</v>
       </c>
-      <c r="AH210" s="37">
+      <c r="AH210" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20405,10 +20553,10 @@
       <c r="AA211">
         <v>0</v>
       </c>
-      <c r="AB211" s="37">
+      <c r="AB211" s="36">
         <v>0</v>
       </c>
-      <c r="AC211" s="38">
+      <c r="AC211" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20421,7 +20569,7 @@
       <c r="AG211">
         <v>2</v>
       </c>
-      <c r="AH211" s="37">
+      <c r="AH211" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20488,10 +20636,10 @@
       <c r="AA212">
         <v>0</v>
       </c>
-      <c r="AB212" s="37">
+      <c r="AB212" s="36">
         <v>0</v>
       </c>
-      <c r="AC212" s="38">
+      <c r="AC212" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20504,7 +20652,7 @@
       <c r="AG212">
         <v>2</v>
       </c>
-      <c r="AH212" s="37">
+      <c r="AH212" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20574,10 +20722,10 @@
       <c r="AA213">
         <v>0</v>
       </c>
-      <c r="AB213" s="37">
+      <c r="AB213" s="36">
         <v>0</v>
       </c>
-      <c r="AC213" s="38">
+      <c r="AC213" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20590,7 +20738,7 @@
       <c r="AG213">
         <v>2</v>
       </c>
-      <c r="AH213" s="37">
+      <c r="AH213" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20660,10 +20808,10 @@
       <c r="AA214">
         <v>0</v>
       </c>
-      <c r="AB214" s="37">
+      <c r="AB214" s="36">
         <v>0</v>
       </c>
-      <c r="AC214" s="38">
+      <c r="AC214" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20676,7 +20824,7 @@
       <c r="AG214">
         <v>2</v>
       </c>
-      <c r="AH214" s="37">
+      <c r="AH214" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20743,10 +20891,10 @@
       <c r="AA215">
         <v>0</v>
       </c>
-      <c r="AB215" s="37">
+      <c r="AB215" s="36">
         <v>0</v>
       </c>
-      <c r="AC215" s="38">
+      <c r="AC215" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20759,7 +20907,7 @@
       <c r="AG215">
         <v>2</v>
       </c>
-      <c r="AH215" s="37">
+      <c r="AH215" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20829,10 +20977,10 @@
       <c r="AA216">
         <v>0</v>
       </c>
-      <c r="AB216" s="37">
+      <c r="AB216" s="36">
         <v>0</v>
       </c>
-      <c r="AC216" s="38">
+      <c r="AC216" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20845,7 +20993,7 @@
       <c r="AG216">
         <v>2</v>
       </c>
-      <c r="AH216" s="37">
+      <c r="AH216" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -20912,10 +21060,10 @@
       <c r="AA217">
         <v>0</v>
       </c>
-      <c r="AB217" s="37">
+      <c r="AB217" s="36">
         <v>0</v>
       </c>
-      <c r="AC217" s="38">
+      <c r="AC217" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -20928,7 +21076,7 @@
       <c r="AG217">
         <v>2</v>
       </c>
-      <c r="AH217" s="37">
+      <c r="AH217" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -21001,10 +21149,10 @@
       <c r="AA218">
         <v>0</v>
       </c>
-      <c r="AB218" s="37">
+      <c r="AB218" s="36">
         <v>0</v>
       </c>
-      <c r="AC218" s="38">
+      <c r="AC218" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -21017,7 +21165,7 @@
       <c r="AG218">
         <v>1</v>
       </c>
-      <c r="AH218" s="37">
+      <c r="AH218" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21087,10 +21235,10 @@
       <c r="AA219">
         <v>0</v>
       </c>
-      <c r="AB219" s="37">
+      <c r="AB219" s="36">
         <v>0</v>
       </c>
-      <c r="AC219" s="38">
+      <c r="AC219" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -21103,7 +21251,7 @@
       <c r="AG219">
         <v>1</v>
       </c>
-      <c r="AH219" s="37">
+      <c r="AH219" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21173,10 +21321,10 @@
       <c r="AA220">
         <v>0</v>
       </c>
-      <c r="AB220" s="37">
+      <c r="AB220" s="36">
         <v>0</v>
       </c>
-      <c r="AC220" s="38">
+      <c r="AC220" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -21189,7 +21337,7 @@
       <c r="AG220">
         <v>1</v>
       </c>
-      <c r="AH220" s="37">
+      <c r="AH220" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21259,10 +21407,10 @@
       <c r="AA221">
         <v>0</v>
       </c>
-      <c r="AB221" s="37">
+      <c r="AB221" s="36">
         <v>0</v>
       </c>
-      <c r="AC221" s="38">
+      <c r="AC221" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -21275,7 +21423,7 @@
       <c r="AG221">
         <v>1</v>
       </c>
-      <c r="AH221" s="37">
+      <c r="AH221" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21342,10 +21490,10 @@
       <c r="AA222">
         <v>0</v>
       </c>
-      <c r="AB222" s="37">
+      <c r="AB222" s="36">
         <v>0</v>
       </c>
-      <c r="AC222" s="38">
+      <c r="AC222" s="37">
         <f t="shared" ref="AC222:AC269" si="15">AB222*AA222</f>
         <v>0</v>
       </c>
@@ -21358,7 +21506,7 @@
       <c r="AG222">
         <v>1</v>
       </c>
-      <c r="AH222" s="37">
+      <c r="AH222" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21431,10 +21579,10 @@
       <c r="AA223">
         <v>0</v>
       </c>
-      <c r="AB223" s="37">
+      <c r="AB223" s="36">
         <v>0</v>
       </c>
-      <c r="AC223" s="38">
+      <c r="AC223" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -21447,7 +21595,7 @@
       <c r="AG223">
         <v>1</v>
       </c>
-      <c r="AH223" s="37">
+      <c r="AH223" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21514,10 +21662,10 @@
       <c r="AA224">
         <v>0</v>
       </c>
-      <c r="AB224" s="37">
+      <c r="AB224" s="36">
         <v>0</v>
       </c>
-      <c r="AC224" s="38">
+      <c r="AC224" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -21530,7 +21678,7 @@
       <c r="AG224">
         <v>1</v>
       </c>
-      <c r="AH224" s="37">
+      <c r="AH224" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21600,10 +21748,10 @@
       <c r="AA225">
         <v>0</v>
       </c>
-      <c r="AB225" s="37">
+      <c r="AB225" s="36">
         <v>0</v>
       </c>
-      <c r="AC225" s="38">
+      <c r="AC225" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -21616,7 +21764,7 @@
       <c r="AG225">
         <v>1</v>
       </c>
-      <c r="AH225" s="37">
+      <c r="AH225" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21683,10 +21831,10 @@
       <c r="AA226">
         <v>0</v>
       </c>
-      <c r="AB226" s="37">
+      <c r="AB226" s="36">
         <v>0</v>
       </c>
-      <c r="AC226" s="38">
+      <c r="AC226" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -21699,7 +21847,7 @@
       <c r="AG226">
         <v>1</v>
       </c>
-      <c r="AH226" s="37">
+      <c r="AH226" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21766,10 +21914,10 @@
       <c r="AA227">
         <v>0</v>
       </c>
-      <c r="AB227" s="37">
+      <c r="AB227" s="36">
         <v>0</v>
       </c>
-      <c r="AC227" s="38">
+      <c r="AC227" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -21782,7 +21930,7 @@
       <c r="AG227">
         <v>1</v>
       </c>
-      <c r="AH227" s="37">
+      <c r="AH227" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21852,10 +22000,10 @@
       <c r="AA228">
         <v>0</v>
       </c>
-      <c r="AB228" s="37">
+      <c r="AB228" s="36">
         <v>0</v>
       </c>
-      <c r="AC228" s="38">
+      <c r="AC228" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -21868,7 +22016,7 @@
       <c r="AG228">
         <v>1</v>
       </c>
-      <c r="AH228" s="37">
+      <c r="AH228" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -21950,10 +22098,10 @@
       <c r="AA229">
         <v>0</v>
       </c>
-      <c r="AB229" s="37">
+      <c r="AB229" s="36">
         <v>0</v>
       </c>
-      <c r="AC229" s="38">
+      <c r="AC229" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -21966,7 +22114,7 @@
       <c r="AG229">
         <v>1</v>
       </c>
-      <c r="AH229" s="37">
+      <c r="AH229" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22045,10 +22193,10 @@
       <c r="AA230">
         <v>0</v>
       </c>
-      <c r="AB230" s="37">
+      <c r="AB230" s="36">
         <v>0</v>
       </c>
-      <c r="AC230" s="38">
+      <c r="AC230" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22061,7 +22209,7 @@
       <c r="AG230">
         <v>1</v>
       </c>
-      <c r="AH230" s="37">
+      <c r="AH230" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22140,10 +22288,10 @@
       <c r="AA231">
         <v>0</v>
       </c>
-      <c r="AB231" s="37">
+      <c r="AB231" s="36">
         <v>0</v>
       </c>
-      <c r="AC231" s="38">
+      <c r="AC231" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22156,7 +22304,7 @@
       <c r="AG231">
         <v>1</v>
       </c>
-      <c r="AH231" s="37">
+      <c r="AH231" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22232,10 +22380,10 @@
       <c r="AA232">
         <v>0</v>
       </c>
-      <c r="AB232" s="37">
+      <c r="AB232" s="36">
         <v>0</v>
       </c>
-      <c r="AC232" s="38">
+      <c r="AC232" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22248,7 +22396,7 @@
       <c r="AG232">
         <v>1</v>
       </c>
-      <c r="AH232" s="37">
+      <c r="AH232" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22327,10 +22475,10 @@
       <c r="AA233">
         <v>0</v>
       </c>
-      <c r="AB233" s="37">
+      <c r="AB233" s="36">
         <v>0</v>
       </c>
-      <c r="AC233" s="38">
+      <c r="AC233" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22343,7 +22491,7 @@
       <c r="AG233">
         <v>1</v>
       </c>
-      <c r="AH233" s="37">
+      <c r="AH233" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22419,10 +22567,10 @@
       <c r="AA234">
         <v>0</v>
       </c>
-      <c r="AB234" s="37">
+      <c r="AB234" s="36">
         <v>0</v>
       </c>
-      <c r="AC234" s="38">
+      <c r="AC234" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22435,7 +22583,7 @@
       <c r="AG234">
         <v>1</v>
       </c>
-      <c r="AH234" s="37">
+      <c r="AH234" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22514,10 +22662,10 @@
       <c r="AA235">
         <v>0</v>
       </c>
-      <c r="AB235" s="37">
+      <c r="AB235" s="36">
         <v>0</v>
       </c>
-      <c r="AC235" s="38">
+      <c r="AC235" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22530,7 +22678,7 @@
       <c r="AG235">
         <v>1</v>
       </c>
-      <c r="AH235" s="37">
+      <c r="AH235" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22606,10 +22754,10 @@
       <c r="AA236">
         <v>0</v>
       </c>
-      <c r="AB236" s="37">
+      <c r="AB236" s="36">
         <v>0</v>
       </c>
-      <c r="AC236" s="38">
+      <c r="AC236" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22622,7 +22770,7 @@
       <c r="AG236">
         <v>1</v>
       </c>
-      <c r="AH236" s="37">
+      <c r="AH236" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22701,10 +22849,10 @@
       <c r="AA237">
         <v>0</v>
       </c>
-      <c r="AB237" s="37">
+      <c r="AB237" s="36">
         <v>0</v>
       </c>
-      <c r="AC237" s="38">
+      <c r="AC237" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22717,7 +22865,7 @@
       <c r="AG237">
         <v>1</v>
       </c>
-      <c r="AH237" s="37">
+      <c r="AH237" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22793,10 +22941,10 @@
       <c r="AA238">
         <v>0</v>
       </c>
-      <c r="AB238" s="37">
+      <c r="AB238" s="36">
         <v>0</v>
       </c>
-      <c r="AC238" s="38">
+      <c r="AC238" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22809,7 +22957,7 @@
       <c r="AG238">
         <v>1</v>
       </c>
-      <c r="AH238" s="37">
+      <c r="AH238" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22888,10 +23036,10 @@
       <c r="AA239">
         <v>0</v>
       </c>
-      <c r="AB239" s="37">
+      <c r="AB239" s="36">
         <v>0</v>
       </c>
-      <c r="AC239" s="38">
+      <c r="AC239" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22904,7 +23052,7 @@
       <c r="AG239">
         <v>1</v>
       </c>
-      <c r="AH239" s="37">
+      <c r="AH239" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -22983,10 +23131,10 @@
       <c r="AA240">
         <v>0</v>
       </c>
-      <c r="AB240" s="37">
+      <c r="AB240" s="36">
         <v>0</v>
       </c>
-      <c r="AC240" s="38">
+      <c r="AC240" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -22999,7 +23147,7 @@
       <c r="AG240">
         <v>1</v>
       </c>
-      <c r="AH240" s="37">
+      <c r="AH240" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23041,7 +23189,7 @@
       <c r="L241" t="s">
         <v>670</v>
       </c>
-      <c r="M241" s="40" t="s">
+      <c r="M241" s="39" t="s">
         <v>1148</v>
       </c>
       <c r="N241" s="32" t="s">
@@ -23075,10 +23223,10 @@
       <c r="AA241">
         <v>0</v>
       </c>
-      <c r="AB241" s="37">
+      <c r="AB241" s="36">
         <v>0</v>
       </c>
-      <c r="AC241" s="38">
+      <c r="AC241" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23091,7 +23239,7 @@
       <c r="AG241">
         <v>1</v>
       </c>
-      <c r="AH241" s="37">
+      <c r="AH241" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23164,10 +23312,10 @@
       <c r="AA242">
         <v>0</v>
       </c>
-      <c r="AB242" s="37">
+      <c r="AB242" s="36">
         <v>0</v>
       </c>
-      <c r="AC242" s="38">
+      <c r="AC242" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23180,7 +23328,7 @@
       <c r="AG242">
         <v>1</v>
       </c>
-      <c r="AH242" s="37">
+      <c r="AH242" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23255,10 +23403,10 @@
       <c r="AA243">
         <v>0</v>
       </c>
-      <c r="AB243" s="37">
+      <c r="AB243" s="36">
         <v>0</v>
       </c>
-      <c r="AC243" s="38">
+      <c r="AC243" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23271,7 +23419,7 @@
       <c r="AG243">
         <v>1</v>
       </c>
-      <c r="AH243" s="37">
+      <c r="AH243" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23345,10 +23493,10 @@
       <c r="AA244">
         <v>0</v>
       </c>
-      <c r="AB244" s="37">
+      <c r="AB244" s="36">
         <v>0</v>
       </c>
-      <c r="AC244" s="38">
+      <c r="AC244" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23361,7 +23509,7 @@
       <c r="AG244">
         <v>1</v>
       </c>
-      <c r="AH244" s="37">
+      <c r="AH244" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23432,10 +23580,10 @@
       <c r="AA245">
         <v>0</v>
       </c>
-      <c r="AB245" s="37">
+      <c r="AB245" s="36">
         <v>0</v>
       </c>
-      <c r="AC245" s="38">
+      <c r="AC245" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23448,7 +23596,7 @@
       <c r="AG245">
         <v>1</v>
       </c>
-      <c r="AH245" s="37">
+      <c r="AH245" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23524,10 +23672,10 @@
       <c r="AA246">
         <v>0</v>
       </c>
-      <c r="AB246" s="37">
+      <c r="AB246" s="36">
         <v>0</v>
       </c>
-      <c r="AC246" s="38">
+      <c r="AC246" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23540,7 +23688,7 @@
       <c r="AG246">
         <v>1</v>
       </c>
-      <c r="AH246" s="37">
+      <c r="AH246" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23616,10 +23764,10 @@
       <c r="AA247">
         <v>0</v>
       </c>
-      <c r="AB247" s="37">
+      <c r="AB247" s="36">
         <v>0</v>
       </c>
-      <c r="AC247" s="38">
+      <c r="AC247" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23632,7 +23780,7 @@
       <c r="AG247">
         <v>1</v>
       </c>
-      <c r="AH247" s="37">
+      <c r="AH247" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23705,10 +23853,10 @@
       <c r="AA248">
         <v>0</v>
       </c>
-      <c r="AB248" s="37">
+      <c r="AB248" s="36">
         <v>0</v>
       </c>
-      <c r="AC248" s="38">
+      <c r="AC248" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23721,7 +23869,7 @@
       <c r="AG248">
         <v>1</v>
       </c>
-      <c r="AH248" s="37">
+      <c r="AH248" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -23800,10 +23948,10 @@
       <c r="AA249">
         <v>0</v>
       </c>
-      <c r="AB249" s="37">
+      <c r="AB249" s="36">
         <v>0</v>
       </c>
-      <c r="AC249" s="38">
+      <c r="AC249" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23816,7 +23964,7 @@
       <c r="AG249">
         <v>0</v>
       </c>
-      <c r="AH249" s="37">
+      <c r="AH249" s="36">
         <v>0</v>
       </c>
     </row>
@@ -23892,10 +24040,10 @@
       <c r="AA250">
         <v>0</v>
       </c>
-      <c r="AB250" s="37">
+      <c r="AB250" s="36">
         <v>0</v>
       </c>
-      <c r="AC250" s="38">
+      <c r="AC250" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -23908,7 +24056,7 @@
       <c r="AG250">
         <v>0</v>
       </c>
-      <c r="AH250" s="37">
+      <c r="AH250" s="36">
         <v>0</v>
       </c>
     </row>
@@ -23984,10 +24132,10 @@
       <c r="AA251">
         <v>0</v>
       </c>
-      <c r="AB251" s="37">
+      <c r="AB251" s="36">
         <v>0</v>
       </c>
-      <c r="AC251" s="38">
+      <c r="AC251" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24000,7 +24148,7 @@
       <c r="AG251">
         <v>0</v>
       </c>
-      <c r="AH251" s="37">
+      <c r="AH251" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24073,10 +24221,10 @@
       <c r="AA252">
         <v>0</v>
       </c>
-      <c r="AB252" s="37">
+      <c r="AB252" s="36">
         <v>0</v>
       </c>
-      <c r="AC252" s="38">
+      <c r="AC252" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24089,7 +24237,7 @@
       <c r="AG252">
         <v>0</v>
       </c>
-      <c r="AH252" s="37">
+      <c r="AH252" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24154,10 +24302,10 @@
       <c r="AA253">
         <v>0</v>
       </c>
-      <c r="AB253" s="37">
+      <c r="AB253" s="36">
         <v>0</v>
       </c>
-      <c r="AC253" s="38">
+      <c r="AC253" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24170,7 +24318,7 @@
       <c r="AG253">
         <v>0</v>
       </c>
-      <c r="AH253" s="37">
+      <c r="AH253" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24241,10 +24389,10 @@
       <c r="AA254">
         <v>0</v>
       </c>
-      <c r="AB254" s="37">
+      <c r="AB254" s="36">
         <v>0</v>
       </c>
-      <c r="AC254" s="38">
+      <c r="AC254" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24257,7 +24405,7 @@
       <c r="AG254">
         <v>0</v>
       </c>
-      <c r="AH254" s="37">
+      <c r="AH254" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24331,10 +24479,10 @@
       <c r="AA255">
         <v>0</v>
       </c>
-      <c r="AB255" s="37">
+      <c r="AB255" s="36">
         <v>0</v>
       </c>
-      <c r="AC255" s="38">
+      <c r="AC255" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24347,7 +24495,7 @@
       <c r="AG255">
         <v>0</v>
       </c>
-      <c r="AH255" s="37">
+      <c r="AH255" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24423,10 +24571,10 @@
       <c r="AA256">
         <v>0</v>
       </c>
-      <c r="AB256" s="37">
+      <c r="AB256" s="36">
         <v>0</v>
       </c>
-      <c r="AC256" s="38">
+      <c r="AC256" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24439,7 +24587,7 @@
       <c r="AG256">
         <v>0</v>
       </c>
-      <c r="AH256" s="37">
+      <c r="AH256" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24515,10 +24663,10 @@
       <c r="AA257">
         <v>0</v>
       </c>
-      <c r="AB257" s="37">
+      <c r="AB257" s="36">
         <v>0</v>
       </c>
-      <c r="AC257" s="38">
+      <c r="AC257" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24531,7 +24679,7 @@
       <c r="AG257">
         <v>0</v>
       </c>
-      <c r="AH257" s="37">
+      <c r="AH257" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24604,10 +24752,10 @@
       <c r="AA258">
         <v>0</v>
       </c>
-      <c r="AB258" s="37">
+      <c r="AB258" s="36">
         <v>0</v>
       </c>
-      <c r="AC258" s="38">
+      <c r="AC258" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24620,7 +24768,7 @@
       <c r="AG258">
         <v>0</v>
       </c>
-      <c r="AH258" s="37">
+      <c r="AH258" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24696,10 +24844,10 @@
       <c r="AA259">
         <v>0</v>
       </c>
-      <c r="AB259" s="37">
+      <c r="AB259" s="36">
         <v>0</v>
       </c>
-      <c r="AC259" s="38">
+      <c r="AC259" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24712,7 +24860,7 @@
       <c r="AG259">
         <v>0</v>
       </c>
-      <c r="AH259" s="37">
+      <c r="AH259" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24788,10 +24936,10 @@
       <c r="AA260">
         <v>0</v>
       </c>
-      <c r="AB260" s="37">
+      <c r="AB260" s="36">
         <v>0</v>
       </c>
-      <c r="AC260" s="38">
+      <c r="AC260" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24804,7 +24952,7 @@
       <c r="AG260">
         <v>0</v>
       </c>
-      <c r="AH260" s="37">
+      <c r="AH260" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24877,10 +25025,10 @@
       <c r="AA261">
         <v>0</v>
       </c>
-      <c r="AB261" s="37">
+      <c r="AB261" s="36">
         <v>0</v>
       </c>
-      <c r="AC261" s="38">
+      <c r="AC261" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24893,7 +25041,7 @@
       <c r="AG261">
         <v>0</v>
       </c>
-      <c r="AH261" s="37">
+      <c r="AH261" s="36">
         <v>0</v>
       </c>
     </row>
@@ -24969,10 +25117,10 @@
       <c r="AA262">
         <v>0</v>
       </c>
-      <c r="AB262" s="37">
+      <c r="AB262" s="36">
         <v>0</v>
       </c>
-      <c r="AC262" s="38">
+      <c r="AC262" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -24985,7 +25133,7 @@
       <c r="AG262">
         <v>0</v>
       </c>
-      <c r="AH262" s="37">
+      <c r="AH262" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25061,10 +25209,10 @@
       <c r="AA263">
         <v>0</v>
       </c>
-      <c r="AB263" s="37">
+      <c r="AB263" s="36">
         <v>0</v>
       </c>
-      <c r="AC263" s="38">
+      <c r="AC263" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -25077,7 +25225,7 @@
       <c r="AG263">
         <v>0</v>
       </c>
-      <c r="AH263" s="37">
+      <c r="AH263" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25153,10 +25301,10 @@
       <c r="AA264">
         <v>0</v>
       </c>
-      <c r="AB264" s="37">
+      <c r="AB264" s="36">
         <v>0</v>
       </c>
-      <c r="AC264" s="38">
+      <c r="AC264" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -25169,7 +25317,7 @@
       <c r="AG264">
         <v>0</v>
       </c>
-      <c r="AH264" s="37">
+      <c r="AH264" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25246,10 +25394,10 @@
       <c r="AA265">
         <v>0</v>
       </c>
-      <c r="AB265" s="37">
+      <c r="AB265" s="36">
         <v>0</v>
       </c>
-      <c r="AC265" s="38">
+      <c r="AC265" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -25262,7 +25410,7 @@
       <c r="AG265">
         <v>0</v>
       </c>
-      <c r="AH265" s="37">
+      <c r="AH265" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25339,10 +25487,10 @@
       <c r="AA266">
         <v>0</v>
       </c>
-      <c r="AB266" s="37">
+      <c r="AB266" s="36">
         <v>0</v>
       </c>
-      <c r="AC266" s="38">
+      <c r="AC266" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -25355,7 +25503,7 @@
       <c r="AG266">
         <v>0</v>
       </c>
-      <c r="AH266" s="37">
+      <c r="AH266" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25429,10 +25577,10 @@
       <c r="AA267">
         <v>0</v>
       </c>
-      <c r="AB267" s="37">
+      <c r="AB267" s="36">
         <v>0</v>
       </c>
-      <c r="AC267" s="38">
+      <c r="AC267" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -25445,7 +25593,7 @@
       <c r="AG267">
         <v>0</v>
       </c>
-      <c r="AH267" s="37">
+      <c r="AH267" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25519,10 +25667,10 @@
       <c r="AA268">
         <v>0</v>
       </c>
-      <c r="AB268" s="37">
+      <c r="AB268" s="36">
         <v>0</v>
       </c>
-      <c r="AC268" s="38">
+      <c r="AC268" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -25535,7 +25683,7 @@
       <c r="AG268">
         <v>0</v>
       </c>
-      <c r="AH268" s="37">
+      <c r="AH268" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25609,10 +25757,10 @@
       <c r="AA269">
         <v>0</v>
       </c>
-      <c r="AB269" s="37">
+      <c r="AB269" s="36">
         <v>0</v>
       </c>
-      <c r="AC269" s="38">
+      <c r="AC269" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -25625,7 +25773,7 @@
       <c r="AG269">
         <v>0</v>
       </c>
-      <c r="AH269" s="37">
+      <c r="AH269" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25699,7 +25847,7 @@
       <c r="AG270">
         <v>0</v>
       </c>
-      <c r="AH270" s="37">
+      <c r="AH270" s="36">
         <v>0</v>
       </c>
     </row>
@@ -25776,7 +25924,7 @@
       <c r="AG271">
         <v>0</v>
       </c>
-      <c r="AH271" s="37">
+      <c r="AH271" s="36">
         <v>0</v>
       </c>
     </row>
@@ -32231,22 +32379,22 @@
         <f t="shared" si="18"/>
         <v>430</v>
       </c>
-      <c r="D394" s="41">
+      <c r="D394" s="40">
         <v>55</v>
       </c>
-      <c r="E394" s="42">
+      <c r="E394" s="41">
         <v>95</v>
       </c>
-      <c r="F394" s="43">
+      <c r="F394" s="42">
         <v>55</v>
       </c>
-      <c r="G394" s="44">
+      <c r="G394" s="43">
         <v>35</v>
       </c>
-      <c r="H394" s="43">
+      <c r="H394" s="42">
         <v>75</v>
       </c>
-      <c r="I394" s="45">
+      <c r="I394" s="44">
         <v>115</v>
       </c>
       <c r="J394">
@@ -32438,7 +32586,7 @@
         <v>1163</v>
       </c>
       <c r="C402" s="1">
-        <f t="shared" ref="C402:C410" si="20">SUM(D402:I402)</f>
+        <f t="shared" ref="C402:C409" si="20">SUM(D402:I402)</f>
         <v>458</v>
       </c>
       <c r="D402" s="2">
@@ -32468,14 +32616,14 @@
         <v>258</v>
       </c>
       <c r="B403" t="s">
-        <v>1187</v>
+        <v>1164</v>
       </c>
       <c r="C403" s="1">
-        <f>SUM(D403:I403)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J403">
-        <v>458</v>
+        <v>535</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -32483,14 +32631,32 @@
         <v>259</v>
       </c>
       <c r="B404" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C404" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="D404" s="2">
+        <v>80</v>
+      </c>
+      <c r="E404" s="3">
+        <v>43</v>
+      </c>
+      <c r="F404" s="4">
+        <v>53</v>
+      </c>
+      <c r="G404" s="5">
+        <v>43</v>
+      </c>
+      <c r="H404" s="4">
+        <v>53</v>
+      </c>
+      <c r="I404" s="6">
+        <v>40</v>
       </c>
       <c r="J404">
-        <v>535</v>
+        <v>312</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -32498,32 +32664,32 @@
         <v>260</v>
       </c>
       <c r="B405" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C405" s="1">
         <f t="shared" si="20"/>
-        <v>312</v>
+        <v>487</v>
       </c>
       <c r="D405" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E405" s="3">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F405" s="4">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G405" s="5">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H405" s="4">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="I405" s="6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J405">
-        <v>312</v>
+        <v>487</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -32531,32 +32697,14 @@
         <v>261</v>
       </c>
       <c r="B406" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C406" s="1">
         <f t="shared" si="20"/>
-        <v>487</v>
-      </c>
-      <c r="D406" s="2">
-        <v>120</v>
-      </c>
-      <c r="E406" s="3">
-        <v>73</v>
-      </c>
-      <c r="F406" s="4">
-        <v>83</v>
-      </c>
-      <c r="G406" s="5">
-        <v>73</v>
-      </c>
-      <c r="H406" s="4">
-        <v>83</v>
-      </c>
-      <c r="I406" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J406">
-        <v>487</v>
+        <v>312</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -32564,14 +32712,14 @@
         <v>262</v>
       </c>
       <c r="B407" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C407" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J407">
-        <v>312</v>
+        <v>487</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -32579,22 +32727,19 @@
         <v>263</v>
       </c>
       <c r="B408" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C408" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J408">
-        <v>487</v>
-      </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>264</v>
       </c>
       <c r="B409" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="C409" s="1">
         <f t="shared" si="20"/>
@@ -32606,11 +32751,32 @@
         <v>265</v>
       </c>
       <c r="B410" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C410" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="C410:C418" si="21">SUM(D410:I410)</f>
+        <v>335</v>
+      </c>
+      <c r="D410" s="2">
+        <v>55</v>
+      </c>
+      <c r="E410" s="3">
+        <v>55</v>
+      </c>
+      <c r="F410" s="4">
+        <v>55</v>
+      </c>
+      <c r="G410" s="5">
+        <v>85</v>
+      </c>
+      <c r="H410" s="4">
+        <v>55</v>
+      </c>
+      <c r="I410" s="6">
+        <v>30</v>
+      </c>
+      <c r="J410">
+        <v>335</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -32618,32 +32784,32 @@
         <v>266</v>
       </c>
       <c r="B411" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C411" s="1">
-        <f t="shared" ref="C411:C419" si="21">SUM(D411:I411)</f>
-        <v>335</v>
+        <f t="shared" si="21"/>
+        <v>485</v>
       </c>
       <c r="D411" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E411" s="3">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F411" s="4">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G411" s="5">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H411" s="4">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="I411" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J411">
-        <v>335</v>
+        <v>485</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
@@ -32651,32 +32817,11 @@
         <v>267</v>
       </c>
       <c r="B412" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C412" s="1">
         <f t="shared" si="21"/>
-        <v>485</v>
-      </c>
-      <c r="D412" s="2">
-        <v>75</v>
-      </c>
-      <c r="E412" s="3">
-        <v>75</v>
-      </c>
-      <c r="F412" s="4">
-        <v>75</v>
-      </c>
-      <c r="G412" s="5">
-        <v>125</v>
-      </c>
-      <c r="H412" s="4">
-        <v>95</v>
-      </c>
-      <c r="I412" s="6">
-        <v>40</v>
-      </c>
-      <c r="J412">
-        <v>485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -32684,7 +32829,7 @@
         <v>268</v>
       </c>
       <c r="B413" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C413" s="1">
         <f t="shared" si="21"/>
@@ -32696,11 +32841,32 @@
         <v>269</v>
       </c>
       <c r="B414" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C414" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="D414" s="2">
+        <v>45</v>
+      </c>
+      <c r="E414" s="3">
+        <v>30</v>
+      </c>
+      <c r="F414" s="4">
+        <v>35</v>
+      </c>
+      <c r="G414" s="5">
+        <v>20</v>
+      </c>
+      <c r="H414" s="4">
+        <v>20</v>
+      </c>
+      <c r="I414" s="6">
+        <v>45</v>
+      </c>
+      <c r="J414">
+        <v>195</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -32708,32 +32874,32 @@
         <v>270</v>
       </c>
       <c r="B415" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C415" s="1">
         <f t="shared" si="21"/>
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D415" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E415" s="3">
+        <v>20</v>
+      </c>
+      <c r="F415" s="4">
+        <v>55</v>
+      </c>
+      <c r="G415" s="5">
+        <v>25</v>
+      </c>
+      <c r="H415" s="4">
+        <v>25</v>
+      </c>
+      <c r="I415" s="6">
         <v>30</v>
       </c>
-      <c r="F415" s="4">
-        <v>35</v>
-      </c>
-      <c r="G415" s="5">
-        <v>20</v>
-      </c>
-      <c r="H415" s="4">
-        <v>20</v>
-      </c>
-      <c r="I415" s="6">
-        <v>45</v>
-      </c>
       <c r="J415">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
@@ -32741,32 +32907,32 @@
         <v>271</v>
       </c>
       <c r="B416" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C416" s="1">
         <f t="shared" si="21"/>
-        <v>205</v>
+        <v>395</v>
       </c>
       <c r="D416" s="2">
+        <v>60</v>
+      </c>
+      <c r="E416" s="3">
+        <v>45</v>
+      </c>
+      <c r="F416" s="4">
         <v>50</v>
       </c>
-      <c r="E416" s="3">
-        <v>20</v>
-      </c>
-      <c r="F416" s="4">
-        <v>55</v>
-      </c>
       <c r="G416" s="5">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H416" s="4">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I416" s="6">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J416">
-        <v>205</v>
+        <v>395</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -32774,32 +32940,11 @@
         <v>272</v>
       </c>
       <c r="B417" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C417" s="1">
         <f t="shared" si="21"/>
-        <v>395</v>
-      </c>
-      <c r="D417" s="2">
-        <v>60</v>
-      </c>
-      <c r="E417" s="3">
-        <v>45</v>
-      </c>
-      <c r="F417" s="4">
-        <v>50</v>
-      </c>
-      <c r="G417" s="5">
-        <v>90</v>
-      </c>
-      <c r="H417" s="4">
-        <v>80</v>
-      </c>
-      <c r="I417" s="6">
-        <v>70</v>
-      </c>
-      <c r="J417">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
@@ -32807,26 +32952,26 @@
         <v>273</v>
       </c>
       <c r="B418" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C418" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="K418" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>274</v>
       </c>
       <c r="B419" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C419" s="1">
-        <f t="shared" si="21"/>
+        <f>SUM(D419:I419)</f>
         <v>0</v>
-      </c>
-      <c r="K419" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
@@ -32864,25 +33009,13 @@
         <f>SUM(D422:I422)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423">
-        <v>278</v>
-      </c>
-      <c r="B423" t="s">
+      <c r="K422" t="s">
         <v>1191</v>
       </c>
-      <c r="C423" s="1">
-        <f>SUM(D423:I423)</f>
-        <v>0</v>
-      </c>
-      <c r="K423" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B621">
-        <f>MAX(B385:B619)</f>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620">
+        <f>MAX(B385:B618)</f>
         <v>0</v>
       </c>
     </row>
@@ -33004,7 +33137,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C140 C404:C408 C411:C412 C146:C403 C415:C417" formulaRange="1"/>
+    <ignoredError sqref="C1:C140 C403:C407 C410:C411 C146:C402 C414:C416" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="4">
     <tablePart r:id="rId2"/>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465582C2-B5D3-4173-BCFB-04C6C92F0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D2DCDC-CC65-48DD-A0B6-8B19F1A2E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1199">
   <si>
     <t>Leafer</t>
   </si>
@@ -3612,6 +3612,27 @@
   </si>
   <si>
     <t>Arthra uses</t>
+  </si>
+  <si>
+    <t>Shadow 1</t>
+  </si>
+  <si>
+    <t>Shadow 2</t>
+  </si>
+  <si>
+    <t>Shadow 3</t>
+  </si>
+  <si>
+    <t>Xurkitree</t>
+  </si>
+  <si>
+    <t>Buzzwole</t>
+  </si>
+  <si>
+    <t>Pheromosa</t>
+  </si>
+  <si>
+    <t>Necrozma</t>
   </si>
 </sst>
 </file>
@@ -3967,6 +3988,30 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4129,30 +4174,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="double">
           <color rgb="FF3F3F3F"/>
@@ -4179,8 +4200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J422" totalsRowShown="0" tableBorderDxfId="10">
-  <autoFilter ref="B145:J422" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="B145:J432" totalsRowShown="0" tableBorderDxfId="10">
+  <autoFilter ref="B145:J432" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{954E08A8-D138-4D6D-97C7-F47E4324725D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F9097124-9DD8-47D1-881E-F9976C72C702}" name="Total" dataCellStyle="60% - Accent4">
@@ -4206,13 +4227,13 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5ECD7C50-12C2-4722-BB43-4A5392C844D3}" name="Type" totalsRowLabel="TOTAL"/>
-    <tableColumn id="2" xr3:uid="{1FEEF44A-9297-470E-B8C5-DB2860F63B26}" name="HP" totalsRowFunction="average" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C4F64A03-884E-4ABF-863F-FB93EB9C48D7}" name="Atk" totalsRowFunction="average" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7D26ECE6-FEFB-43CC-9954-6A7B9A9B1FFF}" name="Def" totalsRowFunction="average" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5E7CA636-F06B-46EF-9E88-779A1C949192}" name="SpA" totalsRowFunction="average" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{21E01ACA-9002-4C73-9BFF-AF400041F7E7}" name="SpD" totalsRowFunction="average" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{717E4770-D119-4D0A-BD0F-58E3D3ADFE4C}" name="Spe" totalsRowFunction="average" totalsRowDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{8B8669EB-BDCE-49F8-84EE-CA277552CD38}" name="Amt" totalsRowFunction="average" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1FEEF44A-9297-470E-B8C5-DB2860F63B26}" name="HP" totalsRowFunction="average" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C4F64A03-884E-4ABF-863F-FB93EB9C48D7}" name="Atk" totalsRowFunction="average" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7D26ECE6-FEFB-43CC-9954-6A7B9A9B1FFF}" name="Def" totalsRowFunction="average" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5E7CA636-F06B-46EF-9E88-779A1C949192}" name="SpA" totalsRowFunction="average" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{21E01ACA-9002-4C73-9BFF-AF400041F7E7}" name="SpD" totalsRowFunction="average" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{717E4770-D119-4D0A-BD0F-58E3D3ADFE4C}" name="Spe" totalsRowFunction="average" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8B8669EB-BDCE-49F8-84EE-CA277552CD38}" name="Amt" totalsRowFunction="average" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4228,8 +4249,8 @@
     <tableColumn id="5" xr3:uid="{D4240EEB-6B7E-4513-81CD-64F028AE015F}" name="Num"/>
     <tableColumn id="1" xr3:uid="{927F8053-02EB-4DE4-A9C2-E39369A9D18C}" name="Species"/>
     <tableColumn id="2" xr3:uid="{88EA7429-2A79-45C2-9DAD-432E911FB847}" name="Amount"/>
-    <tableColumn id="3" xr3:uid="{31049355-8917-406D-A961-EA9E609C094C}" name="Average" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{9EB8DBFF-5E4E-4D13-B06A-8EEDCAE0D250}" name="Total" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{31049355-8917-406D-A961-EA9E609C094C}" name="Average" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9EB8DBFF-5E4E-4D13-B06A-8EEDCAE0D250}" name="Total" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>AB30*AA30</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4247,7 +4268,7 @@
     <tableColumn id="1" xr3:uid="{71084C9A-5E75-4048-82AA-70A2D1CBD776}" name="Num"/>
     <tableColumn id="2" xr3:uid="{7A1103DC-DAF9-41EF-BBD3-0883ED909130}" name="Pokemon"/>
     <tableColumn id="3" xr3:uid="{A641B1E3-DC03-463F-B2D8-CE49F38612E2}" name="Amt"/>
-    <tableColumn id="4" xr3:uid="{8554C379-EE33-4C0B-B30E-A04B1C29BF4E}" name="%" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8554C379-EE33-4C0B-B30E-A04B1C29BF4E}" name="%" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4552,13 +4573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AT620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54:S75"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L435" sqref="L435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
@@ -4568,21 +4589,21 @@
     <col min="9" max="9" width="11" style="6" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" customWidth="1"/>
-    <col min="26" max="28" width="10.85546875" customWidth="1"/>
-    <col min="29" max="31" width="7.7109375" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" customWidth="1"/>
-    <col min="33" max="46" width="7.7109375" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" customWidth="1"/>
+    <col min="26" max="28" width="10.88671875" customWidth="1"/>
+    <col min="29" max="31" width="7.6640625" customWidth="1"/>
+    <col min="32" max="32" width="11.44140625" customWidth="1"/>
+    <col min="33" max="46" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>-1</v>
       </c>
@@ -4700,7 +4721,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -4768,7 +4789,7 @@
       <c r="AQ2" s="18"/>
       <c r="AS2" s="17"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-3</v>
       </c>
@@ -4841,7 +4862,7 @@
       <c r="AQ3" s="17"/>
       <c r="AT3" s="19"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-4</v>
       </c>
@@ -4909,7 +4930,7 @@
       <c r="AM4" s="17"/>
       <c r="AO4" s="18"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-5</v>
       </c>
@@ -4982,7 +5003,7 @@
       <c r="AR5" s="17"/>
       <c r="AT5" s="18"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-6</v>
       </c>
@@ -5049,7 +5070,7 @@
       <c r="AO6" s="18"/>
       <c r="AQ6" s="17"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-7</v>
       </c>
@@ -5116,7 +5137,7 @@
       <c r="AO7" s="17"/>
       <c r="AQ7" s="18"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-8</v>
       </c>
@@ -5187,7 +5208,7 @@
       <c r="AS8" s="18"/>
       <c r="AT8" s="18"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-9</v>
       </c>
@@ -5256,7 +5277,7 @@
       <c r="AQ9" s="19"/>
       <c r="AS9" s="17"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-10</v>
       </c>
@@ -5320,7 +5341,7 @@
       <c r="AQ10" s="17"/>
       <c r="AT10" s="18"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-11</v>
       </c>
@@ -5381,7 +5402,7 @@
       <c r="AQ11" s="18"/>
       <c r="AT11" s="17"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-12</v>
       </c>
@@ -5441,7 +5462,7 @@
       <c r="AP12" s="19"/>
       <c r="AS12" s="18"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-13</v>
       </c>
@@ -5507,7 +5528,7 @@
       <c r="AR13" s="17"/>
       <c r="AT13" s="18"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-14</v>
       </c>
@@ -5564,7 +5585,7 @@
       <c r="AQ14" s="18"/>
       <c r="AT14" s="17"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-15</v>
       </c>
@@ -5619,7 +5640,7 @@
       <c r="AP15" s="18"/>
       <c r="AR15" s="18"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-16</v>
       </c>
@@ -5671,7 +5692,7 @@
       <c r="AQ16" s="18"/>
       <c r="AS16" s="19"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-17</v>
       </c>
@@ -5731,7 +5752,7 @@
       <c r="AP17" s="18"/>
       <c r="AR17" s="18"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -5797,7 +5818,7 @@
       <c r="AR18" s="17"/>
       <c r="AS18" s="18"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-19</v>
       </c>
@@ -5861,7 +5882,7 @@
       <c r="AR19" s="18"/>
       <c r="AT19" s="17"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-20</v>
       </c>
@@ -5922,7 +5943,7 @@
       <c r="AQ20" s="17"/>
       <c r="AS20" s="18"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-21</v>
       </c>
@@ -5975,7 +5996,7 @@
       <c r="AQ21" s="18"/>
       <c r="AR21" s="18"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-22</v>
       </c>
@@ -6024,7 +6045,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-23</v>
       </c>
@@ -6072,7 +6093,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-24</v>
       </c>
@@ -6120,7 +6141,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-25</v>
       </c>
@@ -6168,7 +6189,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-26</v>
       </c>
@@ -6213,7 +6234,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-27</v>
       </c>
@@ -6258,7 +6279,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-28</v>
       </c>
@@ -6303,7 +6324,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-29</v>
       </c>
@@ -6375,7 +6396,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-30</v>
       </c>
@@ -6442,7 +6463,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-31</v>
       </c>
@@ -6509,7 +6530,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-32</v>
       </c>
@@ -6582,7 +6603,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-33</v>
       </c>
@@ -6664,7 +6685,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-34</v>
       </c>
@@ -6743,7 +6764,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-35</v>
       </c>
@@ -6822,7 +6843,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-36</v>
       </c>
@@ -6901,7 +6922,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-37</v>
       </c>
@@ -6977,7 +6998,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-38</v>
       </c>
@@ -7053,7 +7074,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-39</v>
       </c>
@@ -7129,7 +7150,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-40</v>
       </c>
@@ -7205,7 +7226,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-41</v>
       </c>
@@ -7278,7 +7299,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-42</v>
       </c>
@@ -7351,7 +7372,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-43</v>
       </c>
@@ -7427,7 +7448,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-44</v>
       </c>
@@ -7500,7 +7521,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-45</v>
       </c>
@@ -7570,7 +7591,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-46</v>
       </c>
@@ -7637,7 +7658,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-47</v>
       </c>
@@ -7704,7 +7725,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-48</v>
       </c>
@@ -7771,7 +7792,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-49</v>
       </c>
@@ -7835,7 +7856,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-50</v>
       </c>
@@ -7902,7 +7923,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-51</v>
       </c>
@@ -7966,7 +7987,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-52</v>
       </c>
@@ -8030,7 +8051,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-53</v>
       </c>
@@ -8094,7 +8115,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-54</v>
       </c>
@@ -8182,7 +8203,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-55</v>
       </c>
@@ -8270,7 +8291,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-56</v>
       </c>
@@ -8358,7 +8379,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-57</v>
       </c>
@@ -8449,7 +8470,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-58</v>
       </c>
@@ -8537,7 +8558,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-59</v>
       </c>
@@ -8625,7 +8646,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-60</v>
       </c>
@@ -8716,7 +8737,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-61</v>
       </c>
@@ -8804,7 +8825,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-62</v>
       </c>
@@ -8892,7 +8913,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-63</v>
       </c>
@@ -8980,7 +9001,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-64</v>
       </c>
@@ -9068,7 +9089,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-65</v>
       </c>
@@ -9156,7 +9177,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-66</v>
       </c>
@@ -9244,7 +9265,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-67</v>
       </c>
@@ -9332,7 +9353,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-68</v>
       </c>
@@ -9420,7 +9441,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-69</v>
       </c>
@@ -9508,7 +9529,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-70</v>
       </c>
@@ -9596,7 +9617,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-71</v>
       </c>
@@ -9684,7 +9705,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-72</v>
       </c>
@@ -9772,7 +9793,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-73</v>
       </c>
@@ -9860,7 +9881,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-74</v>
       </c>
@@ -9948,7 +9969,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-75</v>
       </c>
@@ -10043,7 +10064,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-76</v>
       </c>
@@ -10107,7 +10128,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-77</v>
       </c>
@@ -10171,7 +10192,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-78</v>
       </c>
@@ -10235,7 +10256,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-79</v>
       </c>
@@ -10299,7 +10320,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-80</v>
       </c>
@@ -10363,7 +10384,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-81</v>
       </c>
@@ -10427,7 +10448,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-82</v>
       </c>
@@ -10491,7 +10512,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>-83</v>
       </c>
@@ -10555,7 +10576,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-84</v>
       </c>
@@ -10619,7 +10640,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>-85</v>
       </c>
@@ -10686,7 +10707,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-86</v>
       </c>
@@ -10750,7 +10771,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>-87</v>
       </c>
@@ -10814,7 +10835,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>-88</v>
       </c>
@@ -10878,7 +10899,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>-89</v>
       </c>
@@ -10942,7 +10963,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>-90</v>
       </c>
@@ -11006,7 +11027,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>-91</v>
       </c>
@@ -11070,7 +11091,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-92</v>
       </c>
@@ -11134,7 +11155,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-93</v>
       </c>
@@ -11198,7 +11219,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>-94</v>
       </c>
@@ -11262,7 +11283,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>-95</v>
       </c>
@@ -11326,7 +11347,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>-96</v>
       </c>
@@ -11390,7 +11411,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>-97</v>
       </c>
@@ -11454,7 +11475,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>-98</v>
       </c>
@@ -11518,7 +11539,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-99</v>
       </c>
@@ -11582,7 +11603,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-100</v>
       </c>
@@ -11646,7 +11667,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>-101</v>
       </c>
@@ -11710,7 +11731,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>-102</v>
       </c>
@@ -11774,7 +11795,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-103</v>
       </c>
@@ -11841,7 +11862,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-104</v>
       </c>
@@ -11905,7 +11926,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>-105</v>
       </c>
@@ -11969,7 +11990,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-106</v>
       </c>
@@ -12033,7 +12054,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>-107</v>
       </c>
@@ -12097,7 +12118,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>-108</v>
       </c>
@@ -12161,7 +12182,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>-109</v>
       </c>
@@ -12225,7 +12246,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>-110</v>
       </c>
@@ -12289,7 +12310,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>-111</v>
       </c>
@@ -12353,7 +12374,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>-112</v>
       </c>
@@ -12417,7 +12438,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>-113</v>
       </c>
@@ -12481,7 +12502,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>-114</v>
       </c>
@@ -12545,7 +12566,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>-115</v>
       </c>
@@ -12609,7 +12630,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>-116</v>
       </c>
@@ -12673,7 +12694,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>-117</v>
       </c>
@@ -12737,7 +12758,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>-118</v>
       </c>
@@ -12801,7 +12822,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>-119</v>
       </c>
@@ -12865,7 +12886,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>-120</v>
       </c>
@@ -12929,7 +12950,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>-121</v>
       </c>
@@ -12993,7 +13014,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>-122</v>
       </c>
@@ -13057,7 +13078,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>-123</v>
       </c>
@@ -13121,7 +13142,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>-124</v>
       </c>
@@ -13185,7 +13206,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>-125</v>
       </c>
@@ -13249,7 +13270,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>-126</v>
       </c>
@@ -13313,7 +13334,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>-127</v>
       </c>
@@ -13377,7 +13398,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>-128</v>
       </c>
@@ -13441,7 +13462,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>-129</v>
       </c>
@@ -13505,7 +13526,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>-130</v>
       </c>
@@ -13569,7 +13590,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>-131</v>
       </c>
@@ -13633,7 +13654,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>-132</v>
       </c>
@@ -13697,7 +13718,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>-133</v>
       </c>
@@ -13761,7 +13782,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>-134</v>
       </c>
@@ -13825,7 +13846,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>-135</v>
       </c>
@@ -13889,7 +13910,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>-136</v>
       </c>
@@ -13953,7 +13974,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>-137</v>
       </c>
@@ -14017,7 +14038,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>-138</v>
       </c>
@@ -14084,7 +14105,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>-139</v>
       </c>
@@ -14148,7 +14169,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>-140</v>
       </c>
@@ -14212,7 +14233,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>-141</v>
       </c>
@@ -14283,7 +14304,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>-142</v>
       </c>
@@ -14357,7 +14378,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>-143</v>
       </c>
@@ -14428,7 +14449,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>-144</v>
       </c>
@@ -14508,7 +14529,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>585</v>
       </c>
@@ -14578,7 +14599,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -14673,7 +14694,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2</v>
       </c>
@@ -14768,7 +14789,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3</v>
       </c>
@@ -14860,7 +14881,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4</v>
       </c>
@@ -14955,7 +14976,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -15050,7 +15071,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -15142,7 +15163,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7</v>
       </c>
@@ -15240,7 +15261,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>8</v>
       </c>
@@ -15335,7 +15356,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9</v>
       </c>
@@ -15427,7 +15448,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10</v>
       </c>
@@ -15522,7 +15543,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11</v>
       </c>
@@ -15617,7 +15638,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>12</v>
       </c>
@@ -15709,7 +15730,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>13</v>
       </c>
@@ -15804,7 +15825,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -15899,7 +15920,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15</v>
       </c>
@@ -15991,7 +16012,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>16</v>
       </c>
@@ -16086,7 +16107,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>17</v>
       </c>
@@ -16181,7 +16202,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>18</v>
       </c>
@@ -16276,7 +16297,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>19</v>
       </c>
@@ -16371,7 +16392,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>20</v>
       </c>
@@ -16466,7 +16487,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>21</v>
       </c>
@@ -16558,7 +16579,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>22</v>
       </c>
@@ -16651,7 +16672,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>23</v>
       </c>
@@ -16744,7 +16765,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>24</v>
       </c>
@@ -16836,7 +16857,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>25</v>
       </c>
@@ -16931,7 +16952,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>26</v>
       </c>
@@ -17024,7 +17045,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>27</v>
       </c>
@@ -17114,7 +17135,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>28</v>
       </c>
@@ -17201,7 +17222,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>29</v>
       </c>
@@ -17293,7 +17314,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>30</v>
       </c>
@@ -17385,7 +17406,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>31</v>
       </c>
@@ -17474,7 +17495,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>32</v>
       </c>
@@ -17564,7 +17585,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>33</v>
       </c>
@@ -17654,7 +17675,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>34</v>
       </c>
@@ -17741,7 +17762,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>35</v>
       </c>
@@ -17831,7 +17852,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>36</v>
       </c>
@@ -17921,7 +17942,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>37</v>
       </c>
@@ -18008,7 +18029,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>38</v>
       </c>
@@ -18097,7 +18118,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>39</v>
       </c>
@@ -18192,7 +18213,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>40</v>
       </c>
@@ -18284,7 +18305,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>41</v>
       </c>
@@ -18376,7 +18397,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>42</v>
       </c>
@@ -18468,7 +18489,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>43</v>
       </c>
@@ -18557,7 +18578,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>44</v>
       </c>
@@ -18647,7 +18668,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>45</v>
       </c>
@@ -18737,7 +18758,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>46</v>
       </c>
@@ -18818,7 +18839,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>47</v>
       </c>
@@ -18901,7 +18922,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>48</v>
       </c>
@@ -18987,7 +19008,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>49</v>
       </c>
@@ -19079,7 +19100,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>50</v>
       </c>
@@ -19168,7 +19189,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>51</v>
       </c>
@@ -19260,7 +19281,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>52</v>
       </c>
@@ -19352,7 +19373,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>53</v>
       </c>
@@ -19444,7 +19465,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>54</v>
       </c>
@@ -19533,7 +19554,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>55</v>
       </c>
@@ -19625,7 +19646,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>56</v>
       </c>
@@ -19714,7 +19735,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>57</v>
       </c>
@@ -19803,7 +19824,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>58</v>
       </c>
@@ -19889,7 +19910,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>59</v>
       </c>
@@ -19978,7 +19999,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>60</v>
       </c>
@@ -20064,7 +20085,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>61</v>
       </c>
@@ -20150,7 +20171,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>62</v>
       </c>
@@ -20239,7 +20260,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>63</v>
       </c>
@@ -20322,7 +20343,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>64</v>
       </c>
@@ -20406,7 +20427,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>65</v>
       </c>
@@ -20487,7 +20508,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>66</v>
       </c>
@@ -20573,7 +20594,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>67</v>
       </c>
@@ -20656,7 +20677,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>68</v>
       </c>
@@ -20742,7 +20763,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>69</v>
       </c>
@@ -20828,7 +20849,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>70</v>
       </c>
@@ -20911,7 +20932,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>71</v>
       </c>
@@ -20997,7 +21018,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>72</v>
       </c>
@@ -21080,7 +21101,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>73</v>
       </c>
@@ -21169,7 +21190,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>74</v>
       </c>
@@ -21255,7 +21276,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>75</v>
       </c>
@@ -21341,7 +21362,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>76</v>
       </c>
@@ -21427,7 +21448,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>77</v>
       </c>
@@ -21510,7 +21531,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>78</v>
       </c>
@@ -21599,7 +21620,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>79</v>
       </c>
@@ -21682,7 +21703,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>80</v>
       </c>
@@ -21768,7 +21789,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>81</v>
       </c>
@@ -21851,7 +21872,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>82</v>
       </c>
@@ -21934,7 +21955,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>83</v>
       </c>
@@ -22020,7 +22041,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>84</v>
       </c>
@@ -22118,7 +22139,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>85</v>
       </c>
@@ -22213,7 +22234,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>86</v>
       </c>
@@ -22308,7 +22329,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>87</v>
       </c>
@@ -22400,7 +22421,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>88</v>
       </c>
@@ -22495,7 +22516,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>89</v>
       </c>
@@ -22587,7 +22608,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>90</v>
       </c>
@@ -22682,7 +22703,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>91</v>
       </c>
@@ -22774,7 +22795,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>92</v>
       </c>
@@ -22869,7 +22890,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>93</v>
       </c>
@@ -22961,7 +22982,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>94</v>
       </c>
@@ -23056,7 +23077,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>95</v>
       </c>
@@ -23151,7 +23172,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>96</v>
       </c>
@@ -23243,7 +23264,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>97</v>
       </c>
@@ -23332,7 +23353,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>98</v>
       </c>
@@ -23423,7 +23444,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>99</v>
       </c>
@@ -23513,7 +23534,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>100</v>
       </c>
@@ -23600,7 +23621,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>101</v>
       </c>
@@ -23692,7 +23713,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>102</v>
       </c>
@@ -23784,7 +23805,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>103</v>
       </c>
@@ -23873,7 +23894,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>104</v>
       </c>
@@ -23968,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>105</v>
       </c>
@@ -24060,7 +24081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>106</v>
       </c>
@@ -24152,7 +24173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>107</v>
       </c>
@@ -24241,7 +24262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>108</v>
       </c>
@@ -24322,7 +24343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>109</v>
       </c>
@@ -24409,7 +24430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>110</v>
       </c>
@@ -24499,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>111</v>
       </c>
@@ -24591,7 +24612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>112</v>
       </c>
@@ -24683,7 +24704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>113</v>
       </c>
@@ -24772,7 +24793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>114</v>
       </c>
@@ -24864,7 +24885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>115</v>
       </c>
@@ -24956,7 +24977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>116</v>
       </c>
@@ -25045,7 +25066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>117</v>
       </c>
@@ -25137,7 +25158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>118</v>
       </c>
@@ -25229,7 +25250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>119</v>
       </c>
@@ -25321,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>120</v>
       </c>
@@ -25414,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>121</v>
       </c>
@@ -25507,7 +25528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>122</v>
       </c>
@@ -25597,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>123</v>
       </c>
@@ -25687,7 +25708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>124</v>
       </c>
@@ -25777,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>125</v>
       </c>
@@ -25851,7 +25872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>126</v>
       </c>
@@ -25928,7 +25949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>127</v>
       </c>
@@ -25981,7 +26002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>128</v>
       </c>
@@ -26031,7 +26052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>129</v>
       </c>
@@ -26084,7 +26105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>130</v>
       </c>
@@ -26134,7 +26155,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>131</v>
       </c>
@@ -26193,7 +26214,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>132</v>
       </c>
@@ -26255,7 +26276,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>133</v>
       </c>
@@ -26314,7 +26335,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>134</v>
       </c>
@@ -26376,7 +26397,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>135</v>
       </c>
@@ -26435,7 +26456,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>136</v>
       </c>
@@ -26494,7 +26515,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>137</v>
       </c>
@@ -26556,7 +26577,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>138</v>
       </c>
@@ -26615,7 +26636,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>139</v>
       </c>
@@ -26676,7 +26697,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>140</v>
       </c>
@@ -26734,7 +26755,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>141</v>
       </c>
@@ -26793,7 +26814,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>142</v>
       </c>
@@ -26849,7 +26870,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>143</v>
       </c>
@@ -26908,7 +26929,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>144</v>
       </c>
@@ -26967,7 +26988,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>145</v>
       </c>
@@ -27023,7 +27044,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>146</v>
       </c>
@@ -27082,7 +27103,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>147</v>
       </c>
@@ -27138,7 +27159,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>148</v>
       </c>
@@ -27197,7 +27218,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>149</v>
       </c>
@@ -27253,7 +27274,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>150</v>
       </c>
@@ -27309,7 +27330,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>151</v>
       </c>
@@ -27373,7 +27394,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>152</v>
       </c>
@@ -27434,7 +27455,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>153</v>
       </c>
@@ -27498,7 +27519,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>154</v>
       </c>
@@ -27562,7 +27583,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>155</v>
       </c>
@@ -27623,7 +27644,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>156</v>
       </c>
@@ -27687,7 +27708,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>157</v>
       </c>
@@ -27748,7 +27769,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>158</v>
       </c>
@@ -27812,7 +27833,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>159</v>
       </c>
@@ -27873,7 +27894,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>160</v>
       </c>
@@ -27932,7 +27953,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>161</v>
       </c>
@@ -27991,7 +28012,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>162</v>
       </c>
@@ -28050,7 +28071,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>163</v>
       </c>
@@ -28109,7 +28130,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>164</v>
       </c>
@@ -28168,7 +28189,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>165</v>
       </c>
@@ -28224,7 +28245,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>166</v>
       </c>
@@ -28285,7 +28306,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>167</v>
       </c>
@@ -28346,7 +28367,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>168</v>
       </c>
@@ -28404,7 +28425,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>169</v>
       </c>
@@ -28465,7 +28486,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>170</v>
       </c>
@@ -28523,7 +28544,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>171</v>
       </c>
@@ -28584,7 +28605,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>172</v>
       </c>
@@ -28645,7 +28666,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>173</v>
       </c>
@@ -28703,7 +28724,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>174</v>
       </c>
@@ -28762,7 +28783,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>175</v>
       </c>
@@ -28821,7 +28842,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>176</v>
       </c>
@@ -28877,7 +28898,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>177</v>
       </c>
@@ -28936,7 +28957,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>178</v>
       </c>
@@ -28992,7 +29013,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>179</v>
       </c>
@@ -29051,7 +29072,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>180</v>
       </c>
@@ -29107,7 +29128,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>181</v>
       </c>
@@ -29165,7 +29186,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>182</v>
       </c>
@@ -29226,7 +29247,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>183</v>
       </c>
@@ -29287,7 +29308,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>184</v>
       </c>
@@ -29343,7 +29364,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>185</v>
       </c>
@@ -29399,7 +29420,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>186</v>
       </c>
@@ -29455,7 +29476,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>187</v>
       </c>
@@ -29514,7 +29535,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>188</v>
       </c>
@@ -29573,7 +29594,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>189</v>
       </c>
@@ -29626,7 +29647,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>190</v>
       </c>
@@ -29678,7 +29699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>191</v>
       </c>
@@ -29730,7 +29751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>192</v>
       </c>
@@ -29779,7 +29800,7 @@
         <v>Galactasolder</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>193</v>
       </c>
@@ -29831,7 +29852,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>194</v>
       </c>
@@ -29880,7 +29901,7 @@
         <v>Cosmocrash</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>195</v>
       </c>
@@ -29932,7 +29953,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>196</v>
       </c>
@@ -29981,7 +30002,7 @@
         <v>Stellarock</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>197</v>
       </c>
@@ -30033,7 +30054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>198</v>
       </c>
@@ -30082,7 +30103,7 @@
         <v>Hast-E</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>199</v>
       </c>
@@ -30134,7 +30155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>200</v>
       </c>
@@ -30186,7 +30207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>201</v>
       </c>
@@ -30235,7 +30256,7 @@
         <v>Soldrota-E</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>202</v>
       </c>
@@ -30285,7 +30306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>203</v>
       </c>
@@ -30335,7 +30356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>204</v>
       </c>
@@ -30382,7 +30403,7 @@
         <v>Blastflames-E</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>205</v>
       </c>
@@ -30432,7 +30453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>206</v>
       </c>
@@ -30482,7 +30503,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>207</v>
       </c>
@@ -30529,7 +30550,7 @@
         <v>Blaster-E</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>208</v>
       </c>
@@ -30579,7 +30600,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>209</v>
       </c>
@@ -30629,7 +30650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>210</v>
       </c>
@@ -30679,7 +30700,7 @@
         <v>Gyarados-E</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>211</v>
       </c>
@@ -30726,7 +30747,7 @@
         <v>Shockfang</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>212</v>
       </c>
@@ -30776,7 +30797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>213</v>
       </c>
@@ -30823,7 +30844,7 @@
         <v>Nightrex</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>214</v>
       </c>
@@ -30873,7 +30894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>215</v>
       </c>
@@ -30920,7 +30941,7 @@
         <v>Durfish-S</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>216</v>
       </c>
@@ -30970,7 +30991,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>217</v>
       </c>
@@ -31016,7 +31037,7 @@
         <v>Wormite-S</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>218</v>
       </c>
@@ -31065,7 +31086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>219</v>
       </c>
@@ -31114,7 +31135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>220</v>
       </c>
@@ -31160,7 +31181,7 @@
         <v>Cluuz-S</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>221</v>
       </c>
@@ -31209,7 +31230,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>222</v>
       </c>
@@ -31258,7 +31279,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>223</v>
       </c>
@@ -31310,7 +31331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>224</v>
       </c>
@@ -31362,7 +31383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>225</v>
       </c>
@@ -31411,7 +31432,7 @@
         <v>Pyrator-S</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>226</v>
       </c>
@@ -31463,7 +31484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>227</v>
       </c>
@@ -31512,7 +31533,7 @@
         <v>Arbok-S</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>228</v>
       </c>
@@ -31559,7 +31580,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>229</v>
       </c>
@@ -31606,7 +31627,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>230</v>
       </c>
@@ -31653,7 +31674,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>231</v>
       </c>
@@ -31700,7 +31721,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>232</v>
       </c>
@@ -31747,7 +31768,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>233</v>
       </c>
@@ -31794,7 +31815,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>234</v>
       </c>
@@ -31841,7 +31862,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>235</v>
       </c>
@@ -31888,7 +31909,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>236</v>
       </c>
@@ -31935,7 +31956,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>237</v>
       </c>
@@ -31978,7 +31999,7 @@
         <v>Kissyfishy-D</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>238</v>
       </c>
@@ -32020,7 +32041,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>239</v>
       </c>
@@ -32062,7 +32083,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>240</v>
       </c>
@@ -32104,7 +32125,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>241</v>
       </c>
@@ -32137,7 +32158,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>242</v>
       </c>
@@ -32170,7 +32191,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>243</v>
       </c>
@@ -32203,7 +32224,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>244</v>
       </c>
@@ -32236,7 +32257,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>245</v>
       </c>
@@ -32269,7 +32290,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>246</v>
       </c>
@@ -32302,7 +32323,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>247</v>
       </c>
@@ -32335,7 +32356,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>248</v>
       </c>
@@ -32368,7 +32389,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>249</v>
       </c>
@@ -32401,7 +32422,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>250</v>
       </c>
@@ -32434,7 +32455,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>251</v>
       </c>
@@ -32467,7 +32488,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>252</v>
       </c>
@@ -32500,7 +32521,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>253</v>
       </c>
@@ -32533,7 +32554,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>254</v>
       </c>
@@ -32548,7 +32569,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>255</v>
       </c>
@@ -32563,7 +32584,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>256</v>
       </c>
@@ -32578,7 +32599,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>257</v>
       </c>
@@ -32611,7 +32632,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>258</v>
       </c>
@@ -32626,7 +32647,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>259</v>
       </c>
@@ -32659,7 +32680,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>260</v>
       </c>
@@ -32692,7 +32713,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>261</v>
       </c>
@@ -32707,7 +32728,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>262</v>
       </c>
@@ -32722,7 +32743,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>263</v>
       </c>
@@ -32734,7 +32755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>264</v>
       </c>
@@ -32746,7 +32767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>265</v>
       </c>
@@ -32779,7 +32800,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>266</v>
       </c>
@@ -32812,7 +32833,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>267</v>
       </c>
@@ -32824,7 +32845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>268</v>
       </c>
@@ -32836,7 +32857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>269</v>
       </c>
@@ -32869,7 +32890,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>270</v>
       </c>
@@ -32902,7 +32923,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>271</v>
       </c>
@@ -32935,7 +32956,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>272</v>
       </c>
@@ -32947,7 +32968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>273</v>
       </c>
@@ -32962,7 +32983,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>274</v>
       </c>
@@ -32974,7 +32995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>275</v>
       </c>
@@ -32986,7 +33007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>276</v>
       </c>
@@ -32998,7 +33019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>277</v>
       </c>
@@ -33013,7 +33034,127 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>278</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C423" s="1">
+        <f>SUM(D423:I423)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>279</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C424" s="1">
+        <f>SUM(D424:I424)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>280</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C425" s="1">
+        <f>SUM(D425:I425)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>281</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C426" s="1">
+        <f>SUM(D426:I426)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>282</v>
+      </c>
+      <c r="B427" t="s">
+        <v>430</v>
+      </c>
+      <c r="C427" s="1">
+        <f>SUM(D427:I427)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>283</v>
+      </c>
+      <c r="B428" t="s">
+        <v>43</v>
+      </c>
+      <c r="C428" s="1">
+        <f>SUM(D428:I428)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>284</v>
+      </c>
+      <c r="B429" t="s">
+        <v>100</v>
+      </c>
+      <c r="C429" s="1">
+        <f>SUM(D429:I429)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>285</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C430" s="1">
+        <f>SUM(D430:I430)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>286</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C431" s="1">
+        <f>SUM(D431:I431)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>287</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C432" s="1">
+        <f>SUM(D432:I432)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B620">
         <f>MAX(B385:B618)</f>
         <v>0</v>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38484908-279C-4B10-AB84-A70BBAC13C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663EEED9-B162-4BD0-BF85-C66499078E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-12915" windowWidth="16440" windowHeight="28440" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="1218">
   <si>
     <t>Leafer</t>
   </si>
@@ -3675,6 +3675,21 @@
   </si>
   <si>
     <t>Analytic</t>
+  </si>
+  <si>
+    <t>Bichirville</t>
+  </si>
+  <si>
+    <t>Flowerhorn Grove</t>
+  </si>
+  <si>
+    <t>Skipjack City</t>
+  </si>
+  <si>
+    <t>Sheephead Village</t>
+  </si>
+  <si>
+    <t>Arowana City</t>
   </si>
 </sst>
 </file>
@@ -3771,7 +3786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3902,12 +3917,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -3934,6 +3943,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4005,16 +4044,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -4615,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J430" sqref="J430"/>
+    <sheetView tabSelected="1" topLeftCell="O136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W167" sqref="W167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8278,28 +8317,28 @@
         <v>390</v>
       </c>
       <c r="M55" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="N55">
-        <v>66.7</v>
+        <v>74.5</v>
       </c>
       <c r="O55">
-        <v>63.8</v>
+        <v>93.5</v>
       </c>
       <c r="P55">
-        <v>70.7</v>
+        <v>67.3</v>
       </c>
       <c r="Q55">
-        <v>64.900000000000006</v>
+        <v>74.2</v>
       </c>
       <c r="R55">
-        <v>75.8</v>
+        <v>72</v>
       </c>
       <c r="S55">
-        <v>66.2</v>
+        <v>85.8</v>
       </c>
       <c r="T55">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X55" s="10" t="s">
         <v>231</v>
@@ -8366,28 +8405,28 @@
         <v>465</v>
       </c>
       <c r="M56" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N56">
-        <v>70.099999999999994</v>
+        <v>66.7</v>
       </c>
       <c r="O56">
-        <v>82.3</v>
+        <v>63.8</v>
       </c>
       <c r="P56">
-        <v>70.599999999999994</v>
+        <v>70.7</v>
       </c>
       <c r="Q56">
-        <v>72.2</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="R56">
-        <v>68.2</v>
+        <v>75.8</v>
       </c>
       <c r="S56">
-        <v>73.099999999999994</v>
+        <v>66.2</v>
       </c>
       <c r="T56">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X56" s="12" t="s">
         <v>178</v>
@@ -8545,28 +8584,28 @@
         <v>419</v>
       </c>
       <c r="M58" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="N58">
-        <v>63.8</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="O58">
-        <v>62.4</v>
+        <v>82.3</v>
       </c>
       <c r="P58">
-        <v>62.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="Q58">
-        <v>89</v>
+        <v>72.2</v>
       </c>
       <c r="R58">
-        <v>80.900000000000006</v>
+        <v>68.2</v>
       </c>
       <c r="S58">
-        <v>61.2</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="T58">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X58" s="10" t="s">
         <v>233</v>
@@ -8636,25 +8675,25 @@
         <v>208</v>
       </c>
       <c r="N59">
-        <v>62.4</v>
+        <v>65.2</v>
       </c>
       <c r="O59">
-        <v>55.1</v>
+        <v>61.5</v>
       </c>
       <c r="P59">
-        <v>57.3</v>
+        <v>60.7</v>
       </c>
       <c r="Q59">
-        <v>80.400000000000006</v>
+        <v>85.7</v>
       </c>
       <c r="R59">
-        <v>79.900000000000006</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="S59">
-        <v>69.7</v>
+        <v>73.7</v>
       </c>
       <c r="T59">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X59" s="10" t="s">
         <v>234</v>
@@ -8721,28 +8760,28 @@
         <v>500</v>
       </c>
       <c r="M60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N60">
-        <v>79.8</v>
+        <v>63.8</v>
       </c>
       <c r="O60">
-        <v>82.2</v>
+        <v>62.4</v>
       </c>
       <c r="P60">
-        <v>97</v>
+        <v>62.6</v>
       </c>
       <c r="Q60">
-        <v>65.2</v>
+        <v>89</v>
       </c>
       <c r="R60">
-        <v>76</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="S60">
-        <v>52.1</v>
+        <v>61.2</v>
       </c>
       <c r="T60">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X60" s="12" t="s">
         <v>235</v>
@@ -8812,25 +8851,25 @@
         <v>390</v>
       </c>
       <c r="M61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="N61">
-        <v>71.7</v>
+        <v>79.8</v>
       </c>
       <c r="O61">
-        <v>87.9</v>
+        <v>82.2</v>
       </c>
       <c r="P61">
-        <v>63.6</v>
+        <v>97</v>
       </c>
       <c r="Q61">
-        <v>67.3</v>
+        <v>65.2</v>
       </c>
       <c r="R61">
-        <v>71.2</v>
+        <v>76</v>
       </c>
       <c r="S61">
-        <v>82.3</v>
+        <v>52.1</v>
       </c>
       <c r="T61">
         <v>29</v>
@@ -8900,28 +8939,28 @@
         <v>486</v>
       </c>
       <c r="M62" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="N62">
-        <v>85.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="O62">
-        <v>80.7</v>
+        <v>76.5</v>
       </c>
       <c r="P62">
-        <v>76.5</v>
+        <v>70.7</v>
       </c>
       <c r="Q62">
-        <v>78.5</v>
+        <v>75.3</v>
       </c>
       <c r="R62">
-        <v>81.400000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="S62">
-        <v>70.400000000000006</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="T62">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X62" s="10" t="s">
         <v>238</v>
@@ -8991,25 +9030,25 @@
         <v>176</v>
       </c>
       <c r="N63">
-        <v>74.900000000000006</v>
+        <v>75.3</v>
       </c>
       <c r="O63">
-        <v>67.099999999999994</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="P63">
         <v>71.5</v>
       </c>
       <c r="Q63">
-        <v>87</v>
+        <v>88.7</v>
       </c>
       <c r="R63">
-        <v>74.2</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="S63">
-        <v>71.3</v>
+        <v>72.2</v>
       </c>
       <c r="T63">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X63" s="12" t="s">
         <v>239</v>
@@ -9076,28 +9115,28 @@
         <v>471</v>
       </c>
       <c r="M64" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="N64">
-        <v>60.1</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="O64">
-        <v>82.4</v>
+        <v>91.6</v>
       </c>
       <c r="P64">
-        <v>71</v>
+        <v>69.2</v>
       </c>
       <c r="Q64">
-        <v>55.8</v>
+        <v>86.6</v>
       </c>
       <c r="R64">
-        <v>62.3</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="S64">
-        <v>73.599999999999994</v>
+        <v>81.8</v>
       </c>
       <c r="T64">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X64" s="10" t="s">
         <v>240</v>
@@ -9164,28 +9203,28 @@
         <v>400</v>
       </c>
       <c r="M65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N65">
-        <v>67.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="O65">
-        <v>89.8</v>
+        <v>82</v>
       </c>
       <c r="P65">
-        <v>68.8</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="Q65">
-        <v>87.5</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="R65">
-        <v>80.2</v>
+        <v>80.8</v>
       </c>
       <c r="S65">
-        <v>81.2</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="T65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X65" t="s">
         <v>241</v>
@@ -9252,28 +9291,28 @@
         <v>495</v>
       </c>
       <c r="M66" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N66">
-        <v>61.3</v>
+        <v>61</v>
       </c>
       <c r="O66">
-        <v>79</v>
+        <v>83.7</v>
       </c>
       <c r="P66">
-        <v>86</v>
+        <v>71.2</v>
       </c>
       <c r="Q66">
-        <v>54.6</v>
+        <v>56.5</v>
       </c>
       <c r="R66">
-        <v>58</v>
+        <v>62.3</v>
       </c>
       <c r="S66">
-        <v>55.5</v>
+        <v>74.2</v>
       </c>
       <c r="T66">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X66" s="10" t="s">
         <v>242</v>
@@ -9340,28 +9379,28 @@
         <v>330</v>
       </c>
       <c r="M67" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N67">
-        <v>66.3</v>
+        <v>61.3</v>
       </c>
       <c r="O67">
-        <v>69.3</v>
+        <v>79</v>
       </c>
       <c r="P67">
-        <v>71.599999999999994</v>
+        <v>86</v>
       </c>
       <c r="Q67">
-        <v>72.2</v>
+        <v>54.6</v>
       </c>
       <c r="R67">
-        <v>76.5</v>
+        <v>58</v>
       </c>
       <c r="S67">
-        <v>62.9</v>
+        <v>55.5</v>
       </c>
       <c r="T67">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X67" s="10" t="s">
         <v>243</v>
@@ -9537,7 +9576,7 @@
         <v>83.9</v>
       </c>
       <c r="T69">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X69" s="10" t="s">
         <v>245</v>
@@ -9607,25 +9646,25 @@
         <v>200</v>
       </c>
       <c r="N70">
-        <v>66.2</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="O70">
-        <v>70.8</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="P70">
-        <v>70.8</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="Q70">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="R70">
-        <v>71.900000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="S70">
-        <v>70.2</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="T70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X70" t="s">
         <v>246</v>
@@ -9783,25 +9822,25 @@
         <v>206</v>
       </c>
       <c r="N72">
-        <v>71.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="O72">
-        <v>92.3</v>
+        <v>93.5</v>
       </c>
       <c r="P72">
-        <v>90.1</v>
+        <v>89.2</v>
       </c>
       <c r="Q72">
-        <v>68.8</v>
+        <v>69.2</v>
       </c>
       <c r="R72">
-        <v>76.400000000000006</v>
+        <v>75.7</v>
       </c>
       <c r="S72">
-        <v>72.8</v>
+        <v>73.7</v>
       </c>
       <c r="T72">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X72" s="10" t="s">
         <v>248</v>
@@ -9871,22 +9910,22 @@
         <v>184</v>
       </c>
       <c r="N73">
-        <v>74.7</v>
+        <v>75.5</v>
       </c>
       <c r="O73">
-        <v>85.6</v>
+        <v>88.7</v>
       </c>
       <c r="P73">
-        <v>72.099999999999994</v>
+        <v>72.3</v>
       </c>
       <c r="Q73">
-        <v>74</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="R73">
-        <v>83.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="S73">
-        <v>70.099999999999994</v>
+        <v>72.2</v>
       </c>
       <c r="T73">
         <v>19</v>
@@ -10048,31 +10087,31 @@
       </c>
       <c r="N75" s="45">
         <f>SUBTOTAL(101,Table1[HP])</f>
-        <v>70.50500000000001</v>
+        <v>71.09</v>
       </c>
       <c r="O75" s="46">
         <f>SUBTOTAL(101,Table1[Atk])</f>
-        <v>78.74499999999999</v>
+        <v>80.470000000000013</v>
       </c>
       <c r="P75" s="47">
         <f>SUBTOTAL(101,Table1[Def])</f>
-        <v>73.524999999999991</v>
+        <v>73.830000000000013</v>
       </c>
       <c r="Q75" s="48">
         <f>SUBTOTAL(101,Table1[SpA])</f>
-        <v>72.709999999999994</v>
+        <v>73.559999999999988</v>
       </c>
       <c r="R75" s="47">
         <f>SUBTOTAL(101,Table1[SpD])</f>
-        <v>74.680000000000021</v>
+        <v>74.335000000000008</v>
       </c>
       <c r="S75" s="49">
         <f>SUBTOTAL(101,Table1[Spe])</f>
-        <v>71.16</v>
+        <v>72.03</v>
       </c>
       <c r="T75" s="33">
         <f>SUBTOTAL(101,Table1[Amt])</f>
-        <v>25.7</v>
+        <v>26.3</v>
       </c>
       <c r="X75" s="10" t="s">
         <v>250</v>
@@ -14539,6 +14578,9 @@
       <c r="V144" t="s">
         <v>857</v>
       </c>
+      <c r="W144" t="s">
+        <v>808</v>
+      </c>
       <c r="X144" s="10" t="s">
         <v>318</v>
       </c>
@@ -14707,6 +14749,9 @@
       <c r="V146" t="s">
         <v>858</v>
       </c>
+      <c r="W146" t="s">
+        <v>1213</v>
+      </c>
       <c r="X146" t="s">
         <v>320</v>
       </c>
@@ -14900,6 +14945,9 @@
       <c r="V148" t="s">
         <v>858</v>
       </c>
+      <c r="W148" t="s">
+        <v>1214</v>
+      </c>
       <c r="X148" t="s">
         <v>322</v>
       </c>
@@ -15776,6 +15824,9 @@
       <c r="V157" t="s">
         <v>859</v>
       </c>
+      <c r="W157" t="s">
+        <v>1216</v>
+      </c>
       <c r="X157" s="10" t="s">
         <v>330</v>
       </c>
@@ -16459,6 +16510,9 @@
       <c r="V164" t="s">
         <v>859</v>
       </c>
+      <c r="W164" t="s">
+        <v>1217</v>
+      </c>
       <c r="X164" t="s">
         <v>336</v>
       </c>
@@ -17225,6 +17279,9 @@
       </c>
       <c r="U172" t="s">
         <v>835</v>
+      </c>
+      <c r="W172" t="s">
+        <v>1215</v>
       </c>
       <c r="X172" s="10" t="s">
         <v>194</v>
@@ -33262,7 +33319,25 @@
       </c>
       <c r="D399" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>290</v>
+      </c>
+      <c r="E399" s="2">
+        <v>45</v>
+      </c>
+      <c r="F399" s="3">
+        <v>20</v>
+      </c>
+      <c r="G399" s="4">
+        <v>45</v>
+      </c>
+      <c r="H399" s="5">
+        <v>105</v>
+      </c>
+      <c r="I399" s="4">
+        <v>55</v>
+      </c>
+      <c r="J399" s="6">
+        <v>20</v>
       </c>
       <c r="K399">
         <v>290</v>
@@ -33676,7 +33751,7 @@
       </c>
       <c r="D416" s="1">
         <f t="shared" si="21"/>
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E416" s="2">
         <v>60</v>
@@ -33688,7 +33763,7 @@
         <v>50</v>
       </c>
       <c r="H416" s="5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I416" s="4">
         <v>80</v>
@@ -33697,7 +33772,7 @@
         <v>70</v>
       </c>
       <c r="K416">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
@@ -33742,7 +33817,28 @@
       </c>
       <c r="D419" s="1">
         <f t="shared" ref="D419:D436" si="22">SUM(E419:J419)</f>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E419" s="2">
+        <v>57</v>
+      </c>
+      <c r="F419" s="3">
+        <v>24</v>
+      </c>
+      <c r="G419" s="4">
+        <v>86</v>
+      </c>
+      <c r="H419" s="5">
+        <v>24</v>
+      </c>
+      <c r="I419" s="4">
+        <v>86</v>
+      </c>
+      <c r="J419" s="6">
+        <v>23</v>
+      </c>
+      <c r="K419">
+        <v>300</v>
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.25">
@@ -33754,7 +33850,28 @@
       </c>
       <c r="D420" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E420" s="2">
+        <v>67</v>
+      </c>
+      <c r="F420" s="3">
+        <v>89</v>
+      </c>
+      <c r="G420" s="4">
+        <v>116</v>
+      </c>
+      <c r="H420" s="5">
+        <v>79</v>
+      </c>
+      <c r="I420" s="4">
+        <v>116</v>
+      </c>
+      <c r="J420" s="6">
+        <v>33</v>
+      </c>
+      <c r="K420">
+        <v>500</v>
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.25">
@@ -33771,6 +33888,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
+      <c r="K421">
+        <v>300</v>
+      </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422">
@@ -33785,6 +33905,9 @@
       <c r="D422" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
+      </c>
+      <c r="K422">
+        <v>500</v>
       </c>
       <c r="L422" t="s">
         <v>1191</v>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E10BE9-45C7-41FF-A8F2-CA4B2CBDC956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAFF5A8-04AE-4A0A-B79D-3A7EED447634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1219">
   <si>
     <t>Leafer</t>
   </si>
@@ -4084,122 +4084,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="9" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF595959"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF595959"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -4387,6 +4272,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="double">
           <color rgb="FF3F3F3F"/>
@@ -4413,7 +4301,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="A145:K436" totalsRowShown="0" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}" name="Table3" displayName="Table3" ref="A145:K436" totalsRowShown="0" tableBorderDxfId="11">
   <autoFilter ref="A145:K436" xr:uid="{12DD2A8C-1E55-4C6C-8CEC-614080B9B737}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A146:K436">
     <sortCondition ref="B145:B436"/>
@@ -4422,7 +4310,7 @@
     <tableColumn id="10" xr3:uid="{BCD684F9-91A2-458E-B61B-0E2FC6A62D0D}" name="Pkdx #"/>
     <tableColumn id="11" xr3:uid="{C8B5C43A-CE53-443E-8C1D-AC00B102DB7C}" name="ID"/>
     <tableColumn id="1" xr3:uid="{954E08A8-D138-4D6D-97C7-F47E4324725D}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{F9097124-9DD8-47D1-881E-F9976C72C702}" name="Total" dataDxfId="1" dataCellStyle="60% - Accent4">
+    <tableColumn id="2" xr3:uid="{F9097124-9DD8-47D1-881E-F9976C72C702}" name="Total" dataDxfId="10" dataCellStyle="60% - Accent4">
       <calculatedColumnFormula>SUM($E146:$J146)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{D7056670-07AC-4C55-9FE2-A9E5FE4DB2A1}" name="HP" dataCellStyle="20% - Accent6"/>
@@ -4445,13 +4333,13 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5ECD7C50-12C2-4722-BB43-4A5392C844D3}" name="Type" totalsRowLabel="TOTAL"/>
-    <tableColumn id="2" xr3:uid="{1FEEF44A-9297-470E-B8C5-DB2860F63B26}" name="HP" totalsRowFunction="average" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C4F64A03-884E-4ABF-863F-FB93EB9C48D7}" name="Atk" totalsRowFunction="average" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7D26ECE6-FEFB-43CC-9954-6A7B9A9B1FFF}" name="Def" totalsRowFunction="average" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{5E7CA636-F06B-46EF-9E88-779A1C949192}" name="SpA" totalsRowFunction="average" totalsRowDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{21E01ACA-9002-4C73-9BFF-AF400041F7E7}" name="SpD" totalsRowFunction="average" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{717E4770-D119-4D0A-BD0F-58E3D3ADFE4C}" name="Spe" totalsRowFunction="average" totalsRowDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{8B8669EB-BDCE-49F8-84EE-CA277552CD38}" name="Amt" totalsRowFunction="average" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1FEEF44A-9297-470E-B8C5-DB2860F63B26}" name="HP" totalsRowFunction="average" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C4F64A03-884E-4ABF-863F-FB93EB9C48D7}" name="Atk" totalsRowFunction="average" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7D26ECE6-FEFB-43CC-9954-6A7B9A9B1FFF}" name="Def" totalsRowFunction="average" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5E7CA636-F06B-46EF-9E88-779A1C949192}" name="SpA" totalsRowFunction="average" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{21E01ACA-9002-4C73-9BFF-AF400041F7E7}" name="SpD" totalsRowFunction="average" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{717E4770-D119-4D0A-BD0F-58E3D3ADFE4C}" name="Spe" totalsRowFunction="average" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8B8669EB-BDCE-49F8-84EE-CA277552CD38}" name="Amt" totalsRowFunction="average" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4467,8 +4355,8 @@
     <tableColumn id="5" xr3:uid="{D4240EEB-6B7E-4513-81CD-64F028AE015F}" name="Num"/>
     <tableColumn id="1" xr3:uid="{927F8053-02EB-4DE4-A9C2-E39369A9D18C}" name="Species"/>
     <tableColumn id="2" xr3:uid="{88EA7429-2A79-45C2-9DAD-432E911FB847}" name="Amount"/>
-    <tableColumn id="3" xr3:uid="{31049355-8917-406D-A961-EA9E609C094C}" name="Average" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{9EB8DBFF-5E4E-4D13-B06A-8EEDCAE0D250}" name="Total" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{31049355-8917-406D-A961-EA9E609C094C}" name="Average" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9EB8DBFF-5E4E-4D13-B06A-8EEDCAE0D250}" name="Total" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>AC30*AB30</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4486,7 +4374,7 @@
     <tableColumn id="1" xr3:uid="{71084C9A-5E75-4048-82AA-70A2D1CBD776}" name="Num"/>
     <tableColumn id="2" xr3:uid="{7A1103DC-DAF9-41EF-BBD3-0883ED909130}" name="Pokemon"/>
     <tableColumn id="3" xr3:uid="{A641B1E3-DC03-463F-B2D8-CE49F38612E2}" name="Amt"/>
-    <tableColumn id="4" xr3:uid="{8554C379-EE33-4C0B-B30E-A04B1C29BF4E}" name="%" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8554C379-EE33-4C0B-B30E-A04B1C29BF4E}" name="%" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4791,8 +4679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33:P41"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M387" sqref="M387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31587,33 +31475,35 @@
         <v>430</v>
       </c>
       <c r="E356" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F356" s="3">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="G356" s="4">
         <v>65</v>
       </c>
       <c r="H356" s="5">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="I356" s="4">
         <v>65</v>
       </c>
       <c r="J356" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K356">
         <v>430</v>
       </c>
       <c r="L356" s="9" t="s">
-        <v>658</v>
+        <v>609</v>
       </c>
       <c r="M356" t="s">
-        <v>623</v>
-      </c>
-      <c r="N356" s="20"/>
+        <v>659</v>
+      </c>
+      <c r="N356" s="20" t="s">
+        <v>1170</v>
+      </c>
       <c r="P356">
         <v>211</v>
       </c>
@@ -31637,33 +31527,35 @@
         <v>530</v>
       </c>
       <c r="E357" s="2">
+        <v>90</v>
+      </c>
+      <c r="F357" s="3">
         <v>75</v>
       </c>
-      <c r="F357" s="3">
-        <v>124</v>
-      </c>
       <c r="G357" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H357" s="5">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="I357" s="4">
         <v>70</v>
       </c>
       <c r="J357" s="6">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K357">
         <v>530</v>
       </c>
       <c r="L357" s="9" t="s">
-        <v>658</v>
+        <v>609</v>
       </c>
       <c r="M357" t="s">
-        <v>623</v>
-      </c>
-      <c r="N357" s="20"/>
+        <v>659</v>
+      </c>
+      <c r="N357" s="20" t="s">
+        <v>1170</v>
+      </c>
       <c r="P357">
         <v>212</v>
       </c>
@@ -31716,7 +31608,9 @@
       <c r="M358" t="s">
         <v>166</v>
       </c>
-      <c r="N358" s="20"/>
+      <c r="N358" s="20" t="s">
+        <v>1112</v>
+      </c>
       <c r="P358">
         <v>213</v>
       </c>
@@ -31766,7 +31660,9 @@
       <c r="M359" t="s">
         <v>166</v>
       </c>
-      <c r="N359" s="20"/>
+      <c r="N359" s="20" t="s">
+        <v>1112</v>
+      </c>
       <c r="P359">
         <v>214</v>
       </c>
@@ -33051,10 +32947,10 @@
       </c>
       <c r="D385" s="1">
         <f>SUM($E385:$J385)</f>
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="E385" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F385" s="3">
         <v>110</v>
@@ -33063,16 +32959,16 @@
         <v>120</v>
       </c>
       <c r="H385" s="5">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I385" s="4">
         <v>120</v>
       </c>
       <c r="J385" s="6">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K385">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="L385" t="s">
         <v>807</v>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAFF5A8-04AE-4A0A-B79D-3A7EED447634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D88D9-8236-409C-A7BA-4DF539D71E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="-16320" yWindow="-12915" windowWidth="16440" windowHeight="28440" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4679,8 +4679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M387" sqref="M387"/>
+    <sheetView tabSelected="1" topLeftCell="O110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U148" sqref="U148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14725,7 +14725,7 @@
         <v>389</v>
       </c>
       <c r="D146" s="1">
-        <f>SUM($E146:$J146)</f>
+        <f t="shared" ref="D146:D209" si="10">SUM($E146:$J146)</f>
         <v>335</v>
       </c>
       <c r="E146" s="2">
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="str">
-        <f t="shared" ref="Q146:Q209" si="10">C146</f>
+        <f t="shared" ref="Q146:Q209" si="11">C146</f>
         <v>Twigle</v>
       </c>
       <c r="R146">
@@ -14826,7 +14826,7 @@
         <v>390</v>
       </c>
       <c r="D147" s="1">
-        <f>SUM($E147:$J147)</f>
+        <f t="shared" si="10"/>
         <v>402</v>
       </c>
       <c r="E147" s="2">
@@ -14866,7 +14866,7 @@
         <v>2</v>
       </c>
       <c r="Q147" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Torgged</v>
       </c>
       <c r="R147">
@@ -14924,7 +14924,7 @@
         <v>391</v>
       </c>
       <c r="D148" s="1">
-        <f>SUM($E148:$J148)</f>
+        <f t="shared" si="10"/>
         <v>517</v>
       </c>
       <c r="E148" s="2">
@@ -14964,7 +14964,7 @@
         <v>3</v>
       </c>
       <c r="Q148" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Tortugis</v>
       </c>
       <c r="T148">
@@ -15022,7 +15022,7 @@
         <v>392</v>
       </c>
       <c r="D149" s="1">
-        <f>SUM($E149:$J149)</f>
+        <f t="shared" si="10"/>
         <v>329</v>
       </c>
       <c r="E149" s="2">
@@ -15062,7 +15062,7 @@
         <v>4</v>
       </c>
       <c r="Q149" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Lagma</v>
       </c>
       <c r="R149">
@@ -15120,7 +15120,7 @@
         <v>393</v>
       </c>
       <c r="D150" s="1">
-        <f>SUM($E150:$J150)</f>
+        <f t="shared" si="10"/>
         <v>399</v>
       </c>
       <c r="E150" s="2">
@@ -15160,7 +15160,7 @@
         <v>5</v>
       </c>
       <c r="Q150" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Maguide</v>
       </c>
       <c r="R150">
@@ -15218,7 +15218,7 @@
         <v>394</v>
       </c>
       <c r="D151" s="1">
-        <f>SUM($E151:$J151)</f>
+        <f t="shared" si="10"/>
         <v>521</v>
       </c>
       <c r="E151" s="2">
@@ -15258,7 +15258,7 @@
         <v>6</v>
       </c>
       <c r="Q151" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Magron</v>
       </c>
       <c r="T151">
@@ -15313,7 +15313,7 @@
         <v>395</v>
       </c>
       <c r="D152" s="1">
-        <f>SUM($E152:$J152)</f>
+        <f t="shared" si="10"/>
         <v>325</v>
       </c>
       <c r="E152" s="2">
@@ -15353,7 +15353,7 @@
         <v>7</v>
       </c>
       <c r="Q152" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Lizish</v>
       </c>
       <c r="R152">
@@ -15414,7 +15414,7 @@
         <v>396</v>
       </c>
       <c r="D153" s="1">
-        <f>SUM($E153:$J153)</f>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="E153" s="2">
@@ -15454,7 +15454,7 @@
         <v>8</v>
       </c>
       <c r="Q153" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Iguaton</v>
       </c>
       <c r="R153">
@@ -15512,7 +15512,7 @@
         <v>397</v>
       </c>
       <c r="D154" s="1">
-        <f>SUM($E154:$J154)</f>
+        <f t="shared" si="10"/>
         <v>530</v>
       </c>
       <c r="E154" s="2">
@@ -15552,7 +15552,7 @@
         <v>9</v>
       </c>
       <c r="Q154" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Dragave</v>
       </c>
       <c r="T154">
@@ -15607,7 +15607,7 @@
         <v>398</v>
       </c>
       <c r="D155" s="1">
-        <f>SUM($E155:$J155)</f>
+        <f t="shared" si="10"/>
         <v>295</v>
       </c>
       <c r="E155" s="2">
@@ -15647,7 +15647,7 @@
         <v>10</v>
       </c>
       <c r="Q155" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Hummingspark</v>
       </c>
       <c r="R155">
@@ -15705,7 +15705,7 @@
         <v>399</v>
       </c>
       <c r="D156" s="1">
-        <f>SUM($E156:$J156)</f>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="E156" s="2">
@@ -15745,7 +15745,7 @@
         <v>11</v>
       </c>
       <c r="Q156" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Flashclaw</v>
       </c>
       <c r="R156">
@@ -15803,7 +15803,7 @@
         <v>400</v>
       </c>
       <c r="D157" s="1">
-        <f>SUM($E157:$J157)</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="E157" s="2">
@@ -15843,7 +15843,7 @@
         <v>12</v>
       </c>
       <c r="Q157" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Magestiflash</v>
       </c>
       <c r="T157">
@@ -15901,7 +15901,7 @@
         <v>401</v>
       </c>
       <c r="D158" s="1">
-        <f>SUM($E158:$J158)</f>
+        <f t="shared" si="10"/>
         <v>276</v>
       </c>
       <c r="E158" s="2">
@@ -15941,7 +15941,7 @@
         <v>13</v>
       </c>
       <c r="Q158" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Pigo</v>
       </c>
       <c r="R158">
@@ -15972,7 +15972,7 @@
         <v>0.12</v>
       </c>
       <c r="AD158" s="37">
-        <f t="shared" ref="AD158:AD221" si="11">AC158*AB158</f>
+        <f t="shared" ref="AD158:AD221" si="12">AC158*AB158</f>
         <v>0.12</v>
       </c>
       <c r="AF158">
@@ -15999,7 +15999,7 @@
         <v>402</v>
       </c>
       <c r="D159" s="1">
-        <f>SUM($E159:$J159)</f>
+        <f t="shared" si="10"/>
         <v>401</v>
       </c>
       <c r="E159" s="2">
@@ -16039,7 +16039,7 @@
         <v>14</v>
       </c>
       <c r="Q159" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Pigonat</v>
       </c>
       <c r="R159">
@@ -16070,7 +16070,7 @@
         <v>0.11</v>
       </c>
       <c r="AD159" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11</v>
       </c>
       <c r="AF159">
@@ -16097,7 +16097,7 @@
         <v>403</v>
       </c>
       <c r="D160" s="1">
-        <f>SUM($E160:$J160)</f>
+        <f t="shared" si="10"/>
         <v>495</v>
       </c>
       <c r="E160" s="2">
@@ -16137,7 +16137,7 @@
         <v>15</v>
       </c>
       <c r="Q160" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Pigoga</v>
       </c>
       <c r="T160">
@@ -16165,7 +16165,7 @@
         <v>0.1</v>
       </c>
       <c r="AD160" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AF160">
@@ -16192,7 +16192,7 @@
         <v>15</v>
       </c>
       <c r="D161" s="1">
-        <f>SUM($E161:$J161)</f>
+        <f t="shared" si="10"/>
         <v>350</v>
       </c>
       <c r="E161" s="2">
@@ -16232,7 +16232,7 @@
         <v>16</v>
       </c>
       <c r="Q161" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Hammo</v>
       </c>
       <c r="R161" t="s">
@@ -16263,7 +16263,7 @@
         <v>0.1</v>
       </c>
       <c r="AD161" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AF161">
@@ -16290,7 +16290,7 @@
         <v>16</v>
       </c>
       <c r="D162" s="1">
-        <f>SUM($E162:$J162)</f>
+        <f t="shared" si="10"/>
         <v>490</v>
       </c>
       <c r="E162" s="2">
@@ -16330,7 +16330,7 @@
         <v>17</v>
       </c>
       <c r="Q162" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>HammyBoy</v>
       </c>
       <c r="R162" t="s">
@@ -16361,7 +16361,7 @@
         <v>0.1</v>
       </c>
       <c r="AD162" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AF162">
@@ -16388,7 +16388,7 @@
         <v>404</v>
       </c>
       <c r="D163" s="1">
-        <f>SUM($E163:$J163)</f>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="E163" s="2">
@@ -16428,7 +16428,7 @@
         <v>18</v>
       </c>
       <c r="Q163" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Hamthorno</v>
       </c>
       <c r="T163">
@@ -16459,7 +16459,7 @@
         <v>0.1</v>
       </c>
       <c r="AD163" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AF163">
@@ -16486,7 +16486,7 @@
         <v>405</v>
       </c>
       <c r="D164" s="1">
-        <f>SUM($E164:$J164)</f>
+        <f t="shared" si="10"/>
         <v>330</v>
       </c>
       <c r="E164" s="2">
@@ -16526,7 +16526,7 @@
         <v>19</v>
       </c>
       <c r="Q164" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sheabear</v>
       </c>
       <c r="R164">
@@ -16560,7 +16560,7 @@
         <v>0.1</v>
       </c>
       <c r="AD164" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="AF164">
@@ -16587,7 +16587,7 @@
         <v>406</v>
       </c>
       <c r="D165" s="1">
-        <f>SUM($E165:$J165)</f>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="E165" s="2">
@@ -16627,7 +16627,7 @@
         <v>20</v>
       </c>
       <c r="Q165" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Dualbear</v>
       </c>
       <c r="R165">
@@ -16658,7 +16658,7 @@
         <v>0.09</v>
       </c>
       <c r="AD165" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
       <c r="AF165">
@@ -16685,7 +16685,7 @@
         <v>407</v>
       </c>
       <c r="D166" s="1">
-        <f>SUM($E166:$J166)</f>
+        <f t="shared" si="10"/>
         <v>515</v>
       </c>
       <c r="E166" s="2">
@@ -16725,7 +16725,7 @@
         <v>21</v>
       </c>
       <c r="Q166" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Spacebear</v>
       </c>
       <c r="T166">
@@ -16753,7 +16753,7 @@
         <v>0.09</v>
       </c>
       <c r="AD166" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
       <c r="AF166">
@@ -16780,7 +16780,7 @@
         <v>408</v>
       </c>
       <c r="D167" s="1">
-        <f>SUM($E167:$J167)</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="E167" s="2">
@@ -16818,7 +16818,7 @@
         <v>22</v>
       </c>
       <c r="Q167" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Bealtle</v>
       </c>
       <c r="R167">
@@ -16849,7 +16849,7 @@
         <v>0.09</v>
       </c>
       <c r="AD167" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
       <c r="AF167">
@@ -16876,7 +16876,7 @@
         <v>409</v>
       </c>
       <c r="D168" s="1">
-        <f>SUM($E168:$J168)</f>
+        <f t="shared" si="10"/>
         <v>375</v>
       </c>
       <c r="E168" s="2">
@@ -16914,7 +16914,7 @@
         <v>23</v>
       </c>
       <c r="Q168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Centatle</v>
       </c>
       <c r="R168">
@@ -16945,7 +16945,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD168" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF168">
@@ -16972,7 +16972,7 @@
         <v>410</v>
       </c>
       <c r="D169" s="1">
-        <f>SUM($E169:$J169)</f>
+        <f t="shared" si="10"/>
         <v>505</v>
       </c>
       <c r="E169" s="2">
@@ -17012,7 +17012,7 @@
         <v>24</v>
       </c>
       <c r="Q169" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Curlatoral</v>
       </c>
       <c r="T169">
@@ -17040,7 +17040,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD169" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF169">
@@ -17067,7 +17067,7 @@
         <v>411</v>
       </c>
       <c r="D170" s="1">
-        <f>SUM($E170:$J170)</f>
+        <f t="shared" si="10"/>
         <v>505</v>
       </c>
       <c r="E170" s="2">
@@ -17107,7 +17107,7 @@
         <v>25</v>
       </c>
       <c r="Q170" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Millistone</v>
       </c>
       <c r="R170" t="s">
@@ -17138,7 +17138,7 @@
         <v>0.06</v>
       </c>
       <c r="AD170" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.06</v>
       </c>
       <c r="AF170">
@@ -17165,7 +17165,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="1">
-        <f>SUM($E171:$J171)</f>
+        <f t="shared" si="10"/>
         <v>375</v>
       </c>
       <c r="E171" s="2">
@@ -17203,7 +17203,7 @@
         <v>26</v>
       </c>
       <c r="Q171" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sapwin</v>
       </c>
       <c r="R171">
@@ -17234,7 +17234,7 @@
         <v>0.05</v>
       </c>
       <c r="AD171" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AF171">
@@ -17261,7 +17261,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="1">
-        <f>SUM($E172:$J172)</f>
+        <f t="shared" si="10"/>
         <v>475</v>
       </c>
       <c r="E172" s="2">
@@ -17299,7 +17299,7 @@
         <v>27</v>
       </c>
       <c r="Q172" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Treewin</v>
       </c>
       <c r="R172" t="s">
@@ -17330,7 +17330,7 @@
         <v>0.05</v>
       </c>
       <c r="AD172" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AF172">
@@ -17357,7 +17357,7 @@
         <v>412</v>
       </c>
       <c r="D173" s="1">
-        <f>SUM($E173:$J173)</f>
+        <f t="shared" si="10"/>
         <v>560</v>
       </c>
       <c r="E173" s="2">
@@ -17395,7 +17395,7 @@
         <v>28</v>
       </c>
       <c r="Q173" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Winagrow</v>
       </c>
       <c r="T173">
@@ -17420,7 +17420,7 @@
         <v>0.05</v>
       </c>
       <c r="AD173" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AF173">
@@ -17447,7 +17447,7 @@
         <v>413</v>
       </c>
       <c r="D174" s="1">
-        <f>SUM($E174:$J174)</f>
+        <f t="shared" si="10"/>
         <v>280</v>
       </c>
       <c r="E174" s="2">
@@ -17487,7 +17487,7 @@
         <v>29</v>
       </c>
       <c r="Q174" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Budew</v>
       </c>
       <c r="R174" t="s">
@@ -17515,7 +17515,7 @@
         <v>0.05</v>
       </c>
       <c r="AD174" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AF174">
@@ -17542,7 +17542,7 @@
         <v>414</v>
       </c>
       <c r="D175" s="1">
-        <f>SUM($E175:$J175)</f>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="E175" s="2">
@@ -17582,7 +17582,7 @@
         <v>30</v>
       </c>
       <c r="Q175" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Roselia</v>
       </c>
       <c r="R175" t="s">
@@ -17610,7 +17610,7 @@
         <v>0.05</v>
       </c>
       <c r="AD175" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AF175">
@@ -17637,7 +17637,7 @@
         <v>415</v>
       </c>
       <c r="D176" s="1">
-        <f>SUM($E176:$J176)</f>
+        <f t="shared" si="10"/>
         <v>515</v>
       </c>
       <c r="E176" s="2">
@@ -17677,7 +17677,7 @@
         <v>31</v>
       </c>
       <c r="Q176" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Roserade</v>
       </c>
       <c r="T176">
@@ -17702,7 +17702,7 @@
         <v>0.03</v>
       </c>
       <c r="AD176" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.03</v>
       </c>
       <c r="AF176">
@@ -17729,7 +17729,7 @@
         <v>416</v>
       </c>
       <c r="D177" s="1">
-        <f>SUM($E177:$J177)</f>
+        <f t="shared" si="10"/>
         <v>310</v>
       </c>
       <c r="E177" s="2">
@@ -17767,7 +17767,7 @@
         <v>32</v>
       </c>
       <c r="Q177" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Sewaddle</v>
       </c>
       <c r="R177">
@@ -17795,7 +17795,7 @@
         <v>0.02</v>
       </c>
       <c r="AD177" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
       <c r="AF177">
@@ -17822,7 +17822,7 @@
         <v>417</v>
       </c>
       <c r="D178" s="1">
-        <f>SUM($E178:$J178)</f>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="E178" s="2">
@@ -17860,7 +17860,7 @@
         <v>33</v>
       </c>
       <c r="Q178" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Swadloon</v>
       </c>
       <c r="R178" t="s">
@@ -17888,7 +17888,7 @@
         <v>0.02</v>
       </c>
       <c r="AD178" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
       <c r="AF178">
@@ -17915,7 +17915,7 @@
         <v>418</v>
       </c>
       <c r="D179" s="1">
-        <f>SUM($E179:$J179)</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="E179" s="2">
@@ -17953,7 +17953,7 @@
         <v>34</v>
       </c>
       <c r="Q179" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Leavanny</v>
       </c>
       <c r="T179">
@@ -17978,7 +17978,7 @@
         <v>0.02</v>
       </c>
       <c r="AD179" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
       <c r="AF179">
@@ -18005,7 +18005,7 @@
         <v>419</v>
       </c>
       <c r="D180" s="1">
-        <f>SUM($E180:$J180)</f>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="E180" s="2">
@@ -18043,7 +18043,7 @@
         <v>35</v>
       </c>
       <c r="Q180" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Grubbin</v>
       </c>
       <c r="R180">
@@ -18071,7 +18071,7 @@
         <v>0.02</v>
       </c>
       <c r="AD180" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
       <c r="AF180">
@@ -18098,7 +18098,7 @@
         <v>420</v>
       </c>
       <c r="D181" s="1">
-        <f>SUM($E181:$J181)</f>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="E181" s="2">
@@ -18136,7 +18136,7 @@
         <v>36</v>
       </c>
       <c r="Q181" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Charjabug</v>
       </c>
       <c r="R181" t="s">
@@ -18164,7 +18164,7 @@
         <v>0.01</v>
       </c>
       <c r="AD181" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
       <c r="AF181">
@@ -18191,7 +18191,7 @@
         <v>421</v>
       </c>
       <c r="D182" s="1">
-        <f>SUM($E182:$J182)</f>
+        <f t="shared" si="10"/>
         <v>512</v>
       </c>
       <c r="E182" s="2">
@@ -18229,7 +18229,7 @@
         <v>37</v>
       </c>
       <c r="Q182" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Vikavolt</v>
       </c>
       <c r="T182">
@@ -18254,7 +18254,7 @@
         <v>0.01</v>
       </c>
       <c r="AD182" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
       <c r="AF182">
@@ -18281,7 +18281,7 @@
         <v>422</v>
       </c>
       <c r="D183" s="1">
-        <f>SUM($E183:$J183)</f>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="E183" s="2">
@@ -18321,7 +18321,7 @@
         <v>38</v>
       </c>
       <c r="Q183" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Busheep</v>
       </c>
       <c r="T183">
@@ -18346,7 +18346,7 @@
         <v>0</v>
       </c>
       <c r="AD183" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF183">
@@ -18373,7 +18373,7 @@
         <v>423</v>
       </c>
       <c r="D184" s="1">
-        <f>SUM($E184:$J184)</f>
+        <f t="shared" si="10"/>
         <v>520</v>
       </c>
       <c r="E184" s="2">
@@ -18413,7 +18413,7 @@
         <v>39</v>
       </c>
       <c r="Q184" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Ramant</v>
       </c>
       <c r="R184" t="s">
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="AD184" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF184">
@@ -18471,7 +18471,7 @@
         <v>424</v>
       </c>
       <c r="D185" s="1">
-        <f>SUM($E185:$J185)</f>
+        <f t="shared" si="10"/>
         <v>520</v>
       </c>
       <c r="E185" s="2">
@@ -18511,7 +18511,7 @@
         <v>40</v>
       </c>
       <c r="Q185" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Bushewe</v>
       </c>
       <c r="R185" t="s">
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="AD185" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF185">
@@ -18566,7 +18566,7 @@
         <v>47</v>
       </c>
       <c r="D186" s="1">
-        <f>SUM($E186:$J186)</f>
+        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="E186" s="2">
@@ -18606,7 +18606,7 @@
         <v>41</v>
       </c>
       <c r="Q186" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Bugik</v>
       </c>
       <c r="R186">
@@ -18634,7 +18634,7 @@
         <v>0</v>
       </c>
       <c r="AD186" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF186">
@@ -18661,7 +18661,7 @@
         <v>48</v>
       </c>
       <c r="D187" s="1">
-        <f>SUM($E187:$J187)</f>
+        <f t="shared" si="10"/>
         <v>401</v>
       </c>
       <c r="E187" s="2">
@@ -18701,7 +18701,7 @@
         <v>42</v>
       </c>
       <c r="Q187" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Swordik</v>
       </c>
       <c r="R187">
@@ -18729,7 +18729,7 @@
         <v>0</v>
       </c>
       <c r="AD187" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF187">
@@ -18756,7 +18756,7 @@
         <v>49</v>
       </c>
       <c r="D188" s="1">
-        <f>SUM($E188:$J188)</f>
+        <f t="shared" si="10"/>
         <v>505</v>
       </c>
       <c r="E188" s="2">
@@ -18796,7 +18796,7 @@
         <v>43</v>
       </c>
       <c r="Q188" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Ninjakik</v>
       </c>
       <c r="T188">
@@ -18821,7 +18821,7 @@
         <v>0</v>
       </c>
       <c r="AD188" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF188">
@@ -18848,7 +18848,7 @@
         <v>577</v>
       </c>
       <c r="D189" s="1">
-        <f>SUM($E189:$J189)</f>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="E189" s="2">
@@ -18886,7 +18886,7 @@
         <v>44</v>
       </c>
       <c r="Q189" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Lotad</v>
       </c>
       <c r="R189">
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="AD189" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF189">
@@ -18941,7 +18941,7 @@
         <v>578</v>
       </c>
       <c r="D190" s="1">
-        <f>SUM($E190:$J190)</f>
+        <f t="shared" si="10"/>
         <v>340</v>
       </c>
       <c r="E190" s="2">
@@ -18979,7 +18979,7 @@
         <v>45</v>
       </c>
       <c r="Q190" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Lombre</v>
       </c>
       <c r="R190" t="s">
@@ -19007,7 +19007,7 @@
         <v>0</v>
       </c>
       <c r="AD190" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF190">
@@ -19034,7 +19034,7 @@
         <v>579</v>
       </c>
       <c r="D191" s="1">
-        <f>SUM($E191:$J191)</f>
+        <f t="shared" si="10"/>
         <v>480</v>
       </c>
       <c r="E191" s="2">
@@ -19072,7 +19072,7 @@
         <v>46</v>
       </c>
       <c r="Q191" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Ludicolo</v>
       </c>
       <c r="X191" s="12" t="s">
@@ -19091,7 +19091,7 @@
         <v>0</v>
       </c>
       <c r="AD191" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF191">
@@ -19118,7 +19118,7 @@
         <v>426</v>
       </c>
       <c r="D192" s="1">
-        <f>SUM($E192:$J192)</f>
+        <f t="shared" si="10"/>
         <v>455</v>
       </c>
       <c r="E192" s="2">
@@ -19158,7 +19158,7 @@
         <v>47</v>
       </c>
       <c r="Q192" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Bluebunn</v>
       </c>
       <c r="X192" s="10" t="s">
@@ -19177,7 +19177,7 @@
         <v>0</v>
       </c>
       <c r="AD192" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF192">
@@ -19204,7 +19204,7 @@
         <v>17</v>
       </c>
       <c r="D193" s="1">
-        <f>SUM($E193:$J193)</f>
+        <f t="shared" si="10"/>
         <v>325</v>
       </c>
       <c r="E193" s="2">
@@ -19244,7 +19244,7 @@
         <v>48</v>
       </c>
       <c r="Q193" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Rocky</v>
       </c>
       <c r="R193">
@@ -19266,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="AD193" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF193">
@@ -19293,7 +19293,7 @@
         <v>18</v>
       </c>
       <c r="D194" s="1">
-        <f>SUM($E194:$J194)</f>
+        <f t="shared" si="10"/>
         <v>425</v>
       </c>
       <c r="E194" s="2">
@@ -19333,7 +19333,7 @@
         <v>49</v>
       </c>
       <c r="Q194" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Boulder</v>
       </c>
       <c r="R194" t="s">
@@ -19361,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="AD194" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF194">
@@ -19388,7 +19388,7 @@
         <v>19</v>
       </c>
       <c r="D195" s="1">
-        <f>SUM($E195:$J195)</f>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="E195" s="2">
@@ -19428,7 +19428,7 @@
         <v>50</v>
       </c>
       <c r="Q195" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Blaster</v>
       </c>
       <c r="U195" t="s">
@@ -19453,7 +19453,7 @@
         <v>0</v>
       </c>
       <c r="AD195" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF195">
@@ -19480,7 +19480,7 @@
         <v>427</v>
       </c>
       <c r="D196" s="1">
-        <f>SUM($E196:$J196)</f>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="E196" s="2">
@@ -19520,7 +19520,7 @@
         <v>51</v>
       </c>
       <c r="Q196" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Crystallor</v>
       </c>
       <c r="R196" t="s">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="AD196" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF196">
@@ -19575,7 +19575,7 @@
         <v>428</v>
       </c>
       <c r="D197" s="1">
-        <f>SUM($E197:$J197)</f>
+        <f t="shared" si="10"/>
         <v>410</v>
       </c>
       <c r="E197" s="2">
@@ -19615,7 +19615,7 @@
         <v>52</v>
       </c>
       <c r="Q197" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Carinx</v>
       </c>
       <c r="R197">
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="AD197" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF197">
@@ -19670,7 +19670,7 @@
         <v>429</v>
       </c>
       <c r="D198" s="1">
-        <f>SUM($E198:$J198)</f>
+        <f t="shared" si="10"/>
         <v>465</v>
       </c>
       <c r="E198" s="2">
@@ -19710,7 +19710,7 @@
         <v>53</v>
       </c>
       <c r="Q198" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Carinator</v>
       </c>
       <c r="R198" t="s">
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="AD198" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF198">
@@ -19765,7 +19765,7 @@
         <v>430</v>
       </c>
       <c r="D199" s="1">
-        <f>SUM($E199:$J199)</f>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="E199" s="2">
@@ -19805,7 +19805,7 @@
         <v>54</v>
       </c>
       <c r="Q199" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Cairnasaur</v>
       </c>
       <c r="U199" t="s">
@@ -19830,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="AD199" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF199">
@@ -19857,7 +19857,7 @@
         <v>431</v>
       </c>
       <c r="D200" s="1">
-        <f>SUM($E200:$J200)</f>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="E200" s="2">
@@ -19897,7 +19897,7 @@
         <v>55</v>
       </c>
       <c r="Q200" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Pebblepup</v>
       </c>
       <c r="R200">
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="AD200" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF200">
@@ -19952,7 +19952,7 @@
         <v>432</v>
       </c>
       <c r="D201" s="1">
-        <f>SUM($E201:$J201)</f>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="E201" s="2">
@@ -19992,7 +19992,7 @@
         <v>56</v>
       </c>
       <c r="Q201" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Boulderoar</v>
       </c>
       <c r="U201" t="s">
@@ -20017,7 +20017,7 @@
         <v>0</v>
       </c>
       <c r="AD201" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF201">
@@ -20044,7 +20044,7 @@
         <v>433</v>
       </c>
       <c r="D202" s="1">
-        <f>SUM($E202:$J202)</f>
+        <f t="shared" si="10"/>
         <v>393</v>
       </c>
       <c r="E202" s="2">
@@ -20084,7 +20084,7 @@
         <v>57</v>
       </c>
       <c r="Q202" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Fightorex</v>
       </c>
       <c r="R202">
@@ -20109,7 +20109,7 @@
         <v>0</v>
       </c>
       <c r="AD202" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF202">
@@ -20136,7 +20136,7 @@
         <v>434</v>
       </c>
       <c r="D203" s="1">
-        <f>SUM($E203:$J203)</f>
+        <f t="shared" si="10"/>
         <v>523</v>
       </c>
       <c r="E203" s="2">
@@ -20176,7 +20176,7 @@
         <v>58</v>
       </c>
       <c r="Q203" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Raptorex</v>
       </c>
       <c r="U203" t="s">
@@ -20198,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="AD203" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF203">
@@ -20225,7 +20225,7 @@
         <v>435</v>
       </c>
       <c r="D204" s="1">
-        <f>SUM($E204:$J204)</f>
+        <f t="shared" si="10"/>
         <v>323</v>
       </c>
       <c r="E204" s="2">
@@ -20265,7 +20265,7 @@
         <v>59</v>
       </c>
       <c r="Q204" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Kleinowl</v>
       </c>
       <c r="R204" t="s">
@@ -20290,7 +20290,7 @@
         <v>0</v>
       </c>
       <c r="AD204" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF204">
@@ -20317,7 +20317,7 @@
         <v>436</v>
       </c>
       <c r="D205" s="1">
-        <f>SUM($E205:$J205)</f>
+        <f t="shared" si="10"/>
         <v>495</v>
       </c>
       <c r="E205" s="2">
@@ -20357,7 +20357,7 @@
         <v>60</v>
       </c>
       <c r="Q205" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Hootowl</v>
       </c>
       <c r="U205" s="10" t="s">
@@ -20379,7 +20379,7 @@
         <v>0</v>
       </c>
       <c r="AD205" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF205">
@@ -20406,7 +20406,7 @@
         <v>437</v>
       </c>
       <c r="D206" s="1">
-        <f>SUM($E206:$J206)</f>
+        <f t="shared" si="10"/>
         <v>435</v>
       </c>
       <c r="E206" s="2">
@@ -20446,7 +20446,7 @@
         <v>61</v>
       </c>
       <c r="Q206" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Dualmoose</v>
       </c>
       <c r="U206" s="10" t="s">
@@ -20468,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="AD206" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF206">
@@ -20495,7 +20495,7 @@
         <v>438</v>
       </c>
       <c r="D207" s="1">
-        <f>SUM($E207:$J207)</f>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
       <c r="E207" s="2">
@@ -20535,7 +20535,7 @@
         <v>62</v>
       </c>
       <c r="Q207" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Snom</v>
       </c>
       <c r="R207" t="s">
@@ -20560,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="AD207" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF207">
@@ -20587,7 +20587,7 @@
         <v>439</v>
       </c>
       <c r="D208" s="1">
-        <f>SUM($E208:$J208)</f>
+        <f t="shared" si="10"/>
         <v>475</v>
       </c>
       <c r="E208" s="2">
@@ -20627,7 +20627,7 @@
         <v>63</v>
       </c>
       <c r="Q208" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Frosmoth</v>
       </c>
       <c r="X208" t="s">
@@ -20646,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="AD208" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF208">
@@ -20673,7 +20673,7 @@
         <v>440</v>
       </c>
       <c r="D209" s="1">
-        <f>SUM($E209:$J209)</f>
+        <f t="shared" si="10"/>
         <v>395</v>
       </c>
       <c r="E209" s="2">
@@ -20711,7 +20711,7 @@
         <v>64</v>
       </c>
       <c r="Q209" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Grondor</v>
       </c>
       <c r="R209" t="s">
@@ -20733,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="AD209" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF209">
@@ -20760,7 +20760,7 @@
         <v>441</v>
       </c>
       <c r="D210" s="1">
-        <f>SUM($E210:$J210)</f>
+        <f t="shared" ref="D210:D273" si="13">SUM($E210:$J210)</f>
         <v>485</v>
       </c>
       <c r="E210" s="2">
@@ -20798,7 +20798,7 @@
         <v>65</v>
       </c>
       <c r="Q210" t="str">
-        <f t="shared" ref="Q210:Q273" si="12">C210</f>
+        <f t="shared" ref="Q210:Q273" si="14">C210</f>
         <v>Bipedice</v>
       </c>
       <c r="X210" s="10" t="s">
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="AD210" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF210">
@@ -20844,7 +20844,7 @@
         <v>442</v>
       </c>
       <c r="D211" s="1">
-        <f>SUM($E211:$J211)</f>
+        <f t="shared" si="13"/>
         <v>380</v>
       </c>
       <c r="E211" s="2">
@@ -20884,7 +20884,7 @@
         <v>66</v>
       </c>
       <c r="Q211" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Tricerpup</v>
       </c>
       <c r="R211">
@@ -20906,7 +20906,7 @@
         <v>0</v>
       </c>
       <c r="AD211" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF211">
@@ -20933,7 +20933,7 @@
         <v>443</v>
       </c>
       <c r="D212" s="1">
-        <f>SUM($E212:$J212)</f>
+        <f t="shared" si="13"/>
         <v>538</v>
       </c>
       <c r="E212" s="2">
@@ -20973,7 +20973,7 @@
         <v>67</v>
       </c>
       <c r="Q212" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Tricercil</v>
       </c>
       <c r="X212" t="s">
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="AD212" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF212">
@@ -21019,7 +21019,7 @@
         <v>444</v>
       </c>
       <c r="D213" s="1">
-        <f>SUM($E213:$J213)</f>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="E213" s="2">
@@ -21059,7 +21059,7 @@
         <v>68</v>
       </c>
       <c r="Q213" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Spheal</v>
       </c>
       <c r="R213">
@@ -21081,7 +21081,7 @@
         <v>0</v>
       </c>
       <c r="AD213" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF213">
@@ -21108,7 +21108,7 @@
         <v>445</v>
       </c>
       <c r="D214" s="1">
-        <f>SUM($E214:$J214)</f>
+        <f t="shared" si="13"/>
         <v>410</v>
       </c>
       <c r="E214" s="2">
@@ -21148,7 +21148,7 @@
         <v>69</v>
       </c>
       <c r="Q214" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Sealeo</v>
       </c>
       <c r="R214">
@@ -21170,7 +21170,7 @@
         <v>0</v>
       </c>
       <c r="AD214" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF214">
@@ -21197,7 +21197,7 @@
         <v>446</v>
       </c>
       <c r="D215" s="1">
-        <f>SUM($E215:$J215)</f>
+        <f t="shared" si="13"/>
         <v>530</v>
       </c>
       <c r="E215" s="2">
@@ -21237,7 +21237,7 @@
         <v>70</v>
       </c>
       <c r="Q215" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Walrein</v>
       </c>
       <c r="X215" s="10" t="s">
@@ -21256,7 +21256,7 @@
         <v>0</v>
       </c>
       <c r="AD215" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF215">
@@ -21283,7 +21283,7 @@
         <v>447</v>
       </c>
       <c r="D216" s="1">
-        <f>SUM($E216:$J216)</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="E216" s="2">
@@ -21323,7 +21323,7 @@
         <v>71</v>
       </c>
       <c r="Q216" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Froshrog</v>
       </c>
       <c r="R216">
@@ -21345,7 +21345,7 @@
         <v>0</v>
       </c>
       <c r="AD216" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF216">
@@ -21372,7 +21372,7 @@
         <v>448</v>
       </c>
       <c r="D217" s="1">
-        <f>SUM($E217:$J217)</f>
+        <f t="shared" si="13"/>
         <v>525</v>
       </c>
       <c r="E217" s="2">
@@ -21412,7 +21412,7 @@
         <v>72</v>
       </c>
       <c r="Q217" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Bouncerog</v>
       </c>
       <c r="X217" s="10" t="s">
@@ -21431,7 +21431,7 @@
         <v>0</v>
       </c>
       <c r="AD217" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF217">
@@ -21458,7 +21458,7 @@
         <v>449</v>
       </c>
       <c r="D218" s="1">
-        <f>SUM($E218:$J218)</f>
+        <f t="shared" si="13"/>
         <v>299</v>
       </c>
       <c r="E218" s="2">
@@ -21498,7 +21498,7 @@
         <v>73</v>
       </c>
       <c r="Q218" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Bugop</v>
       </c>
       <c r="R218">
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
       <c r="AD218" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF218">
@@ -21550,7 +21550,7 @@
         <v>450</v>
       </c>
       <c r="D219" s="1">
-        <f>SUM($E219:$J219)</f>
+        <f t="shared" si="13"/>
         <v>507</v>
       </c>
       <c r="E219" s="2">
@@ -21590,7 +21590,7 @@
         <v>74</v>
       </c>
       <c r="Q219" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Opwing</v>
       </c>
       <c r="X219" s="10" t="s">
@@ -21612,7 +21612,7 @@
         <v>0</v>
       </c>
       <c r="AD219" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF219">
@@ -21639,7 +21639,7 @@
         <v>451</v>
       </c>
       <c r="D220" s="1">
-        <f>SUM($E220:$J220)</f>
+        <f t="shared" si="13"/>
         <v>265</v>
       </c>
       <c r="E220" s="2">
@@ -21679,7 +21679,7 @@
         <v>75</v>
       </c>
       <c r="Q220" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Hatenna</v>
       </c>
       <c r="R220">
@@ -21701,7 +21701,7 @@
         <v>0</v>
       </c>
       <c r="AD220" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF220">
@@ -21728,7 +21728,7 @@
         <v>452</v>
       </c>
       <c r="D221" s="1">
-        <f>SUM($E221:$J221)</f>
+        <f t="shared" si="13"/>
         <v>370</v>
       </c>
       <c r="E221" s="2">
@@ -21768,7 +21768,7 @@
         <v>76</v>
       </c>
       <c r="Q221" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Hattrem</v>
       </c>
       <c r="R221">
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="AD221" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF221">
@@ -21817,7 +21817,7 @@
         <v>453</v>
       </c>
       <c r="D222" s="1">
-        <f>SUM($E222:$J222)</f>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="E222" s="2">
@@ -21857,7 +21857,7 @@
         <v>77</v>
       </c>
       <c r="Q222" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Hatterene</v>
       </c>
       <c r="X222" s="10" t="s">
@@ -21876,7 +21876,7 @@
         <v>0</v>
       </c>
       <c r="AD222" s="37">
-        <f t="shared" ref="AD222:AD269" si="13">AC222*AB222</f>
+        <f t="shared" ref="AD222:AD269" si="15">AC222*AB222</f>
         <v>0</v>
       </c>
       <c r="AF222">
@@ -21903,7 +21903,7 @@
         <v>454</v>
       </c>
       <c r="D223" s="1">
-        <f>SUM($E223:$J223)</f>
+        <f t="shared" si="13"/>
         <v>333</v>
       </c>
       <c r="E223" s="2">
@@ -21943,7 +21943,7 @@
         <v>78</v>
       </c>
       <c r="Q223" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Otterpor</v>
       </c>
       <c r="R223">
@@ -21968,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="AD223" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF223">
@@ -21995,7 +21995,7 @@
         <v>455</v>
       </c>
       <c r="D224" s="1">
-        <f>SUM($E224:$J224)</f>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="E224" s="2">
@@ -22035,7 +22035,7 @@
         <v>79</v>
       </c>
       <c r="Q224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Psylotter</v>
       </c>
       <c r="X224" t="s">
@@ -22054,7 +22054,7 @@
         <v>0</v>
       </c>
       <c r="AD224" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF224">
@@ -22081,7 +22081,7 @@
         <v>456</v>
       </c>
       <c r="D225" s="1">
-        <f>SUM($E225:$J225)</f>
+        <f t="shared" si="13"/>
         <v>340</v>
       </c>
       <c r="E225" s="2">
@@ -22121,7 +22121,7 @@
         <v>80</v>
       </c>
       <c r="Q225" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Florline</v>
       </c>
       <c r="R225">
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="AD225" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF225">
@@ -22170,7 +22170,7 @@
         <v>457</v>
       </c>
       <c r="D226" s="1">
-        <f>SUM($E226:$J226)</f>
+        <f t="shared" si="13"/>
         <v>519</v>
       </c>
       <c r="E226" s="2">
@@ -22210,7 +22210,7 @@
         <v>81</v>
       </c>
       <c r="Q226" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Florlion</v>
       </c>
       <c r="X226" s="10" t="s">
@@ -22229,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="AD226" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF226">
@@ -22256,7 +22256,7 @@
         <v>458</v>
       </c>
       <c r="D227" s="1">
-        <f>SUM($E227:$J227)</f>
+        <f t="shared" si="13"/>
         <v>250</v>
       </c>
       <c r="E227" s="2">
@@ -22296,7 +22296,7 @@
         <v>82</v>
       </c>
       <c r="Q227" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Psycorb</v>
       </c>
       <c r="R227">
@@ -22315,7 +22315,7 @@
         <v>0</v>
       </c>
       <c r="AD227" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF227">
@@ -22342,7 +22342,7 @@
         <v>459</v>
       </c>
       <c r="D228" s="1">
-        <f>SUM($E228:$J228)</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="E228" s="2">
@@ -22382,7 +22382,7 @@
         <v>83</v>
       </c>
       <c r="Q228" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Psyballs</v>
       </c>
       <c r="R228">
@@ -22404,7 +22404,7 @@
         <v>0</v>
       </c>
       <c r="AD228" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF228">
@@ -22431,7 +22431,7 @@
         <v>460</v>
       </c>
       <c r="D229" s="1">
-        <f>SUM($E229:$J229)</f>
+        <f t="shared" si="13"/>
         <v>550</v>
       </c>
       <c r="E229" s="2">
@@ -22471,7 +22471,7 @@
         <v>84</v>
       </c>
       <c r="Q229" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Psycorbrator</v>
       </c>
       <c r="T229">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="AD229" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF229">
@@ -22532,7 +22532,7 @@
         <v>461</v>
       </c>
       <c r="D230" s="1">
-        <f>SUM($E230:$J230)</f>
+        <f t="shared" si="13"/>
         <v>198</v>
       </c>
       <c r="E230" s="2">
@@ -22572,7 +22572,7 @@
         <v>85</v>
       </c>
       <c r="Q230" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Ralts</v>
       </c>
       <c r="R230">
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="AD230" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF230">
@@ -22630,7 +22630,7 @@
         <v>462</v>
       </c>
       <c r="D231" s="1">
-        <f>SUM($E231:$J231)</f>
+        <f t="shared" si="13"/>
         <v>278</v>
       </c>
       <c r="E231" s="2">
@@ -22670,7 +22670,7 @@
         <v>86</v>
       </c>
       <c r="Q231" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Kirlia</v>
       </c>
       <c r="R231">
@@ -22701,7 +22701,7 @@
         <v>0</v>
       </c>
       <c r="AD231" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF231">
@@ -22728,7 +22728,7 @@
         <v>463</v>
       </c>
       <c r="D232" s="1">
-        <f>SUM($E232:$J232)</f>
+        <f t="shared" si="13"/>
         <v>518</v>
       </c>
       <c r="E232" s="2">
@@ -22768,7 +22768,7 @@
         <v>87</v>
       </c>
       <c r="Q232" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Gardevoir</v>
       </c>
       <c r="T232">
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="AD232" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF232">
@@ -22823,7 +22823,7 @@
         <v>464</v>
       </c>
       <c r="D233" s="1">
-        <f>SUM($E233:$J233)</f>
+        <f t="shared" si="13"/>
         <v>518</v>
       </c>
       <c r="E233" s="2">
@@ -22863,7 +22863,7 @@
         <v>88</v>
       </c>
       <c r="Q233" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Gallade</v>
       </c>
       <c r="R233" t="s">
@@ -22894,7 +22894,7 @@
         <v>0</v>
       </c>
       <c r="AD233" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF233">
@@ -22921,7 +22921,7 @@
         <v>465</v>
       </c>
       <c r="D234" s="1">
-        <f>SUM($E234:$J234)</f>
+        <f t="shared" si="13"/>
         <v>455</v>
       </c>
       <c r="E234" s="2">
@@ -22961,7 +22961,7 @@
         <v>89</v>
       </c>
       <c r="Q234" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Tigrette</v>
       </c>
       <c r="T234">
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="AD234" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF234">
@@ -23016,7 +23016,7 @@
         <v>466</v>
       </c>
       <c r="D235" s="1">
-        <f>SUM($E235:$J235)</f>
+        <f t="shared" si="13"/>
         <v>288</v>
       </c>
       <c r="E235" s="2">
@@ -23056,7 +23056,7 @@
         <v>90</v>
       </c>
       <c r="Q235" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Inkay</v>
       </c>
       <c r="R235">
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="AD235" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF235">
@@ -23114,7 +23114,7 @@
         <v>467</v>
       </c>
       <c r="D236" s="1">
-        <f>SUM($E236:$J236)</f>
+        <f t="shared" si="13"/>
         <v>482</v>
       </c>
       <c r="E236" s="2">
@@ -23154,7 +23154,7 @@
         <v>91</v>
       </c>
       <c r="Q236" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Malamar</v>
       </c>
       <c r="T236">
@@ -23182,7 +23182,7 @@
         <v>0</v>
       </c>
       <c r="AD236" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF236">
@@ -23209,7 +23209,7 @@
         <v>468</v>
       </c>
       <c r="D237" s="1">
-        <f>SUM($E237:$J237)</f>
+        <f t="shared" si="13"/>
         <v>375</v>
       </c>
       <c r="E237" s="2">
@@ -23249,7 +23249,7 @@
         <v>92</v>
       </c>
       <c r="Q237" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Flameruff</v>
       </c>
       <c r="R237">
@@ -23280,7 +23280,7 @@
         <v>0</v>
       </c>
       <c r="AD237" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF237">
@@ -23307,7 +23307,7 @@
         <v>469</v>
       </c>
       <c r="D238" s="1">
-        <f>SUM($E238:$J238)</f>
+        <f t="shared" si="13"/>
         <v>495</v>
       </c>
       <c r="E238" s="2">
@@ -23347,7 +23347,7 @@
         <v>93</v>
       </c>
       <c r="Q238" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Barkflare</v>
       </c>
       <c r="T238">
@@ -23375,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="AD238" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF238">
@@ -23402,7 +23402,7 @@
         <v>470</v>
       </c>
       <c r="D239" s="1">
-        <f>SUM($E239:$J239)</f>
+        <f t="shared" si="13"/>
         <v>306</v>
       </c>
       <c r="E239" s="2">
@@ -23442,7 +23442,7 @@
         <v>94</v>
       </c>
       <c r="Q239" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Iglite</v>
       </c>
       <c r="R239">
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="AD239" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF239">
@@ -23500,7 +23500,7 @@
         <v>471</v>
       </c>
       <c r="D240" s="1">
-        <f>SUM($E240:$J240)</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="E240" s="2">
@@ -23540,7 +23540,7 @@
         <v>95</v>
       </c>
       <c r="Q240" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Blaxer</v>
       </c>
       <c r="R240">
@@ -23571,7 +23571,7 @@
         <v>0</v>
       </c>
       <c r="AD240" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF240">
@@ -23598,7 +23598,7 @@
         <v>472</v>
       </c>
       <c r="D241" s="1">
-        <f>SUM($E241:$J241)</f>
+        <f t="shared" si="13"/>
         <v>516</v>
       </c>
       <c r="E241" s="2">
@@ -23638,7 +23638,7 @@
         <v>96</v>
       </c>
       <c r="Q241" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Pyrator</v>
       </c>
       <c r="T241">
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="AD241" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF241">
@@ -23693,7 +23693,7 @@
         <v>473</v>
       </c>
       <c r="D242" s="1">
-        <f>SUM($E242:$J242)</f>
+        <f t="shared" si="13"/>
         <v>505</v>
       </c>
       <c r="E242" s="2">
@@ -23729,7 +23729,7 @@
         <v>97</v>
       </c>
       <c r="Q242" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Magmaclang</v>
       </c>
       <c r="R242" s="14"/>
@@ -23758,7 +23758,7 @@
         <v>0</v>
       </c>
       <c r="AD242" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF242">
@@ -23785,7 +23785,7 @@
         <v>474</v>
       </c>
       <c r="D243" s="1">
-        <f>SUM($E243:$J243)</f>
+        <f t="shared" si="13"/>
         <v>360</v>
       </c>
       <c r="E243" s="2">
@@ -23821,7 +23821,7 @@
         <v>98</v>
       </c>
       <c r="Q243" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Flamehox</v>
       </c>
       <c r="R243" s="14">
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="AD243" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF243">
@@ -23879,7 +23879,7 @@
         <v>75</v>
       </c>
       <c r="D244" s="1">
-        <f>SUM($E244:$J244)</f>
+        <f t="shared" si="13"/>
         <v>460</v>
       </c>
       <c r="E244" s="2">
@@ -23914,7 +23914,7 @@
         <v>99</v>
       </c>
       <c r="Q244" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Fireshard</v>
       </c>
       <c r="R244" s="14">
@@ -23945,7 +23945,7 @@
         <v>0</v>
       </c>
       <c r="AD244" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF244">
@@ -23972,7 +23972,7 @@
         <v>76</v>
       </c>
       <c r="D245" s="1">
-        <f>SUM($E245:$J245)</f>
+        <f t="shared" si="13"/>
         <v>560</v>
       </c>
       <c r="E245" s="2">
@@ -24007,7 +24007,7 @@
         <v>100</v>
       </c>
       <c r="Q245" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Blastflames</v>
       </c>
       <c r="T245">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="AD245" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF245">
@@ -24062,7 +24062,7 @@
         <v>475</v>
       </c>
       <c r="D246" s="1">
-        <f>SUM($E246:$J246)</f>
+        <f t="shared" si="13"/>
         <v>330</v>
       </c>
       <c r="E246" s="2">
@@ -24099,7 +24099,7 @@
         <v>101</v>
       </c>
       <c r="Q246" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Tiowoo</v>
       </c>
       <c r="R246">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="AD246" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF246">
@@ -24157,7 +24157,7 @@
         <v>476</v>
       </c>
       <c r="D247" s="1">
-        <f>SUM($E247:$J247)</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="E247" s="2">
@@ -24194,7 +24194,7 @@
         <v>102</v>
       </c>
       <c r="Q247" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Magwoo</v>
       </c>
       <c r="R247">
@@ -24225,7 +24225,7 @@
         <v>0</v>
       </c>
       <c r="AD247" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF247">
@@ -24252,7 +24252,7 @@
         <v>477</v>
       </c>
       <c r="D248" s="1">
-        <f>SUM($E248:$J248)</f>
+        <f t="shared" si="13"/>
         <v>525</v>
       </c>
       <c r="E248" s="2">
@@ -24289,7 +24289,7 @@
         <v>103</v>
       </c>
       <c r="Q248" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Lafloo</v>
       </c>
       <c r="T248">
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="AD248" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF248">
@@ -24344,7 +24344,7 @@
         <v>478</v>
       </c>
       <c r="D249" s="1">
-        <f>SUM($E249:$J249)</f>
+        <f t="shared" si="13"/>
         <v>330</v>
       </c>
       <c r="E249" s="2">
@@ -24384,7 +24384,7 @@
         <v>104</v>
       </c>
       <c r="Q249" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Houndour</v>
       </c>
       <c r="R249">
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="AD249" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF249">
@@ -24442,7 +24442,7 @@
         <v>479</v>
       </c>
       <c r="D250" s="1">
-        <f>SUM($E250:$J250)</f>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="E250" s="2">
@@ -24482,7 +24482,7 @@
         <v>105</v>
       </c>
       <c r="Q250" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Houndoom</v>
       </c>
       <c r="T250">
@@ -24510,7 +24510,7 @@
         <v>0</v>
       </c>
       <c r="AD250" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF250">
@@ -24537,7 +24537,7 @@
         <v>99</v>
       </c>
       <c r="D251" s="1">
-        <f>SUM($E251:$J251)</f>
+        <f t="shared" si="13"/>
         <v>335</v>
       </c>
       <c r="E251" s="2">
@@ -24577,7 +24577,7 @@
         <v>106</v>
       </c>
       <c r="Q251" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Sparkdust</v>
       </c>
       <c r="R251">
@@ -24605,7 +24605,7 @@
         <v>0</v>
       </c>
       <c r="AD251" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF251">
@@ -24632,7 +24632,7 @@
         <v>100</v>
       </c>
       <c r="D252" s="1">
-        <f>SUM($E252:$J252)</f>
+        <f t="shared" si="13"/>
         <v>505</v>
       </c>
       <c r="E252" s="2">
@@ -24672,7 +24672,7 @@
         <v>107</v>
       </c>
       <c r="Q252" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Splame</v>
       </c>
       <c r="T252">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="AD252" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF252">
@@ -24724,7 +24724,7 @@
         <v>480</v>
       </c>
       <c r="D253" s="1">
-        <f>SUM($E253:$J253)</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="E253" s="2">
@@ -24756,7 +24756,7 @@
         <v>108</v>
       </c>
       <c r="Q253" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Sparkitten</v>
       </c>
       <c r="T253">
@@ -24781,7 +24781,7 @@
         <v>0</v>
       </c>
       <c r="AD253" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF253">
@@ -24808,7 +24808,7 @@
         <v>481</v>
       </c>
       <c r="D254" s="1">
-        <f>SUM($E254:$J254)</f>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="E254" s="2">
@@ -24843,7 +24843,7 @@
         <v>109</v>
       </c>
       <c r="Q254" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Fireblion</v>
       </c>
       <c r="R254" t="s">
@@ -24871,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="AD254" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF254">
@@ -24898,7 +24898,7 @@
         <v>482</v>
       </c>
       <c r="D255" s="1">
-        <f>SUM($E255:$J255)</f>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="E255" s="2">
@@ -24933,7 +24933,7 @@
         <v>110</v>
       </c>
       <c r="Q255" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Flamebless</v>
       </c>
       <c r="R255" t="s">
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="AD255" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF255">
@@ -24991,7 +24991,7 @@
         <v>43</v>
       </c>
       <c r="D256" s="1">
-        <f>SUM($E256:$J256)</f>
+        <f t="shared" si="13"/>
         <v>360</v>
       </c>
       <c r="E256" s="2">
@@ -25031,7 +25031,7 @@
         <v>111</v>
       </c>
       <c r="Q256" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Shookwat</v>
       </c>
       <c r="R256">
@@ -25059,7 +25059,7 @@
         <v>0</v>
       </c>
       <c r="AD256" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF256">
@@ -25086,7 +25086,7 @@
         <v>44</v>
       </c>
       <c r="D257" s="1">
-        <f>SUM($E257:$J257)</f>
+        <f t="shared" si="13"/>
         <v>475</v>
       </c>
       <c r="E257" s="2">
@@ -25126,7 +25126,7 @@
         <v>112</v>
       </c>
       <c r="Q257" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Wattwo</v>
       </c>
       <c r="R257" t="s">
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="AD257" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF257">
@@ -25181,7 +25181,7 @@
         <v>483</v>
       </c>
       <c r="D258" s="1">
-        <f>SUM($E258:$J258)</f>
+        <f t="shared" si="13"/>
         <v>515</v>
       </c>
       <c r="E258" s="2">
@@ -25221,7 +25221,7 @@
         <v>113</v>
       </c>
       <c r="Q258" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Megawatt</v>
       </c>
       <c r="T258">
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="AD258" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF258">
@@ -25273,7 +25273,7 @@
         <v>484</v>
       </c>
       <c r="D259" s="1">
-        <f>SUM($E259:$J259)</f>
+        <f t="shared" si="13"/>
         <v>295</v>
       </c>
       <c r="E259" s="2">
@@ -25313,7 +25313,7 @@
         <v>114</v>
       </c>
       <c r="Q259" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Elelamb</v>
       </c>
       <c r="R259">
@@ -25341,7 +25341,7 @@
         <v>0</v>
       </c>
       <c r="AD259" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF259">
@@ -25368,7 +25368,7 @@
         <v>485</v>
       </c>
       <c r="D260" s="1">
-        <f>SUM($E260:$J260)</f>
+        <f t="shared" si="13"/>
         <v>355</v>
       </c>
       <c r="E260" s="2">
@@ -25408,7 +25408,7 @@
         <v>115</v>
       </c>
       <c r="Q260" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Electroram</v>
       </c>
       <c r="R260">
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="AD260" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF260">
@@ -25463,7 +25463,7 @@
         <v>486</v>
       </c>
       <c r="D261" s="1">
-        <f>SUM($E261:$J261)</f>
+        <f t="shared" si="13"/>
         <v>520</v>
       </c>
       <c r="E261" s="2">
@@ -25503,7 +25503,7 @@
         <v>116</v>
       </c>
       <c r="Q261" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Superchargo</v>
       </c>
       <c r="T261">
@@ -25528,7 +25528,7 @@
         <v>0</v>
       </c>
       <c r="AD261" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF261">
@@ -25555,7 +25555,7 @@
         <v>487</v>
       </c>
       <c r="D262" s="1">
-        <f>SUM($E262:$J262)</f>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="E262" s="2">
@@ -25595,7 +25595,7 @@
         <v>117</v>
       </c>
       <c r="Q262" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Twigzap</v>
       </c>
       <c r="R262">
@@ -25623,7 +25623,7 @@
         <v>0</v>
       </c>
       <c r="AD262" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF262">
@@ -25650,7 +25650,7 @@
         <v>488</v>
       </c>
       <c r="D263" s="1">
-        <f>SUM($E263:$J263)</f>
+        <f t="shared" si="13"/>
         <v>395</v>
       </c>
       <c r="E263" s="2">
@@ -25690,7 +25690,7 @@
         <v>118</v>
       </c>
       <c r="Q263" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Shockbranch</v>
       </c>
       <c r="R263" t="s">
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="AD263" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF263">
@@ -25745,7 +25745,7 @@
         <v>489</v>
       </c>
       <c r="D264" s="1">
-        <f>SUM($E264:$J264)</f>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="E264" s="2">
@@ -25782,7 +25782,7 @@
         <v>119</v>
       </c>
       <c r="Q264" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Thunderzap</v>
       </c>
       <c r="T264">
@@ -25813,7 +25813,7 @@
         <v>0</v>
       </c>
       <c r="AD264" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF264">
@@ -25840,7 +25840,7 @@
         <v>90</v>
       </c>
       <c r="D265" s="1">
-        <f>SUM($E265:$J265)</f>
+        <f t="shared" si="13"/>
         <v>316</v>
       </c>
       <c r="E265" s="2">
@@ -25875,7 +25875,7 @@
         <v>120</v>
       </c>
       <c r="Q265" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Magie</v>
       </c>
       <c r="R265">
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="AD265" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF265">
@@ -25936,7 +25936,7 @@
         <v>91</v>
       </c>
       <c r="D266" s="1">
-        <f>SUM($E266:$J266)</f>
+        <f t="shared" si="13"/>
         <v>490</v>
       </c>
       <c r="E266" s="2">
@@ -25971,7 +25971,7 @@
         <v>121</v>
       </c>
       <c r="Q266" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Cumin</v>
       </c>
       <c r="R266" t="s">
@@ -26005,7 +26005,7 @@
         <v>0</v>
       </c>
       <c r="AD266" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF266">
@@ -26032,7 +26032,7 @@
         <v>580</v>
       </c>
       <c r="D267" s="1">
-        <f>SUM($E267:$J267)</f>
+        <f t="shared" si="13"/>
         <v>530</v>
       </c>
       <c r="E267" s="2">
@@ -26067,7 +26067,7 @@
         <v>122</v>
       </c>
       <c r="Q267" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Cinneroph</v>
       </c>
       <c r="T267">
@@ -26098,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="AD267" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF267">
@@ -26125,7 +26125,7 @@
         <v>490</v>
       </c>
       <c r="D268" s="1">
-        <f>SUM($E268:$J268)</f>
+        <f t="shared" si="13"/>
         <v>235</v>
       </c>
       <c r="E268" s="2">
@@ -26160,7 +26160,7 @@
         <v>123</v>
       </c>
       <c r="Q268" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Vupp</v>
       </c>
       <c r="R268">
@@ -26191,7 +26191,7 @@
         <v>0</v>
       </c>
       <c r="AD268" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF268">
@@ -26218,7 +26218,7 @@
         <v>42</v>
       </c>
       <c r="D269" s="1">
-        <f>SUM($E269:$J269)</f>
+        <f t="shared" si="13"/>
         <v>490</v>
       </c>
       <c r="E269" s="2">
@@ -26253,7 +26253,7 @@
         <v>124</v>
       </c>
       <c r="Q269" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Vinnie</v>
       </c>
       <c r="R269" t="s">
@@ -26284,7 +26284,7 @@
         <v>0</v>
       </c>
       <c r="AD269" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF269">
@@ -26311,7 +26311,7 @@
         <v>491</v>
       </c>
       <c r="D270" s="1">
-        <f>SUM($E270:$J270)</f>
+        <f t="shared" si="13"/>
         <v>545</v>
       </c>
       <c r="E270" s="2">
@@ -26346,7 +26346,7 @@
         <v>125</v>
       </c>
       <c r="Q270" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Suvernero</v>
       </c>
       <c r="T270">
@@ -26388,7 +26388,7 @@
         <v>492</v>
       </c>
       <c r="D271" s="1">
-        <f>SUM($E271:$J271)</f>
+        <f t="shared" si="13"/>
         <v>245</v>
       </c>
       <c r="E271" s="2">
@@ -26423,7 +26423,7 @@
         <v>126</v>
       </c>
       <c r="Q271" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Whiskie</v>
       </c>
       <c r="R271">
@@ -26468,7 +26468,7 @@
         <v>493</v>
       </c>
       <c r="D272" s="1">
-        <f>SUM($E272:$J272)</f>
+        <f t="shared" si="13"/>
         <v>475</v>
       </c>
       <c r="E272" s="2">
@@ -26503,7 +26503,7 @@
         <v>127</v>
       </c>
       <c r="Q272" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Whiskers</v>
       </c>
       <c r="R272" t="s">
@@ -26524,7 +26524,7 @@
         <v>494</v>
       </c>
       <c r="D273" s="1">
-        <f>SUM($E273:$J273)</f>
+        <f t="shared" si="13"/>
         <v>540</v>
       </c>
       <c r="E273" s="2">
@@ -26559,7 +26559,7 @@
         <v>128</v>
       </c>
       <c r="Q273" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Whiskeroar</v>
       </c>
       <c r="T273">
@@ -26577,7 +26577,7 @@
         <v>583</v>
       </c>
       <c r="D274" s="1">
-        <f>SUM($E274:$J274)</f>
+        <f t="shared" ref="D274:D337" si="16">SUM($E274:$J274)</f>
         <v>266</v>
       </c>
       <c r="E274" s="2">
@@ -26612,7 +26612,7 @@
         <v>129</v>
       </c>
       <c r="Q274" t="str">
-        <f t="shared" ref="Q274:Q337" si="14">C274</f>
+        <f t="shared" ref="Q274:Q337" si="17">C274</f>
         <v>Nincada</v>
       </c>
       <c r="R274">
@@ -26633,7 +26633,7 @@
         <v>584</v>
       </c>
       <c r="D275" s="1">
-        <f>SUM($E275:$J275)</f>
+        <f t="shared" si="16"/>
         <v>456</v>
       </c>
       <c r="E275" s="2">
@@ -26668,7 +26668,7 @@
         <v>130</v>
       </c>
       <c r="Q275" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Ninjask</v>
       </c>
       <c r="T275">
@@ -26686,7 +26686,7 @@
         <v>582</v>
       </c>
       <c r="D276" s="1">
-        <f>SUM($E276:$J276)</f>
+        <f t="shared" si="16"/>
         <v>236</v>
       </c>
       <c r="E276" s="2">
@@ -26718,7 +26718,7 @@
         <v>131</v>
       </c>
       <c r="Q276" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Shedinja</v>
       </c>
       <c r="R276" t="s">
@@ -26748,7 +26748,7 @@
         <v>495</v>
       </c>
       <c r="D277" s="1">
-        <f>SUM($E277:$J277)</f>
+        <f t="shared" si="16"/>
         <v>280</v>
       </c>
       <c r="E277" s="2">
@@ -26783,7 +26783,7 @@
         <v>132</v>
       </c>
       <c r="Q277" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Sheltor</v>
       </c>
       <c r="R277" t="s">
@@ -26813,7 +26813,7 @@
         <v>496</v>
       </c>
       <c r="D278" s="1">
-        <f>SUM($E278:$J278)</f>
+        <f t="shared" si="16"/>
         <v>474</v>
       </c>
       <c r="E278" s="2">
@@ -26848,7 +26848,7 @@
         <v>133</v>
       </c>
       <c r="Q278" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Shelnado</v>
       </c>
       <c r="T278">
@@ -26875,7 +26875,7 @@
         <v>497</v>
       </c>
       <c r="D279" s="1">
-        <f>SUM($E279:$J279)</f>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="E279" s="2">
@@ -26910,7 +26910,7 @@
         <v>134</v>
       </c>
       <c r="Q279" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Lilyray</v>
       </c>
       <c r="R279" t="s">
@@ -26940,7 +26940,7 @@
         <v>62</v>
       </c>
       <c r="D280" s="1">
-        <f>SUM($E280:$J280)</f>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="E280" s="2">
@@ -26975,7 +26975,7 @@
         <v>135</v>
       </c>
       <c r="Q280" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Daray</v>
       </c>
       <c r="R280">
@@ -27002,7 +27002,7 @@
         <v>63</v>
       </c>
       <c r="D281" s="1">
-        <f>SUM($E281:$J281)</f>
+        <f t="shared" si="16"/>
         <v>495</v>
       </c>
       <c r="E281" s="2">
@@ -27037,7 +27037,7 @@
         <v>136</v>
       </c>
       <c r="Q281" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Spinaquata</v>
       </c>
       <c r="T281">
@@ -27064,7 +27064,7 @@
         <v>498</v>
       </c>
       <c r="D282" s="1">
-        <f>SUM($E282:$J282)</f>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="E282" s="2">
@@ -27099,7 +27099,7 @@
         <v>137</v>
       </c>
       <c r="Q282" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Magikarp</v>
       </c>
       <c r="R282">
@@ -27129,7 +27129,7 @@
         <v>499</v>
       </c>
       <c r="D283" s="1">
-        <f>SUM($E283:$J283)</f>
+        <f t="shared" si="16"/>
         <v>540</v>
       </c>
       <c r="E283" s="2">
@@ -27164,7 +27164,7 @@
         <v>138</v>
       </c>
       <c r="Q283" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Gyarados</v>
       </c>
       <c r="T283">
@@ -27191,7 +27191,7 @@
         <v>500</v>
       </c>
       <c r="D284" s="1">
-        <f>SUM($E284:$J284)</f>
+        <f t="shared" si="16"/>
         <v>340</v>
       </c>
       <c r="E284" s="2">
@@ -27228,7 +27228,7 @@
         <v>139</v>
       </c>
       <c r="Q284" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Staryu</v>
       </c>
       <c r="R284" t="s">
@@ -27255,7 +27255,7 @@
         <v>501</v>
       </c>
       <c r="D285" s="1">
-        <f>SUM($E285:$J285)</f>
+        <f t="shared" si="16"/>
         <v>520</v>
       </c>
       <c r="E285" s="2">
@@ -27292,7 +27292,7 @@
         <v>140</v>
       </c>
       <c r="Q285" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Starmie</v>
       </c>
       <c r="T285">
@@ -27316,7 +27316,7 @@
         <v>66</v>
       </c>
       <c r="D286" s="1">
-        <f>SUM($E286:$J286)</f>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
       <c r="E286" s="2">
@@ -27351,7 +27351,7 @@
         <v>141</v>
       </c>
       <c r="Q286" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Ali</v>
       </c>
       <c r="R286" t="s">
@@ -27378,7 +27378,7 @@
         <v>502</v>
       </c>
       <c r="D287" s="1">
-        <f>SUM($E287:$J287)</f>
+        <f t="shared" si="16"/>
         <v>540</v>
       </c>
       <c r="E287" s="2">
@@ -27413,7 +27413,7 @@
         <v>142</v>
       </c>
       <c r="Q287" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Batorali</v>
       </c>
       <c r="T287">
@@ -27437,7 +27437,7 @@
         <v>503</v>
       </c>
       <c r="D288" s="1">
-        <f>SUM($E288:$J288)</f>
+        <f t="shared" si="16"/>
         <v>295</v>
       </c>
       <c r="E288" s="2">
@@ -27472,7 +27472,7 @@
         <v>143</v>
       </c>
       <c r="Q288" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Posho</v>
       </c>
       <c r="R288" t="s">
@@ -27499,7 +27499,7 @@
         <v>67</v>
       </c>
       <c r="D289" s="1">
-        <f>SUM($E289:$J289)</f>
+        <f t="shared" si="16"/>
         <v>460</v>
       </c>
       <c r="E289" s="2">
@@ -27534,7 +27534,7 @@
         <v>144</v>
       </c>
       <c r="Q289" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Shomp</v>
       </c>
       <c r="R289" t="s">
@@ -27561,7 +27561,7 @@
         <v>504</v>
       </c>
       <c r="D290" s="1">
-        <f>SUM($E290:$J290)</f>
+        <f t="shared" si="16"/>
         <v>560</v>
       </c>
       <c r="E290" s="2">
@@ -27596,7 +27596,7 @@
         <v>145</v>
       </c>
       <c r="Q290" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Poshorump</v>
       </c>
       <c r="T290">
@@ -27620,7 +27620,7 @@
         <v>505</v>
       </c>
       <c r="D291" s="1">
-        <f>SUM($E291:$J291)</f>
+        <f t="shared" si="16"/>
         <v>306</v>
       </c>
       <c r="E291" s="2">
@@ -27655,7 +27655,7 @@
         <v>146</v>
       </c>
       <c r="Q291" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Binacle</v>
       </c>
       <c r="R291">
@@ -27682,7 +27682,7 @@
         <v>506</v>
       </c>
       <c r="D292" s="1">
-        <f>SUM($E292:$J292)</f>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="E292" s="2">
@@ -27717,7 +27717,7 @@
         <v>147</v>
       </c>
       <c r="Q292" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Barbaracle</v>
       </c>
       <c r="T292">
@@ -27741,7 +27741,7 @@
         <v>507</v>
       </c>
       <c r="D293" s="1">
-        <f>SUM($E293:$J293)</f>
+        <f t="shared" si="16"/>
         <v>345</v>
       </c>
       <c r="E293" s="2">
@@ -27776,7 +27776,7 @@
         <v>148</v>
       </c>
       <c r="Q293" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Durfish</v>
       </c>
       <c r="R293" t="s">
@@ -27803,7 +27803,7 @@
         <v>508</v>
       </c>
       <c r="D294" s="1">
-        <f>SUM($E294:$J294)</f>
+        <f t="shared" si="16"/>
         <v>485</v>
       </c>
       <c r="E294" s="2">
@@ -27838,7 +27838,7 @@
         <v>149</v>
       </c>
       <c r="Q294" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Dompster</v>
       </c>
       <c r="T294">
@@ -27862,7 +27862,7 @@
         <v>509</v>
       </c>
       <c r="D295" s="1">
-        <f>SUM($E295:$J295)</f>
+        <f t="shared" si="16"/>
         <v>350</v>
       </c>
       <c r="E295" s="2">
@@ -27897,7 +27897,7 @@
         <v>150</v>
       </c>
       <c r="Q295" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Kissyfishy</v>
       </c>
       <c r="T295">
@@ -27921,7 +27921,7 @@
         <v>510</v>
       </c>
       <c r="D296" s="1">
-        <f>SUM($E296:$J296)</f>
+        <f t="shared" si="16"/>
         <v>288</v>
       </c>
       <c r="E296" s="2">
@@ -27958,7 +27958,7 @@
         <v>151</v>
       </c>
       <c r="Q296" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Ekans</v>
       </c>
       <c r="R296">
@@ -27988,7 +27988,7 @@
         <v>511</v>
       </c>
       <c r="D297" s="1">
-        <f>SUM($E297:$J297)</f>
+        <f t="shared" si="16"/>
         <v>455</v>
       </c>
       <c r="E297" s="2">
@@ -28025,7 +28025,7 @@
         <v>152</v>
       </c>
       <c r="Q297" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Arbok</v>
       </c>
       <c r="T297">
@@ -28052,7 +28052,7 @@
         <v>512</v>
       </c>
       <c r="D298" s="1">
-        <f>SUM($E298:$J298)</f>
+        <f t="shared" si="16"/>
         <v>245</v>
       </c>
       <c r="E298" s="2">
@@ -28089,7 +28089,7 @@
         <v>153</v>
       </c>
       <c r="Q298" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Zubat</v>
       </c>
       <c r="R298">
@@ -28119,7 +28119,7 @@
         <v>513</v>
       </c>
       <c r="D299" s="1">
-        <f>SUM($E299:$J299)</f>
+        <f t="shared" si="16"/>
         <v>455</v>
       </c>
       <c r="E299" s="2">
@@ -28156,7 +28156,7 @@
         <v>154</v>
       </c>
       <c r="Q299" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Golbat</v>
       </c>
       <c r="R299" t="s">
@@ -28186,7 +28186,7 @@
         <v>514</v>
       </c>
       <c r="D300" s="1">
-        <f>SUM($E300:$J300)</f>
+        <f t="shared" si="16"/>
         <v>535</v>
       </c>
       <c r="E300" s="2">
@@ -28223,7 +28223,7 @@
         <v>155</v>
       </c>
       <c r="Q300" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Crobat</v>
       </c>
       <c r="T300">
@@ -28250,7 +28250,7 @@
         <v>37</v>
       </c>
       <c r="D301" s="1">
-        <f>SUM($E301:$J301)</f>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="E301" s="2">
@@ -28287,7 +28287,7 @@
         <v>156</v>
       </c>
       <c r="Q301" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Poof</v>
       </c>
       <c r="R301">
@@ -28317,7 +28317,7 @@
         <v>38</v>
       </c>
       <c r="D302" s="1">
-        <f>SUM($E302:$J302)</f>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="E302" s="2">
@@ -28354,7 +28354,7 @@
         <v>157</v>
       </c>
       <c r="Q302" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Hast</v>
       </c>
       <c r="T302">
@@ -28381,7 +28381,7 @@
         <v>39</v>
       </c>
       <c r="D303" s="1">
-        <f>SUM($E303:$J303)</f>
+        <f t="shared" si="16"/>
         <v>399</v>
       </c>
       <c r="E303" s="2">
@@ -28418,7 +28418,7 @@
         <v>158</v>
       </c>
       <c r="Q303" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Poov</v>
       </c>
       <c r="R303">
@@ -28448,7 +28448,7 @@
         <v>40</v>
       </c>
       <c r="D304" s="1">
-        <f>SUM($E304:$J304)</f>
+        <f t="shared" si="16"/>
         <v>499</v>
       </c>
       <c r="E304" s="2">
@@ -28485,7 +28485,7 @@
         <v>159</v>
       </c>
       <c r="Q304" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Grust</v>
       </c>
       <c r="T304">
@@ -28512,7 +28512,7 @@
         <v>36</v>
       </c>
       <c r="D305" s="1">
-        <f>SUM($E305:$J305)</f>
+        <f t="shared" si="16"/>
         <v>435</v>
       </c>
       <c r="E305" s="2">
@@ -28544,7 +28544,7 @@
         <v>160</v>
       </c>
       <c r="Q305" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Cluuz</v>
       </c>
       <c r="R305" t="s">
@@ -28574,7 +28574,7 @@
         <v>515</v>
       </c>
       <c r="D306" s="1">
-        <f>SUM($E306:$J306)</f>
+        <f t="shared" si="16"/>
         <v>480</v>
       </c>
       <c r="E306" s="2">
@@ -28606,7 +28606,7 @@
         <v>161</v>
       </c>
       <c r="Q306" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Zurrclu</v>
       </c>
       <c r="R306" t="s">
@@ -28636,7 +28636,7 @@
         <v>803</v>
       </c>
       <c r="D307" s="1">
-        <f>SUM($E307:$J307)</f>
+        <f t="shared" si="16"/>
         <v>540</v>
       </c>
       <c r="E307" s="2">
@@ -28668,7 +28668,7 @@
         <v>162</v>
       </c>
       <c r="Q307" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Zurroaratr</v>
       </c>
       <c r="T307">
@@ -28698,7 +28698,7 @@
         <v>516</v>
       </c>
       <c r="D308" s="1">
-        <f>SUM($E308:$J308)</f>
+        <f t="shared" si="16"/>
         <v>305</v>
       </c>
       <c r="E308" s="2">
@@ -28733,7 +28733,7 @@
         <v>163</v>
       </c>
       <c r="Q308" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Timburr</v>
       </c>
       <c r="R308">
@@ -28760,7 +28760,7 @@
         <v>517</v>
       </c>
       <c r="D309" s="1">
-        <f>SUM($E309:$J309)</f>
+        <f t="shared" si="16"/>
         <v>405</v>
       </c>
       <c r="E309" s="2">
@@ -28795,7 +28795,7 @@
         <v>164</v>
       </c>
       <c r="Q309" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Gurdurr</v>
       </c>
       <c r="R309" t="s">
@@ -28822,7 +28822,7 @@
         <v>518</v>
       </c>
       <c r="D310" s="1">
-        <f>SUM($E310:$J310)</f>
+        <f t="shared" si="16"/>
         <v>505</v>
       </c>
       <c r="E310" s="2">
@@ -28857,7 +28857,7 @@
         <v>165</v>
       </c>
       <c r="Q310" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Conkeldurr</v>
       </c>
       <c r="T310">
@@ -28881,7 +28881,7 @@
         <v>68</v>
       </c>
       <c r="D311" s="1">
-        <f>SUM($E311:$J311)</f>
+        <f t="shared" si="16"/>
         <v>316</v>
       </c>
       <c r="E311" s="2">
@@ -28918,7 +28918,7 @@
         <v>166</v>
       </c>
       <c r="Q311" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Rhypo</v>
       </c>
       <c r="R311">
@@ -28945,7 +28945,7 @@
         <v>69</v>
       </c>
       <c r="D312" s="1">
-        <f>SUM($E312:$J312)</f>
+        <f t="shared" si="16"/>
         <v>412</v>
       </c>
       <c r="E312" s="2">
@@ -28982,7 +28982,7 @@
         <v>167</v>
       </c>
       <c r="Q312" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Rhynee</v>
       </c>
       <c r="R312">
@@ -29009,7 +29009,7 @@
         <v>70</v>
       </c>
       <c r="D313" s="1">
-        <f>SUM($E313:$J313)</f>
+        <f t="shared" si="16"/>
         <v>510</v>
       </c>
       <c r="E313" s="2">
@@ -29046,7 +29046,7 @@
         <v>168</v>
       </c>
       <c r="Q313" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Rhypolar</v>
       </c>
       <c r="T313">
@@ -29070,7 +29070,7 @@
         <v>519</v>
       </c>
       <c r="D314" s="1">
-        <f>SUM($E314:$J314)</f>
+        <f t="shared" si="16"/>
         <v>333</v>
       </c>
       <c r="E314" s="2">
@@ -29107,7 +29107,7 @@
         <v>169</v>
       </c>
       <c r="Q314" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Diggie</v>
       </c>
       <c r="R314">
@@ -29134,7 +29134,7 @@
         <v>520</v>
       </c>
       <c r="D315" s="1">
-        <f>SUM($E315:$J315)</f>
+        <f t="shared" si="16"/>
         <v>503</v>
       </c>
       <c r="E315" s="2">
@@ -29171,7 +29171,7 @@
         <v>170</v>
       </c>
       <c r="Q315" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Drillatron</v>
       </c>
       <c r="T315">
@@ -29195,7 +29195,7 @@
         <v>521</v>
       </c>
       <c r="D316" s="1">
-        <f>SUM($E316:$J316)</f>
+        <f t="shared" si="16"/>
         <v>275</v>
       </c>
       <c r="E316" s="2">
@@ -29232,7 +29232,7 @@
         <v>171</v>
       </c>
       <c r="Q316" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Wormite</v>
       </c>
       <c r="R316">
@@ -29259,7 +29259,7 @@
         <v>522</v>
       </c>
       <c r="D317" s="1">
-        <f>SUM($E317:$J317)</f>
+        <f t="shared" si="16"/>
         <v>385</v>
       </c>
       <c r="E317" s="2">
@@ -29296,7 +29296,7 @@
         <v>172</v>
       </c>
       <c r="Q317" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Wormbot</v>
       </c>
       <c r="R317">
@@ -29323,7 +29323,7 @@
         <v>523</v>
       </c>
       <c r="D318" s="1">
-        <f>SUM($E318:$J318)</f>
+        <f t="shared" si="16"/>
         <v>520</v>
       </c>
       <c r="E318" s="2">
@@ -29360,7 +29360,7 @@
         <v>173</v>
       </c>
       <c r="Q318" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Wormatron</v>
       </c>
       <c r="T318">
@@ -29384,7 +29384,7 @@
         <v>572</v>
       </c>
       <c r="D319" s="1">
-        <f>SUM($E319:$J319)</f>
+        <f t="shared" si="16"/>
         <v>218</v>
       </c>
       <c r="E319" s="2">
@@ -29419,7 +29419,7 @@
         <v>174</v>
       </c>
       <c r="Q319" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Cleffa</v>
       </c>
       <c r="R319" t="s">
@@ -29446,7 +29446,7 @@
         <v>573</v>
       </c>
       <c r="D320" s="1">
-        <f>SUM($E320:$J320)</f>
+        <f t="shared" si="16"/>
         <v>323</v>
       </c>
       <c r="E320" s="2">
@@ -29481,7 +29481,7 @@
         <v>175</v>
       </c>
       <c r="Q320" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Clefairy</v>
       </c>
       <c r="R320" t="s">
@@ -29508,7 +29508,7 @@
         <v>574</v>
       </c>
       <c r="D321" s="1">
-        <f>SUM($E321:$J321)</f>
+        <f t="shared" si="16"/>
         <v>483</v>
       </c>
       <c r="E321" s="2">
@@ -29543,7 +29543,7 @@
         <v>176</v>
       </c>
       <c r="Q321" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Clefable</v>
       </c>
       <c r="T321">
@@ -29567,7 +29567,7 @@
         <v>524</v>
       </c>
       <c r="D322" s="1">
-        <f>SUM($E322:$J322)</f>
+        <f t="shared" si="16"/>
         <v>420</v>
       </c>
       <c r="E322" s="2">
@@ -29602,7 +29602,7 @@
         <v>177</v>
       </c>
       <c r="Q322" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Minishoo</v>
       </c>
       <c r="R322" t="s">
@@ -29629,7 +29629,7 @@
         <v>525</v>
       </c>
       <c r="D323" s="1">
-        <f>SUM($E323:$J323)</f>
+        <f t="shared" si="16"/>
         <v>520</v>
       </c>
       <c r="E323" s="2">
@@ -29664,7 +29664,7 @@
         <v>178</v>
       </c>
       <c r="Q323" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Glittleshoo</v>
       </c>
       <c r="T323">
@@ -29688,7 +29688,7 @@
         <v>526</v>
       </c>
       <c r="D324" s="1">
-        <f>SUM($E324:$J324)</f>
+        <f t="shared" si="16"/>
         <v>330</v>
       </c>
       <c r="E324" s="2">
@@ -29723,7 +29723,7 @@
         <v>179</v>
       </c>
       <c r="Q324" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Zorua</v>
       </c>
       <c r="R324">
@@ -29750,7 +29750,7 @@
         <v>527</v>
       </c>
       <c r="D325" s="1">
-        <f>SUM($E325:$J325)</f>
+        <f t="shared" si="16"/>
         <v>510</v>
       </c>
       <c r="E325" s="2">
@@ -29785,7 +29785,7 @@
         <v>180</v>
       </c>
       <c r="Q325" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Zoroark</v>
       </c>
       <c r="T325">
@@ -29809,7 +29809,7 @@
         <v>92</v>
       </c>
       <c r="D326" s="1">
-        <f>SUM($E326:$J326)</f>
+        <f t="shared" si="16"/>
         <v>330</v>
       </c>
       <c r="E326" s="2">
@@ -29846,7 +29846,7 @@
         <v>181</v>
       </c>
       <c r="Q326" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Droid</v>
       </c>
       <c r="R326">
@@ -29870,7 +29870,7 @@
         <v>93</v>
       </c>
       <c r="D327" s="1">
-        <f>SUM($E327:$J327)</f>
+        <f t="shared" si="16"/>
         <v>430</v>
       </c>
       <c r="E327" s="2">
@@ -29907,7 +29907,7 @@
         <v>182</v>
       </c>
       <c r="Q327" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Armoid</v>
       </c>
       <c r="R327">
@@ -29934,7 +29934,7 @@
         <v>94</v>
       </c>
       <c r="D328" s="1">
-        <f>SUM($E328:$J328)</f>
+        <f t="shared" si="16"/>
         <v>530</v>
       </c>
       <c r="E328" s="2">
@@ -29971,7 +29971,7 @@
         <v>183</v>
       </c>
       <c r="Q328" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Soldrota</v>
       </c>
       <c r="T328">
@@ -29998,7 +29998,7 @@
         <v>101</v>
       </c>
       <c r="D329" s="1">
-        <f>SUM($E329:$J329)</f>
+        <f t="shared" si="16"/>
         <v>390</v>
       </c>
       <c r="E329" s="2">
@@ -30030,7 +30030,7 @@
         <v>184</v>
       </c>
       <c r="Q329" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Tinkie</v>
       </c>
       <c r="R329">
@@ -30057,7 +30057,7 @@
         <v>102</v>
       </c>
       <c r="D330" s="1">
-        <f>SUM($E330:$J330)</f>
+        <f t="shared" si="16"/>
         <v>455</v>
       </c>
       <c r="E330" s="2">
@@ -30089,7 +30089,7 @@
         <v>185</v>
       </c>
       <c r="Q330" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Shawar</v>
       </c>
       <c r="R330">
@@ -30116,7 +30116,7 @@
         <v>103</v>
       </c>
       <c r="D331" s="1">
-        <f>SUM($E331:$J331)</f>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="E331" s="2">
@@ -30148,7 +30148,7 @@
         <v>186</v>
       </c>
       <c r="Q331" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Shaboom</v>
       </c>
       <c r="T331">
@@ -30175,7 +30175,7 @@
         <v>95</v>
       </c>
       <c r="D332" s="1">
-        <f>SUM($E332:$J332)</f>
+        <f t="shared" si="16"/>
         <v>350</v>
       </c>
       <c r="E332" s="2">
@@ -30207,7 +30207,7 @@
         <v>187</v>
       </c>
       <c r="Q332" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Dragee</v>
       </c>
       <c r="R332">
@@ -30237,7 +30237,7 @@
         <v>96</v>
       </c>
       <c r="D333" s="1">
-        <f>SUM($E333:$J333)</f>
+        <f t="shared" si="16"/>
         <v>465</v>
       </c>
       <c r="E333" s="2">
@@ -30269,7 +30269,7 @@
         <v>188</v>
       </c>
       <c r="Q333" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Draga</v>
       </c>
       <c r="R333">
@@ -30299,7 +30299,7 @@
         <v>97</v>
       </c>
       <c r="D334" s="1">
-        <f>SUM($E334:$J334)</f>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="E334" s="2">
@@ -30331,7 +30331,7 @@
         <v>189</v>
       </c>
       <c r="Q334" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Drageye</v>
       </c>
       <c r="T334">
@@ -30355,7 +30355,7 @@
         <v>528</v>
       </c>
       <c r="D335" s="1">
-        <f>SUM($E335:$J335)</f>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="E335" s="2">
@@ -30392,7 +30392,7 @@
         <v>190</v>
       </c>
       <c r="Q335" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Blobmo</v>
       </c>
       <c r="R335">
@@ -30410,7 +30410,7 @@
         <v>529</v>
       </c>
       <c r="D336" s="1">
-        <f>SUM($E336:$J336)</f>
+        <f t="shared" si="16"/>
         <v>420</v>
       </c>
       <c r="E336" s="2">
@@ -30447,7 +30447,7 @@
         <v>191</v>
       </c>
       <c r="Q336" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Nebulimb</v>
       </c>
       <c r="R336">
@@ -30465,7 +30465,7 @@
         <v>801</v>
       </c>
       <c r="D337" s="1">
-        <f>SUM($E337:$J337)</f>
+        <f t="shared" si="16"/>
         <v>585</v>
       </c>
       <c r="E337" s="2">
@@ -30502,7 +30502,7 @@
         <v>192</v>
       </c>
       <c r="Q337" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Galactasolder</v>
       </c>
     </row>
@@ -30517,7 +30517,7 @@
         <v>530</v>
       </c>
       <c r="D338" s="1">
-        <f>SUM($E338:$J338)</f>
+        <f t="shared" ref="D338:D401" si="18">SUM($E338:$J338)</f>
         <v>415</v>
       </c>
       <c r="E338" s="2">
@@ -30554,7 +30554,7 @@
         <v>193</v>
       </c>
       <c r="Q338" t="str">
-        <f t="shared" ref="Q338:Q382" si="15">C338</f>
+        <f t="shared" ref="Q338:Q382" si="19">C338</f>
         <v>Consodust</v>
       </c>
       <c r="R338" t="s">
@@ -30572,7 +30572,7 @@
         <v>531</v>
       </c>
       <c r="D339" s="1">
-        <f>SUM($E339:$J339)</f>
+        <f t="shared" si="18"/>
         <v>525</v>
       </c>
       <c r="E339" s="2">
@@ -30609,7 +30609,7 @@
         <v>194</v>
       </c>
       <c r="Q339" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Cosmocrash</v>
       </c>
     </row>
@@ -30624,7 +30624,7 @@
         <v>532</v>
       </c>
       <c r="D340" s="1">
-        <f>SUM($E340:$J340)</f>
+        <f t="shared" si="18"/>
         <v>450</v>
       </c>
       <c r="E340" s="2">
@@ -30661,7 +30661,7 @@
         <v>195</v>
       </c>
       <c r="Q340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Rockmite</v>
       </c>
       <c r="R340" t="s">
@@ -30679,7 +30679,7 @@
         <v>533</v>
       </c>
       <c r="D341" s="1">
-        <f>SUM($E341:$J341)</f>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="E341" s="2">
@@ -30716,7 +30716,7 @@
         <v>196</v>
       </c>
       <c r="Q341" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Stellarock</v>
       </c>
     </row>
@@ -30731,7 +30731,7 @@
         <v>534</v>
       </c>
       <c r="D342" s="1">
-        <f>SUM($E342:$J342)</f>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="E342" s="2">
@@ -30768,7 +30768,7 @@
         <v>197</v>
       </c>
       <c r="Q342" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Poof-E</v>
       </c>
       <c r="R342">
@@ -30786,7 +30786,7 @@
         <v>535</v>
       </c>
       <c r="D343" s="1">
-        <f>SUM($E343:$J343)</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="E343" s="2">
@@ -30823,7 +30823,7 @@
         <v>198</v>
       </c>
       <c r="Q343" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Hast-E</v>
       </c>
     </row>
@@ -30838,7 +30838,7 @@
         <v>536</v>
       </c>
       <c r="D344" s="1">
-        <f>SUM($E344:$J344)</f>
+        <f t="shared" si="18"/>
         <v>330</v>
       </c>
       <c r="E344" s="2">
@@ -30875,7 +30875,7 @@
         <v>199</v>
       </c>
       <c r="Q344" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Droid-E</v>
       </c>
       <c r="R344">
@@ -30893,7 +30893,7 @@
         <v>537</v>
       </c>
       <c r="D345" s="1">
-        <f>SUM($E345:$J345)</f>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="E345" s="2">
@@ -30930,7 +30930,7 @@
         <v>200</v>
       </c>
       <c r="Q345" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Armoid-E</v>
       </c>
       <c r="R345">
@@ -30948,7 +30948,7 @@
         <v>538</v>
       </c>
       <c r="D346" s="1">
-        <f>SUM($E346:$J346)</f>
+        <f t="shared" si="18"/>
         <v>530</v>
       </c>
       <c r="E346" s="2">
@@ -30985,7 +30985,7 @@
         <v>201</v>
       </c>
       <c r="Q346" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Soldrota-E</v>
       </c>
     </row>
@@ -31000,7 +31000,7 @@
         <v>539</v>
       </c>
       <c r="D347" s="1">
-        <f>SUM($E347:$J347)</f>
+        <f t="shared" si="18"/>
         <v>360</v>
       </c>
       <c r="E347" s="2">
@@ -31035,7 +31035,7 @@
         <v>202</v>
       </c>
       <c r="Q347" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Flamehox-E</v>
       </c>
       <c r="R347">
@@ -31053,7 +31053,7 @@
         <v>540</v>
       </c>
       <c r="D348" s="1">
-        <f>SUM($E348:$J348)</f>
+        <f t="shared" si="18"/>
         <v>460</v>
       </c>
       <c r="E348" s="2">
@@ -31088,7 +31088,7 @@
         <v>203</v>
       </c>
       <c r="Q348" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Fireshard-E</v>
       </c>
       <c r="R348">
@@ -31106,7 +31106,7 @@
         <v>541</v>
       </c>
       <c r="D349" s="1">
-        <f>SUM($E349:$J349)</f>
+        <f t="shared" si="18"/>
         <v>560</v>
       </c>
       <c r="E349" s="2">
@@ -31141,7 +31141,7 @@
         <v>204</v>
       </c>
       <c r="Q349" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Blastflames-E</v>
       </c>
     </row>
@@ -31156,7 +31156,7 @@
         <v>542</v>
       </c>
       <c r="D350" s="1">
-        <f>SUM($E350:$J350)</f>
+        <f t="shared" si="18"/>
         <v>325</v>
       </c>
       <c r="E350" s="2">
@@ -31191,7 +31191,7 @@
         <v>205</v>
       </c>
       <c r="Q350" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Rocky-E</v>
       </c>
       <c r="R350">
@@ -31209,7 +31209,7 @@
         <v>543</v>
       </c>
       <c r="D351" s="1">
-        <f>SUM($E351:$J351)</f>
+        <f t="shared" si="18"/>
         <v>425</v>
       </c>
       <c r="E351" s="2">
@@ -31244,7 +31244,7 @@
         <v>206</v>
       </c>
       <c r="Q351" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Boulder-E</v>
       </c>
       <c r="R351" t="s">
@@ -31262,7 +31262,7 @@
         <v>544</v>
       </c>
       <c r="D352" s="1">
-        <f>SUM($E352:$J352)</f>
+        <f t="shared" si="18"/>
         <v>525</v>
       </c>
       <c r="E352" s="2">
@@ -31297,7 +31297,7 @@
         <v>207</v>
       </c>
       <c r="Q352" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Blaster-E</v>
       </c>
     </row>
@@ -31312,7 +31312,7 @@
         <v>545</v>
       </c>
       <c r="D353" s="1">
-        <f>SUM($E353:$J353)</f>
+        <f t="shared" si="18"/>
         <v>525</v>
       </c>
       <c r="E353" s="2">
@@ -31347,7 +31347,7 @@
         <v>208</v>
       </c>
       <c r="Q353" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Crystallor-E</v>
       </c>
       <c r="R353" t="s">
@@ -31365,7 +31365,7 @@
         <v>546</v>
       </c>
       <c r="D354" s="1">
-        <f>SUM($E354:$J354)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="E354" s="2">
@@ -31400,7 +31400,7 @@
         <v>209</v>
       </c>
       <c r="Q354" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Magikarp-E</v>
       </c>
       <c r="R354">
@@ -31418,7 +31418,7 @@
         <v>547</v>
       </c>
       <c r="D355" s="1">
-        <f>SUM($E355:$J355)</f>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="E355" s="2">
@@ -31456,7 +31456,7 @@
         <v>210</v>
       </c>
       <c r="Q355" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Gyarados-E</v>
       </c>
     </row>
@@ -31471,7 +31471,7 @@
         <v>548</v>
       </c>
       <c r="D356" s="1">
-        <f>SUM($E356:$J356)</f>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="E356" s="2">
@@ -31508,7 +31508,7 @@
         <v>211</v>
       </c>
       <c r="Q356" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Shockfang</v>
       </c>
     </row>
@@ -31523,7 +31523,7 @@
         <v>549</v>
       </c>
       <c r="D357" s="1">
-        <f>SUM($E357:$J357)</f>
+        <f t="shared" si="18"/>
         <v>530</v>
       </c>
       <c r="E357" s="2">
@@ -31560,7 +31560,7 @@
         <v>212</v>
       </c>
       <c r="Q357" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Electrocobra</v>
       </c>
       <c r="R357">
@@ -31578,7 +31578,7 @@
         <v>550</v>
       </c>
       <c r="D358" s="1">
-        <f>SUM($E358:$J358)</f>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="E358" s="2">
@@ -31615,7 +31615,7 @@
         <v>213</v>
       </c>
       <c r="Q358" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Nightrex</v>
       </c>
     </row>
@@ -31630,7 +31630,7 @@
         <v>551</v>
       </c>
       <c r="D359" s="1">
-        <f>SUM($E359:$J359)</f>
+        <f t="shared" si="18"/>
         <v>530</v>
       </c>
       <c r="E359" s="2">
@@ -31667,7 +31667,7 @@
         <v>214</v>
       </c>
       <c r="Q359" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Shadowsaur</v>
       </c>
       <c r="R359">
@@ -31685,7 +31685,7 @@
         <v>552</v>
       </c>
       <c r="D360" s="1">
-        <f>SUM($E360:$J360)</f>
+        <f t="shared" si="18"/>
         <v>345</v>
       </c>
       <c r="E360" s="2">
@@ -31720,7 +31720,7 @@
         <v>215</v>
       </c>
       <c r="Q360" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Durfish-S</v>
       </c>
     </row>
@@ -31735,7 +31735,7 @@
         <v>553</v>
       </c>
       <c r="D361" s="1">
-        <f>SUM($E361:$J361)</f>
+        <f t="shared" si="18"/>
         <v>485</v>
       </c>
       <c r="E361" s="2">
@@ -31770,7 +31770,7 @@
         <v>216</v>
       </c>
       <c r="Q361" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Dompster-S</v>
       </c>
       <c r="R361" t="s">
@@ -31788,7 +31788,7 @@
         <v>554</v>
       </c>
       <c r="D362" s="1">
-        <f>SUM($E362:$J362)</f>
+        <f t="shared" si="18"/>
         <v>275</v>
       </c>
       <c r="E362" s="2">
@@ -31822,7 +31822,7 @@
         <v>217</v>
       </c>
       <c r="Q362" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Wormite-S</v>
       </c>
     </row>
@@ -31837,7 +31837,7 @@
         <v>555</v>
       </c>
       <c r="D363" s="1">
-        <f>SUM($E363:$J363)</f>
+        <f t="shared" si="18"/>
         <v>385</v>
       </c>
       <c r="E363" s="2">
@@ -31871,7 +31871,7 @@
         <v>218</v>
       </c>
       <c r="Q363" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Wormbot-S</v>
       </c>
       <c r="R363">
@@ -31889,7 +31889,7 @@
         <v>556</v>
       </c>
       <c r="D364" s="1">
-        <f>SUM($E364:$J364)</f>
+        <f t="shared" si="18"/>
         <v>520</v>
       </c>
       <c r="E364" s="2">
@@ -31923,7 +31923,7 @@
         <v>219</v>
       </c>
       <c r="Q364" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Wormatron-S</v>
       </c>
       <c r="R364">
@@ -31941,7 +31941,7 @@
         <v>557</v>
       </c>
       <c r="D365" s="1">
-        <f>SUM($E365:$J365)</f>
+        <f t="shared" si="18"/>
         <v>435</v>
       </c>
       <c r="E365" s="2">
@@ -31975,7 +31975,7 @@
         <v>220</v>
       </c>
       <c r="Q365" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Cluuz-S</v>
       </c>
     </row>
@@ -31990,7 +31990,7 @@
         <v>558</v>
       </c>
       <c r="D366" s="1">
-        <f>SUM($E366:$J366)</f>
+        <f t="shared" si="18"/>
         <v>480</v>
       </c>
       <c r="E366" s="2">
@@ -32024,7 +32024,7 @@
         <v>221</v>
       </c>
       <c r="Q366" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Zurrclu-S</v>
       </c>
       <c r="R366" t="s">
@@ -32042,7 +32042,7 @@
         <v>802</v>
       </c>
       <c r="D367" s="1">
-        <f>SUM($E367:$J367)</f>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="E367" s="2">
@@ -32076,7 +32076,7 @@
         <v>222</v>
       </c>
       <c r="Q367" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Zurroaratr-S</v>
       </c>
       <c r="R367" t="s">
@@ -32094,7 +32094,7 @@
         <v>559</v>
       </c>
       <c r="D368" s="1">
-        <f>SUM($E368:$J368)</f>
+        <f t="shared" si="18"/>
         <v>306</v>
       </c>
       <c r="E368" s="2">
@@ -32131,7 +32131,7 @@
         <v>223</v>
       </c>
       <c r="Q368" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Iglite-S</v>
       </c>
       <c r="R368">
@@ -32149,7 +32149,7 @@
         <v>560</v>
       </c>
       <c r="D369" s="1">
-        <f>SUM($E369:$J369)</f>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="E369" s="2">
@@ -32186,7 +32186,7 @@
         <v>224</v>
       </c>
       <c r="Q369" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Blaxer-S</v>
       </c>
       <c r="R369">
@@ -32204,7 +32204,7 @@
         <v>561</v>
       </c>
       <c r="D370" s="1">
-        <f>SUM($E370:$J370)</f>
+        <f t="shared" si="18"/>
         <v>516</v>
       </c>
       <c r="E370" s="2">
@@ -32241,7 +32241,7 @@
         <v>225</v>
       </c>
       <c r="Q370" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Pyrator-S</v>
       </c>
     </row>
@@ -32256,7 +32256,7 @@
         <v>562</v>
       </c>
       <c r="D371" s="1">
-        <f>SUM($E371:$J371)</f>
+        <f t="shared" si="18"/>
         <v>288</v>
       </c>
       <c r="E371" s="2">
@@ -32293,7 +32293,7 @@
         <v>226</v>
       </c>
       <c r="Q371" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Ekans-S</v>
       </c>
       <c r="R371">
@@ -32311,7 +32311,7 @@
         <v>563</v>
       </c>
       <c r="D372" s="1">
-        <f>SUM($E372:$J372)</f>
+        <f t="shared" si="18"/>
         <v>490</v>
       </c>
       <c r="E372" s="2">
@@ -32348,7 +32348,7 @@
         <v>227</v>
       </c>
       <c r="Q372" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Arbok-S</v>
       </c>
     </row>
@@ -32363,7 +32363,7 @@
         <v>564</v>
       </c>
       <c r="D373" s="1">
-        <f>SUM($E373:$J373)</f>
+        <f t="shared" si="18"/>
         <v>600</v>
       </c>
       <c r="E373" s="2">
@@ -32395,7 +32395,7 @@
         <v>228</v>
       </c>
       <c r="Q373" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Soarwhell</v>
       </c>
       <c r="R373" t="s">
@@ -32413,7 +32413,7 @@
         <v>86</v>
       </c>
       <c r="D374" s="1">
-        <f>SUM($E374:$J374)</f>
+        <f t="shared" si="18"/>
         <v>600</v>
       </c>
       <c r="E374" s="2">
@@ -32445,7 +32445,7 @@
         <v>229</v>
       </c>
       <c r="Q374" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Diftery</v>
       </c>
       <c r="R374" t="s">
@@ -32463,7 +32463,7 @@
         <v>565</v>
       </c>
       <c r="D375" s="1">
-        <f>SUM($E375:$J375)</f>
+        <f t="shared" si="18"/>
         <v>625</v>
       </c>
       <c r="E375" s="2">
@@ -32495,7 +32495,7 @@
         <v>230</v>
       </c>
       <c r="Q375" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Vorsuitex</v>
       </c>
       <c r="R375" t="s">
@@ -32513,7 +32513,7 @@
         <v>566</v>
       </c>
       <c r="D376" s="1">
-        <f>SUM($E376:$J376)</f>
+        <f t="shared" si="18"/>
         <v>610</v>
       </c>
       <c r="E376" s="2">
@@ -32545,7 +32545,7 @@
         <v>231</v>
       </c>
       <c r="Q376" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Kleinyeti</v>
       </c>
       <c r="R376" t="s">
@@ -32563,7 +32563,7 @@
         <v>567</v>
       </c>
       <c r="D377" s="1">
-        <f>SUM($E377:$J377)</f>
+        <f t="shared" si="18"/>
         <v>615</v>
       </c>
       <c r="E377" s="2">
@@ -32595,7 +32595,7 @@
         <v>232</v>
       </c>
       <c r="Q377" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Triwandoliz</v>
       </c>
       <c r="R377" t="s">
@@ -32613,7 +32613,7 @@
         <v>568</v>
       </c>
       <c r="D378" s="1">
-        <f>SUM($E378:$J378)</f>
+        <f t="shared" si="18"/>
         <v>680</v>
       </c>
       <c r="E378" s="2">
@@ -32645,7 +32645,7 @@
         <v>233</v>
       </c>
       <c r="Q378" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Relomidel</v>
       </c>
       <c r="R378" t="s">
@@ -32663,7 +32663,7 @@
         <v>569</v>
       </c>
       <c r="D379" s="1">
-        <f>SUM($E379:$J379)</f>
+        <f t="shared" si="18"/>
         <v>680</v>
       </c>
       <c r="E379" s="2">
@@ -32695,7 +32695,7 @@
         <v>234</v>
       </c>
       <c r="Q379" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Relopamil</v>
       </c>
       <c r="R379" t="s">
@@ -32713,7 +32713,7 @@
         <v>570</v>
       </c>
       <c r="D380" s="1">
-        <f>SUM($E380:$J380)</f>
+        <f t="shared" si="18"/>
         <v>700</v>
       </c>
       <c r="E380" s="2">
@@ -32745,7 +32745,7 @@
         <v>235</v>
       </c>
       <c r="Q380" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Dragowrath</v>
       </c>
       <c r="R380" t="s">
@@ -32763,7 +32763,7 @@
         <v>571</v>
       </c>
       <c r="D381" s="1">
-        <f>SUM($E381:$J381)</f>
+        <f t="shared" si="18"/>
         <v>670</v>
       </c>
       <c r="E381" s="2">
@@ -32795,7 +32795,7 @@
         <v>236</v>
       </c>
       <c r="Q381" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Solaroxyous</v>
       </c>
       <c r="R381" t="s">
@@ -32810,7 +32810,7 @@
         <v>576</v>
       </c>
       <c r="D382" s="1">
-        <f>SUM($E382:$J382)</f>
+        <f t="shared" si="18"/>
         <v>550</v>
       </c>
       <c r="E382" s="2">
@@ -32841,7 +32841,7 @@
         <v>237</v>
       </c>
       <c r="Q382" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Kissyfishy-D</v>
       </c>
     </row>
@@ -32856,7 +32856,7 @@
         <v>804</v>
       </c>
       <c r="D383" s="1">
-        <f>SUM($E383:$J383)</f>
+        <f t="shared" si="18"/>
         <v>348</v>
       </c>
       <c r="E383" s="2">
@@ -32901,7 +32901,7 @@
         <v>805</v>
       </c>
       <c r="D384" s="1">
-        <f>SUM($E384:$J384)</f>
+        <f t="shared" si="18"/>
         <v>488</v>
       </c>
       <c r="E384" s="2">
@@ -32946,7 +32946,7 @@
         <v>806</v>
       </c>
       <c r="D385" s="1">
-        <f>SUM($E385:$J385)</f>
+        <f t="shared" si="18"/>
         <v>555</v>
       </c>
       <c r="E385" s="2">
@@ -32991,7 +32991,7 @@
         <v>1145</v>
       </c>
       <c r="D386" s="1">
-        <f>SUM($E386:$J386)</f>
+        <f t="shared" si="18"/>
         <v>350</v>
       </c>
       <c r="E386" s="2">
@@ -33027,7 +33027,7 @@
         <v>1146</v>
       </c>
       <c r="D387" s="1">
-        <f>SUM($E387:$J387)</f>
+        <f t="shared" si="18"/>
         <v>525</v>
       </c>
       <c r="E387" s="2">
@@ -33063,7 +33063,7 @@
         <v>1149</v>
       </c>
       <c r="D388" s="1">
-        <f>SUM($E388:$J388)</f>
+        <f t="shared" si="18"/>
         <v>310</v>
       </c>
       <c r="E388" s="2">
@@ -33099,7 +33099,7 @@
         <v>1150</v>
       </c>
       <c r="D389" s="1">
-        <f>SUM($E389:$J389)</f>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="E389" s="2">
@@ -33135,7 +33135,7 @@
         <v>1151</v>
       </c>
       <c r="D390" s="1">
-        <f>SUM($E390:$J390)</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="E390" s="2">
@@ -33171,7 +33171,7 @@
         <v>1152</v>
       </c>
       <c r="D391" s="1">
-        <f>SUM($E391:$J391)</f>
+        <f t="shared" si="18"/>
         <v>500</v>
       </c>
       <c r="E391" s="2">
@@ -33207,7 +33207,7 @@
         <v>1153</v>
       </c>
       <c r="D392" s="1">
-        <f>SUM($E392:$J392)</f>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="E392" s="2">
@@ -33243,7 +33243,7 @@
         <v>1155</v>
       </c>
       <c r="D393" s="1">
-        <f>SUM($E393:$J393)</f>
+        <f t="shared" si="18"/>
         <v>510</v>
       </c>
       <c r="E393" s="2">
@@ -33279,7 +33279,7 @@
         <v>1156</v>
       </c>
       <c r="D394" s="1">
-        <f>SUM($E394:$J394)</f>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
       <c r="E394" s="40">
@@ -33315,7 +33315,7 @@
         <v>1154</v>
       </c>
       <c r="D395" s="1">
-        <f>SUM($E395:$J395)</f>
+        <f t="shared" si="18"/>
         <v>510</v>
       </c>
       <c r="E395" s="2">
@@ -33351,7 +33351,7 @@
         <v>1157</v>
       </c>
       <c r="D396" s="1">
-        <f>SUM($E396:$J396)</f>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
       <c r="E396" s="2">
@@ -33387,7 +33387,7 @@
         <v>1158</v>
       </c>
       <c r="D397" s="1">
-        <f>SUM($E397:$J397)</f>
+        <f t="shared" si="18"/>
         <v>370</v>
       </c>
       <c r="E397" s="2">
@@ -33423,7 +33423,7 @@
         <v>1159</v>
       </c>
       <c r="D398" s="1">
-        <f>SUM($E398:$J398)</f>
+        <f t="shared" si="18"/>
         <v>490</v>
       </c>
       <c r="E398" s="2">
@@ -33459,7 +33459,7 @@
         <v>1160</v>
       </c>
       <c r="D399" s="1">
-        <f>SUM($E399:$J399)</f>
+        <f t="shared" si="18"/>
         <v>290</v>
       </c>
       <c r="E399" s="2">
@@ -33495,7 +33495,7 @@
         <v>1161</v>
       </c>
       <c r="D400" s="1">
-        <f>SUM($E400:$J400)</f>
+        <f t="shared" si="18"/>
         <v>370</v>
       </c>
       <c r="E400" s="2">
@@ -33531,7 +33531,7 @@
         <v>1162</v>
       </c>
       <c r="D401" s="1">
-        <f>SUM($E401:$J401)</f>
+        <f t="shared" si="18"/>
         <v>490</v>
       </c>
       <c r="E401" s="2">
@@ -33567,7 +33567,7 @@
         <v>1163</v>
       </c>
       <c r="D402" s="1">
-        <f>SUM($E402:$J402)</f>
+        <f t="shared" ref="D402:D436" si="20">SUM($E402:$J402)</f>
         <v>458</v>
       </c>
       <c r="E402" s="2">
@@ -33603,7 +33603,7 @@
         <v>1164</v>
       </c>
       <c r="D403" s="1">
-        <f>SUM($E403:$J403)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K403">
@@ -33621,7 +33621,7 @@
         <v>1165</v>
       </c>
       <c r="D404" s="1">
-        <f>SUM($E404:$J404)</f>
+        <f t="shared" si="20"/>
         <v>312</v>
       </c>
       <c r="E404" s="2">
@@ -33657,7 +33657,7 @@
         <v>1166</v>
       </c>
       <c r="D405" s="1">
-        <f>SUM($E405:$J405)</f>
+        <f t="shared" si="20"/>
         <v>487</v>
       </c>
       <c r="E405" s="2">
@@ -33693,7 +33693,7 @@
         <v>1167</v>
       </c>
       <c r="D406" s="1">
-        <f>SUM($E406:$J406)</f>
+        <f t="shared" si="20"/>
         <v>332</v>
       </c>
       <c r="E406" s="2">
@@ -33729,7 +33729,7 @@
         <v>1168</v>
       </c>
       <c r="D407" s="1">
-        <f>SUM($E407:$J407)</f>
+        <f t="shared" si="20"/>
         <v>497</v>
       </c>
       <c r="E407" s="2">
@@ -33765,7 +33765,7 @@
         <v>1169</v>
       </c>
       <c r="D408" s="1">
-        <f>SUM($E408:$J408)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -33780,7 +33780,7 @@
         <v>1181</v>
       </c>
       <c r="D409" s="1">
-        <f>SUM($E409:$J409)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -33795,7 +33795,7 @@
         <v>1178</v>
       </c>
       <c r="D410" s="1">
-        <f>SUM($E410:$J410)</f>
+        <f t="shared" si="20"/>
         <v>335</v>
       </c>
       <c r="E410" s="2">
@@ -33837,7 +33837,7 @@
         <v>1177</v>
       </c>
       <c r="D411" s="1">
-        <f>SUM($E411:$J411)</f>
+        <f t="shared" si="20"/>
         <v>485</v>
       </c>
       <c r="E411" s="2">
@@ -33879,7 +33879,7 @@
         <v>1179</v>
       </c>
       <c r="D412" s="1">
-        <f>SUM($E412:$J412)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -33894,7 +33894,7 @@
         <v>1180</v>
       </c>
       <c r="D413" s="1">
-        <f>SUM($E413:$J413)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -33909,7 +33909,7 @@
         <v>1182</v>
       </c>
       <c r="D414" s="1">
-        <f>SUM($E414:$J414)</f>
+        <f t="shared" si="20"/>
         <v>195</v>
       </c>
       <c r="E414" s="2">
@@ -33945,7 +33945,7 @@
         <v>1183</v>
       </c>
       <c r="D415" s="1">
-        <f>SUM($E415:$J415)</f>
+        <f t="shared" si="20"/>
         <v>205</v>
       </c>
       <c r="E415" s="2">
@@ -33981,7 +33981,7 @@
         <v>1184</v>
       </c>
       <c r="D416" s="1">
-        <f>SUM($E416:$J416)</f>
+        <f t="shared" si="20"/>
         <v>400</v>
       </c>
       <c r="E416" s="2">
@@ -34017,7 +34017,7 @@
         <v>1185</v>
       </c>
       <c r="D417" s="1">
-        <f>SUM($E417:$J417)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -34032,7 +34032,7 @@
         <v>1186</v>
       </c>
       <c r="D418" s="1">
-        <f>SUM($E418:$J418)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L418" t="s">
@@ -34050,7 +34050,7 @@
         <v>1187</v>
       </c>
       <c r="D419" s="1">
-        <f>SUM($E419:$J419)</f>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="E419" s="2">
@@ -34086,7 +34086,7 @@
         <v>1188</v>
       </c>
       <c r="D420" s="1">
-        <f>SUM($E420:$J420)</f>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="E420" s="2">
@@ -34122,7 +34122,7 @@
         <v>1189</v>
       </c>
       <c r="D421" s="1">
-        <f>SUM($E421:$J421)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K421">
@@ -34140,7 +34140,7 @@
         <v>1190</v>
       </c>
       <c r="D422" s="1">
-        <f>SUM($E422:$J422)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K422">
@@ -34161,7 +34161,7 @@
         <v>1200</v>
       </c>
       <c r="D423" s="1">
-        <f>SUM($E423:$J423)</f>
+        <f t="shared" si="20"/>
         <v>304</v>
       </c>
       <c r="E423" s="2">
@@ -34206,7 +34206,7 @@
         <v>1201</v>
       </c>
       <c r="D424" s="1">
-        <f>SUM($E424:$J424)</f>
+        <f t="shared" si="20"/>
         <v>486</v>
       </c>
       <c r="E424" s="2">
@@ -34251,7 +34251,7 @@
         <v>1202</v>
       </c>
       <c r="D425" s="1">
-        <f>SUM($E425:$J425)</f>
+        <f t="shared" si="20"/>
         <v>550</v>
       </c>
       <c r="E425" s="2">
@@ -34299,7 +34299,7 @@
         <v>1203</v>
       </c>
       <c r="D426" s="1">
-        <f>SUM($E426:$J426)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K426">
@@ -34326,7 +34326,7 @@
         <v>1204</v>
       </c>
       <c r="D427" s="1">
-        <f>SUM($E427:$J427)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K427">
@@ -34353,7 +34353,7 @@
         <v>1205</v>
       </c>
       <c r="D428" s="1">
-        <f>SUM($E428:$J428)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K428">
@@ -34383,7 +34383,7 @@
         <v>1192</v>
       </c>
       <c r="D429" s="1">
-        <f>SUM($E429:$J429)</f>
+        <f t="shared" si="20"/>
         <v>570</v>
       </c>
       <c r="E429" s="2">
@@ -34419,7 +34419,7 @@
         <v>1193</v>
       </c>
       <c r="D430" s="1">
-        <f>SUM($E430:$J430)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K430">
@@ -34437,7 +34437,7 @@
         <v>1194</v>
       </c>
       <c r="D431" s="1">
-        <f>SUM($E431:$J431)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K431">
@@ -34455,7 +34455,7 @@
         <v>1195</v>
       </c>
       <c r="D432" s="1">
-        <f>SUM($E432:$J432)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K432">
@@ -34473,7 +34473,7 @@
         <v>1196</v>
       </c>
       <c r="D433" s="1">
-        <f>SUM($E433:$J433)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K433">
@@ -34491,7 +34491,7 @@
         <v>1197</v>
       </c>
       <c r="D434" s="1">
-        <f>SUM($E434:$J434)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K434">
@@ -34509,7 +34509,7 @@
         <v>1198</v>
       </c>
       <c r="D435" s="1">
-        <f>SUM($E435:$J435)</f>
+        <f t="shared" si="20"/>
         <v>680</v>
       </c>
       <c r="E435" s="2">
@@ -34542,7 +34542,7 @@
         <v>1199</v>
       </c>
       <c r="D436" s="1">
-        <f>SUM($E436:$J436)</f>
+        <f t="shared" si="20"/>
         <v>754</v>
       </c>
       <c r="E436" s="2">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D88D9-8236-409C-A7BA-4DF539D71E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3022D7F6-D368-496C-B4BE-1F4DC224D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-12915" windowWidth="16440" windowHeight="28440" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="1220">
   <si>
     <t>Leafer</t>
   </si>
@@ -3693,6 +3693,9 @@
   </si>
   <si>
     <t>Pkdx #</t>
+  </si>
+  <si>
+    <t>Route 45</t>
   </si>
 </sst>
 </file>
@@ -4679,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U148" sqref="U148"/>
+    <sheetView tabSelected="1" topLeftCell="H165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U174" sqref="U174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19074,6 +19077,12 @@
       <c r="Q191" t="str">
         <f t="shared" si="11"/>
         <v>Ludicolo</v>
+      </c>
+      <c r="T191">
+        <v>47</v>
+      </c>
+      <c r="U191" t="s">
+        <v>1219</v>
       </c>
       <c r="X191" s="12" t="s">
         <v>198</v>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3022D7F6-D368-496C-B4BE-1F4DC224D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8951B9-5772-4109-90D0-1CC4FFA714B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -4682,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U174" sqref="U174"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H419" sqref="H419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34027,7 +34027,28 @@
       </c>
       <c r="D417" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="E417" s="2">
+        <v>50</v>
+      </c>
+      <c r="F417" s="3">
+        <v>20</v>
+      </c>
+      <c r="G417" s="4">
+        <v>50</v>
+      </c>
+      <c r="H417" s="5">
+        <v>35</v>
+      </c>
+      <c r="I417" s="4">
+        <v>30</v>
+      </c>
+      <c r="J417" s="6">
+        <v>25</v>
+      </c>
+      <c r="K417">
+        <v>210</v>
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
@@ -34042,7 +34063,28 @@
       </c>
       <c r="D418" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>405</v>
+      </c>
+      <c r="E418" s="2">
+        <v>60</v>
+      </c>
+      <c r="F418" s="3">
+        <v>20</v>
+      </c>
+      <c r="G418" s="4">
+        <v>55</v>
+      </c>
+      <c r="H418" s="5">
+        <v>105</v>
+      </c>
+      <c r="I418" s="4">
+        <v>90</v>
+      </c>
+      <c r="J418" s="6">
+        <v>75</v>
+      </c>
+      <c r="K418">
+        <v>405</v>
       </c>
       <c r="L418" t="s">
         <v>1191</v>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCC8458-D074-4BB7-AF3B-CCDF6A462627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6944891F-66BC-478B-AB43-E46CF716B2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="165" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4036,7 +4036,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
@@ -4088,20 +4088,6 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4718,8 +4704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E427" sqref="E427"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14754,7 +14740,7 @@
       </c>
     </row>
     <row r="146" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A146" s="58">
+      <c r="A146" s="10">
         <v>-18</v>
       </c>
       <c r="B146">
@@ -14855,7 +14841,7 @@
       </c>
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A147" s="64">
+      <c r="A147" s="50">
         <v>-18</v>
       </c>
       <c r="B147">
@@ -14953,7 +14939,7 @@
       </c>
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A148" s="58">
+      <c r="A148" s="10">
         <v>-17</v>
       </c>
       <c r="B148">
@@ -15051,7 +15037,7 @@
       </c>
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A149" s="64">
+      <c r="A149" s="50">
         <v>-17</v>
       </c>
       <c r="B149">
@@ -15149,7 +15135,7 @@
       </c>
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A150" s="58">
+      <c r="A150" s="10">
         <v>-16</v>
       </c>
       <c r="B150">
@@ -15247,7 +15233,7 @@
       </c>
     </row>
     <row r="151" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A151" s="64">
+      <c r="A151" s="50">
         <v>-16</v>
       </c>
       <c r="B151">
@@ -15342,7 +15328,7 @@
       </c>
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A152" s="58">
+      <c r="A152" s="10">
         <v>-15</v>
       </c>
       <c r="B152">
@@ -15443,7 +15429,7 @@
       </c>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A153" s="64">
+      <c r="A153" s="50">
         <v>-15</v>
       </c>
       <c r="B153">
@@ -15541,7 +15527,7 @@
       </c>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A154" s="58">
+      <c r="A154" s="10">
         <v>-14</v>
       </c>
       <c r="B154">
@@ -15636,7 +15622,7 @@
       </c>
     </row>
     <row r="155" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A155" s="64">
+      <c r="A155" s="50">
         <v>-14</v>
       </c>
       <c r="B155">
@@ -15734,7 +15720,7 @@
       </c>
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A156" s="64">
+      <c r="A156" s="50">
         <v>-13</v>
       </c>
       <c r="B156">
@@ -15832,7 +15818,7 @@
       </c>
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A157" s="58">
+      <c r="A157" s="10">
         <v>-13</v>
       </c>
       <c r="B157">
@@ -15909,7 +15895,7 @@
       </c>
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A158" s="64">
+      <c r="A158" s="50">
         <v>-12</v>
       </c>
       <c r="B158">
@@ -16007,7 +15993,7 @@
       </c>
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A159" s="58">
+      <c r="A159" s="10">
         <v>-12</v>
       </c>
       <c r="B159">
@@ -16084,7 +16070,7 @@
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A160" s="58">
+      <c r="A160" s="10">
         <v>-11</v>
       </c>
       <c r="B160">
@@ -16179,7 +16165,7 @@
       </c>
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A161" s="64">
+      <c r="A161" s="50">
         <v>-11</v>
       </c>
       <c r="B161">
@@ -16190,7 +16176,25 @@
       </c>
       <c r="D161" s="1">
         <f>SUM($E161:$J161)</f>
-        <v>0</v>
+        <v>550</v>
+      </c>
+      <c r="E161" s="2">
+        <v>84</v>
+      </c>
+      <c r="F161" s="3">
+        <v>118</v>
+      </c>
+      <c r="G161" s="4">
+        <v>75</v>
+      </c>
+      <c r="H161" s="5">
+        <v>108</v>
+      </c>
+      <c r="I161" s="4">
+        <v>75</v>
+      </c>
+      <c r="J161" s="6">
+        <v>90</v>
       </c>
       <c r="K161">
         <v>550</v>
@@ -16259,7 +16263,7 @@
       </c>
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A162" s="58">
+      <c r="A162" s="10">
         <v>-10</v>
       </c>
       <c r="B162">
@@ -16357,7 +16361,7 @@
       </c>
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A163" s="64">
+      <c r="A163" s="50">
         <v>-10</v>
       </c>
       <c r="B163">
@@ -16368,7 +16372,25 @@
       </c>
       <c r="D163" s="1">
         <f>SUM($E163:$J163)</f>
-        <v>0</v>
+        <v>486</v>
+      </c>
+      <c r="E163" s="2">
+        <v>65</v>
+      </c>
+      <c r="F163" s="3">
+        <v>113</v>
+      </c>
+      <c r="G163" s="4">
+        <v>60</v>
+      </c>
+      <c r="H163" s="5">
+        <v>103</v>
+      </c>
+      <c r="I163" s="4">
+        <v>65</v>
+      </c>
+      <c r="J163" s="6">
+        <v>80</v>
       </c>
       <c r="K163">
         <v>486</v>
@@ -16437,7 +16459,7 @@
       </c>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A164" s="58">
+      <c r="A164" s="10">
         <v>-9</v>
       </c>
       <c r="B164">
@@ -16538,7 +16560,7 @@
       </c>
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A165" s="65">
+      <c r="A165" s="51">
         <v>-9</v>
       </c>
       <c r="B165">
@@ -16636,7 +16658,7 @@
       </c>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A166" s="64">
+      <c r="A166" s="50">
         <v>-9</v>
       </c>
       <c r="B166">
@@ -16647,7 +16669,25 @@
       </c>
       <c r="D166" s="1">
         <f>SUM($E166:$J166)</f>
-        <v>0</v>
+        <v>304</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45</v>
+      </c>
+      <c r="F166" s="3">
+        <v>67</v>
+      </c>
+      <c r="G166" s="4">
+        <v>40</v>
+      </c>
+      <c r="H166" s="5">
+        <v>47</v>
+      </c>
+      <c r="I166" s="4">
+        <v>40</v>
+      </c>
+      <c r="J166" s="6">
+        <v>65</v>
       </c>
       <c r="K166">
         <v>304</v>
@@ -16713,7 +16753,7 @@
       </c>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A167" s="58">
+      <c r="A167" s="10">
         <v>-8</v>
       </c>
       <c r="B167">
@@ -16809,7 +16849,7 @@
       </c>
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A168" s="64">
+      <c r="A168" s="50">
         <v>-8</v>
       </c>
       <c r="B168">
@@ -16905,7 +16945,7 @@
       </c>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A169" s="65">
+      <c r="A169" s="51">
         <v>-8</v>
       </c>
       <c r="B169">
@@ -17000,7 +17040,7 @@
       </c>
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A170" s="58">
+      <c r="A170" s="10">
         <v>-7</v>
       </c>
       <c r="B170">
@@ -17098,7 +17138,7 @@
       </c>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A171" s="64">
+      <c r="A171" s="50">
         <v>-7</v>
       </c>
       <c r="B171">
@@ -17194,7 +17234,7 @@
       </c>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A172" s="65">
+      <c r="A172" s="51">
         <v>-7</v>
       </c>
       <c r="B172">
@@ -17290,7 +17330,7 @@
       </c>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A173" s="58">
+      <c r="A173" s="10">
         <v>-6</v>
       </c>
       <c r="B173">
@@ -17380,7 +17420,7 @@
       </c>
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A174" s="64">
+      <c r="A174" s="50">
         <v>-6</v>
       </c>
       <c r="B174">
@@ -17475,7 +17515,7 @@
       </c>
     </row>
     <row r="175" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A175" s="65">
+      <c r="A175" s="51">
         <v>-6</v>
       </c>
       <c r="B175">
@@ -17570,7 +17610,7 @@
       </c>
     </row>
     <row r="176" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A176" s="58">
+      <c r="A176" s="10">
         <v>-5</v>
       </c>
       <c r="B176">
@@ -17662,7 +17702,7 @@
       </c>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A177" s="64">
+      <c r="A177" s="50">
         <v>-5</v>
       </c>
       <c r="B177">
@@ -17755,7 +17795,7 @@
       </c>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A178" s="65">
+      <c r="A178" s="51">
         <v>-5</v>
       </c>
       <c r="B178">
@@ -17848,7 +17888,7 @@
       </c>
     </row>
     <row r="179" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A179" s="58">
+      <c r="A179" s="10">
         <v>-4</v>
       </c>
       <c r="B179">
@@ -17938,7 +17978,7 @@
       </c>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A180" s="64">
+      <c r="A180" s="50">
         <v>-4</v>
       </c>
       <c r="B180">
@@ -18031,7 +18071,7 @@
       </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A181" s="65">
+      <c r="A181" s="51">
         <v>-4</v>
       </c>
       <c r="B181">
@@ -18124,7 +18164,7 @@
       </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A182" s="58">
+      <c r="A182" s="10">
         <v>-3</v>
       </c>
       <c r="B182">
@@ -18214,7 +18254,7 @@
       </c>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A183" s="64">
+      <c r="A183" s="50">
         <v>-3</v>
       </c>
       <c r="B183">
@@ -18306,7 +18346,7 @@
       </c>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A184" s="65">
+      <c r="A184" s="51">
         <v>-3</v>
       </c>
       <c r="B184">
@@ -18404,7 +18444,7 @@
       </c>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A185" s="58">
+      <c r="A185" s="10">
         <v>-2</v>
       </c>
       <c r="B185">
@@ -18499,7 +18539,7 @@
       </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A186" s="64">
+      <c r="A186" s="50">
         <v>-2</v>
       </c>
       <c r="B186">
@@ -18594,7 +18634,7 @@
       </c>
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A187" s="65">
+      <c r="A187" s="51">
         <v>-2</v>
       </c>
       <c r="B187">
@@ -18689,7 +18729,7 @@
       </c>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A188" s="58">
+      <c r="A188" s="10">
         <v>-1</v>
       </c>
       <c r="B188">
@@ -18781,7 +18821,7 @@
       </c>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A189" s="64">
+      <c r="A189" s="50">
         <v>-1</v>
       </c>
       <c r="B189">
@@ -18874,7 +18914,7 @@
       </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A190" s="65">
+      <c r="A190" s="51">
         <v>-1</v>
       </c>
       <c r="B190">
@@ -27751,7 +27791,7 @@
       <c r="C294" t="s">
         <v>1220</v>
       </c>
-      <c r="D294" s="66">
+      <c r="D294" s="52">
         <f>SUM($E294:$J294)</f>
         <v>190</v>
       </c>
@@ -27810,7 +27850,7 @@
       <c r="C295" t="s">
         <v>1221</v>
       </c>
-      <c r="D295" s="66">
+      <c r="D295" s="52">
         <f>SUM($E295:$J295)</f>
         <v>250</v>
       </c>
@@ -27869,7 +27909,7 @@
       <c r="C296" t="s">
         <v>1222</v>
       </c>
-      <c r="D296" s="66">
+      <c r="D296" s="52">
         <f>SUM($E296:$J296)</f>
         <v>420</v>
       </c>
@@ -27936,7 +27976,7 @@
       <c r="C297" t="s">
         <v>428</v>
       </c>
-      <c r="D297" s="52">
+      <c r="D297" s="1">
         <f>SUM($E297:$J297)</f>
         <v>410</v>
       </c>
@@ -28067,7 +28107,7 @@
       <c r="C299" t="s">
         <v>430</v>
       </c>
-      <c r="D299" s="52">
+      <c r="D299" s="1">
         <f>SUM($E299:$J299)</f>
         <v>535</v>
       </c>
@@ -28256,7 +28296,7 @@
       </c>
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A302" s="51">
+      <c r="A302">
         <v>112</v>
       </c>
       <c r="B302">
@@ -28320,7 +28360,7 @@
       </c>
     </row>
     <row r="303" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A303" s="51">
+      <c r="A303">
         <v>113</v>
       </c>
       <c r="B303">
@@ -28369,7 +28409,7 @@
       </c>
     </row>
     <row r="304" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A304" s="51">
+      <c r="A304">
         <v>114</v>
       </c>
       <c r="B304">
@@ -28415,7 +28455,7 @@
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A305" s="51">
+      <c r="A305">
         <v>115</v>
       </c>
       <c r="B305">
@@ -28477,7 +28517,7 @@
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A306" s="51">
+      <c r="A306">
         <v>116</v>
       </c>
       <c r="B306">
@@ -28539,7 +28579,7 @@
       </c>
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A307" s="51">
+      <c r="A307">
         <v>117</v>
       </c>
       <c r="B307">
@@ -28601,7 +28641,7 @@
       </c>
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A308" s="51">
+      <c r="A308">
         <v>118</v>
       </c>
       <c r="B308">
@@ -28663,7 +28703,7 @@
       </c>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A309" s="51">
+      <c r="A309">
         <v>119</v>
       </c>
       <c r="B309">
@@ -28725,7 +28765,7 @@
       </c>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A310" s="51">
+      <c r="A310">
         <v>120</v>
       </c>
       <c r="B310">
@@ -28784,7 +28824,7 @@
       </c>
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A311" s="51">
+      <c r="A311">
         <v>121</v>
       </c>
       <c r="B311">
@@ -28848,7 +28888,7 @@
       </c>
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A312" s="51">
+      <c r="A312">
         <v>122</v>
       </c>
       <c r="B312">
@@ -28912,7 +28952,7 @@
       </c>
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A313" s="51">
+      <c r="A313">
         <v>123</v>
       </c>
       <c r="B313">
@@ -28973,7 +29013,7 @@
       </c>
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A314" s="51">
+      <c r="A314">
         <v>124</v>
       </c>
       <c r="B314">
@@ -29037,7 +29077,7 @@
       </c>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A315" s="51">
+      <c r="A315">
         <v>125</v>
       </c>
       <c r="B315">
@@ -29098,7 +29138,7 @@
       </c>
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A316" s="51">
+      <c r="A316">
         <v>126</v>
       </c>
       <c r="B316">
@@ -29162,7 +29202,7 @@
       </c>
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A317" s="51">
+      <c r="A317">
         <v>127</v>
       </c>
       <c r="B317">
@@ -29226,7 +29266,7 @@
       </c>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A318" s="51">
+      <c r="A318">
         <v>128</v>
       </c>
       <c r="B318">
@@ -29287,7 +29327,7 @@
       </c>
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A319" s="51">
+      <c r="A319">
         <v>129</v>
       </c>
       <c r="B319">
@@ -29349,7 +29389,7 @@
       </c>
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A320" s="51">
+      <c r="A320">
         <v>130</v>
       </c>
       <c r="B320">
@@ -29411,7 +29451,7 @@
       </c>
     </row>
     <row r="321" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A321" s="51">
+      <c r="A321">
         <v>131</v>
       </c>
       <c r="B321">
@@ -29541,7 +29581,7 @@
       <c r="C323" t="s">
         <v>459</v>
       </c>
-      <c r="D323" s="52">
+      <c r="D323" s="1">
         <f>SUM($E323:$J323)</f>
         <v>400</v>
       </c>
@@ -29662,7 +29702,7 @@
       <c r="C325" t="s">
         <v>1225</v>
       </c>
-      <c r="D325" s="66">
+      <c r="D325" s="52">
         <f>SUM($E325:$J325)</f>
         <v>290</v>
       </c>
@@ -29721,7 +29761,7 @@
       <c r="C326" t="s">
         <v>1226</v>
       </c>
-      <c r="D326" s="66">
+      <c r="D326" s="52">
         <f>SUM($E326:$J326)</f>
         <v>485</v>
       </c>
@@ -29846,7 +29886,7 @@
       <c r="C328" t="s">
         <v>467</v>
       </c>
-      <c r="D328" s="52">
+      <c r="D328" s="1">
         <f>SUM($E328:$J328)</f>
         <v>482</v>
       </c>
@@ -30313,7 +30353,7 @@
       </c>
     </row>
     <row r="336" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A336" s="51">
+      <c r="A336">
         <v>146</v>
       </c>
       <c r="B336">
@@ -30368,7 +30408,7 @@
       </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A337" s="51">
+      <c r="A337">
         <v>147</v>
       </c>
       <c r="B337">
@@ -30420,7 +30460,7 @@
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A338" s="51">
+      <c r="A338">
         <v>148</v>
       </c>
       <c r="B338">
@@ -30475,7 +30515,7 @@
       </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A339" s="51">
+      <c r="A339">
         <v>149</v>
       </c>
       <c r="B339">
@@ -30527,7 +30567,7 @@
       </c>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A340" s="51">
+      <c r="A340">
         <v>150</v>
       </c>
       <c r="B340">
@@ -30582,7 +30622,7 @@
       </c>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A341" s="51">
+      <c r="A341">
         <v>151</v>
       </c>
       <c r="B341">
@@ -30634,7 +30674,7 @@
       </c>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A342" s="51">
+      <c r="A342">
         <v>152</v>
       </c>
       <c r="B342">
@@ -30689,7 +30729,7 @@
       </c>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A343" s="51">
+      <c r="A343">
         <v>153</v>
       </c>
       <c r="B343">
@@ -30741,7 +30781,7 @@
       </c>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A344" s="51">
+      <c r="A344">
         <v>154</v>
       </c>
       <c r="B344">
@@ -30796,7 +30836,7 @@
       </c>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A345" s="51">
+      <c r="A345">
         <v>155</v>
       </c>
       <c r="B345">
@@ -30851,7 +30891,7 @@
       </c>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A346" s="51">
+      <c r="A346">
         <v>156</v>
       </c>
       <c r="B346">
@@ -30903,7 +30943,7 @@
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A347" s="51">
+      <c r="A347">
         <v>157</v>
       </c>
       <c r="B347">
@@ -30956,7 +30996,7 @@
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A348" s="51">
+      <c r="A348">
         <v>158</v>
       </c>
       <c r="B348">
@@ -31009,7 +31049,7 @@
       </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A349" s="51">
+      <c r="A349">
         <v>159</v>
       </c>
       <c r="B349">
@@ -31059,7 +31099,7 @@
       </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A350" s="51">
+      <c r="A350">
         <v>160</v>
       </c>
       <c r="B350">
@@ -31112,7 +31152,7 @@
       </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A351" s="51">
+      <c r="A351">
         <v>161</v>
       </c>
       <c r="B351">
@@ -31165,7 +31205,7 @@
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A352" s="51">
+      <c r="A352">
         <v>162</v>
       </c>
       <c r="B352">
@@ -31215,7 +31255,7 @@
       </c>
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A353" s="51">
+      <c r="A353">
         <v>163</v>
       </c>
       <c r="B353">
@@ -31268,7 +31308,7 @@
       </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A354" s="51">
+      <c r="A354">
         <v>164</v>
       </c>
       <c r="B354">
@@ -31321,7 +31361,7 @@
       </c>
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A355" s="51">
+      <c r="A355">
         <v>165</v>
       </c>
       <c r="B355">
@@ -31374,7 +31414,7 @@
       </c>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A356" s="51">
+      <c r="A356">
         <v>166</v>
       </c>
       <c r="B356">
@@ -31426,7 +31466,7 @@
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A357" s="51">
+      <c r="A357">
         <v>167</v>
       </c>
       <c r="B357">
@@ -31481,7 +31521,7 @@
       </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A358" s="51">
+      <c r="A358">
         <v>168</v>
       </c>
       <c r="B358">
@@ -31533,7 +31573,7 @@
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A359" s="51">
+      <c r="A359">
         <v>169</v>
       </c>
       <c r="B359">
@@ -31588,7 +31628,7 @@
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A360" s="51">
+      <c r="A360">
         <v>170</v>
       </c>
       <c r="B360">
@@ -31638,7 +31678,7 @@
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A361" s="51">
+      <c r="A361">
         <v>171</v>
       </c>
       <c r="B361">
@@ -31691,7 +31731,7 @@
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A362" s="51">
+      <c r="A362">
         <v>172</v>
       </c>
       <c r="B362">
@@ -31740,7 +31780,7 @@
       </c>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A363" s="51">
+      <c r="A363">
         <v>173</v>
       </c>
       <c r="B363">
@@ -31774,7 +31814,7 @@
       </c>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A364" s="51">
+      <c r="A364">
         <v>174</v>
       </c>
       <c r="B364">
@@ -31826,7 +31866,7 @@
       </c>
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A365" s="51">
+      <c r="A365">
         <v>175</v>
       </c>
       <c r="B365">
@@ -31875,7 +31915,7 @@
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A366" s="51">
+      <c r="A366">
         <v>176</v>
       </c>
       <c r="B366">
@@ -31927,7 +31967,7 @@
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A367" s="51">
+      <c r="A367">
         <v>177</v>
       </c>
       <c r="B367">
@@ -31979,7 +32019,7 @@
       </c>
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A368" s="51">
+      <c r="A368">
         <v>178</v>
       </c>
       <c r="B368">
@@ -32034,7 +32074,7 @@
       </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A369" s="51">
+      <c r="A369">
         <v>179</v>
       </c>
       <c r="B369">
@@ -32089,7 +32129,7 @@
       </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A370" s="51">
+      <c r="A370">
         <v>180</v>
       </c>
       <c r="B370">
@@ -32141,7 +32181,7 @@
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A371" s="51">
+      <c r="A371">
         <v>181</v>
       </c>
       <c r="B371">
@@ -32196,7 +32236,7 @@
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A372" s="51">
+      <c r="A372">
         <v>182</v>
       </c>
       <c r="B372">
@@ -32248,7 +32288,7 @@
       </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A373" s="51">
+      <c r="A373">
         <v>183</v>
       </c>
       <c r="B373">
@@ -32298,7 +32338,7 @@
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A374" s="51">
+      <c r="A374">
         <v>184</v>
       </c>
       <c r="B374">
@@ -32348,7 +32388,7 @@
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A375" s="51">
+      <c r="A375">
         <v>185</v>
       </c>
       <c r="B375">
@@ -32398,7 +32438,7 @@
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A376" s="51">
+      <c r="A376">
         <v>186</v>
       </c>
       <c r="B376">
@@ -32448,7 +32488,7 @@
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A377" s="51">
+      <c r="A377">
         <v>187</v>
       </c>
       <c r="B377">
@@ -32498,7 +32538,7 @@
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A378" s="51">
+      <c r="A378">
         <v>188</v>
       </c>
       <c r="B378">
@@ -32548,7 +32588,7 @@
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A379" s="51">
+      <c r="A379">
         <v>189</v>
       </c>
       <c r="B379">
@@ -32598,7 +32638,7 @@
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A380" s="51">
+      <c r="A380">
         <v>190</v>
       </c>
       <c r="B380">
@@ -32648,7 +32688,7 @@
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A381" s="51">
+      <c r="A381">
         <v>191</v>
       </c>
       <c r="B381">
@@ -32698,7 +32738,7 @@
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A382" s="51">
+      <c r="A382">
         <v>192</v>
       </c>
       <c r="B382">
@@ -32744,7 +32784,7 @@
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A383" s="51">
+      <c r="A383">
         <v>193</v>
       </c>
       <c r="B383">
@@ -32789,7 +32829,7 @@
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A384" s="51">
+      <c r="A384">
         <v>194</v>
       </c>
       <c r="B384">
@@ -32834,7 +32874,7 @@
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A385" s="51">
+      <c r="A385">
         <v>195</v>
       </c>
       <c r="B385">
@@ -32879,7 +32919,7 @@
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A386" s="51">
+      <c r="A386">
         <v>196</v>
       </c>
       <c r="B386">
@@ -32915,7 +32955,7 @@
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A387" s="51">
+      <c r="A387">
         <v>197</v>
       </c>
       <c r="B387">
@@ -32928,22 +32968,22 @@
         <f>SUM($E387:$J387)</f>
         <v>499</v>
       </c>
-      <c r="E387" s="53">
+      <c r="E387" s="2">
         <v>115</v>
       </c>
-      <c r="F387" s="54">
+      <c r="F387" s="3">
         <v>105</v>
       </c>
-      <c r="G387" s="55">
+      <c r="G387" s="4">
         <v>55</v>
       </c>
-      <c r="H387" s="56">
+      <c r="H387" s="5">
         <v>105</v>
       </c>
-      <c r="I387" s="55">
+      <c r="I387" s="4">
         <v>60</v>
       </c>
-      <c r="J387" s="57">
+      <c r="J387" s="6">
         <v>59</v>
       </c>
       <c r="K387">
@@ -32951,7 +32991,7 @@
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A388" s="51">
+      <c r="A388">
         <v>198</v>
       </c>
       <c r="B388">
@@ -32987,7 +33027,7 @@
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A389" s="51">
+      <c r="A389">
         <v>199</v>
       </c>
       <c r="B389">
@@ -33000,22 +33040,22 @@
         <f>SUM($E389:$J389)</f>
         <v>525</v>
       </c>
-      <c r="E389" s="53">
+      <c r="E389" s="2">
         <v>83</v>
       </c>
-      <c r="F389" s="54">
+      <c r="F389" s="3">
         <v>55</v>
       </c>
-      <c r="G389" s="55">
+      <c r="G389" s="4">
         <v>90</v>
       </c>
-      <c r="H389" s="56">
+      <c r="H389" s="5">
         <v>130</v>
       </c>
-      <c r="I389" s="55">
+      <c r="I389" s="4">
         <v>81</v>
       </c>
-      <c r="J389" s="57">
+      <c r="J389" s="6">
         <v>86</v>
       </c>
       <c r="K389">
@@ -33023,7 +33063,7 @@
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A390" s="51">
+      <c r="A390">
         <v>200</v>
       </c>
       <c r="B390">
@@ -33059,7 +33099,7 @@
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A391" s="51">
+      <c r="A391">
         <v>201</v>
       </c>
       <c r="B391">
@@ -33095,7 +33135,7 @@
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A392" s="51">
+      <c r="A392">
         <v>202</v>
       </c>
       <c r="B392">
@@ -33108,22 +33148,22 @@
         <f>SUM($E392:$J392)</f>
         <v>430</v>
       </c>
-      <c r="E392" s="59">
+      <c r="E392" s="45">
         <v>55</v>
       </c>
-      <c r="F392" s="60">
+      <c r="F392" s="46">
         <v>95</v>
       </c>
-      <c r="G392" s="61">
+      <c r="G392" s="47">
         <v>55</v>
       </c>
-      <c r="H392" s="62">
+      <c r="H392" s="48">
         <v>35</v>
       </c>
-      <c r="I392" s="61">
+      <c r="I392" s="47">
         <v>75</v>
       </c>
-      <c r="J392" s="63">
+      <c r="J392" s="49">
         <v>115</v>
       </c>
       <c r="K392">
@@ -33131,7 +33171,7 @@
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A393" s="51">
+      <c r="A393">
         <v>203</v>
       </c>
       <c r="B393">
@@ -33167,7 +33207,7 @@
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A394" s="51">
+      <c r="A394">
         <v>204</v>
       </c>
       <c r="B394">
@@ -33180,22 +33220,22 @@
         <f>SUM($E394:$J394)</f>
         <v>435</v>
       </c>
-      <c r="E394" s="53">
+      <c r="E394" s="2">
         <v>90</v>
       </c>
-      <c r="F394" s="54">
+      <c r="F394" s="3">
         <v>64</v>
       </c>
-      <c r="G394" s="55">
+      <c r="G394" s="4">
         <v>67</v>
       </c>
-      <c r="H394" s="56">
+      <c r="H394" s="5">
         <v>85</v>
       </c>
-      <c r="I394" s="55">
+      <c r="I394" s="4">
         <v>71</v>
       </c>
-      <c r="J394" s="57">
+      <c r="J394" s="6">
         <v>58</v>
       </c>
       <c r="K394">
@@ -33203,7 +33243,7 @@
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A395" s="51">
+      <c r="A395">
         <v>205</v>
       </c>
       <c r="B395">
@@ -33239,7 +33279,7 @@
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A396" s="51">
+      <c r="A396">
         <v>206</v>
       </c>
       <c r="B396">
@@ -33275,7 +33315,7 @@
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A397" s="51">
+      <c r="A397">
         <v>207</v>
       </c>
       <c r="B397">
@@ -33311,7 +33351,7 @@
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A398" s="51">
+      <c r="A398">
         <v>208</v>
       </c>
       <c r="B398">
@@ -33347,7 +33387,7 @@
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A399" s="51">
+      <c r="A399">
         <v>209</v>
       </c>
       <c r="B399">
@@ -33383,7 +33423,7 @@
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A400" s="51">
+      <c r="A400">
         <v>210</v>
       </c>
       <c r="B400">
@@ -33419,7 +33459,7 @@
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A401" s="51">
+      <c r="A401">
         <v>211</v>
       </c>
       <c r="B401">
@@ -33455,7 +33495,7 @@
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A402" s="51">
+      <c r="A402">
         <v>212</v>
       </c>
       <c r="B402">
@@ -33491,7 +33531,7 @@
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A403" s="51">
+      <c r="A403">
         <v>213</v>
       </c>
       <c r="B403">
@@ -33527,7 +33567,7 @@
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A404" s="51">
+      <c r="A404">
         <v>214</v>
       </c>
       <c r="B404">
@@ -33563,7 +33603,7 @@
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A405" s="51">
+      <c r="A405">
         <v>215</v>
       </c>
       <c r="B405">
@@ -33599,7 +33639,7 @@
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A406" s="51">
+      <c r="A406">
         <v>216</v>
       </c>
       <c r="B406">
@@ -33635,7 +33675,7 @@
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A407" s="51">
+      <c r="A407">
         <v>217</v>
       </c>
       <c r="B407">
@@ -33671,7 +33711,7 @@
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A408" s="51">
+      <c r="A408">
         <v>218</v>
       </c>
       <c r="B408">
@@ -33707,7 +33747,7 @@
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A409" s="51">
+      <c r="A409">
         <v>219</v>
       </c>
       <c r="B409">
@@ -33743,7 +33783,7 @@
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A410" s="51">
+      <c r="A410">
         <v>220</v>
       </c>
       <c r="B410">
@@ -33785,7 +33825,7 @@
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A411" s="51">
+      <c r="A411">
         <v>221</v>
       </c>
       <c r="B411">
@@ -33806,7 +33846,7 @@
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A412" s="51">
+      <c r="A412">
         <v>222</v>
       </c>
       <c r="B412">
@@ -33821,7 +33861,7 @@
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A413" s="51">
+      <c r="A413">
         <v>223</v>
       </c>
       <c r="B413">
@@ -33857,7 +33897,7 @@
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A414" s="51">
+      <c r="A414">
         <v>224</v>
       </c>
       <c r="B414">
@@ -33893,7 +33933,7 @@
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A415" s="51">
+      <c r="A415">
         <v>225</v>
       </c>
       <c r="B415">
@@ -33929,7 +33969,7 @@
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A416" s="51">
+      <c r="A416">
         <v>226</v>
       </c>
       <c r="B416">
@@ -33965,7 +34005,7 @@
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A417" s="51">
+      <c r="A417">
         <v>227</v>
       </c>
       <c r="B417">
@@ -34001,7 +34041,7 @@
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A418" s="51">
+      <c r="A418">
         <v>228</v>
       </c>
       <c r="B418">
@@ -34040,7 +34080,7 @@
       </c>
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A419" s="51">
+      <c r="A419">
         <v>229</v>
       </c>
       <c r="B419">
@@ -34076,7 +34116,7 @@
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A420" s="51">
+      <c r="A420">
         <v>230</v>
       </c>
       <c r="B420">
@@ -34112,7 +34152,7 @@
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A421" s="51">
+      <c r="A421">
         <v>231</v>
       </c>
       <c r="B421">
@@ -34148,7 +34188,7 @@
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A422" s="51">
+      <c r="A422">
         <v>232</v>
       </c>
       <c r="B422">
@@ -34187,7 +34227,7 @@
       </c>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A423" s="51">
+      <c r="A423">
         <v>233</v>
       </c>
       <c r="B423">
@@ -34232,7 +34272,7 @@
       </c>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A424" s="51">
+      <c r="A424">
         <v>234</v>
       </c>
       <c r="B424">
@@ -34277,7 +34317,7 @@
       </c>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A425" s="51">
+      <c r="A425">
         <v>235</v>
       </c>
       <c r="B425">
@@ -34307,7 +34347,7 @@
       </c>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A426" s="51">
+      <c r="A426">
         <v>236</v>
       </c>
       <c r="B426">
@@ -34334,7 +34374,7 @@
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A427" s="51">
+      <c r="A427">
         <v>237</v>
       </c>
       <c r="B427">
@@ -34361,7 +34401,7 @@
       </c>
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A428" s="51">
+      <c r="A428">
         <v>238</v>
       </c>
       <c r="B428">
@@ -34391,7 +34431,7 @@
       </c>
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A429" s="51">
+      <c r="A429">
         <v>239</v>
       </c>
       <c r="B429">
@@ -34409,7 +34449,7 @@
       </c>
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A430" s="51">
+      <c r="A430">
         <v>240</v>
       </c>
       <c r="B430">
@@ -34445,7 +34485,7 @@
       </c>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A431" s="51">
+      <c r="A431">
         <v>241</v>
       </c>
       <c r="B431">
@@ -34481,7 +34521,7 @@
       </c>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A432" s="51">
+      <c r="A432">
         <v>242</v>
       </c>
       <c r="B432">
@@ -34517,7 +34557,7 @@
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A433" s="51">
+      <c r="A433">
         <v>243</v>
       </c>
       <c r="B433">
@@ -34553,7 +34593,7 @@
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A434" s="51">
+      <c r="A434">
         <v>244</v>
       </c>
       <c r="B434">
@@ -34589,7 +34629,7 @@
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A435" s="51">
+      <c r="A435">
         <v>245</v>
       </c>
       <c r="B435">
@@ -34625,7 +34665,7 @@
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A436" s="51">
+      <c r="A436">
         <v>246</v>
       </c>
       <c r="B436">
@@ -34661,7 +34701,7 @@
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A437" s="51">
+      <c r="A437">
         <v>247</v>
       </c>
       <c r="B437">
@@ -34670,7 +34710,7 @@
       <c r="C437" t="s">
         <v>570</v>
       </c>
-      <c r="D437" s="52">
+      <c r="D437" s="1">
         <f>SUM($E437:$J437)</f>
         <v>700</v>
       </c>
@@ -34706,7 +34746,7 @@
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A438" s="51">
+      <c r="A438">
         <v>248</v>
       </c>
       <c r="B438">
@@ -34715,7 +34755,7 @@
       <c r="C438" t="s">
         <v>1198</v>
       </c>
-      <c r="D438" s="52">
+      <c r="D438" s="1">
         <f>SUM($E438:$J438)</f>
         <v>680</v>
       </c>
@@ -34751,7 +34791,7 @@
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A439" s="51">
+      <c r="A439">
         <v>249</v>
       </c>
       <c r="B439">
@@ -34760,7 +34800,7 @@
       <c r="C439" t="s">
         <v>571</v>
       </c>
-      <c r="D439" s="52">
+      <c r="D439" s="1">
         <f>SUM($E439:$J439)</f>
         <v>670</v>
       </c>
@@ -34799,41 +34839,41 @@
       <c r="B440">
         <v>237</v>
       </c>
-      <c r="C440" s="51" t="s">
+      <c r="C440" t="s">
         <v>576</v>
       </c>
-      <c r="D440" s="52">
+      <c r="D440" s="1">
         <f>SUM($E440:$J440)</f>
         <v>550</v>
       </c>
-      <c r="E440" s="46">
+      <c r="E440" s="2">
         <v>110</v>
       </c>
-      <c r="F440" s="47">
+      <c r="F440" s="3">
         <v>100</v>
       </c>
-      <c r="G440" s="48">
+      <c r="G440" s="4">
         <v>75</v>
       </c>
-      <c r="H440" s="49">
+      <c r="H440" s="5">
         <v>100</v>
       </c>
-      <c r="I440" s="48">
+      <c r="I440" s="4">
         <v>75</v>
       </c>
-      <c r="J440" s="50">
+      <c r="J440" s="6">
         <v>90</v>
       </c>
-      <c r="K440" s="45">
+      <c r="K440">
         <v>550</v>
       </c>
-      <c r="L440" s="45" t="s">
+      <c r="L440" t="s">
         <v>661</v>
       </c>
-      <c r="M440" s="45" t="s">
+      <c r="M440" t="s">
         <v>1223</v>
       </c>
-      <c r="N440" s="45" t="s">
+      <c r="N440" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -34841,41 +34881,41 @@
       <c r="B441">
         <v>291</v>
       </c>
-      <c r="C441" s="51" t="s">
+      <c r="C441" t="s">
         <v>1199</v>
       </c>
-      <c r="D441" s="52">
+      <c r="D441" s="1">
         <f>SUM($E441:$J441)</f>
         <v>754</v>
       </c>
-      <c r="E441" s="46">
+      <c r="E441" s="2">
         <v>97</v>
       </c>
-      <c r="F441" s="47">
+      <c r="F441" s="3">
         <v>147</v>
       </c>
-      <c r="G441" s="48">
+      <c r="G441" s="4">
         <v>97</v>
       </c>
-      <c r="H441" s="49">
+      <c r="H441" s="5">
         <v>187</v>
       </c>
-      <c r="I441" s="48">
+      <c r="I441" s="4">
         <v>97</v>
       </c>
-      <c r="J441" s="50">
+      <c r="J441" s="6">
         <v>129</v>
       </c>
-      <c r="K441" s="45">
+      <c r="K441">
         <v>754</v>
       </c>
-      <c r="L441" s="45" t="s">
+      <c r="L441" t="s">
         <v>661</v>
       </c>
-      <c r="M441" s="45" t="s">
+      <c r="M441" t="s">
         <v>1224</v>
       </c>
-      <c r="N441" s="45" t="s">
+      <c r="N441" t="s">
         <v>1148</v>
       </c>
     </row>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8324F6-77A0-4063-879C-8D69ABD4B276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD27B472-5558-4534-BD7A-33009B5BB83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="28680" yWindow="-12510" windowWidth="16440" windowHeight="28440" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4728,13 +4729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI59" sqref="AI59"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G413" sqref="G413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
@@ -4744,21 +4745,21 @@
     <col min="10" max="10" width="11" style="6" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
     <col min="23" max="23" width="15" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" customWidth="1"/>
-    <col min="27" max="29" width="10.88671875" customWidth="1"/>
-    <col min="30" max="32" width="7.6640625" customWidth="1"/>
-    <col min="33" max="33" width="11.44140625" customWidth="1"/>
-    <col min="34" max="47" width="7.6640625" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" customWidth="1"/>
+    <col min="27" max="29" width="10.85546875" customWidth="1"/>
+    <col min="30" max="32" width="7.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="34" max="47" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>-1</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>-2</v>
       </c>
@@ -4944,7 +4945,7 @@
       <c r="AR2" s="18"/>
       <c r="AT2" s="17"/>
     </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-3</v>
       </c>
@@ -5017,7 +5018,7 @@
       <c r="AR3" s="17"/>
       <c r="AU3" s="19"/>
     </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-4</v>
       </c>
@@ -5085,7 +5086,7 @@
       <c r="AN4" s="17"/>
       <c r="AP4" s="18"/>
     </row>
-    <row r="5" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-5</v>
       </c>
@@ -5158,7 +5159,7 @@
       <c r="AS5" s="17"/>
       <c r="AU5" s="18"/>
     </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-6</v>
       </c>
@@ -5225,7 +5226,7 @@
       <c r="AP6" s="18"/>
       <c r="AR6" s="17"/>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-7</v>
       </c>
@@ -5292,7 +5293,7 @@
       <c r="AP7" s="17"/>
       <c r="AR7" s="18"/>
     </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-8</v>
       </c>
@@ -5363,7 +5364,7 @@
       <c r="AT8" s="18"/>
       <c r="AU8" s="18"/>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>-9</v>
       </c>
@@ -5432,7 +5433,7 @@
       <c r="AR9" s="19"/>
       <c r="AT9" s="17"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-10</v>
       </c>
@@ -5496,7 +5497,7 @@
       <c r="AR10" s="17"/>
       <c r="AU10" s="18"/>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>-11</v>
       </c>
@@ -5557,7 +5558,7 @@
       <c r="AR11" s="18"/>
       <c r="AU11" s="17"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-12</v>
       </c>
@@ -5617,7 +5618,7 @@
       <c r="AQ12" s="19"/>
       <c r="AT12" s="18"/>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-13</v>
       </c>
@@ -5683,7 +5684,7 @@
       <c r="AS13" s="17"/>
       <c r="AU13" s="18"/>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>-14</v>
       </c>
@@ -5740,7 +5741,7 @@
       <c r="AR14" s="18"/>
       <c r="AU14" s="17"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>-15</v>
       </c>
@@ -5795,7 +5796,7 @@
       <c r="AQ15" s="18"/>
       <c r="AS15" s="18"/>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-16</v>
       </c>
@@ -5847,7 +5848,7 @@
       <c r="AR16" s="18"/>
       <c r="AT16" s="19"/>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>-17</v>
       </c>
@@ -5907,7 +5908,7 @@
       <c r="AQ17" s="18"/>
       <c r="AS17" s="18"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>-18</v>
       </c>
@@ -5973,7 +5974,7 @@
       <c r="AS18" s="17"/>
       <c r="AT18" s="18"/>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>-19</v>
       </c>
@@ -6037,7 +6038,7 @@
       <c r="AS19" s="18"/>
       <c r="AU19" s="17"/>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>-20</v>
       </c>
@@ -6098,7 +6099,7 @@
       <c r="AR20" s="17"/>
       <c r="AT20" s="18"/>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>-21</v>
       </c>
@@ -6151,7 +6152,7 @@
       <c r="AR21" s="18"/>
       <c r="AS21" s="18"/>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>-22</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>-23</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-24</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>-25</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>-26</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>-27</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>-28</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>-29</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>-30</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>-31</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>-32</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>-33</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>-34</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>-35</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>-36</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>-37</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>-38</v>
       </c>
@@ -7229,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>-39</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>-40</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>-41</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>-42</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>-43</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>-44</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>-45</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>-46</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>-47</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>-48</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>-49</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>-50</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>-51</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>-52</v>
       </c>
@@ -8206,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>-53</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>-54</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>-55</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>-56</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>-57</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>-58</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>-59</v>
       </c>
@@ -8801,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>-60</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>-61</v>
       </c>
@@ -8980,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>-62</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>-63</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>-64</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>-65</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>-66</v>
       </c>
@@ -9420,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>-67</v>
       </c>
@@ -9508,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>-68</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>-69</v>
       </c>
@@ -9684,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>-70</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>-71</v>
       </c>
@@ -9860,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>-72</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>-73</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>-74</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>-75</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>-76</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>-77</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>-78</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>-79</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>-80</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>-81</v>
       </c>
@@ -10603,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>-82</v>
       </c>
@@ -10667,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>-83</v>
       </c>
@@ -10731,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>-84</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>-85</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>-86</v>
       </c>
@@ -10926,7 +10927,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>-87</v>
       </c>
@@ -10990,7 +10991,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>-88</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>-89</v>
       </c>
@@ -11118,7 +11119,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>-90</v>
       </c>
@@ -11182,7 +11183,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>-91</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="92" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>-92</v>
       </c>
@@ -11310,7 +11311,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>-93</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>-94</v>
       </c>
@@ -11438,7 +11439,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>-95</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>-96</v>
       </c>
@@ -11566,7 +11567,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>-97</v>
       </c>
@@ -11630,7 +11631,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>-98</v>
       </c>
@@ -11694,7 +11695,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="99" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>-99</v>
       </c>
@@ -11758,7 +11759,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>-100</v>
       </c>
@@ -11822,7 +11823,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="101" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>-101</v>
       </c>
@@ -11886,7 +11887,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>-102</v>
       </c>
@@ -11950,7 +11951,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>-103</v>
       </c>
@@ -12017,7 +12018,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>-104</v>
       </c>
@@ -12081,7 +12082,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>-105</v>
       </c>
@@ -12145,7 +12146,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>-106</v>
       </c>
@@ -12209,7 +12210,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>-107</v>
       </c>
@@ -12273,7 +12274,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>-108</v>
       </c>
@@ -12337,7 +12338,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>-109</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>-110</v>
       </c>
@@ -12465,7 +12466,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>-111</v>
       </c>
@@ -12529,7 +12530,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>-112</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>-113</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>-114</v>
       </c>
@@ -12721,7 +12722,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>-115</v>
       </c>
@@ -12785,7 +12786,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>-116</v>
       </c>
@@ -12849,7 +12850,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>-117</v>
       </c>
@@ -12913,7 +12914,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>-118</v>
       </c>
@@ -12977,7 +12978,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>-119</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>-120</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>-121</v>
       </c>
@@ -13169,7 +13170,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>-122</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>-123</v>
       </c>
@@ -13297,7 +13298,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="124" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>-124</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>-125</v>
       </c>
@@ -13425,7 +13426,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="126" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>-126</v>
       </c>
@@ -13489,7 +13490,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="127" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>-127</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>-128</v>
       </c>
@@ -13617,7 +13618,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>-129</v>
       </c>
@@ -13681,7 +13682,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>-130</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="131" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>-131</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="132" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>-132</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="133" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>-133</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="134" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>-134</v>
       </c>
@@ -14001,7 +14002,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>-135</v>
       </c>
@@ -14065,7 +14066,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>-136</v>
       </c>
@@ -14129,7 +14130,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>-137</v>
       </c>
@@ -14193,7 +14194,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>-138</v>
       </c>
@@ -14260,7 +14261,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>-139</v>
       </c>
@@ -14324,7 +14325,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>-140</v>
       </c>
@@ -14388,7 +14389,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>-141</v>
       </c>
@@ -14459,7 +14460,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>-142</v>
       </c>
@@ -14533,7 +14534,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>-143</v>
       </c>
@@ -14604,7 +14605,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="144" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>-144</v>
       </c>
@@ -14687,7 +14688,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1218</v>
       </c>
@@ -14763,7 +14764,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -14864,7 +14865,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -14962,7 +14963,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -15060,7 +15061,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -15158,7 +15159,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -15256,7 +15257,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -15351,7 +15352,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -15452,7 +15453,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>13</v>
       </c>
@@ -15743,7 +15744,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>14</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>15</v>
       </c>
@@ -15939,7 +15940,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>10</v>
       </c>
@@ -16037,7 +16038,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11</v>
       </c>
@@ -16135,7 +16136,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>12</v>
       </c>
@@ -16230,7 +16231,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>16</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>17</v>
       </c>
@@ -16426,7 +16427,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>18</v>
       </c>
@@ -16524,7 +16525,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>41</v>
       </c>
@@ -16625,7 +16626,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>42</v>
       </c>
@@ -16723,7 +16724,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>43</v>
       </c>
@@ -16818,7 +16819,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>19</v>
       </c>
@@ -16914,7 +16915,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>20</v>
       </c>
@@ -17010,7 +17011,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>21</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>22</v>
       </c>
@@ -17203,7 +17204,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>26</v>
       </c>
@@ -17299,7 +17300,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>27</v>
       </c>
@@ -17395,7 +17396,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>28</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>29</v>
       </c>
@@ -17580,7 +17581,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>30</v>
       </c>
@@ -17675,7 +17676,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>31</v>
       </c>
@@ -17767,7 +17768,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>32</v>
       </c>
@@ -17860,7 +17861,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>33</v>
       </c>
@@ -17953,7 +17954,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>34</v>
       </c>
@@ -18043,7 +18044,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>122</v>
       </c>
@@ -18136,7 +18137,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>123</v>
       </c>
@@ -18229,7 +18230,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>124</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>38</v>
       </c>
@@ -18411,7 +18412,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>39</v>
       </c>
@@ -18509,7 +18510,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>40</v>
       </c>
@@ -18604,7 +18605,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>35</v>
       </c>
@@ -18699,7 +18700,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>36</v>
       </c>
@@ -18794,7 +18795,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>37</v>
       </c>
@@ -18886,7 +18887,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>60</v>
       </c>
@@ -18979,7 +18980,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>61</v>
       </c>
@@ -19072,7 +19073,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>62</v>
       </c>
@@ -19162,7 +19163,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>129</v>
       </c>
@@ -19248,7 +19249,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>125</v>
       </c>
@@ -19337,7 +19338,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>126</v>
       </c>
@@ -19432,7 +19433,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>127</v>
       </c>
@@ -19524,7 +19525,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>128</v>
       </c>
@@ -19619,7 +19620,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>107</v>
       </c>
@@ -19714,7 +19715,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>108</v>
       </c>
@@ -19809,7 +19810,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>109</v>
       </c>
@@ -19901,7 +19902,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>130</v>
       </c>
@@ -19996,7 +19997,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>131</v>
       </c>
@@ -20088,7 +20089,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>180</v>
       </c>
@@ -20180,7 +20181,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>181</v>
       </c>
@@ -20269,7 +20270,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>84</v>
       </c>
@@ -20361,7 +20362,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>85</v>
       </c>
@@ -20450,7 +20451,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -20539,7 +20540,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>162</v>
       </c>
@@ -20631,7 +20632,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>163</v>
       </c>
@@ -20717,7 +20718,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>205</v>
       </c>
@@ -20804,7 +20805,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>206</v>
       </c>
@@ -20888,7 +20889,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>207</v>
       </c>
@@ -20977,7 +20978,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>208</v>
       </c>
@@ -21063,7 +21064,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>186</v>
       </c>
@@ -21152,7 +21153,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>187</v>
       </c>
@@ -21241,7 +21242,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>188</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>81</v>
       </c>
@@ -21416,7 +21417,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>82</v>
       </c>
@@ -21502,7 +21503,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>94</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>95</v>
       </c>
@@ -21683,7 +21684,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>49</v>
       </c>
@@ -21772,7 +21773,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>50</v>
       </c>
@@ -21861,7 +21862,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>51</v>
       </c>
@@ -21947,7 +21948,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>189</v>
       </c>
@@ -22039,7 +22040,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>190</v>
       </c>
@@ -22125,7 +22126,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>178</v>
       </c>
@@ -22214,7 +22215,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>179</v>
       </c>
@@ -22300,7 +22301,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>132</v>
       </c>
@@ -22386,7 +22387,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>133</v>
       </c>
@@ -22475,7 +22476,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>134</v>
       </c>
@@ -22576,7 +22577,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>63</v>
       </c>
@@ -22674,7 +22675,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>64</v>
       </c>
@@ -22772,7 +22773,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>65</v>
       </c>
@@ -22867,7 +22868,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>66</v>
       </c>
@@ -22965,7 +22966,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>83</v>
       </c>
@@ -23060,7 +23061,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>137</v>
       </c>
@@ -23158,7 +23159,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>138</v>
       </c>
@@ -23253,7 +23254,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>52</v>
       </c>
@@ -23351,7 +23352,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>53</v>
       </c>
@@ -23446,7 +23447,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>54</v>
       </c>
@@ -23544,7 +23545,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>55</v>
       </c>
@@ -23642,7 +23643,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>56</v>
       </c>
@@ -23737,7 +23738,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>191</v>
       </c>
@@ -23829,7 +23830,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>209</v>
       </c>
@@ -23923,7 +23924,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>210</v>
       </c>
@@ -24016,7 +24017,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>211</v>
       </c>
@@ -24106,7 +24107,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>101</v>
       </c>
@@ -24201,7 +24202,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>102</v>
       </c>
@@ -24296,7 +24297,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>103</v>
       </c>
@@ -24388,7 +24389,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>96</v>
       </c>
@@ -24486,7 +24487,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>97</v>
       </c>
@@ -24581,7 +24582,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>92</v>
       </c>
@@ -24676,7 +24677,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>93</v>
       </c>
@@ -24768,7 +24769,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>110</v>
       </c>
@@ -24852,7 +24853,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>111</v>
       </c>
@@ -24942,7 +24943,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>112</v>
       </c>
@@ -25035,7 +25036,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>164</v>
       </c>
@@ -25130,7 +25131,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>165</v>
       </c>
@@ -25225,7 +25226,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>166</v>
       </c>
@@ -25317,7 +25318,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>139</v>
       </c>
@@ -25412,7 +25413,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>140</v>
       </c>
@@ -25507,7 +25508,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>141</v>
       </c>
@@ -25599,7 +25600,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>151</v>
       </c>
@@ -25694,7 +25695,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>152</v>
       </c>
@@ -25789,7 +25790,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>153</v>
       </c>
@@ -25884,7 +25885,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>142</v>
       </c>
@@ -25980,7 +25981,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>143</v>
       </c>
@@ -26076,7 +26077,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>144</v>
       </c>
@@ -26169,7 +26170,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>145</v>
       </c>
@@ -26262,7 +26263,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>146</v>
       </c>
@@ -26355,7 +26356,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>147</v>
       </c>
@@ -26448,7 +26449,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>148</v>
       </c>
@@ -26544,7 +26545,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>149</v>
       </c>
@@ -26628,7 +26629,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>150</v>
       </c>
@@ -26709,7 +26710,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>78</v>
       </c>
@@ -26793,7 +26794,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>79</v>
       </c>
@@ -26874,7 +26875,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>80</v>
       </c>
@@ -26964,7 +26965,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>192</v>
       </c>
@@ -27057,7 +27058,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>193</v>
       </c>
@@ -27147,7 +27148,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>154</v>
       </c>
@@ -27240,7 +27241,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>155</v>
       </c>
@@ -27330,7 +27331,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>156</v>
       </c>
@@ -27420,7 +27421,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>167</v>
       </c>
@@ -27513,7 +27514,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>168</v>
       </c>
@@ -27603,7 +27604,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>182</v>
       </c>
@@ -27695,7 +27696,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>183</v>
       </c>
@@ -27784,7 +27785,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>212</v>
       </c>
@@ -27858,7 +27859,7 @@
         <v>0.22</v>
       </c>
       <c r="AD286" s="37">
-        <f t="shared" ref="AD286:AD349" si="18">AC286*AB286</f>
+        <f t="shared" ref="AD286:AD325" si="18">AC286*AB286</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="AF286">
@@ -27874,7 +27875,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>213</v>
       </c>
@@ -27961,7 +27962,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>159</v>
       </c>
@@ -28051,7 +28052,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>160</v>
       </c>
@@ -28141,7 +28142,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>161</v>
       </c>
@@ -28228,7 +28229,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>174</v>
       </c>
@@ -28318,7 +28319,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>175</v>
       </c>
@@ -28405,7 +28406,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>176</v>
       </c>
@@ -28495,7 +28496,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>177</v>
       </c>
@@ -28582,7 +28583,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>217</v>
       </c>
@@ -28669,7 +28670,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>44</v>
       </c>
@@ -28764,7 +28765,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>45</v>
       </c>
@@ -28856,7 +28857,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>119</v>
       </c>
@@ -28951,7 +28952,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>120</v>
       </c>
@@ -29046,7 +29047,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>121</v>
       </c>
@@ -29138,7 +29139,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>194</v>
       </c>
@@ -29233,7 +29234,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>195</v>
       </c>
@@ -29325,7 +29326,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>196</v>
       </c>
@@ -29420,7 +29421,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>197</v>
       </c>
@@ -29512,7 +29513,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>169</v>
       </c>
@@ -29602,7 +29603,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>170</v>
       </c>
@@ -29692,7 +29693,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>171</v>
       </c>
@@ -29782,7 +29783,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>72</v>
       </c>
@@ -29872,7 +29873,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>73</v>
       </c>
@@ -29962,7 +29963,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>74</v>
       </c>
@@ -30049,7 +30050,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>75</v>
       </c>
@@ -30141,7 +30142,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>76</v>
       </c>
@@ -30233,7 +30234,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>77</v>
       </c>
@@ -30322,7 +30323,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>115</v>
       </c>
@@ -30414,7 +30415,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>116</v>
       </c>
@@ -30503,7 +30504,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>69</v>
       </c>
@@ -30595,7 +30596,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>70</v>
       </c>
@@ -30687,7 +30688,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>71</v>
       </c>
@@ -30776,7 +30777,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>57</v>
       </c>
@@ -30866,7 +30867,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>58</v>
       </c>
@@ -30956,7 +30957,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>59</v>
       </c>
@@ -31043,7 +31044,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>67</v>
       </c>
@@ -31133,7 +31134,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>68</v>
       </c>
@@ -31220,7 +31221,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>117</v>
       </c>
@@ -31310,7 +31311,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>118</v>
       </c>
@@ -31397,7 +31398,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>214</v>
       </c>
@@ -31458,7 +31459,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>215</v>
       </c>
@@ -31522,7 +31523,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>216</v>
       </c>
@@ -31586,7 +31587,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>228</v>
       </c>
@@ -31645,7 +31646,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>229</v>
       </c>
@@ -31704,7 +31705,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>230</v>
       </c>
@@ -31763,7 +31764,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>231</v>
       </c>
@@ -31825,7 +31826,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>232</v>
       </c>
@@ -31887,7 +31888,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>233</v>
       </c>
@@ -31943,7 +31944,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>225</v>
       </c>
@@ -31998,7 +31999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>226</v>
       </c>
@@ -32053,7 +32054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>227</v>
       </c>
@@ -32105,7 +32106,7 @@
         <v>Galactasolder</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>218</v>
       </c>
@@ -32160,7 +32161,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>219</v>
       </c>
@@ -32212,7 +32213,7 @@
         <v>Cosmocrash</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>223</v>
       </c>
@@ -32267,7 +32268,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>224</v>
       </c>
@@ -32319,7 +32320,7 @@
         <v>Stellarock</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="10">
         <v>-10</v>
       </c>
@@ -32374,7 +32375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="10">
         <v>-11</v>
       </c>
@@ -32426,7 +32427,7 @@
         <v>Hast-E</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="10">
         <v>-7</v>
       </c>
@@ -32481,7 +32482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="10">
         <v>-8</v>
       </c>
@@ -32536,7 +32537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="10">
         <v>-9</v>
       </c>
@@ -32588,7 +32589,7 @@
         <v>Soldrota-E</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="10">
         <v>-14</v>
       </c>
@@ -32641,7 +32642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="10">
         <v>-15</v>
       </c>
@@ -32694,7 +32695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="10">
         <v>-16</v>
       </c>
@@ -32744,7 +32745,7 @@
         <v>Blastflames-E</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="10">
         <v>-1</v>
       </c>
@@ -32797,7 +32798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="10">
         <v>-2</v>
       </c>
@@ -32850,7 +32851,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="10">
         <v>-3</v>
       </c>
@@ -32900,7 +32901,7 @@
         <v>Blaster-E</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="10">
         <v>-4</v>
       </c>
@@ -32953,7 +32954,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="10">
         <v>-5</v>
       </c>
@@ -33006,7 +33007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="10">
         <v>-6</v>
       </c>
@@ -33059,7 +33060,7 @@
         <v>Gyarados-E</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="10">
         <v>-17</v>
       </c>
@@ -33111,7 +33112,7 @@
         <v>Shockfang</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="10">
         <v>-18</v>
       </c>
@@ -33166,7 +33167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="50">
         <v>-17</v>
       </c>
@@ -33218,7 +33219,7 @@
         <v>Nightrex</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="50">
         <v>-18</v>
       </c>
@@ -33273,7 +33274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="50">
         <v>-15</v>
       </c>
@@ -33323,7 +33324,7 @@
         <v>Durfish-S</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="50">
         <v>-16</v>
       </c>
@@ -33376,7 +33377,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="50">
         <v>-1</v>
       </c>
@@ -33425,7 +33426,7 @@
         <v>Wormite-S</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" s="50">
         <v>-2</v>
       </c>
@@ -33477,7 +33478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="50">
         <v>-3</v>
       </c>
@@ -33529,7 +33530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" s="50">
         <v>-12</v>
       </c>
@@ -33578,7 +33579,7 @@
         <v>Cluuz-S</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366" s="50">
         <v>-13</v>
       </c>
@@ -33630,7 +33631,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="50">
         <v>-14</v>
       </c>
@@ -33682,7 +33683,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368" s="50">
         <v>-4</v>
       </c>
@@ -33737,7 +33738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" s="50">
         <v>-5</v>
       </c>
@@ -33792,7 +33793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" s="50">
         <v>-6</v>
       </c>
@@ -33844,7 +33845,7 @@
         <v>Pyrator-S</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" s="50">
         <v>-7</v>
       </c>
@@ -33899,7 +33900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" s="50">
         <v>-8</v>
       </c>
@@ -33951,7 +33952,7 @@
         <v>Arbok-S</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>243</v>
       </c>
@@ -34001,7 +34002,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>240</v>
       </c>
@@ -34051,7 +34052,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>244</v>
       </c>
@@ -34101,7 +34102,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>242</v>
       </c>
@@ -34151,7 +34152,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>241</v>
       </c>
@@ -34201,7 +34202,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>245</v>
       </c>
@@ -34251,7 +34252,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>246</v>
       </c>
@@ -34301,7 +34302,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>247</v>
       </c>
@@ -34351,7 +34352,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>249</v>
       </c>
@@ -34401,7 +34402,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>237</v>
       </c>
@@ -34444,7 +34445,7 @@
         <v>Kissyfishy-D</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>89</v>
       </c>
@@ -34489,7 +34490,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>90</v>
       </c>
@@ -34534,7 +34535,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>91</v>
       </c>
@@ -34579,7 +34580,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>198</v>
       </c>
@@ -34615,7 +34616,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>199</v>
       </c>
@@ -34651,7 +34652,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>46</v>
       </c>
@@ -34687,7 +34688,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>47</v>
       </c>
@@ -34723,7 +34724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>48</v>
       </c>
@@ -34759,7 +34760,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>220</v>
       </c>
@@ -34795,7 +34796,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>200</v>
       </c>
@@ -34831,7 +34832,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>201</v>
       </c>
@@ -34867,7 +34868,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>202</v>
       </c>
@@ -34903,7 +34904,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>203</v>
       </c>
@@ -34939,7 +34940,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="51">
         <v>-3</v>
       </c>
@@ -34975,7 +34976,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="51">
         <v>-4</v>
       </c>
@@ -35011,7 +35012,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" s="51">
         <v>-5</v>
       </c>
@@ -35047,7 +35048,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>86</v>
       </c>
@@ -35083,7 +35084,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>87</v>
       </c>
@@ -35119,7 +35120,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>88</v>
       </c>
@@ -35155,7 +35156,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>172</v>
       </c>
@@ -35191,7 +35192,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>173</v>
       </c>
@@ -35209,7 +35210,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="51">
         <v>-6</v>
       </c>
@@ -35245,7 +35246,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="51">
         <v>-7</v>
       </c>
@@ -35281,7 +35282,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>157</v>
       </c>
@@ -35317,7 +35318,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>158</v>
       </c>
@@ -35353,7 +35354,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>221</v>
       </c>
@@ -35368,7 +35369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>222</v>
       </c>
@@ -35383,7 +35384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>184</v>
       </c>
@@ -35425,7 +35426,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>185</v>
       </c>
@@ -35467,7 +35468,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="10">
         <v>-12</v>
       </c>
@@ -35479,10 +35480,31 @@
       </c>
       <c r="D412" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="E412" s="2">
+        <v>75</v>
+      </c>
+      <c r="F412" s="3">
+        <v>55</v>
+      </c>
+      <c r="G412" s="4">
+        <v>55</v>
+      </c>
+      <c r="H412" s="5">
+        <v>75</v>
+      </c>
+      <c r="I412" s="4">
+        <v>45</v>
+      </c>
+      <c r="J412" s="6">
+        <v>30</v>
+      </c>
+      <c r="K412">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="10">
         <v>-13</v>
       </c>
@@ -35494,10 +35516,31 @@
       </c>
       <c r="D413" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="E413" s="2">
+        <v>95</v>
+      </c>
+      <c r="F413" s="3">
+        <v>85</v>
+      </c>
+      <c r="G413" s="4">
+        <v>70</v>
+      </c>
+      <c r="H413" s="5">
+        <v>130</v>
+      </c>
+      <c r="I413" s="4">
+        <v>65</v>
+      </c>
+      <c r="J413" s="6">
+        <v>40</v>
+      </c>
+      <c r="K413">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>23</v>
       </c>
@@ -35533,7 +35576,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="51">
         <v>-1</v>
       </c>
@@ -35569,7 +35612,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" s="51">
         <v>-2</v>
       </c>
@@ -35605,7 +35648,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>24</v>
       </c>
@@ -35641,7 +35684,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>25</v>
       </c>
@@ -35680,7 +35723,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="51">
         <v>-8</v>
       </c>
@@ -35716,7 +35759,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="51">
         <v>-9</v>
       </c>
@@ -35752,7 +35795,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>113</v>
       </c>
@@ -35764,13 +35807,31 @@
       </c>
       <c r="D421" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E421" s="2">
+        <v>57</v>
+      </c>
+      <c r="F421" s="3">
+        <v>14</v>
+      </c>
+      <c r="G421" s="4">
+        <v>76</v>
+      </c>
+      <c r="H421" s="5">
+        <v>44</v>
+      </c>
+      <c r="I421" s="4">
+        <v>86</v>
+      </c>
+      <c r="J421" s="6">
+        <v>23</v>
       </c>
       <c r="K421">
         <v>300</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>114</v>
       </c>
@@ -35782,7 +35843,25 @@
       </c>
       <c r="D422" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E422" s="2">
+        <v>67</v>
+      </c>
+      <c r="F422" s="3">
+        <v>99</v>
+      </c>
+      <c r="G422" s="4">
+        <v>111</v>
+      </c>
+      <c r="H422" s="5">
+        <v>79</v>
+      </c>
+      <c r="I422" s="4">
+        <v>111</v>
+      </c>
+      <c r="J422" s="6">
+        <v>33</v>
       </c>
       <c r="K422">
         <v>500</v>
@@ -35791,7 +35870,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>98</v>
       </c>
@@ -35836,7 +35915,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>99</v>
       </c>
@@ -35881,7 +35960,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>100</v>
       </c>
@@ -35929,7 +36008,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="50">
         <v>-9</v>
       </c>
@@ -35974,7 +36053,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="50">
         <v>-10</v>
       </c>
@@ -36019,7 +36098,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="50">
         <v>-11</v>
       </c>
@@ -36067,7 +36146,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>234</v>
       </c>
@@ -36103,7 +36182,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>235</v>
       </c>
@@ -36121,7 +36200,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>236</v>
       </c>
@@ -36139,7 +36218,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>237</v>
       </c>
@@ -36157,7 +36236,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>238</v>
       </c>
@@ -36175,7 +36254,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>239</v>
       </c>
@@ -36193,7 +36272,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>248</v>
       </c>
@@ -36229,7 +36308,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B436">
         <v>291</v>
       </c>
@@ -36262,7 +36341,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>104</v>
       </c>
@@ -36307,7 +36386,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>105</v>
       </c>
@@ -36352,7 +36431,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>106</v>
       </c>
@@ -36397,7 +36476,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>135</v>
       </c>
@@ -36442,7 +36521,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>136</v>
       </c>
@@ -36487,7 +36566,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C620">
         <f>MAX(C385:C618)</f>
         <v>0</v>

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaej\git\PokemonGame\PokemonGame\stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjkuhnke\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD27B472-5558-4534-BD7A-33009B5BB83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571EE047-D799-48C2-8CA1-D7F92407CC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12510" windowWidth="16440" windowHeight="28440" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1237">
   <si>
     <t>Leafer</t>
   </si>
@@ -3742,6 +3741,12 @@
   </si>
   <si>
     <t>Dusk Skater</t>
+  </si>
+  <si>
+    <t>Snom Lv 80ish</t>
+  </si>
+  <si>
+    <t>Dragee/Draga</t>
   </si>
 </sst>
 </file>
@@ -4729,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G413" sqref="G413"/>
+    <sheetView tabSelected="1" topLeftCell="Z28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM51" sqref="AM51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6607,16 +6612,25 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG30" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30" s="36">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:47" x14ac:dyDescent="0.25">
@@ -6674,16 +6688,25 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AG31" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31" s="36">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>480</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:47" x14ac:dyDescent="0.25">
@@ -6747,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -6758,8 +6781,17 @@
       <c r="AI32" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>-33</v>
       </c>
@@ -6829,19 +6861,28 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="AG33" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>-34</v>
       </c>
@@ -6908,10 +6949,10 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AH34">
         <v>0</v>
@@ -6919,8 +6960,17 @@
       <c r="AI34" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>537</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>-35</v>
       </c>
@@ -6987,19 +7037,28 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="AG35" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="AH35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ35" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>-36</v>
       </c>
@@ -7066,19 +7125,28 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AG36" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="AH36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>-37</v>
       </c>
@@ -7142,10 +7210,10 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AG37" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AH37">
         <v>0</v>
@@ -7153,8 +7221,17 @@
       <c r="AI37" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>804</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>-38</v>
       </c>
@@ -7218,10 +7295,10 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="AH38">
         <v>0</v>
@@ -7229,8 +7306,17 @@
       <c r="AI38" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>-39</v>
       </c>
@@ -7294,10 +7380,10 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -7305,8 +7391,17 @@
       <c r="AI39" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ39" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>-40</v>
       </c>
@@ -7370,10 +7465,10 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AG40" t="s">
-        <v>568</v>
+        <v>805</v>
       </c>
       <c r="AH40">
         <v>0</v>
@@ -7381,8 +7476,17 @@
       <c r="AI40" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ40" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>-41</v>
       </c>
@@ -7443,10 +7547,10 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AG41" t="s">
-        <v>569</v>
+        <v>1151</v>
       </c>
       <c r="AH41">
         <v>0</v>
@@ -7454,8 +7558,17 @@
       <c r="AI41" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ41" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>-42</v>
       </c>
@@ -7516,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="AG42" t="s">
-        <v>570</v>
+        <v>1155</v>
       </c>
       <c r="AH42">
         <v>0</v>
@@ -7527,8 +7640,17 @@
       <c r="AI42" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ42" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>-43</v>
       </c>
@@ -7592,10 +7714,10 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="AG43" t="s">
-        <v>571</v>
+        <v>1154</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -7603,8 +7725,17 @@
       <c r="AI43" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ43" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>-44</v>
       </c>
@@ -7665,10 +7796,10 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="AG44" t="s">
-        <v>576</v>
+        <v>1159</v>
       </c>
       <c r="AH44">
         <v>0</v>
@@ -7676,8 +7807,17 @@
       <c r="AI44" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>-45</v>
       </c>
@@ -7735,10 +7875,10 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="AG45" t="s">
-        <v>805</v>
+        <v>1161</v>
       </c>
       <c r="AH45">
         <v>0</v>
@@ -7746,8 +7886,17 @@
       <c r="AI45" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ45" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>-46</v>
       </c>
@@ -7802,10 +7951,10 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AG46" t="s">
-        <v>1151</v>
+        <v>1162</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -7813,8 +7962,17 @@
       <c r="AI46" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ46" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>-47</v>
       </c>
@@ -7869,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="AH47">
         <v>0</v>
@@ -7880,8 +8038,17 @@
       <c r="AI47" s="36">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ47" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>-48</v>
       </c>
@@ -7936,16 +8103,25 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AG48" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
       <c r="AH48">
         <v>0</v>
       </c>
       <c r="AI48" s="36">
         <v>0</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="49" spans="2:35" x14ac:dyDescent="0.25">
@@ -8000,10 +8176,10 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AG49" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="AH49">
         <v>0</v>
@@ -8067,10 +8243,10 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG50" t="s">
-        <v>1157</v>
+        <v>1169</v>
       </c>
       <c r="AH50">
         <v>0</v>
@@ -8131,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AG51" t="s">
-        <v>1158</v>
+        <v>1181</v>
       </c>
       <c r="AH51">
         <v>0</v>
@@ -8195,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="AG52" t="s">
-        <v>1159</v>
+        <v>1177</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -8259,10 +8435,10 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="AG53" t="s">
-        <v>1161</v>
+        <v>1180</v>
       </c>
       <c r="AH53">
         <v>0</v>
@@ -8347,10 +8523,10 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="AG54" t="s">
-        <v>1162</v>
+        <v>1183</v>
       </c>
       <c r="AH54">
         <v>0</v>
@@ -8435,13 +8611,13 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AG55" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="36">
         <v>0</v>
@@ -8523,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="AG56" t="s">
-        <v>1164</v>
+        <v>1190</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -8614,10 +8790,10 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="AG57" t="s">
-        <v>1165</v>
+        <v>1201</v>
       </c>
       <c r="AH57">
         <v>0</v>
@@ -8702,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AG58" t="s">
-        <v>1166</v>
+        <v>1227</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -8790,10 +8966,10 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AG59" t="s">
-        <v>1168</v>
+        <v>1204</v>
       </c>
       <c r="AH59">
         <v>0</v>
@@ -8881,10 +9057,10 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AG60" t="s">
-        <v>1169</v>
+        <v>1228</v>
       </c>
       <c r="AH60">
         <v>0</v>
@@ -8969,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AG61" t="s">
-        <v>1181</v>
+        <v>1229</v>
       </c>
       <c r="AH61">
         <v>0</v>
@@ -9057,10 +9233,10 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="AG62" t="s">
-        <v>1177</v>
+        <v>1230</v>
       </c>
       <c r="AH62">
         <v>0</v>
@@ -9145,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="AG63" t="s">
-        <v>1179</v>
+        <v>1231</v>
       </c>
       <c r="AH63">
         <v>0</v>
@@ -9233,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="AG64" t="s">
-        <v>1180</v>
+        <v>1232</v>
       </c>
       <c r="AH64">
         <v>0</v>
@@ -9321,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AG65" t="s">
-        <v>1183</v>
+        <v>1233</v>
       </c>
       <c r="AH65">
         <v>0</v>
@@ -9409,10 +9585,10 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="AG66" t="s">
-        <v>1184</v>
+        <v>1234</v>
       </c>
       <c r="AH66">
         <v>0</v>
@@ -9497,10 +9673,10 @@
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="AG67" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="AH67">
         <v>0</v>
@@ -9585,10 +9761,10 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="AG68" t="s">
-        <v>1188</v>
+        <v>1199</v>
       </c>
       <c r="AH68">
         <v>0</v>
@@ -9673,10 +9849,10 @@
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="AG69" t="s">
-        <v>1190</v>
+        <v>1226</v>
       </c>
       <c r="AH69">
         <v>0</v>
@@ -9761,16 +9937,16 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="AG70" t="s">
-        <v>1201</v>
+        <v>17</v>
       </c>
       <c r="AH70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI70" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="71" spans="2:35" x14ac:dyDescent="0.25">
@@ -9849,16 +10025,16 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="AG71" t="s">
-        <v>1227</v>
+        <v>18</v>
       </c>
       <c r="AH71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI71" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="72" spans="2:35" x14ac:dyDescent="0.25">
@@ -9937,16 +10113,16 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>282</v>
+        <v>99</v>
       </c>
       <c r="AG72" t="s">
-        <v>1204</v>
+        <v>75</v>
       </c>
       <c r="AH72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI72" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="73" spans="2:35" x14ac:dyDescent="0.25">
@@ -10025,16 +10201,16 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="AG73" t="s">
-        <v>1228</v>
+        <v>99</v>
       </c>
       <c r="AH73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI73" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="74" spans="2:35" x14ac:dyDescent="0.25">
@@ -10113,16 +10289,16 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="AG74" t="s">
-        <v>1229</v>
+        <v>43</v>
       </c>
       <c r="AH74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI74" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="75" spans="2:35" x14ac:dyDescent="0.25">
@@ -10208,16 +10384,16 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="AG75" t="s">
-        <v>1230</v>
+        <v>44</v>
       </c>
       <c r="AH75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI75" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="76" spans="2:35" x14ac:dyDescent="0.25">
@@ -10272,16 +10448,16 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="AG76" t="s">
-        <v>1231</v>
+        <v>487</v>
       </c>
       <c r="AH76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI76" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="77" spans="2:35" x14ac:dyDescent="0.25">
@@ -10336,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="AG77" t="s">
-        <v>1232</v>
+        <v>488</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI77" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="78" spans="2:35" x14ac:dyDescent="0.25">
@@ -10400,16 +10576,16 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="AG78" t="s">
-        <v>1233</v>
+        <v>37</v>
       </c>
       <c r="AH78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI78" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="79" spans="2:35" x14ac:dyDescent="0.25">
@@ -10464,16 +10640,16 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="AG79" t="s">
-        <v>1234</v>
+        <v>516</v>
       </c>
       <c r="AH79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI79" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="80" spans="2:35" x14ac:dyDescent="0.25">
@@ -10528,16 +10704,16 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="AG80" t="s">
-        <v>1198</v>
+        <v>68</v>
       </c>
       <c r="AH80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI80" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="81" spans="2:35" x14ac:dyDescent="0.25">
@@ -10592,16 +10768,16 @@
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="AG81" t="s">
-        <v>1199</v>
+        <v>92</v>
       </c>
       <c r="AH81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI81" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="82" spans="2:35" x14ac:dyDescent="0.25">
@@ -10656,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="AG82" t="s">
-        <v>1222</v>
+        <v>101</v>
       </c>
       <c r="AH82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI82" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="83" spans="2:35" x14ac:dyDescent="0.25">
@@ -10720,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="AG83" t="s">
-        <v>1226</v>
+        <v>95</v>
       </c>
       <c r="AH83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI83" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="84" spans="2:35" x14ac:dyDescent="0.25">
@@ -10784,16 +10960,16 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="AG84" t="s">
-        <v>1203</v>
+        <v>96</v>
       </c>
       <c r="AH84">
         <v>1</v>
       </c>
       <c r="AI84" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="85" spans="2:35" x14ac:dyDescent="0.25">
@@ -10851,16 +11027,16 @@
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="AG85" t="s">
-        <v>1221</v>
+        <v>534</v>
       </c>
       <c r="AH85">
         <v>1</v>
       </c>
       <c r="AI85" s="36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="86" spans="2:35" x14ac:dyDescent="0.25">
@@ -10915,10 +11091,10 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="AG86" t="s">
-        <v>399</v>
+        <v>536</v>
       </c>
       <c r="AH86">
         <v>1</v>
@@ -10979,10 +11155,10 @@
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="AG87" t="s">
-        <v>419</v>
+        <v>539</v>
       </c>
       <c r="AH87">
         <v>1</v>
@@ -11043,10 +11219,10 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="AG88" t="s">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="AH88">
         <v>1</v>
@@ -11107,10 +11283,10 @@
         <v>0</v>
       </c>
       <c r="AF89">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="AG89" t="s">
-        <v>17</v>
+        <v>548</v>
       </c>
       <c r="AH89">
         <v>1</v>
@@ -11171,10 +11347,10 @@
         <v>0</v>
       </c>
       <c r="AF90">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="AG90" t="s">
-        <v>18</v>
+        <v>550</v>
       </c>
       <c r="AH90">
         <v>1</v>
@@ -11235,10 +11411,10 @@
         <v>0</v>
       </c>
       <c r="AF91">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="AG91" t="s">
-        <v>431</v>
+        <v>554</v>
       </c>
       <c r="AH91">
         <v>1</v>
@@ -11299,10 +11475,10 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s">
-        <v>438</v>
+        <v>555</v>
       </c>
       <c r="AH92">
         <v>1</v>
@@ -11363,10 +11539,10 @@
         <v>0</v>
       </c>
       <c r="AF93">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AG93" t="s">
-        <v>452</v>
+        <v>559</v>
       </c>
       <c r="AH93">
         <v>1</v>
@@ -11427,10 +11603,10 @@
         <v>0</v>
       </c>
       <c r="AF94">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AG94" t="s">
-        <v>454</v>
+        <v>804</v>
       </c>
       <c r="AH94">
         <v>1</v>
@@ -11491,10 +11667,10 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="AG95" t="s">
-        <v>75</v>
+        <v>806</v>
       </c>
       <c r="AH95">
         <v>1</v>
@@ -11555,10 +11731,10 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="AG96" t="s">
-        <v>99</v>
+        <v>1146</v>
       </c>
       <c r="AH96">
         <v>1</v>
@@ -11619,10 +11795,10 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="AG97" t="s">
-        <v>43</v>
+        <v>1149</v>
       </c>
       <c r="AH97">
         <v>1</v>
@@ -11683,10 +11859,10 @@
         <v>0</v>
       </c>
       <c r="AF98">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="AG98" t="s">
-        <v>44</v>
+        <v>1152</v>
       </c>
       <c r="AH98">
         <v>1</v>
@@ -11747,10 +11923,10 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="AG99" t="s">
-        <v>487</v>
+        <v>1153</v>
       </c>
       <c r="AH99">
         <v>1</v>
@@ -11811,10 +11987,10 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="AG100" t="s">
-        <v>488</v>
+        <v>1156</v>
       </c>
       <c r="AH100">
         <v>1</v>
@@ -11875,10 +12051,10 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="AG101" t="s">
-        <v>505</v>
+        <v>1157</v>
       </c>
       <c r="AH101">
         <v>1</v>
@@ -11939,10 +12115,10 @@
         <v>0</v>
       </c>
       <c r="AF102">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="AG102" t="s">
-        <v>37</v>
+        <v>1158</v>
       </c>
       <c r="AH102">
         <v>1</v>
@@ -12006,10 +12182,10 @@
         <v>0</v>
       </c>
       <c r="AF103">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="AG103" t="s">
-        <v>516</v>
+        <v>1163</v>
       </c>
       <c r="AH103">
         <v>1</v>
@@ -12070,10 +12246,10 @@
         <v>0</v>
       </c>
       <c r="AF104">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="AG104" t="s">
-        <v>68</v>
+        <v>1166</v>
       </c>
       <c r="AH104">
         <v>1</v>
@@ -12134,10 +12310,10 @@
         <v>0</v>
       </c>
       <c r="AF105">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="AG105" t="s">
-        <v>92</v>
+        <v>1179</v>
       </c>
       <c r="AH105">
         <v>1</v>
@@ -12198,10 +12374,10 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="AG106" t="s">
-        <v>101</v>
+        <v>1182</v>
       </c>
       <c r="AH106">
         <v>1</v>
@@ -12262,10 +12438,10 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="AG107" t="s">
-        <v>95</v>
+        <v>1184</v>
       </c>
       <c r="AH107">
         <v>1</v>
@@ -12326,10 +12502,10 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="AG108" t="s">
-        <v>96</v>
+        <v>1185</v>
       </c>
       <c r="AH108">
         <v>1</v>
@@ -12390,10 +12566,10 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="AG109" t="s">
-        <v>534</v>
+        <v>1187</v>
       </c>
       <c r="AH109">
         <v>1</v>
@@ -12454,10 +12630,10 @@
         <v>0</v>
       </c>
       <c r="AF110">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="AG110" t="s">
-        <v>539</v>
+        <v>1220</v>
       </c>
       <c r="AH110">
         <v>1</v>
@@ -12518,10 +12694,10 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="AG111" t="s">
-        <v>542</v>
+        <v>1221</v>
       </c>
       <c r="AH111">
         <v>1</v>
@@ -12582,16 +12758,16 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="AG112" t="s">
-        <v>548</v>
+        <v>389</v>
       </c>
       <c r="AH112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI112" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="113" spans="2:35" x14ac:dyDescent="0.25">
@@ -12646,16 +12822,16 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="AG113" t="s">
-        <v>550</v>
+        <v>392</v>
       </c>
       <c r="AH113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI113" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="114" spans="2:35" x14ac:dyDescent="0.25">
@@ -12710,16 +12886,16 @@
         <v>0</v>
       </c>
       <c r="AF114">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="AG114" t="s">
-        <v>804</v>
+        <v>395</v>
       </c>
       <c r="AH114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI114" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="115" spans="2:35" x14ac:dyDescent="0.25">
@@ -12774,16 +12950,16 @@
         <v>0</v>
       </c>
       <c r="AF115">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="AG115" t="s">
-        <v>806</v>
+        <v>399</v>
       </c>
       <c r="AH115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI115" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="116" spans="2:35" x14ac:dyDescent="0.25">
@@ -12838,16 +13014,16 @@
         <v>0</v>
       </c>
       <c r="AF116">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="AG116" t="s">
-        <v>1146</v>
+        <v>16</v>
       </c>
       <c r="AH116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI116" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="117" spans="2:35" x14ac:dyDescent="0.25">
@@ -12902,16 +13078,16 @@
         <v>0</v>
       </c>
       <c r="AF117">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="AG117" t="s">
-        <v>1149</v>
+        <v>413</v>
       </c>
       <c r="AH117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI117" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="118" spans="2:35" x14ac:dyDescent="0.25">
@@ -12966,16 +13142,16 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="AG118" t="s">
-        <v>1150</v>
+        <v>419</v>
       </c>
       <c r="AH118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI118" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="119" spans="2:35" x14ac:dyDescent="0.25">
@@ -13030,16 +13206,16 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="AG119" t="s">
-        <v>1152</v>
+        <v>422</v>
       </c>
       <c r="AH119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI119" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="120" spans="2:35" x14ac:dyDescent="0.25">
@@ -13094,16 +13270,16 @@
         <v>0</v>
       </c>
       <c r="AF120">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="AG120" t="s">
-        <v>1156</v>
+        <v>47</v>
       </c>
       <c r="AH120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI120" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="121" spans="2:35" x14ac:dyDescent="0.25">
@@ -13158,16 +13334,16 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="AG121" t="s">
-        <v>1182</v>
+        <v>577</v>
       </c>
       <c r="AH121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI121" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="122" spans="2:35" x14ac:dyDescent="0.25">
@@ -13222,16 +13398,16 @@
         <v>0</v>
       </c>
       <c r="AF122">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AG122" t="s">
-        <v>1185</v>
+        <v>578</v>
       </c>
       <c r="AH122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI122" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="123" spans="2:35" x14ac:dyDescent="0.25">
@@ -13286,16 +13462,16 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="AG123" t="s">
-        <v>1186</v>
+        <v>431</v>
       </c>
       <c r="AH123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI123" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="124" spans="2:35" x14ac:dyDescent="0.25">
@@ -13350,16 +13526,16 @@
         <v>0</v>
       </c>
       <c r="AF124">
-        <v>292</v>
+        <v>62</v>
       </c>
       <c r="AG124" t="s">
-        <v>1220</v>
+        <v>438</v>
       </c>
       <c r="AH124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI124" s="36">
-        <v>0</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="125" spans="2:35" x14ac:dyDescent="0.25">
@@ -13414,16 +13590,16 @@
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="AG125" t="s">
-        <v>1225</v>
+        <v>442</v>
       </c>
       <c r="AH125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI125" s="36">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="126" spans="2:35" x14ac:dyDescent="0.25">
@@ -13478,16 +13654,16 @@
         <v>0</v>
       </c>
       <c r="AF126">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="AG126" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="AH126">
         <v>2</v>
       </c>
       <c r="AI126" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="127" spans="2:35" x14ac:dyDescent="0.25">
@@ -13542,16 +13718,16 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="AG127" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="AH127">
         <v>2</v>
       </c>
       <c r="AI127" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="128" spans="2:35" x14ac:dyDescent="0.25">
@@ -13606,16 +13782,16 @@
         <v>0</v>
       </c>
       <c r="AF128">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="AG128" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="AH128">
         <v>2</v>
       </c>
       <c r="AI128" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="129" spans="2:35" x14ac:dyDescent="0.25">
@@ -13670,16 +13846,16 @@
         <v>0</v>
       </c>
       <c r="AF129">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AG129" t="s">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="AH129">
         <v>2</v>
       </c>
       <c r="AI129" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="130" spans="2:35" x14ac:dyDescent="0.25">
@@ -13734,16 +13910,16 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="AG130" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="AH130">
         <v>2</v>
       </c>
       <c r="AI130" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="131" spans="2:35" x14ac:dyDescent="0.25">
@@ -13798,16 +13974,16 @@
         <v>0</v>
       </c>
       <c r="AF131">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AG131" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="AH131">
         <v>2</v>
       </c>
       <c r="AI131" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="132" spans="2:35" x14ac:dyDescent="0.25">
@@ -13862,16 +14038,16 @@
         <v>0.2</v>
       </c>
       <c r="AF132">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AG132" t="s">
-        <v>577</v>
+        <v>475</v>
       </c>
       <c r="AH132">
         <v>2</v>
       </c>
       <c r="AI132" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="133" spans="2:35" x14ac:dyDescent="0.25">
@@ -13926,16 +14102,16 @@
         <v>0.12</v>
       </c>
       <c r="AF133">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="AG133" t="s">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="AH133">
         <v>2</v>
       </c>
       <c r="AI133" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="134" spans="2:35" x14ac:dyDescent="0.25">
@@ -13990,16 +14166,16 @@
         <v>0.09</v>
       </c>
       <c r="AF134">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="AG134" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="AH134">
         <v>2</v>
       </c>
       <c r="AI134" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="135" spans="2:35" x14ac:dyDescent="0.25">
@@ -14054,16 +14230,16 @@
         <v>0.05</v>
       </c>
       <c r="AF135">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="AG135" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="AH135">
         <v>2</v>
       </c>
       <c r="AI135" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="136" spans="2:35" x14ac:dyDescent="0.25">
@@ -14118,16 +14294,16 @@
         <v>0.12</v>
       </c>
       <c r="AF136">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="AG136" t="s">
-        <v>451</v>
+        <v>91</v>
       </c>
       <c r="AH136">
         <v>2</v>
       </c>
       <c r="AI136" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="137" spans="2:35" x14ac:dyDescent="0.25">
@@ -14182,16 +14358,16 @@
         <v>0.1</v>
       </c>
       <c r="AF137">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="AG137" t="s">
-        <v>470</v>
+        <v>42</v>
       </c>
       <c r="AH137">
         <v>2</v>
       </c>
       <c r="AI137" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="138" spans="2:35" x14ac:dyDescent="0.25">
@@ -14249,16 +14425,16 @@
         <v>0.17</v>
       </c>
       <c r="AF138">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AG138" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="AH138">
         <v>2</v>
       </c>
       <c r="AI138" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="139" spans="2:35" x14ac:dyDescent="0.25">
@@ -14313,16 +14489,16 @@
         <v>0.02</v>
       </c>
       <c r="AF139">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="AG139" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="AH139">
         <v>2</v>
       </c>
       <c r="AI139" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="140" spans="2:35" x14ac:dyDescent="0.25">
@@ -14377,16 +14553,16 @@
         <v>0.1</v>
       </c>
       <c r="AF140">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AG140" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="AH140">
         <v>2</v>
       </c>
       <c r="AI140" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="141" spans="2:35" x14ac:dyDescent="0.25">
@@ -14448,16 +14624,16 @@
         <v>0.11</v>
       </c>
       <c r="AF141">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="AG141" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="AH141">
         <v>2</v>
       </c>
       <c r="AI141" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="142" spans="2:35" x14ac:dyDescent="0.25">
@@ -14522,16 +14698,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF142">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="AG142" t="s">
-        <v>484</v>
+        <v>39</v>
       </c>
       <c r="AH142">
         <v>2</v>
       </c>
       <c r="AI142" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="143" spans="2:35" x14ac:dyDescent="0.25">
@@ -14593,16 +14769,16 @@
         <v>0.15</v>
       </c>
       <c r="AF143">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="AG143" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="AH143">
         <v>2</v>
       </c>
       <c r="AI143" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="144" spans="2:35" x14ac:dyDescent="0.25">
@@ -14676,16 +14852,16 @@
         <v>0.3</v>
       </c>
       <c r="AF144">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="AG144" t="s">
-        <v>91</v>
+        <v>521</v>
       </c>
       <c r="AH144">
         <v>2</v>
       </c>
       <c r="AI144" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="145" spans="1:35" x14ac:dyDescent="0.25">
@@ -14752,16 +14928,16 @@
         <v>0.17</v>
       </c>
       <c r="AF145">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="AG145" t="s">
-        <v>42</v>
+        <v>572</v>
       </c>
       <c r="AH145">
         <v>2</v>
       </c>
       <c r="AI145" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="146" spans="1:35" x14ac:dyDescent="0.25">
@@ -14853,16 +15029,16 @@
         <v>0.05</v>
       </c>
       <c r="AF146">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="AG146" t="s">
-        <v>497</v>
+        <v>93</v>
       </c>
       <c r="AH146">
         <v>2</v>
       </c>
       <c r="AI146" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.25">
@@ -14951,16 +15127,16 @@
         <v>0.1</v>
       </c>
       <c r="AF147">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="AG147" t="s">
-        <v>510</v>
+        <v>102</v>
       </c>
       <c r="AH147">
         <v>2</v>
       </c>
       <c r="AI147" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.25">
@@ -15049,16 +15225,16 @@
         <v>0.01</v>
       </c>
       <c r="AF148">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="AG148" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="AH148">
         <v>2</v>
       </c>
       <c r="AI148" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
@@ -15147,16 +15323,16 @@
         <v>1</v>
       </c>
       <c r="AF149">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AG149" t="s">
-        <v>39</v>
+        <v>529</v>
       </c>
       <c r="AH149">
         <v>2</v>
       </c>
       <c r="AI149" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
@@ -15245,16 +15421,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AF150">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AG150" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="AH150">
         <v>2</v>
       </c>
       <c r="AI150" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="151" spans="1:35" x14ac:dyDescent="0.25">
@@ -15340,16 +15516,16 @@
         <v>0.04</v>
       </c>
       <c r="AF151">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="AG151" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="AH151">
         <v>2</v>
       </c>
       <c r="AI151" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.25">
@@ -15441,16 +15617,16 @@
         <v>0.09</v>
       </c>
       <c r="AF152">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="AG152" t="s">
-        <v>93</v>
+        <v>540</v>
       </c>
       <c r="AH152">
         <v>2</v>
       </c>
       <c r="AI152" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
@@ -15539,16 +15715,16 @@
         <v>0.1</v>
       </c>
       <c r="AF153">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="AG153" t="s">
-        <v>102</v>
+        <v>546</v>
       </c>
       <c r="AH153">
         <v>2</v>
       </c>
       <c r="AI153" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
@@ -15634,16 +15810,16 @@
         <v>0.15</v>
       </c>
       <c r="AF154">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="AG154" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="AH154">
         <v>2</v>
       </c>
       <c r="AI154" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="155" spans="1:35" x14ac:dyDescent="0.25">
@@ -15732,16 +15908,16 @@
         <v>0.09</v>
       </c>
       <c r="AF155">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="AG155" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="AH155">
         <v>2</v>
       </c>
       <c r="AI155" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.25">
@@ -15830,16 +16006,16 @@
         <v>0.22</v>
       </c>
       <c r="AF156">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AG156" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="AH156">
         <v>2</v>
       </c>
       <c r="AI156" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.25">
@@ -15928,16 +16104,16 @@
         <v>0.09</v>
       </c>
       <c r="AF157">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="AG157" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="AH157">
         <v>2</v>
       </c>
       <c r="AI157" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.25">
@@ -16026,16 +16202,16 @@
         <v>0.06</v>
       </c>
       <c r="AF158">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="AG158" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="AH158">
         <v>2</v>
       </c>
       <c r="AI158" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
@@ -16124,16 +16300,16 @@
         <v>0.1</v>
       </c>
       <c r="AF159">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AG159" t="s">
-        <v>546</v>
+        <v>86</v>
       </c>
       <c r="AH159">
         <v>2</v>
       </c>
       <c r="AI159" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
@@ -16219,16 +16395,16 @@
         <v>0.02</v>
       </c>
       <c r="AF160">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AG160" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="AH160">
         <v>2</v>
       </c>
       <c r="AI160" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
@@ -16317,16 +16493,16 @@
         <v>0.19</v>
       </c>
       <c r="AF161">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="AG161" t="s">
-        <v>557</v>
+        <v>1145</v>
       </c>
       <c r="AH161">
         <v>2</v>
       </c>
       <c r="AI161" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.25">
@@ -16415,16 +16591,16 @@
         <v>0.04</v>
       </c>
       <c r="AF162">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="AG162" t="s">
-        <v>558</v>
+        <v>1150</v>
       </c>
       <c r="AH162">
         <v>2</v>
       </c>
       <c r="AI162" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.25">
@@ -16513,16 +16689,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AF163">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="AG163" t="s">
-        <v>562</v>
+        <v>1186</v>
       </c>
       <c r="AH163">
         <v>2</v>
       </c>
       <c r="AI163" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
@@ -16614,16 +16790,16 @@
         <v>0.13</v>
       </c>
       <c r="AF164">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="AG164" t="s">
-        <v>86</v>
+        <v>1189</v>
       </c>
       <c r="AH164">
         <v>2</v>
       </c>
       <c r="AI164" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.25">
@@ -16712,16 +16888,16 @@
         <v>0.05</v>
       </c>
       <c r="AF165">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="AG165" t="s">
-        <v>567</v>
+        <v>1200</v>
       </c>
       <c r="AH165">
         <v>2</v>
       </c>
       <c r="AI165" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
@@ -16807,16 +16983,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF166">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="AG166" t="s">
-        <v>1145</v>
+        <v>1203</v>
       </c>
       <c r="AH166">
         <v>2</v>
       </c>
       <c r="AI166" s="36">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.25">
@@ -16903,16 +17079,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF167">
-        <v>276</v>
+        <v>2</v>
       </c>
       <c r="AG167" t="s">
-        <v>1189</v>
+        <v>390</v>
       </c>
       <c r="AH167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI167" s="36">
-        <v>2E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.25">
@@ -16999,16 +17175,16 @@
         <v>0.15</v>
       </c>
       <c r="AF168">
-        <v>278</v>
+        <v>5</v>
       </c>
       <c r="AG168" t="s">
-        <v>1200</v>
+        <v>393</v>
       </c>
       <c r="AH168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI168" s="36">
-        <v>2E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
@@ -17094,16 +17270,16 @@
         <v>0.24</v>
       </c>
       <c r="AF169">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG169" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AH169">
         <v>3</v>
       </c>
       <c r="AI169" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
@@ -17192,16 +17368,16 @@
         <v>0.25</v>
       </c>
       <c r="AF170">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AG170" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AH170">
         <v>3</v>
       </c>
       <c r="AI170" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
@@ -17288,16 +17464,16 @@
         <v>0.24</v>
       </c>
       <c r="AF171">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AG171" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="AH171">
         <v>3</v>
       </c>
       <c r="AI171" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
@@ -17384,16 +17560,16 @@
         <v>0.1</v>
       </c>
       <c r="AF172">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG172" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AH172">
         <v>3</v>
       </c>
       <c r="AI172" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.25">
@@ -17474,16 +17650,16 @@
         <v>0.04</v>
       </c>
       <c r="AF173">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG173" t="s">
-        <v>407</v>
+        <v>11</v>
       </c>
       <c r="AH173">
         <v>3</v>
       </c>
       <c r="AI173" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
@@ -17569,16 +17745,16 @@
         <v>0.04</v>
       </c>
       <c r="AF174">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AG174" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AH174">
         <v>3</v>
       </c>
       <c r="AI174" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="175" spans="1:35" x14ac:dyDescent="0.25">
@@ -17664,16 +17840,16 @@
         <v>0.01</v>
       </c>
       <c r="AF175">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="AG175" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="AH175">
         <v>3</v>
       </c>
       <c r="AI175" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="176" spans="1:35" x14ac:dyDescent="0.25">
@@ -17756,16 +17932,16 @@
         <v>0.01</v>
       </c>
       <c r="AF176">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="AG176" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="AH176">
         <v>3</v>
       </c>
       <c r="AI176" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
@@ -17849,16 +18025,16 @@
         <v>0.05</v>
       </c>
       <c r="AF177">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AG177" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AH177">
         <v>3</v>
       </c>
       <c r="AI177" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
@@ -17942,16 +18118,16 @@
         <v>0.12</v>
       </c>
       <c r="AF178">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AG178" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="AH178">
         <v>3</v>
       </c>
       <c r="AI178" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="179" spans="1:35" x14ac:dyDescent="0.25">
@@ -18032,16 +18208,16 @@
         <v>0.06</v>
       </c>
       <c r="AF179">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AG179" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="AH179">
         <v>3</v>
       </c>
       <c r="AI179" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
@@ -18125,16 +18301,16 @@
         <v>0.08</v>
       </c>
       <c r="AF180">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="AG180" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="AH180">
         <v>3</v>
       </c>
       <c r="AI180" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
@@ -18218,16 +18394,16 @@
         <v>0.05</v>
       </c>
       <c r="AF181">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AG181" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="AH181">
         <v>3</v>
       </c>
       <c r="AI181" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
@@ -18308,16 +18484,16 @@
         <v>0.12</v>
       </c>
       <c r="AF182">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AG182" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="AH182">
         <v>3</v>
       </c>
       <c r="AI182" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.25">
@@ -18400,16 +18576,16 @@
         <v>0.26</v>
       </c>
       <c r="AF183">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AG183" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AH183">
         <v>3</v>
       </c>
       <c r="AI183" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
@@ -18498,16 +18674,16 @@
         <v>0.13</v>
       </c>
       <c r="AF184">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG184" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AH184">
         <v>3</v>
       </c>
       <c r="AI184" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
@@ -18602,7 +18778,7 @@
         <v>3</v>
       </c>
       <c r="AI185" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
@@ -18697,7 +18873,7 @@
         <v>3</v>
       </c>
       <c r="AI186" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
@@ -18792,7 +18968,7 @@
         <v>3</v>
       </c>
       <c r="AI187" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
@@ -18884,7 +19060,7 @@
         <v>3</v>
       </c>
       <c r="AI188" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
@@ -18977,7 +19153,7 @@
         <v>3</v>
       </c>
       <c r="AI189" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
@@ -19070,7 +19246,7 @@
         <v>3</v>
       </c>
       <c r="AI190" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
@@ -19160,7 +19336,7 @@
         <v>3</v>
       </c>
       <c r="AI191" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.25">
@@ -19246,7 +19422,7 @@
         <v>3</v>
       </c>
       <c r="AI192" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="193" spans="1:35" x14ac:dyDescent="0.25">
@@ -19335,7 +19511,7 @@
         <v>3</v>
       </c>
       <c r="AI193" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="194" spans="1:35" x14ac:dyDescent="0.25">
@@ -19430,7 +19606,7 @@
         <v>3</v>
       </c>
       <c r="AI194" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="195" spans="1:35" x14ac:dyDescent="0.25">
@@ -19513,16 +19689,16 @@
         <v>0.31</v>
       </c>
       <c r="AF195">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG195" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AH195">
         <v>3</v>
       </c>
       <c r="AI195" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.25">
@@ -19608,16 +19784,16 @@
         <v>0.8</v>
       </c>
       <c r="AF196">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG196" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AH196">
         <v>3</v>
       </c>
       <c r="AI196" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="197" spans="1:35" x14ac:dyDescent="0.25">
@@ -19703,16 +19879,16 @@
         <v>0.2</v>
       </c>
       <c r="AF197">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AG197" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="AH197">
         <v>3</v>
       </c>
       <c r="AI197" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.25">
@@ -19798,16 +19974,16 @@
         <v>0.16</v>
       </c>
       <c r="AF198">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AG198" t="s">
-        <v>524</v>
+        <v>103</v>
       </c>
       <c r="AH198">
         <v>3</v>
       </c>
       <c r="AI198" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.25">
@@ -19890,16 +20066,16 @@
         <v>0.75</v>
       </c>
       <c r="AF199">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AG199" t="s">
-        <v>526</v>
+        <v>801</v>
       </c>
       <c r="AH199">
         <v>3</v>
       </c>
       <c r="AI199" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.25">
@@ -19985,16 +20161,16 @@
         <v>0.25</v>
       </c>
       <c r="AF200">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AG200" t="s">
-        <v>103</v>
+        <v>530</v>
       </c>
       <c r="AH200">
         <v>3</v>
       </c>
       <c r="AI200" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="201" spans="1:35" x14ac:dyDescent="0.25">
@@ -20077,16 +20253,16 @@
         <v>0.24</v>
       </c>
       <c r="AF201">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AG201" t="s">
-        <v>801</v>
+        <v>549</v>
       </c>
       <c r="AH201">
         <v>3</v>
       </c>
       <c r="AI201" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="202" spans="1:35" x14ac:dyDescent="0.25">
@@ -20169,16 +20345,16 @@
         <v>0.65</v>
       </c>
       <c r="AF202">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="AG202" t="s">
-        <v>530</v>
+        <v>1160</v>
       </c>
       <c r="AH202">
         <v>3</v>
       </c>
       <c r="AI202" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="203" spans="1:35" x14ac:dyDescent="0.25">
@@ -20258,16 +20434,16 @@
         <v>0.19</v>
       </c>
       <c r="AF203">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="AG203" t="s">
-        <v>549</v>
+        <v>1167</v>
       </c>
       <c r="AH203">
         <v>3</v>
       </c>
       <c r="AI203" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="204" spans="1:35" x14ac:dyDescent="0.25">
@@ -20350,16 +20526,16 @@
         <v>0.15</v>
       </c>
       <c r="AF204">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AG204" t="s">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="AH204">
         <v>3</v>
       </c>
       <c r="AI204" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="205" spans="1:35" x14ac:dyDescent="0.25">
@@ -20439,16 +20615,16 @@
         <v>0.3</v>
       </c>
       <c r="AF205">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="AG205" t="s">
-        <v>1167</v>
+        <v>1222</v>
       </c>
       <c r="AH205">
         <v>3</v>
       </c>
       <c r="AI205" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="206" spans="1:35" x14ac:dyDescent="0.25">
@@ -20528,16 +20704,16 @@
         <v>0.33</v>
       </c>
       <c r="AF206">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="AG206" t="s">
-        <v>1178</v>
+        <v>1225</v>
       </c>
       <c r="AH206">
         <v>3</v>
       </c>
       <c r="AI206" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="207" spans="1:35" x14ac:dyDescent="0.25">
@@ -20629,7 +20805,7 @@
         <v>4</v>
       </c>
       <c r="AI207" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="208" spans="1:35" x14ac:dyDescent="0.25">
@@ -20715,7 +20891,7 @@
         <v>4</v>
       </c>
       <c r="AI208" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="209" spans="1:35" x14ac:dyDescent="0.25">
@@ -20802,7 +20978,7 @@
         <v>4</v>
       </c>
       <c r="AI209" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="210" spans="1:35" x14ac:dyDescent="0.25">
@@ -20886,7 +21062,7 @@
         <v>4</v>
       </c>
       <c r="AI210" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="211" spans="1:35" x14ac:dyDescent="0.25">
@@ -20975,7 +21151,7 @@
         <v>4</v>
       </c>
       <c r="AI211" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="212" spans="1:35" x14ac:dyDescent="0.25">
@@ -21052,16 +21228,16 @@
         <v>0.22</v>
       </c>
       <c r="AF212">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AG212" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="AH212">
         <v>4</v>
       </c>
       <c r="AI212" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="213" spans="1:35" x14ac:dyDescent="0.25">
@@ -21141,16 +21317,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF213">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AG213" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AH213">
         <v>4</v>
       </c>
       <c r="AI213" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="214" spans="1:35" x14ac:dyDescent="0.25">
@@ -21230,16 +21406,16 @@
         <v>0.32</v>
       </c>
       <c r="AF214">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG214" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AH214">
         <v>4</v>
       </c>
       <c r="AI214" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="215" spans="1:35" x14ac:dyDescent="0.25">
@@ -21316,16 +21492,16 @@
         <v>0.26</v>
       </c>
       <c r="AF215">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG215" t="s">
-        <v>458</v>
+        <v>1101</v>
       </c>
       <c r="AH215">
         <v>4</v>
       </c>
       <c r="AI215" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="216" spans="1:35" x14ac:dyDescent="0.25">
@@ -21405,16 +21581,16 @@
         <v>0.25</v>
       </c>
       <c r="AF216">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG216" t="s">
-        <v>1101</v>
+        <v>461</v>
       </c>
       <c r="AH216">
         <v>4</v>
       </c>
       <c r="AI216" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="217" spans="1:35" x14ac:dyDescent="0.25">
@@ -21491,16 +21667,16 @@
         <v>0.24</v>
       </c>
       <c r="AF217">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AG217" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AH217">
         <v>4</v>
       </c>
       <c r="AI217" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="218" spans="1:35" x14ac:dyDescent="0.25">
@@ -21583,16 +21759,16 @@
         <v>0.17</v>
       </c>
       <c r="AF218">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AG218" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AH218">
         <v>4</v>
       </c>
       <c r="AI218" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="219" spans="1:35" x14ac:dyDescent="0.25">
@@ -21672,16 +21848,16 @@
         <v>0.17</v>
       </c>
       <c r="AF219">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AG219" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AH219">
         <v>4</v>
       </c>
       <c r="AI219" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="220" spans="1:35" x14ac:dyDescent="0.25">
@@ -21761,16 +21937,16 @@
         <v>0.19</v>
       </c>
       <c r="AF220">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="AG220" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="AH220">
         <v>4</v>
       </c>
       <c r="AI220" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="221" spans="1:35" x14ac:dyDescent="0.25">
@@ -21850,16 +22026,16 @@
         <v>0.36</v>
       </c>
       <c r="AF221">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AG221" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AH221">
         <v>4</v>
       </c>
       <c r="AI221" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="222" spans="1:35" x14ac:dyDescent="0.25">
@@ -21936,16 +22112,16 @@
         <v>0.42000000000000004</v>
       </c>
       <c r="AF222">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG222" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="AH222">
         <v>4</v>
       </c>
       <c r="AI222" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="223" spans="1:35" x14ac:dyDescent="0.25">
@@ -22028,16 +22204,16 @@
         <v>0.29009999999999997</v>
       </c>
       <c r="AF223">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="AG223" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="AH223">
         <v>4</v>
       </c>
       <c r="AI223" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="224" spans="1:35" x14ac:dyDescent="0.25">
@@ -22123,7 +22299,7 @@
         <v>4</v>
       </c>
       <c r="AI224" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="225" spans="1:35" x14ac:dyDescent="0.25">
@@ -22212,7 +22388,7 @@
         <v>4</v>
       </c>
       <c r="AI225" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="226" spans="1:35" x14ac:dyDescent="0.25">
@@ -22298,7 +22474,7 @@
         <v>4</v>
       </c>
       <c r="AI226" s="36">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="227" spans="1:35" x14ac:dyDescent="0.25">
@@ -22384,7 +22560,7 @@
         <v>5</v>
       </c>
       <c r="AI227" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="228" spans="1:35" x14ac:dyDescent="0.25">
@@ -22473,7 +22649,7 @@
         <v>5</v>
       </c>
       <c r="AI228" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="229" spans="1:35" x14ac:dyDescent="0.25">
@@ -22565,16 +22741,16 @@
         <v>0.39</v>
       </c>
       <c r="AF229">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AG229" t="s">
-        <v>420</v>
+        <v>48</v>
       </c>
       <c r="AH229">
         <v>5</v>
       </c>
       <c r="AI229" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="230" spans="1:35" x14ac:dyDescent="0.25">
@@ -22663,16 +22839,16 @@
         <v>0.2601</v>
       </c>
       <c r="AF230">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG230" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AH230">
         <v>5</v>
       </c>
       <c r="AI230" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="231" spans="1:35" x14ac:dyDescent="0.25">
@@ -22761,16 +22937,16 @@
         <v>0.29009999999999997</v>
       </c>
       <c r="AF231">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AG231" t="s">
-        <v>19</v>
+        <v>429</v>
       </c>
       <c r="AH231">
         <v>5</v>
       </c>
       <c r="AI231" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="232" spans="1:35" x14ac:dyDescent="0.25">
@@ -22856,16 +23032,16 @@
         <v>0.39990000000000003</v>
       </c>
       <c r="AF232">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AG232" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="AH232">
         <v>5</v>
       </c>
       <c r="AI232" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="233" spans="1:35" x14ac:dyDescent="0.25">
@@ -22954,16 +23130,16 @@
         <v>0.27989999999999998</v>
       </c>
       <c r="AF233">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG233" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AH233">
         <v>5</v>
       </c>
       <c r="AI233" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="234" spans="1:35" x14ac:dyDescent="0.25">
@@ -23049,16 +23225,16 @@
         <v>0.3201</v>
       </c>
       <c r="AF234">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AG234" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AH234">
         <v>5</v>
       </c>
       <c r="AI234" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="235" spans="1:35" x14ac:dyDescent="0.25">
@@ -23147,16 +23323,16 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="AF235">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AG235" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AH235">
         <v>5</v>
       </c>
       <c r="AI235" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="236" spans="1:35" x14ac:dyDescent="0.25">
@@ -23242,16 +23418,16 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="AF236">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AG236" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AH236">
         <v>5</v>
       </c>
       <c r="AI236" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="237" spans="1:35" x14ac:dyDescent="0.25">
@@ -23340,16 +23516,16 @@
         <v>0.53010000000000002</v>
       </c>
       <c r="AF237">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG237" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AH237">
         <v>5</v>
       </c>
       <c r="AI237" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="238" spans="1:35" x14ac:dyDescent="0.25">
@@ -23435,16 +23611,16 @@
         <v>0.69989999999999997</v>
       </c>
       <c r="AF238">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AG238" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AH238">
         <v>5</v>
       </c>
       <c r="AI238" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="239" spans="1:35" x14ac:dyDescent="0.25">
@@ -23533,16 +23709,16 @@
         <v>0.24990000000000001</v>
       </c>
       <c r="AF239">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AG239" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="AH239">
         <v>5</v>
       </c>
       <c r="AI239" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="240" spans="1:35" x14ac:dyDescent="0.25">
@@ -23631,16 +23807,16 @@
         <v>0.39990000000000003</v>
       </c>
       <c r="AF240">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AG240" t="s">
-        <v>486</v>
+        <v>582</v>
       </c>
       <c r="AH240">
         <v>5</v>
       </c>
       <c r="AI240" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="241" spans="1:35" x14ac:dyDescent="0.25">
@@ -23726,16 +23902,16 @@
         <v>0.33989999999999998</v>
       </c>
       <c r="AF241">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="AG241" t="s">
-        <v>90</v>
+        <v>496</v>
       </c>
       <c r="AH241">
         <v>5</v>
       </c>
       <c r="AI241" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="242" spans="1:35" x14ac:dyDescent="0.25">
@@ -23818,16 +23994,16 @@
         <v>0.3201</v>
       </c>
       <c r="AF242">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="AG242" t="s">
-        <v>492</v>
+        <v>67</v>
       </c>
       <c r="AH242">
         <v>5</v>
       </c>
       <c r="AI242" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="243" spans="1:35" x14ac:dyDescent="0.25">
@@ -23912,16 +24088,16 @@
         <v>0.24</v>
       </c>
       <c r="AF243">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="AG243" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="AH243">
         <v>5</v>
       </c>
       <c r="AI243" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="244" spans="1:35" x14ac:dyDescent="0.25">
@@ -24005,16 +24181,16 @@
         <v>0.47010000000000002</v>
       </c>
       <c r="AF244">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AG244" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="AH244">
         <v>5</v>
       </c>
       <c r="AI244" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="245" spans="1:35" x14ac:dyDescent="0.25">
@@ -24095,16 +24271,16 @@
         <v>0.33</v>
       </c>
       <c r="AF245">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AG245" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AH245">
         <v>5</v>
       </c>
       <c r="AI245" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="246" spans="1:35" x14ac:dyDescent="0.25">
@@ -24190,16 +24366,16 @@
         <v>0.2001</v>
       </c>
       <c r="AF246">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AG246" t="s">
-        <v>506</v>
+        <v>803</v>
       </c>
       <c r="AH246">
         <v>5</v>
       </c>
       <c r="AI246" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="247" spans="1:35" x14ac:dyDescent="0.25">
@@ -24285,16 +24461,16 @@
         <v>0.47010000000000002</v>
       </c>
       <c r="AF247">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AG247" t="s">
-        <v>38</v>
+        <v>574</v>
       </c>
       <c r="AH247">
         <v>5</v>
       </c>
       <c r="AI247" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="248" spans="1:35" x14ac:dyDescent="0.25">
@@ -24377,16 +24553,16 @@
         <v>0.15989999999999999</v>
       </c>
       <c r="AF248">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="AG248" t="s">
-        <v>803</v>
+        <v>94</v>
       </c>
       <c r="AH248">
         <v>5</v>
       </c>
       <c r="AI248" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="249" spans="1:35" x14ac:dyDescent="0.25">
@@ -24475,16 +24651,16 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="AF249">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="AG249" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="AH249">
         <v>5</v>
       </c>
       <c r="AI249" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="250" spans="1:35" x14ac:dyDescent="0.25">
@@ -24570,16 +24746,16 @@
         <v>0.24990000000000001</v>
       </c>
       <c r="AF250">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="AG250" t="s">
-        <v>94</v>
+        <v>538</v>
       </c>
       <c r="AH250">
         <v>5</v>
       </c>
       <c r="AI250" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="251" spans="1:35" x14ac:dyDescent="0.25">
@@ -24665,16 +24841,16 @@
         <v>0.27989999999999998</v>
       </c>
       <c r="AF251">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AG251" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="AH251">
         <v>5</v>
       </c>
       <c r="AI251" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="252" spans="1:35" x14ac:dyDescent="0.25">
@@ -24757,16 +24933,16 @@
         <v>0.18</v>
       </c>
       <c r="AF252">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AG252" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="AH252">
         <v>5</v>
       </c>
       <c r="AI252" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="253" spans="1:35" x14ac:dyDescent="0.25">
@@ -24841,16 +25017,16 @@
         <v>0.18989999999999999</v>
       </c>
       <c r="AF253">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="AG253" t="s">
-        <v>544</v>
+        <v>802</v>
       </c>
       <c r="AH253">
         <v>5</v>
       </c>
       <c r="AI253" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="254" spans="1:35" x14ac:dyDescent="0.25">
@@ -24931,16 +25107,16 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AF254">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="AG254" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="AH254">
         <v>5</v>
       </c>
       <c r="AI254" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="255" spans="1:35" x14ac:dyDescent="0.25">
@@ -25024,16 +25200,16 @@
         <v>0.6</v>
       </c>
       <c r="AF255">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="AG255" t="s">
-        <v>802</v>
+        <v>391</v>
       </c>
       <c r="AH255">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI255" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="256" spans="1:35" x14ac:dyDescent="0.25">
@@ -25119,16 +25295,16 @@
         <v>0.6</v>
       </c>
       <c r="AF256">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="AG256" t="s">
-        <v>563</v>
+        <v>397</v>
       </c>
       <c r="AH256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI256" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="257" spans="1:35" x14ac:dyDescent="0.25">
@@ -25214,16 +25390,16 @@
         <v>0.42</v>
       </c>
       <c r="AF257">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AG257" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AH257">
         <v>6</v>
       </c>
       <c r="AI257" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="258" spans="1:35" x14ac:dyDescent="0.25">
@@ -25306,16 +25482,16 @@
         <v>0.5</v>
       </c>
       <c r="AF258">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AG258" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AH258">
         <v>6</v>
       </c>
       <c r="AI258" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="259" spans="1:35" x14ac:dyDescent="0.25">
@@ -25401,16 +25577,16 @@
         <v>0.38</v>
       </c>
       <c r="AF259">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AG259" t="s">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="AH259">
         <v>6</v>
       </c>
       <c r="AI259" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.25">
@@ -25496,16 +25672,16 @@
         <v>0.36</v>
       </c>
       <c r="AF260">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AG260" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AH260">
         <v>6</v>
       </c>
       <c r="AI260" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="261" spans="1:35" x14ac:dyDescent="0.25">
@@ -25588,16 +25764,16 @@
         <v>0.24</v>
       </c>
       <c r="AF261">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AG261" t="s">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="AH261">
         <v>6</v>
       </c>
       <c r="AI261" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="262" spans="1:35" x14ac:dyDescent="0.25">
@@ -25683,16 +25859,16 @@
         <v>1.02</v>
       </c>
       <c r="AF262">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AG262" t="s">
-        <v>408</v>
+        <v>12</v>
       </c>
       <c r="AH262">
         <v>6</v>
       </c>
       <c r="AI262" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="263" spans="1:35" x14ac:dyDescent="0.25">
@@ -25778,16 +25954,16 @@
         <v>0.84</v>
       </c>
       <c r="AF263">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG263" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AH263">
         <v>6</v>
       </c>
       <c r="AI263" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="264" spans="1:35" x14ac:dyDescent="0.25">
@@ -25873,16 +26049,16 @@
         <v>0.38</v>
       </c>
       <c r="AF264">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AG264" t="s">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="AH264">
         <v>6</v>
       </c>
       <c r="AI264" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="265" spans="1:35" x14ac:dyDescent="0.25">
@@ -25969,16 +26145,16 @@
         <v>0.88</v>
       </c>
       <c r="AF265">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AG265" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="AH265">
         <v>6</v>
       </c>
       <c r="AI265" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="266" spans="1:35" x14ac:dyDescent="0.25">
@@ -26065,16 +26241,16 @@
         <v>0.7</v>
       </c>
       <c r="AF266">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AG266" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AH266">
         <v>6</v>
       </c>
       <c r="AI266" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="267" spans="1:35" x14ac:dyDescent="0.25">
@@ -26158,16 +26334,16 @@
         <v>0.36</v>
       </c>
       <c r="AF267">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AG267" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AH267">
         <v>6</v>
       </c>
       <c r="AI267" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="268" spans="1:35" x14ac:dyDescent="0.25">
@@ -26251,16 +26427,16 @@
         <v>0.4</v>
       </c>
       <c r="AF268">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AG268" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="AH268">
         <v>6</v>
       </c>
       <c r="AI268" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.25">
@@ -26344,16 +26520,16 @@
         <v>0.52</v>
       </c>
       <c r="AF269">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AG269" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="AH269">
         <v>6</v>
       </c>
       <c r="AI269" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="270" spans="1:35" x14ac:dyDescent="0.25">
@@ -26437,16 +26613,16 @@
         <v>0.5</v>
       </c>
       <c r="AF270">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG270" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH270">
         <v>6</v>
       </c>
       <c r="AI270" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.25">
@@ -26533,16 +26709,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AF271">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG271" t="s">
-        <v>482</v>
+        <v>90</v>
       </c>
       <c r="AH271">
         <v>6</v>
       </c>
       <c r="AI271" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.25">
@@ -26626,7 +26802,7 @@
         <v>6</v>
       </c>
       <c r="AI272" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="273" spans="1:35" x14ac:dyDescent="0.25">
@@ -26707,7 +26883,7 @@
         <v>6</v>
       </c>
       <c r="AI273" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.25">
@@ -26791,7 +26967,7 @@
         <v>6</v>
       </c>
       <c r="AI274" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="275" spans="1:35" x14ac:dyDescent="0.25">
@@ -26872,7 +27048,7 @@
         <v>6</v>
       </c>
       <c r="AI275" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="276" spans="1:35" x14ac:dyDescent="0.25">
@@ -26962,7 +27138,7 @@
         <v>6</v>
       </c>
       <c r="AI276" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="277" spans="1:35" x14ac:dyDescent="0.25">
@@ -27055,7 +27231,7 @@
         <v>6</v>
       </c>
       <c r="AI277" s="36">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="278" spans="1:35" x14ac:dyDescent="0.25">
@@ -27145,7 +27321,7 @@
         <v>7</v>
       </c>
       <c r="AI278" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="279" spans="1:35" x14ac:dyDescent="0.25">
@@ -27238,7 +27414,7 @@
         <v>7</v>
       </c>
       <c r="AI279" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="280" spans="1:35" x14ac:dyDescent="0.25">
@@ -27328,7 +27504,7 @@
         <v>7</v>
       </c>
       <c r="AI280" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="281" spans="1:35" x14ac:dyDescent="0.25">
@@ -27409,16 +27585,16 @@
         <v>0.42999999999999994</v>
       </c>
       <c r="AF281">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="AG281" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="AH281">
         <v>7</v>
       </c>
       <c r="AI281" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="282" spans="1:35" x14ac:dyDescent="0.25">
@@ -27502,16 +27678,16 @@
         <v>0.37</v>
       </c>
       <c r="AF282">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AG282" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="AH282">
         <v>7</v>
       </c>
       <c r="AI282" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="283" spans="1:35" x14ac:dyDescent="0.25">
@@ -27592,16 +27768,16 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="AF283">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AG283" t="s">
-        <v>494</v>
+        <v>63</v>
       </c>
       <c r="AH283">
         <v>7</v>
       </c>
       <c r="AI283" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="284" spans="1:35" x14ac:dyDescent="0.25">
@@ -27684,16 +27860,16 @@
         <v>0.65</v>
       </c>
       <c r="AF284">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AG284" t="s">
-        <v>63</v>
+        <v>501</v>
       </c>
       <c r="AH284">
         <v>7</v>
       </c>
       <c r="AI284" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="285" spans="1:35" x14ac:dyDescent="0.25">
@@ -27773,16 +27949,16 @@
         <v>0.77</v>
       </c>
       <c r="AF285">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AG285" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AH285">
         <v>7</v>
       </c>
       <c r="AI285" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="286" spans="1:35" x14ac:dyDescent="0.25">
@@ -27863,16 +28039,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AF286">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AG286" t="s">
-        <v>508</v>
+        <v>36</v>
       </c>
       <c r="AH286">
         <v>7</v>
       </c>
       <c r="AI286" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="287" spans="1:35" x14ac:dyDescent="0.25">
@@ -27950,16 +28126,16 @@
         <v>1.45</v>
       </c>
       <c r="AF287">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AG287" t="s">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="AH287">
         <v>7</v>
       </c>
       <c r="AI287" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="288" spans="1:35" x14ac:dyDescent="0.25">
@@ -28040,16 +28216,16 @@
         <v>0.38</v>
       </c>
       <c r="AF288">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AG288" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="AH288">
         <v>7</v>
       </c>
       <c r="AI288" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="289" spans="1:35" x14ac:dyDescent="0.25">
@@ -28130,16 +28306,16 @@
         <v>0.54</v>
       </c>
       <c r="AF289">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="AG289" t="s">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="AH289">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI289" s="36">
-        <v>6.8999999999999999E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="290" spans="1:35" x14ac:dyDescent="0.25">
@@ -28217,16 +28393,16 @@
         <v>0.52980000000000005</v>
       </c>
       <c r="AF290">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AG290" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AH290">
         <v>8</v>
       </c>
       <c r="AI290" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="291" spans="1:35" x14ac:dyDescent="0.25">
@@ -28307,16 +28483,16 @@
         <v>1.08</v>
       </c>
       <c r="AF291">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AG291" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AH291">
         <v>8</v>
       </c>
       <c r="AI291" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="292" spans="1:35" x14ac:dyDescent="0.25">
@@ -28394,16 +28570,16 @@
         <v>0.52980000000000005</v>
       </c>
       <c r="AF292">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AG292" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AH292">
         <v>8</v>
       </c>
       <c r="AI292" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="293" spans="1:35" x14ac:dyDescent="0.25">
@@ -28484,16 +28660,16 @@
         <v>0.85019999999999996</v>
       </c>
       <c r="AF293">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="AG293" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="AH293">
         <v>8</v>
       </c>
       <c r="AI293" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="294" spans="1:35" x14ac:dyDescent="0.25">
@@ -28571,16 +28747,16 @@
         <v>0.9798</v>
       </c>
       <c r="AF294">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="AG294" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="AH294">
         <v>8</v>
       </c>
       <c r="AI294" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="295" spans="1:35" x14ac:dyDescent="0.25">
@@ -28667,7 +28843,7 @@
         <v>8</v>
       </c>
       <c r="AI295" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="296" spans="1:35" x14ac:dyDescent="0.25">
@@ -28762,7 +28938,7 @@
         <v>8</v>
       </c>
       <c r="AI296" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="297" spans="1:35" x14ac:dyDescent="0.25">
@@ -28854,7 +29030,7 @@
         <v>8</v>
       </c>
       <c r="AI297" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="298" spans="1:35" x14ac:dyDescent="0.25">
@@ -28949,7 +29125,7 @@
         <v>8</v>
       </c>
       <c r="AI298" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="299" spans="1:35" x14ac:dyDescent="0.25">
@@ -29044,7 +29220,7 @@
         <v>8</v>
       </c>
       <c r="AI299" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="300" spans="1:35" x14ac:dyDescent="0.25">
@@ -29136,7 +29312,7 @@
         <v>8</v>
       </c>
       <c r="AI300" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="301" spans="1:35" x14ac:dyDescent="0.25">
@@ -29231,7 +29407,7 @@
         <v>8</v>
       </c>
       <c r="AI301" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="302" spans="1:35" x14ac:dyDescent="0.25">
@@ -29323,7 +29499,7 @@
         <v>8</v>
       </c>
       <c r="AI302" s="36">
-        <v>7.9000000000000008E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="303" spans="1:35" x14ac:dyDescent="0.25">
@@ -29418,7 +29594,7 @@
         <v>9</v>
       </c>
       <c r="AI303" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="304" spans="1:35" x14ac:dyDescent="0.25">
@@ -29510,7 +29686,7 @@
         <v>9</v>
       </c>
       <c r="AI304" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="305" spans="1:35" x14ac:dyDescent="0.25">
@@ -29600,7 +29776,7 @@
         <v>9</v>
       </c>
       <c r="AI305" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="306" spans="1:35" x14ac:dyDescent="0.25">
@@ -29690,7 +29866,7 @@
         <v>9</v>
       </c>
       <c r="AI306" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="307" spans="1:35" x14ac:dyDescent="0.25">
@@ -29780,7 +29956,7 @@
         <v>9</v>
       </c>
       <c r="AI307" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="308" spans="1:35" x14ac:dyDescent="0.25">
@@ -29870,7 +30046,7 @@
         <v>9</v>
       </c>
       <c r="AI308" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="309" spans="1:35" x14ac:dyDescent="0.25">
@@ -29960,7 +30136,7 @@
         <v>9</v>
       </c>
       <c r="AI309" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="310" spans="1:35" x14ac:dyDescent="0.25">
@@ -30047,7 +30223,7 @@
         <v>9</v>
       </c>
       <c r="AI310" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="311" spans="1:35" x14ac:dyDescent="0.25">
@@ -30139,7 +30315,7 @@
         <v>9</v>
       </c>
       <c r="AI311" s="36">
-        <v>8.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="312" spans="1:35" x14ac:dyDescent="0.25">
@@ -30231,7 +30407,7 @@
         <v>10</v>
       </c>
       <c r="AI312" s="36">
-        <v>9.7999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="313" spans="1:35" x14ac:dyDescent="0.25">
@@ -30320,7 +30496,7 @@
         <v>10</v>
       </c>
       <c r="AI313" s="36">
-        <v>9.7999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="314" spans="1:35" x14ac:dyDescent="0.25">
@@ -30412,7 +30588,7 @@
         <v>10</v>
       </c>
       <c r="AI314" s="36">
-        <v>9.7999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="315" spans="1:35" x14ac:dyDescent="0.25">
@@ -30501,7 +30677,7 @@
         <v>10</v>
       </c>
       <c r="AI315" s="36">
-        <v>9.7999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="316" spans="1:35" x14ac:dyDescent="0.25">
@@ -30593,7 +30769,7 @@
         <v>10</v>
       </c>
       <c r="AI316" s="36">
-        <v>9.7999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="317" spans="1:35" x14ac:dyDescent="0.25">
@@ -30685,7 +30861,7 @@
         <v>10</v>
       </c>
       <c r="AI317" s="36">
-        <v>9.7999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="318" spans="1:35" x14ac:dyDescent="0.25">
@@ -30774,7 +30950,7 @@
         <v>10</v>
       </c>
       <c r="AI318" s="36">
-        <v>9.7999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="319" spans="1:35" x14ac:dyDescent="0.25">
@@ -30864,7 +31040,7 @@
         <v>11</v>
       </c>
       <c r="AI319" s="36">
-        <v>1.0800000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="320" spans="1:35" x14ac:dyDescent="0.25">
@@ -30954,7 +31130,7 @@
         <v>11</v>
       </c>
       <c r="AI320" s="36">
-        <v>1.0800000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="321" spans="1:35" x14ac:dyDescent="0.25">
@@ -31041,7 +31217,7 @@
         <v>11</v>
       </c>
       <c r="AI321" s="36">
-        <v>1.0800000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="322" spans="1:35" x14ac:dyDescent="0.25">
@@ -31131,7 +31307,7 @@
         <v>11</v>
       </c>
       <c r="AI322" s="36">
-        <v>1.0800000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="323" spans="1:35" x14ac:dyDescent="0.25">
@@ -31218,7 +31394,7 @@
         <v>11</v>
       </c>
       <c r="AI323" s="36">
-        <v>1.0800000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="324" spans="1:35" x14ac:dyDescent="0.25">
@@ -31308,7 +31484,7 @@
         <v>12</v>
       </c>
       <c r="AI324" s="36">
-        <v>1.18E-2</v>
+        <v>1.14E-2</v>
       </c>
     </row>
     <row r="325" spans="1:35" x14ac:dyDescent="0.25">
@@ -31395,7 +31571,7 @@
         <v>15</v>
       </c>
       <c r="AI325" s="36">
-        <v>1.4800000000000001E-2</v>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="326" spans="1:35" x14ac:dyDescent="0.25">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjkuhnke\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92DE835-8A1D-41BA-A9A3-770A46A4422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198E147-EE04-456F-9176-E5FF151D3333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4410,7 +4410,7 @@
     <tableColumn id="5" xr3:uid="{D4240EEB-6B7E-4513-81CD-64F028AE015F}" name="Num"/>
     <tableColumn id="1" xr3:uid="{927F8053-02EB-4DE4-A9C2-E39369A9D18C}" name="Species"/>
     <tableColumn id="2" xr3:uid="{88EA7429-2A79-45C2-9DAD-432E911FB847}" name="Amount"/>
-    <tableColumn id="3" xr3:uid="{31049355-8917-406D-A961-EA9E609C094C}" name="Average" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{31049355-8917-406D-A961-EA9E609C094C}" name="Average" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{9EB8DBFF-5E4E-4D13-B06A-8EEDCAE0D250}" name="Total" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>AC30*AB30</calculatedColumnFormula>
     </tableColumn>
@@ -4429,7 +4429,7 @@
     <tableColumn id="1" xr3:uid="{71084C9A-5E75-4048-82AA-70A2D1CBD776}" name="Num"/>
     <tableColumn id="2" xr3:uid="{7A1103DC-DAF9-41EF-BBD3-0883ED909130}" name="Pokemon"/>
     <tableColumn id="3" xr3:uid="{A641B1E3-DC03-463F-B2D8-CE49F38612E2}" name="Amt"/>
-    <tableColumn id="4" xr3:uid="{8554C379-EE33-4C0B-B30E-A04B1C29BF4E}" name="%" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8554C379-EE33-4C0B-B30E-A04B1C29BF4E}" name="%" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA236" sqref="AA236"/>
+    <sheetView tabSelected="1" topLeftCell="U73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN40" sqref="AN40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6612,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG32" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AG33" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -6952,10 +6952,10 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AH34">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG35" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AH35">
         <v>0</v>
@@ -7134,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AH36">
         <v>0</v>
@@ -7222,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG37" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AH37">
         <v>0</v>
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG38" t="s">
-        <v>571</v>
+        <v>805</v>
       </c>
       <c r="AH38">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AG39" t="s">
-        <v>576</v>
+        <v>1151</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -7486,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AG40" t="s">
-        <v>805</v>
+        <v>1155</v>
       </c>
       <c r="AH40">
         <v>0</v>
@@ -7571,10 +7571,10 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AG41" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="AH41">
         <v>0</v>
@@ -7656,10 +7656,10 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AG42" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="AH42">
         <v>0</v>
@@ -7744,10 +7744,10 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AG43" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -7829,10 +7829,10 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG44" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="AH44">
         <v>0</v>
@@ -7911,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AG45" t="s">
-        <v>1161</v>
+        <v>1181</v>
       </c>
       <c r="AH45">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AG46" t="s">
-        <v>1162</v>
+        <v>1177</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AG47" t="s">
-        <v>1164</v>
+        <v>1180</v>
       </c>
       <c r="AH47">
         <v>0</v>
@@ -8148,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AG48" t="s">
-        <v>1165</v>
+        <v>1183</v>
       </c>
       <c r="AH48">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AG49" t="s">
-        <v>1168</v>
+        <v>1201</v>
       </c>
       <c r="AH49">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s">
-        <v>1169</v>
+        <v>1227</v>
       </c>
       <c r="AH50">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="AG51" t="s">
-        <v>1181</v>
+        <v>1228</v>
       </c>
       <c r="AH51">
         <v>0</v>
@@ -8437,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="AG52" t="s">
-        <v>1177</v>
+        <v>1230</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -8501,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="AG53" t="s">
-        <v>1180</v>
+        <v>1231</v>
       </c>
       <c r="AH53">
         <v>0</v>
@@ -8589,10 +8589,10 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AG54" t="s">
-        <v>1183</v>
+        <v>1232</v>
       </c>
       <c r="AH54">
         <v>0</v>
@@ -8677,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="AG55" t="s">
-        <v>1188</v>
+        <v>1233</v>
       </c>
       <c r="AH55">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AG56" t="s">
-        <v>1190</v>
+        <v>1234</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AG57" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="AH57">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AG58" t="s">
-        <v>1227</v>
+        <v>1199</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -9032,16 +9032,16 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="AG59" t="s">
-        <v>1204</v>
+        <v>17</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="60" spans="2:41" x14ac:dyDescent="0.25">
@@ -9123,16 +9123,16 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="AG60" t="s">
-        <v>1228</v>
+        <v>444</v>
       </c>
       <c r="AH60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="61" spans="2:41" x14ac:dyDescent="0.25">
@@ -9211,16 +9211,16 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="AG61" t="s">
-        <v>1229</v>
+        <v>75</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="62" spans="2:41" x14ac:dyDescent="0.25">
@@ -9299,16 +9299,16 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="AG62" t="s">
-        <v>1230</v>
+        <v>99</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="63" spans="2:41" x14ac:dyDescent="0.25">
@@ -9387,16 +9387,16 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="AG63" t="s">
-        <v>1231</v>
+        <v>43</v>
       </c>
       <c r="AH63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="64" spans="2:41" x14ac:dyDescent="0.25">
@@ -9475,16 +9475,16 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>287</v>
+        <v>112</v>
       </c>
       <c r="AG64" t="s">
-        <v>1232</v>
+        <v>44</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="65" spans="2:35" x14ac:dyDescent="0.25">
@@ -9563,16 +9563,16 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="AG65" t="s">
-        <v>1233</v>
+        <v>487</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="66" spans="2:35" x14ac:dyDescent="0.25">
@@ -9651,16 +9651,16 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="AG66" t="s">
-        <v>1234</v>
+        <v>488</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI66" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="67" spans="2:35" x14ac:dyDescent="0.25">
@@ -9739,16 +9739,16 @@
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="AG67" t="s">
-        <v>1198</v>
+        <v>37</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI67" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="68" spans="2:35" x14ac:dyDescent="0.25">
@@ -9827,16 +9827,16 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>291</v>
+        <v>163</v>
       </c>
       <c r="AG68" t="s">
-        <v>1199</v>
+        <v>516</v>
       </c>
       <c r="AH68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="69" spans="2:35" x14ac:dyDescent="0.25">
@@ -9915,16 +9915,16 @@
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="AG69" t="s">
-        <v>1226</v>
+        <v>68</v>
       </c>
       <c r="AH69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI69" s="36">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="70" spans="2:35" x14ac:dyDescent="0.25">
@@ -10003,16 +10003,16 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="AG70" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="AH70">
         <v>1</v>
       </c>
       <c r="AI70" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="71" spans="2:35" x14ac:dyDescent="0.25">
@@ -10091,16 +10091,16 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="AG71" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="AH71">
         <v>1</v>
       </c>
       <c r="AI71" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="72" spans="2:35" x14ac:dyDescent="0.25">
@@ -10179,16 +10179,16 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="AG72" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AH72">
         <v>1</v>
       </c>
       <c r="AI72" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="73" spans="2:35" x14ac:dyDescent="0.25">
@@ -10267,16 +10267,16 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="AG73" t="s">
-        <v>99</v>
+        <v>534</v>
       </c>
       <c r="AH73">
         <v>1</v>
       </c>
       <c r="AI73" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="74" spans="2:35" x14ac:dyDescent="0.25">
@@ -10355,16 +10355,16 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="AG74" t="s">
-        <v>43</v>
+        <v>536</v>
       </c>
       <c r="AH74">
         <v>1</v>
       </c>
       <c r="AI74" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="75" spans="2:35" x14ac:dyDescent="0.25">
@@ -10450,16 +10450,16 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="AG75" t="s">
-        <v>44</v>
+        <v>537</v>
       </c>
       <c r="AH75">
         <v>1</v>
       </c>
       <c r="AI75" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="76" spans="2:35" x14ac:dyDescent="0.25">
@@ -10514,16 +10514,16 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="AG76" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="AH76">
         <v>1</v>
       </c>
       <c r="AI76" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="77" spans="2:35" x14ac:dyDescent="0.25">
@@ -10578,16 +10578,16 @@
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="AG77" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="AH77">
         <v>1</v>
       </c>
       <c r="AI77" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="78" spans="2:35" x14ac:dyDescent="0.25">
@@ -10642,16 +10642,16 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG78" t="s">
-        <v>37</v>
+        <v>543</v>
       </c>
       <c r="AH78">
         <v>1</v>
       </c>
       <c r="AI78" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="79" spans="2:35" x14ac:dyDescent="0.25">
@@ -10706,16 +10706,16 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="AG79" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="AH79">
         <v>1</v>
       </c>
       <c r="AI79" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="80" spans="2:35" x14ac:dyDescent="0.25">
@@ -10770,16 +10770,16 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s">
-        <v>68</v>
+        <v>555</v>
       </c>
       <c r="AH80">
         <v>1</v>
       </c>
       <c r="AI80" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="81" spans="2:35" x14ac:dyDescent="0.25">
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="AG81" t="s">
-        <v>92</v>
+        <v>806</v>
       </c>
       <c r="AH81">
         <v>1</v>
       </c>
       <c r="AI81" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="82" spans="2:35" x14ac:dyDescent="0.25">
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AG82" t="s">
-        <v>101</v>
+        <v>1146</v>
       </c>
       <c r="AH82">
         <v>1</v>
       </c>
       <c r="AI82" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="83" spans="2:35" x14ac:dyDescent="0.25">
@@ -10962,16 +10962,16 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AG83" t="s">
-        <v>95</v>
+        <v>1149</v>
       </c>
       <c r="AH83">
         <v>1</v>
       </c>
       <c r="AI83" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="84" spans="2:35" x14ac:dyDescent="0.25">
@@ -11026,16 +11026,16 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="AG84" t="s">
-        <v>96</v>
+        <v>1157</v>
       </c>
       <c r="AH84">
         <v>1</v>
       </c>
       <c r="AI84" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="85" spans="2:35" x14ac:dyDescent="0.25">
@@ -11093,16 +11093,16 @@
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="AG85" t="s">
-        <v>534</v>
+        <v>1161</v>
       </c>
       <c r="AH85">
         <v>1</v>
       </c>
       <c r="AI85" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="86" spans="2:35" x14ac:dyDescent="0.25">
@@ -11157,16 +11157,16 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="AG86" t="s">
-        <v>536</v>
+        <v>1163</v>
       </c>
       <c r="AH86">
         <v>1</v>
       </c>
       <c r="AI86" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="87" spans="2:35" x14ac:dyDescent="0.25">
@@ -11221,16 +11221,16 @@
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="AG87" t="s">
-        <v>539</v>
+        <v>1164</v>
       </c>
       <c r="AH87">
         <v>1</v>
       </c>
       <c r="AI87" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="88" spans="2:35" x14ac:dyDescent="0.25">
@@ -11285,16 +11285,16 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="AG88" t="s">
-        <v>542</v>
+        <v>1166</v>
       </c>
       <c r="AH88">
         <v>1</v>
       </c>
       <c r="AI88" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="89" spans="2:35" x14ac:dyDescent="0.25">
@@ -11349,16 +11349,16 @@
         <v>0</v>
       </c>
       <c r="AF89">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="AG89" t="s">
-        <v>548</v>
+        <v>1168</v>
       </c>
       <c r="AH89">
         <v>1</v>
       </c>
       <c r="AI89" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="90" spans="2:35" x14ac:dyDescent="0.25">
@@ -11413,16 +11413,16 @@
         <v>0</v>
       </c>
       <c r="AF90">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="AG90" t="s">
-        <v>550</v>
+        <v>1169</v>
       </c>
       <c r="AH90">
         <v>1</v>
       </c>
       <c r="AI90" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="91" spans="2:35" x14ac:dyDescent="0.25">
@@ -11477,16 +11477,16 @@
         <v>0</v>
       </c>
       <c r="AF91">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="AG91" t="s">
-        <v>554</v>
+        <v>1182</v>
       </c>
       <c r="AH91">
         <v>1</v>
       </c>
       <c r="AI91" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="92" spans="2:35" x14ac:dyDescent="0.25">
@@ -11541,16 +11541,16 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="AG92" t="s">
-        <v>555</v>
+        <v>1185</v>
       </c>
       <c r="AH92">
         <v>1</v>
       </c>
       <c r="AI92" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="93" spans="2:35" x14ac:dyDescent="0.25">
@@ -11605,16 +11605,16 @@
         <v>0</v>
       </c>
       <c r="AF93">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="AG93" t="s">
-        <v>559</v>
+        <v>1187</v>
       </c>
       <c r="AH93">
         <v>1</v>
       </c>
       <c r="AI93" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="94" spans="2:35" x14ac:dyDescent="0.25">
@@ -11669,16 +11669,16 @@
         <v>0</v>
       </c>
       <c r="AF94">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="AG94" t="s">
-        <v>804</v>
+        <v>1188</v>
       </c>
       <c r="AH94">
         <v>1</v>
       </c>
       <c r="AI94" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="95" spans="2:35" x14ac:dyDescent="0.25">
@@ -11733,16 +11733,16 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="AG95" t="s">
-        <v>806</v>
+        <v>1190</v>
       </c>
       <c r="AH95">
         <v>1</v>
       </c>
       <c r="AI95" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="96" spans="2:35" x14ac:dyDescent="0.25">
@@ -11797,16 +11797,16 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="AG96" t="s">
-        <v>1146</v>
+        <v>1204</v>
       </c>
       <c r="AH96">
         <v>1</v>
       </c>
       <c r="AI96" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.25">
@@ -11861,16 +11861,16 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="AG97" t="s">
-        <v>1149</v>
+        <v>1229</v>
       </c>
       <c r="AH97">
         <v>1</v>
       </c>
       <c r="AI97" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="98" spans="2:35" x14ac:dyDescent="0.25">
@@ -11925,16 +11925,16 @@
         <v>0</v>
       </c>
       <c r="AF98">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="AG98" t="s">
-        <v>1152</v>
+        <v>1220</v>
       </c>
       <c r="AH98">
         <v>1</v>
       </c>
       <c r="AI98" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="99" spans="2:35" x14ac:dyDescent="0.25">
@@ -11989,16 +11989,16 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="AG99" t="s">
-        <v>1153</v>
+        <v>1221</v>
       </c>
       <c r="AH99">
         <v>1</v>
       </c>
       <c r="AI99" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="100" spans="2:35" x14ac:dyDescent="0.25">
@@ -12053,16 +12053,16 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="AG100" t="s">
-        <v>1156</v>
+        <v>1226</v>
       </c>
       <c r="AH100">
         <v>1</v>
       </c>
       <c r="AI100" s="36">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="101" spans="2:35" x14ac:dyDescent="0.25">
@@ -12117,16 +12117,16 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="s">
-        <v>1157</v>
+        <v>389</v>
       </c>
       <c r="AH101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI101" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="102" spans="2:35" x14ac:dyDescent="0.25">
@@ -12181,16 +12181,16 @@
         <v>0</v>
       </c>
       <c r="AF102">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="AG102" t="s">
-        <v>1158</v>
+        <v>392</v>
       </c>
       <c r="AH102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI102" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="103" spans="2:35" x14ac:dyDescent="0.25">
@@ -12248,16 +12248,16 @@
         <v>0</v>
       </c>
       <c r="AF103">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="AG103" t="s">
-        <v>1163</v>
+        <v>395</v>
       </c>
       <c r="AH103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI103" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="104" spans="2:35" x14ac:dyDescent="0.25">
@@ -12312,16 +12312,16 @@
         <v>0</v>
       </c>
       <c r="AF104">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="AG104" t="s">
-        <v>1166</v>
+        <v>413</v>
       </c>
       <c r="AH104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI104" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="105" spans="2:35" x14ac:dyDescent="0.25">
@@ -12376,16 +12376,16 @@
         <v>0</v>
       </c>
       <c r="AF105">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="AG105" t="s">
-        <v>1179</v>
+        <v>419</v>
       </c>
       <c r="AH105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI105" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="106" spans="2:35" x14ac:dyDescent="0.25">
@@ -12440,16 +12440,16 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="AG106" t="s">
-        <v>1182</v>
+        <v>422</v>
       </c>
       <c r="AH106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI106" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="107" spans="2:35" x14ac:dyDescent="0.25">
@@ -12504,16 +12504,16 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="AG107" t="s">
-        <v>1184</v>
+        <v>47</v>
       </c>
       <c r="AH107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI107" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="108" spans="2:35" x14ac:dyDescent="0.25">
@@ -12568,16 +12568,16 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AG108" t="s">
-        <v>1185</v>
+        <v>577</v>
       </c>
       <c r="AH108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI108" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="109" spans="2:35" x14ac:dyDescent="0.25">
@@ -12632,16 +12632,16 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="AG109" t="s">
-        <v>1187</v>
+        <v>578</v>
       </c>
       <c r="AH109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI109" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="110" spans="2:35" x14ac:dyDescent="0.25">
@@ -12696,16 +12696,16 @@
         <v>0</v>
       </c>
       <c r="AF110">
-        <v>292</v>
+        <v>49</v>
       </c>
       <c r="AG110" t="s">
-        <v>1220</v>
+        <v>18</v>
       </c>
       <c r="AH110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI110" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="111" spans="2:35" x14ac:dyDescent="0.25">
@@ -12760,16 +12760,16 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>293</v>
+        <v>55</v>
       </c>
       <c r="AG111" t="s">
-        <v>1221</v>
+        <v>431</v>
       </c>
       <c r="AH111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI111" s="36">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="112" spans="2:35" x14ac:dyDescent="0.25">
@@ -12824,16 +12824,16 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="AG112" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="AH112">
         <v>2</v>
       </c>
       <c r="AI112" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="113" spans="2:35" x14ac:dyDescent="0.25">
@@ -12888,16 +12888,16 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="AG113" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="AH113">
         <v>2</v>
       </c>
       <c r="AI113" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="114" spans="2:35" x14ac:dyDescent="0.25">
@@ -12952,16 +12952,16 @@
         <v>0</v>
       </c>
       <c r="AF114">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="AG114" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="AH114">
         <v>2</v>
       </c>
       <c r="AI114" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="115" spans="2:35" x14ac:dyDescent="0.25">
@@ -13016,16 +13016,16 @@
         <v>0</v>
       </c>
       <c r="AF115">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="AG115" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="AH115">
         <v>2</v>
       </c>
       <c r="AI115" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="116" spans="2:35" x14ac:dyDescent="0.25">
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="AF116">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AG116" t="s">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="AH116">
         <v>2</v>
       </c>
       <c r="AI116" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="117" spans="2:35" x14ac:dyDescent="0.25">
@@ -13144,16 +13144,16 @@
         <v>0</v>
       </c>
       <c r="AF117">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="AG117" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="AH117">
         <v>2</v>
       </c>
       <c r="AI117" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="118" spans="2:35" x14ac:dyDescent="0.25">
@@ -13208,16 +13208,16 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AG118" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="AH118">
         <v>2</v>
       </c>
       <c r="AI118" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="119" spans="2:35" x14ac:dyDescent="0.25">
@@ -13272,16 +13272,16 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AG119" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="AH119">
         <v>2</v>
       </c>
       <c r="AI119" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="120" spans="2:35" x14ac:dyDescent="0.25">
@@ -13336,16 +13336,16 @@
         <v>0</v>
       </c>
       <c r="AF120">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="AG120" t="s">
-        <v>47</v>
+        <v>480</v>
       </c>
       <c r="AH120">
         <v>2</v>
       </c>
       <c r="AI120" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="121" spans="2:35" x14ac:dyDescent="0.25">
@@ -13400,16 +13400,16 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="AG121" t="s">
-        <v>577</v>
+        <v>484</v>
       </c>
       <c r="AH121">
         <v>2</v>
       </c>
       <c r="AI121" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="122" spans="2:35" x14ac:dyDescent="0.25">
@@ -13464,16 +13464,16 @@
         <v>0</v>
       </c>
       <c r="AF122">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="AG122" t="s">
-        <v>578</v>
+        <v>91</v>
       </c>
       <c r="AH122">
         <v>2</v>
       </c>
       <c r="AI122" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="123" spans="2:35" x14ac:dyDescent="0.25">
@@ -13528,16 +13528,16 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG123" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="AH123">
         <v>2</v>
       </c>
       <c r="AI123" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="124" spans="2:35" x14ac:dyDescent="0.25">
@@ -13592,16 +13592,16 @@
         <v>0</v>
       </c>
       <c r="AF124">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="AG124" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="AH124">
         <v>2</v>
       </c>
       <c r="AI124" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="125" spans="2:35" x14ac:dyDescent="0.25">
@@ -13656,16 +13656,16 @@
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AG125" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="AH125">
         <v>2</v>
       </c>
       <c r="AI125" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="126" spans="2:35" x14ac:dyDescent="0.25">
@@ -13720,16 +13720,16 @@
         <v>0</v>
       </c>
       <c r="AF126">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="AG126" t="s">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="AH126">
         <v>2</v>
       </c>
       <c r="AI126" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="127" spans="2:35" x14ac:dyDescent="0.25">
@@ -13784,16 +13784,16 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AG127" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
       <c r="AH127">
         <v>2</v>
       </c>
       <c r="AI127" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="128" spans="2:35" x14ac:dyDescent="0.25">
@@ -13848,16 +13848,16 @@
         <v>0</v>
       </c>
       <c r="AF128">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AG128" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="AH128">
         <v>2</v>
       </c>
       <c r="AI128" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="129" spans="2:35" x14ac:dyDescent="0.25">
@@ -13912,16 +13912,16 @@
         <v>0</v>
       </c>
       <c r="AF129">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AG129" t="s">
-        <v>454</v>
+        <v>572</v>
       </c>
       <c r="AH129">
         <v>2</v>
       </c>
       <c r="AI129" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="130" spans="2:35" x14ac:dyDescent="0.25">
@@ -13976,16 +13976,16 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="AG130" t="s">
-        <v>471</v>
+        <v>93</v>
       </c>
       <c r="AH130">
         <v>2</v>
       </c>
       <c r="AI130" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="131" spans="2:35" x14ac:dyDescent="0.25">
@@ -14040,16 +14040,16 @@
         <v>0.01</v>
       </c>
       <c r="AF131">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AG131" t="s">
-        <v>474</v>
+        <v>102</v>
       </c>
       <c r="AH131">
         <v>2</v>
       </c>
       <c r="AI131" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="132" spans="2:35" x14ac:dyDescent="0.25">
@@ -14104,16 +14104,16 @@
         <v>0.01</v>
       </c>
       <c r="AF132">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="AG132" t="s">
-        <v>475</v>
+        <v>95</v>
       </c>
       <c r="AH132">
         <v>2</v>
       </c>
       <c r="AI132" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="133" spans="2:35" x14ac:dyDescent="0.25">
@@ -14168,16 +14168,16 @@
         <v>0.01</v>
       </c>
       <c r="AF133">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="AG133" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="AH133">
         <v>2</v>
       </c>
       <c r="AI133" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="134" spans="2:35" x14ac:dyDescent="0.25">
@@ -14232,16 +14232,16 @@
         <v>0.02</v>
       </c>
       <c r="AF134">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="AG134" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="AH134">
         <v>2</v>
       </c>
       <c r="AI134" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="135" spans="2:35" x14ac:dyDescent="0.25">
@@ -14296,16 +14296,16 @@
         <v>0.02</v>
       </c>
       <c r="AF135">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="AG135" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="AH135">
         <v>2</v>
       </c>
       <c r="AI135" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="136" spans="2:35" x14ac:dyDescent="0.25">
@@ -14360,16 +14360,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF136">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AG136" t="s">
-        <v>91</v>
+        <v>532</v>
       </c>
       <c r="AH136">
         <v>2</v>
       </c>
       <c r="AI136" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="137" spans="2:35" x14ac:dyDescent="0.25">
@@ -14424,16 +14424,16 @@
         <v>0.04</v>
       </c>
       <c r="AF137">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="AG137" t="s">
-        <v>42</v>
+        <v>540</v>
       </c>
       <c r="AH137">
         <v>2</v>
       </c>
       <c r="AI137" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="138" spans="2:35" x14ac:dyDescent="0.25">
@@ -14491,16 +14491,16 @@
         <v>0.04</v>
       </c>
       <c r="AF138">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="AG138" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="AH138">
         <v>2</v>
       </c>
       <c r="AI138" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="139" spans="2:35" x14ac:dyDescent="0.25">
@@ -14555,16 +14555,16 @@
         <v>0.04</v>
       </c>
       <c r="AF139">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="AG139" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="AH139">
         <v>2</v>
       </c>
       <c r="AI139" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="140" spans="2:35" x14ac:dyDescent="0.25">
@@ -14619,16 +14619,16 @@
         <v>0.04</v>
       </c>
       <c r="AF140">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="AG140" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="AH140">
         <v>2</v>
       </c>
       <c r="AI140" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="141" spans="2:35" x14ac:dyDescent="0.25">
@@ -14690,16 +14690,16 @@
         <v>0.09</v>
       </c>
       <c r="AF141">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="AG141" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="AH141">
         <v>2</v>
       </c>
       <c r="AI141" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="142" spans="2:35" x14ac:dyDescent="0.25">
@@ -14764,16 +14764,16 @@
         <v>0.05</v>
       </c>
       <c r="AF142">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="AG142" t="s">
-        <v>39</v>
+        <v>557</v>
       </c>
       <c r="AH142">
         <v>2</v>
       </c>
       <c r="AI142" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="143" spans="2:35" x14ac:dyDescent="0.25">
@@ -14835,16 +14835,16 @@
         <v>0.05</v>
       </c>
       <c r="AF143">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="AG143" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="AH143">
         <v>2</v>
       </c>
       <c r="AI143" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="144" spans="2:35" x14ac:dyDescent="0.25">
@@ -14918,16 +14918,16 @@
         <v>0.05</v>
       </c>
       <c r="AF144">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="AG144" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="AH144">
         <v>2</v>
       </c>
       <c r="AI144" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="145" spans="1:35" x14ac:dyDescent="0.25">
@@ -14994,16 +14994,16 @@
         <v>0.05</v>
       </c>
       <c r="AF145">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="AG145" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="AH145">
         <v>2</v>
       </c>
       <c r="AI145" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="146" spans="1:35" x14ac:dyDescent="0.25">
@@ -15095,16 +15095,16 @@
         <v>0.05</v>
       </c>
       <c r="AF146">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="AG146" t="s">
-        <v>93</v>
+        <v>562</v>
       </c>
       <c r="AH146">
         <v>2</v>
       </c>
       <c r="AI146" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.25">
@@ -15193,16 +15193,16 @@
         <v>0.15989999999999999</v>
       </c>
       <c r="AF147">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="AG147" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="AH147">
         <v>2</v>
       </c>
       <c r="AI147" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.25">
@@ -15291,16 +15291,16 @@
         <v>0.11</v>
       </c>
       <c r="AF148">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="AG148" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="AH148">
         <v>2</v>
       </c>
       <c r="AI148" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
@@ -15389,16 +15389,16 @@
         <v>0.24</v>
       </c>
       <c r="AF149">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="AG149" t="s">
-        <v>529</v>
+        <v>804</v>
       </c>
       <c r="AH149">
         <v>2</v>
       </c>
       <c r="AI149" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
@@ -15487,16 +15487,16 @@
         <v>0.06</v>
       </c>
       <c r="AF150">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="AG150" t="s">
-        <v>531</v>
+        <v>1152</v>
       </c>
       <c r="AH150">
         <v>2</v>
       </c>
       <c r="AI150" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="151" spans="1:35" x14ac:dyDescent="0.25">
@@ -15582,16 +15582,16 @@
         <v>0.06</v>
       </c>
       <c r="AF151">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="AG151" t="s">
-        <v>532</v>
+        <v>1153</v>
       </c>
       <c r="AH151">
         <v>2</v>
       </c>
       <c r="AI151" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.25">
@@ -15683,16 +15683,16 @@
         <v>0.18</v>
       </c>
       <c r="AF152">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="AG152" t="s">
-        <v>540</v>
+        <v>1156</v>
       </c>
       <c r="AH152">
         <v>2</v>
       </c>
       <c r="AI152" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
@@ -15781,16 +15781,16 @@
         <v>0.18989999999999999</v>
       </c>
       <c r="AF153">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="AG153" t="s">
-        <v>546</v>
+        <v>1158</v>
       </c>
       <c r="AH153">
         <v>2</v>
       </c>
       <c r="AI153" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
@@ -15876,16 +15876,16 @@
         <v>0.13</v>
       </c>
       <c r="AF154">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="AG154" t="s">
-        <v>552</v>
+        <v>1179</v>
       </c>
       <c r="AH154">
         <v>2</v>
       </c>
       <c r="AI154" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="155" spans="1:35" x14ac:dyDescent="0.25">
@@ -15974,16 +15974,16 @@
         <v>0.2001</v>
       </c>
       <c r="AF155">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="AG155" t="s">
-        <v>557</v>
+        <v>1184</v>
       </c>
       <c r="AH155">
         <v>2</v>
       </c>
       <c r="AI155" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.25">
@@ -16072,16 +16072,16 @@
         <v>0.2001</v>
       </c>
       <c r="AF156">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="AG156" t="s">
-        <v>558</v>
+        <v>1186</v>
       </c>
       <c r="AH156">
         <v>2</v>
       </c>
       <c r="AI156" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.25">
@@ -16170,16 +16170,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF157">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="AG157" t="s">
-        <v>560</v>
+        <v>1189</v>
       </c>
       <c r="AH157">
         <v>2</v>
       </c>
       <c r="AI157" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.25">
@@ -16268,16 +16268,16 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="AF158">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="AG158" t="s">
-        <v>562</v>
+        <v>1200</v>
       </c>
       <c r="AH158">
         <v>2</v>
       </c>
       <c r="AI158" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
@@ -16366,16 +16366,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF159">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="AG159" t="s">
-        <v>86</v>
+        <v>1203</v>
       </c>
       <c r="AH159">
         <v>2</v>
       </c>
       <c r="AI159" s="36">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
@@ -16461,16 +16461,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF160">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="AG160" t="s">
-        <v>567</v>
+        <v>390</v>
       </c>
       <c r="AH160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI160" s="36">
-        <v>1.9E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
@@ -16559,16 +16559,16 @@
         <v>0.43020000000000003</v>
       </c>
       <c r="AF161">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="AG161" t="s">
-        <v>1145</v>
+        <v>393</v>
       </c>
       <c r="AH161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI161" s="36">
-        <v>1.9E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.25">
@@ -16657,16 +16657,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AF162">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="AG162" t="s">
-        <v>1150</v>
+        <v>396</v>
       </c>
       <c r="AH162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI162" s="36">
-        <v>1.9E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.25">
@@ -16755,16 +16755,16 @@
         <v>0.37</v>
       </c>
       <c r="AF163">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="AG163" t="s">
-        <v>1186</v>
+        <v>399</v>
       </c>
       <c r="AH163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI163" s="36">
-        <v>1.9E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
@@ -16856,16 +16856,16 @@
         <v>0.15</v>
       </c>
       <c r="AF164">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="AG164" t="s">
-        <v>1189</v>
+        <v>16</v>
       </c>
       <c r="AH164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI164" s="36">
-        <v>1.9E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.25">
@@ -16954,16 +16954,16 @@
         <v>0.38</v>
       </c>
       <c r="AF165">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="AG165" t="s">
-        <v>1200</v>
+        <v>407</v>
       </c>
       <c r="AH165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI165" s="36">
-        <v>1.9E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
@@ -17049,16 +17049,16 @@
         <v>0.69030000000000002</v>
       </c>
       <c r="AF166">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="AG166" t="s">
-        <v>1203</v>
+        <v>409</v>
       </c>
       <c r="AH166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI166" s="36">
-        <v>1.9E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.25">
@@ -17145,16 +17145,16 @@
         <v>0.31</v>
       </c>
       <c r="AF167">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="AG167" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="AH167">
         <v>3</v>
       </c>
       <c r="AI167" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.25">
@@ -17241,16 +17241,16 @@
         <v>0.16</v>
       </c>
       <c r="AF168">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AG168" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="AH168">
         <v>3</v>
       </c>
       <c r="AI168" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
@@ -17336,16 +17336,16 @@
         <v>0.24</v>
       </c>
       <c r="AF169">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="AG169" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="AH169">
         <v>3</v>
       </c>
       <c r="AI169" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
@@ -17434,16 +17434,16 @@
         <v>0.16</v>
       </c>
       <c r="AF170">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="AG170" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="AH170">
         <v>3</v>
       </c>
       <c r="AI170" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
@@ -17530,16 +17530,16 @@
         <v>0.33</v>
       </c>
       <c r="AF171">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="AG171" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="AH171">
         <v>3</v>
       </c>
       <c r="AI171" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
@@ -17626,16 +17626,16 @@
         <v>0.24990000000000001</v>
       </c>
       <c r="AF172">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="AG172" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="AH172">
         <v>3</v>
       </c>
       <c r="AI172" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.25">
@@ -17716,16 +17716,16 @@
         <v>0.24990000000000001</v>
       </c>
       <c r="AF173">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="AG173" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="AH173">
         <v>3</v>
       </c>
       <c r="AI173" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
@@ -17811,16 +17811,16 @@
         <v>0.17</v>
       </c>
       <c r="AF174">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AG174" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="AH174">
         <v>3</v>
       </c>
       <c r="AI174" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="175" spans="1:35" x14ac:dyDescent="0.25">
@@ -17906,16 +17906,16 @@
         <v>0.17</v>
       </c>
       <c r="AF175">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="AG175" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="AH175">
         <v>3</v>
       </c>
       <c r="AI175" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="176" spans="1:35" x14ac:dyDescent="0.25">
@@ -17998,16 +17998,16 @@
         <v>0.59989999999999999</v>
       </c>
       <c r="AF176">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="AG176" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="AH176">
         <v>3</v>
       </c>
       <c r="AI176" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
@@ -18091,16 +18091,16 @@
         <v>0.42999999999999994</v>
       </c>
       <c r="AF177">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="AG177" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="AH177">
         <v>3</v>
       </c>
       <c r="AI177" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
@@ -18184,16 +18184,16 @@
         <v>0.2601</v>
       </c>
       <c r="AF178">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="AG178" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="AH178">
         <v>3</v>
       </c>
       <c r="AI178" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="179" spans="1:35" x14ac:dyDescent="0.25">
@@ -18274,16 +18274,16 @@
         <v>0.2601</v>
       </c>
       <c r="AF179">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="AG179" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="AH179">
         <v>3</v>
       </c>
       <c r="AI179" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
@@ -18367,16 +18367,16 @@
         <v>0.35</v>
       </c>
       <c r="AF180">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AG180" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="AH180">
         <v>3</v>
       </c>
       <c r="AI180" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
@@ -18460,16 +18460,16 @@
         <v>0.52980000000000005</v>
       </c>
       <c r="AF181">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AG181" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="AH181">
         <v>3</v>
       </c>
       <c r="AI181" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
@@ -18550,16 +18550,16 @@
         <v>0.52980000000000005</v>
       </c>
       <c r="AF182">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AG182" t="s">
-        <v>458</v>
+        <v>42</v>
       </c>
       <c r="AH182">
         <v>3</v>
       </c>
       <c r="AI182" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.25">
@@ -18642,16 +18642,16 @@
         <v>0.09</v>
       </c>
       <c r="AF183">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="AG183" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="AH183">
         <v>3</v>
       </c>
       <c r="AI183" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
@@ -18740,16 +18740,16 @@
         <v>0.36</v>
       </c>
       <c r="AF184">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="AG184" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
       <c r="AH184">
         <v>3</v>
       </c>
       <c r="AI184" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
@@ -18835,16 +18835,16 @@
         <v>0.36</v>
       </c>
       <c r="AF185">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="AG185" t="s">
-        <v>476</v>
+        <v>584</v>
       </c>
       <c r="AH185">
         <v>3</v>
       </c>
       <c r="AI185" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
@@ -18930,16 +18930,16 @@
         <v>0.18</v>
       </c>
       <c r="AF186">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="AG186" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="AH186">
         <v>3</v>
       </c>
       <c r="AI186" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
@@ -19025,16 +19025,16 @@
         <v>0.09</v>
       </c>
       <c r="AF187">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AG187" t="s">
-        <v>493</v>
+        <v>62</v>
       </c>
       <c r="AH187">
         <v>3</v>
       </c>
       <c r="AI187" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
@@ -19117,16 +19117,16 @@
         <v>0.09</v>
       </c>
       <c r="AF188">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="AG188" t="s">
-        <v>583</v>
+        <v>505</v>
       </c>
       <c r="AH188">
         <v>3</v>
       </c>
       <c r="AI188" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
@@ -19210,16 +19210,16 @@
         <v>0.09</v>
       </c>
       <c r="AF189">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AG189" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="AH189">
         <v>3</v>
       </c>
       <c r="AI189" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
@@ -19303,16 +19303,16 @@
         <v>0.37</v>
       </c>
       <c r="AF190">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AG190" t="s">
-        <v>495</v>
+        <v>69</v>
       </c>
       <c r="AH190">
         <v>3</v>
       </c>
       <c r="AI190" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
@@ -19393,16 +19393,16 @@
         <v>0.27989999999999998</v>
       </c>
       <c r="AF191">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="AG191" t="s">
-        <v>62</v>
+        <v>522</v>
       </c>
       <c r="AH191">
         <v>3</v>
       </c>
       <c r="AI191" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.25">
@@ -19479,16 +19479,16 @@
         <v>0.27989999999999998</v>
       </c>
       <c r="AF192">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="AG192" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="AH192">
         <v>3</v>
       </c>
       <c r="AI192" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="193" spans="1:35" x14ac:dyDescent="0.25">
@@ -19568,16 +19568,16 @@
         <v>0.27989999999999998</v>
       </c>
       <c r="AF193">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AG193" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AH193">
         <v>3</v>
       </c>
       <c r="AI193" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="194" spans="1:35" x14ac:dyDescent="0.25">
@@ -19663,16 +19663,16 @@
         <v>0.38</v>
       </c>
       <c r="AF194">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG194" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AH194">
         <v>3</v>
       </c>
       <c r="AI194" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="195" spans="1:35" x14ac:dyDescent="0.25">
@@ -19755,16 +19755,16 @@
         <v>0.38</v>
       </c>
       <c r="AF195">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AG195" t="s">
-        <v>522</v>
+        <v>801</v>
       </c>
       <c r="AH195">
         <v>3</v>
       </c>
       <c r="AI195" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.25">
@@ -19850,16 +19850,16 @@
         <v>0.19</v>
       </c>
       <c r="AF196">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AG196" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="AH196">
         <v>3</v>
       </c>
       <c r="AI196" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="197" spans="1:35" x14ac:dyDescent="0.25">
@@ -19945,16 +19945,16 @@
         <v>0.19</v>
       </c>
       <c r="AF197">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="AG197" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="AH197">
         <v>3</v>
       </c>
       <c r="AI197" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.25">
@@ -20040,16 +20040,16 @@
         <v>0.19</v>
       </c>
       <c r="AF198">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="AG198" t="s">
-        <v>103</v>
+        <v>1145</v>
       </c>
       <c r="AH198">
         <v>3</v>
       </c>
       <c r="AI198" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.25">
@@ -20132,16 +20132,16 @@
         <v>0.29009999999999997</v>
       </c>
       <c r="AF199">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="AG199" t="s">
-        <v>801</v>
+        <v>1150</v>
       </c>
       <c r="AH199">
         <v>3</v>
       </c>
       <c r="AI199" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.25">
@@ -20227,16 +20227,16 @@
         <v>0.29009999999999997</v>
       </c>
       <c r="AF200">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="AG200" t="s">
-        <v>530</v>
+        <v>1160</v>
       </c>
       <c r="AH200">
         <v>3</v>
       </c>
       <c r="AI200" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="201" spans="1:35" x14ac:dyDescent="0.25">
@@ -20319,16 +20319,16 @@
         <v>0.29009999999999997</v>
       </c>
       <c r="AF201">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="AG201" t="s">
-        <v>549</v>
+        <v>1167</v>
       </c>
       <c r="AH201">
         <v>3</v>
       </c>
       <c r="AI201" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="202" spans="1:35" x14ac:dyDescent="0.25">
@@ -20411,16 +20411,16 @@
         <v>0.58979999999999999</v>
       </c>
       <c r="AF202">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AG202" t="s">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="AH202">
         <v>3</v>
       </c>
       <c r="AI202" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="203" spans="1:35" x14ac:dyDescent="0.25">
@@ -20500,16 +20500,16 @@
         <v>0.2</v>
       </c>
       <c r="AF203">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="AG203" t="s">
-        <v>1167</v>
+        <v>1222</v>
       </c>
       <c r="AH203">
         <v>3</v>
       </c>
       <c r="AI203" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="204" spans="1:35" x14ac:dyDescent="0.25">
@@ -20592,16 +20592,16 @@
         <v>0.1</v>
       </c>
       <c r="AF204">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="AG204" t="s">
-        <v>1178</v>
+        <v>1225</v>
       </c>
       <c r="AH204">
         <v>3</v>
       </c>
       <c r="AI204" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="205" spans="1:35" x14ac:dyDescent="0.25">
@@ -20681,16 +20681,16 @@
         <v>0.1</v>
       </c>
       <c r="AF205">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="AG205" t="s">
-        <v>1222</v>
+        <v>402</v>
       </c>
       <c r="AH205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI205" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="206" spans="1:35" x14ac:dyDescent="0.25">
@@ -20770,16 +20770,16 @@
         <v>0.4</v>
       </c>
       <c r="AF206">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="AG206" t="s">
-        <v>1225</v>
+        <v>404</v>
       </c>
       <c r="AH206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI206" s="36">
-        <v>2.8999999999999998E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="207" spans="1:35" x14ac:dyDescent="0.25">
@@ -20862,16 +20862,16 @@
         <v>0.2</v>
       </c>
       <c r="AF207">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AG207" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AH207">
         <v>4</v>
       </c>
       <c r="AI207" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="208" spans="1:35" x14ac:dyDescent="0.25">
@@ -20948,16 +20948,16 @@
         <v>0.2</v>
       </c>
       <c r="AF208">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AG208" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AH208">
         <v>4</v>
       </c>
       <c r="AI208" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="209" spans="1:35" x14ac:dyDescent="0.25">
@@ -21035,16 +21035,16 @@
         <v>0.2</v>
       </c>
       <c r="AF209">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="AG209" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="AH209">
         <v>4</v>
       </c>
       <c r="AI209" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="210" spans="1:35" x14ac:dyDescent="0.25">
@@ -21119,16 +21119,16 @@
         <v>0.1</v>
       </c>
       <c r="AF210">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AG210" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="AH210">
         <v>4</v>
       </c>
       <c r="AI210" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="211" spans="1:35" x14ac:dyDescent="0.25">
@@ -21208,16 +21208,16 @@
         <v>0.1</v>
       </c>
       <c r="AF211">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="AG211" t="s">
-        <v>49</v>
+        <v>446</v>
       </c>
       <c r="AH211">
         <v>4</v>
       </c>
       <c r="AI211" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="212" spans="1:35" x14ac:dyDescent="0.25">
@@ -21294,16 +21294,16 @@
         <v>0.2</v>
       </c>
       <c r="AF212">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AG212" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="AH212">
         <v>4</v>
       </c>
       <c r="AI212" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="213" spans="1:35" x14ac:dyDescent="0.25">
@@ -21383,16 +21383,16 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AF213">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AG213" t="s">
-        <v>446</v>
+        <v>1101</v>
       </c>
       <c r="AH213">
         <v>4</v>
       </c>
       <c r="AI213" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="214" spans="1:35" x14ac:dyDescent="0.25">
@@ -21472,16 +21472,16 @@
         <v>0.72030000000000005</v>
       </c>
       <c r="AF214">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AG214" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AH214">
         <v>4</v>
       </c>
       <c r="AI214" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="215" spans="1:35" x14ac:dyDescent="0.25">
@@ -21558,16 +21558,16 @@
         <v>0.42</v>
       </c>
       <c r="AF215">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AG215" t="s">
-        <v>1101</v>
+        <v>465</v>
       </c>
       <c r="AH215">
         <v>4</v>
       </c>
       <c r="AI215" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="216" spans="1:35" x14ac:dyDescent="0.25">
@@ -21647,16 +21647,16 @@
         <v>0.42</v>
       </c>
       <c r="AF216">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG216" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AH216">
         <v>4</v>
       </c>
       <c r="AI216" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="217" spans="1:35" x14ac:dyDescent="0.25">
@@ -21733,16 +21733,16 @@
         <v>0.21</v>
       </c>
       <c r="AF217">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AG217" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AH217">
         <v>4</v>
       </c>
       <c r="AI217" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="218" spans="1:35" x14ac:dyDescent="0.25">
@@ -21825,16 +21825,16 @@
         <v>0.3201</v>
       </c>
       <c r="AF218">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="AG218" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="AH218">
         <v>4</v>
       </c>
       <c r="AI218" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="219" spans="1:35" x14ac:dyDescent="0.25">
@@ -21914,16 +21914,16 @@
         <v>0.3201</v>
       </c>
       <c r="AF219">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="AG219" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="AH219">
         <v>4</v>
       </c>
       <c r="AI219" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="220" spans="1:35" x14ac:dyDescent="0.25">
@@ -22003,16 +22003,16 @@
         <v>0.54</v>
       </c>
       <c r="AF220">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="AG220" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AH220">
         <v>4</v>
       </c>
       <c r="AI220" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="221" spans="1:35" x14ac:dyDescent="0.25">
@@ -22092,16 +22092,16 @@
         <v>0.22</v>
       </c>
       <c r="AF221">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="AG221" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="AH221">
         <v>4</v>
       </c>
       <c r="AI221" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="222" spans="1:35" x14ac:dyDescent="0.25">
@@ -22178,16 +22178,16 @@
         <v>0.11</v>
       </c>
       <c r="AF222">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="AG222" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="AH222">
         <v>4</v>
       </c>
       <c r="AI222" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="223" spans="1:35" x14ac:dyDescent="0.25">
@@ -22270,16 +22270,16 @@
         <v>0.22</v>
       </c>
       <c r="AF223">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AG223" t="s">
-        <v>526</v>
+        <v>97</v>
       </c>
       <c r="AH223">
         <v>4</v>
       </c>
       <c r="AI223" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="224" spans="1:35" x14ac:dyDescent="0.25">
@@ -22356,16 +22356,16 @@
         <v>0.33</v>
       </c>
       <c r="AF224">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG224" t="s">
-        <v>97</v>
+        <v>535</v>
       </c>
       <c r="AH224">
         <v>4</v>
       </c>
       <c r="AI224" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="225" spans="1:35" x14ac:dyDescent="0.25">
@@ -22445,16 +22445,16 @@
         <v>0.22</v>
       </c>
       <c r="AF225">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AG225" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AH225">
         <v>4</v>
       </c>
       <c r="AI225" s="36">
-        <v>3.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="226" spans="1:35" x14ac:dyDescent="0.25">
@@ -22531,16 +22531,16 @@
         <v>0.22</v>
       </c>
       <c r="AF226">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="AG226" t="s">
-        <v>541</v>
+        <v>401</v>
       </c>
       <c r="AH226">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI226" s="36">
-        <v>3.8E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="227" spans="1:35" x14ac:dyDescent="0.25">
@@ -22617,16 +22617,16 @@
         <v>0.33989999999999998</v>
       </c>
       <c r="AF227">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AG227" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AH227">
         <v>5</v>
       </c>
       <c r="AI227" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="228" spans="1:35" x14ac:dyDescent="0.25">
@@ -22706,16 +22706,16 @@
         <v>0.23</v>
       </c>
       <c r="AF228">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="AG228" t="s">
-        <v>417</v>
+        <v>48</v>
       </c>
       <c r="AH228">
         <v>5</v>
       </c>
       <c r="AI228" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="229" spans="1:35" x14ac:dyDescent="0.25">
@@ -22807,16 +22807,16 @@
         <v>0.59</v>
       </c>
       <c r="AF229">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG229" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AH229">
         <v>5</v>
       </c>
       <c r="AI229" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="230" spans="1:35" x14ac:dyDescent="0.25">
@@ -22905,16 +22905,16 @@
         <v>0.36</v>
       </c>
       <c r="AF230">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AG230" t="s">
-        <v>19</v>
+        <v>429</v>
       </c>
       <c r="AH230">
         <v>5</v>
       </c>
       <c r="AI230" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="231" spans="1:35" x14ac:dyDescent="0.25">
@@ -23003,16 +23003,16 @@
         <v>0.12</v>
       </c>
       <c r="AF231">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG231" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AH231">
         <v>5</v>
       </c>
       <c r="AI231" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="232" spans="1:35" x14ac:dyDescent="0.25">
@@ -23107,7 +23107,7 @@
         <v>5</v>
       </c>
       <c r="AI232" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="233" spans="1:35" x14ac:dyDescent="0.25">
@@ -23205,7 +23205,7 @@
         <v>5</v>
       </c>
       <c r="AI233" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="234" spans="1:35" x14ac:dyDescent="0.25">
@@ -23300,7 +23300,7 @@
         <v>5</v>
       </c>
       <c r="AI234" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="235" spans="1:35" x14ac:dyDescent="0.25">
@@ -23398,7 +23398,7 @@
         <v>5</v>
       </c>
       <c r="AI235" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="236" spans="1:35" x14ac:dyDescent="0.25">
@@ -23493,7 +23493,7 @@
         <v>5</v>
       </c>
       <c r="AI236" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="237" spans="1:35" x14ac:dyDescent="0.25">
@@ -23591,7 +23591,7 @@
         <v>5</v>
       </c>
       <c r="AI237" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="238" spans="1:35" x14ac:dyDescent="0.25">
@@ -23686,7 +23686,7 @@
         <v>5</v>
       </c>
       <c r="AI238" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="239" spans="1:35" x14ac:dyDescent="0.25">
@@ -23784,7 +23784,7 @@
         <v>5</v>
       </c>
       <c r="AI239" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="240" spans="1:35" x14ac:dyDescent="0.25">
@@ -23882,7 +23882,7 @@
         <v>5</v>
       </c>
       <c r="AI240" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="241" spans="1:35" x14ac:dyDescent="0.25">
@@ -23977,7 +23977,7 @@
         <v>5</v>
       </c>
       <c r="AI241" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="242" spans="1:35" x14ac:dyDescent="0.25">
@@ -24069,7 +24069,7 @@
         <v>5</v>
       </c>
       <c r="AI242" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="243" spans="1:35" x14ac:dyDescent="0.25">
@@ -24163,7 +24163,7 @@
         <v>5</v>
       </c>
       <c r="AI243" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="244" spans="1:35" x14ac:dyDescent="0.25">
@@ -24256,7 +24256,7 @@
         <v>5</v>
       </c>
       <c r="AI244" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="245" spans="1:35" x14ac:dyDescent="0.25">
@@ -24346,7 +24346,7 @@
         <v>5</v>
       </c>
       <c r="AI245" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="246" spans="1:35" x14ac:dyDescent="0.25">
@@ -24441,7 +24441,7 @@
         <v>5</v>
       </c>
       <c r="AI246" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="247" spans="1:35" x14ac:dyDescent="0.25">
@@ -24536,7 +24536,7 @@
         <v>5</v>
       </c>
       <c r="AI247" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="248" spans="1:35" x14ac:dyDescent="0.25">
@@ -24628,7 +24628,7 @@
         <v>5</v>
       </c>
       <c r="AI248" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="249" spans="1:35" x14ac:dyDescent="0.25">
@@ -24726,7 +24726,7 @@
         <v>5</v>
       </c>
       <c r="AI249" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="250" spans="1:35" x14ac:dyDescent="0.25">
@@ -24821,7 +24821,7 @@
         <v>5</v>
       </c>
       <c r="AI250" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="251" spans="1:35" x14ac:dyDescent="0.25">
@@ -24916,7 +24916,7 @@
         <v>5</v>
       </c>
       <c r="AI251" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="252" spans="1:35" x14ac:dyDescent="0.25">
@@ -25008,7 +25008,7 @@
         <v>5</v>
       </c>
       <c r="AI252" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="253" spans="1:35" x14ac:dyDescent="0.25">
@@ -25092,7 +25092,7 @@
         <v>5</v>
       </c>
       <c r="AI253" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="254" spans="1:35" x14ac:dyDescent="0.25">
@@ -25182,7 +25182,7 @@
         <v>5</v>
       </c>
       <c r="AI254" s="36">
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="255" spans="1:35" x14ac:dyDescent="0.25">
@@ -25275,7 +25275,7 @@
         <v>6</v>
       </c>
       <c r="AI255" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="256" spans="1:35" x14ac:dyDescent="0.25">
@@ -25370,7 +25370,7 @@
         <v>6</v>
       </c>
       <c r="AI256" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="257" spans="1:35" x14ac:dyDescent="0.25">
@@ -25465,7 +25465,7 @@
         <v>6</v>
       </c>
       <c r="AI257" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="258" spans="1:35" x14ac:dyDescent="0.25">
@@ -25557,7 +25557,7 @@
         <v>6</v>
       </c>
       <c r="AI258" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="259" spans="1:35" x14ac:dyDescent="0.25">
@@ -25652,7 +25652,7 @@
         <v>6</v>
       </c>
       <c r="AI259" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.25">
@@ -25747,7 +25747,7 @@
         <v>6</v>
       </c>
       <c r="AI260" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="261" spans="1:35" x14ac:dyDescent="0.25">
@@ -25839,7 +25839,7 @@
         <v>6</v>
       </c>
       <c r="AI261" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="262" spans="1:35" x14ac:dyDescent="0.25">
@@ -25934,7 +25934,7 @@
         <v>6</v>
       </c>
       <c r="AI262" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="263" spans="1:35" x14ac:dyDescent="0.25">
@@ -26029,7 +26029,7 @@
         <v>6</v>
       </c>
       <c r="AI263" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="264" spans="1:35" x14ac:dyDescent="0.25">
@@ -26124,7 +26124,7 @@
         <v>6</v>
       </c>
       <c r="AI264" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="265" spans="1:35" x14ac:dyDescent="0.25">
@@ -26220,7 +26220,7 @@
         <v>6</v>
       </c>
       <c r="AI265" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="266" spans="1:35" x14ac:dyDescent="0.25">
@@ -26316,7 +26316,7 @@
         <v>6</v>
       </c>
       <c r="AI266" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="267" spans="1:35" x14ac:dyDescent="0.25">
@@ -26409,7 +26409,7 @@
         <v>6</v>
       </c>
       <c r="AI267" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="268" spans="1:35" x14ac:dyDescent="0.25">
@@ -26493,16 +26493,16 @@
         <v>0.86999999999999988</v>
       </c>
       <c r="AF268">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AG268" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="AH268">
         <v>6</v>
       </c>
       <c r="AI268" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.25">
@@ -26586,16 +26586,16 @@
         <v>0.88019999999999998</v>
       </c>
       <c r="AF269">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG269" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH269">
         <v>6</v>
       </c>
       <c r="AI269" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="270" spans="1:35" x14ac:dyDescent="0.25">
@@ -26679,16 +26679,16 @@
         <v>1.47</v>
       </c>
       <c r="AF270">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG270" t="s">
-        <v>482</v>
+        <v>90</v>
       </c>
       <c r="AH270">
         <v>6</v>
       </c>
       <c r="AI270" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.25">
@@ -26775,16 +26775,16 @@
         <v>0.6</v>
       </c>
       <c r="AF271">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="AG271" t="s">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AH271">
         <v>6</v>
       </c>
       <c r="AI271" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.25">
@@ -26859,16 +26859,16 @@
         <v>0.6</v>
       </c>
       <c r="AF272">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG272" t="s">
-        <v>500</v>
+        <v>66</v>
       </c>
       <c r="AH272">
         <v>6</v>
       </c>
       <c r="AI272" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="273" spans="1:35" x14ac:dyDescent="0.25">
@@ -26940,16 +26940,16 @@
         <v>0.3</v>
       </c>
       <c r="AF273">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG273" t="s">
-        <v>66</v>
+        <v>502</v>
       </c>
       <c r="AH273">
         <v>6</v>
       </c>
       <c r="AI273" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.25">
@@ -27024,16 +27024,16 @@
         <v>0.15</v>
       </c>
       <c r="AF274">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="AG274" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="AH274">
         <v>6</v>
       </c>
       <c r="AI274" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="275" spans="1:35" x14ac:dyDescent="0.25">
@@ -27105,16 +27105,16 @@
         <v>0.3</v>
       </c>
       <c r="AF275">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="AG275" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="AH275">
         <v>6</v>
       </c>
       <c r="AI275" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="276" spans="1:35" x14ac:dyDescent="0.25">
@@ -27195,16 +27195,16 @@
         <v>0.15</v>
       </c>
       <c r="AF276">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AG276" t="s">
-        <v>70</v>
+        <v>405</v>
       </c>
       <c r="AH276">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI276" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="277" spans="1:35" x14ac:dyDescent="0.25">
@@ -27288,16 +27288,16 @@
         <v>0.3</v>
       </c>
       <c r="AF277">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AG277" t="s">
-        <v>545</v>
+        <v>424</v>
       </c>
       <c r="AH277">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI277" s="36">
-        <v>5.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="278" spans="1:35" x14ac:dyDescent="0.25">
@@ -27378,16 +27378,16 @@
         <v>0.3</v>
       </c>
       <c r="AF278">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="AG278" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="AH278">
         <v>7</v>
       </c>
       <c r="AI278" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="279" spans="1:35" x14ac:dyDescent="0.25">
@@ -27471,16 +27471,16 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="AF279">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="AG279" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="AH279">
         <v>7</v>
       </c>
       <c r="AI279" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="280" spans="1:35" x14ac:dyDescent="0.25">
@@ -27561,16 +27561,16 @@
         <v>0.77</v>
       </c>
       <c r="AF280">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="AG280" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="AH280">
         <v>7</v>
       </c>
       <c r="AI280" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="281" spans="1:35" x14ac:dyDescent="0.25">
@@ -27651,16 +27651,16 @@
         <v>0.31</v>
       </c>
       <c r="AF281">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AG281" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="AH281">
         <v>7</v>
       </c>
       <c r="AI281" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="282" spans="1:35" x14ac:dyDescent="0.25">
@@ -27744,16 +27744,16 @@
         <v>0.47010000000000002</v>
       </c>
       <c r="AF282">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AG282" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AH282">
         <v>7</v>
       </c>
       <c r="AI282" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="283" spans="1:35" x14ac:dyDescent="0.25">
@@ -27834,16 +27834,16 @@
         <v>0.47010000000000002</v>
       </c>
       <c r="AF283">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="AG283" t="s">
-        <v>63</v>
+        <v>508</v>
       </c>
       <c r="AH283">
         <v>7</v>
       </c>
       <c r="AI283" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="284" spans="1:35" x14ac:dyDescent="0.25">
@@ -27926,16 +27926,16 @@
         <v>0.32</v>
       </c>
       <c r="AF284">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AG284" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AH284">
         <v>7</v>
       </c>
       <c r="AI284" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="285" spans="1:35" x14ac:dyDescent="0.25">
@@ -28015,16 +28015,16 @@
         <v>0.97020000000000006</v>
       </c>
       <c r="AF285">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AG285" t="s">
-        <v>508</v>
+        <v>36</v>
       </c>
       <c r="AH285">
         <v>7</v>
       </c>
       <c r="AI285" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="286" spans="1:35" x14ac:dyDescent="0.25">
@@ -28105,16 +28105,16 @@
         <v>0.97020000000000006</v>
       </c>
       <c r="AF286">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AG286" t="s">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="AH286">
         <v>7</v>
       </c>
       <c r="AI286" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="287" spans="1:35" x14ac:dyDescent="0.25">
@@ -28192,16 +28192,16 @@
         <v>0.9798</v>
       </c>
       <c r="AF287">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AG287" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="AH287">
         <v>7</v>
       </c>
       <c r="AI287" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="288" spans="1:35" x14ac:dyDescent="0.25">
@@ -28282,16 +28282,16 @@
         <v>0.9798</v>
       </c>
       <c r="AF288">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="AG288" t="s">
-        <v>523</v>
+        <v>400</v>
       </c>
       <c r="AH288">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI288" s="36">
-        <v>6.7000000000000002E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="289" spans="1:35" x14ac:dyDescent="0.25">
@@ -28372,16 +28372,16 @@
         <v>0.33</v>
       </c>
       <c r="AF289">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AG289" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AH289">
         <v>8</v>
       </c>
       <c r="AI289" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="290" spans="1:35" x14ac:dyDescent="0.25">
@@ -28459,16 +28459,16 @@
         <v>0.17</v>
       </c>
       <c r="AF290">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AG290" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AH290">
         <v>8</v>
       </c>
       <c r="AI290" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="291" spans="1:35" x14ac:dyDescent="0.25">
@@ -28549,16 +28549,16 @@
         <v>0.17</v>
       </c>
       <c r="AF291">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AG291" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AH291">
         <v>8</v>
       </c>
       <c r="AI291" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="292" spans="1:35" x14ac:dyDescent="0.25">
@@ -28636,16 +28636,16 @@
         <v>1.02</v>
       </c>
       <c r="AF292">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="AG292" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="AH292">
         <v>8</v>
       </c>
       <c r="AI292" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="293" spans="1:35" x14ac:dyDescent="0.25">
@@ -28726,16 +28726,16 @@
         <v>1.5695999999999999</v>
       </c>
       <c r="AF293">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="AG293" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="AH293">
         <v>8</v>
       </c>
       <c r="AI293" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="294" spans="1:35" x14ac:dyDescent="0.25">
@@ -28813,16 +28813,16 @@
         <v>0.7</v>
       </c>
       <c r="AF294">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG294" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AH294">
         <v>8</v>
       </c>
       <c r="AI294" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="295" spans="1:35" x14ac:dyDescent="0.25">
@@ -28900,16 +28900,16 @@
         <v>0.53010000000000002</v>
       </c>
       <c r="AF295">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AG295" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AH295">
         <v>8</v>
       </c>
       <c r="AI295" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="296" spans="1:35" x14ac:dyDescent="0.25">
@@ -28995,16 +28995,16 @@
         <v>1.08</v>
       </c>
       <c r="AF296">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG296" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH296">
         <v>8</v>
       </c>
       <c r="AI296" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="297" spans="1:35" x14ac:dyDescent="0.25">
@@ -29087,16 +29087,16 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="AF297">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG297" t="s">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="AH297">
         <v>8</v>
       </c>
       <c r="AI297" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="298" spans="1:35" x14ac:dyDescent="0.25">
@@ -29182,16 +29182,16 @@
         <v>1.1202000000000001</v>
       </c>
       <c r="AF298">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="AG298" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AH298">
         <v>8</v>
       </c>
       <c r="AI298" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="299" spans="1:35" x14ac:dyDescent="0.25">
@@ -29277,16 +29277,16 @@
         <v>0.19</v>
       </c>
       <c r="AF299">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="AG299" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="AH299">
         <v>8</v>
       </c>
       <c r="AI299" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="300" spans="1:35" x14ac:dyDescent="0.25">
@@ -29369,16 +29369,16 @@
         <v>0.79</v>
       </c>
       <c r="AF300">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AG300" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AH300">
         <v>8</v>
       </c>
       <c r="AI300" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="301" spans="1:35" x14ac:dyDescent="0.25">
@@ -29464,16 +29464,16 @@
         <v>0.2</v>
       </c>
       <c r="AF301">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG301" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="AH301">
         <v>8</v>
       </c>
       <c r="AI301" s="36">
-        <v>7.6E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="302" spans="1:35" x14ac:dyDescent="0.25">
@@ -29556,16 +29556,16 @@
         <v>1.6104000000000001</v>
       </c>
       <c r="AF302">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="AG302" t="s">
-        <v>561</v>
+        <v>394</v>
       </c>
       <c r="AH302">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI302" s="36">
-        <v>7.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="303" spans="1:35" x14ac:dyDescent="0.25">
@@ -29651,16 +29651,16 @@
         <v>0.42</v>
       </c>
       <c r="AF303">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="AG303" t="s">
-        <v>394</v>
+        <v>579</v>
       </c>
       <c r="AH303">
         <v>9</v>
       </c>
       <c r="AI303" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="304" spans="1:35" x14ac:dyDescent="0.25">
@@ -29743,16 +29743,16 @@
         <v>2.11</v>
       </c>
       <c r="AF304">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AG304" t="s">
-        <v>579</v>
+        <v>450</v>
       </c>
       <c r="AH304">
         <v>9</v>
       </c>
       <c r="AI304" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="305" spans="1:35" x14ac:dyDescent="0.25">
@@ -29833,16 +29833,16 @@
         <v>1.4798</v>
       </c>
       <c r="AF305">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AG305" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AH305">
         <v>9</v>
       </c>
       <c r="AI305" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="306" spans="1:35" x14ac:dyDescent="0.25">
@@ -29923,16 +29923,16 @@
         <v>0.88</v>
       </c>
       <c r="AF306">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AG306" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="AH306">
         <v>9</v>
       </c>
       <c r="AI306" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="307" spans="1:35" x14ac:dyDescent="0.25">
@@ -30013,16 +30013,16 @@
         <v>0.22</v>
       </c>
       <c r="AF307">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AG307" t="s">
-        <v>489</v>
+        <v>1072</v>
       </c>
       <c r="AH307">
         <v>9</v>
       </c>
       <c r="AI307" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="308" spans="1:35" x14ac:dyDescent="0.25">
@@ -30103,16 +30103,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AF308">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AG308" t="s">
-        <v>1072</v>
+        <v>504</v>
       </c>
       <c r="AH308">
         <v>9</v>
       </c>
       <c r="AI308" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="309" spans="1:35" x14ac:dyDescent="0.25">
@@ -30193,16 +30193,16 @@
         <v>1.5498000000000001</v>
       </c>
       <c r="AF309">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AG309" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AH309">
         <v>9</v>
       </c>
       <c r="AI309" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="310" spans="1:35" x14ac:dyDescent="0.25">
@@ -30289,7 +30289,7 @@
         <v>9</v>
       </c>
       <c r="AI310" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="311" spans="1:35" x14ac:dyDescent="0.25">
@@ -30381,7 +30381,7 @@
         <v>9</v>
       </c>
       <c r="AI311" s="36">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="312" spans="1:35" x14ac:dyDescent="0.25">
@@ -30473,7 +30473,7 @@
         <v>10</v>
       </c>
       <c r="AI312" s="36">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="313" spans="1:35" x14ac:dyDescent="0.25">
@@ -30562,7 +30562,7 @@
         <v>10</v>
       </c>
       <c r="AI313" s="36">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="314" spans="1:35" x14ac:dyDescent="0.25">
@@ -30654,7 +30654,7 @@
         <v>10</v>
       </c>
       <c r="AI314" s="36">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="315" spans="1:35" x14ac:dyDescent="0.25">
@@ -30743,7 +30743,7 @@
         <v>10</v>
       </c>
       <c r="AI315" s="36">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="316" spans="1:35" x14ac:dyDescent="0.25">
@@ -30835,7 +30835,7 @@
         <v>10</v>
       </c>
       <c r="AI316" s="36">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="317" spans="1:35" x14ac:dyDescent="0.25">
@@ -30927,7 +30927,7 @@
         <v>10</v>
       </c>
       <c r="AI317" s="36">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="318" spans="1:35" x14ac:dyDescent="0.25">
@@ -31016,7 +31016,7 @@
         <v>10</v>
       </c>
       <c r="AI318" s="36">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="319" spans="1:35" x14ac:dyDescent="0.25">
@@ -31106,7 +31106,7 @@
         <v>11</v>
       </c>
       <c r="AI319" s="36">
-        <v>1.0500000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="320" spans="1:35" x14ac:dyDescent="0.25">
@@ -31196,7 +31196,7 @@
         <v>11</v>
       </c>
       <c r="AI320" s="36">
-        <v>1.0500000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="321" spans="1:35" x14ac:dyDescent="0.25">
@@ -31283,7 +31283,7 @@
         <v>11</v>
       </c>
       <c r="AI321" s="36">
-        <v>1.0500000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="322" spans="1:35" x14ac:dyDescent="0.25">
@@ -31373,7 +31373,7 @@
         <v>11</v>
       </c>
       <c r="AI322" s="36">
-        <v>1.0500000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="323" spans="1:35" x14ac:dyDescent="0.25">
@@ -31457,10 +31457,10 @@
         <v>547</v>
       </c>
       <c r="AH323">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI323" s="36">
-        <v>1.0500000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="324" spans="1:35" x14ac:dyDescent="0.25">
@@ -31547,10 +31547,10 @@
         <v>509</v>
       </c>
       <c r="AH324">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI324" s="36">
-        <v>1.14E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="325" spans="1:35" x14ac:dyDescent="0.25">
@@ -31637,7 +31637,7 @@
         <v>15</v>
       </c>
       <c r="AI325" s="36">
-        <v>1.43E-2</v>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="326" spans="1:35" x14ac:dyDescent="0.25">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjkuhnke\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32771B-0B36-45E1-81F7-32330D8FA5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F726247-E518-4F0A-B31F-55CC6B6ECD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -4423,7 +4423,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{548F567D-726D-4341-95E0-502216E748B2}" name="Table4" displayName="Table4" ref="AF29:AI325" totalsRowShown="0">
   <autoFilter ref="AF29:AI325" xr:uid="{548F567D-726D-4341-95E0-502216E748B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AF30:AI325">
-    <sortCondition ref="AH29:AH325"/>
+    <sortCondition ref="AF29:AF325"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{71084C9A-5E75-4048-82AA-70A2D1CBD776}" name="Num"/>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG188" sqref="AG188"/>
+    <sheetView tabSelected="1" topLeftCell="T291" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF325" sqref="AF325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6612,16 +6612,16 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="AG30" t="s">
-        <v>564</v>
+        <v>389</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI30" s="36">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="AJ30" s="10" t="s">
         <v>175</v>
@@ -6691,16 +6691,16 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="AG31" t="s">
-        <v>565</v>
+        <v>390</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI31" s="36">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="AJ31" s="10" t="s">
         <v>176</v>
@@ -6773,16 +6773,16 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="AG32" t="s">
-        <v>566</v>
+        <v>391</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI32" s="36">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="AJ32" s="10" t="s">
         <v>178</v>
@@ -6864,16 +6864,16 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>233</v>
+        <v>4</v>
       </c>
       <c r="AG33" t="s">
-        <v>568</v>
+        <v>392</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI33" s="36">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="AJ33" s="10" t="s">
         <v>180</v>
@@ -6952,16 +6952,16 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>234</v>
+        <v>5</v>
       </c>
       <c r="AG34" t="s">
-        <v>569</v>
+        <v>393</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI34" s="36">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="AJ34" s="10" t="s">
         <v>182</v>
@@ -7043,16 +7043,16 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="AG35" t="s">
-        <v>570</v>
+        <v>394</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI35" s="36">
-        <v>0</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="AJ35" s="10" t="s">
         <v>184</v>
@@ -7134,16 +7134,16 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="s">
-        <v>571</v>
+        <v>395</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI36" s="36">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="AJ36" s="10" t="s">
         <v>198</v>
@@ -7222,16 +7222,16 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>237</v>
+        <v>8</v>
       </c>
       <c r="AG37" t="s">
-        <v>576</v>
+        <v>396</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI37" s="36">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="AJ37" s="10" t="s">
         <v>186</v>
@@ -7310,16 +7310,16 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="AG38" t="s">
-        <v>805</v>
+        <v>397</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI38" s="36">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="AJ38" s="10" t="s">
         <v>188</v>
@@ -7398,16 +7398,16 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="AG39" t="s">
-        <v>1151</v>
+        <v>398</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI39" s="36">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="AJ39" t="s">
         <v>190</v>
@@ -7486,16 +7486,16 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="AG40" t="s">
-        <v>1154</v>
+        <v>399</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI40" s="36">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="AJ40" s="10" t="s">
         <v>192</v>
@@ -7571,16 +7571,16 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="s">
-        <v>1159</v>
+        <v>400</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI41" s="36">
-        <v>0</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="AJ41" s="10" t="s">
         <v>194</v>
@@ -7656,16 +7656,16 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>256</v>
+        <v>13</v>
       </c>
       <c r="AG42" t="s">
-        <v>1162</v>
+        <v>401</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI42" s="36">
-        <v>0</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="AJ42" s="10" t="s">
         <v>200</v>
@@ -7744,16 +7744,16 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="AG43" t="s">
-        <v>1165</v>
+        <v>402</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI43" s="36">
-        <v>0</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="AJ43" s="10" t="s">
         <v>202</v>
@@ -7829,16 +7829,16 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="AG44" t="s">
-        <v>1181</v>
+        <v>403</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI44" s="36">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="AJ44" s="10" t="s">
         <v>206</v>
@@ -7911,16 +7911,16 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="AG45" t="s">
-        <v>1177</v>
+        <v>15</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI45" s="36">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="AJ45" s="10" t="s">
         <v>204</v>
@@ -7990,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="AG46" t="s">
-        <v>1180</v>
+        <v>16</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI46" s="36">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="AJ46" s="10" t="s">
         <v>208</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="AG47" t="s">
-        <v>1183</v>
+        <v>404</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI47" s="36">
-        <v>0</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="AJ47" s="10" t="s">
         <v>210</v>
@@ -8148,16 +8148,16 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="s">
-        <v>1201</v>
+        <v>405</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI48" s="36">
-        <v>0</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="AJ48" t="s">
         <v>212</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="AG49" t="s">
-        <v>1227</v>
+        <v>406</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI49" s="36">
-        <v>0</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="AJ49" s="10" t="s">
         <v>471</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="AG50" t="s">
-        <v>1228</v>
+        <v>407</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI50" s="36">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="2:41" x14ac:dyDescent="0.25">
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="AG51" t="s">
-        <v>1231</v>
+        <v>408</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI51" s="36">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="52" spans="2:41" x14ac:dyDescent="0.25">
@@ -8437,16 +8437,16 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="AG52" t="s">
-        <v>1232</v>
+        <v>409</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI52" s="36">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="53" spans="2:41" x14ac:dyDescent="0.25">
@@ -8501,16 +8501,16 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="AG53" t="s">
-        <v>1233</v>
+        <v>410</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI53" s="36">
-        <v>0</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="54" spans="2:41" x14ac:dyDescent="0.25">
@@ -8589,16 +8589,16 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="AG54" t="s">
-        <v>1234</v>
+        <v>411</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI54" s="36">
-        <v>0</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="2:41" x14ac:dyDescent="0.25">
@@ -8677,16 +8677,16 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="AG55" t="s">
-        <v>1198</v>
+        <v>11</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI55" s="36">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="2:41" x14ac:dyDescent="0.25">
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="AG56" t="s">
-        <v>1199</v>
+        <v>12</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI56" s="36">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="57" spans="2:41" x14ac:dyDescent="0.25">
@@ -8856,16 +8856,16 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="AG57" t="s">
-        <v>68</v>
+        <v>412</v>
       </c>
       <c r="AH57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI57" s="36">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="58" spans="2:41" x14ac:dyDescent="0.25">
@@ -8944,16 +8944,16 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AG58" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="AH58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI58" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="59" spans="2:41" x14ac:dyDescent="0.25">
@@ -9032,16 +9032,16 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="AG59" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="AH59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI59" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="60" spans="2:41" x14ac:dyDescent="0.25">
@@ -9123,16 +9123,16 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="AG60" t="s">
-        <v>75</v>
+        <v>415</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI60" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="2:41" x14ac:dyDescent="0.25">
@@ -9211,16 +9211,16 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="AG61" t="s">
-        <v>99</v>
+        <v>416</v>
       </c>
       <c r="AH61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI61" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="2:41" x14ac:dyDescent="0.25">
@@ -9299,16 +9299,16 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="AG62" t="s">
-        <v>43</v>
+        <v>417</v>
       </c>
       <c r="AH62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI62" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="2:41" x14ac:dyDescent="0.25">
@@ -9387,16 +9387,16 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AG63" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="AH63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI63" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="64" spans="2:41" x14ac:dyDescent="0.25">
@@ -9475,16 +9475,16 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AG64" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="AH64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI64" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="65" spans="2:35" x14ac:dyDescent="0.25">
@@ -9563,16 +9563,16 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="AG65" t="s">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="AH65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI65" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="66" spans="2:35" x14ac:dyDescent="0.25">
@@ -9651,16 +9651,16 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="AG66" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="AH66">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI66" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="67" spans="2:35" x14ac:dyDescent="0.25">
@@ -9739,16 +9739,16 @@
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="AG67" t="s">
-        <v>516</v>
+        <v>422</v>
       </c>
       <c r="AH67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI67" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="68" spans="2:35" x14ac:dyDescent="0.25">
@@ -9827,16 +9827,16 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="AG68" t="s">
-        <v>92</v>
+        <v>423</v>
       </c>
       <c r="AH68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI68" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="69" spans="2:35" x14ac:dyDescent="0.25">
@@ -9915,16 +9915,16 @@
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AG69" t="s">
-        <v>101</v>
+        <v>424</v>
       </c>
       <c r="AH69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI69" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="70" spans="2:35" x14ac:dyDescent="0.25">
@@ -10003,16 +10003,16 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AG70" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="AH70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI70" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="71" spans="2:35" x14ac:dyDescent="0.25">
@@ -10091,16 +10091,16 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="AG71" t="s">
-        <v>534</v>
+        <v>48</v>
       </c>
       <c r="AH71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI71" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="72" spans="2:35" x14ac:dyDescent="0.25">
@@ -10179,16 +10179,16 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="AG72" t="s">
-        <v>536</v>
+        <v>49</v>
       </c>
       <c r="AH72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI72" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="73" spans="2:35" x14ac:dyDescent="0.25">
@@ -10267,16 +10267,16 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AG73" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="AH73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI73" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="74" spans="2:35" x14ac:dyDescent="0.25">
@@ -10355,16 +10355,16 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AG74" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="AH74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI74" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="75" spans="2:35" x14ac:dyDescent="0.25">
@@ -10450,16 +10450,16 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="AG75" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="AH75">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI75" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="76" spans="2:35" x14ac:dyDescent="0.25">
@@ -10514,16 +10514,16 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="AG76" t="s">
-        <v>543</v>
+        <v>426</v>
       </c>
       <c r="AH76">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AI76" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="77" spans="2:35" x14ac:dyDescent="0.25">
@@ -10578,10 +10578,10 @@
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>217</v>
+        <v>48</v>
       </c>
       <c r="AG77" t="s">
-        <v>554</v>
+        <v>17</v>
       </c>
       <c r="AH77">
         <v>1</v>
@@ -10642,16 +10642,16 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="AG78" t="s">
-        <v>555</v>
+        <v>18</v>
       </c>
       <c r="AH78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI78" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="79" spans="2:35" x14ac:dyDescent="0.25">
@@ -10706,16 +10706,16 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="AG79" t="s">
-        <v>806</v>
+        <v>19</v>
       </c>
       <c r="AH79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI79" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="80" spans="2:35" x14ac:dyDescent="0.25">
@@ -10770,16 +10770,16 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="AG80" t="s">
-        <v>1146</v>
+        <v>427</v>
       </c>
       <c r="AH80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI80" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="81" spans="2:35" x14ac:dyDescent="0.25">
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="AG81" t="s">
-        <v>1149</v>
+        <v>428</v>
       </c>
       <c r="AH81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI81" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="2:35" x14ac:dyDescent="0.25">
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="AG82" t="s">
-        <v>1155</v>
+        <v>429</v>
       </c>
       <c r="AH82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI82" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="2:35" x14ac:dyDescent="0.25">
@@ -10962,16 +10962,16 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="AG83" t="s">
-        <v>1157</v>
+        <v>430</v>
       </c>
       <c r="AH83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI83" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="84" spans="2:35" x14ac:dyDescent="0.25">
@@ -11026,16 +11026,16 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="AG84" t="s">
-        <v>1161</v>
+        <v>431</v>
       </c>
       <c r="AH84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI84" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="85" spans="2:35" x14ac:dyDescent="0.25">
@@ -11093,16 +11093,16 @@
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="AG85" t="s">
-        <v>1163</v>
+        <v>432</v>
       </c>
       <c r="AH85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI85" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="86" spans="2:35" x14ac:dyDescent="0.25">
@@ -11157,16 +11157,16 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="AG86" t="s">
-        <v>1164</v>
+        <v>433</v>
       </c>
       <c r="AH86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI86" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="87" spans="2:35" x14ac:dyDescent="0.25">
@@ -11221,16 +11221,16 @@
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>260</v>
+        <v>58</v>
       </c>
       <c r="AG87" t="s">
-        <v>1166</v>
+        <v>434</v>
       </c>
       <c r="AH87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI87" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="2:35" x14ac:dyDescent="0.25">
@@ -11285,16 +11285,16 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="AG88" t="s">
-        <v>1168</v>
+        <v>435</v>
       </c>
       <c r="AH88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI88" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="2:35" x14ac:dyDescent="0.25">
@@ -11349,16 +11349,16 @@
         <v>0</v>
       </c>
       <c r="AF89">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="AG89" t="s">
-        <v>1169</v>
+        <v>436</v>
       </c>
       <c r="AH89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AI89" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="90" spans="2:35" x14ac:dyDescent="0.25">
@@ -11413,16 +11413,16 @@
         <v>0</v>
       </c>
       <c r="AF90">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="AG90" t="s">
-        <v>1182</v>
+        <v>437</v>
       </c>
       <c r="AH90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI90" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="91" spans="2:35" x14ac:dyDescent="0.25">
@@ -11477,16 +11477,16 @@
         <v>0</v>
       </c>
       <c r="AF91">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="AG91" t="s">
-        <v>1185</v>
+        <v>438</v>
       </c>
       <c r="AH91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI91" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="92" spans="2:35" x14ac:dyDescent="0.25">
@@ -11541,16 +11541,16 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="AG92" t="s">
-        <v>1187</v>
+        <v>439</v>
       </c>
       <c r="AH92">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI92" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="2:35" x14ac:dyDescent="0.25">
@@ -11605,16 +11605,16 @@
         <v>0</v>
       </c>
       <c r="AF93">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="AG93" t="s">
-        <v>1188</v>
+        <v>440</v>
       </c>
       <c r="AH93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI93" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="94" spans="2:35" x14ac:dyDescent="0.25">
@@ -11669,16 +11669,16 @@
         <v>0</v>
       </c>
       <c r="AF94">
-        <v>277</v>
+        <v>65</v>
       </c>
       <c r="AG94" t="s">
-        <v>1190</v>
+        <v>441</v>
       </c>
       <c r="AH94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI94" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="95" spans="2:35" x14ac:dyDescent="0.25">
@@ -11733,16 +11733,16 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>282</v>
+        <v>66</v>
       </c>
       <c r="AG95" t="s">
-        <v>1204</v>
+        <v>442</v>
       </c>
       <c r="AH95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI95" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="96" spans="2:35" x14ac:dyDescent="0.25">
@@ -11797,16 +11797,16 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="AG96" t="s">
-        <v>1229</v>
+        <v>443</v>
       </c>
       <c r="AH96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI96" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.25">
@@ -11861,10 +11861,10 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="AG97" t="s">
-        <v>1230</v>
+        <v>444</v>
       </c>
       <c r="AH97">
         <v>1</v>
@@ -11925,16 +11925,16 @@
         <v>0</v>
       </c>
       <c r="AF98">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="AG98" t="s">
-        <v>1220</v>
+        <v>445</v>
       </c>
       <c r="AH98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI98" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="99" spans="2:35" x14ac:dyDescent="0.25">
@@ -11989,16 +11989,16 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="AG99" t="s">
-        <v>1221</v>
+        <v>446</v>
       </c>
       <c r="AH99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI99" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="100" spans="2:35" x14ac:dyDescent="0.25">
@@ -12053,16 +12053,16 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>296</v>
+        <v>71</v>
       </c>
       <c r="AG100" t="s">
-        <v>1226</v>
+        <v>447</v>
       </c>
       <c r="AH100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI100" s="36">
-        <v>8.9999999999999998E-4</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="101" spans="2:35" x14ac:dyDescent="0.25">
@@ -12117,16 +12117,16 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="AG101" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="AH101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI101" s="36">
-        <v>1.8E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="102" spans="2:35" x14ac:dyDescent="0.25">
@@ -12181,10 +12181,10 @@
         <v>0</v>
       </c>
       <c r="AF102">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="AG102" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="AH102">
         <v>2</v>
@@ -12248,16 +12248,16 @@
         <v>0</v>
       </c>
       <c r="AF103">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="AG103" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="AH103">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AI103" s="36">
-        <v>1.8E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="104" spans="2:35" x14ac:dyDescent="0.25">
@@ -12312,10 +12312,10 @@
         <v>0</v>
       </c>
       <c r="AF104">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AG104" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="AH104">
         <v>2</v>
@@ -12376,10 +12376,10 @@
         <v>0</v>
       </c>
       <c r="AF105">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="AG105" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="AH105">
         <v>2</v>
@@ -12440,16 +12440,16 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AG106" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="AH106">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI106" s="36">
-        <v>1.8E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="107" spans="2:35" x14ac:dyDescent="0.25">
@@ -12504,10 +12504,10 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AG107" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="AH107">
         <v>2</v>
@@ -12568,16 +12568,16 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="AG108" t="s">
-        <v>47</v>
+        <v>455</v>
       </c>
       <c r="AH108">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI108" s="36">
-        <v>1.8E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="109" spans="2:35" x14ac:dyDescent="0.25">
@@ -12632,16 +12632,16 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AG109" t="s">
-        <v>577</v>
+        <v>456</v>
       </c>
       <c r="AH109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI109" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="110" spans="2:35" x14ac:dyDescent="0.25">
@@ -12696,16 +12696,16 @@
         <v>0</v>
       </c>
       <c r="AF110">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG110" t="s">
-        <v>578</v>
+        <v>457</v>
       </c>
       <c r="AH110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI110" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="111" spans="2:35" x14ac:dyDescent="0.25">
@@ -12760,16 +12760,16 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AG111" t="s">
-        <v>18</v>
+        <v>458</v>
       </c>
       <c r="AH111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI111" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="112" spans="2:35" x14ac:dyDescent="0.25">
@@ -12824,16 +12824,16 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AG112" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="AH112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI112" s="36">
-        <v>1.8E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="113" spans="2:35" x14ac:dyDescent="0.25">
@@ -12888,16 +12888,16 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="AG113" t="s">
-        <v>438</v>
+        <v>1101</v>
       </c>
       <c r="AH113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI113" s="36">
-        <v>1.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="114" spans="2:35" x14ac:dyDescent="0.25">
@@ -12952,16 +12952,16 @@
         <v>0</v>
       </c>
       <c r="AF114">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="AG114" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="AH114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI114" s="36">
-        <v>1.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="115" spans="2:35" x14ac:dyDescent="0.25">
@@ -13016,16 +13016,16 @@
         <v>0</v>
       </c>
       <c r="AF115">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="AG115" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AH115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI115" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="116" spans="2:35" x14ac:dyDescent="0.25">
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="AF116">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AG116" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="AH116">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI116" s="36">
-        <v>1.8E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="117" spans="2:35" x14ac:dyDescent="0.25">
@@ -13144,16 +13144,16 @@
         <v>0</v>
       </c>
       <c r="AF117">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AG117" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AH117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI117" s="36">
-        <v>1.8E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="118" spans="2:35" x14ac:dyDescent="0.25">
@@ -13208,16 +13208,16 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AG118" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="AH118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI118" s="36">
-        <v>1.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="119" spans="2:35" x14ac:dyDescent="0.25">
@@ -13272,16 +13272,16 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG119" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="AH119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI119" s="36">
-        <v>1.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="120" spans="2:35" x14ac:dyDescent="0.25">
@@ -13336,16 +13336,16 @@
         <v>0</v>
       </c>
       <c r="AF120">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AG120" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AH120">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI120" s="36">
-        <v>1.8E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="121" spans="2:35" x14ac:dyDescent="0.25">
@@ -13400,16 +13400,16 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AG121" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AH121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI121" s="36">
-        <v>1.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="122" spans="2:35" x14ac:dyDescent="0.25">
@@ -13464,16 +13464,16 @@
         <v>0</v>
       </c>
       <c r="AF122">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AG122" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AH122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI122" s="36">
-        <v>1.8E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="123" spans="2:35" x14ac:dyDescent="0.25">
@@ -13528,10 +13528,10 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AG123" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AH123">
         <v>2</v>
@@ -13592,16 +13592,16 @@
         <v>0</v>
       </c>
       <c r="AF124">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="AG124" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="AH124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI124" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="125" spans="2:35" x14ac:dyDescent="0.25">
@@ -13656,16 +13656,16 @@
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="AG125" t="s">
-        <v>91</v>
+        <v>472</v>
       </c>
       <c r="AH125">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI125" s="36">
-        <v>1.8E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="126" spans="2:35" x14ac:dyDescent="0.25">
@@ -13720,16 +13720,16 @@
         <v>0</v>
       </c>
       <c r="AF126">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="AG126" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="AH126">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI126" s="36">
-        <v>1.8E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="127" spans="2:35" x14ac:dyDescent="0.25">
@@ -13784,10 +13784,10 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="AG127" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="AH127">
         <v>2</v>
@@ -13848,16 +13848,16 @@
         <v>0</v>
       </c>
       <c r="AF128">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="AG128" t="s">
-        <v>513</v>
+        <v>75</v>
       </c>
       <c r="AH128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI128" s="36">
-        <v>1.8E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="129" spans="2:35" x14ac:dyDescent="0.25">
@@ -13912,16 +13912,16 @@
         <v>0</v>
       </c>
       <c r="AF129">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="AG129" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH129">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI129" s="36">
-        <v>1.8E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="130" spans="2:35" x14ac:dyDescent="0.25">
@@ -13976,10 +13976,10 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="AG130" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="AH130">
         <v>2</v>
@@ -14040,16 +14040,16 @@
         <v>0.01</v>
       </c>
       <c r="AF131">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="AG131" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="AH131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI131" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="132" spans="2:35" x14ac:dyDescent="0.25">
@@ -14104,16 +14104,16 @@
         <v>0.01</v>
       </c>
       <c r="AF132">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="AG132" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="AH132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI132" s="36">
-        <v>1.8E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="133" spans="2:35" x14ac:dyDescent="0.25">
@@ -14168,16 +14168,16 @@
         <v>0.01</v>
       </c>
       <c r="AF133">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="AG133" t="s">
-        <v>93</v>
+        <v>478</v>
       </c>
       <c r="AH133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI133" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="134" spans="2:35" x14ac:dyDescent="0.25">
@@ -14232,16 +14232,16 @@
         <v>0.02</v>
       </c>
       <c r="AF134">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="AG134" t="s">
-        <v>102</v>
+        <v>479</v>
       </c>
       <c r="AH134">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI134" s="36">
-        <v>1.8E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="135" spans="2:35" x14ac:dyDescent="0.25">
@@ -14296,16 +14296,16 @@
         <v>0.02</v>
       </c>
       <c r="AF135">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="AG135" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AH135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI135" s="36">
-        <v>1.8E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="136" spans="2:35" x14ac:dyDescent="0.25">
@@ -14360,16 +14360,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF136">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="AG136" t="s">
-        <v>528</v>
+        <v>100</v>
       </c>
       <c r="AH136">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI136" s="36">
-        <v>1.8E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="137" spans="2:35" x14ac:dyDescent="0.25">
@@ -14424,10 +14424,10 @@
         <v>0.04</v>
       </c>
       <c r="AF137">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="AG137" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="AH137">
         <v>2</v>
@@ -14491,16 +14491,16 @@
         <v>0.04</v>
       </c>
       <c r="AF138">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="AG138" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="AH138">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI138" s="36">
-        <v>1.8E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="139" spans="2:35" x14ac:dyDescent="0.25">
@@ -14555,16 +14555,16 @@
         <v>0.04</v>
       </c>
       <c r="AF139">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="AG139" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="AH139">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI139" s="36">
-        <v>1.8E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="140" spans="2:35" x14ac:dyDescent="0.25">
@@ -14619,16 +14619,16 @@
         <v>0.04</v>
       </c>
       <c r="AF140">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="AG140" t="s">
-        <v>540</v>
+        <v>43</v>
       </c>
       <c r="AH140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI140" s="36">
-        <v>1.8E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="141" spans="2:35" x14ac:dyDescent="0.25">
@@ -14690,16 +14690,16 @@
         <v>0.09</v>
       </c>
       <c r="AF141">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="AG141" t="s">
-        <v>546</v>
+        <v>44</v>
       </c>
       <c r="AH141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI141" s="36">
-        <v>1.8E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="142" spans="2:35" x14ac:dyDescent="0.25">
@@ -14764,16 +14764,16 @@
         <v>0.05</v>
       </c>
       <c r="AF142">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="AG142" t="s">
-        <v>548</v>
+        <v>483</v>
       </c>
       <c r="AH142">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI142" s="36">
-        <v>1.8E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="143" spans="2:35" x14ac:dyDescent="0.25">
@@ -14835,10 +14835,10 @@
         <v>0.05</v>
       </c>
       <c r="AF143">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="AG143" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="AH143">
         <v>2</v>
@@ -14918,16 +14918,16 @@
         <v>0.05</v>
       </c>
       <c r="AF144">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="AG144" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="AH144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI144" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="145" spans="1:35" x14ac:dyDescent="0.25">
@@ -14994,16 +14994,16 @@
         <v>0.05</v>
       </c>
       <c r="AF145">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="AG145" t="s">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="AH145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI145" s="36">
-        <v>1.8E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="146" spans="1:35" x14ac:dyDescent="0.25">
@@ -15095,16 +15095,16 @@
         <v>0.05</v>
       </c>
       <c r="AF146">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="AG146" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
       <c r="AH146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI146" s="36">
-        <v>1.8E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.25">
@@ -15193,16 +15193,16 @@
         <v>0.15989999999999999</v>
       </c>
       <c r="AF147">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="AG147" t="s">
-        <v>559</v>
+        <v>488</v>
       </c>
       <c r="AH147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI147" s="36">
-        <v>1.8E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.25">
@@ -15291,16 +15291,16 @@
         <v>0.11</v>
       </c>
       <c r="AF148">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="AG148" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="AH148">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI148" s="36">
-        <v>1.8E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
@@ -15389,16 +15389,16 @@
         <v>0.24</v>
       </c>
       <c r="AF149">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="AG149" t="s">
-        <v>562</v>
+        <v>90</v>
       </c>
       <c r="AH149">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI149" s="36">
-        <v>1.8E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
@@ -15487,10 +15487,10 @@
         <v>0.06</v>
       </c>
       <c r="AF150">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="AG150" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AH150">
         <v>2</v>
@@ -15582,16 +15582,16 @@
         <v>0.06</v>
       </c>
       <c r="AF151">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="AG151" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="AH151">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI151" s="36">
-        <v>1.8E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.25">
@@ -15683,16 +15683,16 @@
         <v>0.18</v>
       </c>
       <c r="AF152">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="AG152" t="s">
-        <v>804</v>
+        <v>490</v>
       </c>
       <c r="AH152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI152" s="36">
-        <v>1.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
@@ -15781,16 +15781,16 @@
         <v>0.18989999999999999</v>
       </c>
       <c r="AF153">
-        <v>246</v>
+        <v>124</v>
       </c>
       <c r="AG153" t="s">
-        <v>1152</v>
+        <v>42</v>
       </c>
       <c r="AH153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI153" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
@@ -15876,16 +15876,16 @@
         <v>0.13</v>
       </c>
       <c r="AF154">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="AG154" t="s">
-        <v>1153</v>
+        <v>1072</v>
       </c>
       <c r="AH154">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI154" s="36">
-        <v>1.8E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="155" spans="1:35" x14ac:dyDescent="0.25">
@@ -15974,16 +15974,16 @@
         <v>0.2001</v>
       </c>
       <c r="AF155">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="AG155" t="s">
-        <v>1156</v>
+        <v>492</v>
       </c>
       <c r="AH155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI155" s="36">
-        <v>1.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.25">
@@ -16072,16 +16072,16 @@
         <v>0.2001</v>
       </c>
       <c r="AF156">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="AG156" t="s">
-        <v>1158</v>
+        <v>493</v>
       </c>
       <c r="AH156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI156" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.25">
@@ -16170,16 +16170,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF157">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="AG157" t="s">
-        <v>1179</v>
+        <v>494</v>
       </c>
       <c r="AH157">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI157" s="36">
-        <v>1.8E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.25">
@@ -16268,16 +16268,16 @@
         <v>0.21000000000000002</v>
       </c>
       <c r="AF158">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="AG158" t="s">
-        <v>1189</v>
+        <v>583</v>
       </c>
       <c r="AH158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI158" s="36">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
@@ -16366,16 +16366,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF159">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="AG159" t="s">
-        <v>1200</v>
+        <v>584</v>
       </c>
       <c r="AH159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI159" s="36">
-        <v>1.8E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
@@ -16461,16 +16461,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF160">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="AG160" t="s">
-        <v>1203</v>
+        <v>582</v>
       </c>
       <c r="AH160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI160" s="36">
-        <v>1.8E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
@@ -16559,10 +16559,10 @@
         <v>0.43020000000000003</v>
       </c>
       <c r="AF161">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="AG161" t="s">
-        <v>390</v>
+        <v>495</v>
       </c>
       <c r="AH161">
         <v>3</v>
@@ -16657,16 +16657,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AF162">
+        <v>133</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>496</v>
+      </c>
+      <c r="AH162">
         <v>5</v>
       </c>
-      <c r="AG162" t="s">
-        <v>393</v>
-      </c>
-      <c r="AH162">
-        <v>3</v>
-      </c>
       <c r="AI162" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.25">
@@ -16755,16 +16755,16 @@
         <v>0.37</v>
       </c>
       <c r="AF163">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="AG163" t="s">
-        <v>396</v>
+        <v>497</v>
       </c>
       <c r="AH163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI163" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
@@ -16856,10 +16856,10 @@
         <v>0.15</v>
       </c>
       <c r="AF164">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="AG164" t="s">
-        <v>399</v>
+        <v>62</v>
       </c>
       <c r="AH164">
         <v>3</v>
@@ -16954,16 +16954,16 @@
         <v>0.38</v>
       </c>
       <c r="AF165">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="AG165" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="AH165">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI165" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
@@ -17049,16 +17049,16 @@
         <v>0.69030000000000002</v>
       </c>
       <c r="AF166">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="AG166" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="AH166">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI166" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.25">
@@ -17145,16 +17145,16 @@
         <v>0.31</v>
       </c>
       <c r="AF167">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="AG167" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="AH167">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI167" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.25">
@@ -17241,16 +17241,16 @@
         <v>0.16</v>
       </c>
       <c r="AF168">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="AG168" t="s">
-        <v>416</v>
+        <v>500</v>
       </c>
       <c r="AH168">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI168" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
@@ -17336,16 +17336,16 @@
         <v>0.24</v>
       </c>
       <c r="AF169">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="AG169" t="s">
-        <v>417</v>
+        <v>501</v>
       </c>
       <c r="AH169">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI169" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
@@ -17434,16 +17434,16 @@
         <v>0.16</v>
       </c>
       <c r="AF170">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AG170" t="s">
-        <v>428</v>
+        <v>66</v>
       </c>
       <c r="AH170">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI170" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
@@ -17530,16 +17530,16 @@
         <v>0.33</v>
       </c>
       <c r="AF171">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="AG171" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="AH171">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI171" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
@@ -17626,16 +17626,16 @@
         <v>0.24990000000000001</v>
       </c>
       <c r="AF172">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="AG172" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="AH172">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AI172" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.25">
@@ -17716,16 +17716,16 @@
         <v>0.24990000000000001</v>
       </c>
       <c r="AF173">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="AG173" t="s">
-        <v>440</v>
+        <v>67</v>
       </c>
       <c r="AH173">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI173" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
@@ -17811,16 +17811,16 @@
         <v>0.17</v>
       </c>
       <c r="AF174">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AG174" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="AH174">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AI174" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="175" spans="1:35" x14ac:dyDescent="0.25">
@@ -17906,10 +17906,10 @@
         <v>0.17</v>
       </c>
       <c r="AF175">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AG175" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="AH175">
         <v>3</v>
@@ -17998,16 +17998,16 @@
         <v>0.59989999999999999</v>
       </c>
       <c r="AF176">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AG176" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="AH176">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI176" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
@@ -18091,16 +18091,16 @@
         <v>0.42999999999999994</v>
       </c>
       <c r="AF177">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="AG177" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="AH177">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI177" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
@@ -18184,16 +18184,16 @@
         <v>0.2601</v>
       </c>
       <c r="AF178">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="AG178" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="AH178">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI178" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="179" spans="1:35" x14ac:dyDescent="0.25">
@@ -18274,16 +18274,16 @@
         <v>0.2601</v>
       </c>
       <c r="AF179">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="AG179" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="AH179">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AI179" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
@@ -18367,16 +18367,16 @@
         <v>0.35</v>
       </c>
       <c r="AF180">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="AG180" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="AH180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI180" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
@@ -18460,16 +18460,16 @@
         <v>0.52980000000000005</v>
       </c>
       <c r="AF181">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AG181" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="AH181">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI181" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
@@ -18550,16 +18550,16 @@
         <v>0.52980000000000005</v>
       </c>
       <c r="AF182">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="AG182" t="s">
-        <v>42</v>
+        <v>512</v>
       </c>
       <c r="AH182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI182" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.25">
@@ -18642,16 +18642,16 @@
         <v>0.09</v>
       </c>
       <c r="AF183">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AG183" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="AH183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI183" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
@@ -18740,16 +18740,16 @@
         <v>0.36</v>
       </c>
       <c r="AF184">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="AG184" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="AH184">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AI184" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
@@ -18835,16 +18835,16 @@
         <v>0.36</v>
       </c>
       <c r="AF185">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="AG185" t="s">
-        <v>495</v>
+        <v>37</v>
       </c>
       <c r="AH185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI185" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
@@ -18930,16 +18930,16 @@
         <v>0.18</v>
       </c>
       <c r="AF186">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AG186" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AH186">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI186" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
@@ -19025,16 +19025,16 @@
         <v>0.09</v>
       </c>
       <c r="AF187">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AG187" t="s">
-        <v>505</v>
+        <v>39</v>
       </c>
       <c r="AH187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI187" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
@@ -19117,16 +19117,16 @@
         <v>0.09</v>
       </c>
       <c r="AF188">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG188" t="s">
-        <v>517</v>
+        <v>40</v>
       </c>
       <c r="AH188">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AI188" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.37E-2</v>
       </c>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
@@ -19210,16 +19210,16 @@
         <v>0.09</v>
       </c>
       <c r="AF189">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="AG189" t="s">
-        <v>522</v>
+        <v>36</v>
       </c>
       <c r="AH189">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI189" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
@@ -19303,16 +19303,16 @@
         <v>0.37</v>
       </c>
       <c r="AF190">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="AG190" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="AH190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI190" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
@@ -19393,16 +19393,16 @@
         <v>0.27989999999999998</v>
       </c>
       <c r="AF191">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="AG191" t="s">
-        <v>524</v>
+        <v>803</v>
       </c>
       <c r="AH191">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI191" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.25">
@@ -19479,16 +19479,16 @@
         <v>0.27989999999999998</v>
       </c>
       <c r="AF192">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="AG192" t="s">
-        <v>103</v>
+        <v>516</v>
       </c>
       <c r="AH192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI192" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="193" spans="1:35" x14ac:dyDescent="0.25">
@@ -19568,10 +19568,10 @@
         <v>0.27989999999999998</v>
       </c>
       <c r="AF193">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="AG193" t="s">
-        <v>801</v>
+        <v>517</v>
       </c>
       <c r="AH193">
         <v>3</v>
@@ -19663,16 +19663,16 @@
         <v>0.38</v>
       </c>
       <c r="AF194">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="AG194" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="AH194">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI194" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="195" spans="1:35" x14ac:dyDescent="0.25">
@@ -19755,16 +19755,16 @@
         <v>0.38</v>
       </c>
       <c r="AF195">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="AG195" t="s">
-        <v>549</v>
+        <v>68</v>
       </c>
       <c r="AH195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI195" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.25">
@@ -19850,16 +19850,16 @@
         <v>0.19</v>
       </c>
       <c r="AF196">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="AG196" t="s">
-        <v>1145</v>
+        <v>69</v>
       </c>
       <c r="AH196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI196" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="197" spans="1:35" x14ac:dyDescent="0.25">
@@ -19945,16 +19945,16 @@
         <v>0.19</v>
       </c>
       <c r="AF197">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="AG197" t="s">
-        <v>1150</v>
+        <v>70</v>
       </c>
       <c r="AH197">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI197" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.25">
@@ -20040,16 +20040,16 @@
         <v>0.19</v>
       </c>
       <c r="AF198">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="AG198" t="s">
-        <v>1160</v>
+        <v>519</v>
       </c>
       <c r="AH198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI198" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.25">
@@ -20132,16 +20132,16 @@
         <v>0.29009999999999997</v>
       </c>
       <c r="AF199">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="AG199" t="s">
-        <v>1178</v>
+        <v>520</v>
       </c>
       <c r="AH199">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AI199" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.25">
@@ -20227,16 +20227,16 @@
         <v>0.29009999999999997</v>
       </c>
       <c r="AF200">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="AG200" t="s">
-        <v>1184</v>
+        <v>521</v>
       </c>
       <c r="AH200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI200" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="201" spans="1:35" x14ac:dyDescent="0.25">
@@ -20319,10 +20319,10 @@
         <v>0.29009999999999997</v>
       </c>
       <c r="AF201">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="AG201" t="s">
-        <v>1186</v>
+        <v>522</v>
       </c>
       <c r="AH201">
         <v>3</v>
@@ -20411,16 +20411,16 @@
         <v>0.58979999999999999</v>
       </c>
       <c r="AF202">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="AG202" t="s">
-        <v>1222</v>
+        <v>523</v>
       </c>
       <c r="AH202">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI202" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="203" spans="1:35" x14ac:dyDescent="0.25">
@@ -20500,16 +20500,16 @@
         <v>0.2</v>
       </c>
       <c r="AF203">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="AG203" t="s">
-        <v>1225</v>
+        <v>572</v>
       </c>
       <c r="AH203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI203" s="36">
-        <v>2.7000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="204" spans="1:35" x14ac:dyDescent="0.25">
@@ -20592,16 +20592,16 @@
         <v>0.1</v>
       </c>
       <c r="AF204">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="AG204" t="s">
-        <v>402</v>
+        <v>573</v>
       </c>
       <c r="AH204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI204" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="205" spans="1:35" x14ac:dyDescent="0.25">
@@ -20681,16 +20681,16 @@
         <v>0.1</v>
       </c>
       <c r="AF205">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="AG205" t="s">
-        <v>404</v>
+        <v>574</v>
       </c>
       <c r="AH205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI205" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="206" spans="1:35" x14ac:dyDescent="0.25">
@@ -20770,16 +20770,16 @@
         <v>0.4</v>
       </c>
       <c r="AF206">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AG206" t="s">
-        <v>406</v>
+        <v>524</v>
       </c>
       <c r="AH206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI206" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="207" spans="1:35" x14ac:dyDescent="0.25">
@@ -20862,16 +20862,16 @@
         <v>0.2</v>
       </c>
       <c r="AF207">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="AG207" t="s">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="AH207">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AI207" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="208" spans="1:35" x14ac:dyDescent="0.25">
@@ -20948,10 +20948,10 @@
         <v>0.2</v>
       </c>
       <c r="AF208">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="AG208" t="s">
-        <v>423</v>
+        <v>526</v>
       </c>
       <c r="AH208">
         <v>4</v>
@@ -21035,16 +21035,16 @@
         <v>0.2</v>
       </c>
       <c r="AF209">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="AG209" t="s">
-        <v>49</v>
+        <v>527</v>
       </c>
       <c r="AH209">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AI209" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="210" spans="1:35" x14ac:dyDescent="0.25">
@@ -21119,16 +21119,16 @@
         <v>0.1</v>
       </c>
       <c r="AF210">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="AG210" t="s">
-        <v>446</v>
+        <v>92</v>
       </c>
       <c r="AH210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI210" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="211" spans="1:35" x14ac:dyDescent="0.25">
@@ -21208,16 +21208,16 @@
         <v>0.1</v>
       </c>
       <c r="AF211">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="AG211" t="s">
-        <v>1101</v>
+        <v>93</v>
       </c>
       <c r="AH211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI211" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="212" spans="1:35" x14ac:dyDescent="0.25">
@@ -21294,16 +21294,16 @@
         <v>0.2</v>
       </c>
       <c r="AF212">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="AG212" t="s">
-        <v>461</v>
+        <v>94</v>
       </c>
       <c r="AH212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI212" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="213" spans="1:35" x14ac:dyDescent="0.25">
@@ -21383,16 +21383,16 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AF213">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="AG213" t="s">
-        <v>465</v>
+        <v>101</v>
       </c>
       <c r="AH213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI213" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="214" spans="1:35" x14ac:dyDescent="0.25">
@@ -21472,16 +21472,16 @@
         <v>0.72030000000000005</v>
       </c>
       <c r="AF214">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="AG214" t="s">
-        <v>466</v>
+        <v>102</v>
       </c>
       <c r="AH214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI214" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="215" spans="1:35" x14ac:dyDescent="0.25">
@@ -21558,16 +21558,16 @@
         <v>0.42</v>
       </c>
       <c r="AF215">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="AG215" t="s">
-        <v>468</v>
+        <v>103</v>
       </c>
       <c r="AH215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI215" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="216" spans="1:35" x14ac:dyDescent="0.25">
@@ -21647,16 +21647,16 @@
         <v>0.42</v>
       </c>
       <c r="AF216">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="AG216" t="s">
-        <v>490</v>
+        <v>95</v>
       </c>
       <c r="AH216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI216" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="217" spans="1:35" x14ac:dyDescent="0.25">
@@ -21733,16 +21733,16 @@
         <v>0.21</v>
       </c>
       <c r="AF217">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="AG217" t="s">
-        <v>492</v>
+        <v>96</v>
       </c>
       <c r="AH217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI217" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="218" spans="1:35" x14ac:dyDescent="0.25">
@@ -21825,10 +21825,10 @@
         <v>0.3201</v>
       </c>
       <c r="AF218">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="AG218" t="s">
-        <v>584</v>
+        <v>97</v>
       </c>
       <c r="AH218">
         <v>4</v>
@@ -21914,16 +21914,16 @@
         <v>0.3201</v>
       </c>
       <c r="AF219">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="AG219" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="AH219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI219" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="220" spans="1:35" x14ac:dyDescent="0.25">
@@ -22003,16 +22003,16 @@
         <v>0.54</v>
       </c>
       <c r="AF220">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="AG220" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="AH220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI220" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="221" spans="1:35" x14ac:dyDescent="0.25">
@@ -22092,16 +22092,16 @@
         <v>0.22</v>
       </c>
       <c r="AF221">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AG221" t="s">
-        <v>69</v>
+        <v>801</v>
       </c>
       <c r="AH221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI221" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="222" spans="1:35" x14ac:dyDescent="0.25">
@@ -22178,16 +22178,16 @@
         <v>0.11</v>
       </c>
       <c r="AF222">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AG222" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AH222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI222" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="223" spans="1:35" x14ac:dyDescent="0.25">
@@ -22270,16 +22270,16 @@
         <v>0.22</v>
       </c>
       <c r="AF223">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AG223" t="s">
-        <v>97</v>
+        <v>531</v>
       </c>
       <c r="AH223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI223" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="224" spans="1:35" x14ac:dyDescent="0.25">
@@ -22356,16 +22356,16 @@
         <v>0.33</v>
       </c>
       <c r="AF224">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG224" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AH224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI224" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="225" spans="1:35" x14ac:dyDescent="0.25">
@@ -22445,16 +22445,16 @@
         <v>0.22</v>
       </c>
       <c r="AF225">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG225" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AH225">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI225" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="226" spans="1:35" x14ac:dyDescent="0.25">
@@ -22531,16 +22531,16 @@
         <v>0.22</v>
       </c>
       <c r="AF226">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="AG226" t="s">
-        <v>1167</v>
+        <v>534</v>
       </c>
       <c r="AH226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI226" s="36">
-        <v>3.7000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="227" spans="1:35" x14ac:dyDescent="0.25">
@@ -22617,16 +22617,16 @@
         <v>0.33989999999999998</v>
       </c>
       <c r="AF227">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="AG227" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="AH227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI227" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="228" spans="1:35" x14ac:dyDescent="0.25">
@@ -22706,16 +22706,16 @@
         <v>0.23</v>
       </c>
       <c r="AF228">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="AG228" t="s">
-        <v>420</v>
+        <v>536</v>
       </c>
       <c r="AH228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI228" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="229" spans="1:35" x14ac:dyDescent="0.25">
@@ -22807,16 +22807,16 @@
         <v>0.59</v>
       </c>
       <c r="AF229">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="AG229" t="s">
-        <v>48</v>
+        <v>537</v>
       </c>
       <c r="AH229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI229" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="230" spans="1:35" x14ac:dyDescent="0.25">
@@ -22905,10 +22905,10 @@
         <v>0.36</v>
       </c>
       <c r="AF230">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="AG230" t="s">
-        <v>19</v>
+        <v>538</v>
       </c>
       <c r="AH230">
         <v>5</v>
@@ -23003,16 +23003,16 @@
         <v>0.12</v>
       </c>
       <c r="AF231">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="AG231" t="s">
-        <v>429</v>
+        <v>539</v>
       </c>
       <c r="AH231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI231" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="232" spans="1:35" x14ac:dyDescent="0.25">
@@ -23098,16 +23098,16 @@
         <v>0.6</v>
       </c>
       <c r="AF232">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="AG232" t="s">
-        <v>433</v>
+        <v>540</v>
       </c>
       <c r="AH232">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI232" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="233" spans="1:35" x14ac:dyDescent="0.25">
@@ -23196,16 +23196,16 @@
         <v>0.12</v>
       </c>
       <c r="AF233">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="AG233" t="s">
-        <v>441</v>
+        <v>541</v>
       </c>
       <c r="AH233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI233" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="234" spans="1:35" x14ac:dyDescent="0.25">
@@ -23291,16 +23291,16 @@
         <v>0.24</v>
       </c>
       <c r="AF234">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="AG234" t="s">
-        <v>443</v>
+        <v>542</v>
       </c>
       <c r="AH234">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI234" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="235" spans="1:35" x14ac:dyDescent="0.25">
@@ -23389,16 +23389,16 @@
         <v>0.12</v>
       </c>
       <c r="AF235">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="AG235" t="s">
-        <v>448</v>
+        <v>543</v>
       </c>
       <c r="AH235">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI235" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="236" spans="1:35" x14ac:dyDescent="0.25">
@@ -23484,10 +23484,10 @@
         <v>0.12</v>
       </c>
       <c r="AF236">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="AG236" t="s">
-        <v>459</v>
+        <v>544</v>
       </c>
       <c r="AH236">
         <v>5</v>
@@ -23582,16 +23582,16 @@
         <v>0.24</v>
       </c>
       <c r="AF237">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="AG237" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="AH237">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI237" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="238" spans="1:35" x14ac:dyDescent="0.25">
@@ -23677,16 +23677,16 @@
         <v>0.12</v>
       </c>
       <c r="AF238">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="AG238" t="s">
-        <v>469</v>
+        <v>546</v>
       </c>
       <c r="AH238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI238" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="239" spans="1:35" x14ac:dyDescent="0.25">
@@ -23775,16 +23775,16 @@
         <v>0.49</v>
       </c>
       <c r="AF239">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="AG239" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="AH239">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI239" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="240" spans="1:35" x14ac:dyDescent="0.25">
@@ -23873,16 +23873,16 @@
         <v>0.86029999999999995</v>
       </c>
       <c r="AF240">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="AG240" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="AH240">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI240" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="241" spans="1:35" x14ac:dyDescent="0.25">
@@ -23968,16 +23968,16 @@
         <v>0.5</v>
       </c>
       <c r="AF241">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="AG241" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="AH241">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI241" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="242" spans="1:35" x14ac:dyDescent="0.25">
@@ -24060,16 +24060,16 @@
         <v>0.5</v>
       </c>
       <c r="AF242">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="AG242" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="AH242">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI242" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="243" spans="1:35" x14ac:dyDescent="0.25">
@@ -24154,10 +24154,10 @@
         <v>0.25</v>
       </c>
       <c r="AF243">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="AG243" t="s">
-        <v>67</v>
+        <v>551</v>
       </c>
       <c r="AH243">
         <v>5</v>
@@ -24247,16 +24247,16 @@
         <v>0.5</v>
       </c>
       <c r="AF244">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="AG244" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="AH244">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI244" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="245" spans="1:35" x14ac:dyDescent="0.25">
@@ -24337,16 +24337,16 @@
         <v>0.25</v>
       </c>
       <c r="AF245">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="AG245" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="AH245">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI245" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="246" spans="1:35" x14ac:dyDescent="0.25">
@@ -24432,16 +24432,16 @@
         <v>0.25</v>
       </c>
       <c r="AF246">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="AG246" t="s">
-        <v>38</v>
+        <v>554</v>
       </c>
       <c r="AH246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI246" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="247" spans="1:35" x14ac:dyDescent="0.25">
@@ -24527,16 +24527,16 @@
         <v>0.26</v>
       </c>
       <c r="AF247">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="AG247" t="s">
-        <v>803</v>
+        <v>555</v>
       </c>
       <c r="AH247">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI247" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="248" spans="1:35" x14ac:dyDescent="0.25">
@@ -24619,16 +24619,16 @@
         <v>0.39</v>
       </c>
       <c r="AF248">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="AG248" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="AH248">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI248" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="249" spans="1:35" x14ac:dyDescent="0.25">
@@ -24717,16 +24717,16 @@
         <v>0.52</v>
       </c>
       <c r="AF249">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="AG249" t="s">
-        <v>94</v>
+        <v>557</v>
       </c>
       <c r="AH249">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI249" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="250" spans="1:35" x14ac:dyDescent="0.25">
@@ -24812,16 +24812,16 @@
         <v>0.65</v>
       </c>
       <c r="AF250">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="AG250" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="AH250">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI250" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="251" spans="1:35" x14ac:dyDescent="0.25">
@@ -24907,10 +24907,10 @@
         <v>0.26</v>
       </c>
       <c r="AF251">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="AG251" t="s">
-        <v>538</v>
+        <v>802</v>
       </c>
       <c r="AH251">
         <v>5</v>
@@ -24999,16 +24999,16 @@
         <v>0.52</v>
       </c>
       <c r="AF252">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="AG252" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="AH252">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI252" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="253" spans="1:35" x14ac:dyDescent="0.25">
@@ -25083,16 +25083,16 @@
         <v>0.39990000000000003</v>
       </c>
       <c r="AF253">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AG253" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="AH253">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI253" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="254" spans="1:35" x14ac:dyDescent="0.25">
@@ -25173,16 +25173,16 @@
         <v>0.39990000000000003</v>
       </c>
       <c r="AF254">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG254" t="s">
-        <v>802</v>
+        <v>561</v>
       </c>
       <c r="AH254">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI254" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="255" spans="1:35" x14ac:dyDescent="0.25">
@@ -25266,16 +25266,16 @@
         <v>0.39990000000000003</v>
       </c>
       <c r="AF255">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG255" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AH255">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI255" s="36">
-        <v>4.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="256" spans="1:35" x14ac:dyDescent="0.25">
@@ -25361,16 +25361,16 @@
         <v>0.27</v>
       </c>
       <c r="AF256">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="AG256" t="s">
-        <v>391</v>
+        <v>563</v>
       </c>
       <c r="AH256">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI256" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="257" spans="1:35" x14ac:dyDescent="0.25">
@@ -25456,16 +25456,16 @@
         <v>1.37</v>
       </c>
       <c r="AF257">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="AG257" t="s">
-        <v>397</v>
+        <v>564</v>
       </c>
       <c r="AH257">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI257" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:35" x14ac:dyDescent="0.25">
@@ -25548,16 +25548,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AF258">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="AG258" t="s">
-        <v>398</v>
+        <v>86</v>
       </c>
       <c r="AH258">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI258" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="259" spans="1:35" x14ac:dyDescent="0.25">
@@ -25643,16 +25643,16 @@
         <v>1.9305999999999999</v>
       </c>
       <c r="AF259">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="AG259" t="s">
-        <v>403</v>
+        <v>565</v>
       </c>
       <c r="AH259">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI259" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.25">
@@ -25738,16 +25738,16 @@
         <v>1.1104000000000001</v>
       </c>
       <c r="AF260">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="AG260" t="s">
-        <v>15</v>
+        <v>566</v>
       </c>
       <c r="AH260">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI260" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:35" x14ac:dyDescent="0.25">
@@ -25830,16 +25830,16 @@
         <v>0.42000000000000004</v>
       </c>
       <c r="AF261">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="AG261" t="s">
-        <v>408</v>
+        <v>567</v>
       </c>
       <c r="AH261">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI261" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="262" spans="1:35" x14ac:dyDescent="0.25">
@@ -25925,16 +25925,16 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="AF262">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AG262" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="AH262">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI262" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:35" x14ac:dyDescent="0.25">
@@ -26020,16 +26020,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AF263">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="AG263" t="s">
-        <v>412</v>
+        <v>569</v>
       </c>
       <c r="AH263">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI263" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:35" x14ac:dyDescent="0.25">
@@ -26115,16 +26115,16 @@
         <v>1.1295999999999999</v>
       </c>
       <c r="AF264">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="AG264" t="s">
-        <v>427</v>
+        <v>570</v>
       </c>
       <c r="AH264">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI264" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:35" x14ac:dyDescent="0.25">
@@ -26211,16 +26211,16 @@
         <v>0.85019999999999996</v>
       </c>
       <c r="AF265">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="AG265" t="s">
-        <v>430</v>
+        <v>571</v>
       </c>
       <c r="AH265">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI265" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:35" x14ac:dyDescent="0.25">
@@ -26307,16 +26307,16 @@
         <v>1.8499000000000001</v>
       </c>
       <c r="AF266">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="AG266" t="s">
-        <v>432</v>
+        <v>576</v>
       </c>
       <c r="AH266">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI266" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:35" x14ac:dyDescent="0.25">
@@ -26400,16 +26400,16 @@
         <v>0.85980000000000012</v>
       </c>
       <c r="AF267">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="AG267" t="s">
-        <v>481</v>
+        <v>804</v>
       </c>
       <c r="AH267">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI267" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="268" spans="1:35" x14ac:dyDescent="0.25">
@@ -26493,16 +26493,16 @@
         <v>0.86999999999999988</v>
       </c>
       <c r="AF268">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="AG268" t="s">
-        <v>482</v>
+        <v>805</v>
       </c>
       <c r="AH268">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI268" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.25">
@@ -26586,16 +26586,16 @@
         <v>0.88019999999999998</v>
       </c>
       <c r="AF269">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AG269" t="s">
-        <v>90</v>
+        <v>806</v>
       </c>
       <c r="AH269">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI269" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="270" spans="1:35" x14ac:dyDescent="0.25">
@@ -26679,16 +26679,16 @@
         <v>1.47</v>
       </c>
       <c r="AF270">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="AG270" t="s">
-        <v>500</v>
+        <v>1145</v>
       </c>
       <c r="AH270">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI270" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.25">
@@ -26775,16 +26775,16 @@
         <v>0.6</v>
       </c>
       <c r="AF271">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="AG271" t="s">
-        <v>66</v>
+        <v>1146</v>
       </c>
       <c r="AH271">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI271" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.25">
@@ -26859,16 +26859,16 @@
         <v>0.6</v>
       </c>
       <c r="AF272">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="AG272" t="s">
-        <v>502</v>
+        <v>1149</v>
       </c>
       <c r="AH272">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI272" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="273" spans="1:35" x14ac:dyDescent="0.25">
@@ -26940,16 +26940,16 @@
         <v>0.3</v>
       </c>
       <c r="AF273">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="AG273" t="s">
-        <v>70</v>
+        <v>1150</v>
       </c>
       <c r="AH273">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI273" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.25">
@@ -27024,16 +27024,16 @@
         <v>0.15</v>
       </c>
       <c r="AF274">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AG274" t="s">
-        <v>545</v>
+        <v>1151</v>
       </c>
       <c r="AH274">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI274" s="36">
-        <v>5.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:35" x14ac:dyDescent="0.25">
@@ -27105,16 +27105,16 @@
         <v>0.3</v>
       </c>
       <c r="AF275">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="AG275" t="s">
-        <v>405</v>
+        <v>1152</v>
       </c>
       <c r="AH275">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI275" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="276" spans="1:35" x14ac:dyDescent="0.25">
@@ -27195,16 +27195,16 @@
         <v>0.15</v>
       </c>
       <c r="AF276">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="AG276" t="s">
-        <v>410</v>
+        <v>1153</v>
       </c>
       <c r="AH276">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI276" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="277" spans="1:35" x14ac:dyDescent="0.25">
@@ -27288,16 +27288,16 @@
         <v>0.3</v>
       </c>
       <c r="AF277">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AG277" t="s">
-        <v>424</v>
+        <v>1155</v>
       </c>
       <c r="AH277">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI277" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="278" spans="1:35" x14ac:dyDescent="0.25">
@@ -27378,16 +27378,16 @@
         <v>0.3</v>
       </c>
       <c r="AF278">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="AG278" t="s">
-        <v>437</v>
+        <v>1156</v>
       </c>
       <c r="AH278">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI278" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="279" spans="1:35" x14ac:dyDescent="0.25">
@@ -27471,16 +27471,16 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="AF279">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="AG279" t="s">
-        <v>445</v>
+        <v>1154</v>
       </c>
       <c r="AH279">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI279" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:35" x14ac:dyDescent="0.25">
@@ -27561,16 +27561,16 @@
         <v>0.77</v>
       </c>
       <c r="AF280">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="AG280" t="s">
-        <v>483</v>
+        <v>1157</v>
       </c>
       <c r="AH280">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI280" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="281" spans="1:35" x14ac:dyDescent="0.25">
@@ -27651,16 +27651,16 @@
         <v>0.31</v>
       </c>
       <c r="AF281">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="AG281" t="s">
-        <v>494</v>
+        <v>1158</v>
       </c>
       <c r="AH281">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI281" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="282" spans="1:35" x14ac:dyDescent="0.25">
@@ -27744,16 +27744,16 @@
         <v>0.47010000000000002</v>
       </c>
       <c r="AF282">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="AG282" t="s">
-        <v>501</v>
+        <v>1159</v>
       </c>
       <c r="AH282">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI282" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:35" x14ac:dyDescent="0.25">
@@ -27834,16 +27834,16 @@
         <v>0.47010000000000002</v>
       </c>
       <c r="AF283">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="AG283" t="s">
-        <v>508</v>
+        <v>1160</v>
       </c>
       <c r="AH283">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI283" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="284" spans="1:35" x14ac:dyDescent="0.25">
@@ -27926,16 +27926,16 @@
         <v>0.32</v>
       </c>
       <c r="AF284">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="AG284" t="s">
-        <v>511</v>
+        <v>1161</v>
       </c>
       <c r="AH284">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI284" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="285" spans="1:35" x14ac:dyDescent="0.25">
@@ -28015,16 +28015,16 @@
         <v>0.97020000000000006</v>
       </c>
       <c r="AF285">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="AG285" t="s">
-        <v>36</v>
+        <v>1162</v>
       </c>
       <c r="AH285">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI285" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:35" x14ac:dyDescent="0.25">
@@ -28101,20 +28101,20 @@
         <v>0.16170000000000001</v>
       </c>
       <c r="AD286" s="37">
-        <f t="shared" ref="AD286:AD349" si="18">AC286*AB286</f>
+        <f t="shared" ref="AD286:AD325" si="18">AC286*AB286</f>
         <v>0.97020000000000006</v>
       </c>
       <c r="AF286">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="AG286" t="s">
-        <v>518</v>
+        <v>1163</v>
       </c>
       <c r="AH286">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI286" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="287" spans="1:35" x14ac:dyDescent="0.25">
@@ -28192,16 +28192,16 @@
         <v>0.9798</v>
       </c>
       <c r="AF287">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="AG287" t="s">
-        <v>523</v>
+        <v>1164</v>
       </c>
       <c r="AH287">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI287" s="36">
-        <v>6.4000000000000003E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="288" spans="1:35" x14ac:dyDescent="0.25">
@@ -28282,16 +28282,16 @@
         <v>0.9798</v>
       </c>
       <c r="AF288">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="AG288" t="s">
-        <v>400</v>
+        <v>1165</v>
       </c>
       <c r="AH288">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI288" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:35" x14ac:dyDescent="0.25">
@@ -28372,16 +28372,16 @@
         <v>0.33</v>
       </c>
       <c r="AF289">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="AG289" t="s">
-        <v>411</v>
+        <v>1166</v>
       </c>
       <c r="AH289">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI289" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="290" spans="1:35" x14ac:dyDescent="0.25">
@@ -28459,16 +28459,16 @@
         <v>0.17</v>
       </c>
       <c r="AF290">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="AG290" t="s">
-        <v>415</v>
+        <v>1167</v>
       </c>
       <c r="AH290">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI290" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="291" spans="1:35" x14ac:dyDescent="0.25">
@@ -28549,16 +28549,16 @@
         <v>0.17</v>
       </c>
       <c r="AF291">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="AG291" t="s">
-        <v>439</v>
+        <v>1168</v>
       </c>
       <c r="AH291">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI291" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="292" spans="1:35" x14ac:dyDescent="0.25">
@@ -28636,16 +28636,16 @@
         <v>1.02</v>
       </c>
       <c r="AF292">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="AG292" t="s">
-        <v>463</v>
+        <v>1169</v>
       </c>
       <c r="AH292">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI292" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="293" spans="1:35" x14ac:dyDescent="0.25">
@@ -28726,16 +28726,16 @@
         <v>1.5695999999999999</v>
       </c>
       <c r="AF293">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="AG293" t="s">
-        <v>467</v>
+        <v>1181</v>
       </c>
       <c r="AH293">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI293" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:35" x14ac:dyDescent="0.25">
@@ -28813,16 +28813,16 @@
         <v>0.7</v>
       </c>
       <c r="AF294">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="AG294" t="s">
-        <v>472</v>
+        <v>1178</v>
       </c>
       <c r="AH294">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AI294" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="295" spans="1:35" x14ac:dyDescent="0.25">
@@ -28900,16 +28900,16 @@
         <v>0.53010000000000002</v>
       </c>
       <c r="AF295">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="AG295" t="s">
-        <v>473</v>
+        <v>1177</v>
       </c>
       <c r="AH295">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI295" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:35" x14ac:dyDescent="0.25">
@@ -28995,16 +28995,16 @@
         <v>1.08</v>
       </c>
       <c r="AF296">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="AG296" t="s">
-        <v>76</v>
+        <v>1179</v>
       </c>
       <c r="AH296">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI296" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="297" spans="1:35" x14ac:dyDescent="0.25">
@@ -29087,16 +29087,16 @@
         <v>0.56010000000000004</v>
       </c>
       <c r="AF297">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="AG297" t="s">
-        <v>63</v>
+        <v>1180</v>
       </c>
       <c r="AH297">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI297" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:35" x14ac:dyDescent="0.25">
@@ -29182,16 +29182,16 @@
         <v>1.1202000000000001</v>
       </c>
       <c r="AF298">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="AG298" t="s">
-        <v>553</v>
+        <v>1182</v>
       </c>
       <c r="AH298">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI298" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="299" spans="1:35" x14ac:dyDescent="0.25">
@@ -29277,16 +29277,16 @@
         <v>0.19</v>
       </c>
       <c r="AF299">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="AG299" t="s">
-        <v>556</v>
+        <v>1183</v>
       </c>
       <c r="AH299">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI299" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:35" x14ac:dyDescent="0.25">
@@ -29369,16 +29369,16 @@
         <v>0.79</v>
       </c>
       <c r="AF300">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="AG300" t="s">
-        <v>561</v>
+        <v>1184</v>
       </c>
       <c r="AH300">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AI300" s="36">
-        <v>7.3000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="301" spans="1:35" x14ac:dyDescent="0.25">
@@ -29464,16 +29464,16 @@
         <v>0.2</v>
       </c>
       <c r="AF301">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="AG301" t="s">
-        <v>394</v>
+        <v>1185</v>
       </c>
       <c r="AH301">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI301" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="302" spans="1:35" x14ac:dyDescent="0.25">
@@ -29556,16 +29556,16 @@
         <v>1.6104000000000001</v>
       </c>
       <c r="AF302">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="AG302" t="s">
-        <v>421</v>
+        <v>1186</v>
       </c>
       <c r="AH302">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AI302" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="303" spans="1:35" x14ac:dyDescent="0.25">
@@ -29651,16 +29651,16 @@
         <v>0.42</v>
       </c>
       <c r="AF303">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="AG303" t="s">
-        <v>579</v>
+        <v>1187</v>
       </c>
       <c r="AH303">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI303" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="304" spans="1:35" x14ac:dyDescent="0.25">
@@ -29743,16 +29743,16 @@
         <v>2.11</v>
       </c>
       <c r="AF304">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AG304" t="s">
-        <v>453</v>
+        <v>1188</v>
       </c>
       <c r="AH304">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI304" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="305" spans="1:35" x14ac:dyDescent="0.25">
@@ -29833,16 +29833,16 @@
         <v>1.4798</v>
       </c>
       <c r="AF305">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="AG305" t="s">
-        <v>489</v>
+        <v>1189</v>
       </c>
       <c r="AH305">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI305" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="306" spans="1:35" x14ac:dyDescent="0.25">
@@ -29923,16 +29923,16 @@
         <v>0.88</v>
       </c>
       <c r="AF306">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="AG306" t="s">
-        <v>1072</v>
+        <v>1190</v>
       </c>
       <c r="AH306">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI306" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="307" spans="1:35" x14ac:dyDescent="0.25">
@@ -30013,16 +30013,16 @@
         <v>0.22</v>
       </c>
       <c r="AF307">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="AG307" t="s">
-        <v>504</v>
+        <v>1200</v>
       </c>
       <c r="AH307">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI307" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="308" spans="1:35" x14ac:dyDescent="0.25">
@@ -30103,16 +30103,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AF308">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="AG308" t="s">
-        <v>514</v>
+        <v>1201</v>
       </c>
       <c r="AH308">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI308" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:35" x14ac:dyDescent="0.25">
@@ -30193,16 +30193,16 @@
         <v>1.5498000000000001</v>
       </c>
       <c r="AF309">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="AG309" t="s">
-        <v>525</v>
+        <v>1227</v>
       </c>
       <c r="AH309">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI309" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:35" x14ac:dyDescent="0.25">
@@ -30280,16 +30280,16 @@
         <v>0.69989999999999997</v>
       </c>
       <c r="AF310">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="AG310" t="s">
-        <v>527</v>
+        <v>1203</v>
       </c>
       <c r="AH310">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI310" s="36">
-        <v>8.2000000000000007E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="311" spans="1:35" x14ac:dyDescent="0.25">
@@ -30372,16 +30372,16 @@
         <v>0.24</v>
       </c>
       <c r="AF311">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="AG311" t="s">
-        <v>418</v>
+        <v>1204</v>
       </c>
       <c r="AH311">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI311" s="36">
-        <v>9.1000000000000004E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="312" spans="1:35" x14ac:dyDescent="0.25">
@@ -30464,16 +30464,16 @@
         <v>0.24</v>
       </c>
       <c r="AF312">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AG312" t="s">
-        <v>455</v>
+        <v>1228</v>
       </c>
       <c r="AH312">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI312" s="36">
-        <v>9.1000000000000004E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:35" x14ac:dyDescent="0.25">
@@ -30553,16 +30553,16 @@
         <v>0.25</v>
       </c>
       <c r="AF313">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="AG313" t="s">
-        <v>479</v>
+        <v>1229</v>
       </c>
       <c r="AH313">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI313" s="36">
-        <v>9.1000000000000004E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="314" spans="1:35" x14ac:dyDescent="0.25">
@@ -30645,16 +30645,16 @@
         <v>1.02</v>
       </c>
       <c r="AF314">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="AG314" t="s">
-        <v>100</v>
+        <v>1230</v>
       </c>
       <c r="AH314">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI314" s="36">
-        <v>9.1000000000000004E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="315" spans="1:35" x14ac:dyDescent="0.25">
@@ -30734,16 +30734,16 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="AF315">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="AG315" t="s">
-        <v>580</v>
+        <v>1231</v>
       </c>
       <c r="AH315">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI315" s="36">
-        <v>9.1000000000000004E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:35" x14ac:dyDescent="0.25">
@@ -30826,16 +30826,16 @@
         <v>1.6998</v>
       </c>
       <c r="AF316">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="AG316" t="s">
-        <v>498</v>
+        <v>1232</v>
       </c>
       <c r="AH316">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI316" s="36">
-        <v>9.1000000000000004E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:35" x14ac:dyDescent="0.25">
@@ -30918,16 +30918,16 @@
         <v>1.45</v>
       </c>
       <c r="AF317">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="AG317" t="s">
-        <v>499</v>
+        <v>1233</v>
       </c>
       <c r="AH317">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI317" s="36">
-        <v>9.1000000000000004E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:35" x14ac:dyDescent="0.25">
@@ -31007,16 +31007,16 @@
         <v>0.3</v>
       </c>
       <c r="AF318">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="AG318" t="s">
-        <v>426</v>
+        <v>1234</v>
       </c>
       <c r="AH318">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI318" s="36">
-        <v>1.01E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:35" x14ac:dyDescent="0.25">
@@ -31097,16 +31097,16 @@
         <v>0.65</v>
       </c>
       <c r="AF319">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AG319" t="s">
-        <v>436</v>
+        <v>1198</v>
       </c>
       <c r="AH319">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI319" s="36">
-        <v>1.01E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:35" x14ac:dyDescent="0.25">
@@ -31187,16 +31187,16 @@
         <v>3.46</v>
       </c>
       <c r="AF320">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="AG320" t="s">
-        <v>450</v>
+        <v>1199</v>
       </c>
       <c r="AH320">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI320" s="36">
-        <v>1.01E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:35" x14ac:dyDescent="0.25">
@@ -31274,16 +31274,16 @@
         <v>0.75</v>
       </c>
       <c r="AF321">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="AG321" t="s">
-        <v>503</v>
+        <v>1220</v>
       </c>
       <c r="AH321">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AI321" s="36">
-        <v>1.01E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="322" spans="1:35" x14ac:dyDescent="0.25">
@@ -31364,16 +31364,16 @@
         <v>0.8</v>
       </c>
       <c r="AF322">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="AG322" t="s">
-        <v>520</v>
+        <v>1221</v>
       </c>
       <c r="AH322">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AI322" s="36">
-        <v>1.01E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="323" spans="1:35" x14ac:dyDescent="0.25">
@@ -31451,16 +31451,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AF323">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="AG323" t="s">
-        <v>547</v>
+        <v>1222</v>
       </c>
       <c r="AH323">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AI323" s="36">
-        <v>1.0999999999999999E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="324" spans="1:35" x14ac:dyDescent="0.25">
@@ -31541,16 +31541,16 @@
         <v>3.7002000000000002</v>
       </c>
       <c r="AF324">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="AG324" t="s">
-        <v>509</v>
+        <v>1225</v>
       </c>
       <c r="AH324">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AI324" s="36">
-        <v>1.1900000000000001E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="325" spans="1:35" x14ac:dyDescent="0.25">
@@ -31628,16 +31628,16 @@
         <v>6.2504</v>
       </c>
       <c r="AF325">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="AG325" t="s">
-        <v>40</v>
+        <v>1226</v>
       </c>
       <c r="AH325">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AI325" s="36">
-        <v>1.37E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="326" spans="1:35" x14ac:dyDescent="0.25">

--- a/PokemonGame/stuff/pokemon game.xlsx
+++ b/PokemonGame/stuff/pokemon game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjkuhnke\git\PokemonGame\PokemonGame\stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F726247-E518-4F0A-B31F-55CC6B6ECD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAF1C70-77AE-46A7-AD2B-0C89C7EF081D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BD02A17-B686-4FC4-8065-C777F779E0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="1359">
   <si>
     <t>Leafer</t>
   </si>
@@ -3743,10 +3743,376 @@
     <t>Dusk Skater</t>
   </si>
   <si>
-    <t>Snom Lv 80ish</t>
-  </si>
-  <si>
-    <t>Dragee/Draga</t>
+    <t>Ability Capsule</t>
+  </si>
+  <si>
+    <t>Adamant Mint</t>
+  </si>
+  <si>
+    <t>Air Balloon</t>
+  </si>
+  <si>
+    <t>Antidote</t>
+  </si>
+  <si>
+    <t>Apicot Berry</t>
+  </si>
+  <si>
+    <t>Aspear Berry</t>
+  </si>
+  <si>
+    <t>Awakening</t>
+  </si>
+  <si>
+    <t>Belue Berry</t>
+  </si>
+  <si>
+    <t>Bluk Berry</t>
+  </si>
+  <si>
+    <t>Bold Mint</t>
+  </si>
+  <si>
+    <t>Bottle Cap</t>
+  </si>
+  <si>
+    <t>Brave Mint</t>
+  </si>
+  <si>
+    <t>Burn Heal</t>
+  </si>
+  <si>
+    <t>Calm Mint</t>
+  </si>
+  <si>
+    <t>Careful Mint</t>
+  </si>
+  <si>
+    <t>Cheri Berry</t>
+  </si>
+  <si>
+    <t>Chesto Berry</t>
+  </si>
+  <si>
+    <t>Dawn Stone</t>
+  </si>
+  <si>
+    <t>Durin Berry</t>
+  </si>
+  <si>
+    <t>Dusk Scales Fossil</t>
+  </si>
+  <si>
+    <t>Dusk Stone</t>
+  </si>
+  <si>
+    <t>Elixir</t>
+  </si>
+  <si>
+    <t>Euphorian Gem</t>
+  </si>
+  <si>
+    <t>Fire Stone</t>
+  </si>
+  <si>
+    <t>Focus Band</t>
+  </si>
+  <si>
+    <t>Freeze Heal</t>
+  </si>
+  <si>
+    <t>Full Heal</t>
+  </si>
+  <si>
+    <t>Full Restore</t>
+  </si>
+  <si>
+    <t>Ganlon Berry</t>
+  </si>
+  <si>
+    <t>Gold Bottle Cap</t>
+  </si>
+  <si>
+    <t>Great Ball</t>
+  </si>
+  <si>
+    <t>HM06 Whirlpool</t>
+  </si>
+  <si>
+    <t>Hyper Potion</t>
+  </si>
+  <si>
+    <t>Ice Stone</t>
+  </si>
+  <si>
+    <t>Impish Mint</t>
+  </si>
+  <si>
+    <t>Jolly Mint</t>
+  </si>
+  <si>
+    <t>King's Rock</t>
+  </si>
+  <si>
+    <t>Leaf Stone</t>
+  </si>
+  <si>
+    <t>Leppa Berry</t>
+  </si>
+  <si>
+    <t>Liechi Berry</t>
+  </si>
+  <si>
+    <t>Lum Berry</t>
+  </si>
+  <si>
+    <t>Max Elixir</t>
+  </si>
+  <si>
+    <t>Max Potion</t>
+  </si>
+  <si>
+    <t>Max Revive</t>
+  </si>
+  <si>
+    <t>Mental Herb</t>
+  </si>
+  <si>
+    <t>Micle Berry</t>
+  </si>
+  <si>
+    <t>Modest Mint</t>
+  </si>
+  <si>
+    <t>Oran Berry</t>
+  </si>
+  <si>
+    <t>Pamtre Berry</t>
+  </si>
+  <si>
+    <t>Paralyze Heal</t>
+  </si>
+  <si>
+    <t>Pecha Berry</t>
+  </si>
+  <si>
+    <t>Persim Berry</t>
+  </si>
+  <si>
+    <t>Petaya Berry</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>PP Max</t>
+  </si>
+  <si>
+    <t>PP Up</t>
+  </si>
+  <si>
+    <t>Quiet Mint</t>
+  </si>
+  <si>
+    <t>Rare Candy</t>
+  </si>
+  <si>
+    <t>Rawst Berry</t>
+  </si>
+  <si>
+    <t>Repel</t>
+  </si>
+  <si>
+    <t>Revive</t>
+  </si>
+  <si>
+    <t>Serious Mint</t>
+  </si>
+  <si>
+    <t>Sitrus Berry</t>
+  </si>
+  <si>
+    <t>Spelon Berry</t>
+  </si>
+  <si>
+    <t>Starf Berry</t>
+  </si>
+  <si>
+    <t>Super Potion</t>
+  </si>
+  <si>
+    <t>Thunder Scales Fossil</t>
+  </si>
+  <si>
+    <t>Timid Mint</t>
+  </si>
+  <si>
+    <t>TM02 Dragon Claw</t>
+  </si>
+  <si>
+    <t>TM04 Calm Mind</t>
+  </si>
+  <si>
+    <t>TM05 Body Slam</t>
+  </si>
+  <si>
+    <t>TM06 Shadow Ball</t>
+  </si>
+  <si>
+    <t>TM07 Focus Blast</t>
+  </si>
+  <si>
+    <t>TM08 Bulk Up</t>
+  </si>
+  <si>
+    <t>TM09 Leaf Blade</t>
+  </si>
+  <si>
+    <t>TM14 Taunt</t>
+  </si>
+  <si>
+    <t>TM17 Solar Beam</t>
+  </si>
+  <si>
+    <t>TM19 Photon Geyser</t>
+  </si>
+  <si>
+    <t>TM20 Earthquake</t>
+  </si>
+  <si>
+    <t>TM25 Thunderbolt</t>
+  </si>
+  <si>
+    <t>TM26 Hidden Power</t>
+  </si>
+  <si>
+    <t>TM27 Drain Punch</t>
+  </si>
+  <si>
+    <t>TM28 Flame Charge</t>
+  </si>
+  <si>
+    <t>TM29 Liquidation</t>
+  </si>
+  <si>
+    <t>TM30 U-Turn</t>
+  </si>
+  <si>
+    <t>TM31 False Swipe</t>
+  </si>
+  <si>
+    <t>TM32 Zing Zap</t>
+  </si>
+  <si>
+    <t>TM33 Psychic Fangs</t>
+  </si>
+  <si>
+    <t>TM34 Magic Tomb</t>
+  </si>
+  <si>
+    <t>TM35 Flamethrower</t>
+  </si>
+  <si>
+    <t>TM36 Sludge Bomb</t>
+  </si>
+  <si>
+    <t>TM37 Rock Tomb</t>
+  </si>
+  <si>
+    <t>TM40 Facade</t>
+  </si>
+  <si>
+    <t>TM47 Star Storm</t>
+  </si>
+  <si>
+    <t>TM48 Scald</t>
+  </si>
+  <si>
+    <t>TM53 Volt Switch</t>
+  </si>
+  <si>
+    <t>TM55 Magic Blast</t>
+  </si>
+  <si>
+    <t>TM56 Sparkle Strike</t>
+  </si>
+  <si>
+    <t>TM57 Charge Beam</t>
+  </si>
+  <si>
+    <t>TM58 Dragon Pulse</t>
+  </si>
+  <si>
+    <t>TM61 Smack Down</t>
+  </si>
+  <si>
+    <t>TM62 Bug Buzz</t>
+  </si>
+  <si>
+    <t>TM65 Shadow Claw</t>
+  </si>
+  <si>
+    <t>TM68 Flash</t>
+  </si>
+  <si>
+    <t>TM69 Rock Polish</t>
+  </si>
+  <si>
+    <t>TM71 Stone Edge</t>
+  </si>
+  <si>
+    <t>TM72 Ice Spinner</t>
+  </si>
+  <si>
+    <t>TM73 Gyro Ball</t>
+  </si>
+  <si>
+    <t>TM78 Swords Dance</t>
+  </si>
+  <si>
+    <t>TM83 Captivate</t>
+  </si>
+  <si>
+    <t>TM84 Dark Pulse</t>
+  </si>
+  <si>
+    <t>TM85 Rock Slide</t>
+  </si>
+  <si>
+    <t>TM86 X-Scissor</t>
+  </si>
+  <si>
+    <t>TM87 Poison Jab</t>
+  </si>
+  <si>
+    <t>TM89 Acrobatics</t>
+  </si>
+  <si>
+    <t>TM90 Iron Blast</t>
+  </si>
+  <si>
+    <t>TM93 Earth Power</t>
+  </si>
+  <si>
+    <t>TM98 Flip Turn</t>
+  </si>
+  <si>
+    <t>TM99 Return</t>
+  </si>
+  <si>
+    <t>Ultra Ball</t>
+  </si>
+  <si>
+    <t>Watmel Berry</t>
+  </si>
+  <si>
+    <t>Wepear Berry</t>
+  </si>
+  <si>
+    <t>Wiki Berry</t>
   </si>
 </sst>
 </file>
@@ -4423,7 +4789,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{548F567D-726D-4341-95E0-502216E748B2}" name="Table4" displayName="Table4" ref="AF29:AI325" totalsRowShown="0">
   <autoFilter ref="AF29:AI325" xr:uid="{548F567D-726D-4341-95E0-502216E748B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AF30:AI325">
-    <sortCondition ref="AF29:AF325"/>
+    <sortCondition ref="AH29:AH325"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{71084C9A-5E75-4048-82AA-70A2D1CBD776}" name="Num"/>
@@ -4734,8 +5100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCD2C10-9C1D-4BA8-9034-8E41B08DF934}">
   <dimension ref="A1:AU620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T291" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF325" sqref="AF325"/>
+    <sheetView tabSelected="1" topLeftCell="F61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO85" sqref="AO85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,7 +5127,9 @@
     <col min="27" max="29" width="10.85546875" customWidth="1"/>
     <col min="30" max="32" width="7.7109375" customWidth="1"/>
     <col min="33" max="33" width="11.42578125" customWidth="1"/>
-    <col min="34" max="47" width="7.7109375" customWidth="1"/>
+    <col min="34" max="36" width="7.7109375" customWidth="1"/>
+    <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="47" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:47" x14ac:dyDescent="0.25">
@@ -6556,6 +6924,12 @@
       <c r="AI29" t="s">
         <v>1105</v>
       </c>
+      <c r="AK29" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AL29">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B30">
@@ -6612,28 +6986,22 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s">
-        <v>389</v>
+        <v>564</v>
       </c>
       <c r="AH30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="36">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AJ30" s="10" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM30">
-        <v>370</v>
+        <v>1236</v>
+      </c>
+      <c r="AL30">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:47" x14ac:dyDescent="0.25">
@@ -6691,25 +7059,22 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s">
-        <v>390</v>
+        <v>565</v>
       </c>
       <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AL31">
         <v>3</v>
-      </c>
-      <c r="AI31" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="AJ31" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>480</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:47" x14ac:dyDescent="0.25">
@@ -6773,28 +7138,25 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="AG32" t="s">
-        <v>391</v>
+        <v>566</v>
       </c>
       <c r="AH32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="AJ32" s="10" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="s">
-        <v>505</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
+        <v>1238</v>
+      </c>
+      <c r="AL32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>-33</v>
       </c>
@@ -6864,28 +7226,25 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="AG33" t="s">
-        <v>392</v>
+        <v>568</v>
       </c>
       <c r="AH33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="36">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AJ33" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="51" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AL33" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>-34</v>
       </c>
@@ -6952,31 +7311,25 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s">
-        <v>393</v>
+        <v>569</v>
       </c>
       <c r="AH34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="AJ34" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>537</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>548</v>
-      </c>
-      <c r="AM34">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="51" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AL34" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>-35</v>
       </c>
@@ -7043,31 +7396,25 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="AG35" t="s">
-        <v>394</v>
+        <v>570</v>
       </c>
       <c r="AH35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="36">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="AJ35" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AM35">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="AL35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>-36</v>
       </c>
@@ -7134,31 +7481,25 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="AG36" t="s">
-        <v>395</v>
+        <v>571</v>
       </c>
       <c r="AH36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="36">
-        <v>1.8E-3</v>
-      </c>
-      <c r="AJ36" s="10" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="s">
-        <v>543</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM36">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+      <c r="AL36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>-37</v>
       </c>
@@ -7222,31 +7563,25 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="AG37" t="s">
-        <v>396</v>
+        <v>576</v>
       </c>
       <c r="AH37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="AJ37" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>804</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AM37">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="51" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AL37" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>-38</v>
       </c>
@@ -7310,31 +7645,25 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="AG38" t="s">
-        <v>397</v>
+        <v>1151</v>
       </c>
       <c r="AH38">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="AJ38" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AM38">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AL38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>-39</v>
       </c>
@@ -7398,31 +7727,25 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="AG39" t="s">
-        <v>398</v>
+        <v>1154</v>
       </c>
       <c r="AH39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>485</v>
-      </c>
-      <c r="AM39">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="AL39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>-40</v>
       </c>
@@ -7486,31 +7809,25 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s">
-        <v>399</v>
+        <v>1159</v>
       </c>
       <c r="AH40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="AJ40" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM40">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="AL40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>-41</v>
       </c>
@@ -7571,31 +7888,25 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="AG41" t="s">
-        <v>400</v>
+        <v>1162</v>
       </c>
       <c r="AH41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="36">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="AJ41" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AM41">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="AL41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>-42</v>
       </c>
@@ -7656,31 +7967,25 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s">
-        <v>401</v>
+        <v>1165</v>
       </c>
       <c r="AH42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="AJ42" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>515</v>
-      </c>
-      <c r="AM42">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="51" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AL42" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>-43</v>
       </c>
@@ -7744,31 +8049,25 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="AG43" t="s">
-        <v>402</v>
+        <v>1181</v>
       </c>
       <c r="AH43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="AJ43" s="10" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AM43">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+      <c r="AL43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>-44</v>
       </c>
@@ -7829,31 +8128,25 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="AG44" t="s">
-        <v>403</v>
+        <v>1177</v>
       </c>
       <c r="AH44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="AJ44" s="10" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AM44">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+      <c r="AL44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>-45</v>
       </c>
@@ -7911,31 +8204,25 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="AG45" t="s">
-        <v>15</v>
+        <v>1180</v>
       </c>
       <c r="AH45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="AJ45" s="10" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>550</v>
-      </c>
-      <c r="AM45">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+      <c r="AL45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>-46</v>
       </c>
@@ -7990,31 +8277,25 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="AG46" t="s">
-        <v>16</v>
+        <v>1183</v>
       </c>
       <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AL46">
         <v>3</v>
       </c>
-      <c r="AI46" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="AJ46" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM46">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>-47</v>
       </c>
@@ -8069,31 +8350,25 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="AG47" t="s">
-        <v>404</v>
+        <v>1201</v>
       </c>
       <c r="AH47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="AJ47" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>509</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>406</v>
-      </c>
-      <c r="AM47">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="AL47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>-48</v>
       </c>
@@ -8148,31 +8423,25 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="AG48" t="s">
-        <v>405</v>
+        <v>1227</v>
       </c>
       <c r="AH48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="36">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>1168</v>
-      </c>
-      <c r="AM48">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="2:41" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+      <c r="AL48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>-49</v>
       </c>
@@ -8224,37 +8493,25 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AG49" t="s">
-        <v>406</v>
+        <v>1228</v>
       </c>
       <c r="AH49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="AJ49" s="10" t="s">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="s">
-        <v>547</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>488</v>
-      </c>
-      <c r="AM49">
-        <v>386</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="50" spans="2:41" x14ac:dyDescent="0.25">
+        <v>1248</v>
+      </c>
+      <c r="AL49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>-50</v>
       </c>
@@ -8309,19 +8566,25 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="AG50" t="s">
-        <v>407</v>
+        <v>1231</v>
       </c>
       <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AL50">
         <v>3</v>
       </c>
-      <c r="AI50" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>-51</v>
       </c>
@@ -8373,19 +8636,25 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="AG51" t="s">
-        <v>408</v>
+        <v>1232</v>
       </c>
       <c r="AH51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:41" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="51" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AL51" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>-52</v>
       </c>
@@ -8437,19 +8706,25 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="AG52" t="s">
-        <v>409</v>
+        <v>1233</v>
       </c>
       <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="51" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AL52" s="51">
         <v>2</v>
       </c>
-      <c r="AI52" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>-53</v>
       </c>
@@ -8501,19 +8776,25 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="AG53" t="s">
-        <v>410</v>
+        <v>1234</v>
       </c>
       <c r="AH53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="36">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:41" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="AL53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>-54</v>
       </c>
@@ -8589,19 +8870,25 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="AG54" t="s">
-        <v>411</v>
+        <v>1198</v>
       </c>
       <c r="AH54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="36">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:41" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="AL54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>-55</v>
       </c>
@@ -8677,19 +8964,25 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="AG55" t="s">
-        <v>11</v>
+        <v>1199</v>
       </c>
       <c r="AH55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:41" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="AL55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>-56</v>
       </c>
@@ -8765,19 +9058,25 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AG56" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI56" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:41" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK56" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="AL56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>-57</v>
       </c>
@@ -8856,19 +9155,25 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="AG57" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="AH57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:41" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK57" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="AL57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>-58</v>
       </c>
@@ -8944,19 +9249,25 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="AG58" t="s">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="AH58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:41" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK58" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="AL58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>-59</v>
       </c>
@@ -9032,19 +9343,25 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="AG59" t="s">
-        <v>414</v>
+        <v>99</v>
       </c>
       <c r="AH59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:41" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK59" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="AL59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>-60</v>
       </c>
@@ -9123,19 +9440,25 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="AG60" t="s">
-        <v>415</v>
+        <v>43</v>
       </c>
       <c r="AH60">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="36">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:41" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AL60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>-61</v>
       </c>
@@ -9211,19 +9534,25 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="AG61" t="s">
-        <v>416</v>
+        <v>44</v>
       </c>
       <c r="AH61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:41" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK61" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="AL61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>-62</v>
       </c>
@@ -9299,19 +9628,25 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="AG62" t="s">
-        <v>417</v>
+        <v>487</v>
       </c>
       <c r="AH62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:41" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK62" s="51" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AL62" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>-63</v>
       </c>
@@ -9387,19 +9722,25 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="AG63" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="AH63">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="36">
-        <v>9.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:41" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>-64</v>
       </c>
@@ -9475,19 +9816,25 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="AG64" t="s">
-        <v>419</v>
+        <v>37</v>
       </c>
       <c r="AH64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI64" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AL64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>-65</v>
       </c>
@@ -9563,19 +9910,25 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="AG65" t="s">
-        <v>420</v>
+        <v>516</v>
       </c>
       <c r="AH65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI65" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AL65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>-66</v>
       </c>
@@ -9651,19 +10004,25 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="AG66" t="s">
-        <v>421</v>
+        <v>68</v>
       </c>
       <c r="AH66">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI66" s="36">
-        <v>8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="AL66" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>-67</v>
       </c>
@@ -9739,19 +10098,25 @@
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="AG67" t="s">
-        <v>422</v>
+        <v>92</v>
       </c>
       <c r="AH67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI67" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AL67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>-68</v>
       </c>
@@ -9827,19 +10192,25 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="AG68" t="s">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="AH68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK68" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="AL68" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>-69</v>
       </c>
@@ -9915,19 +10286,25 @@
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AG69" t="s">
-        <v>424</v>
+        <v>96</v>
       </c>
       <c r="AH69">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI69" s="36">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK69" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="AL69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>-70</v>
       </c>
@@ -10003,19 +10380,25 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="AG70" t="s">
-        <v>47</v>
+        <v>534</v>
       </c>
       <c r="AH70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI70" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK70" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="AL70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>-71</v>
       </c>
@@ -10091,19 +10474,25 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="AG71" t="s">
-        <v>48</v>
+        <v>536</v>
       </c>
       <c r="AH71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI71" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>-72</v>
       </c>
@@ -10179,19 +10568,25 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="AG72" t="s">
-        <v>49</v>
+        <v>537</v>
       </c>
       <c r="AH72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI72" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK72" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AL72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>-73</v>
       </c>
@@ -10267,19 +10662,25 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="AG73" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="AH73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI73" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>894</v>
+      </c>
+      <c r="AL73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>-74</v>
       </c>
@@ -10355,19 +10756,25 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="AG74" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="AH74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI74" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AL74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>-75</v>
       </c>
@@ -10450,19 +10857,25 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="AG75" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="AH75">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI75" s="36">
-        <v>8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AL75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>-76</v>
       </c>
@@ -10514,19 +10927,25 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="AG76" t="s">
-        <v>426</v>
+        <v>554</v>
       </c>
       <c r="AH76">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AI76" s="36">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AL76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>-77</v>
       </c>
@@ -10578,10 +10997,10 @@
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s">
-        <v>17</v>
+        <v>555</v>
       </c>
       <c r="AH77">
         <v>1</v>
@@ -10589,8 +11008,14 @@
       <c r="AI77" s="36">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AK77" s="51" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AL77" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>-78</v>
       </c>
@@ -10642,19 +11067,25 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="AG78" t="s">
-        <v>18</v>
+        <v>805</v>
       </c>
       <c r="AH78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI78" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="AL78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>-79</v>
       </c>
@@ -10706,19 +11137,25 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="AG79" t="s">
-        <v>19</v>
+        <v>806</v>
       </c>
       <c r="AH79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI79" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AL79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>-80</v>
       </c>
@@ -10770,19 +11207,25 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="AG80" t="s">
-        <v>427</v>
+        <v>1146</v>
       </c>
       <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="36">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AL80">
         <v>6</v>
       </c>
-      <c r="AI80" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>-81</v>
       </c>
@@ -10834,19 +11277,25 @@
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="AG81" t="s">
-        <v>428</v>
+        <v>1149</v>
       </c>
       <c r="AH81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI81" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK81" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="AL81" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>-82</v>
       </c>
@@ -10898,19 +11347,25 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="AG82" t="s">
-        <v>429</v>
+        <v>1155</v>
       </c>
       <c r="AH82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI82" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK82" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="AL82" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>-83</v>
       </c>
@@ -10962,19 +11417,25 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="AG83" t="s">
-        <v>430</v>
+        <v>1157</v>
       </c>
       <c r="AH83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI83" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK83" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="AL83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>-84</v>
       </c>
@@ -11026,19 +11487,25 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="AG84" t="s">
-        <v>431</v>
+        <v>1161</v>
       </c>
       <c r="AH84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI84" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK84" s="10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AL84" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>-85</v>
       </c>
@@ -11093,19 +11560,25 @@
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="AG85" t="s">
-        <v>432</v>
+        <v>1163</v>
       </c>
       <c r="AH85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI85" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AL85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>-86</v>
       </c>
@@ -11157,19 +11630,25 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="AG86" t="s">
-        <v>433</v>
+        <v>1164</v>
       </c>
       <c r="AH86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI86" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AL86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>-87</v>
       </c>
@@ -11221,19 +11700,25 @@
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="AG87" t="s">
-        <v>434</v>
+        <v>1166</v>
       </c>
       <c r="AH87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI87" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK87" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="AL87" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>-88</v>
       </c>
@@ -11285,19 +11770,25 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="AG88" t="s">
-        <v>435</v>
+        <v>1168</v>
       </c>
       <c r="AH88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI88" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AL88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>-89</v>
       </c>
@@ -11349,19 +11840,25 @@
         <v>0</v>
       </c>
       <c r="AF89">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="AG89" t="s">
-        <v>436</v>
+        <v>1169</v>
       </c>
       <c r="AH89">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AI89" s="36">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AL89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>-90</v>
       </c>
@@ -11413,19 +11910,25 @@
         <v>0</v>
       </c>
       <c r="AF90">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="AG90" t="s">
-        <v>437</v>
+        <v>1182</v>
       </c>
       <c r="AH90">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI90" s="36">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK90" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AL90" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>-91</v>
       </c>
@@ -11477,19 +11980,25 @@
         <v>0</v>
       </c>
       <c r="AF91">
-        <v>62</v>
+        <v>272</v>
       </c>
       <c r="AG91" t="s">
-        <v>438</v>
+        <v>1185</v>
       </c>
       <c r="AH91">
+        <v>1</v>
+      </c>
+      <c r="AI91" s="36">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AL91">
         <v>2</v>
       </c>
-      <c r="AI91" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>-92</v>
       </c>
@@ -11541,19 +12050,25 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>63</v>
+        <v>274</v>
       </c>
       <c r="AG92" t="s">
-        <v>439</v>
+        <v>1187</v>
       </c>
       <c r="AH92">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI92" s="36">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK92" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="AL92" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>-93</v>
       </c>
@@ -11605,19 +12120,25 @@
         <v>0</v>
       </c>
       <c r="AF93">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="AG93" t="s">
-        <v>440</v>
+        <v>1188</v>
       </c>
       <c r="AH93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI93" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK93" s="51" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AL93" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>-94</v>
       </c>
@@ -11669,19 +12190,25 @@
         <v>0</v>
       </c>
       <c r="AF94">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="AG94" t="s">
-        <v>441</v>
+        <v>1190</v>
       </c>
       <c r="AH94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI94" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK94" s="51" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AL94" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>-95</v>
       </c>
@@ -11733,19 +12260,25 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="AG95" t="s">
-        <v>442</v>
+        <v>1204</v>
       </c>
       <c r="AH95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI95" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK95" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="AL95" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>-96</v>
       </c>
@@ -11797,19 +12330,25 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="AG96" t="s">
-        <v>443</v>
+        <v>1229</v>
       </c>
       <c r="AH96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI96" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK96" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="AL96" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>-97</v>
       </c>
@@ -11861,10 +12400,10 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="AG97" t="s">
-        <v>444</v>
+        <v>1230</v>
       </c>
       <c r="AH97">
         <v>1</v>
@@ -11872,8 +12411,14 @@
       <c r="AI97" s="36">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="98" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AK97" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AL97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>-98</v>
       </c>
@@ -11925,19 +12470,25 @@
         <v>0</v>
       </c>
       <c r="AF98">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="AG98" t="s">
-        <v>445</v>
+        <v>1220</v>
       </c>
       <c r="AH98">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI98" s="36">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK98" s="51" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AL98" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>-99</v>
       </c>
@@ -11989,19 +12540,25 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="AG99" t="s">
-        <v>446</v>
+        <v>1221</v>
       </c>
       <c r="AH99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI99" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK99" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="AL99" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>-100</v>
       </c>
@@ -12053,19 +12610,25 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="AG100" t="s">
-        <v>447</v>
+        <v>1226</v>
       </c>
       <c r="AH100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI100" s="36">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:35" x14ac:dyDescent="0.25">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AL100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>-101</v>
       </c>
@@ -12117,19 +12680,25 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="AG101" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="AH101">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI101" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AL101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>-102</v>
       </c>
@@ -12181,10 +12750,10 @@
         <v>0</v>
       </c>
       <c r="AF102">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="AG102" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="AH102">
         <v>2</v>
@@ -12192,8 +12761,14 @@
       <c r="AI102" s="36">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="103" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AK102" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AL102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>-103</v>
       </c>
@@ -12248,19 +12823,25 @@
         <v>0</v>
       </c>
       <c r="AF103">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="AG103" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="AH103">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AI103" s="36">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AL103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>-104</v>
       </c>
@@ -12312,10 +12893,10 @@
         <v>0</v>
       </c>
       <c r="AF104">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AG104" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="AH104">
         <v>2</v>
@@ -12323,8 +12904,14 @@
       <c r="AI104" s="36">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="105" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AK104" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="AL104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>-105</v>
       </c>
@@ -12376,10 +12963,10 @@
         <v>0</v>
       </c>
       <c r="AF105">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="AG105" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="AH105">
         <v>2</v>
@@ -12387,8 +12974,14 @@
       <c r="AI105" s="36">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="106" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AK105" s="51" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AL105" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>-106</v>
       </c>
@@ -12440,19 +13033,25 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AG106" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="AH106">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI106" s="36">
-        <v>8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AL106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>-107</v>
       </c>
@@ -12504,10 +13103,10 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AG107" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="AH107">
         <v>2</v>
@@ -12515,8 +13114,14 @@
       <c r="AI107" s="36">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="108" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AK107" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="AL107" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>-108</v>
       </c>
@@ -12568,19 +13173,25 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="AG108" t="s">
-        <v>455</v>
+        <v>47</v>
       </c>
       <c r="AH108">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AI108" s="36">
-        <v>9.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK108" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="AL108" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>-109</v>
       </c>
@@ -12632,19 +13243,25 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AG109" t="s">
-        <v>456</v>
+        <v>577</v>
       </c>
       <c r="AH109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI109" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AL109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>-110</v>
       </c>
@@ -12696,19 +13313,25 @@
         <v>0</v>
       </c>
       <c r="AF110">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AG110" t="s">
-        <v>457</v>
+        <v>578</v>
       </c>
       <c r="AH110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI110" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK110" s="51" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AL110" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>-111</v>
       </c>
@@ -12760,19 +13383,25 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AG111" t="s">
-        <v>458</v>
+        <v>18</v>
       </c>
       <c r="AH111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI111" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AL111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>-112</v>
       </c>
@@ -12824,19 +13453,25 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="AG112" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="AH112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI112" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK112" s="51" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AL112" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>-113</v>
       </c>
@@ -12888,19 +13523,25 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="AG113" t="s">
-        <v>1101</v>
+        <v>438</v>
       </c>
       <c r="AH113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI113" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK113" s="51" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AL113" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>-114</v>
       </c>
@@ -12952,19 +13593,25 @@
         <v>0</v>
       </c>
       <c r="AF114">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="AG114" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="AH114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI114" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK114" s="51" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AL114" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>-115</v>
       </c>
@@ -13016,19 +13663,25 @@
         <v>0</v>
       </c>
       <c r="AF115">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AG115" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="AH115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI115" s="36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>799</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>-116</v>
       </c>
@@ -13080,19 +13733,25 @@
         <v>0</v>
       </c>
       <c r="AF116">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AG116" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="AH116">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI116" s="36">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK116" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="AL116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>-117</v>
       </c>
@@ -13144,19 +13803,25 @@
         <v>0</v>
       </c>
       <c r="AF117">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AG117" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="AH117">
+        <v>2</v>
+      </c>
+      <c r="AI117" s="36">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AL117">
         <v>5</v>
       </c>
-      <c r="AI117" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>-118</v>
       </c>
@@ -13208,19 +13873,25 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AG118" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="AH118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI118" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AL118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>-119</v>
       </c>
@@ -13272,19 +13943,25 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG119" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="AH119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI119" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>901</v>
+      </c>
+      <c r="AL119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>-120</v>
       </c>
@@ -13336,19 +14013,25 @@
         <v>0</v>
       </c>
       <c r="AF120">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AG120" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AH120">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI120" s="36">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AL120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>-121</v>
       </c>
@@ -13400,19 +14083,25 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AG121" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AH121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI121" s="36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AL121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>-122</v>
       </c>
@@ -13464,19 +14153,25 @@
         <v>0</v>
       </c>
       <c r="AF122">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AG122" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AH122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI122" s="36">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:35" x14ac:dyDescent="0.25">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AK122" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="AL122" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>-123</v>
       </c>
@@ -13528,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="AG123" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AH123">
         <v>2</v>
@@ -13539,8 +14234,14 @@
       <c r="AI123" s="36">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="124" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AK123" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AL123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>-124</v>
       </c>
@@ -13592,19 +14293,25 @@
         <v>0</v>
       </c>
       <c r="AF124">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="AG124" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="AH124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI124" s="36">
-        <v>2.7000000000000001E-3</v>
- 